--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6203,7 +6203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF291"/>
+  <dimension ref="A1:AN291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -19308,7 +19308,7 @@
         <v>772</v>
       </c>
       <c r="H198" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="I198" t="s">
         <v>769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="1938">
   <si>
     <t>nickName</t>
   </si>
@@ -2649,12 +2649,6 @@
     <t>[71899217, 88503126]</t>
   </si>
   <si>
-    <t>[46124901, 234873632]</t>
-  </si>
-  <si>
-    <t>[31670053, 79681807]</t>
-  </si>
-  <si>
     <t>[229855749, 34815634, 239058549]</t>
   </si>
   <si>
@@ -2727,12 +2721,6 @@
     <t>[83640709, 81859385]</t>
   </si>
   <si>
-    <t>[236715612]</t>
-  </si>
-  <si>
-    <t>[83179090]</t>
-  </si>
-  <si>
     <t>[237747090, 238107736, 237478611]</t>
   </si>
   <si>
@@ -2760,12 +2748,6 @@
     <t>[20965425]</t>
   </si>
   <si>
-    <t>[21709133]</t>
-  </si>
-  <si>
-    <t>[19047300]</t>
-  </si>
-  <si>
     <t>[23989840]</t>
   </si>
   <si>
@@ -2871,33 +2853,15 @@
     <t>[20398981]</t>
   </si>
   <si>
-    <t>[26994583, 23545921]</t>
-  </si>
-  <si>
-    <t>[22952858, 20410096]</t>
-  </si>
-  <si>
-    <t>[230981413]</t>
-  </si>
-  <si>
     <t>[4531393]</t>
   </si>
   <si>
-    <t>[94788731]</t>
-  </si>
-  <si>
     <t>[24372110]</t>
   </si>
   <si>
     <t>[21001130]</t>
   </si>
   <si>
-    <t>[24467412, 207649506]</t>
-  </si>
-  <si>
-    <t>[21071845, 52210396]</t>
-  </si>
-  <si>
     <t>[219694119]</t>
   </si>
   <si>
@@ -2982,12 +2946,6 @@
     <t>[20656837, 97717284]</t>
   </si>
   <si>
-    <t>[203134867]</t>
-  </si>
-  <si>
-    <t>[44476338]</t>
-  </si>
-  <si>
     <t>[202849816, 22687772]</t>
   </si>
   <si>
@@ -3456,12 +3414,6 @@
     <t>[50759303]</t>
   </si>
   <si>
-    <t>[226913554]</t>
-  </si>
-  <si>
-    <t>[64709188]</t>
-  </si>
-  <si>
     <t>[116038, 230957428, 32766]</t>
   </si>
   <si>
@@ -5830,12 +5782,72 @@
   </si>
   <si>
     <t>nagne</t>
+  </si>
+  <si>
+    <t>[226913554,32639237]</t>
+  </si>
+  <si>
+    <t>[64709188,19887289]</t>
+  </si>
+  <si>
+    <t>[21709133,231084181]</t>
+  </si>
+  <si>
+    <t>[19047300,95206795]</t>
+  </si>
+  <si>
+    <t>[203134867,227488670]</t>
+  </si>
+  <si>
+    <t>[44476338,86259309]</t>
+  </si>
+  <si>
+    <t>[94788731, 99647174]</t>
+  </si>
+  <si>
+    <t>[230981413, 99647174]</t>
+  </si>
+  <si>
+    <t>[26994583, 23545921, 238808762]</t>
+  </si>
+  <si>
+    <t>[22952858, 20410096, 105986875]</t>
+  </si>
+  <si>
+    <t>[21071845, 52210396, 52200067]</t>
+  </si>
+  <si>
+    <t>[24467412, 207649506, 207649166]</t>
+  </si>
+  <si>
+    <t>[239685867]</t>
+  </si>
+  <si>
+    <t>[88669167]</t>
+  </si>
+  <si>
+    <t>[243554303]</t>
+  </si>
+  <si>
+    <t>[31670053, 79681807, 87912976]</t>
+  </si>
+  <si>
+    <t>[46124901, 234873632, 239058444]</t>
+  </si>
+  <si>
+    <t>[236715612, 237846944]</t>
+  </si>
+  <si>
+    <t>[83179090, 85889107]</t>
+  </si>
+  <si>
+    <t>[243553955]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6202,14 +6214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AD65" sqref="AD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6370,7 +6382,7 @@
         <v>101001</v>
       </c>
       <c r="B2" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -6412,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="Q2" t="s">
         <v>791</v>
@@ -6438,7 +6450,7 @@
         <v>101002</v>
       </c>
       <c r="B3" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -6480,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="Q3" t="s">
         <v>791</v>
@@ -6506,7 +6518,7 @@
         <v>101003</v>
       </c>
       <c r="B4" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6548,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="Q4" t="s">
         <v>791</v>
@@ -6574,7 +6586,7 @@
         <v>101004</v>
       </c>
       <c r="B5" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -6616,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="Q5" t="s">
         <v>791</v>
@@ -6642,7 +6654,7 @@
         <v>101005</v>
       </c>
       <c r="B6" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -6684,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="Q6" t="s">
         <v>791</v>
@@ -6710,7 +6722,7 @@
         <v>102001</v>
       </c>
       <c r="B7" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -6752,10 +6764,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="Q7" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="R7" t="s">
         <v>806</v>
@@ -6778,7 +6790,7 @@
         <v>102002</v>
       </c>
       <c r="B8" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -6820,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="Q8" t="s">
         <v>791</v>
@@ -6846,7 +6858,7 @@
         <v>102003</v>
       </c>
       <c r="B9" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -6888,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="Q9" t="s">
         <v>791</v>
@@ -6914,7 +6926,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6953,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="Q10" t="s">
         <v>791</v>
@@ -6979,7 +6991,7 @@
         <v>102005</v>
       </c>
       <c r="B11" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -7021,10 +7033,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="Q11" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="R11" t="s">
         <v>815</v>
@@ -7047,7 +7059,7 @@
         <v>103001</v>
       </c>
       <c r="B12" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -7089,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="Q12" t="s">
         <v>791</v>
@@ -7115,7 +7127,7 @@
         <v>103002</v>
       </c>
       <c r="B13" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -7154,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="Q13" t="s">
         <v>791</v>
@@ -7180,7 +7192,7 @@
         <v>103003</v>
       </c>
       <c r="B14" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -7219,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="Q14" t="s">
         <v>791</v>
@@ -7245,7 +7257,7 @@
         <v>103004</v>
       </c>
       <c r="B15" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -7287,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="Q15" t="s">
         <v>791</v>
@@ -7313,7 +7325,7 @@
         <v>103005</v>
       </c>
       <c r="B16" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -7355,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="Q16" t="s">
         <v>791</v>
@@ -7381,7 +7393,7 @@
         <v>104001</v>
       </c>
       <c r="B17" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -7423,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
       <c r="Q17" t="s">
         <v>791</v>
@@ -7488,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="s">
         <v>791</v>
@@ -7514,7 +7526,7 @@
         <v>104003</v>
       </c>
       <c r="B19" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -7556,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="Q19" t="s">
         <v>791</v>
@@ -7582,7 +7594,7 @@
         <v>104004</v>
       </c>
       <c r="B20" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -7624,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="Q20" t="s">
         <v>791</v>
@@ -7650,7 +7662,7 @@
         <v>104005</v>
       </c>
       <c r="B21" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -7692,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="Q21" t="s">
         <v>791</v>
@@ -7718,7 +7730,7 @@
         <v>105001</v>
       </c>
       <c r="B22" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -7760,10 +7772,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="Q22" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="R22" t="s">
         <v>840</v>
@@ -7786,7 +7798,7 @@
         <v>105002</v>
       </c>
       <c r="B23" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -7825,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="Q23" t="s">
         <v>791</v>
@@ -7851,7 +7863,7 @@
         <v>105003</v>
       </c>
       <c r="B24" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -7890,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="Q24" t="s">
         <v>791</v>
@@ -7916,7 +7928,7 @@
         <v>105004</v>
       </c>
       <c r="B25" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -7958,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="Q25" t="s">
         <v>791</v>
@@ -7984,7 +7996,7 @@
         <v>105005</v>
       </c>
       <c r="B26" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -8023,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="Q26" t="s">
         <v>791</v>
@@ -8049,7 +8061,7 @@
         <v>106001</v>
       </c>
       <c r="B27" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -8082,10 +8094,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="Q27" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="R27" t="s">
         <v>849</v>
@@ -8150,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="Q28" t="s">
         <v>791</v>
@@ -8176,7 +8188,7 @@
         <v>106003</v>
       </c>
       <c r="B29" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -8215,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="Q29" t="s">
         <v>791</v>
@@ -8241,7 +8253,7 @@
         <v>106004</v>
       </c>
       <c r="B30" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8280,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="Q30" t="s">
         <v>791</v>
@@ -8306,7 +8318,7 @@
         <v>106005</v>
       </c>
       <c r="B31" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -8345,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="Q31" t="s">
         <v>791</v>
@@ -8371,7 +8383,7 @@
         <v>107001</v>
       </c>
       <c r="B32" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -8407,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="Q32" t="s">
         <v>791</v>
@@ -8433,7 +8445,7 @@
         <v>107002</v>
       </c>
       <c r="B33" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -8472,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="Q33" t="s">
         <v>791</v>
@@ -8498,7 +8510,7 @@
         <v>107003</v>
       </c>
       <c r="B34" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -8540,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="Q34" t="s">
         <v>791</v>
@@ -8566,7 +8578,7 @@
         <v>107004</v>
       </c>
       <c r="B35" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -8608,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="Q35" t="s">
         <v>791</v>
@@ -8634,7 +8646,7 @@
         <v>107005</v>
       </c>
       <c r="B36" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -8676,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="Q36" t="s">
         <v>791</v>
@@ -8702,7 +8714,7 @@
         <v>108001</v>
       </c>
       <c r="B37" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -8741,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="Q37" t="s">
         <v>791</v>
@@ -8767,7 +8779,7 @@
         <v>108002</v>
       </c>
       <c r="B38" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -8806,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="Q38" t="s">
         <v>791</v>
@@ -8832,7 +8844,7 @@
         <v>108003</v>
       </c>
       <c r="B39" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8868,10 +8880,10 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="Q39" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="R39" t="s">
         <v>870</v>
@@ -8894,7 +8906,7 @@
         <v>108004</v>
       </c>
       <c r="B40" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -8933,13 +8945,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="Q40" t="s">
         <v>791</v>
       </c>
       <c r="R40" t="s">
-        <v>873</v>
+        <v>1934</v>
       </c>
       <c r="S40" t="s">
         <v>791</v>
@@ -8948,7 +8960,7 @@
         <v>791</v>
       </c>
       <c r="AD40" t="s">
-        <v>874</v>
+        <v>1933</v>
       </c>
       <c r="AE40" t="s">
         <v>791</v>
@@ -8959,7 +8971,7 @@
         <v>108005</v>
       </c>
       <c r="B41" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -8992,13 +9004,13 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="Q41" t="s">
         <v>791</v>
       </c>
       <c r="R41" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S41" t="s">
         <v>791</v>
@@ -9007,7 +9019,7 @@
         <v>791</v>
       </c>
       <c r="AD41" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AE41" t="s">
         <v>791</v>
@@ -9018,7 +9030,7 @@
         <v>108006</v>
       </c>
       <c r="B42" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -9054,13 +9066,13 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
       <c r="Q42" t="s">
         <v>791</v>
       </c>
       <c r="R42" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="S42" t="s">
         <v>791</v>
@@ -9069,7 +9081,7 @@
         <v>791</v>
       </c>
       <c r="AD42" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AE42" t="s">
         <v>791</v>
@@ -9080,7 +9092,7 @@
         <v>108007</v>
       </c>
       <c r="B43" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -9119,13 +9131,13 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="Q43" t="s">
         <v>791</v>
       </c>
       <c r="R43" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="S43" t="s">
         <v>791</v>
@@ -9134,7 +9146,7 @@
         <v>791</v>
       </c>
       <c r="AD43" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AE43" t="s">
         <v>791</v>
@@ -9145,7 +9157,7 @@
         <v>108008</v>
       </c>
       <c r="B44" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -9184,13 +9196,13 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="Q44" t="s">
         <v>791</v>
       </c>
       <c r="R44" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="S44" t="s">
         <v>791</v>
@@ -9199,7 +9211,7 @@
         <v>791</v>
       </c>
       <c r="AD44" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AE44" t="s">
         <v>791</v>
@@ -9210,7 +9222,7 @@
         <v>108009</v>
       </c>
       <c r="B45" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -9246,13 +9258,13 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="Q45" t="s">
         <v>791</v>
       </c>
       <c r="R45" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="S45" t="s">
         <v>791</v>
@@ -9261,7 +9273,7 @@
         <v>791</v>
       </c>
       <c r="AD45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AE45" t="s">
         <v>791</v>
@@ -9272,7 +9284,7 @@
         <v>109001</v>
       </c>
       <c r="B46" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -9314,13 +9326,13 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="Q46" t="s">
         <v>791</v>
       </c>
       <c r="R46" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="S46" t="s">
         <v>791</v>
@@ -9329,7 +9341,7 @@
         <v>791</v>
       </c>
       <c r="AD46" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AE46" t="s">
         <v>791</v>
@@ -9340,7 +9352,7 @@
         <v>109002</v>
       </c>
       <c r="B47" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -9379,13 +9391,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="Q47" t="s">
         <v>791</v>
       </c>
       <c r="R47" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="S47" t="s">
         <v>791</v>
@@ -9394,7 +9406,7 @@
         <v>791</v>
       </c>
       <c r="AD47" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AE47" t="s">
         <v>791</v>
@@ -9405,7 +9417,7 @@
         <v>109003</v>
       </c>
       <c r="B48" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -9447,22 +9459,22 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="Q48" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="R48" t="s">
-        <v>791</v>
+        <v>1930</v>
       </c>
       <c r="S48" t="s">
         <v>791</v>
       </c>
       <c r="AC48" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AD48" t="s">
-        <v>791</v>
+        <v>1931</v>
       </c>
       <c r="AE48" t="s">
         <v>791</v>
@@ -9473,7 +9485,7 @@
         <v>109004</v>
       </c>
       <c r="B49" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -9515,22 +9527,22 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="Q49" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="R49" t="s">
+        <v>888</v>
+      </c>
+      <c r="S49" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD49" t="s">
         <v>890</v>
-      </c>
-      <c r="S49" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>891</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>892</v>
       </c>
       <c r="AE49" t="s">
         <v>791</v>
@@ -9541,7 +9553,7 @@
         <v>109005</v>
       </c>
       <c r="B50" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -9580,13 +9592,13 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="Q50" t="s">
         <v>791</v>
       </c>
       <c r="R50" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="S50" t="s">
         <v>791</v>
@@ -9595,7 +9607,7 @@
         <v>791</v>
       </c>
       <c r="AD50" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AE50" t="s">
         <v>791</v>
@@ -9645,13 +9657,13 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="Q51" t="s">
         <v>791</v>
       </c>
       <c r="R51" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="S51" t="s">
         <v>791</v>
@@ -9660,7 +9672,7 @@
         <v>791</v>
       </c>
       <c r="AD51" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AE51" t="s">
         <v>791</v>
@@ -9671,7 +9683,7 @@
         <v>110002</v>
       </c>
       <c r="B52" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -9710,13 +9722,13 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="Q52" t="s">
         <v>791</v>
       </c>
       <c r="R52" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="S52" t="s">
         <v>791</v>
@@ -9725,7 +9737,7 @@
         <v>791</v>
       </c>
       <c r="AD52" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AE52" t="s">
         <v>791</v>
@@ -9736,7 +9748,7 @@
         <v>110003</v>
       </c>
       <c r="B53" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -9778,13 +9790,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="Q53" t="s">
         <v>791</v>
       </c>
       <c r="R53" t="s">
-        <v>899</v>
+        <v>1935</v>
       </c>
       <c r="S53" t="s">
         <v>791</v>
@@ -9793,7 +9805,7 @@
         <v>791</v>
       </c>
       <c r="AD53" t="s">
-        <v>900</v>
+        <v>1936</v>
       </c>
       <c r="AE53" t="s">
         <v>791</v>
@@ -9804,7 +9816,7 @@
         <v>110004</v>
       </c>
       <c r="B54" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -9846,22 +9858,22 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="Q54" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="R54" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="S54" t="s">
         <v>791</v>
       </c>
       <c r="AC54" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="AD54" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="AE54" t="s">
         <v>791</v>
@@ -9872,7 +9884,7 @@
         <v>110005</v>
       </c>
       <c r="B55" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -9914,13 +9926,13 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="Q55" t="s">
         <v>791</v>
       </c>
       <c r="R55" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="S55" t="s">
         <v>791</v>
@@ -9929,7 +9941,7 @@
         <v>791</v>
       </c>
       <c r="AD55" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="AE55" t="s">
         <v>791</v>
@@ -9940,7 +9952,7 @@
         <v>201001</v>
       </c>
       <c r="B56" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -9982,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="Q56" t="s">
         <v>791</v>
@@ -9991,7 +10003,7 @@
         <v>791</v>
       </c>
       <c r="S56" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="AC56" t="s">
         <v>791</v>
@@ -10000,7 +10012,7 @@
         <v>791</v>
       </c>
       <c r="AE56" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -10008,7 +10020,7 @@
         <v>201002</v>
       </c>
       <c r="B57" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -10050,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="Q57" t="s">
         <v>791</v>
@@ -10059,7 +10071,7 @@
         <v>791</v>
       </c>
       <c r="S57" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="AC57" t="s">
         <v>791</v>
@@ -10068,7 +10080,7 @@
         <v>791</v>
       </c>
       <c r="AE57" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -10076,7 +10088,7 @@
         <v>201003</v>
       </c>
       <c r="B58" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -10118,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="Q58" t="s">
         <v>791</v>
@@ -10127,7 +10139,7 @@
         <v>791</v>
       </c>
       <c r="S58" t="s">
-        <v>910</v>
+        <v>1920</v>
       </c>
       <c r="AC58" t="s">
         <v>791</v>
@@ -10136,7 +10148,7 @@
         <v>791</v>
       </c>
       <c r="AE58" t="s">
-        <v>911</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -10144,7 +10156,7 @@
         <v>201004</v>
       </c>
       <c r="B59" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -10186,25 +10198,25 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="Q59" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="R59" t="s">
         <v>791</v>
       </c>
       <c r="S59" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="AC59" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="AD59" t="s">
         <v>791</v>
       </c>
       <c r="AE59" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -10212,7 +10224,7 @@
         <v>201005</v>
       </c>
       <c r="B60" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -10254,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
       <c r="Q60" t="s">
         <v>791</v>
@@ -10263,7 +10275,7 @@
         <v>791</v>
       </c>
       <c r="S60" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AC60" t="s">
         <v>791</v>
@@ -10272,7 +10284,7 @@
         <v>791</v>
       </c>
       <c r="AE60" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -10280,7 +10292,7 @@
         <v>202001</v>
       </c>
       <c r="B61" t="s">
-        <v>1719</v>
+        <v>1703</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -10313,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
       <c r="Q61" t="s">
         <v>791</v>
@@ -10322,7 +10334,7 @@
         <v>791</v>
       </c>
       <c r="S61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AC61" t="s">
         <v>791</v>
@@ -10331,7 +10343,7 @@
         <v>791</v>
       </c>
       <c r="AE61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
@@ -10339,7 +10351,7 @@
         <v>202002</v>
       </c>
       <c r="B62" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -10381,25 +10393,25 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="Q62" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="R62" t="s">
         <v>791</v>
       </c>
       <c r="S62" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="AC62" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AD62" t="s">
         <v>791</v>
       </c>
       <c r="AE62" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -10407,7 +10419,7 @@
         <v>202003</v>
       </c>
       <c r="B63" t="s">
-        <v>1721</v>
+        <v>1705</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -10449,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
       <c r="Q63" t="s">
         <v>791</v>
@@ -10458,7 +10470,7 @@
         <v>791</v>
       </c>
       <c r="S63" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AC63" t="s">
         <v>791</v>
@@ -10467,7 +10479,7 @@
         <v>791</v>
       </c>
       <c r="AE63" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -10475,7 +10487,7 @@
         <v>202004</v>
       </c>
       <c r="B64" t="s">
-        <v>1722</v>
+        <v>1706</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -10517,25 +10529,25 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="Q64" t="s">
         <v>791</v>
       </c>
       <c r="R64" t="s">
-        <v>791</v>
+        <v>1932</v>
       </c>
       <c r="S64" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AC64" t="s">
         <v>791</v>
       </c>
       <c r="AD64" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AE64" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
@@ -10585,25 +10597,25 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="Q65" t="s">
         <v>791</v>
       </c>
       <c r="R65" t="s">
-        <v>791</v>
+        <v>1937</v>
       </c>
       <c r="S65" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AC65" t="s">
         <v>791</v>
       </c>
       <c r="AD65" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AE65" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
@@ -10611,7 +10623,7 @@
         <v>203001</v>
       </c>
       <c r="B66" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
@@ -10650,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="Q66" t="s">
         <v>791</v>
@@ -10659,7 +10671,7 @@
         <v>791</v>
       </c>
       <c r="S66" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AC66" t="s">
         <v>791</v>
@@ -10668,7 +10680,7 @@
         <v>791</v>
       </c>
       <c r="AE66" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
@@ -10676,7 +10688,7 @@
         <v>203002</v>
       </c>
       <c r="B67" t="s">
-        <v>1724</v>
+        <v>1708</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -10718,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="Q67" t="s">
         <v>791</v>
@@ -10727,7 +10739,7 @@
         <v>791</v>
       </c>
       <c r="S67" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="AC67" t="s">
         <v>791</v>
@@ -10736,7 +10748,7 @@
         <v>791</v>
       </c>
       <c r="AE67" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -10744,7 +10756,7 @@
         <v>203003</v>
       </c>
       <c r="B68" t="s">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -10786,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="Q68" t="s">
         <v>791</v>
@@ -10795,7 +10807,7 @@
         <v>791</v>
       </c>
       <c r="S68" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AC68" t="s">
         <v>791</v>
@@ -10804,7 +10816,7 @@
         <v>791</v>
       </c>
       <c r="AE68" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
@@ -10812,7 +10824,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1726</v>
+        <v>1710</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10854,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="Q69" t="s">
         <v>791</v>
@@ -10863,7 +10875,7 @@
         <v>791</v>
       </c>
       <c r="S69" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AC69" t="s">
         <v>791</v>
@@ -10872,7 +10884,7 @@
         <v>791</v>
       </c>
       <c r="AE69" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
@@ -10880,7 +10892,7 @@
         <v>203005</v>
       </c>
       <c r="B70" t="s">
-        <v>1727</v>
+        <v>1711</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
@@ -10922,25 +10934,25 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="Q70" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="R70" t="s">
         <v>791</v>
       </c>
       <c r="S70" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="AC70" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="AD70" t="s">
         <v>791</v>
       </c>
       <c r="AE70" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
@@ -10948,7 +10960,7 @@
         <v>204001</v>
       </c>
       <c r="B71" t="s">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
@@ -10981,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="Q71" t="s">
         <v>791</v>
@@ -10990,7 +11002,7 @@
         <v>791</v>
       </c>
       <c r="S71" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AC71" t="s">
         <v>791</v>
@@ -10999,7 +11011,7 @@
         <v>791</v>
       </c>
       <c r="AE71" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -11007,7 +11019,7 @@
         <v>204002</v>
       </c>
       <c r="B72" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
@@ -11046,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="Q72" t="s">
         <v>791</v>
@@ -11055,7 +11067,7 @@
         <v>791</v>
       </c>
       <c r="S72" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="AC72" t="s">
         <v>791</v>
@@ -11064,7 +11076,7 @@
         <v>791</v>
       </c>
       <c r="AE72" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -11072,7 +11084,7 @@
         <v>204003</v>
       </c>
       <c r="B73" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
       <c r="C73" t="s">
         <v>77</v>
@@ -11114,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="Q73" t="s">
         <v>791</v>
@@ -11123,7 +11135,7 @@
         <v>791</v>
       </c>
       <c r="S73" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AC73" t="s">
         <v>791</v>
@@ -11132,7 +11144,7 @@
         <v>791</v>
       </c>
       <c r="AE73" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -11140,7 +11152,7 @@
         <v>204004</v>
       </c>
       <c r="B74" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
@@ -11179,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="Q74" t="s">
         <v>791</v>
@@ -11188,7 +11200,7 @@
         <v>791</v>
       </c>
       <c r="S74" t="s">
-        <v>947</v>
+        <v>1926</v>
       </c>
       <c r="AC74" t="s">
         <v>791</v>
@@ -11197,7 +11209,7 @@
         <v>791</v>
       </c>
       <c r="AE74" t="s">
-        <v>948</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -11205,7 +11217,7 @@
         <v>204005</v>
       </c>
       <c r="B75" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
@@ -11247,25 +11259,25 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="Q75" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="R75" t="s">
         <v>791</v>
       </c>
       <c r="S75" t="s">
-        <v>949</v>
+        <v>1925</v>
       </c>
       <c r="AC75" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="AD75" t="s">
         <v>791</v>
       </c>
       <c r="AE75" t="s">
-        <v>951</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -11273,7 +11285,7 @@
         <v>205001</v>
       </c>
       <c r="B76" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -11312,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="Q76" t="s">
         <v>791</v>
@@ -11321,7 +11333,7 @@
         <v>791</v>
       </c>
       <c r="S76" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="AC76" t="s">
         <v>791</v>
@@ -11330,7 +11342,7 @@
         <v>791</v>
       </c>
       <c r="AE76" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -11338,7 +11350,7 @@
         <v>205002</v>
       </c>
       <c r="B77" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -11380,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="Q77" t="s">
         <v>791</v>
@@ -11389,10 +11401,10 @@
         <v>791</v>
       </c>
       <c r="S77" t="s">
-        <v>954</v>
+        <v>1929</v>
       </c>
       <c r="T77" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="AC77" t="s">
         <v>791</v>
@@ -11401,10 +11413,10 @@
         <v>791</v>
       </c>
       <c r="AE77" t="s">
-        <v>955</v>
+        <v>1928</v>
       </c>
       <c r="AF77" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -11412,7 +11424,7 @@
         <v>205003</v>
       </c>
       <c r="B78" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
       <c r="C78" t="s">
         <v>82</v>
@@ -11454,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="Q78" t="s">
         <v>791</v>
@@ -11463,7 +11475,7 @@
         <v>791</v>
       </c>
       <c r="S78" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="AC78" t="s">
         <v>791</v>
@@ -11472,7 +11484,7 @@
         <v>791</v>
       </c>
       <c r="AE78" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -11480,7 +11492,7 @@
         <v>205004</v>
       </c>
       <c r="B79" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="C79" t="s">
         <v>83</v>
@@ -11516,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="Q79" t="s">
         <v>791</v>
@@ -11525,7 +11537,7 @@
         <v>791</v>
       </c>
       <c r="S79" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="AC79" t="s">
         <v>791</v>
@@ -11534,7 +11546,7 @@
         <v>791</v>
       </c>
       <c r="AE79" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -11542,7 +11554,7 @@
         <v>205005</v>
       </c>
       <c r="B80" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
@@ -11578,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="Q80" t="s">
         <v>791</v>
@@ -11587,7 +11599,7 @@
         <v>791</v>
       </c>
       <c r="S80" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AC80" t="s">
         <v>791</v>
@@ -11596,7 +11608,7 @@
         <v>791</v>
       </c>
       <c r="AE80" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -11604,7 +11616,7 @@
         <v>206001</v>
       </c>
       <c r="B81" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
@@ -11646,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="Q81" t="s">
         <v>791</v>
@@ -11655,7 +11667,7 @@
         <v>791</v>
       </c>
       <c r="S81" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="AC81" t="s">
         <v>791</v>
@@ -11664,7 +11676,7 @@
         <v>791</v>
       </c>
       <c r="AE81" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -11672,7 +11684,7 @@
         <v>206002</v>
       </c>
       <c r="B82" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
@@ -11714,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="Q82" t="s">
         <v>791</v>
@@ -11723,7 +11735,7 @@
         <v>791</v>
       </c>
       <c r="S82" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="AC82" t="s">
         <v>791</v>
@@ -11732,7 +11744,7 @@
         <v>791</v>
       </c>
       <c r="AE82" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -11740,7 +11752,7 @@
         <v>206003</v>
       </c>
       <c r="B83" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
@@ -11782,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="Q83" t="s">
         <v>791</v>
@@ -11791,7 +11803,7 @@
         <v>791</v>
       </c>
       <c r="S83" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="AC83" t="s">
         <v>791</v>
@@ -11800,7 +11812,7 @@
         <v>791</v>
       </c>
       <c r="AE83" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -11808,7 +11820,7 @@
         <v>206004</v>
       </c>
       <c r="B84" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
@@ -11847,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="Q84" t="s">
         <v>791</v>
@@ -11856,7 +11868,7 @@
         <v>791</v>
       </c>
       <c r="S84" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="AC84" t="s">
         <v>791</v>
@@ -11865,7 +11877,7 @@
         <v>791</v>
       </c>
       <c r="AE84" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -11873,7 +11885,7 @@
         <v>206005</v>
       </c>
       <c r="B85" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
@@ -11915,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="Q85" t="s">
         <v>791</v>
@@ -11924,7 +11936,7 @@
         <v>791</v>
       </c>
       <c r="S85" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="AC85" t="s">
         <v>791</v>
@@ -11933,7 +11945,7 @@
         <v>791</v>
       </c>
       <c r="AE85" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -11941,7 +11953,7 @@
         <v>207001</v>
       </c>
       <c r="B86" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
       <c r="C86" t="s">
         <v>90</v>
@@ -11983,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="Q86" t="s">
         <v>791</v>
@@ -11992,7 +12004,7 @@
         <v>791</v>
       </c>
       <c r="S86" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="AC86" t="s">
         <v>791</v>
@@ -12001,7 +12013,7 @@
         <v>791</v>
       </c>
       <c r="AE86" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -12009,7 +12021,7 @@
         <v>207002</v>
       </c>
       <c r="B87" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
@@ -12048,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="Q87" t="s">
         <v>791</v>
@@ -12057,7 +12069,7 @@
         <v>791</v>
       </c>
       <c r="S87" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="AC87" t="s">
         <v>791</v>
@@ -12066,7 +12078,7 @@
         <v>791</v>
       </c>
       <c r="AE87" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -12074,7 +12086,7 @@
         <v>207003</v>
       </c>
       <c r="B88" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
@@ -12116,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="Q88" t="s">
         <v>791</v>
@@ -12125,7 +12137,7 @@
         <v>791</v>
       </c>
       <c r="S88" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="AC88" t="s">
         <v>791</v>
@@ -12134,7 +12146,7 @@
         <v>791</v>
       </c>
       <c r="AE88" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -12142,7 +12154,7 @@
         <v>207004</v>
       </c>
       <c r="B89" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="C89" t="s">
         <v>93</v>
@@ -12184,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="Q89" t="s">
         <v>791</v>
@@ -12193,7 +12205,7 @@
         <v>791</v>
       </c>
       <c r="S89" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="AC89" t="s">
         <v>791</v>
@@ -12202,7 +12214,7 @@
         <v>791</v>
       </c>
       <c r="AE89" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -12210,7 +12222,7 @@
         <v>207005</v>
       </c>
       <c r="B90" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="C90" t="s">
         <v>94</v>
@@ -12249,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="Q90" t="s">
         <v>791</v>
@@ -12258,7 +12270,7 @@
         <v>791</v>
       </c>
       <c r="S90" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="AC90" t="s">
         <v>791</v>
@@ -12267,7 +12279,7 @@
         <v>791</v>
       </c>
       <c r="AE90" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -12275,7 +12287,7 @@
         <v>208001</v>
       </c>
       <c r="B91" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
@@ -12317,7 +12329,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
       <c r="Q91" t="s">
         <v>791</v>
@@ -12326,7 +12338,7 @@
         <v>791</v>
       </c>
       <c r="S91" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="AC91" t="s">
         <v>791</v>
@@ -12335,7 +12347,7 @@
         <v>791</v>
       </c>
       <c r="AE91" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -12343,7 +12355,7 @@
         <v>208002</v>
       </c>
       <c r="B92" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="C92" t="s">
         <v>96</v>
@@ -12385,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="Q92" t="s">
         <v>791</v>
@@ -12394,7 +12406,7 @@
         <v>791</v>
       </c>
       <c r="S92" t="s">
-        <v>984</v>
+        <v>1922</v>
       </c>
       <c r="AC92" t="s">
         <v>791</v>
@@ -12403,7 +12415,7 @@
         <v>791</v>
       </c>
       <c r="AE92" t="s">
-        <v>985</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -12411,7 +12423,7 @@
         <v>208003</v>
       </c>
       <c r="B93" t="s">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="C93" t="s">
         <v>97</v>
@@ -12450,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
       <c r="Q93" t="s">
         <v>791</v>
@@ -12459,7 +12471,7 @@
         <v>791</v>
       </c>
       <c r="S93" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="AC93" t="s">
         <v>791</v>
@@ -12468,7 +12480,7 @@
         <v>791</v>
       </c>
       <c r="AE93" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -12476,7 +12488,7 @@
         <v>208004</v>
       </c>
       <c r="B94" t="s">
-        <v>1751</v>
+        <v>1735</v>
       </c>
       <c r="C94" t="s">
         <v>98</v>
@@ -12518,7 +12530,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
       <c r="Q94" t="s">
         <v>791</v>
@@ -12527,7 +12539,7 @@
         <v>791</v>
       </c>
       <c r="S94" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="AC94" t="s">
         <v>791</v>
@@ -12536,7 +12548,7 @@
         <v>791</v>
       </c>
       <c r="AE94" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -12544,7 +12556,7 @@
         <v>208005</v>
       </c>
       <c r="B95" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="C95" t="s">
         <v>99</v>
@@ -12586,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="Q95" t="s">
         <v>791</v>
@@ -12595,7 +12607,7 @@
         <v>791</v>
       </c>
       <c r="S95" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="AC95" t="s">
         <v>791</v>
@@ -12604,7 +12616,7 @@
         <v>791</v>
       </c>
       <c r="AE95" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -12612,7 +12624,7 @@
         <v>209001</v>
       </c>
       <c r="B96" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
       <c r="C96" t="s">
         <v>100</v>
@@ -12654,7 +12666,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1304</v>
+        <v>1288</v>
       </c>
       <c r="Q96" t="s">
         <v>791</v>
@@ -12663,7 +12675,7 @@
         <v>791</v>
       </c>
       <c r="S96" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="AC96" t="s">
         <v>791</v>
@@ -12672,7 +12684,7 @@
         <v>791</v>
       </c>
       <c r="AE96" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -12680,7 +12692,7 @@
         <v>209002</v>
       </c>
       <c r="B97" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="C97" t="s">
         <v>101</v>
@@ -12719,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="Q97" t="s">
         <v>791</v>
@@ -12728,7 +12740,7 @@
         <v>791</v>
       </c>
       <c r="S97" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="AC97" t="s">
         <v>791</v>
@@ -12737,7 +12749,7 @@
         <v>791</v>
       </c>
       <c r="AE97" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -12745,7 +12757,7 @@
         <v>209003</v>
       </c>
       <c r="B98" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="C98" t="s">
         <v>102</v>
@@ -12784,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="Q98" t="s">
         <v>791</v>
@@ -12793,7 +12805,7 @@
         <v>791</v>
       </c>
       <c r="S98" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="AC98" t="s">
         <v>791</v>
@@ -12802,7 +12814,7 @@
         <v>791</v>
       </c>
       <c r="AE98" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -12810,7 +12822,7 @@
         <v>209004</v>
       </c>
       <c r="B99" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="C99" t="s">
         <v>103</v>
@@ -12849,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="Q99" t="s">
         <v>791</v>
@@ -12858,7 +12870,7 @@
         <v>791</v>
       </c>
       <c r="S99" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="AC99" t="s">
         <v>791</v>
@@ -12867,7 +12879,7 @@
         <v>791</v>
       </c>
       <c r="AE99" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -12875,7 +12887,7 @@
         <v>209005</v>
       </c>
       <c r="B100" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="C100" t="s">
         <v>104</v>
@@ -12914,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q100" t="s">
         <v>791</v>
@@ -12923,7 +12935,7 @@
         <v>791</v>
       </c>
       <c r="S100" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="AC100" t="s">
         <v>791</v>
@@ -12932,7 +12944,7 @@
         <v>791</v>
       </c>
       <c r="AE100" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -12940,7 +12952,7 @@
         <v>210001</v>
       </c>
       <c r="B101" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="C101" t="s">
         <v>105</v>
@@ -12979,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q101" t="s">
         <v>791</v>
@@ -12988,7 +13000,7 @@
         <v>791</v>
       </c>
       <c r="S101" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="AC101" t="s">
         <v>791</v>
@@ -12997,7 +13009,7 @@
         <v>791</v>
       </c>
       <c r="AE101" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -13005,7 +13017,7 @@
         <v>210002</v>
       </c>
       <c r="B102" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
@@ -13047,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
       <c r="Q102" t="s">
         <v>791</v>
@@ -13056,7 +13068,7 @@
         <v>791</v>
       </c>
       <c r="S102" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="AC102" t="s">
         <v>791</v>
@@ -13065,7 +13077,7 @@
         <v>791</v>
       </c>
       <c r="AE102" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -13073,7 +13085,7 @@
         <v>210003</v>
       </c>
       <c r="B103" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="C103" t="s">
         <v>107</v>
@@ -13112,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q103" t="s">
         <v>791</v>
@@ -13121,7 +13133,7 @@
         <v>791</v>
       </c>
       <c r="S103" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="AC103" t="s">
         <v>791</v>
@@ -13130,7 +13142,7 @@
         <v>791</v>
       </c>
       <c r="AE103" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -13138,7 +13150,7 @@
         <v>210004</v>
       </c>
       <c r="B104" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="C104" t="s">
         <v>108</v>
@@ -13177,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q104" t="s">
         <v>791</v>
@@ -13186,7 +13198,7 @@
         <v>791</v>
       </c>
       <c r="S104" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="AC104" t="s">
         <v>791</v>
@@ -13195,7 +13207,7 @@
         <v>791</v>
       </c>
       <c r="AE104" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -13203,7 +13215,7 @@
         <v>210005</v>
       </c>
       <c r="B105" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="C105" t="s">
         <v>109</v>
@@ -13242,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q105" t="s">
         <v>791</v>
@@ -13251,7 +13263,7 @@
         <v>791</v>
       </c>
       <c r="S105" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="AC105" t="s">
         <v>791</v>
@@ -13260,7 +13272,7 @@
         <v>791</v>
       </c>
       <c r="AE105" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -13268,7 +13280,7 @@
         <v>301001</v>
       </c>
       <c r="B106" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="C106" t="s">
         <v>110</v>
@@ -13307,10 +13319,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="Q106" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="R106" t="s">
         <v>791</v>
@@ -13319,7 +13331,7 @@
         <v>791</v>
       </c>
       <c r="AC106" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="AD106" t="s">
         <v>791</v>
@@ -13333,7 +13345,7 @@
         <v>301002</v>
       </c>
       <c r="B107" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="C107" t="s">
         <v>111</v>
@@ -13372,10 +13384,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="Q107" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="R107" t="s">
         <v>791</v>
@@ -13384,7 +13396,7 @@
         <v>791</v>
       </c>
       <c r="AC107" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="AD107" t="s">
         <v>791</v>
@@ -13398,7 +13410,7 @@
         <v>301003</v>
       </c>
       <c r="B108" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="C108" t="s">
         <v>112</v>
@@ -13440,10 +13452,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="Q108" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
       <c r="R108" t="s">
         <v>791</v>
@@ -13452,7 +13464,7 @@
         <v>791</v>
       </c>
       <c r="AC108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="AD108" t="s">
         <v>791</v>
@@ -13466,7 +13478,7 @@
         <v>301004</v>
       </c>
       <c r="B109" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="C109" t="s">
         <v>113</v>
@@ -13508,10 +13520,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="Q109" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="R109" t="s">
         <v>791</v>
@@ -13520,7 +13532,7 @@
         <v>791</v>
       </c>
       <c r="AC109" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="AD109" t="s">
         <v>791</v>
@@ -13534,7 +13546,7 @@
         <v>301005</v>
       </c>
       <c r="B110" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="C110" t="s">
         <v>114</v>
@@ -13576,10 +13588,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="Q110" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="R110" t="s">
         <v>791</v>
@@ -13588,7 +13600,7 @@
         <v>791</v>
       </c>
       <c r="AC110" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="AD110" t="s">
         <v>791</v>
@@ -13602,7 +13614,7 @@
         <v>302001</v>
       </c>
       <c r="B111" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
@@ -13644,10 +13656,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="Q111" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="R111" t="s">
         <v>791</v>
@@ -13656,7 +13668,7 @@
         <v>791</v>
       </c>
       <c r="AC111" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="AD111" t="s">
         <v>791</v>
@@ -13670,7 +13682,7 @@
         <v>302002</v>
       </c>
       <c r="B112" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
@@ -13712,10 +13724,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="Q112" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="R112" t="s">
         <v>791</v>
@@ -13724,7 +13736,7 @@
         <v>791</v>
       </c>
       <c r="AC112" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="AD112" t="s">
         <v>791</v>
@@ -13738,7 +13750,7 @@
         <v>302003</v>
       </c>
       <c r="B113" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="C113" t="s">
         <v>117</v>
@@ -13780,10 +13792,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="Q113" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="R113" t="s">
         <v>791</v>
@@ -13792,7 +13804,7 @@
         <v>791</v>
       </c>
       <c r="AC113" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="AD113" t="s">
         <v>791</v>
@@ -13806,7 +13818,7 @@
         <v>302004</v>
       </c>
       <c r="B114" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="C114" t="s">
         <v>118</v>
@@ -13848,10 +13860,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="Q114" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="R114" t="s">
         <v>791</v>
@@ -13860,7 +13872,7 @@
         <v>791</v>
       </c>
       <c r="AC114" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="AD114" t="s">
         <v>791</v>
@@ -13916,10 +13928,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="Q115" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="R115" t="s">
         <v>791</v>
@@ -13928,7 +13940,7 @@
         <v>791</v>
       </c>
       <c r="AC115" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="AD115" t="s">
         <v>791</v>
@@ -13942,7 +13954,7 @@
         <v>303001</v>
       </c>
       <c r="B116" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="C116" t="s">
         <v>120</v>
@@ -13984,10 +13996,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="Q116" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="R116" t="s">
         <v>791</v>
@@ -13996,7 +14008,7 @@
         <v>791</v>
       </c>
       <c r="AC116" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="AD116" t="s">
         <v>791</v>
@@ -14010,7 +14022,7 @@
         <v>303002</v>
       </c>
       <c r="B117" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
@@ -14052,10 +14064,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="Q117" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="R117" t="s">
         <v>791</v>
@@ -14064,7 +14076,7 @@
         <v>791</v>
       </c>
       <c r="AC117" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="AD117" t="s">
         <v>791</v>
@@ -14078,7 +14090,7 @@
         <v>303003</v>
       </c>
       <c r="B118" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
@@ -14120,10 +14132,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="Q118" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="R118" t="s">
         <v>791</v>
@@ -14132,7 +14144,7 @@
         <v>791</v>
       </c>
       <c r="AC118" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="AD118" t="s">
         <v>791</v>
@@ -14146,7 +14158,7 @@
         <v>303004</v>
       </c>
       <c r="B119" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="C119" t="s">
         <v>123</v>
@@ -14188,10 +14200,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="Q119" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="R119" t="s">
         <v>791</v>
@@ -14200,7 +14212,7 @@
         <v>791</v>
       </c>
       <c r="AC119" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="AD119" t="s">
         <v>791</v>
@@ -14214,7 +14226,7 @@
         <v>303005</v>
       </c>
       <c r="B120" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="C120" t="s">
         <v>124</v>
@@ -14256,10 +14268,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="Q120" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="R120" t="s">
         <v>791</v>
@@ -14268,7 +14280,7 @@
         <v>791</v>
       </c>
       <c r="AC120" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="AD120" t="s">
         <v>791</v>
@@ -14282,7 +14294,7 @@
         <v>304001</v>
       </c>
       <c r="B121" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="C121" t="s">
         <v>125</v>
@@ -14324,10 +14336,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="Q121" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="R121" t="s">
         <v>791</v>
@@ -14336,7 +14348,7 @@
         <v>791</v>
       </c>
       <c r="AC121" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="AD121" t="s">
         <v>791</v>
@@ -14350,7 +14362,7 @@
         <v>304002</v>
       </c>
       <c r="B122" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
@@ -14392,10 +14404,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="Q122" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="R122" t="s">
         <v>791</v>
@@ -14404,7 +14416,7 @@
         <v>791</v>
       </c>
       <c r="AC122" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="AD122" t="s">
         <v>791</v>
@@ -14418,7 +14430,7 @@
         <v>304003</v>
       </c>
       <c r="B123" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
@@ -14460,10 +14472,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="Q123" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="R123" t="s">
         <v>791</v>
@@ -14472,7 +14484,7 @@
         <v>791</v>
       </c>
       <c r="AC123" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="AD123" t="s">
         <v>791</v>
@@ -14486,7 +14498,7 @@
         <v>304004</v>
       </c>
       <c r="B124" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
@@ -14528,10 +14540,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="Q124" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="R124" t="s">
         <v>791</v>
@@ -14540,7 +14552,7 @@
         <v>791</v>
       </c>
       <c r="AC124" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="AD124" t="s">
         <v>791</v>
@@ -14554,7 +14566,7 @@
         <v>304005</v>
       </c>
       <c r="B125" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
@@ -14596,10 +14608,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="Q125" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="R125" t="s">
         <v>791</v>
@@ -14608,7 +14620,7 @@
         <v>791</v>
       </c>
       <c r="AC125" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="AD125" t="s">
         <v>791</v>
@@ -14622,7 +14634,7 @@
         <v>304006</v>
       </c>
       <c r="B126" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
@@ -14664,10 +14676,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
       <c r="Q126" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="R126" t="s">
         <v>791</v>
@@ -14676,7 +14688,7 @@
         <v>791</v>
       </c>
       <c r="AC126" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="AD126" t="s">
         <v>791</v>
@@ -14690,7 +14702,7 @@
         <v>304007</v>
       </c>
       <c r="B127" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
@@ -14732,10 +14744,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="Q127" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="R127" t="s">
         <v>791</v>
@@ -14744,7 +14756,7 @@
         <v>791</v>
       </c>
       <c r="AC127" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="AD127" t="s">
         <v>791</v>
@@ -14758,7 +14770,7 @@
         <v>305001</v>
       </c>
       <c r="B128" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
@@ -14794,10 +14806,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
       <c r="Q128" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="R128" t="s">
         <v>791</v>
@@ -14806,7 +14818,7 @@
         <v>791</v>
       </c>
       <c r="AC128" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="AD128" t="s">
         <v>791</v>
@@ -14820,7 +14832,7 @@
         <v>305002</v>
       </c>
       <c r="B129" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
@@ -14862,10 +14874,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="Q129" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="R129" t="s">
         <v>791</v>
@@ -14874,7 +14886,7 @@
         <v>791</v>
       </c>
       <c r="AC129" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="AD129" t="s">
         <v>791</v>
@@ -14888,7 +14900,7 @@
         <v>305003</v>
       </c>
       <c r="B130" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="C130" t="s">
         <v>134</v>
@@ -14930,10 +14942,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
       <c r="Q130" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="R130" t="s">
         <v>791</v>
@@ -14942,7 +14954,7 @@
         <v>791</v>
       </c>
       <c r="AC130" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="AD130" t="s">
         <v>791</v>
@@ -14956,7 +14968,7 @@
         <v>305004</v>
       </c>
       <c r="B131" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
@@ -14998,10 +15010,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="Q131" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="R131" t="s">
         <v>791</v>
@@ -15010,7 +15022,7 @@
         <v>791</v>
       </c>
       <c r="AC131" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="AD131" t="s">
         <v>791</v>
@@ -15024,7 +15036,7 @@
         <v>305005</v>
       </c>
       <c r="B132" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="C132" t="s">
         <v>136</v>
@@ -15066,10 +15078,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="Q132" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
       <c r="R132" t="s">
         <v>791</v>
@@ -15078,7 +15090,7 @@
         <v>791</v>
       </c>
       <c r="AC132" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="AD132" t="s">
         <v>791</v>
@@ -15128,10 +15140,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
       <c r="Q133" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
       <c r="R133" t="s">
         <v>791</v>
@@ -15140,7 +15152,7 @@
         <v>791</v>
       </c>
       <c r="AC133" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="AD133" t="s">
         <v>791</v>
@@ -15154,7 +15166,7 @@
         <v>306002</v>
       </c>
       <c r="B134" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="C134" t="s">
         <v>138</v>
@@ -15193,10 +15205,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="Q134" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
       <c r="R134" t="s">
         <v>791</v>
@@ -15205,7 +15217,7 @@
         <v>791</v>
       </c>
       <c r="AC134" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="AD134" t="s">
         <v>791</v>
@@ -15219,7 +15231,7 @@
         <v>306003</v>
       </c>
       <c r="B135" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="C135" t="s">
         <v>139</v>
@@ -15261,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="Q135" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="R135" t="s">
         <v>791</v>
@@ -15273,7 +15285,7 @@
         <v>791</v>
       </c>
       <c r="AC135" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="AD135" t="s">
         <v>791</v>
@@ -15287,7 +15299,7 @@
         <v>306004</v>
       </c>
       <c r="B136" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="C136" t="s">
         <v>140</v>
@@ -15326,10 +15338,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="Q136" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="R136" t="s">
         <v>791</v>
@@ -15338,7 +15350,7 @@
         <v>791</v>
       </c>
       <c r="AC136" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="AD136" t="s">
         <v>791</v>
@@ -15352,7 +15364,7 @@
         <v>306005</v>
       </c>
       <c r="B137" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="C137" t="s">
         <v>141</v>
@@ -15388,10 +15400,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
       <c r="Q137" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="R137" t="s">
         <v>791</v>
@@ -15400,7 +15412,7 @@
         <v>791</v>
       </c>
       <c r="AC137" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="AD137" t="s">
         <v>791</v>
@@ -15414,7 +15426,7 @@
         <v>306006</v>
       </c>
       <c r="B138" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="C138" t="s">
         <v>142</v>
@@ -15453,10 +15465,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
       <c r="Q138" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="R138" t="s">
         <v>791</v>
@@ -15465,7 +15477,7 @@
         <v>791</v>
       </c>
       <c r="AC138" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="AD138" t="s">
         <v>791</v>
@@ -15479,7 +15491,7 @@
         <v>307001</v>
       </c>
       <c r="B139" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="C139" t="s">
         <v>143</v>
@@ -15521,10 +15533,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="Q139" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="R139" t="s">
         <v>791</v>
@@ -15533,7 +15545,7 @@
         <v>791</v>
       </c>
       <c r="AC139" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="AD139" t="s">
         <v>791</v>
@@ -15547,7 +15559,7 @@
         <v>307002</v>
       </c>
       <c r="B140" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="C140" t="s">
         <v>144</v>
@@ -15589,10 +15601,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="Q140" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
       <c r="R140" t="s">
         <v>791</v>
@@ -15601,7 +15613,7 @@
         <v>791</v>
       </c>
       <c r="AC140" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="AD140" t="s">
         <v>791</v>
@@ -15615,7 +15627,7 @@
         <v>307003</v>
       </c>
       <c r="B141" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="C141" t="s">
         <v>145</v>
@@ -15654,10 +15666,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q141" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="R141" t="s">
         <v>791</v>
@@ -15666,7 +15678,7 @@
         <v>791</v>
       </c>
       <c r="AC141" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="AD141" t="s">
         <v>791</v>
@@ -15680,7 +15692,7 @@
         <v>307004</v>
       </c>
       <c r="B142" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="C142" t="s">
         <v>146</v>
@@ -15722,10 +15734,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="Q142" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="R142" t="s">
         <v>791</v>
@@ -15734,7 +15746,7 @@
         <v>791</v>
       </c>
       <c r="AC142" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="AD142" t="s">
         <v>791</v>
@@ -15790,10 +15802,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="Q143" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="R143" t="s">
         <v>791</v>
@@ -15802,7 +15814,7 @@
         <v>791</v>
       </c>
       <c r="AC143" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="AD143" t="s">
         <v>791</v>
@@ -15816,7 +15828,7 @@
         <v>307006</v>
       </c>
       <c r="B144" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="C144" t="s">
         <v>148</v>
@@ -15858,10 +15870,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="Q144" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
       <c r="R144" t="s">
         <v>791</v>
@@ -15870,7 +15882,7 @@
         <v>791</v>
       </c>
       <c r="AC144" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="AD144" t="s">
         <v>791</v>
@@ -15884,7 +15896,7 @@
         <v>308001</v>
       </c>
       <c r="B145" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="C145" t="s">
         <v>149</v>
@@ -15926,10 +15938,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="Q145" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="R145" t="s">
         <v>791</v>
@@ -15938,7 +15950,7 @@
         <v>791</v>
       </c>
       <c r="AC145" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="AD145" t="s">
         <v>791</v>
@@ -15952,7 +15964,7 @@
         <v>308002</v>
       </c>
       <c r="B146" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="C146" t="s">
         <v>150</v>
@@ -15994,10 +16006,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="Q146" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="R146" t="s">
         <v>791</v>
@@ -16006,7 +16018,7 @@
         <v>791</v>
       </c>
       <c r="AC146" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="AD146" t="s">
         <v>791</v>
@@ -16020,7 +16032,7 @@
         <v>308003</v>
       </c>
       <c r="B147" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="C147" t="s">
         <v>151</v>
@@ -16062,10 +16074,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="Q147" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
       <c r="R147" t="s">
         <v>791</v>
@@ -16074,7 +16086,7 @@
         <v>791</v>
       </c>
       <c r="AC147" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="AD147" t="s">
         <v>791</v>
@@ -16088,7 +16100,7 @@
         <v>308004</v>
       </c>
       <c r="B148" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="C148" t="s">
         <v>152</v>
@@ -16130,10 +16142,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
       <c r="Q148" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="R148" t="s">
         <v>791</v>
@@ -16142,7 +16154,7 @@
         <v>791</v>
       </c>
       <c r="AC148" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="AD148" t="s">
         <v>791</v>
@@ -16156,7 +16168,7 @@
         <v>308005</v>
       </c>
       <c r="B149" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="C149" t="s">
         <v>153</v>
@@ -16198,10 +16210,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="Q149" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="R149" t="s">
         <v>791</v>
@@ -16210,7 +16222,7 @@
         <v>791</v>
       </c>
       <c r="AC149" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="AD149" t="s">
         <v>791</v>
@@ -16224,7 +16236,7 @@
         <v>401001</v>
       </c>
       <c r="B150" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="C150" t="s">
         <v>154</v>
@@ -16263,10 +16275,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
       <c r="Q150" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
       <c r="R150" t="s">
         <v>791</v>
@@ -16275,7 +16287,7 @@
         <v>791</v>
       </c>
       <c r="AC150" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="AD150" t="s">
         <v>791</v>
@@ -16289,7 +16301,7 @@
         <v>401002</v>
       </c>
       <c r="B151" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="C151" t="s">
         <v>156</v>
@@ -16325,10 +16337,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="Q151" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="R151" t="s">
         <v>791</v>
@@ -16337,7 +16349,7 @@
         <v>791</v>
       </c>
       <c r="AC151" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="AD151" t="s">
         <v>791</v>
@@ -16351,7 +16363,7 @@
         <v>401003</v>
       </c>
       <c r="B152" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="C152" t="s">
         <v>157</v>
@@ -16390,10 +16402,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="Q152" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
       <c r="R152" t="s">
         <v>791</v>
@@ -16402,7 +16414,7 @@
         <v>791</v>
       </c>
       <c r="AC152" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="AD152" t="s">
         <v>791</v>
@@ -16416,7 +16428,7 @@
         <v>401004</v>
       </c>
       <c r="B153" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="C153" t="s">
         <v>158</v>
@@ -16452,10 +16464,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="Q153" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
       <c r="R153" t="s">
         <v>791</v>
@@ -16464,7 +16476,7 @@
         <v>791</v>
       </c>
       <c r="AC153" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="AD153" t="s">
         <v>791</v>
@@ -16478,7 +16490,7 @@
         <v>401005</v>
       </c>
       <c r="B154" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="C154" t="s">
         <v>159</v>
@@ -16517,10 +16529,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="Q154" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="R154" t="s">
         <v>791</v>
@@ -16529,7 +16541,7 @@
         <v>791</v>
       </c>
       <c r="AC154" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="AD154" t="s">
         <v>791</v>
@@ -16543,7 +16555,7 @@
         <v>401006</v>
       </c>
       <c r="B155" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
       <c r="C155" t="s">
         <v>160</v>
@@ -16582,10 +16594,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="Q155" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="R155" t="s">
         <v>791</v>
@@ -16594,7 +16606,7 @@
         <v>791</v>
       </c>
       <c r="AC155" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="AD155" t="s">
         <v>791</v>
@@ -16647,10 +16659,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="Q156" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="R156" t="s">
         <v>791</v>
@@ -16659,7 +16671,7 @@
         <v>791</v>
       </c>
       <c r="AC156" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="AD156" t="s">
         <v>791</v>
@@ -16712,10 +16724,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="Q157" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="R157" t="s">
         <v>791</v>
@@ -16724,7 +16736,7 @@
         <v>791</v>
       </c>
       <c r="AC157" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="AD157" t="s">
         <v>791</v>
@@ -16738,7 +16750,7 @@
         <v>402003</v>
       </c>
       <c r="B158" t="s">
-        <v>1810</v>
+        <v>1794</v>
       </c>
       <c r="C158" t="s">
         <v>163</v>
@@ -16777,10 +16789,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="Q158" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="R158" t="s">
         <v>791</v>
@@ -16789,7 +16801,7 @@
         <v>791</v>
       </c>
       <c r="AC158" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="AD158" t="s">
         <v>791</v>
@@ -16803,7 +16815,7 @@
         <v>402004</v>
       </c>
       <c r="B159" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
       <c r="C159" t="s">
         <v>164</v>
@@ -16842,10 +16854,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="Q159" t="s">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="R159" t="s">
         <v>791</v>
@@ -16854,7 +16866,7 @@
         <v>791</v>
       </c>
       <c r="AC159" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="AD159" t="s">
         <v>791</v>
@@ -16868,7 +16880,7 @@
         <v>402005</v>
       </c>
       <c r="B160" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="C160" t="s">
         <v>165</v>
@@ -16907,10 +16919,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="Q160" t="s">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="R160" t="s">
         <v>791</v>
@@ -16919,7 +16931,7 @@
         <v>791</v>
       </c>
       <c r="AC160" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="AD160" t="s">
         <v>791</v>
@@ -16933,7 +16945,7 @@
         <v>402006</v>
       </c>
       <c r="B161" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
       <c r="C161" t="s">
         <v>166</v>
@@ -16972,10 +16984,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="Q161" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="R161" t="s">
         <v>791</v>
@@ -16984,7 +16996,7 @@
         <v>791</v>
       </c>
       <c r="AC161" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="AD161" t="s">
         <v>791</v>
@@ -16998,7 +17010,7 @@
         <v>403001</v>
       </c>
       <c r="B162" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="C162" t="s">
         <v>167</v>
@@ -17040,10 +17052,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
       <c r="Q162" t="s">
-        <v>1422</v>
+        <v>1406</v>
       </c>
       <c r="R162" t="s">
         <v>791</v>
@@ -17052,7 +17064,7 @@
         <v>791</v>
       </c>
       <c r="AC162" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="AD162" t="s">
         <v>791</v>
@@ -17066,7 +17078,7 @@
         <v>403002</v>
       </c>
       <c r="B163" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="C163" t="s">
         <v>168</v>
@@ -17105,10 +17117,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="Q163" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="R163" t="s">
         <v>791</v>
@@ -17117,7 +17129,7 @@
         <v>791</v>
       </c>
       <c r="AC163" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="AD163" t="s">
         <v>791</v>
@@ -17131,7 +17143,7 @@
         <v>403003</v>
       </c>
       <c r="B164" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
       <c r="C164" t="s">
         <v>169</v>
@@ -17170,10 +17182,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="Q164" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="R164" t="s">
         <v>791</v>
@@ -17182,7 +17194,7 @@
         <v>791</v>
       </c>
       <c r="AC164" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="AD164" t="s">
         <v>791</v>
@@ -17196,7 +17208,7 @@
         <v>403004</v>
       </c>
       <c r="B165" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
       <c r="C165" t="s">
         <v>170</v>
@@ -17238,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="Q165" t="s">
         <v>791</v>
@@ -17264,7 +17276,7 @@
         <v>403005</v>
       </c>
       <c r="B166" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
       <c r="C166" t="s">
         <v>171</v>
@@ -17297,10 +17309,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="Q166" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="R166" t="s">
         <v>791</v>
@@ -17309,7 +17321,7 @@
         <v>791</v>
       </c>
       <c r="AC166" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="AD166" t="s">
         <v>791</v>
@@ -17323,7 +17335,7 @@
         <v>403006</v>
       </c>
       <c r="B167" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="C167" t="s">
         <v>172</v>
@@ -17356,10 +17368,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="Q167" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="R167" t="s">
         <v>791</v>
@@ -17368,7 +17380,7 @@
         <v>791</v>
       </c>
       <c r="AC167" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="AD167" t="s">
         <v>791</v>
@@ -17382,7 +17394,7 @@
         <v>404001</v>
       </c>
       <c r="B168" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
       <c r="C168" t="s">
         <v>173</v>
@@ -17421,10 +17433,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="Q168" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="R168" t="s">
         <v>791</v>
@@ -17433,7 +17445,7 @@
         <v>791</v>
       </c>
       <c r="AC168" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="AD168" t="s">
         <v>791</v>
@@ -17447,7 +17459,7 @@
         <v>404002</v>
       </c>
       <c r="B169" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="C169" t="s">
         <v>174</v>
@@ -17489,10 +17501,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="Q169" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="R169" t="s">
         <v>791</v>
@@ -17501,7 +17513,7 @@
         <v>791</v>
       </c>
       <c r="AC169" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="AD169" t="s">
         <v>791</v>
@@ -17554,7 +17566,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="Q170" t="s">
         <v>791</v>
@@ -17580,7 +17592,7 @@
         <v>404004</v>
       </c>
       <c r="B171" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="C171" t="s">
         <v>176</v>
@@ -17619,10 +17631,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="Q171" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="R171" t="s">
         <v>791</v>
@@ -17631,7 +17643,7 @@
         <v>791</v>
       </c>
       <c r="AC171" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="AD171" t="s">
         <v>791</v>
@@ -17645,7 +17657,7 @@
         <v>404005</v>
       </c>
       <c r="B172" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="C172" t="s">
         <v>177</v>
@@ -17678,7 +17690,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="Q172" t="s">
         <v>791</v>
@@ -17704,7 +17716,7 @@
         <v>404006</v>
       </c>
       <c r="B173" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="C173" t="s">
         <v>178</v>
@@ -17743,10 +17755,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1440</v>
+        <v>1424</v>
       </c>
       <c r="Q173" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="R173" t="s">
         <v>791</v>
@@ -17755,7 +17767,7 @@
         <v>791</v>
       </c>
       <c r="AC173" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="AD173" t="s">
         <v>791</v>
@@ -17769,7 +17781,7 @@
         <v>404007</v>
       </c>
       <c r="B174" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="C174" t="s">
         <v>179</v>
@@ -17808,10 +17820,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="Q174" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="R174" t="s">
         <v>791</v>
@@ -17820,7 +17832,7 @@
         <v>791</v>
       </c>
       <c r="AC174" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="AD174" t="s">
         <v>791</v>
@@ -17834,7 +17846,7 @@
         <v>405001</v>
       </c>
       <c r="B175" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
       <c r="C175" t="s">
         <v>180</v>
@@ -17873,10 +17885,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="Q175" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="R175" t="s">
         <v>791</v>
@@ -17885,7 +17897,7 @@
         <v>791</v>
       </c>
       <c r="AC175" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="AD175" t="s">
         <v>791</v>
@@ -17899,7 +17911,7 @@
         <v>405002</v>
       </c>
       <c r="B176" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="C176" t="s">
         <v>181</v>
@@ -17938,10 +17950,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="Q176" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="R176" t="s">
         <v>791</v>
@@ -17950,7 +17962,7 @@
         <v>791</v>
       </c>
       <c r="AC176" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="AD176" t="s">
         <v>791</v>
@@ -17964,7 +17976,7 @@
         <v>405003</v>
       </c>
       <c r="B177" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="C177" t="s">
         <v>182</v>
@@ -18003,10 +18015,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="Q177" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="R177" t="s">
         <v>791</v>
@@ -18015,7 +18027,7 @@
         <v>791</v>
       </c>
       <c r="AC177" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="AD177" t="s">
         <v>791</v>
@@ -18068,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="Q178" t="s">
         <v>791</v>
@@ -18133,10 +18145,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="Q179" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
       <c r="R179" t="s">
         <v>791</v>
@@ -18145,7 +18157,7 @@
         <v>791</v>
       </c>
       <c r="AC179" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="AD179" t="s">
         <v>791</v>
@@ -18159,7 +18171,7 @@
         <v>405006</v>
       </c>
       <c r="B180" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
       <c r="C180" t="s">
         <v>185</v>
@@ -18198,10 +18210,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="Q180" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="R180" t="s">
         <v>791</v>
@@ -18210,7 +18222,7 @@
         <v>791</v>
       </c>
       <c r="AC180" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="AD180" t="s">
         <v>791</v>
@@ -18224,7 +18236,7 @@
         <v>405007</v>
       </c>
       <c r="B181" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -18266,10 +18278,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="Q181" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="R181" t="s">
         <v>791</v>
@@ -18278,7 +18290,7 @@
         <v>791</v>
       </c>
       <c r="AC181" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="AD181" t="s">
         <v>791</v>
@@ -18292,7 +18304,7 @@
         <v>405008</v>
       </c>
       <c r="B182" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="C182" t="s">
         <v>187</v>
@@ -18325,10 +18337,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="Q182" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="R182" t="s">
         <v>791</v>
@@ -18337,7 +18349,7 @@
         <v>791</v>
       </c>
       <c r="AC182" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="AD182" t="s">
         <v>791</v>
@@ -18351,7 +18363,7 @@
         <v>405009</v>
       </c>
       <c r="B183" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
       <c r="C183" t="s">
         <v>188</v>
@@ -18384,10 +18396,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="Q183" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="R183" t="s">
         <v>791</v>
@@ -18396,7 +18408,7 @@
         <v>791</v>
       </c>
       <c r="AC183" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="AD183" t="s">
         <v>791</v>
@@ -18410,7 +18422,7 @@
         <v>406001</v>
       </c>
       <c r="B184" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="C184" t="s">
         <v>189</v>
@@ -18449,10 +18461,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="Q184" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="R184" t="s">
         <v>791</v>
@@ -18461,7 +18473,7 @@
         <v>791</v>
       </c>
       <c r="AC184" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="AD184" t="s">
         <v>791</v>
@@ -18475,7 +18487,7 @@
         <v>406002</v>
       </c>
       <c r="B185" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
       <c r="C185" t="s">
         <v>190</v>
@@ -18514,10 +18526,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="Q185" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="R185" t="s">
         <v>791</v>
@@ -18526,7 +18538,7 @@
         <v>791</v>
       </c>
       <c r="AC185" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="AD185" t="s">
         <v>791</v>
@@ -18540,7 +18552,7 @@
         <v>406003</v>
       </c>
       <c r="B186" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
       <c r="C186" t="s">
         <v>191</v>
@@ -18579,10 +18591,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="Q186" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="R186" t="s">
         <v>791</v>
@@ -18591,7 +18603,7 @@
         <v>791</v>
       </c>
       <c r="AC186" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="AD186" t="s">
         <v>791</v>
@@ -18605,7 +18617,7 @@
         <v>406004</v>
       </c>
       <c r="B187" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
       <c r="C187" t="s">
         <v>192</v>
@@ -18647,10 +18659,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="Q187" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="R187" t="s">
         <v>791</v>
@@ -18659,7 +18671,7 @@
         <v>791</v>
       </c>
       <c r="AC187" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="AD187" t="s">
         <v>791</v>
@@ -18673,7 +18685,7 @@
         <v>406005</v>
       </c>
       <c r="B188" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="C188" t="s">
         <v>193</v>
@@ -18712,10 +18724,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
       <c r="Q188" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="R188" t="s">
         <v>791</v>
@@ -18724,7 +18736,7 @@
         <v>791</v>
       </c>
       <c r="AC188" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="AD188" t="s">
         <v>791</v>
@@ -18777,10 +18789,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="Q189" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="R189" t="s">
         <v>791</v>
@@ -18789,7 +18801,7 @@
         <v>791</v>
       </c>
       <c r="AC189" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="AD189" t="s">
         <v>791</v>
@@ -18803,7 +18815,7 @@
         <v>407001</v>
       </c>
       <c r="B190" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="C190" t="s">
         <v>195</v>
@@ -18836,10 +18848,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="Q190" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="R190" t="s">
         <v>791</v>
@@ -18848,7 +18860,7 @@
         <v>791</v>
       </c>
       <c r="AC190" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="AD190" t="s">
         <v>791</v>
@@ -18862,7 +18874,7 @@
         <v>407002</v>
       </c>
       <c r="B191" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
       <c r="C191" t="s">
         <v>196</v>
@@ -18895,10 +18907,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="Q191" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="R191" t="s">
         <v>791</v>
@@ -18907,7 +18919,7 @@
         <v>791</v>
       </c>
       <c r="AC191" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="AD191" t="s">
         <v>791</v>
@@ -18921,7 +18933,7 @@
         <v>407003</v>
       </c>
       <c r="B192" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
       <c r="C192" t="s">
         <v>197</v>
@@ -18954,10 +18966,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
       <c r="Q192" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
       <c r="R192" t="s">
         <v>791</v>
@@ -18966,7 +18978,7 @@
         <v>791</v>
       </c>
       <c r="AC192" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="AD192" t="s">
         <v>791</v>
@@ -18980,7 +18992,7 @@
         <v>407004</v>
       </c>
       <c r="B193" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
       <c r="C193" t="s">
         <v>198</v>
@@ -19019,10 +19031,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
       <c r="Q193" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
       <c r="R193" t="s">
         <v>791</v>
@@ -19031,7 +19043,7 @@
         <v>791</v>
       </c>
       <c r="AC193" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="AD193" t="s">
         <v>791</v>
@@ -19045,7 +19057,7 @@
         <v>407005</v>
       </c>
       <c r="B194" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="C194" t="s">
         <v>199</v>
@@ -19078,10 +19090,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q194" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="R194" t="s">
         <v>791</v>
@@ -19090,7 +19102,7 @@
         <v>791</v>
       </c>
       <c r="AC194" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="AD194" t="s">
         <v>791</v>
@@ -19104,7 +19116,7 @@
         <v>407006</v>
       </c>
       <c r="B195" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="C195" t="s">
         <v>200</v>
@@ -19140,10 +19152,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="Q195" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
       <c r="R195" t="s">
         <v>791</v>
@@ -19152,7 +19164,7 @@
         <v>791</v>
       </c>
       <c r="AC195" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="AD195" t="s">
         <v>791</v>
@@ -19166,7 +19178,7 @@
         <v>407007</v>
       </c>
       <c r="B196" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="C196" t="s">
         <v>201</v>
@@ -19202,10 +19214,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
       <c r="Q196" t="s">
-        <v>1485</v>
+        <v>1469</v>
       </c>
       <c r="R196" t="s">
         <v>791</v>
@@ -19214,7 +19226,7 @@
         <v>791</v>
       </c>
       <c r="AC196" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="AD196" t="s">
         <v>791</v>
@@ -19228,7 +19240,7 @@
         <v>407008</v>
       </c>
       <c r="B197" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="C197" t="s">
         <v>202</v>
@@ -19267,10 +19279,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
       <c r="Q197" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="R197" t="s">
         <v>791</v>
@@ -19279,7 +19291,7 @@
         <v>791</v>
       </c>
       <c r="AC197" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="AD197" t="s">
         <v>791</v>
@@ -19293,7 +19305,7 @@
         <v>407009</v>
       </c>
       <c r="B198" t="s">
-        <v>1846</v>
+        <v>1830</v>
       </c>
       <c r="C198" t="s">
         <v>203</v>
@@ -19332,7 +19344,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
       <c r="Q198" t="s">
         <v>791</v>
@@ -19358,7 +19370,7 @@
         <v>408001</v>
       </c>
       <c r="B199" t="s">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="C199" t="s">
         <v>204</v>
@@ -19397,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="Q199" t="s">
         <v>791</v>
@@ -19423,7 +19435,7 @@
         <v>408002</v>
       </c>
       <c r="B200" t="s">
-        <v>1848</v>
+        <v>1832</v>
       </c>
       <c r="C200" t="s">
         <v>205</v>
@@ -19462,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
       <c r="Q200" t="s">
         <v>791</v>
@@ -19527,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1491</v>
+        <v>1475</v>
       </c>
       <c r="Q201" t="s">
         <v>791</v>
@@ -19553,7 +19565,7 @@
         <v>408004</v>
       </c>
       <c r="B202" t="s">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="C202" t="s">
         <v>207</v>
@@ -19592,10 +19604,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="Q202" t="s">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="R202" t="s">
         <v>791</v>
@@ -19604,7 +19616,7 @@
         <v>791</v>
       </c>
       <c r="AC202" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="AD202" t="s">
         <v>791</v>
@@ -19618,7 +19630,7 @@
         <v>408005</v>
       </c>
       <c r="B203" t="s">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="C203" t="s">
         <v>208</v>
@@ -19657,7 +19669,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="Q203" t="s">
         <v>791</v>
@@ -19683,7 +19695,7 @@
         <v>408006</v>
       </c>
       <c r="B204" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="C204" t="s">
         <v>209</v>
@@ -19716,10 +19728,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1495</v>
+        <v>1479</v>
       </c>
       <c r="Q204" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="R204" t="s">
         <v>791</v>
@@ -19728,7 +19740,7 @@
         <v>791</v>
       </c>
       <c r="AC204" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="AD204" t="s">
         <v>791</v>
@@ -19742,7 +19754,7 @@
         <v>408007</v>
       </c>
       <c r="B205" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
       <c r="C205" t="s">
         <v>210</v>
@@ -19775,10 +19787,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1497</v>
+        <v>1481</v>
       </c>
       <c r="Q205" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="R205" t="s">
         <v>791</v>
@@ -19787,7 +19799,7 @@
         <v>791</v>
       </c>
       <c r="AC205" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="AD205" t="s">
         <v>791</v>
@@ -19801,7 +19813,7 @@
         <v>501001</v>
       </c>
       <c r="B206" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="C206" t="s">
         <v>211</v>
@@ -19843,10 +19855,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
       <c r="Q206" t="s">
-        <v>1500</v>
+        <v>1484</v>
       </c>
       <c r="R206" t="s">
         <v>791</v>
@@ -19855,7 +19867,7 @@
         <v>791</v>
       </c>
       <c r="AC206" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="AD206" t="s">
         <v>791</v>
@@ -19869,7 +19881,7 @@
         <v>501002</v>
       </c>
       <c r="B207" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="C207" t="s">
         <v>213</v>
@@ -19911,10 +19923,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="Q207" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="R207" t="s">
         <v>791</v>
@@ -19923,7 +19935,7 @@
         <v>791</v>
       </c>
       <c r="AC207" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="AD207" t="s">
         <v>791</v>
@@ -19937,7 +19949,7 @@
         <v>501003</v>
       </c>
       <c r="B208" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
       <c r="C208" t="s">
         <v>214</v>
@@ -19979,10 +19991,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="Q208" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="R208" t="s">
         <v>791</v>
@@ -19991,7 +20003,7 @@
         <v>791</v>
       </c>
       <c r="AC208" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="AD208" t="s">
         <v>791</v>
@@ -20005,7 +20017,7 @@
         <v>501004</v>
       </c>
       <c r="B209" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
       <c r="C209" t="s">
         <v>215</v>
@@ -20047,10 +20059,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="Q209" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="R209" t="s">
         <v>791</v>
@@ -20059,7 +20071,7 @@
         <v>791</v>
       </c>
       <c r="AC209" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="AD209" t="s">
         <v>791</v>
@@ -20073,7 +20085,7 @@
         <v>501005</v>
       </c>
       <c r="B210" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="C210" t="s">
         <v>216</v>
@@ -20109,10 +20121,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="Q210" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="R210" t="s">
         <v>791</v>
@@ -20121,7 +20133,7 @@
         <v>791</v>
       </c>
       <c r="AC210" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="AD210" t="s">
         <v>791</v>
@@ -20135,7 +20147,7 @@
         <v>501006</v>
       </c>
       <c r="B211" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="C211" t="s">
         <v>217</v>
@@ -20177,10 +20189,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="Q211" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="R211" t="s">
         <v>791</v>
@@ -20189,7 +20201,7 @@
         <v>791</v>
       </c>
       <c r="AC211" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="AD211" t="s">
         <v>791</v>
@@ -20203,7 +20215,7 @@
         <v>502001</v>
       </c>
       <c r="B212" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="C212" t="s">
         <v>218</v>
@@ -20242,10 +20254,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="Q212" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="R212" t="s">
         <v>791</v>
@@ -20254,7 +20266,7 @@
         <v>791</v>
       </c>
       <c r="AC212" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="AD212" t="s">
         <v>791</v>
@@ -20268,7 +20280,7 @@
         <v>502002</v>
       </c>
       <c r="B213" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
       <c r="C213" t="s">
         <v>219</v>
@@ -20301,10 +20313,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="Q213" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="R213" t="s">
         <v>791</v>
@@ -20313,7 +20325,7 @@
         <v>791</v>
       </c>
       <c r="AC213" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="AD213" t="s">
         <v>791</v>
@@ -20327,7 +20339,7 @@
         <v>502003</v>
       </c>
       <c r="B214" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
       <c r="C214" t="s">
         <v>220</v>
@@ -20366,10 +20378,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="Q214" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="R214" t="s">
         <v>791</v>
@@ -20378,7 +20390,7 @@
         <v>791</v>
       </c>
       <c r="AC214" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="AD214" t="s">
         <v>791</v>
@@ -20392,7 +20404,7 @@
         <v>502004</v>
       </c>
       <c r="B215" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="C215" t="s">
         <v>221</v>
@@ -20425,10 +20437,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="Q215" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="R215" t="s">
         <v>791</v>
@@ -20437,7 +20449,7 @@
         <v>791</v>
       </c>
       <c r="AC215" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="AD215" t="s">
         <v>791</v>
@@ -20451,7 +20463,7 @@
         <v>502005</v>
       </c>
       <c r="B216" t="s">
-        <v>1863</v>
+        <v>1847</v>
       </c>
       <c r="C216" t="s">
         <v>222</v>
@@ -20487,10 +20499,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="Q216" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="R216" t="s">
         <v>791</v>
@@ -20499,7 +20511,7 @@
         <v>791</v>
       </c>
       <c r="AC216" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="AD216" t="s">
         <v>791</v>
@@ -20513,7 +20525,7 @@
         <v>503001</v>
       </c>
       <c r="B217" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
       <c r="C217" t="s">
         <v>223</v>
@@ -20555,10 +20567,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="Q217" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="R217" t="s">
         <v>791</v>
@@ -20567,7 +20579,7 @@
         <v>791</v>
       </c>
       <c r="AC217" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="AD217" t="s">
         <v>791</v>
@@ -20581,7 +20593,7 @@
         <v>503002</v>
       </c>
       <c r="B218" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
       <c r="C218" t="s">
         <v>224</v>
@@ -20623,10 +20635,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="Q218" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="R218" t="s">
         <v>791</v>
@@ -20635,7 +20647,7 @@
         <v>791</v>
       </c>
       <c r="AC218" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="AD218" t="s">
         <v>791</v>
@@ -20691,10 +20703,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="Q219" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="R219" t="s">
         <v>791</v>
@@ -20703,7 +20715,7 @@
         <v>791</v>
       </c>
       <c r="AC219" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="AD219" t="s">
         <v>791</v>
@@ -20717,7 +20729,7 @@
         <v>503004</v>
       </c>
       <c r="B220" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="C220" t="s">
         <v>226</v>
@@ -20759,10 +20771,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="Q220" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="R220" t="s">
         <v>791</v>
@@ -20771,7 +20783,7 @@
         <v>791</v>
       </c>
       <c r="AC220" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="AD220" t="s">
         <v>791</v>
@@ -20785,7 +20797,7 @@
         <v>503005</v>
       </c>
       <c r="B221" t="s">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="C221" t="s">
         <v>227</v>
@@ -20827,10 +20839,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="Q221" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="R221" t="s">
         <v>791</v>
@@ -20839,7 +20851,7 @@
         <v>791</v>
       </c>
       <c r="AC221" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="AD221" t="s">
         <v>791</v>
@@ -20853,7 +20865,7 @@
         <v>504001</v>
       </c>
       <c r="B222" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
       <c r="C222" t="s">
         <v>228</v>
@@ -20895,10 +20907,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="Q222" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="R222" t="s">
         <v>791</v>
@@ -20907,7 +20919,7 @@
         <v>791</v>
       </c>
       <c r="AC222" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="AD222" t="s">
         <v>791</v>
@@ -20921,7 +20933,7 @@
         <v>504002</v>
       </c>
       <c r="B223" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
       <c r="C223" t="s">
         <v>229</v>
@@ -20963,10 +20975,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="Q223" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="R223" t="s">
         <v>791</v>
@@ -20975,7 +20987,7 @@
         <v>791</v>
       </c>
       <c r="AC223" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="AD223" t="s">
         <v>791</v>
@@ -20989,7 +21001,7 @@
         <v>504003</v>
       </c>
       <c r="B224" t="s">
-        <v>1870</v>
+        <v>1854</v>
       </c>
       <c r="C224" t="s">
         <v>230</v>
@@ -21031,10 +21043,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="Q224" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="R224" t="s">
         <v>791</v>
@@ -21043,7 +21055,7 @@
         <v>791</v>
       </c>
       <c r="AC224" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="AD224" t="s">
         <v>791</v>
@@ -21057,7 +21069,7 @@
         <v>504004</v>
       </c>
       <c r="B225" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="C225" t="s">
         <v>231</v>
@@ -21096,10 +21108,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="Q225" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="R225" t="s">
         <v>791</v>
@@ -21108,7 +21120,7 @@
         <v>791</v>
       </c>
       <c r="AC225" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="AD225" t="s">
         <v>791</v>
@@ -21122,7 +21134,7 @@
         <v>504005</v>
       </c>
       <c r="B226" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
       <c r="C226" t="s">
         <v>232</v>
@@ -21164,10 +21176,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="Q226" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="R226" t="s">
         <v>791</v>
@@ -21176,7 +21188,7 @@
         <v>791</v>
       </c>
       <c r="AC226" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="AD226" t="s">
         <v>791</v>
@@ -21229,10 +21241,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="Q227" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="R227" t="s">
         <v>791</v>
@@ -21241,7 +21253,7 @@
         <v>791</v>
       </c>
       <c r="AC227" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="AD227" t="s">
         <v>791</v>
@@ -21255,7 +21267,7 @@
         <v>505002</v>
       </c>
       <c r="B228" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
       <c r="C228" t="s">
         <v>234</v>
@@ -21294,10 +21306,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="Q228" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="R228" t="s">
         <v>791</v>
@@ -21306,7 +21318,7 @@
         <v>791</v>
       </c>
       <c r="AC228" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="AD228" t="s">
         <v>791</v>
@@ -21320,7 +21332,7 @@
         <v>505003</v>
       </c>
       <c r="B229" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
       <c r="C229" t="s">
         <v>235</v>
@@ -21359,10 +21371,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
       <c r="Q229" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="R229" t="s">
         <v>791</v>
@@ -21371,7 +21383,7 @@
         <v>791</v>
       </c>
       <c r="AC229" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="AD229" t="s">
         <v>791</v>
@@ -21385,7 +21397,7 @@
         <v>505004</v>
       </c>
       <c r="B230" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
       <c r="C230" t="s">
         <v>236</v>
@@ -21418,10 +21430,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="Q230" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="R230" t="s">
         <v>791</v>
@@ -21430,7 +21442,7 @@
         <v>791</v>
       </c>
       <c r="AC230" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="AD230" t="s">
         <v>791</v>
@@ -21444,7 +21456,7 @@
         <v>505005</v>
       </c>
       <c r="B231" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
       <c r="C231" t="s">
         <v>237</v>
@@ -21483,10 +21495,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="Q231" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="R231" t="s">
         <v>791</v>
@@ -21495,7 +21507,7 @@
         <v>791</v>
       </c>
       <c r="AC231" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="AD231" t="s">
         <v>791</v>
@@ -21509,7 +21521,7 @@
         <v>506001</v>
       </c>
       <c r="B232" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="C232" t="s">
         <v>238</v>
@@ -21548,10 +21560,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="Q232" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="R232" t="s">
         <v>791</v>
@@ -21560,7 +21572,7 @@
         <v>791</v>
       </c>
       <c r="AC232" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="AD232" t="s">
         <v>791</v>
@@ -21574,7 +21586,7 @@
         <v>506002</v>
       </c>
       <c r="B233" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
       <c r="C233" t="s">
         <v>239</v>
@@ -21610,10 +21622,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="Q233" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="R233" t="s">
         <v>791</v>
@@ -21622,7 +21634,7 @@
         <v>791</v>
       </c>
       <c r="AC233" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="AD233" t="s">
         <v>791</v>
@@ -21636,7 +21648,7 @@
         <v>506003</v>
       </c>
       <c r="B234" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
       <c r="C234" t="s">
         <v>240</v>
@@ -21678,10 +21690,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1555</v>
+        <v>1539</v>
       </c>
       <c r="Q234" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="R234" t="s">
         <v>791</v>
@@ -21690,7 +21702,7 @@
         <v>791</v>
       </c>
       <c r="AC234" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="AD234" t="s">
         <v>791</v>
@@ -21704,7 +21716,7 @@
         <v>506004</v>
       </c>
       <c r="B235" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="C235" t="s">
         <v>241</v>
@@ -21743,10 +21755,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="Q235" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="R235" t="s">
         <v>791</v>
@@ -21755,7 +21767,7 @@
         <v>791</v>
       </c>
       <c r="AC235" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="AD235" t="s">
         <v>791</v>
@@ -21769,7 +21781,7 @@
         <v>506005</v>
       </c>
       <c r="B236" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="C236" t="s">
         <v>242</v>
@@ -21808,10 +21820,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="Q236" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="R236" t="s">
         <v>791</v>
@@ -21820,7 +21832,7 @@
         <v>791</v>
       </c>
       <c r="AC236" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="AD236" t="s">
         <v>791</v>
@@ -21834,7 +21846,7 @@
         <v>990001</v>
       </c>
       <c r="B237" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="C237" t="s">
         <v>243</v>
@@ -21870,13 +21882,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="Q237" t="s">
         <v>791</v>
       </c>
       <c r="R237" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="S237" t="s">
         <v>791</v>
@@ -21885,7 +21897,7 @@
         <v>791</v>
       </c>
       <c r="AD237" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="AE237" t="s">
         <v>791</v>
@@ -21896,7 +21908,7 @@
         <v>990002</v>
       </c>
       <c r="B238" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="C238" t="s">
         <v>244</v>
@@ -21932,13 +21944,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="Q238" t="s">
         <v>791</v>
       </c>
       <c r="R238" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="S238" t="s">
         <v>791</v>
@@ -21947,7 +21959,7 @@
         <v>791</v>
       </c>
       <c r="AD238" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="AE238" t="s">
         <v>791</v>
@@ -21958,7 +21970,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
       <c r="C239" t="s">
         <v>245</v>
@@ -21985,13 +21997,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="Q239" t="s">
         <v>791</v>
       </c>
       <c r="R239" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="S239" t="s">
         <v>791</v>
@@ -22000,7 +22012,7 @@
         <v>791</v>
       </c>
       <c r="AD239" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="AE239" t="s">
         <v>791</v>
@@ -22011,7 +22023,7 @@
         <v>990004</v>
       </c>
       <c r="B240" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="C240" t="s">
         <v>246</v>
@@ -22047,13 +22059,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="Q240" t="s">
         <v>791</v>
       </c>
       <c r="R240" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="S240" t="s">
         <v>791</v>
@@ -22062,7 +22074,7 @@
         <v>791</v>
       </c>
       <c r="AD240" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="AE240" t="s">
         <v>791</v>
@@ -22073,7 +22085,7 @@
         <v>990005</v>
       </c>
       <c r="B241" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
       <c r="C241" t="s">
         <v>247</v>
@@ -22109,13 +22121,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="Q241" t="s">
         <v>791</v>
       </c>
       <c r="R241" t="s">
-        <v>1142</v>
+        <v>1918</v>
       </c>
       <c r="S241" t="s">
         <v>791</v>
@@ -22124,7 +22136,7 @@
         <v>791</v>
       </c>
       <c r="AD241" t="s">
-        <v>1143</v>
+        <v>1919</v>
       </c>
       <c r="AE241" t="s">
         <v>791</v>
@@ -22135,7 +22147,7 @@
         <v>990006</v>
       </c>
       <c r="B242" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
       <c r="C242" t="s">
         <v>248</v>
@@ -22171,13 +22183,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="Q242" t="s">
         <v>791</v>
       </c>
       <c r="R242" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
       <c r="S242" t="s">
         <v>791</v>
@@ -22186,7 +22198,7 @@
         <v>791</v>
       </c>
       <c r="AD242" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
       <c r="AE242" t="s">
         <v>791</v>
@@ -22197,7 +22209,7 @@
         <v>990007</v>
       </c>
       <c r="B243" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
       <c r="C243" t="s">
         <v>249</v>
@@ -22233,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="Q243" t="s">
         <v>791</v>
@@ -22242,7 +22254,7 @@
         <v>791</v>
       </c>
       <c r="S243" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="AC243" t="s">
         <v>791</v>
@@ -22251,7 +22263,7 @@
         <v>791</v>
       </c>
       <c r="AE243" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
@@ -22259,7 +22271,7 @@
         <v>990008</v>
       </c>
       <c r="B244" t="s">
-        <v>1889</v>
+        <v>1873</v>
       </c>
       <c r="C244" t="s">
         <v>250</v>
@@ -22295,10 +22307,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="Q244" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="R244" t="s">
         <v>791</v>
@@ -22307,7 +22319,7 @@
         <v>791</v>
       </c>
       <c r="AC244" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="AD244" t="s">
         <v>791</v>
@@ -22321,7 +22333,7 @@
         <v>990009</v>
       </c>
       <c r="B245" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
       <c r="C245" t="s">
         <v>251</v>
@@ -22354,10 +22366,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="Q245" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="R245" t="s">
         <v>791</v>
@@ -22366,7 +22378,7 @@
         <v>791</v>
       </c>
       <c r="AC245" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="AD245" t="s">
         <v>791</v>
@@ -22380,7 +22392,7 @@
         <v>990010</v>
       </c>
       <c r="B246" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="C246" t="s">
         <v>252</v>
@@ -22416,10 +22428,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="Q246" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="R246" t="s">
         <v>791</v>
@@ -22428,7 +22440,7 @@
         <v>791</v>
       </c>
       <c r="AC246" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="AD246" t="s">
         <v>791</v>
@@ -22442,7 +22454,7 @@
         <v>990011</v>
       </c>
       <c r="B247" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
       <c r="C247" t="s">
         <v>253</v>
@@ -22478,10 +22490,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="Q247" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="R247" t="s">
         <v>791</v>
@@ -22490,7 +22502,7 @@
         <v>791</v>
       </c>
       <c r="AC247" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
       <c r="AD247" t="s">
         <v>791</v>
@@ -22504,7 +22516,7 @@
         <v>990012</v>
       </c>
       <c r="B248" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="C248" t="s">
         <v>254</v>
@@ -22540,10 +22552,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="Q248" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="R248" t="s">
         <v>791</v>
@@ -22552,7 +22564,7 @@
         <v>791</v>
       </c>
       <c r="AC248" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="AD248" t="s">
         <v>791</v>
@@ -22566,7 +22578,7 @@
         <v>990013</v>
       </c>
       <c r="B249" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
       <c r="C249" t="s">
         <v>255</v>
@@ -22599,10 +22611,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="Q249" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="R249" t="s">
         <v>791</v>
@@ -22611,7 +22623,7 @@
         <v>791</v>
       </c>
       <c r="AC249" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="AD249" t="s">
         <v>791</v>
@@ -22625,7 +22637,7 @@
         <v>990014</v>
       </c>
       <c r="B250" t="s">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="C250" t="s">
         <v>256</v>
@@ -22664,10 +22676,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="Q250" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="R250" t="s">
         <v>791</v>
@@ -22676,7 +22688,7 @@
         <v>791</v>
       </c>
       <c r="AC250" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="AD250" t="s">
         <v>791</v>
@@ -22726,10 +22738,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="Q251" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="R251" t="s">
         <v>791</v>
@@ -22738,7 +22750,7 @@
         <v>791</v>
       </c>
       <c r="AC251" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="AD251" t="s">
         <v>791</v>
@@ -22752,7 +22764,7 @@
         <v>990016</v>
       </c>
       <c r="B252" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
       <c r="C252" t="s">
         <v>258</v>
@@ -22788,10 +22800,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="Q252" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="R252" t="s">
         <v>791</v>
@@ -22800,7 +22812,7 @@
         <v>791</v>
       </c>
       <c r="AC252" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="AD252" t="s">
         <v>791</v>
@@ -22814,7 +22826,7 @@
         <v>990017</v>
       </c>
       <c r="B253" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="C253" t="s">
         <v>259</v>
@@ -22850,10 +22862,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="Q253" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="R253" t="s">
         <v>791</v>
@@ -22862,7 +22874,7 @@
         <v>791</v>
       </c>
       <c r="AC253" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="AD253" t="s">
         <v>791</v>
@@ -22876,7 +22888,7 @@
         <v>990018</v>
       </c>
       <c r="B254" t="s">
-        <v>1898</v>
+        <v>1882</v>
       </c>
       <c r="C254" t="s">
         <v>260</v>
@@ -22912,10 +22924,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="Q254" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="R254" t="s">
         <v>791</v>
@@ -22924,7 +22936,7 @@
         <v>791</v>
       </c>
       <c r="AC254" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="AD254" t="s">
         <v>791</v>
@@ -22938,7 +22950,7 @@
         <v>990019</v>
       </c>
       <c r="B255" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="C255" t="s">
         <v>261</v>
@@ -22971,10 +22983,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="Q255" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="R255" t="s">
         <v>791</v>
@@ -22983,7 +22995,7 @@
         <v>791</v>
       </c>
       <c r="AC255" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="AD255" t="s">
         <v>791</v>
@@ -22997,7 +23009,7 @@
         <v>990020</v>
       </c>
       <c r="B256" t="s">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="C256" t="s">
         <v>262</v>
@@ -23033,10 +23045,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="Q256" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="R256" t="s">
         <v>791</v>
@@ -23045,7 +23057,7 @@
         <v>791</v>
       </c>
       <c r="AC256" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="AD256" t="s">
         <v>791</v>
@@ -23059,7 +23071,7 @@
         <v>990021</v>
       </c>
       <c r="B257" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -23092,10 +23104,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="Q257" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="R257" t="s">
         <v>791</v>
@@ -23104,7 +23116,7 @@
         <v>791</v>
       </c>
       <c r="AC257" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
       <c r="AD257" t="s">
         <v>791</v>
@@ -23118,7 +23130,7 @@
         <v>990022</v>
       </c>
       <c r="B258" t="s">
-        <v>1902</v>
+        <v>1886</v>
       </c>
       <c r="C258" t="s">
         <v>264</v>
@@ -23157,10 +23169,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="Q258" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="R258" t="s">
         <v>791</v>
@@ -23169,7 +23181,7 @@
         <v>791</v>
       </c>
       <c r="AC258" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="AD258" t="s">
         <v>791</v>
@@ -23183,7 +23195,7 @@
         <v>990023</v>
       </c>
       <c r="B259" t="s">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="C259" t="s">
         <v>265</v>
@@ -23219,7 +23231,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="Q259" t="s">
         <v>791</v>
@@ -23228,7 +23240,7 @@
         <v>791</v>
       </c>
       <c r="S259" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="AC259" t="s">
         <v>791</v>
@@ -23237,7 +23249,7 @@
         <v>791</v>
       </c>
       <c r="AE259" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
@@ -23245,7 +23257,7 @@
         <v>990024</v>
       </c>
       <c r="B260" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
       <c r="C260" t="s">
         <v>266</v>
@@ -23278,10 +23290,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="Q260" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="R260" t="s">
         <v>791</v>
@@ -23290,7 +23302,7 @@
         <v>791</v>
       </c>
       <c r="AC260" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="AD260" t="s">
         <v>791</v>
@@ -23304,7 +23316,7 @@
         <v>990025</v>
       </c>
       <c r="B261" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
       <c r="C261" t="s">
         <v>267</v>
@@ -23337,10 +23349,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="Q261" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="R261" t="s">
         <v>791</v>
@@ -23349,7 +23361,7 @@
         <v>791</v>
       </c>
       <c r="AC261" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="AD261" t="s">
         <v>791</v>
@@ -23363,7 +23375,7 @@
         <v>990026</v>
       </c>
       <c r="B262" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="C262" t="s">
         <v>268</v>
@@ -23399,10 +23411,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="Q262" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="R262" t="s">
         <v>791</v>
@@ -23411,7 +23423,7 @@
         <v>791</v>
       </c>
       <c r="AC262" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="AD262" t="s">
         <v>791</v>
@@ -23425,7 +23437,7 @@
         <v>990027</v>
       </c>
       <c r="B263" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="C263" t="s">
         <v>269</v>
@@ -23461,10 +23473,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="Q263" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="R263" t="s">
         <v>791</v>
@@ -23473,7 +23485,7 @@
         <v>791</v>
       </c>
       <c r="AC263" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="AD263" t="s">
         <v>791</v>
@@ -23487,7 +23499,7 @@
         <v>990028</v>
       </c>
       <c r="B264" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="C264" t="s">
         <v>270</v>
@@ -23523,10 +23535,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="Q264" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="R264" t="s">
         <v>791</v>
@@ -23535,7 +23547,7 @@
         <v>791</v>
       </c>
       <c r="AC264" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="AD264" t="s">
         <v>791</v>
@@ -23549,7 +23561,7 @@
         <v>990029</v>
       </c>
       <c r="B265" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="C265" t="s">
         <v>271</v>
@@ -23582,10 +23594,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="Q265" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="R265" t="s">
         <v>791</v>
@@ -23594,7 +23606,7 @@
         <v>791</v>
       </c>
       <c r="AC265" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="AD265" t="s">
         <v>791</v>
@@ -23608,7 +23620,7 @@
         <v>990030</v>
       </c>
       <c r="B266" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="C266" t="s">
         <v>272</v>
@@ -23644,10 +23656,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="Q266" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="R266" t="s">
         <v>791</v>
@@ -23656,7 +23668,7 @@
         <v>791</v>
       </c>
       <c r="AC266" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="AD266" t="s">
         <v>791</v>
@@ -23670,7 +23682,7 @@
         <v>990031</v>
       </c>
       <c r="B267" t="s">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="C267" t="s">
         <v>273</v>
@@ -23706,7 +23718,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
       <c r="Q267" t="s">
         <v>791</v>
@@ -23715,7 +23727,7 @@
         <v>791</v>
       </c>
       <c r="S267" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="AC267" t="s">
         <v>791</v>
@@ -23724,7 +23736,7 @@
         <v>791</v>
       </c>
       <c r="AE267" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
@@ -23732,7 +23744,7 @@
         <v>990032</v>
       </c>
       <c r="B268" t="s">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="C268" t="s">
         <v>274</v>
@@ -23768,10 +23780,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="Q268" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="R268" t="s">
         <v>791</v>
@@ -23780,7 +23792,7 @@
         <v>791</v>
       </c>
       <c r="AC268" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="AD268" t="s">
         <v>791</v>
@@ -23794,7 +23806,7 @@
         <v>990033</v>
       </c>
       <c r="B269" t="s">
-        <v>1913</v>
+        <v>1897</v>
       </c>
       <c r="C269" t="s">
         <v>275</v>
@@ -23827,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="Q269" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="R269" t="s">
         <v>791</v>
@@ -23839,7 +23851,7 @@
         <v>791</v>
       </c>
       <c r="AC269" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="AD269" t="s">
         <v>791</v>
@@ -23853,7 +23865,7 @@
         <v>990034</v>
       </c>
       <c r="B270" t="s">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="C270" t="s">
         <v>276</v>
@@ -23889,10 +23901,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="Q270" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="R270" t="s">
         <v>791</v>
@@ -23901,7 +23913,7 @@
         <v>791</v>
       </c>
       <c r="AC270" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="AD270" t="s">
         <v>791</v>
@@ -23915,7 +23927,7 @@
         <v>990035</v>
       </c>
       <c r="B271" t="s">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="C271" t="s">
         <v>277</v>
@@ -23957,10 +23969,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="Q271" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="R271" t="s">
         <v>791</v>
@@ -23969,7 +23981,7 @@
         <v>791</v>
       </c>
       <c r="AC271" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="AD271" t="s">
         <v>791</v>
@@ -23983,7 +23995,7 @@
         <v>990036</v>
       </c>
       <c r="B272" t="s">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="C272" t="s">
         <v>278</v>
@@ -24016,10 +24028,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="Q272" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="R272" t="s">
         <v>791</v>
@@ -24028,7 +24040,7 @@
         <v>791</v>
       </c>
       <c r="AC272" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="AD272" t="s">
         <v>791</v>
@@ -24042,7 +24054,7 @@
         <v>990037</v>
       </c>
       <c r="B273" t="s">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="C273" t="s">
         <v>279</v>
@@ -24081,10 +24093,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="Q273" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="R273" t="s">
         <v>791</v>
@@ -24093,7 +24105,7 @@
         <v>791</v>
       </c>
       <c r="AC273" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="AD273" t="s">
         <v>791</v>
@@ -24107,7 +24119,7 @@
         <v>990038</v>
       </c>
       <c r="B274" t="s">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="C274" t="s">
         <v>280</v>
@@ -24146,10 +24158,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="Q274" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="R274" t="s">
         <v>791</v>
@@ -24158,7 +24170,7 @@
         <v>791</v>
       </c>
       <c r="AC274" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="AD274" t="s">
         <v>791</v>
@@ -24205,10 +24217,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="Q275" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="R275" t="s">
         <v>791</v>
@@ -24217,7 +24229,7 @@
         <v>791</v>
       </c>
       <c r="AC275" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="AD275" t="s">
         <v>791</v>
@@ -24231,7 +24243,7 @@
         <v>990040</v>
       </c>
       <c r="B276" t="s">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="C276" t="s">
         <v>282</v>
@@ -24264,10 +24276,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="Q276" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="R276" t="s">
         <v>791</v>
@@ -24276,7 +24288,7 @@
         <v>791</v>
       </c>
       <c r="AC276" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="AD276" t="s">
         <v>791</v>
@@ -24290,7 +24302,7 @@
         <v>990041</v>
       </c>
       <c r="B277" t="s">
-        <v>1920</v>
+        <v>1904</v>
       </c>
       <c r="C277" t="s">
         <v>283</v>
@@ -24323,10 +24335,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="Q277" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="R277" t="s">
         <v>791</v>
@@ -24335,7 +24347,7 @@
         <v>791</v>
       </c>
       <c r="AC277" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="AD277" t="s">
         <v>791</v>
@@ -24349,7 +24361,7 @@
         <v>990042</v>
       </c>
       <c r="B278" t="s">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="C278" t="s">
         <v>284</v>
@@ -24382,10 +24394,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="Q278" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="R278" t="s">
         <v>791</v>
@@ -24394,7 +24406,7 @@
         <v>791</v>
       </c>
       <c r="AC278" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="AD278" t="s">
         <v>791</v>
@@ -24408,7 +24420,7 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
       <c r="C279" t="s">
         <v>285</v>
@@ -24441,10 +24453,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="Q279" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="R279" t="s">
         <v>791</v>
@@ -24453,7 +24465,7 @@
         <v>791</v>
       </c>
       <c r="AC279" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="AD279" t="s">
         <v>791</v>
@@ -24467,7 +24479,7 @@
         <v>990044</v>
       </c>
       <c r="B280" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="C280" t="s">
         <v>286</v>
@@ -24500,10 +24512,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="Q280" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="R280" t="s">
         <v>791</v>
@@ -24512,7 +24524,7 @@
         <v>791</v>
       </c>
       <c r="AC280" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="AD280" t="s">
         <v>791</v>
@@ -24526,7 +24538,7 @@
         <v>990045</v>
       </c>
       <c r="B281" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="C281" t="s">
         <v>287</v>
@@ -24559,10 +24571,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="Q281" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="R281" t="s">
         <v>791</v>
@@ -24571,7 +24583,7 @@
         <v>791</v>
       </c>
       <c r="AC281" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="AD281" t="s">
         <v>791</v>
@@ -24618,10 +24630,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="Q282" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="R282" t="s">
         <v>791</v>
@@ -24630,7 +24642,7 @@
         <v>791</v>
       </c>
       <c r="AC282" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="AD282" t="s">
         <v>791</v>
@@ -24644,7 +24656,7 @@
         <v>990047</v>
       </c>
       <c r="B283" t="s">
-        <v>1925</v>
+        <v>1909</v>
       </c>
       <c r="C283" t="s">
         <v>289</v>
@@ -24677,10 +24689,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="Q283" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="R283" t="s">
         <v>791</v>
@@ -24689,7 +24701,7 @@
         <v>791</v>
       </c>
       <c r="AC283" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="AD283" t="s">
         <v>791</v>
@@ -24703,7 +24715,7 @@
         <v>990048</v>
       </c>
       <c r="B284" t="s">
-        <v>1926</v>
+        <v>1910</v>
       </c>
       <c r="C284" t="s">
         <v>290</v>
@@ -24736,10 +24748,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="Q284" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="R284" t="s">
         <v>791</v>
@@ -24748,7 +24760,7 @@
         <v>791</v>
       </c>
       <c r="AC284" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="AD284" t="s">
         <v>791</v>
@@ -24762,7 +24774,7 @@
         <v>990049</v>
       </c>
       <c r="B285" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="C285" t="s">
         <v>291</v>
@@ -24795,10 +24807,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="Q285" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="R285" t="s">
         <v>791</v>
@@ -24807,7 +24819,7 @@
         <v>791</v>
       </c>
       <c r="AC285" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="AD285" t="s">
         <v>791</v>
@@ -24821,7 +24833,7 @@
         <v>990050</v>
       </c>
       <c r="B286" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="C286" t="s">
         <v>292</v>
@@ -24854,10 +24866,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="Q286" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="R286" t="s">
         <v>791</v>
@@ -24866,7 +24878,7 @@
         <v>791</v>
       </c>
       <c r="AC286" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="AD286" t="s">
         <v>791</v>
@@ -24880,7 +24892,7 @@
         <v>990051</v>
       </c>
       <c r="B287" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="C287" t="s">
         <v>293</v>
@@ -24913,10 +24925,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="Q287" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="R287" t="s">
         <v>791</v>
@@ -24925,7 +24937,7 @@
         <v>791</v>
       </c>
       <c r="AC287" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="AD287" t="s">
         <v>791</v>
@@ -24939,7 +24951,7 @@
         <v>990052</v>
       </c>
       <c r="B288" t="s">
-        <v>1930</v>
+        <v>1914</v>
       </c>
       <c r="C288" t="s">
         <v>294</v>
@@ -24972,10 +24984,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="Q288" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="R288" t="s">
         <v>791</v>
@@ -24984,7 +24996,7 @@
         <v>791</v>
       </c>
       <c r="AC288" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="AD288" t="s">
         <v>791</v>
@@ -24998,7 +25010,7 @@
         <v>990053</v>
       </c>
       <c r="B289" t="s">
-        <v>1931</v>
+        <v>1915</v>
       </c>
       <c r="C289" t="s">
         <v>295</v>
@@ -25034,10 +25046,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="Q289" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="R289" t="s">
         <v>791</v>
@@ -25046,7 +25058,7 @@
         <v>791</v>
       </c>
       <c r="AC289" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="AD289" t="s">
         <v>791</v>
@@ -25060,7 +25072,7 @@
         <v>990054</v>
       </c>
       <c r="B290" t="s">
-        <v>1932</v>
+        <v>1916</v>
       </c>
       <c r="C290" t="s">
         <v>296</v>
@@ -25096,10 +25108,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="Q290" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="R290" t="s">
         <v>791</v>
@@ -25108,7 +25120,7 @@
         <v>791</v>
       </c>
       <c r="AC290" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="AD290" t="s">
         <v>791</v>
@@ -25122,7 +25134,7 @@
         <v>990055</v>
       </c>
       <c r="B291" t="s">
-        <v>1933</v>
+        <v>1917</v>
       </c>
       <c r="C291" t="s">
         <v>297</v>
@@ -25158,10 +25170,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="Q291" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="R291" t="s">
         <v>791</v>
@@ -25170,7 +25182,7 @@
         <v>791</v>
       </c>
       <c r="AC291" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="AD291" t="s">
         <v>791</v>
@@ -25180,13 +25192,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN291"/>
+  <autoFilter ref="A1:AN291" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1940">
   <si>
     <t>nickName</t>
   </si>
@@ -2856,12 +2856,6 @@
     <t>[4531393]</t>
   </si>
   <si>
-    <t>[24372110]</t>
-  </si>
-  <si>
-    <t>[21001130]</t>
-  </si>
-  <si>
     <t>[219694119]</t>
   </si>
   <si>
@@ -3027,9 +3021,6 @@
     <t>[4425901, 60510186]</t>
   </si>
   <si>
-    <t>[43111655, 56150708, 60530184]</t>
-  </si>
-  <si>
     <t>[30010179, 54970949]</t>
   </si>
   <si>
@@ -3150,9 +3141,6 @@
     <t>[31700901]</t>
   </si>
   <si>
-    <t>[3633510]</t>
-  </si>
-  <si>
     <t>[2946932]</t>
   </si>
   <si>
@@ -3921,9 +3909,6 @@
     <t>lz_cuzz_2017.png</t>
   </si>
   <si>
-    <t>[207354982, 208955389, 209430043]</t>
-  </si>
-  <si>
     <t>lz_bdd_2017.png</t>
   </si>
   <si>
@@ -4164,9 +4149,6 @@
     <t>mvp_maha_2017.png</t>
   </si>
   <si>
-    <t>[2807164]</t>
-  </si>
-  <si>
     <t>mvp_max_2017.png</t>
   </si>
   <si>
@@ -5842,6 +5824,30 @@
   </si>
   <si>
     <t>[243553955]</t>
+  </si>
+  <si>
+    <t>[202849736]</t>
+  </si>
+  <si>
+    <t>[44256793]</t>
+  </si>
+  <si>
+    <t>[207354982, 208955389, 209430043, 210168333]</t>
+  </si>
+  <si>
+    <t>[43111655, 56150708, 60530184, 66850144]</t>
+  </si>
+  <si>
+    <t>[24372110, 219694318]</t>
+  </si>
+  <si>
+    <t>[21001130, 69868149]</t>
+  </si>
+  <si>
+    <t>[2807164, 205842641]</t>
+  </si>
+  <si>
+    <t>[3633510,34180971]</t>
   </si>
 </sst>
 </file>
@@ -6218,10 +6224,10 @@
   <dimension ref="A1:AN291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD65" sqref="AD65"/>
+      <selection pane="bottomRight" activeCell="AC148" sqref="AC148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,7 +6388,7 @@
         <v>101001</v>
       </c>
       <c r="B2" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -6424,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="Q2" t="s">
         <v>791</v>
@@ -6450,7 +6456,7 @@
         <v>101002</v>
       </c>
       <c r="B3" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -6492,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="Q3" t="s">
         <v>791</v>
@@ -6518,7 +6524,7 @@
         <v>101003</v>
       </c>
       <c r="B4" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6560,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="Q4" t="s">
         <v>791</v>
@@ -6586,7 +6592,7 @@
         <v>101004</v>
       </c>
       <c r="B5" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -6628,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="Q5" t="s">
         <v>791</v>
@@ -6654,7 +6660,7 @@
         <v>101005</v>
       </c>
       <c r="B6" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -6696,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="Q6" t="s">
         <v>791</v>
@@ -6722,7 +6728,7 @@
         <v>102001</v>
       </c>
       <c r="B7" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -6764,10 +6770,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="Q7" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="R7" t="s">
         <v>806</v>
@@ -6790,7 +6796,7 @@
         <v>102002</v>
       </c>
       <c r="B8" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -6832,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="Q8" t="s">
         <v>791</v>
@@ -6858,7 +6864,7 @@
         <v>102003</v>
       </c>
       <c r="B9" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -6900,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="Q9" t="s">
         <v>791</v>
@@ -6926,7 +6932,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6965,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="Q10" t="s">
         <v>791</v>
@@ -6991,7 +6997,7 @@
         <v>102005</v>
       </c>
       <c r="B11" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -7033,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="Q11" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="R11" t="s">
         <v>815</v>
@@ -7059,7 +7065,7 @@
         <v>103001</v>
       </c>
       <c r="B12" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -7101,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="Q12" t="s">
         <v>791</v>
@@ -7127,7 +7133,7 @@
         <v>103002</v>
       </c>
       <c r="B13" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -7166,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="Q13" t="s">
         <v>791</v>
@@ -7192,7 +7198,7 @@
         <v>103003</v>
       </c>
       <c r="B14" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -7231,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="Q14" t="s">
         <v>791</v>
@@ -7257,7 +7263,7 @@
         <v>103004</v>
       </c>
       <c r="B15" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -7299,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="Q15" t="s">
         <v>791</v>
@@ -7325,7 +7331,7 @@
         <v>103005</v>
       </c>
       <c r="B16" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -7367,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="Q16" t="s">
         <v>791</v>
@@ -7393,7 +7399,7 @@
         <v>104001</v>
       </c>
       <c r="B17" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -7435,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="Q17" t="s">
         <v>791</v>
@@ -7500,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="Q18" t="s">
         <v>791</v>
@@ -7526,7 +7532,7 @@
         <v>104003</v>
       </c>
       <c r="B19" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -7568,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="Q19" t="s">
         <v>791</v>
@@ -7594,7 +7600,7 @@
         <v>104004</v>
       </c>
       <c r="B20" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -7636,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="Q20" t="s">
         <v>791</v>
@@ -7662,7 +7668,7 @@
         <v>104005</v>
       </c>
       <c r="B21" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -7704,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="Q21" t="s">
         <v>791</v>
@@ -7730,7 +7736,7 @@
         <v>105001</v>
       </c>
       <c r="B22" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -7772,10 +7778,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="Q22" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="R22" t="s">
         <v>840</v>
@@ -7798,7 +7804,7 @@
         <v>105002</v>
       </c>
       <c r="B23" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -7837,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="Q23" t="s">
         <v>791</v>
@@ -7863,7 +7869,7 @@
         <v>105003</v>
       </c>
       <c r="B24" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -7902,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="Q24" t="s">
         <v>791</v>
@@ -7928,7 +7934,7 @@
         <v>105004</v>
       </c>
       <c r="B25" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -7970,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="Q25" t="s">
         <v>791</v>
@@ -7996,7 +8002,7 @@
         <v>105005</v>
       </c>
       <c r="B26" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -8035,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="Q26" t="s">
         <v>791</v>
@@ -8061,7 +8067,7 @@
         <v>106001</v>
       </c>
       <c r="B27" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -8094,10 +8100,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="Q27" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="R27" t="s">
         <v>849</v>
@@ -8162,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="Q28" t="s">
         <v>791</v>
@@ -8188,7 +8194,7 @@
         <v>106003</v>
       </c>
       <c r="B29" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -8227,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="Q29" t="s">
         <v>791</v>
@@ -8253,7 +8259,7 @@
         <v>106004</v>
       </c>
       <c r="B30" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8292,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="Q30" t="s">
         <v>791</v>
@@ -8318,7 +8324,7 @@
         <v>106005</v>
       </c>
       <c r="B31" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -8357,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="Q31" t="s">
         <v>791</v>
@@ -8383,7 +8389,7 @@
         <v>107001</v>
       </c>
       <c r="B32" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -8419,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="Q32" t="s">
         <v>791</v>
@@ -8445,7 +8451,7 @@
         <v>107002</v>
       </c>
       <c r="B33" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -8484,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="Q33" t="s">
         <v>791</v>
@@ -8510,7 +8516,7 @@
         <v>107003</v>
       </c>
       <c r="B34" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -8552,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="Q34" t="s">
         <v>791</v>
@@ -8578,7 +8584,7 @@
         <v>107004</v>
       </c>
       <c r="B35" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -8620,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="Q35" t="s">
         <v>791</v>
@@ -8646,7 +8652,7 @@
         <v>107005</v>
       </c>
       <c r="B36" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -8688,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="Q36" t="s">
         <v>791</v>
@@ -8714,7 +8720,7 @@
         <v>108001</v>
       </c>
       <c r="B37" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -8753,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="Q37" t="s">
         <v>791</v>
@@ -8779,7 +8785,7 @@
         <v>108002</v>
       </c>
       <c r="B38" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -8818,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="Q38" t="s">
         <v>791</v>
@@ -8844,7 +8850,7 @@
         <v>108003</v>
       </c>
       <c r="B39" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8880,16 +8886,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="Q39" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="R39" t="s">
         <v>870</v>
       </c>
       <c r="S39" t="s">
-        <v>791</v>
+        <v>1932</v>
       </c>
       <c r="AC39" t="s">
         <v>871</v>
@@ -8898,7 +8904,7 @@
         <v>872</v>
       </c>
       <c r="AE39" t="s">
-        <v>791</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8906,7 +8912,7 @@
         <v>108004</v>
       </c>
       <c r="B40" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -8945,13 +8951,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="Q40" t="s">
         <v>791</v>
       </c>
       <c r="R40" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="S40" t="s">
         <v>791</v>
@@ -8960,7 +8966,7 @@
         <v>791</v>
       </c>
       <c r="AD40" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="AE40" t="s">
         <v>791</v>
@@ -8971,7 +8977,7 @@
         <v>108005</v>
       </c>
       <c r="B41" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -9004,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="Q41" t="s">
         <v>791</v>
@@ -9030,7 +9036,7 @@
         <v>108006</v>
       </c>
       <c r="B42" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -9066,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="Q42" t="s">
         <v>791</v>
@@ -9092,7 +9098,7 @@
         <v>108007</v>
       </c>
       <c r="B43" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -9131,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="Q43" t="s">
         <v>791</v>
@@ -9157,7 +9163,7 @@
         <v>108008</v>
       </c>
       <c r="B44" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -9196,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="Q44" t="s">
         <v>791</v>
@@ -9222,7 +9228,7 @@
         <v>108009</v>
       </c>
       <c r="B45" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -9258,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="Q45" t="s">
         <v>791</v>
@@ -9284,7 +9290,7 @@
         <v>109001</v>
       </c>
       <c r="B46" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -9326,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="Q46" t="s">
         <v>791</v>
@@ -9352,7 +9358,7 @@
         <v>109002</v>
       </c>
       <c r="B47" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -9391,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="Q47" t="s">
         <v>791</v>
@@ -9417,7 +9423,7 @@
         <v>109003</v>
       </c>
       <c r="B48" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -9459,13 +9465,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="Q48" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="R48" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="S48" t="s">
         <v>791</v>
@@ -9474,7 +9480,7 @@
         <v>887</v>
       </c>
       <c r="AD48" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="AE48" t="s">
         <v>791</v>
@@ -9485,7 +9491,7 @@
         <v>109004</v>
       </c>
       <c r="B49" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -9527,10 +9533,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="Q49" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="R49" t="s">
         <v>888</v>
@@ -9553,7 +9559,7 @@
         <v>109005</v>
       </c>
       <c r="B50" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -9592,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="Q50" t="s">
         <v>791</v>
@@ -9657,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="Q51" t="s">
         <v>791</v>
@@ -9683,7 +9689,7 @@
         <v>110002</v>
       </c>
       <c r="B52" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -9722,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="Q52" t="s">
         <v>791</v>
@@ -9748,7 +9754,7 @@
         <v>110003</v>
       </c>
       <c r="B53" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -9790,13 +9796,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="Q53" t="s">
         <v>791</v>
       </c>
       <c r="R53" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="S53" t="s">
         <v>791</v>
@@ -9805,7 +9811,7 @@
         <v>791</v>
       </c>
       <c r="AD53" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="AE53" t="s">
         <v>791</v>
@@ -9816,7 +9822,7 @@
         <v>110004</v>
       </c>
       <c r="B54" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -9858,10 +9864,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="Q54" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="R54" t="s">
         <v>897</v>
@@ -9884,7 +9890,7 @@
         <v>110005</v>
       </c>
       <c r="B55" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -9926,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="Q55" t="s">
         <v>791</v>
@@ -9952,7 +9958,7 @@
         <v>201001</v>
       </c>
       <c r="B56" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -9994,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="Q56" t="s">
         <v>791</v>
@@ -10020,7 +10026,7 @@
         <v>201002</v>
       </c>
       <c r="B57" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -10062,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="Q57" t="s">
         <v>791</v>
@@ -10088,7 +10094,7 @@
         <v>201003</v>
       </c>
       <c r="B58" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -10130,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="Q58" t="s">
         <v>791</v>
@@ -10139,7 +10145,7 @@
         <v>791</v>
       </c>
       <c r="S58" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="AC58" t="s">
         <v>791</v>
@@ -10148,7 +10154,7 @@
         <v>791</v>
       </c>
       <c r="AE58" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -10156,7 +10162,7 @@
         <v>201004</v>
       </c>
       <c r="B59" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -10198,10 +10204,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="Q59" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="R59" t="s">
         <v>791</v>
@@ -10224,7 +10230,7 @@
         <v>201005</v>
       </c>
       <c r="B60" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -10266,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="Q60" t="s">
         <v>791</v>
@@ -10292,7 +10298,7 @@
         <v>202001</v>
       </c>
       <c r="B61" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -10325,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="Q61" t="s">
         <v>791</v>
@@ -10351,7 +10357,7 @@
         <v>202002</v>
       </c>
       <c r="B62" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -10393,10 +10399,10 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="Q62" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="R62" t="s">
         <v>791</v>
@@ -10419,7 +10425,7 @@
         <v>202003</v>
       </c>
       <c r="B63" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -10461,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="Q63" t="s">
         <v>791</v>
@@ -10487,7 +10493,7 @@
         <v>202004</v>
       </c>
       <c r="B64" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -10529,13 +10535,13 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="Q64" t="s">
         <v>791</v>
       </c>
       <c r="R64" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="S64" t="s">
         <v>918</v>
@@ -10597,13 +10603,13 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="Q65" t="s">
         <v>791</v>
       </c>
       <c r="R65" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="S65" t="s">
         <v>921</v>
@@ -10623,7 +10629,7 @@
         <v>203001</v>
       </c>
       <c r="B66" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
@@ -10662,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="Q66" t="s">
         <v>791</v>
@@ -10688,7 +10694,7 @@
         <v>203002</v>
       </c>
       <c r="B67" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -10730,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="Q67" t="s">
         <v>791</v>
@@ -10756,7 +10762,7 @@
         <v>203003</v>
       </c>
       <c r="B68" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -10798,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="Q68" t="s">
         <v>791</v>
@@ -10824,7 +10830,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10866,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="Q69" t="s">
         <v>791</v>
@@ -10892,7 +10898,7 @@
         <v>203005</v>
       </c>
       <c r="B70" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
@@ -10934,10 +10940,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="Q70" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="R70" t="s">
         <v>791</v>
@@ -10960,7 +10966,7 @@
         <v>204001</v>
       </c>
       <c r="B71" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
@@ -10993,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q71" t="s">
         <v>791</v>
@@ -11019,7 +11025,7 @@
         <v>204002</v>
       </c>
       <c r="B72" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
@@ -11058,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="Q72" t="s">
         <v>791</v>
@@ -11084,7 +11090,7 @@
         <v>204003</v>
       </c>
       <c r="B73" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="C73" t="s">
         <v>77</v>
@@ -11126,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q73" t="s">
         <v>791</v>
@@ -11152,7 +11158,7 @@
         <v>204004</v>
       </c>
       <c r="B74" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
@@ -11191,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q74" t="s">
         <v>791</v>
@@ -11200,7 +11206,7 @@
         <v>791</v>
       </c>
       <c r="S74" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="AC74" t="s">
         <v>791</v>
@@ -11209,7 +11215,7 @@
         <v>791</v>
       </c>
       <c r="AE74" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -11217,7 +11223,7 @@
         <v>204005</v>
       </c>
       <c r="B75" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
@@ -11259,16 +11265,16 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q75" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="R75" t="s">
         <v>791</v>
       </c>
       <c r="S75" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="AC75" t="s">
         <v>941</v>
@@ -11277,7 +11283,7 @@
         <v>791</v>
       </c>
       <c r="AE75" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -11285,7 +11291,7 @@
         <v>205001</v>
       </c>
       <c r="B76" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -11324,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="Q76" t="s">
         <v>791</v>
@@ -11333,7 +11339,7 @@
         <v>791</v>
       </c>
       <c r="S76" t="s">
-        <v>942</v>
+        <v>1936</v>
       </c>
       <c r="AC76" t="s">
         <v>791</v>
@@ -11342,7 +11348,7 @@
         <v>791</v>
       </c>
       <c r="AE76" t="s">
-        <v>943</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -11350,7 +11356,7 @@
         <v>205002</v>
       </c>
       <c r="B77" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -11392,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q77" t="s">
         <v>791</v>
@@ -11401,10 +11407,10 @@
         <v>791</v>
       </c>
       <c r="S77" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="T77" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="AC77" t="s">
         <v>791</v>
@@ -11413,10 +11419,10 @@
         <v>791</v>
       </c>
       <c r="AE77" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="AF77" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -11424,7 +11430,7 @@
         <v>205003</v>
       </c>
       <c r="B78" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="C78" t="s">
         <v>82</v>
@@ -11466,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q78" t="s">
         <v>791</v>
@@ -11475,7 +11481,7 @@
         <v>791</v>
       </c>
       <c r="S78" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AC78" t="s">
         <v>791</v>
@@ -11484,7 +11490,7 @@
         <v>791</v>
       </c>
       <c r="AE78" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -11492,7 +11498,7 @@
         <v>205004</v>
       </c>
       <c r="B79" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="C79" t="s">
         <v>83</v>
@@ -11528,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q79" t="s">
         <v>791</v>
@@ -11537,7 +11543,7 @@
         <v>791</v>
       </c>
       <c r="S79" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AC79" t="s">
         <v>791</v>
@@ -11546,7 +11552,7 @@
         <v>791</v>
       </c>
       <c r="AE79" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -11554,7 +11560,7 @@
         <v>205005</v>
       </c>
       <c r="B80" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
@@ -11590,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q80" t="s">
         <v>791</v>
@@ -11599,7 +11605,7 @@
         <v>791</v>
       </c>
       <c r="S80" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AC80" t="s">
         <v>791</v>
@@ -11608,7 +11614,7 @@
         <v>791</v>
       </c>
       <c r="AE80" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -11616,7 +11622,7 @@
         <v>206001</v>
       </c>
       <c r="B81" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
@@ -11658,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="Q81" t="s">
         <v>791</v>
@@ -11667,7 +11673,7 @@
         <v>791</v>
       </c>
       <c r="S81" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AC81" t="s">
         <v>791</v>
@@ -11676,7 +11682,7 @@
         <v>791</v>
       </c>
       <c r="AE81" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -11684,7 +11690,7 @@
         <v>206002</v>
       </c>
       <c r="B82" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
@@ -11726,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="Q82" t="s">
         <v>791</v>
@@ -11735,7 +11741,7 @@
         <v>791</v>
       </c>
       <c r="S82" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AC82" t="s">
         <v>791</v>
@@ -11744,7 +11750,7 @@
         <v>791</v>
       </c>
       <c r="AE82" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -11752,7 +11758,7 @@
         <v>206003</v>
       </c>
       <c r="B83" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
@@ -11794,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q83" t="s">
         <v>791</v>
@@ -11803,7 +11809,7 @@
         <v>791</v>
       </c>
       <c r="S83" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AC83" t="s">
         <v>791</v>
@@ -11812,7 +11818,7 @@
         <v>791</v>
       </c>
       <c r="AE83" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -11820,7 +11826,7 @@
         <v>206004</v>
       </c>
       <c r="B84" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
@@ -11859,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q84" t="s">
         <v>791</v>
@@ -11868,7 +11874,7 @@
         <v>791</v>
       </c>
       <c r="S84" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AC84" t="s">
         <v>791</v>
@@ -11877,7 +11883,7 @@
         <v>791</v>
       </c>
       <c r="AE84" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -11885,7 +11891,7 @@
         <v>206005</v>
       </c>
       <c r="B85" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
@@ -11927,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="Q85" t="s">
         <v>791</v>
@@ -11936,7 +11942,7 @@
         <v>791</v>
       </c>
       <c r="S85" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AC85" t="s">
         <v>791</v>
@@ -11945,7 +11951,7 @@
         <v>791</v>
       </c>
       <c r="AE85" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -11953,7 +11959,7 @@
         <v>207001</v>
       </c>
       <c r="B86" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="C86" t="s">
         <v>90</v>
@@ -11995,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Q86" t="s">
         <v>791</v>
@@ -12004,7 +12010,7 @@
         <v>791</v>
       </c>
       <c r="S86" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AC86" t="s">
         <v>791</v>
@@ -12013,7 +12019,7 @@
         <v>791</v>
       </c>
       <c r="AE86" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -12021,7 +12027,7 @@
         <v>207002</v>
       </c>
       <c r="B87" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
@@ -12060,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="Q87" t="s">
         <v>791</v>
@@ -12069,7 +12075,7 @@
         <v>791</v>
       </c>
       <c r="S87" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AC87" t="s">
         <v>791</v>
@@ -12078,7 +12084,7 @@
         <v>791</v>
       </c>
       <c r="AE87" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -12086,7 +12092,7 @@
         <v>207003</v>
       </c>
       <c r="B88" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
@@ -12128,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Q88" t="s">
         <v>791</v>
@@ -12137,7 +12143,7 @@
         <v>791</v>
       </c>
       <c r="S88" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AC88" t="s">
         <v>791</v>
@@ -12146,7 +12152,7 @@
         <v>791</v>
       </c>
       <c r="AE88" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -12154,7 +12160,7 @@
         <v>207004</v>
       </c>
       <c r="B89" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="C89" t="s">
         <v>93</v>
@@ -12196,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="Q89" t="s">
         <v>791</v>
@@ -12205,7 +12211,7 @@
         <v>791</v>
       </c>
       <c r="S89" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AC89" t="s">
         <v>791</v>
@@ -12214,7 +12220,7 @@
         <v>791</v>
       </c>
       <c r="AE89" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -12222,7 +12228,7 @@
         <v>207005</v>
       </c>
       <c r="B90" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C90" t="s">
         <v>94</v>
@@ -12261,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="Q90" t="s">
         <v>791</v>
@@ -12270,7 +12276,7 @@
         <v>791</v>
       </c>
       <c r="S90" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AC90" t="s">
         <v>791</v>
@@ -12279,7 +12285,7 @@
         <v>791</v>
       </c>
       <c r="AE90" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -12287,7 +12293,7 @@
         <v>208001</v>
       </c>
       <c r="B91" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
@@ -12329,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q91" t="s">
         <v>791</v>
@@ -12338,7 +12344,7 @@
         <v>791</v>
       </c>
       <c r="S91" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AC91" t="s">
         <v>791</v>
@@ -12347,7 +12353,7 @@
         <v>791</v>
       </c>
       <c r="AE91" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -12355,7 +12361,7 @@
         <v>208002</v>
       </c>
       <c r="B92" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C92" t="s">
         <v>96</v>
@@ -12397,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q92" t="s">
         <v>791</v>
@@ -12406,7 +12412,7 @@
         <v>791</v>
       </c>
       <c r="S92" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="AC92" t="s">
         <v>791</v>
@@ -12415,7 +12421,7 @@
         <v>791</v>
       </c>
       <c r="AE92" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -12423,7 +12429,7 @@
         <v>208003</v>
       </c>
       <c r="B93" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C93" t="s">
         <v>97</v>
@@ -12462,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="Q93" t="s">
         <v>791</v>
@@ -12471,7 +12477,7 @@
         <v>791</v>
       </c>
       <c r="S93" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AC93" t="s">
         <v>791</v>
@@ -12480,7 +12486,7 @@
         <v>791</v>
       </c>
       <c r="AE93" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -12488,7 +12494,7 @@
         <v>208004</v>
       </c>
       <c r="B94" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="C94" t="s">
         <v>98</v>
@@ -12530,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="Q94" t="s">
         <v>791</v>
@@ -12539,7 +12545,7 @@
         <v>791</v>
       </c>
       <c r="S94" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AC94" t="s">
         <v>791</v>
@@ -12548,7 +12554,7 @@
         <v>791</v>
       </c>
       <c r="AE94" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -12556,7 +12562,7 @@
         <v>208005</v>
       </c>
       <c r="B95" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="C95" t="s">
         <v>99</v>
@@ -12598,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="Q95" t="s">
         <v>791</v>
@@ -12607,7 +12613,7 @@
         <v>791</v>
       </c>
       <c r="S95" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AC95" t="s">
         <v>791</v>
@@ -12616,7 +12622,7 @@
         <v>791</v>
       </c>
       <c r="AE95" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -12624,7 +12630,7 @@
         <v>209001</v>
       </c>
       <c r="B96" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="C96" t="s">
         <v>100</v>
@@ -12666,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="Q96" t="s">
         <v>791</v>
@@ -12675,7 +12681,7 @@
         <v>791</v>
       </c>
       <c r="S96" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AC96" t="s">
         <v>791</v>
@@ -12684,7 +12690,7 @@
         <v>791</v>
       </c>
       <c r="AE96" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -12692,7 +12698,7 @@
         <v>209002</v>
       </c>
       <c r="B97" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="C97" t="s">
         <v>101</v>
@@ -12731,7 +12737,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="Q97" t="s">
         <v>791</v>
@@ -12740,7 +12746,7 @@
         <v>791</v>
       </c>
       <c r="S97" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AC97" t="s">
         <v>791</v>
@@ -12749,7 +12755,7 @@
         <v>791</v>
       </c>
       <c r="AE97" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -12757,7 +12763,7 @@
         <v>209003</v>
       </c>
       <c r="B98" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="C98" t="s">
         <v>102</v>
@@ -12796,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="Q98" t="s">
         <v>791</v>
@@ -12805,7 +12811,7 @@
         <v>791</v>
       </c>
       <c r="S98" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AC98" t="s">
         <v>791</v>
@@ -12814,7 +12820,7 @@
         <v>791</v>
       </c>
       <c r="AE98" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -12822,7 +12828,7 @@
         <v>209004</v>
       </c>
       <c r="B99" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="C99" t="s">
         <v>103</v>
@@ -12861,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="Q99" t="s">
         <v>791</v>
@@ -12870,7 +12876,7 @@
         <v>791</v>
       </c>
       <c r="S99" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AC99" t="s">
         <v>791</v>
@@ -12879,7 +12885,7 @@
         <v>791</v>
       </c>
       <c r="AE99" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -12887,7 +12893,7 @@
         <v>209005</v>
       </c>
       <c r="B100" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="C100" t="s">
         <v>104</v>
@@ -12926,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q100" t="s">
         <v>791</v>
@@ -12935,7 +12941,7 @@
         <v>791</v>
       </c>
       <c r="S100" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AC100" t="s">
         <v>791</v>
@@ -12944,7 +12950,7 @@
         <v>791</v>
       </c>
       <c r="AE100" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -12952,7 +12958,7 @@
         <v>210001</v>
       </c>
       <c r="B101" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="C101" t="s">
         <v>105</v>
@@ -12991,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q101" t="s">
         <v>791</v>
@@ -13000,7 +13006,7 @@
         <v>791</v>
       </c>
       <c r="S101" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AC101" t="s">
         <v>791</v>
@@ -13009,7 +13015,7 @@
         <v>791</v>
       </c>
       <c r="AE101" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -13017,7 +13023,7 @@
         <v>210002</v>
       </c>
       <c r="B102" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
@@ -13059,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Q102" t="s">
         <v>791</v>
@@ -13068,7 +13074,7 @@
         <v>791</v>
       </c>
       <c r="S102" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="AC102" t="s">
         <v>791</v>
@@ -13077,7 +13083,7 @@
         <v>791</v>
       </c>
       <c r="AE102" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -13085,7 +13091,7 @@
         <v>210003</v>
       </c>
       <c r="B103" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="C103" t="s">
         <v>107</v>
@@ -13124,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q103" t="s">
         <v>791</v>
@@ -13133,7 +13139,7 @@
         <v>791</v>
       </c>
       <c r="S103" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AC103" t="s">
         <v>791</v>
@@ -13142,7 +13148,7 @@
         <v>791</v>
       </c>
       <c r="AE103" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -13150,7 +13156,7 @@
         <v>210004</v>
       </c>
       <c r="B104" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="C104" t="s">
         <v>108</v>
@@ -13189,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q104" t="s">
         <v>791</v>
@@ -13198,7 +13204,7 @@
         <v>791</v>
       </c>
       <c r="S104" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AC104" t="s">
         <v>791</v>
@@ -13207,7 +13213,7 @@
         <v>791</v>
       </c>
       <c r="AE104" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -13215,7 +13221,7 @@
         <v>210005</v>
       </c>
       <c r="B105" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="C105" t="s">
         <v>109</v>
@@ -13254,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q105" t="s">
         <v>791</v>
@@ -13263,7 +13269,7 @@
         <v>791</v>
       </c>
       <c r="S105" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AC105" t="s">
         <v>791</v>
@@ -13272,7 +13278,7 @@
         <v>791</v>
       </c>
       <c r="AE105" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -13280,7 +13286,7 @@
         <v>301001</v>
       </c>
       <c r="B106" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="C106" t="s">
         <v>110</v>
@@ -13319,10 +13325,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="Q106" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="R106" t="s">
         <v>791</v>
@@ -13331,7 +13337,7 @@
         <v>791</v>
       </c>
       <c r="AC106" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AD106" t="s">
         <v>791</v>
@@ -13345,7 +13351,7 @@
         <v>301002</v>
       </c>
       <c r="B107" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="C107" t="s">
         <v>111</v>
@@ -13384,10 +13390,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q107" t="s">
-        <v>1297</v>
+        <v>1934</v>
       </c>
       <c r="R107" t="s">
         <v>791</v>
@@ -13396,7 +13402,7 @@
         <v>791</v>
       </c>
       <c r="AC107" t="s">
-        <v>999</v>
+        <v>1935</v>
       </c>
       <c r="AD107" t="s">
         <v>791</v>
@@ -13410,7 +13416,7 @@
         <v>301003</v>
       </c>
       <c r="B108" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="C108" t="s">
         <v>112</v>
@@ -13452,10 +13458,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="Q108" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="R108" t="s">
         <v>791</v>
@@ -13464,7 +13470,7 @@
         <v>791</v>
       </c>
       <c r="AC108" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AD108" t="s">
         <v>791</v>
@@ -13478,7 +13484,7 @@
         <v>301004</v>
       </c>
       <c r="B109" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="C109" t="s">
         <v>113</v>
@@ -13520,10 +13526,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="Q109" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="R109" t="s">
         <v>791</v>
@@ -13532,7 +13538,7 @@
         <v>791</v>
       </c>
       <c r="AC109" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="AD109" t="s">
         <v>791</v>
@@ -13546,7 +13552,7 @@
         <v>301005</v>
       </c>
       <c r="B110" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="C110" t="s">
         <v>114</v>
@@ -13588,10 +13594,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="Q110" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="R110" t="s">
         <v>791</v>
@@ -13600,7 +13606,7 @@
         <v>791</v>
       </c>
       <c r="AC110" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AD110" t="s">
         <v>791</v>
@@ -13614,7 +13620,7 @@
         <v>302001</v>
       </c>
       <c r="B111" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
@@ -13656,10 +13662,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="Q111" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="R111" t="s">
         <v>791</v>
@@ -13668,7 +13674,7 @@
         <v>791</v>
       </c>
       <c r="AC111" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="AD111" t="s">
         <v>791</v>
@@ -13682,7 +13688,7 @@
         <v>302002</v>
       </c>
       <c r="B112" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
@@ -13724,10 +13730,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="Q112" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="R112" t="s">
         <v>791</v>
@@ -13736,7 +13742,7 @@
         <v>791</v>
       </c>
       <c r="AC112" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AD112" t="s">
         <v>791</v>
@@ -13750,7 +13756,7 @@
         <v>302003</v>
       </c>
       <c r="B113" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="C113" t="s">
         <v>117</v>
@@ -13792,10 +13798,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="Q113" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="R113" t="s">
         <v>791</v>
@@ -13804,7 +13810,7 @@
         <v>791</v>
       </c>
       <c r="AC113" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AD113" t="s">
         <v>791</v>
@@ -13818,7 +13824,7 @@
         <v>302004</v>
       </c>
       <c r="B114" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="C114" t="s">
         <v>118</v>
@@ -13860,10 +13866,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="Q114" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="R114" t="s">
         <v>791</v>
@@ -13872,7 +13878,7 @@
         <v>791</v>
       </c>
       <c r="AC114" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AD114" t="s">
         <v>791</v>
@@ -13928,10 +13934,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="Q115" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="R115" t="s">
         <v>791</v>
@@ -13940,7 +13946,7 @@
         <v>791</v>
       </c>
       <c r="AC115" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="AD115" t="s">
         <v>791</v>
@@ -13954,7 +13960,7 @@
         <v>303001</v>
       </c>
       <c r="B116" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="C116" t="s">
         <v>120</v>
@@ -13996,10 +14002,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="Q116" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="R116" t="s">
         <v>791</v>
@@ -14008,7 +14014,7 @@
         <v>791</v>
       </c>
       <c r="AC116" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AD116" t="s">
         <v>791</v>
@@ -14022,7 +14028,7 @@
         <v>303002</v>
       </c>
       <c r="B117" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
@@ -14064,10 +14070,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="Q117" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="R117" t="s">
         <v>791</v>
@@ -14076,7 +14082,7 @@
         <v>791</v>
       </c>
       <c r="AC117" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AD117" t="s">
         <v>791</v>
@@ -14090,7 +14096,7 @@
         <v>303003</v>
       </c>
       <c r="B118" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
@@ -14132,10 +14138,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="Q118" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="R118" t="s">
         <v>791</v>
@@ -14144,7 +14150,7 @@
         <v>791</v>
       </c>
       <c r="AC118" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="AD118" t="s">
         <v>791</v>
@@ -14158,7 +14164,7 @@
         <v>303004</v>
       </c>
       <c r="B119" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="C119" t="s">
         <v>123</v>
@@ -14200,10 +14206,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="Q119" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="R119" t="s">
         <v>791</v>
@@ -14212,7 +14218,7 @@
         <v>791</v>
       </c>
       <c r="AC119" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AD119" t="s">
         <v>791</v>
@@ -14226,7 +14232,7 @@
         <v>303005</v>
       </c>
       <c r="B120" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="C120" t="s">
         <v>124</v>
@@ -14268,10 +14274,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="Q120" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="R120" t="s">
         <v>791</v>
@@ -14280,7 +14286,7 @@
         <v>791</v>
       </c>
       <c r="AC120" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="AD120" t="s">
         <v>791</v>
@@ -14294,7 +14300,7 @@
         <v>304001</v>
       </c>
       <c r="B121" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="C121" t="s">
         <v>125</v>
@@ -14336,10 +14342,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="Q121" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="R121" t="s">
         <v>791</v>
@@ -14348,7 +14354,7 @@
         <v>791</v>
       </c>
       <c r="AC121" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="AD121" t="s">
         <v>791</v>
@@ -14362,7 +14368,7 @@
         <v>304002</v>
       </c>
       <c r="B122" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
@@ -14404,10 +14410,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="Q122" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="R122" t="s">
         <v>791</v>
@@ -14416,7 +14422,7 @@
         <v>791</v>
       </c>
       <c r="AC122" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AD122" t="s">
         <v>791</v>
@@ -14430,7 +14436,7 @@
         <v>304003</v>
       </c>
       <c r="B123" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
@@ -14472,10 +14478,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="Q123" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="R123" t="s">
         <v>791</v>
@@ -14484,7 +14490,7 @@
         <v>791</v>
       </c>
       <c r="AC123" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="AD123" t="s">
         <v>791</v>
@@ -14498,7 +14504,7 @@
         <v>304004</v>
       </c>
       <c r="B124" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
@@ -14540,10 +14546,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="Q124" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="R124" t="s">
         <v>791</v>
@@ -14552,7 +14558,7 @@
         <v>791</v>
       </c>
       <c r="AC124" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AD124" t="s">
         <v>791</v>
@@ -14566,7 +14572,7 @@
         <v>304005</v>
       </c>
       <c r="B125" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
@@ -14608,10 +14614,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="Q125" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="R125" t="s">
         <v>791</v>
@@ -14620,7 +14626,7 @@
         <v>791</v>
       </c>
       <c r="AC125" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AD125" t="s">
         <v>791</v>
@@ -14634,7 +14640,7 @@
         <v>304006</v>
       </c>
       <c r="B126" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
@@ -14676,10 +14682,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="Q126" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="R126" t="s">
         <v>791</v>
@@ -14688,7 +14694,7 @@
         <v>791</v>
       </c>
       <c r="AC126" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AD126" t="s">
         <v>791</v>
@@ -14702,7 +14708,7 @@
         <v>304007</v>
       </c>
       <c r="B127" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
@@ -14744,10 +14750,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="Q127" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="R127" t="s">
         <v>791</v>
@@ -14756,7 +14762,7 @@
         <v>791</v>
       </c>
       <c r="AC127" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AD127" t="s">
         <v>791</v>
@@ -14770,7 +14776,7 @@
         <v>305001</v>
       </c>
       <c r="B128" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
@@ -14806,10 +14812,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="Q128" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="R128" t="s">
         <v>791</v>
@@ -14818,7 +14824,7 @@
         <v>791</v>
       </c>
       <c r="AC128" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="AD128" t="s">
         <v>791</v>
@@ -14832,7 +14838,7 @@
         <v>305002</v>
       </c>
       <c r="B129" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
@@ -14874,10 +14880,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q129" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="R129" t="s">
         <v>791</v>
@@ -14886,7 +14892,7 @@
         <v>791</v>
       </c>
       <c r="AC129" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="AD129" t="s">
         <v>791</v>
@@ -14900,7 +14906,7 @@
         <v>305003</v>
       </c>
       <c r="B130" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="C130" t="s">
         <v>134</v>
@@ -14942,10 +14948,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="Q130" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="R130" t="s">
         <v>791</v>
@@ -14954,7 +14960,7 @@
         <v>791</v>
       </c>
       <c r="AC130" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="AD130" t="s">
         <v>791</v>
@@ -14968,7 +14974,7 @@
         <v>305004</v>
       </c>
       <c r="B131" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
@@ -15010,10 +15016,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="Q131" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="R131" t="s">
         <v>791</v>
@@ -15022,7 +15028,7 @@
         <v>791</v>
       </c>
       <c r="AC131" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AD131" t="s">
         <v>791</v>
@@ -15036,7 +15042,7 @@
         <v>305005</v>
       </c>
       <c r="B132" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="C132" t="s">
         <v>136</v>
@@ -15078,10 +15084,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="Q132" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="R132" t="s">
         <v>791</v>
@@ -15090,7 +15096,7 @@
         <v>791</v>
       </c>
       <c r="AC132" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AD132" t="s">
         <v>791</v>
@@ -15140,10 +15146,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="Q133" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="R133" t="s">
         <v>791</v>
@@ -15152,7 +15158,7 @@
         <v>791</v>
       </c>
       <c r="AC133" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AD133" t="s">
         <v>791</v>
@@ -15166,7 +15172,7 @@
         <v>306002</v>
       </c>
       <c r="B134" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="C134" t="s">
         <v>138</v>
@@ -15205,10 +15211,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="Q134" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="R134" t="s">
         <v>791</v>
@@ -15217,7 +15223,7 @@
         <v>791</v>
       </c>
       <c r="AC134" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="AD134" t="s">
         <v>791</v>
@@ -15231,7 +15237,7 @@
         <v>306003</v>
       </c>
       <c r="B135" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="C135" t="s">
         <v>139</v>
@@ -15273,10 +15279,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="Q135" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="R135" t="s">
         <v>791</v>
@@ -15285,7 +15291,7 @@
         <v>791</v>
       </c>
       <c r="AC135" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="AD135" t="s">
         <v>791</v>
@@ -15299,7 +15305,7 @@
         <v>306004</v>
       </c>
       <c r="B136" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="C136" t="s">
         <v>140</v>
@@ -15338,10 +15344,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="Q136" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="R136" t="s">
         <v>791</v>
@@ -15350,7 +15356,7 @@
         <v>791</v>
       </c>
       <c r="AC136" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AD136" t="s">
         <v>791</v>
@@ -15364,7 +15370,7 @@
         <v>306005</v>
       </c>
       <c r="B137" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="C137" t="s">
         <v>141</v>
@@ -15400,10 +15406,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="Q137" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="R137" t="s">
         <v>791</v>
@@ -15412,7 +15418,7 @@
         <v>791</v>
       </c>
       <c r="AC137" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AD137" t="s">
         <v>791</v>
@@ -15426,7 +15432,7 @@
         <v>306006</v>
       </c>
       <c r="B138" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="C138" t="s">
         <v>142</v>
@@ -15465,10 +15471,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="Q138" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="R138" t="s">
         <v>791</v>
@@ -15477,7 +15483,7 @@
         <v>791</v>
       </c>
       <c r="AC138" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="AD138" t="s">
         <v>791</v>
@@ -15491,7 +15497,7 @@
         <v>307001</v>
       </c>
       <c r="B139" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="C139" t="s">
         <v>143</v>
@@ -15533,10 +15539,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="Q139" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="R139" t="s">
         <v>791</v>
@@ -15545,7 +15551,7 @@
         <v>791</v>
       </c>
       <c r="AC139" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="AD139" t="s">
         <v>791</v>
@@ -15559,7 +15565,7 @@
         <v>307002</v>
       </c>
       <c r="B140" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="C140" t="s">
         <v>144</v>
@@ -15601,10 +15607,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="Q140" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="R140" t="s">
         <v>791</v>
@@ -15613,7 +15619,7 @@
         <v>791</v>
       </c>
       <c r="AC140" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="AD140" t="s">
         <v>791</v>
@@ -15627,7 +15633,7 @@
         <v>307003</v>
       </c>
       <c r="B141" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="C141" t="s">
         <v>145</v>
@@ -15666,10 +15672,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q141" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="R141" t="s">
         <v>791</v>
@@ -15678,7 +15684,7 @@
         <v>791</v>
       </c>
       <c r="AC141" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="AD141" t="s">
         <v>791</v>
@@ -15692,7 +15698,7 @@
         <v>307004</v>
       </c>
       <c r="B142" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="C142" t="s">
         <v>146</v>
@@ -15734,10 +15740,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="Q142" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="R142" t="s">
         <v>791</v>
@@ -15746,7 +15752,7 @@
         <v>791</v>
       </c>
       <c r="AC142" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="AD142" t="s">
         <v>791</v>
@@ -15802,10 +15808,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="Q143" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="R143" t="s">
         <v>791</v>
@@ -15814,7 +15820,7 @@
         <v>791</v>
       </c>
       <c r="AC143" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="AD143" t="s">
         <v>791</v>
@@ -15828,7 +15834,7 @@
         <v>307006</v>
       </c>
       <c r="B144" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="C144" t="s">
         <v>148</v>
@@ -15870,10 +15876,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="Q144" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="R144" t="s">
         <v>791</v>
@@ -15882,7 +15888,7 @@
         <v>791</v>
       </c>
       <c r="AC144" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AD144" t="s">
         <v>791</v>
@@ -15896,7 +15902,7 @@
         <v>308001</v>
       </c>
       <c r="B145" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="C145" t="s">
         <v>149</v>
@@ -15938,10 +15944,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="Q145" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="R145" t="s">
         <v>791</v>
@@ -15950,7 +15956,7 @@
         <v>791</v>
       </c>
       <c r="AC145" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AD145" t="s">
         <v>791</v>
@@ -15964,7 +15970,7 @@
         <v>308002</v>
       </c>
       <c r="B146" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="C146" t="s">
         <v>150</v>
@@ -16006,10 +16012,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="Q146" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="R146" t="s">
         <v>791</v>
@@ -16018,7 +16024,7 @@
         <v>791</v>
       </c>
       <c r="AC146" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AD146" t="s">
         <v>791</v>
@@ -16032,7 +16038,7 @@
         <v>308003</v>
       </c>
       <c r="B147" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="C147" t="s">
         <v>151</v>
@@ -16074,10 +16080,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="Q147" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="R147" t="s">
         <v>791</v>
@@ -16086,7 +16092,7 @@
         <v>791</v>
       </c>
       <c r="AC147" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AD147" t="s">
         <v>791</v>
@@ -16100,7 +16106,7 @@
         <v>308004</v>
       </c>
       <c r="B148" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="C148" t="s">
         <v>152</v>
@@ -16142,10 +16148,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="Q148" t="s">
-        <v>1378</v>
+        <v>1938</v>
       </c>
       <c r="R148" t="s">
         <v>791</v>
@@ -16154,7 +16160,7 @@
         <v>791</v>
       </c>
       <c r="AC148" t="s">
-        <v>1040</v>
+        <v>1939</v>
       </c>
       <c r="AD148" t="s">
         <v>791</v>
@@ -16168,7 +16174,7 @@
         <v>308005</v>
       </c>
       <c r="B149" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="C149" t="s">
         <v>153</v>
@@ -16210,10 +16216,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="Q149" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="R149" t="s">
         <v>791</v>
@@ -16222,7 +16228,7 @@
         <v>791</v>
       </c>
       <c r="AC149" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="AD149" t="s">
         <v>791</v>
@@ -16236,7 +16242,7 @@
         <v>401001</v>
       </c>
       <c r="B150" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="C150" t="s">
         <v>154</v>
@@ -16275,10 +16281,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="Q150" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="R150" t="s">
         <v>791</v>
@@ -16287,7 +16293,7 @@
         <v>791</v>
       </c>
       <c r="AC150" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="AD150" t="s">
         <v>791</v>
@@ -16301,7 +16307,7 @@
         <v>401002</v>
       </c>
       <c r="B151" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="C151" t="s">
         <v>156</v>
@@ -16337,10 +16343,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="Q151" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="R151" t="s">
         <v>791</v>
@@ -16349,7 +16355,7 @@
         <v>791</v>
       </c>
       <c r="AC151" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AD151" t="s">
         <v>791</v>
@@ -16363,7 +16369,7 @@
         <v>401003</v>
       </c>
       <c r="B152" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="C152" t="s">
         <v>157</v>
@@ -16402,10 +16408,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="Q152" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="R152" t="s">
         <v>791</v>
@@ -16414,7 +16420,7 @@
         <v>791</v>
       </c>
       <c r="AC152" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AD152" t="s">
         <v>791</v>
@@ -16428,7 +16434,7 @@
         <v>401004</v>
       </c>
       <c r="B153" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="C153" t="s">
         <v>158</v>
@@ -16464,10 +16470,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="Q153" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="R153" t="s">
         <v>791</v>
@@ -16476,7 +16482,7 @@
         <v>791</v>
       </c>
       <c r="AC153" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="AD153" t="s">
         <v>791</v>
@@ -16490,7 +16496,7 @@
         <v>401005</v>
       </c>
       <c r="B154" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="C154" t="s">
         <v>159</v>
@@ -16529,10 +16535,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="Q154" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="R154" t="s">
         <v>791</v>
@@ -16541,7 +16547,7 @@
         <v>791</v>
       </c>
       <c r="AC154" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AD154" t="s">
         <v>791</v>
@@ -16555,7 +16561,7 @@
         <v>401006</v>
       </c>
       <c r="B155" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="C155" t="s">
         <v>160</v>
@@ -16594,10 +16600,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="Q155" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R155" t="s">
         <v>791</v>
@@ -16606,7 +16612,7 @@
         <v>791</v>
       </c>
       <c r="AC155" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AD155" t="s">
         <v>791</v>
@@ -16659,10 +16665,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="Q156" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="R156" t="s">
         <v>791</v>
@@ -16671,7 +16677,7 @@
         <v>791</v>
       </c>
       <c r="AC156" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AD156" t="s">
         <v>791</v>
@@ -16724,10 +16730,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="Q157" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="R157" t="s">
         <v>791</v>
@@ -16736,7 +16742,7 @@
         <v>791</v>
       </c>
       <c r="AC157" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="AD157" t="s">
         <v>791</v>
@@ -16750,7 +16756,7 @@
         <v>402003</v>
       </c>
       <c r="B158" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="C158" t="s">
         <v>163</v>
@@ -16789,10 +16795,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="Q158" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="R158" t="s">
         <v>791</v>
@@ -16801,7 +16807,7 @@
         <v>791</v>
       </c>
       <c r="AC158" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="AD158" t="s">
         <v>791</v>
@@ -16815,7 +16821,7 @@
         <v>402004</v>
       </c>
       <c r="B159" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="C159" t="s">
         <v>164</v>
@@ -16854,10 +16860,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="Q159" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="R159" t="s">
         <v>791</v>
@@ -16866,7 +16872,7 @@
         <v>791</v>
       </c>
       <c r="AC159" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="AD159" t="s">
         <v>791</v>
@@ -16880,7 +16886,7 @@
         <v>402005</v>
       </c>
       <c r="B160" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="C160" t="s">
         <v>165</v>
@@ -16919,10 +16925,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="Q160" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="R160" t="s">
         <v>791</v>
@@ -16931,7 +16937,7 @@
         <v>791</v>
       </c>
       <c r="AC160" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="AD160" t="s">
         <v>791</v>
@@ -16945,7 +16951,7 @@
         <v>402006</v>
       </c>
       <c r="B161" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="C161" t="s">
         <v>166</v>
@@ -16984,10 +16990,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="Q161" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="R161" t="s">
         <v>791</v>
@@ -16996,7 +17002,7 @@
         <v>791</v>
       </c>
       <c r="AC161" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="AD161" t="s">
         <v>791</v>
@@ -17010,7 +17016,7 @@
         <v>403001</v>
       </c>
       <c r="B162" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="C162" t="s">
         <v>167</v>
@@ -17052,10 +17058,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="Q162" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="R162" t="s">
         <v>791</v>
@@ -17064,7 +17070,7 @@
         <v>791</v>
       </c>
       <c r="AC162" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="AD162" t="s">
         <v>791</v>
@@ -17078,7 +17084,7 @@
         <v>403002</v>
       </c>
       <c r="B163" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="C163" t="s">
         <v>168</v>
@@ -17117,10 +17123,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="Q163" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="R163" t="s">
         <v>791</v>
@@ -17129,7 +17135,7 @@
         <v>791</v>
       </c>
       <c r="AC163" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="AD163" t="s">
         <v>791</v>
@@ -17143,7 +17149,7 @@
         <v>403003</v>
       </c>
       <c r="B164" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="C164" t="s">
         <v>169</v>
@@ -17182,10 +17188,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="Q164" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="R164" t="s">
         <v>791</v>
@@ -17194,7 +17200,7 @@
         <v>791</v>
       </c>
       <c r="AC164" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AD164" t="s">
         <v>791</v>
@@ -17208,7 +17214,7 @@
         <v>403004</v>
       </c>
       <c r="B165" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="C165" t="s">
         <v>170</v>
@@ -17250,7 +17256,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="Q165" t="s">
         <v>791</v>
@@ -17276,7 +17282,7 @@
         <v>403005</v>
       </c>
       <c r="B166" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="C166" t="s">
         <v>171</v>
@@ -17309,10 +17315,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="Q166" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="R166" t="s">
         <v>791</v>
@@ -17321,7 +17327,7 @@
         <v>791</v>
       </c>
       <c r="AC166" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AD166" t="s">
         <v>791</v>
@@ -17335,7 +17341,7 @@
         <v>403006</v>
       </c>
       <c r="B167" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="C167" t="s">
         <v>172</v>
@@ -17368,10 +17374,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="Q167" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="R167" t="s">
         <v>791</v>
@@ -17380,7 +17386,7 @@
         <v>791</v>
       </c>
       <c r="AC167" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="AD167" t="s">
         <v>791</v>
@@ -17394,7 +17400,7 @@
         <v>404001</v>
       </c>
       <c r="B168" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="C168" t="s">
         <v>173</v>
@@ -17433,10 +17439,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="Q168" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="R168" t="s">
         <v>791</v>
@@ -17445,7 +17451,7 @@
         <v>791</v>
       </c>
       <c r="AC168" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AD168" t="s">
         <v>791</v>
@@ -17459,7 +17465,7 @@
         <v>404002</v>
       </c>
       <c r="B169" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="C169" t="s">
         <v>174</v>
@@ -17501,10 +17507,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="Q169" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="R169" t="s">
         <v>791</v>
@@ -17513,7 +17519,7 @@
         <v>791</v>
       </c>
       <c r="AC169" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AD169" t="s">
         <v>791</v>
@@ -17566,7 +17572,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="Q170" t="s">
         <v>791</v>
@@ -17592,7 +17598,7 @@
         <v>404004</v>
       </c>
       <c r="B171" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="C171" t="s">
         <v>176</v>
@@ -17631,10 +17637,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="Q171" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="R171" t="s">
         <v>791</v>
@@ -17643,7 +17649,7 @@
         <v>791</v>
       </c>
       <c r="AC171" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="AD171" t="s">
         <v>791</v>
@@ -17657,7 +17663,7 @@
         <v>404005</v>
       </c>
       <c r="B172" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="C172" t="s">
         <v>177</v>
@@ -17690,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="Q172" t="s">
         <v>791</v>
@@ -17716,7 +17722,7 @@
         <v>404006</v>
       </c>
       <c r="B173" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="C173" t="s">
         <v>178</v>
@@ -17755,10 +17761,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="Q173" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="R173" t="s">
         <v>791</v>
@@ -17767,7 +17773,7 @@
         <v>791</v>
       </c>
       <c r="AC173" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="AD173" t="s">
         <v>791</v>
@@ -17781,7 +17787,7 @@
         <v>404007</v>
       </c>
       <c r="B174" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="C174" t="s">
         <v>179</v>
@@ -17820,10 +17826,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="Q174" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="R174" t="s">
         <v>791</v>
@@ -17832,7 +17838,7 @@
         <v>791</v>
       </c>
       <c r="AC174" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="AD174" t="s">
         <v>791</v>
@@ -17846,7 +17852,7 @@
         <v>405001</v>
       </c>
       <c r="B175" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="C175" t="s">
         <v>180</v>
@@ -17885,10 +17891,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="Q175" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="R175" t="s">
         <v>791</v>
@@ -17897,7 +17903,7 @@
         <v>791</v>
       </c>
       <c r="AC175" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AD175" t="s">
         <v>791</v>
@@ -17911,7 +17917,7 @@
         <v>405002</v>
       </c>
       <c r="B176" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="C176" t="s">
         <v>181</v>
@@ -17950,10 +17956,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="Q176" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="R176" t="s">
         <v>791</v>
@@ -17962,7 +17968,7 @@
         <v>791</v>
       </c>
       <c r="AC176" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AD176" t="s">
         <v>791</v>
@@ -17976,7 +17982,7 @@
         <v>405003</v>
       </c>
       <c r="B177" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="C177" t="s">
         <v>182</v>
@@ -18015,10 +18021,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="Q177" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="R177" t="s">
         <v>791</v>
@@ -18027,7 +18033,7 @@
         <v>791</v>
       </c>
       <c r="AC177" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AD177" t="s">
         <v>791</v>
@@ -18080,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="Q178" t="s">
         <v>791</v>
@@ -18145,10 +18151,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="Q179" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="R179" t="s">
         <v>791</v>
@@ -18157,7 +18163,7 @@
         <v>791</v>
       </c>
       <c r="AC179" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AD179" t="s">
         <v>791</v>
@@ -18171,7 +18177,7 @@
         <v>405006</v>
       </c>
       <c r="B180" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="C180" t="s">
         <v>185</v>
@@ -18210,10 +18216,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="Q180" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="R180" t="s">
         <v>791</v>
@@ -18222,7 +18228,7 @@
         <v>791</v>
       </c>
       <c r="AC180" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="AD180" t="s">
         <v>791</v>
@@ -18236,7 +18242,7 @@
         <v>405007</v>
       </c>
       <c r="B181" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -18278,10 +18284,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="Q181" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="R181" t="s">
         <v>791</v>
@@ -18290,7 +18296,7 @@
         <v>791</v>
       </c>
       <c r="AC181" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="AD181" t="s">
         <v>791</v>
@@ -18304,7 +18310,7 @@
         <v>405008</v>
       </c>
       <c r="B182" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="C182" t="s">
         <v>187</v>
@@ -18337,10 +18343,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="Q182" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="R182" t="s">
         <v>791</v>
@@ -18349,7 +18355,7 @@
         <v>791</v>
       </c>
       <c r="AC182" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="AD182" t="s">
         <v>791</v>
@@ -18363,7 +18369,7 @@
         <v>405009</v>
       </c>
       <c r="B183" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="C183" t="s">
         <v>188</v>
@@ -18396,10 +18402,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="Q183" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="R183" t="s">
         <v>791</v>
@@ -18408,7 +18414,7 @@
         <v>791</v>
       </c>
       <c r="AC183" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="AD183" t="s">
         <v>791</v>
@@ -18422,7 +18428,7 @@
         <v>406001</v>
       </c>
       <c r="B184" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="C184" t="s">
         <v>189</v>
@@ -18461,10 +18467,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="Q184" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="R184" t="s">
         <v>791</v>
@@ -18473,7 +18479,7 @@
         <v>791</v>
       </c>
       <c r="AC184" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="AD184" t="s">
         <v>791</v>
@@ -18487,7 +18493,7 @@
         <v>406002</v>
       </c>
       <c r="B185" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="C185" t="s">
         <v>190</v>
@@ -18526,10 +18532,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="Q185" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="R185" t="s">
         <v>791</v>
@@ -18538,7 +18544,7 @@
         <v>791</v>
       </c>
       <c r="AC185" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="AD185" t="s">
         <v>791</v>
@@ -18552,7 +18558,7 @@
         <v>406003</v>
       </c>
       <c r="B186" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="C186" t="s">
         <v>191</v>
@@ -18591,10 +18597,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="Q186" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="R186" t="s">
         <v>791</v>
@@ -18603,7 +18609,7 @@
         <v>791</v>
       </c>
       <c r="AC186" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="AD186" t="s">
         <v>791</v>
@@ -18617,7 +18623,7 @@
         <v>406004</v>
       </c>
       <c r="B187" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="C187" t="s">
         <v>192</v>
@@ -18659,10 +18665,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="Q187" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="R187" t="s">
         <v>791</v>
@@ -18671,7 +18677,7 @@
         <v>791</v>
       </c>
       <c r="AC187" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="AD187" t="s">
         <v>791</v>
@@ -18685,7 +18691,7 @@
         <v>406005</v>
       </c>
       <c r="B188" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="C188" t="s">
         <v>193</v>
@@ -18724,10 +18730,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="Q188" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="R188" t="s">
         <v>791</v>
@@ -18736,7 +18742,7 @@
         <v>791</v>
       </c>
       <c r="AC188" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="AD188" t="s">
         <v>791</v>
@@ -18789,10 +18795,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="Q189" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="R189" t="s">
         <v>791</v>
@@ -18801,7 +18807,7 @@
         <v>791</v>
       </c>
       <c r="AC189" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="AD189" t="s">
         <v>791</v>
@@ -18815,7 +18821,7 @@
         <v>407001</v>
       </c>
       <c r="B190" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="C190" t="s">
         <v>195</v>
@@ -18848,10 +18854,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="Q190" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="R190" t="s">
         <v>791</v>
@@ -18860,7 +18866,7 @@
         <v>791</v>
       </c>
       <c r="AC190" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="AD190" t="s">
         <v>791</v>
@@ -18874,7 +18880,7 @@
         <v>407002</v>
       </c>
       <c r="B191" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="C191" t="s">
         <v>196</v>
@@ -18907,10 +18913,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="Q191" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="R191" t="s">
         <v>791</v>
@@ -18919,7 +18925,7 @@
         <v>791</v>
       </c>
       <c r="AC191" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="AD191" t="s">
         <v>791</v>
@@ -18933,7 +18939,7 @@
         <v>407003</v>
       </c>
       <c r="B192" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="C192" t="s">
         <v>197</v>
@@ -18966,10 +18972,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="Q192" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="R192" t="s">
         <v>791</v>
@@ -18978,7 +18984,7 @@
         <v>791</v>
       </c>
       <c r="AC192" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AD192" t="s">
         <v>791</v>
@@ -18992,7 +18998,7 @@
         <v>407004</v>
       </c>
       <c r="B193" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="C193" t="s">
         <v>198</v>
@@ -19031,10 +19037,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="Q193" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="R193" t="s">
         <v>791</v>
@@ -19043,7 +19049,7 @@
         <v>791</v>
       </c>
       <c r="AC193" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="AD193" t="s">
         <v>791</v>
@@ -19057,7 +19063,7 @@
         <v>407005</v>
       </c>
       <c r="B194" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="C194" t="s">
         <v>199</v>
@@ -19090,10 +19096,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q194" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="R194" t="s">
         <v>791</v>
@@ -19102,7 +19108,7 @@
         <v>791</v>
       </c>
       <c r="AC194" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="AD194" t="s">
         <v>791</v>
@@ -19116,7 +19122,7 @@
         <v>407006</v>
       </c>
       <c r="B195" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="C195" t="s">
         <v>200</v>
@@ -19152,10 +19158,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="Q195" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="R195" t="s">
         <v>791</v>
@@ -19164,7 +19170,7 @@
         <v>791</v>
       </c>
       <c r="AC195" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="AD195" t="s">
         <v>791</v>
@@ -19178,7 +19184,7 @@
         <v>407007</v>
       </c>
       <c r="B196" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="C196" t="s">
         <v>201</v>
@@ -19214,10 +19220,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="Q196" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="R196" t="s">
         <v>791</v>
@@ -19226,7 +19232,7 @@
         <v>791</v>
       </c>
       <c r="AC196" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="AD196" t="s">
         <v>791</v>
@@ -19240,7 +19246,7 @@
         <v>407008</v>
       </c>
       <c r="B197" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="C197" t="s">
         <v>202</v>
@@ -19279,10 +19285,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="Q197" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="R197" t="s">
         <v>791</v>
@@ -19291,7 +19297,7 @@
         <v>791</v>
       </c>
       <c r="AC197" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="AD197" t="s">
         <v>791</v>
@@ -19305,7 +19311,7 @@
         <v>407009</v>
       </c>
       <c r="B198" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="C198" t="s">
         <v>203</v>
@@ -19344,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="Q198" t="s">
         <v>791</v>
@@ -19370,7 +19376,7 @@
         <v>408001</v>
       </c>
       <c r="B199" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="C199" t="s">
         <v>204</v>
@@ -19409,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="Q199" t="s">
         <v>791</v>
@@ -19435,7 +19441,7 @@
         <v>408002</v>
       </c>
       <c r="B200" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="C200" t="s">
         <v>205</v>
@@ -19474,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="Q200" t="s">
         <v>791</v>
@@ -19539,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="Q201" t="s">
         <v>791</v>
@@ -19565,7 +19571,7 @@
         <v>408004</v>
       </c>
       <c r="B202" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="C202" t="s">
         <v>207</v>
@@ -19604,10 +19610,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="Q202" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="R202" t="s">
         <v>791</v>
@@ -19616,7 +19622,7 @@
         <v>791</v>
       </c>
       <c r="AC202" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AD202" t="s">
         <v>791</v>
@@ -19630,7 +19636,7 @@
         <v>408005</v>
       </c>
       <c r="B203" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="C203" t="s">
         <v>208</v>
@@ -19669,7 +19675,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="Q203" t="s">
         <v>791</v>
@@ -19695,7 +19701,7 @@
         <v>408006</v>
       </c>
       <c r="B204" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="C204" t="s">
         <v>209</v>
@@ -19728,10 +19734,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="Q204" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="R204" t="s">
         <v>791</v>
@@ -19740,7 +19746,7 @@
         <v>791</v>
       </c>
       <c r="AC204" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AD204" t="s">
         <v>791</v>
@@ -19754,7 +19760,7 @@
         <v>408007</v>
       </c>
       <c r="B205" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="C205" t="s">
         <v>210</v>
@@ -19787,10 +19793,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="Q205" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="R205" t="s">
         <v>791</v>
@@ -19799,7 +19805,7 @@
         <v>791</v>
       </c>
       <c r="AC205" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AD205" t="s">
         <v>791</v>
@@ -19813,7 +19819,7 @@
         <v>501001</v>
       </c>
       <c r="B206" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="C206" t="s">
         <v>211</v>
@@ -19855,10 +19861,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="Q206" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="R206" t="s">
         <v>791</v>
@@ -19867,7 +19873,7 @@
         <v>791</v>
       </c>
       <c r="AC206" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AD206" t="s">
         <v>791</v>
@@ -19881,7 +19887,7 @@
         <v>501002</v>
       </c>
       <c r="B207" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="C207" t="s">
         <v>213</v>
@@ -19923,10 +19929,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="Q207" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="R207" t="s">
         <v>791</v>
@@ -19935,7 +19941,7 @@
         <v>791</v>
       </c>
       <c r="AC207" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AD207" t="s">
         <v>791</v>
@@ -19949,7 +19955,7 @@
         <v>501003</v>
       </c>
       <c r="B208" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="C208" t="s">
         <v>214</v>
@@ -19991,10 +19997,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="Q208" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="R208" t="s">
         <v>791</v>
@@ -20003,7 +20009,7 @@
         <v>791</v>
       </c>
       <c r="AC208" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AD208" t="s">
         <v>791</v>
@@ -20017,7 +20023,7 @@
         <v>501004</v>
       </c>
       <c r="B209" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="C209" t="s">
         <v>215</v>
@@ -20059,10 +20065,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="Q209" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R209" t="s">
         <v>791</v>
@@ -20071,7 +20077,7 @@
         <v>791</v>
       </c>
       <c r="AC209" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AD209" t="s">
         <v>791</v>
@@ -20085,7 +20091,7 @@
         <v>501005</v>
       </c>
       <c r="B210" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="C210" t="s">
         <v>216</v>
@@ -20121,10 +20127,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="Q210" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="R210" t="s">
         <v>791</v>
@@ -20133,7 +20139,7 @@
         <v>791</v>
       </c>
       <c r="AC210" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="AD210" t="s">
         <v>791</v>
@@ -20147,7 +20153,7 @@
         <v>501006</v>
       </c>
       <c r="B211" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="C211" t="s">
         <v>217</v>
@@ -20189,10 +20195,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="Q211" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="R211" t="s">
         <v>791</v>
@@ -20201,7 +20207,7 @@
         <v>791</v>
       </c>
       <c r="AC211" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="AD211" t="s">
         <v>791</v>
@@ -20215,7 +20221,7 @@
         <v>502001</v>
       </c>
       <c r="B212" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="C212" t="s">
         <v>218</v>
@@ -20254,10 +20260,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="Q212" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="R212" t="s">
         <v>791</v>
@@ -20266,7 +20272,7 @@
         <v>791</v>
       </c>
       <c r="AC212" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="AD212" t="s">
         <v>791</v>
@@ -20280,7 +20286,7 @@
         <v>502002</v>
       </c>
       <c r="B213" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="C213" t="s">
         <v>219</v>
@@ -20313,10 +20319,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="Q213" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="R213" t="s">
         <v>791</v>
@@ -20325,7 +20331,7 @@
         <v>791</v>
       </c>
       <c r="AC213" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="AD213" t="s">
         <v>791</v>
@@ -20339,7 +20345,7 @@
         <v>502003</v>
       </c>
       <c r="B214" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="C214" t="s">
         <v>220</v>
@@ -20378,10 +20384,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="Q214" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="R214" t="s">
         <v>791</v>
@@ -20390,7 +20396,7 @@
         <v>791</v>
       </c>
       <c r="AC214" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="AD214" t="s">
         <v>791</v>
@@ -20404,7 +20410,7 @@
         <v>502004</v>
       </c>
       <c r="B215" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="C215" t="s">
         <v>221</v>
@@ -20437,10 +20443,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="Q215" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="R215" t="s">
         <v>791</v>
@@ -20449,7 +20455,7 @@
         <v>791</v>
       </c>
       <c r="AC215" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="AD215" t="s">
         <v>791</v>
@@ -20463,7 +20469,7 @@
         <v>502005</v>
       </c>
       <c r="B216" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="C216" t="s">
         <v>222</v>
@@ -20499,10 +20505,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="Q216" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="R216" t="s">
         <v>791</v>
@@ -20511,7 +20517,7 @@
         <v>791</v>
       </c>
       <c r="AC216" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="AD216" t="s">
         <v>791</v>
@@ -20525,7 +20531,7 @@
         <v>503001</v>
       </c>
       <c r="B217" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C217" t="s">
         <v>223</v>
@@ -20567,10 +20573,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="Q217" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="R217" t="s">
         <v>791</v>
@@ -20579,7 +20585,7 @@
         <v>791</v>
       </c>
       <c r="AC217" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="AD217" t="s">
         <v>791</v>
@@ -20593,7 +20599,7 @@
         <v>503002</v>
       </c>
       <c r="B218" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="C218" t="s">
         <v>224</v>
@@ -20635,10 +20641,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="Q218" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="R218" t="s">
         <v>791</v>
@@ -20647,7 +20653,7 @@
         <v>791</v>
       </c>
       <c r="AC218" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AD218" t="s">
         <v>791</v>
@@ -20703,10 +20709,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="Q219" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="R219" t="s">
         <v>791</v>
@@ -20715,7 +20721,7 @@
         <v>791</v>
       </c>
       <c r="AC219" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AD219" t="s">
         <v>791</v>
@@ -20729,7 +20735,7 @@
         <v>503004</v>
       </c>
       <c r="B220" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="C220" t="s">
         <v>226</v>
@@ -20771,10 +20777,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="Q220" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="R220" t="s">
         <v>791</v>
@@ -20783,7 +20789,7 @@
         <v>791</v>
       </c>
       <c r="AC220" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AD220" t="s">
         <v>791</v>
@@ -20797,7 +20803,7 @@
         <v>503005</v>
       </c>
       <c r="B221" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="C221" t="s">
         <v>227</v>
@@ -20839,10 +20845,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="Q221" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="R221" t="s">
         <v>791</v>
@@ -20851,7 +20857,7 @@
         <v>791</v>
       </c>
       <c r="AC221" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="AD221" t="s">
         <v>791</v>
@@ -20865,7 +20871,7 @@
         <v>504001</v>
       </c>
       <c r="B222" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="C222" t="s">
         <v>228</v>
@@ -20907,10 +20913,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="Q222" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="R222" t="s">
         <v>791</v>
@@ -20919,7 +20925,7 @@
         <v>791</v>
       </c>
       <c r="AC222" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="AD222" t="s">
         <v>791</v>
@@ -20933,7 +20939,7 @@
         <v>504002</v>
       </c>
       <c r="B223" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="C223" t="s">
         <v>229</v>
@@ -20975,10 +20981,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="Q223" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="R223" t="s">
         <v>791</v>
@@ -20987,7 +20993,7 @@
         <v>791</v>
       </c>
       <c r="AC223" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="AD223" t="s">
         <v>791</v>
@@ -21001,7 +21007,7 @@
         <v>504003</v>
       </c>
       <c r="B224" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="C224" t="s">
         <v>230</v>
@@ -21043,10 +21049,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="Q224" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="R224" t="s">
         <v>791</v>
@@ -21055,7 +21061,7 @@
         <v>791</v>
       </c>
       <c r="AC224" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="AD224" t="s">
         <v>791</v>
@@ -21069,7 +21075,7 @@
         <v>504004</v>
       </c>
       <c r="B225" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="C225" t="s">
         <v>231</v>
@@ -21108,10 +21114,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="Q225" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="R225" t="s">
         <v>791</v>
@@ -21120,7 +21126,7 @@
         <v>791</v>
       </c>
       <c r="AC225" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="AD225" t="s">
         <v>791</v>
@@ -21134,7 +21140,7 @@
         <v>504005</v>
       </c>
       <c r="B226" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="C226" t="s">
         <v>232</v>
@@ -21176,10 +21182,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="Q226" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="R226" t="s">
         <v>791</v>
@@ -21188,7 +21194,7 @@
         <v>791</v>
       </c>
       <c r="AC226" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="AD226" t="s">
         <v>791</v>
@@ -21241,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="Q227" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="R227" t="s">
         <v>791</v>
@@ -21253,7 +21259,7 @@
         <v>791</v>
       </c>
       <c r="AC227" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="AD227" t="s">
         <v>791</v>
@@ -21267,7 +21273,7 @@
         <v>505002</v>
       </c>
       <c r="B228" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="C228" t="s">
         <v>234</v>
@@ -21306,10 +21312,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="Q228" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="R228" t="s">
         <v>791</v>
@@ -21318,7 +21324,7 @@
         <v>791</v>
       </c>
       <c r="AC228" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AD228" t="s">
         <v>791</v>
@@ -21332,7 +21338,7 @@
         <v>505003</v>
       </c>
       <c r="B229" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="C229" t="s">
         <v>235</v>
@@ -21371,10 +21377,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="Q229" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="R229" t="s">
         <v>791</v>
@@ -21383,7 +21389,7 @@
         <v>791</v>
       </c>
       <c r="AC229" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AD229" t="s">
         <v>791</v>
@@ -21397,7 +21403,7 @@
         <v>505004</v>
       </c>
       <c r="B230" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="C230" t="s">
         <v>236</v>
@@ -21430,10 +21436,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="Q230" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="R230" t="s">
         <v>791</v>
@@ -21442,7 +21448,7 @@
         <v>791</v>
       </c>
       <c r="AC230" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="AD230" t="s">
         <v>791</v>
@@ -21456,7 +21462,7 @@
         <v>505005</v>
       </c>
       <c r="B231" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="C231" t="s">
         <v>237</v>
@@ -21495,10 +21501,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="Q231" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="R231" t="s">
         <v>791</v>
@@ -21507,7 +21513,7 @@
         <v>791</v>
       </c>
       <c r="AC231" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AD231" t="s">
         <v>791</v>
@@ -21521,7 +21527,7 @@
         <v>506001</v>
       </c>
       <c r="B232" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="C232" t="s">
         <v>238</v>
@@ -21560,10 +21566,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="Q232" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="R232" t="s">
         <v>791</v>
@@ -21572,7 +21578,7 @@
         <v>791</v>
       </c>
       <c r="AC232" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AD232" t="s">
         <v>791</v>
@@ -21586,7 +21592,7 @@
         <v>506002</v>
       </c>
       <c r="B233" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="C233" t="s">
         <v>239</v>
@@ -21622,10 +21628,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="Q233" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="R233" t="s">
         <v>791</v>
@@ -21634,7 +21640,7 @@
         <v>791</v>
       </c>
       <c r="AC233" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AD233" t="s">
         <v>791</v>
@@ -21648,7 +21654,7 @@
         <v>506003</v>
       </c>
       <c r="B234" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="C234" t="s">
         <v>240</v>
@@ -21690,10 +21696,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="Q234" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="R234" t="s">
         <v>791</v>
@@ -21702,7 +21708,7 @@
         <v>791</v>
       </c>
       <c r="AC234" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AD234" t="s">
         <v>791</v>
@@ -21716,7 +21722,7 @@
         <v>506004</v>
       </c>
       <c r="B235" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="C235" t="s">
         <v>241</v>
@@ -21755,10 +21761,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="Q235" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R235" t="s">
         <v>791</v>
@@ -21767,7 +21773,7 @@
         <v>791</v>
       </c>
       <c r="AC235" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="AD235" t="s">
         <v>791</v>
@@ -21781,7 +21787,7 @@
         <v>506005</v>
       </c>
       <c r="B236" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="C236" t="s">
         <v>242</v>
@@ -21820,10 +21826,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="Q236" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="R236" t="s">
         <v>791</v>
@@ -21832,7 +21838,7 @@
         <v>791</v>
       </c>
       <c r="AC236" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="AD236" t="s">
         <v>791</v>
@@ -21846,7 +21852,7 @@
         <v>990001</v>
       </c>
       <c r="B237" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C237" t="s">
         <v>243</v>
@@ -21882,13 +21888,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="Q237" t="s">
         <v>791</v>
       </c>
       <c r="R237" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="S237" t="s">
         <v>791</v>
@@ -21897,7 +21903,7 @@
         <v>791</v>
       </c>
       <c r="AD237" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="AE237" t="s">
         <v>791</v>
@@ -21908,7 +21914,7 @@
         <v>990002</v>
       </c>
       <c r="B238" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="C238" t="s">
         <v>244</v>
@@ -21944,13 +21950,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="Q238" t="s">
         <v>791</v>
       </c>
       <c r="R238" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="S238" t="s">
         <v>791</v>
@@ -21959,7 +21965,7 @@
         <v>791</v>
       </c>
       <c r="AD238" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="AE238" t="s">
         <v>791</v>
@@ -21970,7 +21976,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="C239" t="s">
         <v>245</v>
@@ -21997,13 +22003,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q239" t="s">
         <v>791</v>
       </c>
       <c r="R239" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="S239" t="s">
         <v>791</v>
@@ -22012,7 +22018,7 @@
         <v>791</v>
       </c>
       <c r="AD239" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="AE239" t="s">
         <v>791</v>
@@ -22023,7 +22029,7 @@
         <v>990004</v>
       </c>
       <c r="B240" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="C240" t="s">
         <v>246</v>
@@ -22059,13 +22065,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="Q240" t="s">
         <v>791</v>
       </c>
       <c r="R240" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="S240" t="s">
         <v>791</v>
@@ -22074,7 +22080,7 @@
         <v>791</v>
       </c>
       <c r="AD240" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="AE240" t="s">
         <v>791</v>
@@ -22085,7 +22091,7 @@
         <v>990005</v>
       </c>
       <c r="B241" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="C241" t="s">
         <v>247</v>
@@ -22121,13 +22127,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="Q241" t="s">
         <v>791</v>
       </c>
       <c r="R241" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="S241" t="s">
         <v>791</v>
@@ -22136,7 +22142,7 @@
         <v>791</v>
       </c>
       <c r="AD241" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="AE241" t="s">
         <v>791</v>
@@ -22147,7 +22153,7 @@
         <v>990006</v>
       </c>
       <c r="B242" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="C242" t="s">
         <v>248</v>
@@ -22183,13 +22189,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="Q242" t="s">
         <v>791</v>
       </c>
       <c r="R242" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="S242" t="s">
         <v>791</v>
@@ -22198,7 +22204,7 @@
         <v>791</v>
       </c>
       <c r="AD242" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="AE242" t="s">
         <v>791</v>
@@ -22209,7 +22215,7 @@
         <v>990007</v>
       </c>
       <c r="B243" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="C243" t="s">
         <v>249</v>
@@ -22245,7 +22251,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="Q243" t="s">
         <v>791</v>
@@ -22254,7 +22260,7 @@
         <v>791</v>
       </c>
       <c r="S243" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="AC243" t="s">
         <v>791</v>
@@ -22263,7 +22269,7 @@
         <v>791</v>
       </c>
       <c r="AE243" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
@@ -22271,7 +22277,7 @@
         <v>990008</v>
       </c>
       <c r="B244" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="C244" t="s">
         <v>250</v>
@@ -22307,10 +22313,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="Q244" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="R244" t="s">
         <v>791</v>
@@ -22319,7 +22325,7 @@
         <v>791</v>
       </c>
       <c r="AC244" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AD244" t="s">
         <v>791</v>
@@ -22333,7 +22339,7 @@
         <v>990009</v>
       </c>
       <c r="B245" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="C245" t="s">
         <v>251</v>
@@ -22366,10 +22372,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="Q245" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="R245" t="s">
         <v>791</v>
@@ -22378,7 +22384,7 @@
         <v>791</v>
       </c>
       <c r="AC245" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AD245" t="s">
         <v>791</v>
@@ -22392,7 +22398,7 @@
         <v>990010</v>
       </c>
       <c r="B246" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C246" t="s">
         <v>252</v>
@@ -22428,10 +22434,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="Q246" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="R246" t="s">
         <v>791</v>
@@ -22440,7 +22446,7 @@
         <v>791</v>
       </c>
       <c r="AC246" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AD246" t="s">
         <v>791</v>
@@ -22454,7 +22460,7 @@
         <v>990011</v>
       </c>
       <c r="B247" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="C247" t="s">
         <v>253</v>
@@ -22490,10 +22496,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="Q247" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="R247" t="s">
         <v>791</v>
@@ -22502,7 +22508,7 @@
         <v>791</v>
       </c>
       <c r="AC247" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AD247" t="s">
         <v>791</v>
@@ -22516,7 +22522,7 @@
         <v>990012</v>
       </c>
       <c r="B248" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="C248" t="s">
         <v>254</v>
@@ -22552,10 +22558,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="Q248" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="R248" t="s">
         <v>791</v>
@@ -22564,7 +22570,7 @@
         <v>791</v>
       </c>
       <c r="AC248" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AD248" t="s">
         <v>791</v>
@@ -22578,7 +22584,7 @@
         <v>990013</v>
       </c>
       <c r="B249" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="C249" t="s">
         <v>255</v>
@@ -22611,10 +22617,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="Q249" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="R249" t="s">
         <v>791</v>
@@ -22623,7 +22629,7 @@
         <v>791</v>
       </c>
       <c r="AC249" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="AD249" t="s">
         <v>791</v>
@@ -22637,7 +22643,7 @@
         <v>990014</v>
       </c>
       <c r="B250" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="C250" t="s">
         <v>256</v>
@@ -22676,10 +22682,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="Q250" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="R250" t="s">
         <v>791</v>
@@ -22688,7 +22694,7 @@
         <v>791</v>
       </c>
       <c r="AC250" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AD250" t="s">
         <v>791</v>
@@ -22738,10 +22744,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="Q251" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="R251" t="s">
         <v>791</v>
@@ -22750,7 +22756,7 @@
         <v>791</v>
       </c>
       <c r="AC251" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AD251" t="s">
         <v>791</v>
@@ -22764,7 +22770,7 @@
         <v>990016</v>
       </c>
       <c r="B252" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="C252" t="s">
         <v>258</v>
@@ -22800,10 +22806,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="Q252" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="R252" t="s">
         <v>791</v>
@@ -22812,7 +22818,7 @@
         <v>791</v>
       </c>
       <c r="AC252" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="AD252" t="s">
         <v>791</v>
@@ -22826,7 +22832,7 @@
         <v>990017</v>
       </c>
       <c r="B253" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="C253" t="s">
         <v>259</v>
@@ -22862,10 +22868,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="Q253" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="R253" t="s">
         <v>791</v>
@@ -22874,7 +22880,7 @@
         <v>791</v>
       </c>
       <c r="AC253" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="AD253" t="s">
         <v>791</v>
@@ -22888,7 +22894,7 @@
         <v>990018</v>
       </c>
       <c r="B254" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="C254" t="s">
         <v>260</v>
@@ -22924,10 +22930,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="Q254" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="R254" t="s">
         <v>791</v>
@@ -22936,7 +22942,7 @@
         <v>791</v>
       </c>
       <c r="AC254" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="AD254" t="s">
         <v>791</v>
@@ -22950,7 +22956,7 @@
         <v>990019</v>
       </c>
       <c r="B255" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="C255" t="s">
         <v>261</v>
@@ -22983,10 +22989,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="Q255" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="R255" t="s">
         <v>791</v>
@@ -22995,7 +23001,7 @@
         <v>791</v>
       </c>
       <c r="AC255" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="AD255" t="s">
         <v>791</v>
@@ -23009,7 +23015,7 @@
         <v>990020</v>
       </c>
       <c r="B256" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="C256" t="s">
         <v>262</v>
@@ -23045,10 +23051,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="Q256" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="R256" t="s">
         <v>791</v>
@@ -23057,7 +23063,7 @@
         <v>791</v>
       </c>
       <c r="AC256" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AD256" t="s">
         <v>791</v>
@@ -23071,7 +23077,7 @@
         <v>990021</v>
       </c>
       <c r="B257" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -23104,10 +23110,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="Q257" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="R257" t="s">
         <v>791</v>
@@ -23116,7 +23122,7 @@
         <v>791</v>
       </c>
       <c r="AC257" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="AD257" t="s">
         <v>791</v>
@@ -23130,7 +23136,7 @@
         <v>990022</v>
       </c>
       <c r="B258" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="C258" t="s">
         <v>264</v>
@@ -23169,10 +23175,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="Q258" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="R258" t="s">
         <v>791</v>
@@ -23181,7 +23187,7 @@
         <v>791</v>
       </c>
       <c r="AC258" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="AD258" t="s">
         <v>791</v>
@@ -23195,7 +23201,7 @@
         <v>990023</v>
       </c>
       <c r="B259" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="C259" t="s">
         <v>265</v>
@@ -23231,7 +23237,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="Q259" t="s">
         <v>791</v>
@@ -23240,7 +23246,7 @@
         <v>791</v>
       </c>
       <c r="S259" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="AC259" t="s">
         <v>791</v>
@@ -23249,7 +23255,7 @@
         <v>791</v>
       </c>
       <c r="AE259" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
@@ -23257,7 +23263,7 @@
         <v>990024</v>
       </c>
       <c r="B260" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="C260" t="s">
         <v>266</v>
@@ -23290,10 +23296,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="Q260" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="R260" t="s">
         <v>791</v>
@@ -23302,7 +23308,7 @@
         <v>791</v>
       </c>
       <c r="AC260" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="AD260" t="s">
         <v>791</v>
@@ -23316,7 +23322,7 @@
         <v>990025</v>
       </c>
       <c r="B261" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="C261" t="s">
         <v>267</v>
@@ -23349,10 +23355,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="Q261" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="R261" t="s">
         <v>791</v>
@@ -23361,7 +23367,7 @@
         <v>791</v>
       </c>
       <c r="AC261" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="AD261" t="s">
         <v>791</v>
@@ -23375,7 +23381,7 @@
         <v>990026</v>
       </c>
       <c r="B262" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="C262" t="s">
         <v>268</v>
@@ -23411,10 +23417,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="Q262" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="R262" t="s">
         <v>791</v>
@@ -23423,7 +23429,7 @@
         <v>791</v>
       </c>
       <c r="AC262" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="AD262" t="s">
         <v>791</v>
@@ -23437,7 +23443,7 @@
         <v>990027</v>
       </c>
       <c r="B263" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="C263" t="s">
         <v>269</v>
@@ -23473,10 +23479,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="Q263" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="R263" t="s">
         <v>791</v>
@@ -23485,7 +23491,7 @@
         <v>791</v>
       </c>
       <c r="AC263" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="AD263" t="s">
         <v>791</v>
@@ -23499,7 +23505,7 @@
         <v>990028</v>
       </c>
       <c r="B264" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="C264" t="s">
         <v>270</v>
@@ -23535,10 +23541,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="Q264" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="R264" t="s">
         <v>791</v>
@@ -23547,7 +23553,7 @@
         <v>791</v>
       </c>
       <c r="AC264" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="AD264" t="s">
         <v>791</v>
@@ -23561,7 +23567,7 @@
         <v>990029</v>
       </c>
       <c r="B265" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="C265" t="s">
         <v>271</v>
@@ -23594,10 +23600,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="Q265" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="R265" t="s">
         <v>791</v>
@@ -23606,7 +23612,7 @@
         <v>791</v>
       </c>
       <c r="AC265" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AD265" t="s">
         <v>791</v>
@@ -23620,7 +23626,7 @@
         <v>990030</v>
       </c>
       <c r="B266" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="C266" t="s">
         <v>272</v>
@@ -23656,10 +23662,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="Q266" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="R266" t="s">
         <v>791</v>
@@ -23668,7 +23674,7 @@
         <v>791</v>
       </c>
       <c r="AC266" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AD266" t="s">
         <v>791</v>
@@ -23682,7 +23688,7 @@
         <v>990031</v>
       </c>
       <c r="B267" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="C267" t="s">
         <v>273</v>
@@ -23718,7 +23724,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="Q267" t="s">
         <v>791</v>
@@ -23727,7 +23733,7 @@
         <v>791</v>
       </c>
       <c r="S267" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AC267" t="s">
         <v>791</v>
@@ -23736,7 +23742,7 @@
         <v>791</v>
       </c>
       <c r="AE267" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
@@ -23744,7 +23750,7 @@
         <v>990032</v>
       </c>
       <c r="B268" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="C268" t="s">
         <v>274</v>
@@ -23780,10 +23786,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="Q268" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="R268" t="s">
         <v>791</v>
@@ -23792,7 +23798,7 @@
         <v>791</v>
       </c>
       <c r="AC268" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="AD268" t="s">
         <v>791</v>
@@ -23806,7 +23812,7 @@
         <v>990033</v>
       </c>
       <c r="B269" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="C269" t="s">
         <v>275</v>
@@ -23839,10 +23845,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="Q269" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="R269" t="s">
         <v>791</v>
@@ -23851,7 +23857,7 @@
         <v>791</v>
       </c>
       <c r="AC269" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AD269" t="s">
         <v>791</v>
@@ -23865,7 +23871,7 @@
         <v>990034</v>
       </c>
       <c r="B270" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="C270" t="s">
         <v>276</v>
@@ -23901,10 +23907,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="Q270" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="R270" t="s">
         <v>791</v>
@@ -23913,7 +23919,7 @@
         <v>791</v>
       </c>
       <c r="AC270" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AD270" t="s">
         <v>791</v>
@@ -23927,7 +23933,7 @@
         <v>990035</v>
       </c>
       <c r="B271" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="C271" t="s">
         <v>277</v>
@@ -23969,10 +23975,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="Q271" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="R271" t="s">
         <v>791</v>
@@ -23981,7 +23987,7 @@
         <v>791</v>
       </c>
       <c r="AC271" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="AD271" t="s">
         <v>791</v>
@@ -23995,7 +24001,7 @@
         <v>990036</v>
       </c>
       <c r="B272" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="C272" t="s">
         <v>278</v>
@@ -24028,10 +24034,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="Q272" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="R272" t="s">
         <v>791</v>
@@ -24040,7 +24046,7 @@
         <v>791</v>
       </c>
       <c r="AC272" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="AD272" t="s">
         <v>791</v>
@@ -24054,7 +24060,7 @@
         <v>990037</v>
       </c>
       <c r="B273" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="C273" t="s">
         <v>279</v>
@@ -24093,10 +24099,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="Q273" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="R273" t="s">
         <v>791</v>
@@ -24105,7 +24111,7 @@
         <v>791</v>
       </c>
       <c r="AC273" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AD273" t="s">
         <v>791</v>
@@ -24119,7 +24125,7 @@
         <v>990038</v>
       </c>
       <c r="B274" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="C274" t="s">
         <v>280</v>
@@ -24158,10 +24164,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="Q274" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="R274" t="s">
         <v>791</v>
@@ -24170,7 +24176,7 @@
         <v>791</v>
       </c>
       <c r="AC274" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AD274" t="s">
         <v>791</v>
@@ -24217,10 +24223,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="Q275" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="R275" t="s">
         <v>791</v>
@@ -24229,7 +24235,7 @@
         <v>791</v>
       </c>
       <c r="AC275" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AD275" t="s">
         <v>791</v>
@@ -24243,7 +24249,7 @@
         <v>990040</v>
       </c>
       <c r="B276" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="C276" t="s">
         <v>282</v>
@@ -24276,10 +24282,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="Q276" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="R276" t="s">
         <v>791</v>
@@ -24288,7 +24294,7 @@
         <v>791</v>
       </c>
       <c r="AC276" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AD276" t="s">
         <v>791</v>
@@ -24302,7 +24308,7 @@
         <v>990041</v>
       </c>
       <c r="B277" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="C277" t="s">
         <v>283</v>
@@ -24335,10 +24341,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="Q277" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="R277" t="s">
         <v>791</v>
@@ -24347,7 +24353,7 @@
         <v>791</v>
       </c>
       <c r="AC277" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="AD277" t="s">
         <v>791</v>
@@ -24361,7 +24367,7 @@
         <v>990042</v>
       </c>
       <c r="B278" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="C278" t="s">
         <v>284</v>
@@ -24394,10 +24400,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="Q278" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="R278" t="s">
         <v>791</v>
@@ -24406,7 +24412,7 @@
         <v>791</v>
       </c>
       <c r="AC278" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="AD278" t="s">
         <v>791</v>
@@ -24420,7 +24426,7 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="C279" t="s">
         <v>285</v>
@@ -24453,10 +24459,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="Q279" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="R279" t="s">
         <v>791</v>
@@ -24465,7 +24471,7 @@
         <v>791</v>
       </c>
       <c r="AC279" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="AD279" t="s">
         <v>791</v>
@@ -24479,7 +24485,7 @@
         <v>990044</v>
       </c>
       <c r="B280" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="C280" t="s">
         <v>286</v>
@@ -24512,10 +24518,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q280" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="R280" t="s">
         <v>791</v>
@@ -24524,7 +24530,7 @@
         <v>791</v>
       </c>
       <c r="AC280" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="AD280" t="s">
         <v>791</v>
@@ -24538,7 +24544,7 @@
         <v>990045</v>
       </c>
       <c r="B281" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="C281" t="s">
         <v>287</v>
@@ -24571,10 +24577,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="Q281" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="R281" t="s">
         <v>791</v>
@@ -24583,7 +24589,7 @@
         <v>791</v>
       </c>
       <c r="AC281" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="AD281" t="s">
         <v>791</v>
@@ -24630,10 +24636,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="Q282" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="R282" t="s">
         <v>791</v>
@@ -24642,7 +24648,7 @@
         <v>791</v>
       </c>
       <c r="AC282" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="AD282" t="s">
         <v>791</v>
@@ -24656,7 +24662,7 @@
         <v>990047</v>
       </c>
       <c r="B283" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="C283" t="s">
         <v>289</v>
@@ -24689,10 +24695,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="Q283" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="R283" t="s">
         <v>791</v>
@@ -24701,7 +24707,7 @@
         <v>791</v>
       </c>
       <c r="AC283" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="AD283" t="s">
         <v>791</v>
@@ -24715,7 +24721,7 @@
         <v>990048</v>
       </c>
       <c r="B284" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="C284" t="s">
         <v>290</v>
@@ -24748,10 +24754,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="Q284" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="R284" t="s">
         <v>791</v>
@@ -24760,7 +24766,7 @@
         <v>791</v>
       </c>
       <c r="AC284" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="AD284" t="s">
         <v>791</v>
@@ -24774,7 +24780,7 @@
         <v>990049</v>
       </c>
       <c r="B285" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="C285" t="s">
         <v>291</v>
@@ -24807,10 +24813,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="Q285" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="R285" t="s">
         <v>791</v>
@@ -24819,7 +24825,7 @@
         <v>791</v>
       </c>
       <c r="AC285" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="AD285" t="s">
         <v>791</v>
@@ -24833,7 +24839,7 @@
         <v>990050</v>
       </c>
       <c r="B286" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="C286" t="s">
         <v>292</v>
@@ -24866,10 +24872,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="Q286" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="R286" t="s">
         <v>791</v>
@@ -24878,7 +24884,7 @@
         <v>791</v>
       </c>
       <c r="AC286" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="AD286" t="s">
         <v>791</v>
@@ -24892,7 +24898,7 @@
         <v>990051</v>
       </c>
       <c r="B287" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="C287" t="s">
         <v>293</v>
@@ -24925,10 +24931,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="Q287" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="R287" t="s">
         <v>791</v>
@@ -24937,7 +24943,7 @@
         <v>791</v>
       </c>
       <c r="AC287" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="AD287" t="s">
         <v>791</v>
@@ -24951,7 +24957,7 @@
         <v>990052</v>
       </c>
       <c r="B288" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="C288" t="s">
         <v>294</v>
@@ -24984,10 +24990,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="Q288" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="R288" t="s">
         <v>791</v>
@@ -24996,7 +25002,7 @@
         <v>791</v>
       </c>
       <c r="AC288" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="AD288" t="s">
         <v>791</v>
@@ -25010,7 +25016,7 @@
         <v>990053</v>
       </c>
       <c r="B289" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="C289" t="s">
         <v>295</v>
@@ -25046,10 +25052,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="Q289" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="R289" t="s">
         <v>791</v>
@@ -25058,7 +25064,7 @@
         <v>791</v>
       </c>
       <c r="AC289" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AD289" t="s">
         <v>791</v>
@@ -25072,7 +25078,7 @@
         <v>990054</v>
       </c>
       <c r="B290" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="C290" t="s">
         <v>296</v>
@@ -25108,10 +25114,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="Q290" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="R290" t="s">
         <v>791</v>
@@ -25120,7 +25126,7 @@
         <v>791</v>
       </c>
       <c r="AC290" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AD290" t="s">
         <v>791</v>
@@ -25134,7 +25140,7 @@
         <v>990055</v>
       </c>
       <c r="B291" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="C291" t="s">
         <v>297</v>
@@ -25170,10 +25176,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="Q291" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="R291" t="s">
         <v>791</v>
@@ -25182,7 +25188,7 @@
         <v>791</v>
       </c>
       <c r="AC291" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="AD291" t="s">
         <v>791</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="1942">
   <si>
     <t>nickName</t>
   </si>
@@ -2685,12 +2685,6 @@
     <t>[19061980, 564332]</t>
   </si>
   <si>
-    <t>[238491909, 40038996, 243325682]</t>
-  </si>
-  <si>
-    <t>[87749128, 25479108, 91439089]</t>
-  </si>
-  <si>
     <t>[5145847]</t>
   </si>
   <si>
@@ -5848,6 +5842,18 @@
   </si>
   <si>
     <t>[3633510,34180971]</t>
+  </si>
+  <si>
+    <t>[244370256]</t>
+  </si>
+  <si>
+    <t>[91729110]</t>
+  </si>
+  <si>
+    <t>[238491909, 40038996, 243325682,233825986]</t>
+  </si>
+  <si>
+    <t>[87749128, 25479108, 91439089,76932635]</t>
   </si>
 </sst>
 </file>
@@ -6224,10 +6230,10 @@
   <dimension ref="A1:AN291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC148" sqref="AC148"/>
+      <selection pane="bottomRight" activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6388,7 +6394,7 @@
         <v>101001</v>
       </c>
       <c r="B2" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -6430,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Q2" t="s">
         <v>791</v>
@@ -6456,7 +6462,7 @@
         <v>101002</v>
       </c>
       <c r="B3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -6498,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Q3" t="s">
         <v>791</v>
@@ -6524,7 +6530,7 @@
         <v>101003</v>
       </c>
       <c r="B4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6566,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="Q4" t="s">
         <v>791</v>
@@ -6592,7 +6598,7 @@
         <v>101004</v>
       </c>
       <c r="B5" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -6634,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q5" t="s">
         <v>791</v>
@@ -6660,7 +6666,7 @@
         <v>101005</v>
       </c>
       <c r="B6" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -6702,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="Q6" t="s">
         <v>791</v>
@@ -6728,7 +6734,7 @@
         <v>102001</v>
       </c>
       <c r="B7" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -6770,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Q7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="R7" t="s">
         <v>806</v>
@@ -6796,7 +6802,7 @@
         <v>102002</v>
       </c>
       <c r="B8" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -6838,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Q8" t="s">
         <v>791</v>
@@ -6864,7 +6870,7 @@
         <v>102003</v>
       </c>
       <c r="B9" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -6906,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Q9" t="s">
         <v>791</v>
@@ -6932,7 +6938,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6971,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Q10" t="s">
         <v>791</v>
@@ -6997,7 +7003,7 @@
         <v>102005</v>
       </c>
       <c r="B11" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -7039,10 +7045,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="Q11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="R11" t="s">
         <v>815</v>
@@ -7065,7 +7071,7 @@
         <v>103001</v>
       </c>
       <c r="B12" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -7107,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="Q12" t="s">
         <v>791</v>
@@ -7133,7 +7139,7 @@
         <v>103002</v>
       </c>
       <c r="B13" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -7172,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Q13" t="s">
         <v>791</v>
@@ -7198,7 +7204,7 @@
         <v>103003</v>
       </c>
       <c r="B14" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -7237,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="Q14" t="s">
         <v>791</v>
@@ -7263,7 +7269,7 @@
         <v>103004</v>
       </c>
       <c r="B15" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -7305,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="Q15" t="s">
         <v>791</v>
@@ -7331,7 +7337,7 @@
         <v>103005</v>
       </c>
       <c r="B16" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -7373,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Q16" t="s">
         <v>791</v>
@@ -7399,7 +7405,7 @@
         <v>104001</v>
       </c>
       <c r="B17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -7441,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="Q17" t="s">
         <v>791</v>
@@ -7506,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="Q18" t="s">
         <v>791</v>
@@ -7532,7 +7538,7 @@
         <v>104003</v>
       </c>
       <c r="B19" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -7574,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Q19" t="s">
         <v>791</v>
@@ -7600,7 +7606,7 @@
         <v>104004</v>
       </c>
       <c r="B20" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -7642,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="Q20" t="s">
         <v>791</v>
@@ -7668,7 +7674,7 @@
         <v>104005</v>
       </c>
       <c r="B21" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -7710,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="Q21" t="s">
         <v>791</v>
@@ -7736,7 +7742,7 @@
         <v>105001</v>
       </c>
       <c r="B22" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -7778,10 +7784,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="Q22" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="R22" t="s">
         <v>840</v>
@@ -7804,7 +7810,7 @@
         <v>105002</v>
       </c>
       <c r="B23" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -7843,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="s">
         <v>791</v>
@@ -7869,7 +7875,7 @@
         <v>105003</v>
       </c>
       <c r="B24" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -7908,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="Q24" t="s">
         <v>791</v>
@@ -7934,7 +7940,7 @@
         <v>105004</v>
       </c>
       <c r="B25" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -7976,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="Q25" t="s">
         <v>791</v>
@@ -8002,7 +8008,7 @@
         <v>105005</v>
       </c>
       <c r="B26" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -8041,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="Q26" t="s">
         <v>791</v>
@@ -8067,7 +8073,7 @@
         <v>106001</v>
       </c>
       <c r="B27" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -8100,10 +8106,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="Q27" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="R27" t="s">
         <v>849</v>
@@ -8168,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="Q28" t="s">
         <v>791</v>
@@ -8194,7 +8200,7 @@
         <v>106003</v>
       </c>
       <c r="B29" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -8233,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Q29" t="s">
         <v>791</v>
@@ -8259,7 +8265,7 @@
         <v>106004</v>
       </c>
       <c r="B30" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8298,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="Q30" t="s">
         <v>791</v>
@@ -8324,7 +8330,7 @@
         <v>106005</v>
       </c>
       <c r="B31" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -8363,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Q31" t="s">
         <v>791</v>
@@ -8389,7 +8395,7 @@
         <v>107001</v>
       </c>
       <c r="B32" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -8425,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="Q32" t="s">
         <v>791</v>
@@ -8451,7 +8457,7 @@
         <v>107002</v>
       </c>
       <c r="B33" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -8490,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="Q33" t="s">
         <v>791</v>
@@ -8516,7 +8522,7 @@
         <v>107003</v>
       </c>
       <c r="B34" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -8558,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Q34" t="s">
         <v>791</v>
@@ -8584,7 +8590,7 @@
         <v>107004</v>
       </c>
       <c r="B35" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -8626,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Q35" t="s">
         <v>791</v>
@@ -8652,7 +8658,7 @@
         <v>107005</v>
       </c>
       <c r="B36" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -8694,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Q36" t="s">
         <v>791</v>
@@ -8720,7 +8726,7 @@
         <v>108001</v>
       </c>
       <c r="B37" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -8759,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Q37" t="s">
         <v>791</v>
@@ -8785,7 +8791,7 @@
         <v>108002</v>
       </c>
       <c r="B38" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -8824,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="Q38" t="s">
         <v>791</v>
@@ -8850,7 +8856,7 @@
         <v>108003</v>
       </c>
       <c r="B39" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8886,16 +8892,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q39" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="R39" t="s">
         <v>870</v>
       </c>
       <c r="S39" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AC39" t="s">
         <v>871</v>
@@ -8904,7 +8910,7 @@
         <v>872</v>
       </c>
       <c r="AE39" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8912,7 +8918,7 @@
         <v>108004</v>
       </c>
       <c r="B40" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -8951,13 +8957,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Q40" t="s">
         <v>791</v>
       </c>
       <c r="R40" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="S40" t="s">
         <v>791</v>
@@ -8966,7 +8972,7 @@
         <v>791</v>
       </c>
       <c r="AD40" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="AE40" t="s">
         <v>791</v>
@@ -8977,7 +8983,7 @@
         <v>108005</v>
       </c>
       <c r="B41" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -9010,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="Q41" t="s">
         <v>791</v>
@@ -9036,7 +9042,7 @@
         <v>108006</v>
       </c>
       <c r="B42" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -9072,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Q42" t="s">
         <v>791</v>
@@ -9098,7 +9104,7 @@
         <v>108007</v>
       </c>
       <c r="B43" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -9137,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Q43" t="s">
         <v>791</v>
@@ -9163,7 +9169,7 @@
         <v>108008</v>
       </c>
       <c r="B44" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -9202,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q44" t="s">
         <v>791</v>
@@ -9228,7 +9234,7 @@
         <v>108009</v>
       </c>
       <c r="B45" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -9264,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Q45" t="s">
         <v>791</v>
@@ -9290,7 +9296,7 @@
         <v>109001</v>
       </c>
       <c r="B46" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -9332,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Q46" t="s">
         <v>791</v>
@@ -9358,7 +9364,7 @@
         <v>109002</v>
       </c>
       <c r="B47" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -9397,13 +9403,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="Q47" t="s">
         <v>791</v>
       </c>
       <c r="R47" t="s">
-        <v>885</v>
+        <v>1940</v>
       </c>
       <c r="S47" t="s">
         <v>791</v>
@@ -9412,7 +9418,7 @@
         <v>791</v>
       </c>
       <c r="AD47" t="s">
-        <v>886</v>
+        <v>1941</v>
       </c>
       <c r="AE47" t="s">
         <v>791</v>
@@ -9423,7 +9429,7 @@
         <v>109003</v>
       </c>
       <c r="B48" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -9465,22 +9471,22 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Q48" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="R48" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="S48" t="s">
         <v>791</v>
       </c>
       <c r="AC48" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="AD48" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="AE48" t="s">
         <v>791</v>
@@ -9491,7 +9497,7 @@
         <v>109004</v>
       </c>
       <c r="B49" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -9533,22 +9539,22 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Q49" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="R49" t="s">
+        <v>886</v>
+      </c>
+      <c r="S49" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD49" t="s">
         <v>888</v>
-      </c>
-      <c r="S49" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>889</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>890</v>
       </c>
       <c r="AE49" t="s">
         <v>791</v>
@@ -9559,7 +9565,7 @@
         <v>109005</v>
       </c>
       <c r="B50" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -9598,13 +9604,13 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="Q50" t="s">
         <v>791</v>
       </c>
       <c r="R50" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="S50" t="s">
         <v>791</v>
@@ -9613,7 +9619,7 @@
         <v>791</v>
       </c>
       <c r="AD50" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="AE50" t="s">
         <v>791</v>
@@ -9663,13 +9669,13 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q51" t="s">
         <v>791</v>
       </c>
       <c r="R51" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="S51" t="s">
         <v>791</v>
@@ -9678,7 +9684,7 @@
         <v>791</v>
       </c>
       <c r="AD51" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AE51" t="s">
         <v>791</v>
@@ -9689,7 +9695,7 @@
         <v>110002</v>
       </c>
       <c r="B52" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -9728,13 +9734,13 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q52" t="s">
         <v>791</v>
       </c>
       <c r="R52" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="S52" t="s">
         <v>791</v>
@@ -9743,7 +9749,7 @@
         <v>791</v>
       </c>
       <c r="AD52" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AE52" t="s">
         <v>791</v>
@@ -9754,7 +9760,7 @@
         <v>110003</v>
       </c>
       <c r="B53" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -9796,13 +9802,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Q53" t="s">
         <v>791</v>
       </c>
       <c r="R53" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="S53" t="s">
         <v>791</v>
@@ -9811,7 +9817,7 @@
         <v>791</v>
       </c>
       <c r="AD53" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="AE53" t="s">
         <v>791</v>
@@ -9822,7 +9828,7 @@
         <v>110004</v>
       </c>
       <c r="B54" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -9864,22 +9870,22 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="Q54" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="R54" t="s">
+        <v>895</v>
+      </c>
+      <c r="S54" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>896</v>
+      </c>
+      <c r="AD54" t="s">
         <v>897</v>
-      </c>
-      <c r="S54" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>898</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>899</v>
       </c>
       <c r="AE54" t="s">
         <v>791</v>
@@ -9890,7 +9896,7 @@
         <v>110005</v>
       </c>
       <c r="B55" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -9932,13 +9938,13 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q55" t="s">
         <v>791</v>
       </c>
       <c r="R55" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="S55" t="s">
         <v>791</v>
@@ -9947,7 +9953,7 @@
         <v>791</v>
       </c>
       <c r="AD55" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AE55" t="s">
         <v>791</v>
@@ -9958,7 +9964,7 @@
         <v>201001</v>
       </c>
       <c r="B56" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -10000,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Q56" t="s">
         <v>791</v>
@@ -10009,7 +10015,7 @@
         <v>791</v>
       </c>
       <c r="S56" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AC56" t="s">
         <v>791</v>
@@ -10018,7 +10024,7 @@
         <v>791</v>
       </c>
       <c r="AE56" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -10026,7 +10032,7 @@
         <v>201002</v>
       </c>
       <c r="B57" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -10068,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Q57" t="s">
         <v>791</v>
@@ -10077,7 +10083,7 @@
         <v>791</v>
       </c>
       <c r="S57" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AC57" t="s">
         <v>791</v>
@@ -10086,7 +10092,7 @@
         <v>791</v>
       </c>
       <c r="AE57" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -10094,7 +10100,7 @@
         <v>201003</v>
       </c>
       <c r="B58" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -10136,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="Q58" t="s">
         <v>791</v>
@@ -10145,7 +10151,7 @@
         <v>791</v>
       </c>
       <c r="S58" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="AC58" t="s">
         <v>791</v>
@@ -10154,7 +10160,7 @@
         <v>791</v>
       </c>
       <c r="AE58" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -10162,7 +10168,7 @@
         <v>201004</v>
       </c>
       <c r="B59" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -10204,25 +10210,25 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Q59" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="R59" t="s">
         <v>791</v>
       </c>
       <c r="S59" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE59" t="s">
         <v>906</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>907</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -10230,7 +10236,7 @@
         <v>201005</v>
       </c>
       <c r="B60" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -10272,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="Q60" t="s">
         <v>791</v>
@@ -10281,7 +10287,7 @@
         <v>791</v>
       </c>
       <c r="S60" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AC60" t="s">
         <v>791</v>
@@ -10290,7 +10296,7 @@
         <v>791</v>
       </c>
       <c r="AE60" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -10298,7 +10304,7 @@
         <v>202001</v>
       </c>
       <c r="B61" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -10331,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Q61" t="s">
         <v>791</v>
@@ -10340,7 +10346,7 @@
         <v>791</v>
       </c>
       <c r="S61" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AC61" t="s">
         <v>791</v>
@@ -10349,7 +10355,7 @@
         <v>791</v>
       </c>
       <c r="AE61" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
@@ -10357,7 +10363,7 @@
         <v>202002</v>
       </c>
       <c r="B62" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -10399,25 +10405,25 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="Q62" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="R62" t="s">
         <v>791</v>
       </c>
       <c r="S62" t="s">
+        <v>911</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>912</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE62" t="s">
         <v>913</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>914</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -10425,7 +10431,7 @@
         <v>202003</v>
       </c>
       <c r="B63" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -10467,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q63" t="s">
         <v>791</v>
@@ -10476,7 +10482,7 @@
         <v>791</v>
       </c>
       <c r="S63" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AC63" t="s">
         <v>791</v>
@@ -10485,7 +10491,7 @@
         <v>791</v>
       </c>
       <c r="AE63" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -10493,7 +10499,7 @@
         <v>202004</v>
       </c>
       <c r="B64" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -10535,25 +10541,25 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Q64" t="s">
         <v>791</v>
       </c>
       <c r="R64" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="S64" t="s">
+        <v>916</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>791</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>917</v>
+      </c>
+      <c r="AE64" t="s">
         <v>918</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>919</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
@@ -10603,25 +10609,25 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Q65" t="s">
         <v>791</v>
       </c>
       <c r="R65" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="S65" t="s">
+        <v>919</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>791</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE65" t="s">
         <v>921</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>922</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
@@ -10629,7 +10635,7 @@
         <v>203001</v>
       </c>
       <c r="B66" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
@@ -10668,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q66" t="s">
         <v>791</v>
@@ -10677,7 +10683,7 @@
         <v>791</v>
       </c>
       <c r="S66" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AC66" t="s">
         <v>791</v>
@@ -10686,7 +10692,7 @@
         <v>791</v>
       </c>
       <c r="AE66" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
@@ -10694,7 +10700,7 @@
         <v>203002</v>
       </c>
       <c r="B67" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -10736,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="Q67" t="s">
         <v>791</v>
@@ -10745,7 +10751,7 @@
         <v>791</v>
       </c>
       <c r="S67" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AC67" t="s">
         <v>791</v>
@@ -10754,7 +10760,7 @@
         <v>791</v>
       </c>
       <c r="AE67" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -10762,7 +10768,7 @@
         <v>203003</v>
       </c>
       <c r="B68" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -10804,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Q68" t="s">
         <v>791</v>
@@ -10813,7 +10819,7 @@
         <v>791</v>
       </c>
       <c r="S68" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AC68" t="s">
         <v>791</v>
@@ -10822,7 +10828,7 @@
         <v>791</v>
       </c>
       <c r="AE68" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
@@ -10830,7 +10836,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10872,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q69" t="s">
         <v>791</v>
@@ -10881,7 +10887,7 @@
         <v>791</v>
       </c>
       <c r="S69" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AC69" t="s">
         <v>791</v>
@@ -10890,7 +10896,7 @@
         <v>791</v>
       </c>
       <c r="AE69" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
@@ -10898,7 +10904,7 @@
         <v>203005</v>
       </c>
       <c r="B70" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
@@ -10940,25 +10946,25 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Q70" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="R70" t="s">
         <v>791</v>
       </c>
       <c r="S70" t="s">
+        <v>930</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>931</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE70" t="s">
         <v>932</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>933</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
@@ -10966,7 +10972,7 @@
         <v>204001</v>
       </c>
       <c r="B71" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
@@ -10999,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q71" t="s">
         <v>791</v>
@@ -11008,7 +11014,7 @@
         <v>791</v>
       </c>
       <c r="S71" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AC71" t="s">
         <v>791</v>
@@ -11017,7 +11023,7 @@
         <v>791</v>
       </c>
       <c r="AE71" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -11025,7 +11031,7 @@
         <v>204002</v>
       </c>
       <c r="B72" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
@@ -11064,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q72" t="s">
         <v>791</v>
@@ -11073,7 +11079,7 @@
         <v>791</v>
       </c>
       <c r="S72" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AC72" t="s">
         <v>791</v>
@@ -11082,7 +11088,7 @@
         <v>791</v>
       </c>
       <c r="AE72" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -11090,7 +11096,7 @@
         <v>204003</v>
       </c>
       <c r="B73" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C73" t="s">
         <v>77</v>
@@ -11132,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q73" t="s">
         <v>791</v>
@@ -11141,7 +11147,7 @@
         <v>791</v>
       </c>
       <c r="S73" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AC73" t="s">
         <v>791</v>
@@ -11150,7 +11156,7 @@
         <v>791</v>
       </c>
       <c r="AE73" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -11158,7 +11164,7 @@
         <v>204004</v>
       </c>
       <c r="B74" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
@@ -11197,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Q74" t="s">
         <v>791</v>
@@ -11206,7 +11212,7 @@
         <v>791</v>
       </c>
       <c r="S74" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="AC74" t="s">
         <v>791</v>
@@ -11215,7 +11221,7 @@
         <v>791</v>
       </c>
       <c r="AE74" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -11223,7 +11229,7 @@
         <v>204005</v>
       </c>
       <c r="B75" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
@@ -11265,25 +11271,25 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q75" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="R75" t="s">
         <v>791</v>
       </c>
       <c r="S75" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="AC75" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AD75" t="s">
         <v>791</v>
       </c>
       <c r="AE75" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -11291,7 +11297,7 @@
         <v>205001</v>
       </c>
       <c r="B76" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -11330,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q76" t="s">
         <v>791</v>
@@ -11339,7 +11345,7 @@
         <v>791</v>
       </c>
       <c r="S76" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="AC76" t="s">
         <v>791</v>
@@ -11348,7 +11354,7 @@
         <v>791</v>
       </c>
       <c r="AE76" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -11356,7 +11362,7 @@
         <v>205002</v>
       </c>
       <c r="B77" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -11398,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Q77" t="s">
         <v>791</v>
@@ -11407,10 +11413,10 @@
         <v>791</v>
       </c>
       <c r="S77" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="T77" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="AC77" t="s">
         <v>791</v>
@@ -11419,10 +11425,10 @@
         <v>791</v>
       </c>
       <c r="AE77" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="AF77" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -11430,7 +11436,7 @@
         <v>205003</v>
       </c>
       <c r="B78" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C78" t="s">
         <v>82</v>
@@ -11472,25 +11478,25 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Q78" t="s">
         <v>791</v>
       </c>
       <c r="R78" t="s">
-        <v>791</v>
+        <v>1938</v>
       </c>
       <c r="S78" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AC78" t="s">
         <v>791</v>
       </c>
       <c r="AD78" t="s">
-        <v>791</v>
+        <v>1939</v>
       </c>
       <c r="AE78" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -11498,7 +11504,7 @@
         <v>205004</v>
       </c>
       <c r="B79" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C79" t="s">
         <v>83</v>
@@ -11534,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Q79" t="s">
         <v>791</v>
@@ -11543,7 +11549,7 @@
         <v>791</v>
       </c>
       <c r="S79" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AC79" t="s">
         <v>791</v>
@@ -11552,7 +11558,7 @@
         <v>791</v>
       </c>
       <c r="AE79" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -11560,7 +11566,7 @@
         <v>205005</v>
       </c>
       <c r="B80" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
@@ -11596,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="Q80" t="s">
         <v>791</v>
@@ -11605,7 +11611,7 @@
         <v>791</v>
       </c>
       <c r="S80" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AC80" t="s">
         <v>791</v>
@@ -11614,7 +11620,7 @@
         <v>791</v>
       </c>
       <c r="AE80" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -11622,7 +11628,7 @@
         <v>206001</v>
       </c>
       <c r="B81" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
@@ -11664,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q81" t="s">
         <v>791</v>
@@ -11673,7 +11679,7 @@
         <v>791</v>
       </c>
       <c r="S81" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AC81" t="s">
         <v>791</v>
@@ -11682,7 +11688,7 @@
         <v>791</v>
       </c>
       <c r="AE81" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -11690,7 +11696,7 @@
         <v>206002</v>
       </c>
       <c r="B82" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
@@ -11732,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="Q82" t="s">
         <v>791</v>
@@ -11741,7 +11747,7 @@
         <v>791</v>
       </c>
       <c r="S82" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AC82" t="s">
         <v>791</v>
@@ -11750,7 +11756,7 @@
         <v>791</v>
       </c>
       <c r="AE82" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -11758,7 +11764,7 @@
         <v>206003</v>
       </c>
       <c r="B83" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
@@ -11800,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Q83" t="s">
         <v>791</v>
@@ -11809,7 +11815,7 @@
         <v>791</v>
       </c>
       <c r="S83" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AC83" t="s">
         <v>791</v>
@@ -11818,7 +11824,7 @@
         <v>791</v>
       </c>
       <c r="AE83" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -11826,7 +11832,7 @@
         <v>206004</v>
       </c>
       <c r="B84" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
@@ -11865,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q84" t="s">
         <v>791</v>
@@ -11874,7 +11880,7 @@
         <v>791</v>
       </c>
       <c r="S84" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AC84" t="s">
         <v>791</v>
@@ -11883,7 +11889,7 @@
         <v>791</v>
       </c>
       <c r="AE84" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -11891,7 +11897,7 @@
         <v>206005</v>
       </c>
       <c r="B85" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
@@ -11933,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Q85" t="s">
         <v>791</v>
@@ -11942,7 +11948,7 @@
         <v>791</v>
       </c>
       <c r="S85" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AC85" t="s">
         <v>791</v>
@@ -11951,7 +11957,7 @@
         <v>791</v>
       </c>
       <c r="AE85" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -11959,7 +11965,7 @@
         <v>207001</v>
       </c>
       <c r="B86" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C86" t="s">
         <v>90</v>
@@ -12001,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Q86" t="s">
         <v>791</v>
@@ -12010,7 +12016,7 @@
         <v>791</v>
       </c>
       <c r="S86" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AC86" t="s">
         <v>791</v>
@@ -12019,7 +12025,7 @@
         <v>791</v>
       </c>
       <c r="AE86" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -12027,7 +12033,7 @@
         <v>207002</v>
       </c>
       <c r="B87" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
@@ -12066,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Q87" t="s">
         <v>791</v>
@@ -12075,7 +12081,7 @@
         <v>791</v>
       </c>
       <c r="S87" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AC87" t="s">
         <v>791</v>
@@ -12084,7 +12090,7 @@
         <v>791</v>
       </c>
       <c r="AE87" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -12092,7 +12098,7 @@
         <v>207003</v>
       </c>
       <c r="B88" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
@@ -12134,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Q88" t="s">
         <v>791</v>
@@ -12143,7 +12149,7 @@
         <v>791</v>
       </c>
       <c r="S88" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AC88" t="s">
         <v>791</v>
@@ -12152,7 +12158,7 @@
         <v>791</v>
       </c>
       <c r="AE88" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -12160,7 +12166,7 @@
         <v>207004</v>
       </c>
       <c r="B89" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="C89" t="s">
         <v>93</v>
@@ -12202,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Q89" t="s">
         <v>791</v>
@@ -12211,7 +12217,7 @@
         <v>791</v>
       </c>
       <c r="S89" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AC89" t="s">
         <v>791</v>
@@ -12220,7 +12226,7 @@
         <v>791</v>
       </c>
       <c r="AE89" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -12228,7 +12234,7 @@
         <v>207005</v>
       </c>
       <c r="B90" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C90" t="s">
         <v>94</v>
@@ -12267,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="Q90" t="s">
         <v>791</v>
@@ -12276,7 +12282,7 @@
         <v>791</v>
       </c>
       <c r="S90" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AC90" t="s">
         <v>791</v>
@@ -12285,7 +12291,7 @@
         <v>791</v>
       </c>
       <c r="AE90" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -12293,7 +12299,7 @@
         <v>208001</v>
       </c>
       <c r="B91" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
@@ -12335,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="Q91" t="s">
         <v>791</v>
@@ -12344,7 +12350,7 @@
         <v>791</v>
       </c>
       <c r="S91" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AC91" t="s">
         <v>791</v>
@@ -12353,7 +12359,7 @@
         <v>791</v>
       </c>
       <c r="AE91" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -12361,7 +12367,7 @@
         <v>208002</v>
       </c>
       <c r="B92" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C92" t="s">
         <v>96</v>
@@ -12403,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="Q92" t="s">
         <v>791</v>
@@ -12412,7 +12418,7 @@
         <v>791</v>
       </c>
       <c r="S92" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="AC92" t="s">
         <v>791</v>
@@ -12421,7 +12427,7 @@
         <v>791</v>
       </c>
       <c r="AE92" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -12429,7 +12435,7 @@
         <v>208003</v>
       </c>
       <c r="B93" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C93" t="s">
         <v>97</v>
@@ -12468,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q93" t="s">
         <v>791</v>
@@ -12477,7 +12483,7 @@
         <v>791</v>
       </c>
       <c r="S93" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AC93" t="s">
         <v>791</v>
@@ -12486,7 +12492,7 @@
         <v>791</v>
       </c>
       <c r="AE93" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -12494,7 +12500,7 @@
         <v>208004</v>
       </c>
       <c r="B94" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C94" t="s">
         <v>98</v>
@@ -12536,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Q94" t="s">
         <v>791</v>
@@ -12545,7 +12551,7 @@
         <v>791</v>
       </c>
       <c r="S94" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AC94" t="s">
         <v>791</v>
@@ -12554,7 +12560,7 @@
         <v>791</v>
       </c>
       <c r="AE94" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -12562,7 +12568,7 @@
         <v>208005</v>
       </c>
       <c r="B95" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C95" t="s">
         <v>99</v>
@@ -12604,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Q95" t="s">
         <v>791</v>
@@ -12613,7 +12619,7 @@
         <v>791</v>
       </c>
       <c r="S95" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AC95" t="s">
         <v>791</v>
@@ -12622,7 +12628,7 @@
         <v>791</v>
       </c>
       <c r="AE95" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -12630,7 +12636,7 @@
         <v>209001</v>
       </c>
       <c r="B96" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C96" t="s">
         <v>100</v>
@@ -12672,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q96" t="s">
         <v>791</v>
@@ -12681,7 +12687,7 @@
         <v>791</v>
       </c>
       <c r="S96" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AC96" t="s">
         <v>791</v>
@@ -12690,7 +12696,7 @@
         <v>791</v>
       </c>
       <c r="AE96" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -12698,7 +12704,7 @@
         <v>209002</v>
       </c>
       <c r="B97" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C97" t="s">
         <v>101</v>
@@ -12737,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q97" t="s">
         <v>791</v>
@@ -12746,7 +12752,7 @@
         <v>791</v>
       </c>
       <c r="S97" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AC97" t="s">
         <v>791</v>
@@ -12755,7 +12761,7 @@
         <v>791</v>
       </c>
       <c r="AE97" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -12763,7 +12769,7 @@
         <v>209003</v>
       </c>
       <c r="B98" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C98" t="s">
         <v>102</v>
@@ -12802,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q98" t="s">
         <v>791</v>
@@ -12811,7 +12817,7 @@
         <v>791</v>
       </c>
       <c r="S98" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AC98" t="s">
         <v>791</v>
@@ -12820,7 +12826,7 @@
         <v>791</v>
       </c>
       <c r="AE98" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -12828,7 +12834,7 @@
         <v>209004</v>
       </c>
       <c r="B99" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C99" t="s">
         <v>103</v>
@@ -12867,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q99" t="s">
         <v>791</v>
@@ -12876,7 +12882,7 @@
         <v>791</v>
       </c>
       <c r="S99" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AC99" t="s">
         <v>791</v>
@@ -12885,7 +12891,7 @@
         <v>791</v>
       </c>
       <c r="AE99" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -12893,7 +12899,7 @@
         <v>209005</v>
       </c>
       <c r="B100" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C100" t="s">
         <v>104</v>
@@ -12932,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q100" t="s">
         <v>791</v>
@@ -12941,7 +12947,7 @@
         <v>791</v>
       </c>
       <c r="S100" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AC100" t="s">
         <v>791</v>
@@ -12950,7 +12956,7 @@
         <v>791</v>
       </c>
       <c r="AE100" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -12958,7 +12964,7 @@
         <v>210001</v>
       </c>
       <c r="B101" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C101" t="s">
         <v>105</v>
@@ -12997,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q101" t="s">
         <v>791</v>
@@ -13006,7 +13012,7 @@
         <v>791</v>
       </c>
       <c r="S101" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AC101" t="s">
         <v>791</v>
@@ -13015,7 +13021,7 @@
         <v>791</v>
       </c>
       <c r="AE101" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -13023,7 +13029,7 @@
         <v>210002</v>
       </c>
       <c r="B102" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
@@ -13065,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="Q102" t="s">
         <v>791</v>
@@ -13074,7 +13080,7 @@
         <v>791</v>
       </c>
       <c r="S102" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AC102" t="s">
         <v>791</v>
@@ -13083,7 +13089,7 @@
         <v>791</v>
       </c>
       <c r="AE102" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -13091,7 +13097,7 @@
         <v>210003</v>
       </c>
       <c r="B103" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C103" t="s">
         <v>107</v>
@@ -13130,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q103" t="s">
         <v>791</v>
@@ -13139,7 +13145,7 @@
         <v>791</v>
       </c>
       <c r="S103" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="AC103" t="s">
         <v>791</v>
@@ -13148,7 +13154,7 @@
         <v>791</v>
       </c>
       <c r="AE103" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -13156,7 +13162,7 @@
         <v>210004</v>
       </c>
       <c r="B104" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C104" t="s">
         <v>108</v>
@@ -13195,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q104" t="s">
         <v>791</v>
@@ -13204,7 +13210,7 @@
         <v>791</v>
       </c>
       <c r="S104" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AC104" t="s">
         <v>791</v>
@@ -13213,7 +13219,7 @@
         <v>791</v>
       </c>
       <c r="AE104" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -13221,7 +13227,7 @@
         <v>210005</v>
       </c>
       <c r="B105" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C105" t="s">
         <v>109</v>
@@ -13260,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q105" t="s">
         <v>791</v>
@@ -13269,7 +13275,7 @@
         <v>791</v>
       </c>
       <c r="S105" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AC105" t="s">
         <v>791</v>
@@ -13278,7 +13284,7 @@
         <v>791</v>
       </c>
       <c r="AE105" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -13286,7 +13292,7 @@
         <v>301001</v>
       </c>
       <c r="B106" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C106" t="s">
         <v>110</v>
@@ -13325,10 +13331,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="Q106" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="R106" t="s">
         <v>791</v>
@@ -13337,7 +13343,7 @@
         <v>791</v>
       </c>
       <c r="AC106" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AD106" t="s">
         <v>791</v>
@@ -13351,7 +13357,7 @@
         <v>301002</v>
       </c>
       <c r="B107" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C107" t="s">
         <v>111</v>
@@ -13390,10 +13396,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="Q107" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="R107" t="s">
         <v>791</v>
@@ -13402,7 +13408,7 @@
         <v>791</v>
       </c>
       <c r="AC107" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="AD107" t="s">
         <v>791</v>
@@ -13416,7 +13422,7 @@
         <v>301003</v>
       </c>
       <c r="B108" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C108" t="s">
         <v>112</v>
@@ -13458,10 +13464,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="Q108" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R108" t="s">
         <v>791</v>
@@ -13470,7 +13476,7 @@
         <v>791</v>
       </c>
       <c r="AC108" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AD108" t="s">
         <v>791</v>
@@ -13484,7 +13490,7 @@
         <v>301004</v>
       </c>
       <c r="B109" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C109" t="s">
         <v>113</v>
@@ -13526,10 +13532,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="Q109" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="R109" t="s">
         <v>791</v>
@@ -13538,7 +13544,7 @@
         <v>791</v>
       </c>
       <c r="AC109" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AD109" t="s">
         <v>791</v>
@@ -13552,7 +13558,7 @@
         <v>301005</v>
       </c>
       <c r="B110" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C110" t="s">
         <v>114</v>
@@ -13594,10 +13600,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q110" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R110" t="s">
         <v>791</v>
@@ -13606,7 +13612,7 @@
         <v>791</v>
       </c>
       <c r="AC110" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AD110" t="s">
         <v>791</v>
@@ -13620,7 +13626,7 @@
         <v>302001</v>
       </c>
       <c r="B111" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
@@ -13662,10 +13668,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q111" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="R111" t="s">
         <v>791</v>
@@ -13674,7 +13680,7 @@
         <v>791</v>
       </c>
       <c r="AC111" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AD111" t="s">
         <v>791</v>
@@ -13688,7 +13694,7 @@
         <v>302002</v>
       </c>
       <c r="B112" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
@@ -13730,10 +13736,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q112" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R112" t="s">
         <v>791</v>
@@ -13742,7 +13748,7 @@
         <v>791</v>
       </c>
       <c r="AC112" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AD112" t="s">
         <v>791</v>
@@ -13756,7 +13762,7 @@
         <v>302003</v>
       </c>
       <c r="B113" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C113" t="s">
         <v>117</v>
@@ -13798,10 +13804,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Q113" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="R113" t="s">
         <v>791</v>
@@ -13810,7 +13816,7 @@
         <v>791</v>
       </c>
       <c r="AC113" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AD113" t="s">
         <v>791</v>
@@ -13824,7 +13830,7 @@
         <v>302004</v>
       </c>
       <c r="B114" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C114" t="s">
         <v>118</v>
@@ -13866,10 +13872,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="Q114" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R114" t="s">
         <v>791</v>
@@ -13878,7 +13884,7 @@
         <v>791</v>
       </c>
       <c r="AC114" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AD114" t="s">
         <v>791</v>
@@ -13934,10 +13940,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q115" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="R115" t="s">
         <v>791</v>
@@ -13946,7 +13952,7 @@
         <v>791</v>
       </c>
       <c r="AC115" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="AD115" t="s">
         <v>791</v>
@@ -13960,7 +13966,7 @@
         <v>303001</v>
       </c>
       <c r="B116" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C116" t="s">
         <v>120</v>
@@ -14002,10 +14008,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q116" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R116" t="s">
         <v>791</v>
@@ -14014,7 +14020,7 @@
         <v>791</v>
       </c>
       <c r="AC116" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AD116" t="s">
         <v>791</v>
@@ -14028,7 +14034,7 @@
         <v>303002</v>
       </c>
       <c r="B117" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
@@ -14070,10 +14076,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q117" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R117" t="s">
         <v>791</v>
@@ -14082,7 +14088,7 @@
         <v>791</v>
       </c>
       <c r="AC117" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="AD117" t="s">
         <v>791</v>
@@ -14096,7 +14102,7 @@
         <v>303003</v>
       </c>
       <c r="B118" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
@@ -14138,10 +14144,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Q118" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="R118" t="s">
         <v>791</v>
@@ -14150,7 +14156,7 @@
         <v>791</v>
       </c>
       <c r="AC118" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AD118" t="s">
         <v>791</v>
@@ -14164,7 +14170,7 @@
         <v>303004</v>
       </c>
       <c r="B119" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C119" t="s">
         <v>123</v>
@@ -14206,10 +14212,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="Q119" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="R119" t="s">
         <v>791</v>
@@ -14218,7 +14224,7 @@
         <v>791</v>
       </c>
       <c r="AC119" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AD119" t="s">
         <v>791</v>
@@ -14232,7 +14238,7 @@
         <v>303005</v>
       </c>
       <c r="B120" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C120" t="s">
         <v>124</v>
@@ -14274,10 +14280,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q120" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="R120" t="s">
         <v>791</v>
@@ -14286,7 +14292,7 @@
         <v>791</v>
       </c>
       <c r="AC120" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AD120" t="s">
         <v>791</v>
@@ -14300,7 +14306,7 @@
         <v>304001</v>
       </c>
       <c r="B121" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C121" t="s">
         <v>125</v>
@@ -14342,10 +14348,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q121" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="R121" t="s">
         <v>791</v>
@@ -14354,7 +14360,7 @@
         <v>791</v>
       </c>
       <c r="AC121" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AD121" t="s">
         <v>791</v>
@@ -14368,7 +14374,7 @@
         <v>304002</v>
       </c>
       <c r="B122" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
@@ -14410,10 +14416,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Q122" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="R122" t="s">
         <v>791</v>
@@ -14422,7 +14428,7 @@
         <v>791</v>
       </c>
       <c r="AC122" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AD122" t="s">
         <v>791</v>
@@ -14436,7 +14442,7 @@
         <v>304003</v>
       </c>
       <c r="B123" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
@@ -14478,10 +14484,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q123" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R123" t="s">
         <v>791</v>
@@ -14490,7 +14496,7 @@
         <v>791</v>
       </c>
       <c r="AC123" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AD123" t="s">
         <v>791</v>
@@ -14504,7 +14510,7 @@
         <v>304004</v>
       </c>
       <c r="B124" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
@@ -14546,10 +14552,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="Q124" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="R124" t="s">
         <v>791</v>
@@ -14558,7 +14564,7 @@
         <v>791</v>
       </c>
       <c r="AC124" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AD124" t="s">
         <v>791</v>
@@ -14572,7 +14578,7 @@
         <v>304005</v>
       </c>
       <c r="B125" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
@@ -14614,10 +14620,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Q125" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="R125" t="s">
         <v>791</v>
@@ -14626,7 +14632,7 @@
         <v>791</v>
       </c>
       <c r="AC125" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AD125" t="s">
         <v>791</v>
@@ -14640,7 +14646,7 @@
         <v>304006</v>
       </c>
       <c r="B126" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
@@ -14682,10 +14688,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q126" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="R126" t="s">
         <v>791</v>
@@ -14694,7 +14700,7 @@
         <v>791</v>
       </c>
       <c r="AC126" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AD126" t="s">
         <v>791</v>
@@ -14708,7 +14714,7 @@
         <v>304007</v>
       </c>
       <c r="B127" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
@@ -14750,10 +14756,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Q127" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="R127" t="s">
         <v>791</v>
@@ -14762,7 +14768,7 @@
         <v>791</v>
       </c>
       <c r="AC127" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AD127" t="s">
         <v>791</v>
@@ -14776,7 +14782,7 @@
         <v>305001</v>
       </c>
       <c r="B128" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
@@ -14812,10 +14818,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Q128" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="R128" t="s">
         <v>791</v>
@@ -14824,7 +14830,7 @@
         <v>791</v>
       </c>
       <c r="AC128" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AD128" t="s">
         <v>791</v>
@@ -14838,7 +14844,7 @@
         <v>305002</v>
       </c>
       <c r="B129" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
@@ -14880,10 +14886,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q129" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="R129" t="s">
         <v>791</v>
@@ -14892,7 +14898,7 @@
         <v>791</v>
       </c>
       <c r="AC129" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AD129" t="s">
         <v>791</v>
@@ -14906,7 +14912,7 @@
         <v>305003</v>
       </c>
       <c r="B130" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C130" t="s">
         <v>134</v>
@@ -14948,10 +14954,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q130" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="R130" t="s">
         <v>791</v>
@@ -14960,7 +14966,7 @@
         <v>791</v>
       </c>
       <c r="AC130" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AD130" t="s">
         <v>791</v>
@@ -14974,7 +14980,7 @@
         <v>305004</v>
       </c>
       <c r="B131" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
@@ -15016,10 +15022,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q131" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="R131" t="s">
         <v>791</v>
@@ -15028,7 +15034,7 @@
         <v>791</v>
       </c>
       <c r="AC131" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AD131" t="s">
         <v>791</v>
@@ -15042,7 +15048,7 @@
         <v>305005</v>
       </c>
       <c r="B132" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C132" t="s">
         <v>136</v>
@@ -15084,10 +15090,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Q132" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="R132" t="s">
         <v>791</v>
@@ -15096,7 +15102,7 @@
         <v>791</v>
       </c>
       <c r="AC132" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AD132" t="s">
         <v>791</v>
@@ -15146,10 +15152,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Q133" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="R133" t="s">
         <v>791</v>
@@ -15158,7 +15164,7 @@
         <v>791</v>
       </c>
       <c r="AC133" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AD133" t="s">
         <v>791</v>
@@ -15172,7 +15178,7 @@
         <v>306002</v>
       </c>
       <c r="B134" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C134" t="s">
         <v>138</v>
@@ -15211,10 +15217,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="Q134" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="R134" t="s">
         <v>791</v>
@@ -15223,7 +15229,7 @@
         <v>791</v>
       </c>
       <c r="AC134" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AD134" t="s">
         <v>791</v>
@@ -15237,7 +15243,7 @@
         <v>306003</v>
       </c>
       <c r="B135" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C135" t="s">
         <v>139</v>
@@ -15279,10 +15285,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="Q135" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="R135" t="s">
         <v>791</v>
@@ -15291,7 +15297,7 @@
         <v>791</v>
       </c>
       <c r="AC135" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AD135" t="s">
         <v>791</v>
@@ -15305,7 +15311,7 @@
         <v>306004</v>
       </c>
       <c r="B136" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C136" t="s">
         <v>140</v>
@@ -15344,10 +15350,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="Q136" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="R136" t="s">
         <v>791</v>
@@ -15356,7 +15362,7 @@
         <v>791</v>
       </c>
       <c r="AC136" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AD136" t="s">
         <v>791</v>
@@ -15370,7 +15376,7 @@
         <v>306005</v>
       </c>
       <c r="B137" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C137" t="s">
         <v>141</v>
@@ -15406,10 +15412,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="Q137" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="R137" t="s">
         <v>791</v>
@@ -15418,7 +15424,7 @@
         <v>791</v>
       </c>
       <c r="AC137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AD137" t="s">
         <v>791</v>
@@ -15432,7 +15438,7 @@
         <v>306006</v>
       </c>
       <c r="B138" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C138" t="s">
         <v>142</v>
@@ -15471,10 +15477,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="Q138" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="R138" t="s">
         <v>791</v>
@@ -15483,7 +15489,7 @@
         <v>791</v>
       </c>
       <c r="AC138" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AD138" t="s">
         <v>791</v>
@@ -15497,7 +15503,7 @@
         <v>307001</v>
       </c>
       <c r="B139" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C139" t="s">
         <v>143</v>
@@ -15539,10 +15545,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="Q139" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="R139" t="s">
         <v>791</v>
@@ -15551,7 +15557,7 @@
         <v>791</v>
       </c>
       <c r="AC139" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AD139" t="s">
         <v>791</v>
@@ -15565,7 +15571,7 @@
         <v>307002</v>
       </c>
       <c r="B140" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C140" t="s">
         <v>144</v>
@@ -15607,10 +15613,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="Q140" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="R140" t="s">
         <v>791</v>
@@ -15619,7 +15625,7 @@
         <v>791</v>
       </c>
       <c r="AC140" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AD140" t="s">
         <v>791</v>
@@ -15633,7 +15639,7 @@
         <v>307003</v>
       </c>
       <c r="B141" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="C141" t="s">
         <v>145</v>
@@ -15672,10 +15678,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q141" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="R141" t="s">
         <v>791</v>
@@ -15684,7 +15690,7 @@
         <v>791</v>
       </c>
       <c r="AC141" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AD141" t="s">
         <v>791</v>
@@ -15698,7 +15704,7 @@
         <v>307004</v>
       </c>
       <c r="B142" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="C142" t="s">
         <v>146</v>
@@ -15740,10 +15746,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="Q142" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="R142" t="s">
         <v>791</v>
@@ -15752,7 +15758,7 @@
         <v>791</v>
       </c>
       <c r="AC142" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AD142" t="s">
         <v>791</v>
@@ -15808,10 +15814,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Q143" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="R143" t="s">
         <v>791</v>
@@ -15820,7 +15826,7 @@
         <v>791</v>
       </c>
       <c r="AC143" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AD143" t="s">
         <v>791</v>
@@ -15834,7 +15840,7 @@
         <v>307006</v>
       </c>
       <c r="B144" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C144" t="s">
         <v>148</v>
@@ -15876,10 +15882,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q144" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="R144" t="s">
         <v>791</v>
@@ -15888,7 +15894,7 @@
         <v>791</v>
       </c>
       <c r="AC144" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AD144" t="s">
         <v>791</v>
@@ -15902,7 +15908,7 @@
         <v>308001</v>
       </c>
       <c r="B145" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="C145" t="s">
         <v>149</v>
@@ -15944,10 +15950,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="Q145" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="R145" t="s">
         <v>791</v>
@@ -15956,7 +15962,7 @@
         <v>791</v>
       </c>
       <c r="AC145" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AD145" t="s">
         <v>791</v>
@@ -15970,7 +15976,7 @@
         <v>308002</v>
       </c>
       <c r="B146" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C146" t="s">
         <v>150</v>
@@ -16012,10 +16018,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="Q146" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="R146" t="s">
         <v>791</v>
@@ -16024,7 +16030,7 @@
         <v>791</v>
       </c>
       <c r="AC146" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AD146" t="s">
         <v>791</v>
@@ -16038,7 +16044,7 @@
         <v>308003</v>
       </c>
       <c r="B147" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="C147" t="s">
         <v>151</v>
@@ -16080,10 +16086,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q147" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="R147" t="s">
         <v>791</v>
@@ -16092,7 +16098,7 @@
         <v>791</v>
       </c>
       <c r="AC147" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AD147" t="s">
         <v>791</v>
@@ -16106,7 +16112,7 @@
         <v>308004</v>
       </c>
       <c r="B148" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C148" t="s">
         <v>152</v>
@@ -16148,10 +16154,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q148" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="R148" t="s">
         <v>791</v>
@@ -16160,7 +16166,7 @@
         <v>791</v>
       </c>
       <c r="AC148" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="AD148" t="s">
         <v>791</v>
@@ -16174,7 +16180,7 @@
         <v>308005</v>
       </c>
       <c r="B149" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="C149" t="s">
         <v>153</v>
@@ -16216,10 +16222,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="Q149" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="R149" t="s">
         <v>791</v>
@@ -16228,7 +16234,7 @@
         <v>791</v>
       </c>
       <c r="AC149" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AD149" t="s">
         <v>791</v>
@@ -16242,7 +16248,7 @@
         <v>401001</v>
       </c>
       <c r="B150" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C150" t="s">
         <v>154</v>
@@ -16281,10 +16287,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="Q150" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="R150" t="s">
         <v>791</v>
@@ -16293,7 +16299,7 @@
         <v>791</v>
       </c>
       <c r="AC150" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AD150" t="s">
         <v>791</v>
@@ -16307,7 +16313,7 @@
         <v>401002</v>
       </c>
       <c r="B151" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="C151" t="s">
         <v>156</v>
@@ -16343,10 +16349,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="Q151" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="R151" t="s">
         <v>791</v>
@@ -16355,7 +16361,7 @@
         <v>791</v>
       </c>
       <c r="AC151" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AD151" t="s">
         <v>791</v>
@@ -16369,7 +16375,7 @@
         <v>401003</v>
       </c>
       <c r="B152" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C152" t="s">
         <v>157</v>
@@ -16408,10 +16414,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="Q152" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="R152" t="s">
         <v>791</v>
@@ -16420,7 +16426,7 @@
         <v>791</v>
       </c>
       <c r="AC152" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AD152" t="s">
         <v>791</v>
@@ -16434,7 +16440,7 @@
         <v>401004</v>
       </c>
       <c r="B153" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C153" t="s">
         <v>158</v>
@@ -16470,10 +16476,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="Q153" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="R153" t="s">
         <v>791</v>
@@ -16482,7 +16488,7 @@
         <v>791</v>
       </c>
       <c r="AC153" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AD153" t="s">
         <v>791</v>
@@ -16496,7 +16502,7 @@
         <v>401005</v>
       </c>
       <c r="B154" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C154" t="s">
         <v>159</v>
@@ -16535,10 +16541,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="Q154" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="R154" t="s">
         <v>791</v>
@@ -16547,7 +16553,7 @@
         <v>791</v>
       </c>
       <c r="AC154" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AD154" t="s">
         <v>791</v>
@@ -16561,7 +16567,7 @@
         <v>401006</v>
       </c>
       <c r="B155" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C155" t="s">
         <v>160</v>
@@ -16600,10 +16606,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="Q155" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="R155" t="s">
         <v>791</v>
@@ -16612,7 +16618,7 @@
         <v>791</v>
       </c>
       <c r="AC155" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AD155" t="s">
         <v>791</v>
@@ -16665,10 +16671,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="Q156" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="R156" t="s">
         <v>791</v>
@@ -16677,7 +16683,7 @@
         <v>791</v>
       </c>
       <c r="AC156" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AD156" t="s">
         <v>791</v>
@@ -16730,10 +16736,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="Q157" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="R157" t="s">
         <v>791</v>
@@ -16742,7 +16748,7 @@
         <v>791</v>
       </c>
       <c r="AC157" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AD157" t="s">
         <v>791</v>
@@ -16756,7 +16762,7 @@
         <v>402003</v>
       </c>
       <c r="B158" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C158" t="s">
         <v>163</v>
@@ -16795,10 +16801,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q158" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="R158" t="s">
         <v>791</v>
@@ -16807,7 +16813,7 @@
         <v>791</v>
       </c>
       <c r="AC158" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AD158" t="s">
         <v>791</v>
@@ -16821,7 +16827,7 @@
         <v>402004</v>
       </c>
       <c r="B159" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="C159" t="s">
         <v>164</v>
@@ -16860,10 +16866,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Q159" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="R159" t="s">
         <v>791</v>
@@ -16872,7 +16878,7 @@
         <v>791</v>
       </c>
       <c r="AC159" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AD159" t="s">
         <v>791</v>
@@ -16886,7 +16892,7 @@
         <v>402005</v>
       </c>
       <c r="B160" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C160" t="s">
         <v>165</v>
@@ -16925,10 +16931,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Q160" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="R160" t="s">
         <v>791</v>
@@ -16937,7 +16943,7 @@
         <v>791</v>
       </c>
       <c r="AC160" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AD160" t="s">
         <v>791</v>
@@ -16951,7 +16957,7 @@
         <v>402006</v>
       </c>
       <c r="B161" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="C161" t="s">
         <v>166</v>
@@ -16990,10 +16996,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Q161" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="R161" t="s">
         <v>791</v>
@@ -17002,7 +17008,7 @@
         <v>791</v>
       </c>
       <c r="AC161" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AD161" t="s">
         <v>791</v>
@@ -17016,7 +17022,7 @@
         <v>403001</v>
       </c>
       <c r="B162" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="C162" t="s">
         <v>167</v>
@@ -17058,10 +17064,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Q162" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="R162" t="s">
         <v>791</v>
@@ -17070,7 +17076,7 @@
         <v>791</v>
       </c>
       <c r="AC162" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AD162" t="s">
         <v>791</v>
@@ -17084,7 +17090,7 @@
         <v>403002</v>
       </c>
       <c r="B163" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C163" t="s">
         <v>168</v>
@@ -17123,10 +17129,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q163" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="R163" t="s">
         <v>791</v>
@@ -17135,7 +17141,7 @@
         <v>791</v>
       </c>
       <c r="AC163" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AD163" t="s">
         <v>791</v>
@@ -17149,7 +17155,7 @@
         <v>403003</v>
       </c>
       <c r="B164" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C164" t="s">
         <v>169</v>
@@ -17188,10 +17194,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="Q164" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="R164" t="s">
         <v>791</v>
@@ -17200,7 +17206,7 @@
         <v>791</v>
       </c>
       <c r="AC164" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AD164" t="s">
         <v>791</v>
@@ -17214,7 +17220,7 @@
         <v>403004</v>
       </c>
       <c r="B165" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C165" t="s">
         <v>170</v>
@@ -17256,7 +17262,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="Q165" t="s">
         <v>791</v>
@@ -17282,7 +17288,7 @@
         <v>403005</v>
       </c>
       <c r="B166" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C166" t="s">
         <v>171</v>
@@ -17315,10 +17321,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="Q166" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="R166" t="s">
         <v>791</v>
@@ -17327,7 +17333,7 @@
         <v>791</v>
       </c>
       <c r="AC166" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AD166" t="s">
         <v>791</v>
@@ -17341,7 +17347,7 @@
         <v>403006</v>
       </c>
       <c r="B167" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C167" t="s">
         <v>172</v>
@@ -17374,10 +17380,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="Q167" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="R167" t="s">
         <v>791</v>
@@ -17386,7 +17392,7 @@
         <v>791</v>
       </c>
       <c r="AC167" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AD167" t="s">
         <v>791</v>
@@ -17400,7 +17406,7 @@
         <v>404001</v>
       </c>
       <c r="B168" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C168" t="s">
         <v>173</v>
@@ -17439,10 +17445,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="Q168" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="R168" t="s">
         <v>791</v>
@@ -17451,7 +17457,7 @@
         <v>791</v>
       </c>
       <c r="AC168" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AD168" t="s">
         <v>791</v>
@@ -17465,7 +17471,7 @@
         <v>404002</v>
       </c>
       <c r="B169" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C169" t="s">
         <v>174</v>
@@ -17507,10 +17513,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="Q169" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="R169" t="s">
         <v>791</v>
@@ -17519,7 +17525,7 @@
         <v>791</v>
       </c>
       <c r="AC169" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AD169" t="s">
         <v>791</v>
@@ -17572,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="Q170" t="s">
         <v>791</v>
@@ -17598,7 +17604,7 @@
         <v>404004</v>
       </c>
       <c r="B171" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C171" t="s">
         <v>176</v>
@@ -17637,10 +17643,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Q171" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="R171" t="s">
         <v>791</v>
@@ -17649,7 +17655,7 @@
         <v>791</v>
       </c>
       <c r="AC171" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AD171" t="s">
         <v>791</v>
@@ -17663,7 +17669,7 @@
         <v>404005</v>
       </c>
       <c r="B172" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C172" t="s">
         <v>177</v>
@@ -17696,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="Q172" t="s">
         <v>791</v>
@@ -17722,7 +17728,7 @@
         <v>404006</v>
       </c>
       <c r="B173" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C173" t="s">
         <v>178</v>
@@ -17761,10 +17767,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="Q173" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="R173" t="s">
         <v>791</v>
@@ -17773,7 +17779,7 @@
         <v>791</v>
       </c>
       <c r="AC173" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AD173" t="s">
         <v>791</v>
@@ -17787,7 +17793,7 @@
         <v>404007</v>
       </c>
       <c r="B174" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C174" t="s">
         <v>179</v>
@@ -17826,10 +17832,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="Q174" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="R174" t="s">
         <v>791</v>
@@ -17838,7 +17844,7 @@
         <v>791</v>
       </c>
       <c r="AC174" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AD174" t="s">
         <v>791</v>
@@ -17852,7 +17858,7 @@
         <v>405001</v>
       </c>
       <c r="B175" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C175" t="s">
         <v>180</v>
@@ -17891,10 +17897,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q175" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="R175" t="s">
         <v>791</v>
@@ -17903,7 +17909,7 @@
         <v>791</v>
       </c>
       <c r="AC175" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AD175" t="s">
         <v>791</v>
@@ -17917,7 +17923,7 @@
         <v>405002</v>
       </c>
       <c r="B176" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="C176" t="s">
         <v>181</v>
@@ -17956,10 +17962,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="Q176" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="R176" t="s">
         <v>791</v>
@@ -17968,7 +17974,7 @@
         <v>791</v>
       </c>
       <c r="AC176" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AD176" t="s">
         <v>791</v>
@@ -17982,7 +17988,7 @@
         <v>405003</v>
       </c>
       <c r="B177" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C177" t="s">
         <v>182</v>
@@ -18021,10 +18027,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="Q177" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="R177" t="s">
         <v>791</v>
@@ -18033,7 +18039,7 @@
         <v>791</v>
       </c>
       <c r="AC177" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AD177" t="s">
         <v>791</v>
@@ -18086,7 +18092,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="Q178" t="s">
         <v>791</v>
@@ -18151,10 +18157,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q179" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R179" t="s">
         <v>791</v>
@@ -18163,7 +18169,7 @@
         <v>791</v>
       </c>
       <c r="AC179" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AD179" t="s">
         <v>791</v>
@@ -18177,7 +18183,7 @@
         <v>405006</v>
       </c>
       <c r="B180" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C180" t="s">
         <v>185</v>
@@ -18216,10 +18222,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Q180" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="R180" t="s">
         <v>791</v>
@@ -18228,7 +18234,7 @@
         <v>791</v>
       </c>
       <c r="AC180" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AD180" t="s">
         <v>791</v>
@@ -18242,7 +18248,7 @@
         <v>405007</v>
       </c>
       <c r="B181" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -18284,10 +18290,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q181" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="R181" t="s">
         <v>791</v>
@@ -18296,7 +18302,7 @@
         <v>791</v>
       </c>
       <c r="AC181" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AD181" t="s">
         <v>791</v>
@@ -18310,7 +18316,7 @@
         <v>405008</v>
       </c>
       <c r="B182" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C182" t="s">
         <v>187</v>
@@ -18343,10 +18349,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q182" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="R182" t="s">
         <v>791</v>
@@ -18355,7 +18361,7 @@
         <v>791</v>
       </c>
       <c r="AC182" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD182" t="s">
         <v>791</v>
@@ -18369,7 +18375,7 @@
         <v>405009</v>
       </c>
       <c r="B183" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C183" t="s">
         <v>188</v>
@@ -18402,10 +18408,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Q183" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="R183" t="s">
         <v>791</v>
@@ -18414,7 +18420,7 @@
         <v>791</v>
       </c>
       <c r="AC183" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AD183" t="s">
         <v>791</v>
@@ -18428,7 +18434,7 @@
         <v>406001</v>
       </c>
       <c r="B184" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C184" t="s">
         <v>189</v>
@@ -18467,10 +18473,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Q184" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="R184" t="s">
         <v>791</v>
@@ -18479,7 +18485,7 @@
         <v>791</v>
       </c>
       <c r="AC184" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AD184" t="s">
         <v>791</v>
@@ -18493,7 +18499,7 @@
         <v>406002</v>
       </c>
       <c r="B185" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C185" t="s">
         <v>190</v>
@@ -18532,10 +18538,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Q185" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="R185" t="s">
         <v>791</v>
@@ -18544,7 +18550,7 @@
         <v>791</v>
       </c>
       <c r="AC185" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AD185" t="s">
         <v>791</v>
@@ -18558,7 +18564,7 @@
         <v>406003</v>
       </c>
       <c r="B186" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="C186" t="s">
         <v>191</v>
@@ -18597,10 +18603,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="Q186" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="R186" t="s">
         <v>791</v>
@@ -18609,7 +18615,7 @@
         <v>791</v>
       </c>
       <c r="AC186" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AD186" t="s">
         <v>791</v>
@@ -18623,7 +18629,7 @@
         <v>406004</v>
       </c>
       <c r="B187" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="C187" t="s">
         <v>192</v>
@@ -18665,10 +18671,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="Q187" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="R187" t="s">
         <v>791</v>
@@ -18677,7 +18683,7 @@
         <v>791</v>
       </c>
       <c r="AC187" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AD187" t="s">
         <v>791</v>
@@ -18691,7 +18697,7 @@
         <v>406005</v>
       </c>
       <c r="B188" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C188" t="s">
         <v>193</v>
@@ -18730,10 +18736,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Q188" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="R188" t="s">
         <v>791</v>
@@ -18742,7 +18748,7 @@
         <v>791</v>
       </c>
       <c r="AC188" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD188" t="s">
         <v>791</v>
@@ -18795,10 +18801,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="Q189" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="R189" t="s">
         <v>791</v>
@@ -18807,7 +18813,7 @@
         <v>791</v>
       </c>
       <c r="AC189" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AD189" t="s">
         <v>791</v>
@@ -18821,7 +18827,7 @@
         <v>407001</v>
       </c>
       <c r="B190" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C190" t="s">
         <v>195</v>
@@ -18854,10 +18860,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="Q190" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="R190" t="s">
         <v>791</v>
@@ -18866,7 +18872,7 @@
         <v>791</v>
       </c>
       <c r="AC190" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AD190" t="s">
         <v>791</v>
@@ -18880,7 +18886,7 @@
         <v>407002</v>
       </c>
       <c r="B191" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="C191" t="s">
         <v>196</v>
@@ -18913,10 +18919,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="Q191" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="R191" t="s">
         <v>791</v>
@@ -18925,7 +18931,7 @@
         <v>791</v>
       </c>
       <c r="AC191" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AD191" t="s">
         <v>791</v>
@@ -18939,7 +18945,7 @@
         <v>407003</v>
       </c>
       <c r="B192" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C192" t="s">
         <v>197</v>
@@ -18972,10 +18978,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q192" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="R192" t="s">
         <v>791</v>
@@ -18984,7 +18990,7 @@
         <v>791</v>
       </c>
       <c r="AC192" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AD192" t="s">
         <v>791</v>
@@ -18998,7 +19004,7 @@
         <v>407004</v>
       </c>
       <c r="B193" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C193" t="s">
         <v>198</v>
@@ -19037,10 +19043,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q193" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R193" t="s">
         <v>791</v>
@@ -19049,7 +19055,7 @@
         <v>791</v>
       </c>
       <c r="AC193" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AD193" t="s">
         <v>791</v>
@@ -19063,7 +19069,7 @@
         <v>407005</v>
       </c>
       <c r="B194" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C194" t="s">
         <v>199</v>
@@ -19096,10 +19102,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q194" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="R194" t="s">
         <v>791</v>
@@ -19108,7 +19114,7 @@
         <v>791</v>
       </c>
       <c r="AC194" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AD194" t="s">
         <v>791</v>
@@ -19122,7 +19128,7 @@
         <v>407006</v>
       </c>
       <c r="B195" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C195" t="s">
         <v>200</v>
@@ -19158,10 +19164,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="Q195" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="R195" t="s">
         <v>791</v>
@@ -19170,7 +19176,7 @@
         <v>791</v>
       </c>
       <c r="AC195" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AD195" t="s">
         <v>791</v>
@@ -19184,7 +19190,7 @@
         <v>407007</v>
       </c>
       <c r="B196" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C196" t="s">
         <v>201</v>
@@ -19220,10 +19226,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="Q196" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="R196" t="s">
         <v>791</v>
@@ -19232,7 +19238,7 @@
         <v>791</v>
       </c>
       <c r="AC196" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AD196" t="s">
         <v>791</v>
@@ -19246,7 +19252,7 @@
         <v>407008</v>
       </c>
       <c r="B197" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C197" t="s">
         <v>202</v>
@@ -19285,10 +19291,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="Q197" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="R197" t="s">
         <v>791</v>
@@ -19297,7 +19303,7 @@
         <v>791</v>
       </c>
       <c r="AC197" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AD197" t="s">
         <v>791</v>
@@ -19311,7 +19317,7 @@
         <v>407009</v>
       </c>
       <c r="B198" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C198" t="s">
         <v>203</v>
@@ -19350,7 +19356,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="Q198" t="s">
         <v>791</v>
@@ -19376,7 +19382,7 @@
         <v>408001</v>
       </c>
       <c r="B199" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C199" t="s">
         <v>204</v>
@@ -19415,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Q199" t="s">
         <v>791</v>
@@ -19441,7 +19447,7 @@
         <v>408002</v>
       </c>
       <c r="B200" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C200" t="s">
         <v>205</v>
@@ -19480,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="Q200" t="s">
         <v>791</v>
@@ -19545,7 +19551,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="Q201" t="s">
         <v>791</v>
@@ -19571,7 +19577,7 @@
         <v>408004</v>
       </c>
       <c r="B202" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C202" t="s">
         <v>207</v>
@@ -19610,10 +19616,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="Q202" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="R202" t="s">
         <v>791</v>
@@ -19622,7 +19628,7 @@
         <v>791</v>
       </c>
       <c r="AC202" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AD202" t="s">
         <v>791</v>
@@ -19636,7 +19642,7 @@
         <v>408005</v>
       </c>
       <c r="B203" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C203" t="s">
         <v>208</v>
@@ -19675,7 +19681,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="Q203" t="s">
         <v>791</v>
@@ -19701,7 +19707,7 @@
         <v>408006</v>
       </c>
       <c r="B204" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C204" t="s">
         <v>209</v>
@@ -19734,10 +19740,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q204" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="R204" t="s">
         <v>791</v>
@@ -19746,7 +19752,7 @@
         <v>791</v>
       </c>
       <c r="AC204" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AD204" t="s">
         <v>791</v>
@@ -19760,7 +19766,7 @@
         <v>408007</v>
       </c>
       <c r="B205" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C205" t="s">
         <v>210</v>
@@ -19793,10 +19799,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q205" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R205" t="s">
         <v>791</v>
@@ -19805,7 +19811,7 @@
         <v>791</v>
       </c>
       <c r="AC205" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AD205" t="s">
         <v>791</v>
@@ -19819,7 +19825,7 @@
         <v>501001</v>
       </c>
       <c r="B206" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C206" t="s">
         <v>211</v>
@@ -19861,10 +19867,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Q206" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="R206" t="s">
         <v>791</v>
@@ -19873,7 +19879,7 @@
         <v>791</v>
       </c>
       <c r="AC206" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AD206" t="s">
         <v>791</v>
@@ -19887,7 +19893,7 @@
         <v>501002</v>
       </c>
       <c r="B207" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C207" t="s">
         <v>213</v>
@@ -19929,10 +19935,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Q207" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R207" t="s">
         <v>791</v>
@@ -19941,7 +19947,7 @@
         <v>791</v>
       </c>
       <c r="AC207" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AD207" t="s">
         <v>791</v>
@@ -19955,7 +19961,7 @@
         <v>501003</v>
       </c>
       <c r="B208" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C208" t="s">
         <v>214</v>
@@ -19997,10 +20003,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q208" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R208" t="s">
         <v>791</v>
@@ -20009,7 +20015,7 @@
         <v>791</v>
       </c>
       <c r="AC208" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AD208" t="s">
         <v>791</v>
@@ -20023,7 +20029,7 @@
         <v>501004</v>
       </c>
       <c r="B209" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C209" t="s">
         <v>215</v>
@@ -20065,10 +20071,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q209" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="R209" t="s">
         <v>791</v>
@@ -20077,7 +20083,7 @@
         <v>791</v>
       </c>
       <c r="AC209" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AD209" t="s">
         <v>791</v>
@@ -20091,7 +20097,7 @@
         <v>501005</v>
       </c>
       <c r="B210" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C210" t="s">
         <v>216</v>
@@ -20127,10 +20133,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Q210" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="R210" t="s">
         <v>791</v>
@@ -20139,7 +20145,7 @@
         <v>791</v>
       </c>
       <c r="AC210" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AD210" t="s">
         <v>791</v>
@@ -20153,7 +20159,7 @@
         <v>501006</v>
       </c>
       <c r="B211" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C211" t="s">
         <v>217</v>
@@ -20195,10 +20201,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="Q211" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="R211" t="s">
         <v>791</v>
@@ -20207,7 +20213,7 @@
         <v>791</v>
       </c>
       <c r="AC211" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AD211" t="s">
         <v>791</v>
@@ -20221,7 +20227,7 @@
         <v>502001</v>
       </c>
       <c r="B212" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C212" t="s">
         <v>218</v>
@@ -20260,10 +20266,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q212" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="R212" t="s">
         <v>791</v>
@@ -20272,7 +20278,7 @@
         <v>791</v>
       </c>
       <c r="AC212" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AD212" t="s">
         <v>791</v>
@@ -20286,7 +20292,7 @@
         <v>502002</v>
       </c>
       <c r="B213" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C213" t="s">
         <v>219</v>
@@ -20319,10 +20325,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q213" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="R213" t="s">
         <v>791</v>
@@ -20331,7 +20337,7 @@
         <v>791</v>
       </c>
       <c r="AC213" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AD213" t="s">
         <v>791</v>
@@ -20345,7 +20351,7 @@
         <v>502003</v>
       </c>
       <c r="B214" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C214" t="s">
         <v>220</v>
@@ -20384,10 +20390,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q214" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="R214" t="s">
         <v>791</v>
@@ -20396,7 +20402,7 @@
         <v>791</v>
       </c>
       <c r="AC214" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AD214" t="s">
         <v>791</v>
@@ -20410,7 +20416,7 @@
         <v>502004</v>
       </c>
       <c r="B215" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C215" t="s">
         <v>221</v>
@@ -20443,10 +20449,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q215" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="R215" t="s">
         <v>791</v>
@@ -20455,7 +20461,7 @@
         <v>791</v>
       </c>
       <c r="AC215" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AD215" t="s">
         <v>791</v>
@@ -20469,7 +20475,7 @@
         <v>502005</v>
       </c>
       <c r="B216" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C216" t="s">
         <v>222</v>
@@ -20505,10 +20511,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="Q216" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="R216" t="s">
         <v>791</v>
@@ -20517,7 +20523,7 @@
         <v>791</v>
       </c>
       <c r="AC216" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AD216" t="s">
         <v>791</v>
@@ -20531,7 +20537,7 @@
         <v>503001</v>
       </c>
       <c r="B217" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C217" t="s">
         <v>223</v>
@@ -20573,10 +20579,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Q217" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R217" t="s">
         <v>791</v>
@@ -20585,7 +20591,7 @@
         <v>791</v>
       </c>
       <c r="AC217" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AD217" t="s">
         <v>791</v>
@@ -20599,7 +20605,7 @@
         <v>503002</v>
       </c>
       <c r="B218" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C218" t="s">
         <v>224</v>
@@ -20641,10 +20647,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q218" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R218" t="s">
         <v>791</v>
@@ -20653,7 +20659,7 @@
         <v>791</v>
       </c>
       <c r="AC218" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AD218" t="s">
         <v>791</v>
@@ -20709,10 +20715,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="Q219" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R219" t="s">
         <v>791</v>
@@ -20721,7 +20727,7 @@
         <v>791</v>
       </c>
       <c r="AC219" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AD219" t="s">
         <v>791</v>
@@ -20735,7 +20741,7 @@
         <v>503004</v>
       </c>
       <c r="B220" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C220" t="s">
         <v>226</v>
@@ -20777,10 +20783,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="Q220" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R220" t="s">
         <v>791</v>
@@ -20789,7 +20795,7 @@
         <v>791</v>
       </c>
       <c r="AC220" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AD220" t="s">
         <v>791</v>
@@ -20803,7 +20809,7 @@
         <v>503005</v>
       </c>
       <c r="B221" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C221" t="s">
         <v>227</v>
@@ -20845,10 +20851,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="Q221" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="R221" t="s">
         <v>791</v>
@@ -20857,7 +20863,7 @@
         <v>791</v>
       </c>
       <c r="AC221" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AD221" t="s">
         <v>791</v>
@@ -20871,7 +20877,7 @@
         <v>504001</v>
       </c>
       <c r="B222" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C222" t="s">
         <v>228</v>
@@ -20913,10 +20919,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="Q222" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="R222" t="s">
         <v>791</v>
@@ -20925,7 +20931,7 @@
         <v>791</v>
       </c>
       <c r="AC222" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AD222" t="s">
         <v>791</v>
@@ -20939,7 +20945,7 @@
         <v>504002</v>
       </c>
       <c r="B223" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C223" t="s">
         <v>229</v>
@@ -20981,10 +20987,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="Q223" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R223" t="s">
         <v>791</v>
@@ -20993,7 +20999,7 @@
         <v>791</v>
       </c>
       <c r="AC223" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AD223" t="s">
         <v>791</v>
@@ -21007,7 +21013,7 @@
         <v>504003</v>
       </c>
       <c r="B224" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C224" t="s">
         <v>230</v>
@@ -21049,10 +21055,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Q224" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R224" t="s">
         <v>791</v>
@@ -21061,7 +21067,7 @@
         <v>791</v>
       </c>
       <c r="AC224" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AD224" t="s">
         <v>791</v>
@@ -21075,7 +21081,7 @@
         <v>504004</v>
       </c>
       <c r="B225" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C225" t="s">
         <v>231</v>
@@ -21114,10 +21120,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="Q225" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R225" t="s">
         <v>791</v>
@@ -21126,7 +21132,7 @@
         <v>791</v>
       </c>
       <c r="AC225" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AD225" t="s">
         <v>791</v>
@@ -21140,7 +21146,7 @@
         <v>504005</v>
       </c>
       <c r="B226" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C226" t="s">
         <v>232</v>
@@ -21182,10 +21188,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="Q226" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="R226" t="s">
         <v>791</v>
@@ -21194,7 +21200,7 @@
         <v>791</v>
       </c>
       <c r="AC226" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AD226" t="s">
         <v>791</v>
@@ -21247,10 +21253,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Q227" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R227" t="s">
         <v>791</v>
@@ -21259,7 +21265,7 @@
         <v>791</v>
       </c>
       <c r="AC227" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AD227" t="s">
         <v>791</v>
@@ -21273,7 +21279,7 @@
         <v>505002</v>
       </c>
       <c r="B228" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C228" t="s">
         <v>234</v>
@@ -21312,10 +21318,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="Q228" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="R228" t="s">
         <v>791</v>
@@ -21324,7 +21330,7 @@
         <v>791</v>
       </c>
       <c r="AC228" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AD228" t="s">
         <v>791</v>
@@ -21338,7 +21344,7 @@
         <v>505003</v>
       </c>
       <c r="B229" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C229" t="s">
         <v>235</v>
@@ -21377,10 +21383,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q229" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="R229" t="s">
         <v>791</v>
@@ -21389,7 +21395,7 @@
         <v>791</v>
       </c>
       <c r="AC229" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AD229" t="s">
         <v>791</v>
@@ -21403,7 +21409,7 @@
         <v>505004</v>
       </c>
       <c r="B230" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C230" t="s">
         <v>236</v>
@@ -21436,10 +21442,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q230" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="R230" t="s">
         <v>791</v>
@@ -21448,7 +21454,7 @@
         <v>791</v>
       </c>
       <c r="AC230" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AD230" t="s">
         <v>791</v>
@@ -21462,7 +21468,7 @@
         <v>505005</v>
       </c>
       <c r="B231" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C231" t="s">
         <v>237</v>
@@ -21501,10 +21507,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q231" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="R231" t="s">
         <v>791</v>
@@ -21513,7 +21519,7 @@
         <v>791</v>
       </c>
       <c r="AC231" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AD231" t="s">
         <v>791</v>
@@ -21527,7 +21533,7 @@
         <v>506001</v>
       </c>
       <c r="B232" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C232" t="s">
         <v>238</v>
@@ -21566,10 +21572,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="Q232" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R232" t="s">
         <v>791</v>
@@ -21578,7 +21584,7 @@
         <v>791</v>
       </c>
       <c r="AC232" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AD232" t="s">
         <v>791</v>
@@ -21592,7 +21598,7 @@
         <v>506002</v>
       </c>
       <c r="B233" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C233" t="s">
         <v>239</v>
@@ -21628,10 +21634,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="Q233" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R233" t="s">
         <v>791</v>
@@ -21640,7 +21646,7 @@
         <v>791</v>
       </c>
       <c r="AC233" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AD233" t="s">
         <v>791</v>
@@ -21654,7 +21660,7 @@
         <v>506003</v>
       </c>
       <c r="B234" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C234" t="s">
         <v>240</v>
@@ -21696,10 +21702,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q234" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R234" t="s">
         <v>791</v>
@@ -21708,7 +21714,7 @@
         <v>791</v>
       </c>
       <c r="AC234" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AD234" t="s">
         <v>791</v>
@@ -21722,7 +21728,7 @@
         <v>506004</v>
       </c>
       <c r="B235" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C235" t="s">
         <v>241</v>
@@ -21761,10 +21767,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q235" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R235" t="s">
         <v>791</v>
@@ -21773,7 +21779,7 @@
         <v>791</v>
       </c>
       <c r="AC235" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AD235" t="s">
         <v>791</v>
@@ -21787,7 +21793,7 @@
         <v>506005</v>
       </c>
       <c r="B236" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C236" t="s">
         <v>242</v>
@@ -21826,10 +21832,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="Q236" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R236" t="s">
         <v>791</v>
@@ -21838,7 +21844,7 @@
         <v>791</v>
       </c>
       <c r="AC236" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AD236" t="s">
         <v>791</v>
@@ -21852,7 +21858,7 @@
         <v>990001</v>
       </c>
       <c r="B237" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C237" t="s">
         <v>243</v>
@@ -21888,13 +21894,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="Q237" t="s">
         <v>791</v>
       </c>
       <c r="R237" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="S237" t="s">
         <v>791</v>
@@ -21903,7 +21909,7 @@
         <v>791</v>
       </c>
       <c r="AD237" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AE237" t="s">
         <v>791</v>
@@ -21914,7 +21920,7 @@
         <v>990002</v>
       </c>
       <c r="B238" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C238" t="s">
         <v>244</v>
@@ -21950,13 +21956,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="Q238" t="s">
         <v>791</v>
       </c>
       <c r="R238" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="S238" t="s">
         <v>791</v>
@@ -21965,7 +21971,7 @@
         <v>791</v>
       </c>
       <c r="AD238" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AE238" t="s">
         <v>791</v>
@@ -21976,7 +21982,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C239" t="s">
         <v>245</v>
@@ -22003,13 +22009,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q239" t="s">
         <v>791</v>
       </c>
       <c r="R239" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="S239" t="s">
         <v>791</v>
@@ -22018,7 +22024,7 @@
         <v>791</v>
       </c>
       <c r="AD239" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AE239" t="s">
         <v>791</v>
@@ -22029,7 +22035,7 @@
         <v>990004</v>
       </c>
       <c r="B240" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C240" t="s">
         <v>246</v>
@@ -22065,13 +22071,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="Q240" t="s">
         <v>791</v>
       </c>
       <c r="R240" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="S240" t="s">
         <v>791</v>
@@ -22080,7 +22086,7 @@
         <v>791</v>
       </c>
       <c r="AD240" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AE240" t="s">
         <v>791</v>
@@ -22091,7 +22097,7 @@
         <v>990005</v>
       </c>
       <c r="B241" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C241" t="s">
         <v>247</v>
@@ -22127,13 +22133,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="Q241" t="s">
         <v>791</v>
       </c>
       <c r="R241" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="S241" t="s">
         <v>791</v>
@@ -22142,7 +22148,7 @@
         <v>791</v>
       </c>
       <c r="AD241" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="AE241" t="s">
         <v>791</v>
@@ -22153,7 +22159,7 @@
         <v>990006</v>
       </c>
       <c r="B242" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C242" t="s">
         <v>248</v>
@@ -22189,13 +22195,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Q242" t="s">
         <v>791</v>
       </c>
       <c r="R242" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="S242" t="s">
         <v>791</v>
@@ -22204,7 +22210,7 @@
         <v>791</v>
       </c>
       <c r="AD242" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AE242" t="s">
         <v>791</v>
@@ -22215,7 +22221,7 @@
         <v>990007</v>
       </c>
       <c r="B243" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C243" t="s">
         <v>249</v>
@@ -22251,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="Q243" t="s">
         <v>791</v>
@@ -22260,7 +22266,7 @@
         <v>791</v>
       </c>
       <c r="S243" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AC243" t="s">
         <v>791</v>
@@ -22269,7 +22275,7 @@
         <v>791</v>
       </c>
       <c r="AE243" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
@@ -22277,7 +22283,7 @@
         <v>990008</v>
       </c>
       <c r="B244" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C244" t="s">
         <v>250</v>
@@ -22313,10 +22319,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="Q244" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="R244" t="s">
         <v>791</v>
@@ -22325,7 +22331,7 @@
         <v>791</v>
       </c>
       <c r="AC244" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AD244" t="s">
         <v>791</v>
@@ -22339,7 +22345,7 @@
         <v>990009</v>
       </c>
       <c r="B245" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C245" t="s">
         <v>251</v>
@@ -22372,10 +22378,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="Q245" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R245" t="s">
         <v>791</v>
@@ -22384,7 +22390,7 @@
         <v>791</v>
       </c>
       <c r="AC245" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AD245" t="s">
         <v>791</v>
@@ -22398,7 +22404,7 @@
         <v>990010</v>
       </c>
       <c r="B246" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C246" t="s">
         <v>252</v>
@@ -22434,10 +22440,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="Q246" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R246" t="s">
         <v>791</v>
@@ -22446,7 +22452,7 @@
         <v>791</v>
       </c>
       <c r="AC246" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AD246" t="s">
         <v>791</v>
@@ -22460,7 +22466,7 @@
         <v>990011</v>
       </c>
       <c r="B247" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C247" t="s">
         <v>253</v>
@@ -22496,10 +22502,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q247" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R247" t="s">
         <v>791</v>
@@ -22508,7 +22514,7 @@
         <v>791</v>
       </c>
       <c r="AC247" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AD247" t="s">
         <v>791</v>
@@ -22522,7 +22528,7 @@
         <v>990012</v>
       </c>
       <c r="B248" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="C248" t="s">
         <v>254</v>
@@ -22558,10 +22564,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="Q248" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="R248" t="s">
         <v>791</v>
@@ -22570,7 +22576,7 @@
         <v>791</v>
       </c>
       <c r="AC248" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AD248" t="s">
         <v>791</v>
@@ -22584,7 +22590,7 @@
         <v>990013</v>
       </c>
       <c r="B249" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C249" t="s">
         <v>255</v>
@@ -22617,10 +22623,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="Q249" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="R249" t="s">
         <v>791</v>
@@ -22629,7 +22635,7 @@
         <v>791</v>
       </c>
       <c r="AC249" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AD249" t="s">
         <v>791</v>
@@ -22643,7 +22649,7 @@
         <v>990014</v>
       </c>
       <c r="B250" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C250" t="s">
         <v>256</v>
@@ -22682,10 +22688,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="Q250" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="R250" t="s">
         <v>791</v>
@@ -22694,7 +22700,7 @@
         <v>791</v>
       </c>
       <c r="AC250" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AD250" t="s">
         <v>791</v>
@@ -22744,10 +22750,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="Q251" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="R251" t="s">
         <v>791</v>
@@ -22756,7 +22762,7 @@
         <v>791</v>
       </c>
       <c r="AC251" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AD251" t="s">
         <v>791</v>
@@ -22770,7 +22776,7 @@
         <v>990016</v>
       </c>
       <c r="B252" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C252" t="s">
         <v>258</v>
@@ -22806,10 +22812,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Q252" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="R252" t="s">
         <v>791</v>
@@ -22818,7 +22824,7 @@
         <v>791</v>
       </c>
       <c r="AC252" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AD252" t="s">
         <v>791</v>
@@ -22832,7 +22838,7 @@
         <v>990017</v>
       </c>
       <c r="B253" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C253" t="s">
         <v>259</v>
@@ -22868,10 +22874,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="Q253" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="R253" t="s">
         <v>791</v>
@@ -22880,7 +22886,7 @@
         <v>791</v>
       </c>
       <c r="AC253" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AD253" t="s">
         <v>791</v>
@@ -22894,7 +22900,7 @@
         <v>990018</v>
       </c>
       <c r="B254" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C254" t="s">
         <v>260</v>
@@ -22930,10 +22936,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="Q254" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="R254" t="s">
         <v>791</v>
@@ -22942,7 +22948,7 @@
         <v>791</v>
       </c>
       <c r="AC254" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AD254" t="s">
         <v>791</v>
@@ -22956,7 +22962,7 @@
         <v>990019</v>
       </c>
       <c r="B255" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C255" t="s">
         <v>261</v>
@@ -22989,10 +22995,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="Q255" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="R255" t="s">
         <v>791</v>
@@ -23001,7 +23007,7 @@
         <v>791</v>
       </c>
       <c r="AC255" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AD255" t="s">
         <v>791</v>
@@ -23015,7 +23021,7 @@
         <v>990020</v>
       </c>
       <c r="B256" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C256" t="s">
         <v>262</v>
@@ -23051,10 +23057,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="Q256" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="R256" t="s">
         <v>791</v>
@@ -23063,7 +23069,7 @@
         <v>791</v>
       </c>
       <c r="AC256" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AD256" t="s">
         <v>791</v>
@@ -23077,7 +23083,7 @@
         <v>990021</v>
       </c>
       <c r="B257" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -23110,10 +23116,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="Q257" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="R257" t="s">
         <v>791</v>
@@ -23122,7 +23128,7 @@
         <v>791</v>
       </c>
       <c r="AC257" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AD257" t="s">
         <v>791</v>
@@ -23136,7 +23142,7 @@
         <v>990022</v>
       </c>
       <c r="B258" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C258" t="s">
         <v>264</v>
@@ -23175,10 +23181,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="Q258" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="R258" t="s">
         <v>791</v>
@@ -23187,7 +23193,7 @@
         <v>791</v>
       </c>
       <c r="AC258" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AD258" t="s">
         <v>791</v>
@@ -23201,7 +23207,7 @@
         <v>990023</v>
       </c>
       <c r="B259" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C259" t="s">
         <v>265</v>
@@ -23237,7 +23243,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="Q259" t="s">
         <v>791</v>
@@ -23246,7 +23252,7 @@
         <v>791</v>
       </c>
       <c r="S259" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AC259" t="s">
         <v>791</v>
@@ -23255,7 +23261,7 @@
         <v>791</v>
       </c>
       <c r="AE259" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
@@ -23263,7 +23269,7 @@
         <v>990024</v>
       </c>
       <c r="B260" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="C260" t="s">
         <v>266</v>
@@ -23296,10 +23302,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="Q260" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="R260" t="s">
         <v>791</v>
@@ -23308,7 +23314,7 @@
         <v>791</v>
       </c>
       <c r="AC260" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AD260" t="s">
         <v>791</v>
@@ -23322,7 +23328,7 @@
         <v>990025</v>
       </c>
       <c r="B261" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C261" t="s">
         <v>267</v>
@@ -23355,10 +23361,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="Q261" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R261" t="s">
         <v>791</v>
@@ -23367,7 +23373,7 @@
         <v>791</v>
       </c>
       <c r="AC261" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AD261" t="s">
         <v>791</v>
@@ -23381,7 +23387,7 @@
         <v>990026</v>
       </c>
       <c r="B262" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C262" t="s">
         <v>268</v>
@@ -23417,10 +23423,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="Q262" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="R262" t="s">
         <v>791</v>
@@ -23429,7 +23435,7 @@
         <v>791</v>
       </c>
       <c r="AC262" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AD262" t="s">
         <v>791</v>
@@ -23443,7 +23449,7 @@
         <v>990027</v>
       </c>
       <c r="B263" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C263" t="s">
         <v>269</v>
@@ -23479,10 +23485,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="Q263" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="R263" t="s">
         <v>791</v>
@@ -23491,7 +23497,7 @@
         <v>791</v>
       </c>
       <c r="AC263" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AD263" t="s">
         <v>791</v>
@@ -23505,7 +23511,7 @@
         <v>990028</v>
       </c>
       <c r="B264" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C264" t="s">
         <v>270</v>
@@ -23541,10 +23547,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="Q264" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="R264" t="s">
         <v>791</v>
@@ -23553,7 +23559,7 @@
         <v>791</v>
       </c>
       <c r="AC264" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AD264" t="s">
         <v>791</v>
@@ -23567,7 +23573,7 @@
         <v>990029</v>
       </c>
       <c r="B265" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C265" t="s">
         <v>271</v>
@@ -23600,10 +23606,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="Q265" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="R265" t="s">
         <v>791</v>
@@ -23612,7 +23618,7 @@
         <v>791</v>
       </c>
       <c r="AC265" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AD265" t="s">
         <v>791</v>
@@ -23626,7 +23632,7 @@
         <v>990030</v>
       </c>
       <c r="B266" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C266" t="s">
         <v>272</v>
@@ -23662,10 +23668,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="Q266" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="R266" t="s">
         <v>791</v>
@@ -23674,7 +23680,7 @@
         <v>791</v>
       </c>
       <c r="AC266" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AD266" t="s">
         <v>791</v>
@@ -23688,7 +23694,7 @@
         <v>990031</v>
       </c>
       <c r="B267" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C267" t="s">
         <v>273</v>
@@ -23724,7 +23730,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="Q267" t="s">
         <v>791</v>
@@ -23733,7 +23739,7 @@
         <v>791</v>
       </c>
       <c r="S267" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AC267" t="s">
         <v>791</v>
@@ -23742,7 +23748,7 @@
         <v>791</v>
       </c>
       <c r="AE267" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
@@ -23750,7 +23756,7 @@
         <v>990032</v>
       </c>
       <c r="B268" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C268" t="s">
         <v>274</v>
@@ -23786,10 +23792,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Q268" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="R268" t="s">
         <v>791</v>
@@ -23798,7 +23804,7 @@
         <v>791</v>
       </c>
       <c r="AC268" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AD268" t="s">
         <v>791</v>
@@ -23812,7 +23818,7 @@
         <v>990033</v>
       </c>
       <c r="B269" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C269" t="s">
         <v>275</v>
@@ -23845,10 +23851,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q269" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R269" t="s">
         <v>791</v>
@@ -23857,7 +23863,7 @@
         <v>791</v>
       </c>
       <c r="AC269" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AD269" t="s">
         <v>791</v>
@@ -23871,7 +23877,7 @@
         <v>990034</v>
       </c>
       <c r="B270" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="C270" t="s">
         <v>276</v>
@@ -23907,10 +23913,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q270" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R270" t="s">
         <v>791</v>
@@ -23919,7 +23925,7 @@
         <v>791</v>
       </c>
       <c r="AC270" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AD270" t="s">
         <v>791</v>
@@ -23933,7 +23939,7 @@
         <v>990035</v>
       </c>
       <c r="B271" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C271" t="s">
         <v>277</v>
@@ -23975,10 +23981,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="Q271" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R271" t="s">
         <v>791</v>
@@ -23987,7 +23993,7 @@
         <v>791</v>
       </c>
       <c r="AC271" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AD271" t="s">
         <v>791</v>
@@ -24001,7 +24007,7 @@
         <v>990036</v>
       </c>
       <c r="B272" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C272" t="s">
         <v>278</v>
@@ -24034,10 +24040,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q272" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="R272" t="s">
         <v>791</v>
@@ -24046,7 +24052,7 @@
         <v>791</v>
       </c>
       <c r="AC272" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AD272" t="s">
         <v>791</v>
@@ -24060,7 +24066,7 @@
         <v>990037</v>
       </c>
       <c r="B273" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="C273" t="s">
         <v>279</v>
@@ -24099,10 +24105,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q273" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="R273" t="s">
         <v>791</v>
@@ -24111,7 +24117,7 @@
         <v>791</v>
       </c>
       <c r="AC273" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AD273" t="s">
         <v>791</v>
@@ -24125,7 +24131,7 @@
         <v>990038</v>
       </c>
       <c r="B274" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C274" t="s">
         <v>280</v>
@@ -24164,10 +24170,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q274" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R274" t="s">
         <v>791</v>
@@ -24176,7 +24182,7 @@
         <v>791</v>
       </c>
       <c r="AC274" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AD274" t="s">
         <v>791</v>
@@ -24223,10 +24229,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Q275" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="R275" t="s">
         <v>791</v>
@@ -24235,7 +24241,7 @@
         <v>791</v>
       </c>
       <c r="AC275" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AD275" t="s">
         <v>791</v>
@@ -24249,7 +24255,7 @@
         <v>990040</v>
       </c>
       <c r="B276" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C276" t="s">
         <v>282</v>
@@ -24282,10 +24288,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Q276" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="R276" t="s">
         <v>791</v>
@@ -24294,7 +24300,7 @@
         <v>791</v>
       </c>
       <c r="AC276" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AD276" t="s">
         <v>791</v>
@@ -24308,7 +24314,7 @@
         <v>990041</v>
       </c>
       <c r="B277" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C277" t="s">
         <v>283</v>
@@ -24341,10 +24347,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Q277" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="R277" t="s">
         <v>791</v>
@@ -24353,7 +24359,7 @@
         <v>791</v>
       </c>
       <c r="AC277" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AD277" t="s">
         <v>791</v>
@@ -24367,7 +24373,7 @@
         <v>990042</v>
       </c>
       <c r="B278" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="C278" t="s">
         <v>284</v>
@@ -24400,10 +24406,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="Q278" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="R278" t="s">
         <v>791</v>
@@ -24412,7 +24418,7 @@
         <v>791</v>
       </c>
       <c r="AC278" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AD278" t="s">
         <v>791</v>
@@ -24426,7 +24432,7 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C279" t="s">
         <v>285</v>
@@ -24459,10 +24465,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q279" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="R279" t="s">
         <v>791</v>
@@ -24471,7 +24477,7 @@
         <v>791</v>
       </c>
       <c r="AC279" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AD279" t="s">
         <v>791</v>
@@ -24485,7 +24491,7 @@
         <v>990044</v>
       </c>
       <c r="B280" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="C280" t="s">
         <v>286</v>
@@ -24518,10 +24524,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q280" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="R280" t="s">
         <v>791</v>
@@ -24530,7 +24536,7 @@
         <v>791</v>
       </c>
       <c r="AC280" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AD280" t="s">
         <v>791</v>
@@ -24544,7 +24550,7 @@
         <v>990045</v>
       </c>
       <c r="B281" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C281" t="s">
         <v>287</v>
@@ -24577,10 +24583,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="Q281" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="R281" t="s">
         <v>791</v>
@@ -24589,7 +24595,7 @@
         <v>791</v>
       </c>
       <c r="AC281" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AD281" t="s">
         <v>791</v>
@@ -24636,10 +24642,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="Q282" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="R282" t="s">
         <v>791</v>
@@ -24648,7 +24654,7 @@
         <v>791</v>
       </c>
       <c r="AC282" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AD282" t="s">
         <v>791</v>
@@ -24662,7 +24668,7 @@
         <v>990047</v>
       </c>
       <c r="B283" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C283" t="s">
         <v>289</v>
@@ -24695,10 +24701,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="Q283" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="R283" t="s">
         <v>791</v>
@@ -24707,7 +24713,7 @@
         <v>791</v>
       </c>
       <c r="AC283" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AD283" t="s">
         <v>791</v>
@@ -24721,7 +24727,7 @@
         <v>990048</v>
       </c>
       <c r="B284" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="C284" t="s">
         <v>290</v>
@@ -24754,10 +24760,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="Q284" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="R284" t="s">
         <v>791</v>
@@ -24766,7 +24772,7 @@
         <v>791</v>
       </c>
       <c r="AC284" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AD284" t="s">
         <v>791</v>
@@ -24780,7 +24786,7 @@
         <v>990049</v>
       </c>
       <c r="B285" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="C285" t="s">
         <v>291</v>
@@ -24813,10 +24819,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="Q285" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="R285" t="s">
         <v>791</v>
@@ -24825,7 +24831,7 @@
         <v>791</v>
       </c>
       <c r="AC285" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AD285" t="s">
         <v>791</v>
@@ -24839,7 +24845,7 @@
         <v>990050</v>
       </c>
       <c r="B286" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C286" t="s">
         <v>292</v>
@@ -24872,10 +24878,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="Q286" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="R286" t="s">
         <v>791</v>
@@ -24884,7 +24890,7 @@
         <v>791</v>
       </c>
       <c r="AC286" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AD286" t="s">
         <v>791</v>
@@ -24898,7 +24904,7 @@
         <v>990051</v>
       </c>
       <c r="B287" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="C287" t="s">
         <v>293</v>
@@ -24931,10 +24937,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q287" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="R287" t="s">
         <v>791</v>
@@ -24943,7 +24949,7 @@
         <v>791</v>
       </c>
       <c r="AC287" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AD287" t="s">
         <v>791</v>
@@ -24957,7 +24963,7 @@
         <v>990052</v>
       </c>
       <c r="B288" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C288" t="s">
         <v>294</v>
@@ -24990,10 +24996,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="Q288" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="R288" t="s">
         <v>791</v>
@@ -25002,7 +25008,7 @@
         <v>791</v>
       </c>
       <c r="AC288" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AD288" t="s">
         <v>791</v>
@@ -25016,7 +25022,7 @@
         <v>990053</v>
       </c>
       <c r="B289" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="C289" t="s">
         <v>295</v>
@@ -25052,10 +25058,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="Q289" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="R289" t="s">
         <v>791</v>
@@ -25064,7 +25070,7 @@
         <v>791</v>
       </c>
       <c r="AC289" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AD289" t="s">
         <v>791</v>
@@ -25078,7 +25084,7 @@
         <v>990054</v>
       </c>
       <c r="B290" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="C290" t="s">
         <v>296</v>
@@ -25114,10 +25120,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="Q290" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="R290" t="s">
         <v>791</v>
@@ -25126,7 +25132,7 @@
         <v>791</v>
       </c>
       <c r="AC290" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AD290" t="s">
         <v>791</v>
@@ -25140,7 +25146,7 @@
         <v>990055</v>
       </c>
       <c r="B291" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C291" t="s">
         <v>297</v>
@@ -25176,10 +25182,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="Q291" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="R291" t="s">
         <v>791</v>
@@ -25188,7 +25194,7 @@
         <v>791</v>
       </c>
       <c r="AC291" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AD291" t="s">
         <v>791</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="1784">
   <si>
     <t>nickName</t>
   </si>
@@ -3048,12 +3048,6 @@
     <t>[3707717, 39120199]</t>
   </si>
   <si>
-    <t>[38160601, 46190129]</t>
-  </si>
-  <si>
-    <t>[42250140, 4473652]</t>
-  </si>
-  <si>
     <t>[13574172, 39010126]</t>
   </si>
   <si>
@@ -3972,15 +3966,9 @@
     <t>ssg_ruler_2017.png</t>
   </si>
   <si>
-    <t>[206358340, 207738701]</t>
-  </si>
-  <si>
     <t>ssg_corejj_2017.png</t>
   </si>
   <si>
-    <t>[207151225, 3511615]</t>
-  </si>
-  <si>
     <t>skt_huni_2017.png</t>
   </si>
   <si>
@@ -4947,819 +4935,9 @@
     <t>[36904282]</t>
   </si>
   <si>
-    <t>hauntzer</t>
-  </si>
-  <si>
-    <t>svenskeren</t>
-  </si>
-  <si>
-    <t>bjergsen</t>
-  </si>
-  <si>
-    <t>doublelift</t>
-  </si>
-  <si>
-    <t>biofrost</t>
-  </si>
-  <si>
-    <t>flame</t>
-  </si>
-  <si>
-    <t>xmithie</t>
-  </si>
-  <si>
-    <t>pobelter</t>
-  </si>
-  <si>
-    <t>codysun</t>
-  </si>
-  <si>
-    <t>olleh</t>
-  </si>
-  <si>
-    <t>darshan</t>
-  </si>
-  <si>
-    <t>omargod</t>
-  </si>
-  <si>
-    <t>huhi</t>
-  </si>
-  <si>
-    <t>stixxay</t>
-  </si>
-  <si>
-    <t>aphromoo</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>jensen</t>
-  </si>
-  <si>
-    <t>sneaky</t>
-  </si>
-  <si>
-    <t>smoothie</t>
-  </si>
-  <si>
-    <t>ssumday</t>
-  </si>
-  <si>
-    <t>shrimp</t>
-  </si>
-  <si>
-    <t>keane</t>
-  </si>
-  <si>
-    <t>altec</t>
-  </si>
-  <si>
-    <t>adrian</t>
-  </si>
-  <si>
-    <t>seraph</t>
-  </si>
-  <si>
-    <t>nisqy</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
-    <t>hakuho</t>
-  </si>
-  <si>
-    <t>balls</t>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>wildturtle</t>
-  </si>
-  <si>
-    <t>lemonnation</t>
-  </si>
-  <si>
-    <t>brandini</t>
-  </si>
-  <si>
-    <t>akaadian</t>
-  </si>
-  <si>
-    <t>froggen</t>
-  </si>
-  <si>
-    <t>keith</t>
-  </si>
-  <si>
-    <t>gate</t>
-  </si>
-  <si>
-    <t>looper</t>
-  </si>
-  <si>
-    <t>grig</t>
-  </si>
-  <si>
-    <t>damonte</t>
-  </si>
-  <si>
-    <t>mash</t>
-  </si>
-  <si>
-    <t>lourlo</t>
-  </si>
-  <si>
-    <t>dardoch</t>
-  </si>
-  <si>
-    <t>mickey</t>
-  </si>
-  <si>
-    <t>piglet</t>
-  </si>
-  <si>
-    <t>matt</t>
-  </si>
-  <si>
-    <t>mikeyeung</t>
-  </si>
-  <si>
-    <t>ryu</t>
-  </si>
-  <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>xpecial</t>
-  </si>
-  <si>
-    <t>soaz</t>
-  </si>
-  <si>
-    <t>broxah</t>
-  </si>
-  <si>
-    <t>caps</t>
-  </si>
-  <si>
-    <t>rekkles</t>
-  </si>
-  <si>
-    <t>jesiz</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>trick</t>
-  </si>
-  <si>
-    <t>perkz</t>
-  </si>
-  <si>
-    <t>zven</t>
-  </si>
-  <si>
-    <t>alphari</t>
-  </si>
-  <si>
-    <t>maxlore</t>
-  </si>
-  <si>
-    <t>powerofevil</t>
-  </si>
-  <si>
-    <t>hanssama</t>
-  </si>
-  <si>
-    <t>ignar</t>
-  </si>
-  <si>
-    <t>phaxi</t>
-  </si>
-  <si>
-    <t>pridestalker</t>
-  </si>
-  <si>
-    <t>betsy</t>
-  </si>
-  <si>
-    <t>hjarnan</t>
-  </si>
-  <si>
-    <t>wadid</t>
-  </si>
-  <si>
-    <t>odoamne</t>
-  </si>
-  <si>
-    <t>jankos</t>
-  </si>
-  <si>
-    <t>febiven</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>chei</t>
-  </si>
-  <si>
-    <t>vizicsacsi</t>
-  </si>
-  <si>
-    <t>xerxe</t>
-  </si>
-  <si>
-    <t>exileh</t>
-  </si>
-  <si>
-    <t>samux</t>
-  </si>
-  <si>
-    <t>hylissang</t>
-  </si>
-  <si>
-    <t>wunder</t>
-  </si>
-  <si>
-    <t>trashy</t>
-  </si>
-  <si>
-    <t>sencux</t>
-  </si>
-  <si>
-    <t>kobbe</t>
-  </si>
-  <si>
-    <t>mikyx</t>
-  </si>
-  <si>
-    <t>cabochard</t>
-  </si>
-  <si>
-    <t>djoko</t>
-  </si>
-  <si>
-    <t>nukeduck</t>
-  </si>
-  <si>
-    <t>steeelback</t>
-  </si>
-  <si>
-    <t>vander</t>
-  </si>
-  <si>
-    <t>smittyj</t>
-  </si>
-  <si>
-    <t>memento</t>
-  </si>
-  <si>
-    <t>caedrel</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>norskeren</t>
-  </si>
-  <si>
-    <t>ruin</t>
-  </si>
-  <si>
-    <t>gilius</t>
-  </si>
-  <si>
-    <t>jiizuke</t>
-  </si>
-  <si>
-    <t>minitroupax</t>
-  </si>
-  <si>
-    <t>jactroll</t>
-  </si>
-  <si>
-    <t>khan</t>
-  </si>
-  <si>
-    <t>cuzz</t>
-  </si>
-  <si>
-    <t>bdd</t>
-  </si>
-  <si>
-    <t>pray</t>
-  </si>
-  <si>
-    <t>gorilla</t>
-  </si>
-  <si>
-    <t>smeb</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>pawn</t>
-  </si>
-  <si>
-    <t>deft</t>
-  </si>
-  <si>
-    <t>cuvee</t>
-  </si>
-  <si>
-    <t>ambition</t>
-  </si>
-  <si>
-    <t>crown</t>
-  </si>
-  <si>
-    <t>ruler</t>
-  </si>
-  <si>
-    <t>corejj</t>
-  </si>
-  <si>
-    <t>huni</t>
-  </si>
-  <si>
-    <t>peanut</t>
-  </si>
-  <si>
-    <t>faker</t>
-  </si>
-  <si>
-    <t>bang</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>untara</t>
-  </si>
-  <si>
-    <t>marin</t>
-  </si>
-  <si>
-    <t>spirit</t>
-  </si>
-  <si>
-    <t>kuro</t>
-  </si>
-  <si>
-    <t>kramer</t>
-  </si>
-  <si>
-    <t>tusin</t>
-  </si>
-  <si>
-    <t>umti</t>
-  </si>
-  <si>
-    <t>kuzan</t>
-  </si>
-  <si>
-    <t>teddy</t>
-  </si>
-  <si>
-    <t>snowflower</t>
-  </si>
-  <si>
-    <t>sohwan</t>
-  </si>
-  <si>
-    <t>lindarang</t>
-  </si>
-  <si>
-    <t>mightybear</t>
-  </si>
-  <si>
-    <t>lava</t>
-  </si>
-  <si>
-    <t>sangyoon</t>
-  </si>
-  <si>
-    <t>seonghwan</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>beyond</t>
-  </si>
-  <si>
-    <t>ian</t>
-  </si>
-  <si>
-    <t>maha</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>clearlove</t>
-  </si>
-  <si>
-    <t>scout</t>
-  </si>
-  <si>
-    <t>zet</t>
-  </si>
-  <si>
-    <t>meiko</t>
-  </si>
-  <si>
-    <t>iboy</t>
-  </si>
-  <si>
-    <t>xiye</t>
-  </si>
-  <si>
-    <t>mystic</t>
-  </si>
-  <si>
-    <t>ben</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>duke</t>
-  </si>
-  <si>
-    <t>ning</t>
-  </si>
-  <si>
-    <t>rookie</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>megan</t>
-  </si>
-  <si>
-    <t>theshy</t>
-  </si>
-  <si>
-    <t>amazingj</t>
-  </si>
-  <si>
-    <t>flawless</t>
-  </si>
-  <si>
-    <t>jinjiao</t>
-  </si>
-  <si>
-    <t>starlight</t>
-  </si>
-  <si>
-    <t>ben4</t>
-  </si>
-  <si>
-    <t>road</t>
-  </si>
-  <si>
-    <t>letme</t>
-  </si>
-  <si>
-    <t>mlxg</t>
-  </si>
-  <si>
-    <t>xiaohu</t>
-  </si>
-  <si>
-    <t>y1han</t>
-  </si>
-  <si>
-    <t>uzi</t>
-  </si>
-  <si>
-    <t>wuxx</t>
-  </si>
-  <si>
-    <t>koro1</t>
-  </si>
-  <si>
-    <t>xiyang</t>
-  </si>
-  <si>
-    <t>jiekou</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>smlz</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>swift</t>
-  </si>
-  <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>lwx</t>
-  </si>
-  <si>
-    <t>pinus</t>
-  </si>
-  <si>
-    <t>mor</t>
-  </si>
-  <si>
-    <t>coco</t>
-  </si>
-  <si>
-    <t>skye</t>
-  </si>
-  <si>
-    <t>crisp</t>
-  </si>
-  <si>
-    <t>xiaoal</t>
-  </si>
-  <si>
-    <t>h4cker</t>
-  </si>
-  <si>
-    <t>fury</t>
-  </si>
-  <si>
-    <t>yoon</t>
-  </si>
-  <si>
-    <t>avoidless</t>
-  </si>
-  <si>
-    <t>dian</t>
-  </si>
-  <si>
-    <t>ziv</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>chawy</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>albis</t>
-  </si>
-  <si>
-    <t>westdoor</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>fofo</t>
-  </si>
-  <si>
-    <t>bebe</t>
-  </si>
-  <si>
-    <t>jay</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>laba</t>
-  </si>
-  <si>
-    <t>lilv</t>
-  </si>
-  <si>
-    <t>koala</t>
-  </si>
-  <si>
-    <t>mmd</t>
-  </si>
-  <si>
-    <t>karsa</t>
-  </si>
-  <si>
-    <t>maple</t>
-  </si>
-  <si>
-    <t>betty</t>
-  </si>
-  <si>
-    <t>swordart</t>
-  </si>
-  <si>
-    <t>taizan</t>
-  </si>
-  <si>
-    <t>apex</t>
-  </si>
-  <si>
-    <t>dee</t>
-  </si>
-  <si>
-    <t>dreamer</t>
-  </si>
-  <si>
-    <t>riris</t>
-  </si>
-  <si>
-    <t>godkwai</t>
-  </si>
-  <si>
-    <t>m1ssion</t>
-  </si>
-  <si>
-    <t>unified</t>
-  </si>
-  <si>
-    <t>kaiwing</t>
-  </si>
-  <si>
-    <t>shiphtur</t>
-  </si>
-  <si>
-    <t>voyboy</t>
-  </si>
-  <si>
     <t>hiimgosu</t>
   </si>
   <si>
-    <t>iwdominate</t>
-  </si>
-  <si>
-    <t>imaqtpie</t>
-  </si>
-  <si>
-    <t>dyrus</t>
-  </si>
-  <si>
-    <t>forg1ven</t>
-  </si>
-  <si>
-    <t>kakao</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>insec</t>
-  </si>
-  <si>
-    <t>mowgli</t>
-  </si>
-  <si>
-    <t>ray</t>
-  </si>
-  <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>rascal</t>
-  </si>
-  <si>
-    <t>ohq</t>
-  </si>
-  <si>
-    <t>tank</t>
-  </si>
-  <si>
-    <t>deul</t>
-  </si>
-  <si>
-    <t>malrang</t>
-  </si>
-  <si>
-    <t>cepted</t>
-  </si>
-  <si>
-    <t>ella</t>
-  </si>
-  <si>
-    <t>kiin</t>
-  </si>
-  <si>
-    <t>wickd</t>
-  </si>
-  <si>
-    <t>avenger</t>
-  </si>
-  <si>
-    <t>candy</t>
-  </si>
-  <si>
-    <t>winged</t>
-  </si>
-  <si>
-    <t>veritas</t>
-  </si>
-  <si>
-    <t>pure</t>
-  </si>
-  <si>
-    <t>racoon</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>raise</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>totoro</t>
-  </si>
-  <si>
-    <t>cheong</t>
-  </si>
-  <si>
-    <t>saymi</t>
-  </si>
-  <si>
-    <t>nuguri</t>
-  </si>
-  <si>
-    <t>yonghun</t>
-  </si>
-  <si>
-    <t>jin</t>
-  </si>
-  <si>
-    <t>tarzan</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>loken</t>
-  </si>
-  <si>
-    <t>clid</t>
-  </si>
-  <si>
-    <t>alone</t>
-  </si>
-  <si>
-    <t>bvoy</t>
-  </si>
-  <si>
-    <t>clowz</t>
-  </si>
-  <si>
-    <t>ggoong</t>
-  </si>
-  <si>
-    <t>nagne</t>
-  </si>
-  <si>
     <t>[226913554,32639237]</t>
   </si>
   <si>
@@ -5781,9 +4959,6 @@
     <t>[94788731, 99647174]</t>
   </si>
   <si>
-    <t>[230981413, 99647174]</t>
-  </si>
-  <si>
     <t>[26994583, 23545921, 238808762]</t>
   </si>
   <si>
@@ -5820,12 +4995,6 @@
     <t>[243553955]</t>
   </si>
   <si>
-    <t>[202849736]</t>
-  </si>
-  <si>
-    <t>[44256793]</t>
-  </si>
-  <si>
     <t>[207354982, 208955389, 209430043, 210168333]</t>
   </si>
   <si>
@@ -5854,13 +5023,370 @@
   </si>
   <si>
     <t>[87749128, 25479108, 91439089,76932635]</t>
+  </si>
+  <si>
+    <t>CodySun</t>
+  </si>
+  <si>
+    <t>Hanssama</t>
+  </si>
+  <si>
+    <t>[202849736,22302408]</t>
+  </si>
+  <si>
+    <t>[44256793,19531813]</t>
+  </si>
+  <si>
+    <t>[27455454]</t>
+  </si>
+  <si>
+    <t>[23323006]</t>
+  </si>
+  <si>
+    <t>[206358340, 207738701,210167948]</t>
+  </si>
+  <si>
+    <t>[38160601, 46190129,66820149]</t>
+  </si>
+  <si>
+    <t>[207151225, 3511615,210168233]</t>
+  </si>
+  <si>
+    <t>[42250140, 4473652,66810148]</t>
+  </si>
+  <si>
+    <t>Deftly</t>
+  </si>
+  <si>
+    <t>Anda</t>
+  </si>
+  <si>
+    <t>Stunt</t>
+  </si>
+  <si>
+    <t>Reignover</t>
+  </si>
+  <si>
+    <t>Meteos</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Licorice</t>
+  </si>
+  <si>
+    <t>Fenix</t>
+  </si>
+  <si>
+    <t>[236739906]</t>
+  </si>
+  <si>
+    <t>[83339118]</t>
+  </si>
+  <si>
+    <t>[244721782]</t>
+  </si>
+  <si>
+    <t>[244676272]</t>
+  </si>
+  <si>
+    <t>[92329083]</t>
+  </si>
+  <si>
+    <t>[34486740]</t>
+  </si>
+  <si>
+    <t>[21193669]</t>
+  </si>
+  <si>
+    <t>[244553509]</t>
+  </si>
+  <si>
+    <t>[92319078]</t>
+  </si>
+  <si>
+    <t>deftly_2018.png</t>
+  </si>
+  <si>
+    <t>anda_2018.png</t>
+  </si>
+  <si>
+    <t>stunt_2018.png</t>
+  </si>
+  <si>
+    <t>reignover_2018.png</t>
+  </si>
+  <si>
+    <t>meteos_2018.png</t>
+  </si>
+  <si>
+    <t>solo_2018.png</t>
+  </si>
+  <si>
+    <t>licorice_2018.png</t>
+  </si>
+  <si>
+    <t>fenix_2018.png</t>
+  </si>
+  <si>
+    <t>Hoang</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Yeu-jin</t>
+  </si>
+  <si>
+    <t>Hartman</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Earnest</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Ritchie</t>
+  </si>
+  <si>
+    <t>Jae-hun</t>
+  </si>
+  <si>
+    <t>[37631136]</t>
+  </si>
+  <si>
+    <t>[23552941]</t>
+  </si>
+  <si>
+    <t>[34709573]</t>
+  </si>
+  <si>
+    <t>[21351258]</t>
+  </si>
+  <si>
+    <t>[50164583,51093326,229139287]</t>
+  </si>
+  <si>
+    <t>[35592112,36653735,68401488]</t>
+  </si>
+  <si>
+    <t>[231506346]</t>
+  </si>
+  <si>
+    <t>[72749306]</t>
+  </si>
+  <si>
+    <t>[417432,208283500]</t>
+  </si>
+  <si>
+    <t>[390600,44979352]</t>
+  </si>
+  <si>
+    <t>[49398962]</t>
+  </si>
+  <si>
+    <t>[34925733]</t>
+  </si>
+  <si>
+    <t>[49572835]</t>
+  </si>
+  <si>
+    <t>[34983603]</t>
+  </si>
+  <si>
+    <t>Kasing</t>
+  </si>
+  <si>
+    <t>HeaQ</t>
+  </si>
+  <si>
+    <t>Whiteknight</t>
+  </si>
+  <si>
+    <t>Targamas</t>
+  </si>
+  <si>
+    <t>Santorin</t>
+  </si>
+  <si>
+    <t>SELFIE</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>Promisq</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Tsang</t>
+  </si>
+  <si>
+    <t>Raphaël</t>
+  </si>
+  <si>
+    <t>Crabbé</t>
+  </si>
+  <si>
+    <t>kordmaa</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>Matti</t>
+  </si>
+  <si>
+    <t>Sormunen</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>Lucas Tao Kilmer</t>
+  </si>
+  <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Wolski</t>
+  </si>
+  <si>
+    <t>Shook</t>
+  </si>
+  <si>
+    <t>Ilyas</t>
+  </si>
+  <si>
+    <t>Hartsema</t>
+  </si>
+  <si>
+    <t>Patrik</t>
+  </si>
+  <si>
+    <t>Jírů</t>
+  </si>
+  <si>
+    <t>Hampus Mikael</t>
+  </si>
+  <si>
+    <t>Abrahamsson</t>
+  </si>
+  <si>
+    <t>kasing_2018.png</t>
+  </si>
+  <si>
+    <t>targamas_2018.png</t>
+  </si>
+  <si>
+    <t>heaq_2018.png</t>
+  </si>
+  <si>
+    <t>whiteknight_2018.png</t>
+  </si>
+  <si>
+    <t>santorin_2018.png</t>
+  </si>
+  <si>
+    <t>selfie_2018.png</t>
+  </si>
+  <si>
+    <t>sheriff_2018.png</t>
+  </si>
+  <si>
+    <t>promisq_2018.png</t>
+  </si>
+  <si>
+    <t>shook_2018.png</t>
+  </si>
+  <si>
+    <t>[204575351,25932954]</t>
+  </si>
+  <si>
+    <t>[46517338,22136916]</t>
+  </si>
+  <si>
+    <t>[228171293,22786625]</t>
+  </si>
+  <si>
+    <t>[87538951,19889228]</t>
+  </si>
+  <si>
+    <t>[201324904]</t>
+  </si>
+  <si>
+    <t>[42176118]</t>
+  </si>
+  <si>
+    <t>[24522980]</t>
+  </si>
+  <si>
+    <t>[21112717]</t>
+  </si>
+  <si>
+    <t>[225525950]</t>
+  </si>
+  <si>
+    <t>[81198562]</t>
+  </si>
+  <si>
+    <t>[227875344]</t>
+  </si>
+  <si>
+    <t>[87147533]</t>
+  </si>
+  <si>
+    <t>[238807357,220046255,22014615]</t>
+  </si>
+  <si>
+    <t>[106006888,70797806,27361426]</t>
+  </si>
+  <si>
+    <t>[29735591]</t>
+  </si>
+  <si>
+    <t>[25172606]</t>
+  </si>
+  <si>
+    <t>[232759928]</t>
+  </si>
+  <si>
+    <t>[99227089]</t>
+  </si>
+  <si>
+    <t>[230981413, 232791263]</t>
+  </si>
+  <si>
+    <t>jactroll_2018.png</t>
+  </si>
+  <si>
+    <t>lava_2018.png</t>
+  </si>
+  <si>
+    <t>norskeren_2018.png</t>
+  </si>
+  <si>
+    <t>ruin_2018.png</t>
+  </si>
+  <si>
+    <t>jiizuke_2018.png</t>
+  </si>
+  <si>
+    <t>minitroupax_2018.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5879,6 +5405,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5904,7 +5437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5913,6 +5446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6227,13 +5761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN291"/>
+  <dimension ref="A1:AN313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD47" sqref="AD47"/>
+      <selection pane="bottomRight" activeCell="P194" sqref="P194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6394,7 +5928,7 @@
         <v>101001</v>
       </c>
       <c r="B2" t="s">
-        <v>1639</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -6436,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Q2" t="s">
         <v>791</v>
@@ -6462,7 +5996,7 @@
         <v>101002</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -6504,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="Q3" t="s">
         <v>791</v>
@@ -6530,7 +6064,7 @@
         <v>101003</v>
       </c>
       <c r="B4" t="s">
-        <v>1641</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6572,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Q4" t="s">
         <v>791</v>
@@ -6598,7 +6132,7 @@
         <v>101004</v>
       </c>
       <c r="B5" t="s">
-        <v>1642</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -6640,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Q5" t="s">
         <v>791</v>
@@ -6666,7 +6200,7 @@
         <v>101005</v>
       </c>
       <c r="B6" t="s">
-        <v>1643</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -6708,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="Q6" t="s">
         <v>791</v>
@@ -6734,7 +6268,7 @@
         <v>102001</v>
       </c>
       <c r="B7" t="s">
-        <v>1644</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -6776,10 +6310,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="R7" t="s">
         <v>806</v>
@@ -6802,7 +6336,7 @@
         <v>102002</v>
       </c>
       <c r="B8" t="s">
-        <v>1645</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -6844,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Q8" t="s">
         <v>791</v>
@@ -6870,7 +6404,7 @@
         <v>102003</v>
       </c>
       <c r="B9" t="s">
-        <v>1646</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -6912,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Q9" t="s">
         <v>791</v>
@@ -6938,7 +6472,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6977,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Q10" t="s">
         <v>791</v>
@@ -7003,7 +6537,7 @@
         <v>102005</v>
       </c>
       <c r="B11" t="s">
-        <v>1648</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -7045,10 +6579,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Q11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="R11" t="s">
         <v>815</v>
@@ -7071,7 +6605,7 @@
         <v>103001</v>
       </c>
       <c r="B12" t="s">
-        <v>1649</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -7113,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="Q12" t="s">
         <v>791</v>
@@ -7139,7 +6673,7 @@
         <v>103002</v>
       </c>
       <c r="B13" t="s">
-        <v>1650</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -7178,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="Q13" t="s">
         <v>791</v>
@@ -7204,7 +6738,7 @@
         <v>103003</v>
       </c>
       <c r="B14" t="s">
-        <v>1651</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -7243,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="Q14" t="s">
         <v>791</v>
@@ -7269,7 +6803,7 @@
         <v>103004</v>
       </c>
       <c r="B15" t="s">
-        <v>1652</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -7311,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Q15" t="s">
         <v>791</v>
@@ -7337,7 +6871,7 @@
         <v>103005</v>
       </c>
       <c r="B16" t="s">
-        <v>1653</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -7379,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="Q16" t="s">
         <v>791</v>
@@ -7405,7 +6939,7 @@
         <v>104001</v>
       </c>
       <c r="B17" t="s">
-        <v>1654</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -7447,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="Q17" t="s">
         <v>791</v>
@@ -7512,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Q18" t="s">
         <v>791</v>
@@ -7538,7 +7072,7 @@
         <v>104003</v>
       </c>
       <c r="B19" t="s">
-        <v>1655</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -7580,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="Q19" t="s">
         <v>791</v>
@@ -7606,7 +7140,7 @@
         <v>104004</v>
       </c>
       <c r="B20" t="s">
-        <v>1656</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -7648,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="Q20" t="s">
         <v>791</v>
@@ -7674,7 +7208,7 @@
         <v>104005</v>
       </c>
       <c r="B21" t="s">
-        <v>1657</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -7716,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Q21" t="s">
         <v>791</v>
@@ -7742,7 +7276,7 @@
         <v>105001</v>
       </c>
       <c r="B22" t="s">
-        <v>1658</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -7784,10 +7318,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="Q22" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R22" t="s">
         <v>840</v>
@@ -7810,7 +7344,7 @@
         <v>105002</v>
       </c>
       <c r="B23" t="s">
-        <v>1659</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -7849,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="Q23" t="s">
         <v>791</v>
@@ -7875,7 +7409,7 @@
         <v>105003</v>
       </c>
       <c r="B24" t="s">
-        <v>1660</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -7914,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="Q24" t="s">
         <v>791</v>
@@ -7940,7 +7474,7 @@
         <v>105004</v>
       </c>
       <c r="B25" t="s">
-        <v>1661</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -7982,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="Q25" t="s">
         <v>791</v>
@@ -8008,7 +7542,7 @@
         <v>105005</v>
       </c>
       <c r="B26" t="s">
-        <v>1662</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -8047,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="Q26" t="s">
         <v>791</v>
@@ -8073,7 +7607,7 @@
         <v>106001</v>
       </c>
       <c r="B27" t="s">
-        <v>1663</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -8106,10 +7640,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="Q27" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="R27" t="s">
         <v>849</v>
@@ -8174,13 +7708,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="Q28" t="s">
         <v>791</v>
       </c>
       <c r="R28" t="s">
-        <v>791</v>
+        <v>1683</v>
       </c>
       <c r="S28" t="s">
         <v>791</v>
@@ -8189,7 +7723,7 @@
         <v>791</v>
       </c>
       <c r="AD28" t="s">
-        <v>791</v>
+        <v>1684</v>
       </c>
       <c r="AE28" t="s">
         <v>791</v>
@@ -8200,7 +7734,7 @@
         <v>106003</v>
       </c>
       <c r="B29" t="s">
-        <v>1664</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -8239,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="Q29" t="s">
         <v>791</v>
@@ -8248,7 +7782,7 @@
         <v>852</v>
       </c>
       <c r="S29" t="s">
-        <v>791</v>
+        <v>1669</v>
       </c>
       <c r="AC29" t="s">
         <v>791</v>
@@ -8257,7 +7791,7 @@
         <v>853</v>
       </c>
       <c r="AE29" t="s">
-        <v>791</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -8265,7 +7799,7 @@
         <v>106004</v>
       </c>
       <c r="B30" t="s">
-        <v>1665</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8304,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="Q30" t="s">
         <v>791</v>
@@ -8330,7 +7864,7 @@
         <v>106005</v>
       </c>
       <c r="B31" t="s">
-        <v>1666</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -8369,13 +7903,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Q31" t="s">
         <v>791</v>
       </c>
       <c r="R31" t="s">
-        <v>791</v>
+        <v>1688</v>
       </c>
       <c r="S31" t="s">
         <v>791</v>
@@ -8384,7 +7918,7 @@
         <v>791</v>
       </c>
       <c r="AD31" t="s">
-        <v>791</v>
+        <v>1689</v>
       </c>
       <c r="AE31" t="s">
         <v>791</v>
@@ -8395,7 +7929,7 @@
         <v>107001</v>
       </c>
       <c r="B32" t="s">
-        <v>1667</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -8431,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="Q32" t="s">
         <v>791</v>
@@ -8440,9 +7974,6 @@
         <v>856</v>
       </c>
       <c r="S32" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC32" t="s">
         <v>791</v>
       </c>
       <c r="AD32" t="s">
@@ -8457,7 +7988,7 @@
         <v>107002</v>
       </c>
       <c r="B33" t="s">
-        <v>1668</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -8496,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Q33" t="s">
         <v>791</v>
@@ -8522,7 +8053,7 @@
         <v>107003</v>
       </c>
       <c r="B34" t="s">
-        <v>1669</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -8564,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="Q34" t="s">
         <v>791</v>
@@ -8590,7 +8121,7 @@
         <v>107004</v>
       </c>
       <c r="B35" t="s">
-        <v>1670</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -8632,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="Q35" t="s">
         <v>791</v>
@@ -8658,7 +8189,7 @@
         <v>107005</v>
       </c>
       <c r="B36" t="s">
-        <v>1671</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -8700,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Q36" t="s">
         <v>791</v>
@@ -8726,7 +8257,7 @@
         <v>108001</v>
       </c>
       <c r="B37" t="s">
-        <v>1672</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -8765,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Q37" t="s">
         <v>791</v>
@@ -8791,7 +8322,7 @@
         <v>108002</v>
       </c>
       <c r="B38" t="s">
-        <v>1673</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -8830,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Q38" t="s">
         <v>791</v>
@@ -8856,7 +8387,7 @@
         <v>108003</v>
       </c>
       <c r="B39" t="s">
-        <v>1674</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8892,16 +8423,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Q39" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="R39" t="s">
         <v>870</v>
       </c>
       <c r="S39" t="s">
-        <v>1930</v>
+        <v>1667</v>
       </c>
       <c r="AC39" t="s">
         <v>871</v>
@@ -8910,7 +8441,7 @@
         <v>872</v>
       </c>
       <c r="AE39" t="s">
-        <v>1931</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8918,7 +8449,7 @@
         <v>108004</v>
       </c>
       <c r="B40" t="s">
-        <v>1675</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -8957,13 +8488,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q40" t="s">
         <v>791</v>
       </c>
       <c r="R40" t="s">
-        <v>1926</v>
+        <v>1651</v>
       </c>
       <c r="S40" t="s">
         <v>791</v>
@@ -8972,7 +8503,7 @@
         <v>791</v>
       </c>
       <c r="AD40" t="s">
-        <v>1925</v>
+        <v>1650</v>
       </c>
       <c r="AE40" t="s">
         <v>791</v>
@@ -8983,7 +8514,7 @@
         <v>108005</v>
       </c>
       <c r="B41" t="s">
-        <v>1676</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -9016,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="Q41" t="s">
         <v>791</v>
@@ -9042,7 +8573,7 @@
         <v>108006</v>
       </c>
       <c r="B42" t="s">
-        <v>1677</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -9078,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Q42" t="s">
         <v>791</v>
@@ -9104,7 +8635,7 @@
         <v>108007</v>
       </c>
       <c r="B43" t="s">
-        <v>1678</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -9143,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="Q43" t="s">
         <v>791</v>
@@ -9169,7 +8700,7 @@
         <v>108008</v>
       </c>
       <c r="B44" t="s">
-        <v>1679</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -9208,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Q44" t="s">
         <v>791</v>
@@ -9234,7 +8765,7 @@
         <v>108009</v>
       </c>
       <c r="B45" t="s">
-        <v>1680</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -9270,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Q45" t="s">
         <v>791</v>
@@ -9296,7 +8827,7 @@
         <v>109001</v>
       </c>
       <c r="B46" t="s">
-        <v>1681</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -9338,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q46" t="s">
         <v>791</v>
@@ -9364,7 +8895,7 @@
         <v>109002</v>
       </c>
       <c r="B47" t="s">
-        <v>1682</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -9403,13 +8934,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Q47" t="s">
         <v>791</v>
       </c>
       <c r="R47" t="s">
-        <v>1940</v>
+        <v>1663</v>
       </c>
       <c r="S47" t="s">
         <v>791</v>
@@ -9418,7 +8949,7 @@
         <v>791</v>
       </c>
       <c r="AD47" t="s">
-        <v>1941</v>
+        <v>1664</v>
       </c>
       <c r="AE47" t="s">
         <v>791</v>
@@ -9429,7 +8960,7 @@
         <v>109003</v>
       </c>
       <c r="B48" t="s">
-        <v>1683</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -9471,13 +9002,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Q48" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="R48" t="s">
-        <v>1922</v>
+        <v>1647</v>
       </c>
       <c r="S48" t="s">
         <v>791</v>
@@ -9486,7 +9017,7 @@
         <v>885</v>
       </c>
       <c r="AD48" t="s">
-        <v>1923</v>
+        <v>1648</v>
       </c>
       <c r="AE48" t="s">
         <v>791</v>
@@ -9497,7 +9028,7 @@
         <v>109004</v>
       </c>
       <c r="B49" t="s">
-        <v>1684</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -9539,10 +9070,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Q49" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="R49" t="s">
         <v>886</v>
@@ -9565,7 +9096,7 @@
         <v>109005</v>
       </c>
       <c r="B50" t="s">
-        <v>1685</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -9604,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Q50" t="s">
         <v>791</v>
@@ -9669,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="Q51" t="s">
         <v>791</v>
@@ -9695,7 +9226,7 @@
         <v>110002</v>
       </c>
       <c r="B52" t="s">
-        <v>1686</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -9734,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="Q52" t="s">
         <v>791</v>
@@ -9760,7 +9291,7 @@
         <v>110003</v>
       </c>
       <c r="B53" t="s">
-        <v>1687</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -9802,13 +9333,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q53" t="s">
         <v>791</v>
       </c>
       <c r="R53" t="s">
-        <v>1927</v>
+        <v>1652</v>
       </c>
       <c r="S53" t="s">
         <v>791</v>
@@ -9817,7 +9348,7 @@
         <v>791</v>
       </c>
       <c r="AD53" t="s">
-        <v>1928</v>
+        <v>1653</v>
       </c>
       <c r="AE53" t="s">
         <v>791</v>
@@ -9828,7 +9359,7 @@
         <v>110004</v>
       </c>
       <c r="B54" t="s">
-        <v>1688</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -9870,10 +9401,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q54" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="R54" t="s">
         <v>895</v>
@@ -9896,7 +9427,7 @@
         <v>110005</v>
       </c>
       <c r="B55" t="s">
-        <v>1689</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -9938,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="Q55" t="s">
         <v>791</v>
@@ -9964,7 +9495,7 @@
         <v>201001</v>
       </c>
       <c r="B56" t="s">
-        <v>1690</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -10006,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Q56" t="s">
         <v>791</v>
@@ -10032,7 +9563,7 @@
         <v>201002</v>
       </c>
       <c r="B57" t="s">
-        <v>1691</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -10074,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q57" t="s">
         <v>791</v>
@@ -10100,7 +9631,7 @@
         <v>201003</v>
       </c>
       <c r="B58" t="s">
-        <v>1692</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -10142,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Q58" t="s">
         <v>791</v>
@@ -10151,7 +9682,7 @@
         <v>791</v>
       </c>
       <c r="S58" t="s">
-        <v>1912</v>
+        <v>1638</v>
       </c>
       <c r="AC58" t="s">
         <v>791</v>
@@ -10160,7 +9691,7 @@
         <v>791</v>
       </c>
       <c r="AE58" t="s">
-        <v>1913</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -10168,7 +9699,7 @@
         <v>201004</v>
       </c>
       <c r="B59" t="s">
-        <v>1693</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -10210,10 +9741,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Q59" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="R59" t="s">
         <v>791</v>
@@ -10236,7 +9767,7 @@
         <v>201005</v>
       </c>
       <c r="B60" t="s">
-        <v>1694</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -10278,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Q60" t="s">
         <v>791</v>
@@ -10304,7 +9835,7 @@
         <v>202001</v>
       </c>
       <c r="B61" t="s">
-        <v>1695</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -10337,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q61" t="s">
         <v>791</v>
@@ -10363,7 +9894,7 @@
         <v>202002</v>
       </c>
       <c r="B62" t="s">
-        <v>1696</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -10405,10 +9936,10 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="Q62" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="R62" t="s">
         <v>791</v>
@@ -10431,7 +9962,7 @@
         <v>202003</v>
       </c>
       <c r="B63" t="s">
-        <v>1697</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -10473,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="Q63" t="s">
         <v>791</v>
@@ -10499,7 +10030,7 @@
         <v>202004</v>
       </c>
       <c r="B64" t="s">
-        <v>1698</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -10541,13 +10072,13 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="Q64" t="s">
         <v>791</v>
       </c>
       <c r="R64" t="s">
-        <v>1924</v>
+        <v>1649</v>
       </c>
       <c r="S64" t="s">
         <v>916</v>
@@ -10609,13 +10140,13 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q65" t="s">
         <v>791</v>
       </c>
       <c r="R65" t="s">
-        <v>1929</v>
+        <v>1654</v>
       </c>
       <c r="S65" t="s">
         <v>919</v>
@@ -10635,7 +10166,7 @@
         <v>203001</v>
       </c>
       <c r="B66" t="s">
-        <v>1699</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
@@ -10674,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Q66" t="s">
         <v>791</v>
@@ -10700,7 +10231,7 @@
         <v>203002</v>
       </c>
       <c r="B67" t="s">
-        <v>1700</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -10742,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Q67" t="s">
         <v>791</v>
@@ -10768,7 +10299,7 @@
         <v>203003</v>
       </c>
       <c r="B68" t="s">
-        <v>1701</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -10810,13 +10341,13 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q68" t="s">
         <v>791</v>
       </c>
       <c r="R68" t="s">
-        <v>791</v>
+        <v>1690</v>
       </c>
       <c r="S68" t="s">
         <v>926</v>
@@ -10825,7 +10356,7 @@
         <v>791</v>
       </c>
       <c r="AD68" t="s">
-        <v>791</v>
+        <v>1691</v>
       </c>
       <c r="AE68" t="s">
         <v>927</v>
@@ -10836,7 +10367,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1702</v>
+        <v>1666</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10878,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="Q69" t="s">
         <v>791</v>
@@ -10904,7 +10435,7 @@
         <v>203005</v>
       </c>
       <c r="B70" t="s">
-        <v>1703</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
@@ -10946,10 +10477,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Q70" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="R70" t="s">
         <v>791</v>
@@ -10972,7 +10503,7 @@
         <v>204001</v>
       </c>
       <c r="B71" t="s">
-        <v>1704</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
@@ -11005,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Q71" t="s">
         <v>791</v>
@@ -11031,7 +10562,7 @@
         <v>204002</v>
       </c>
       <c r="B72" t="s">
-        <v>1705</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
@@ -11070,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q72" t="s">
         <v>791</v>
@@ -11096,7 +10627,7 @@
         <v>204003</v>
       </c>
       <c r="B73" t="s">
-        <v>1706</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>77</v>
@@ -11138,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q73" t="s">
         <v>791</v>
@@ -11164,7 +10695,7 @@
         <v>204004</v>
       </c>
       <c r="B74" t="s">
-        <v>1707</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
@@ -11203,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q74" t="s">
         <v>791</v>
@@ -11212,7 +10743,7 @@
         <v>791</v>
       </c>
       <c r="S74" t="s">
-        <v>1918</v>
+        <v>1643</v>
       </c>
       <c r="AC74" t="s">
         <v>791</v>
@@ -11221,7 +10752,7 @@
         <v>791</v>
       </c>
       <c r="AE74" t="s">
-        <v>1919</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -11229,7 +10760,7 @@
         <v>204005</v>
       </c>
       <c r="B75" t="s">
-        <v>1708</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
@@ -11271,16 +10802,16 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q75" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="R75" t="s">
         <v>791</v>
       </c>
       <c r="S75" t="s">
-        <v>1917</v>
+        <v>1777</v>
       </c>
       <c r="AC75" t="s">
         <v>939</v>
@@ -11289,7 +10820,7 @@
         <v>791</v>
       </c>
       <c r="AE75" t="s">
-        <v>1916</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -11297,7 +10828,7 @@
         <v>205001</v>
       </c>
       <c r="B76" t="s">
-        <v>1709</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -11336,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q76" t="s">
         <v>791</v>
@@ -11345,7 +10876,7 @@
         <v>791</v>
       </c>
       <c r="S76" t="s">
-        <v>1934</v>
+        <v>1657</v>
       </c>
       <c r="AC76" t="s">
         <v>791</v>
@@ -11354,7 +10885,7 @@
         <v>791</v>
       </c>
       <c r="AE76" t="s">
-        <v>1935</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -11362,7 +10893,7 @@
         <v>205002</v>
       </c>
       <c r="B77" t="s">
-        <v>1710</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -11404,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="Q77" t="s">
         <v>791</v>
@@ -11413,10 +10944,10 @@
         <v>791</v>
       </c>
       <c r="S77" t="s">
-        <v>1921</v>
+        <v>1646</v>
       </c>
       <c r="T77" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="AC77" t="s">
         <v>791</v>
@@ -11425,10 +10956,10 @@
         <v>791</v>
       </c>
       <c r="AE77" t="s">
-        <v>1920</v>
+        <v>1645</v>
       </c>
       <c r="AF77" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -11436,7 +10967,7 @@
         <v>205003</v>
       </c>
       <c r="B78" t="s">
-        <v>1711</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>82</v>
@@ -11478,13 +11009,13 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q78" t="s">
         <v>791</v>
       </c>
       <c r="R78" t="s">
-        <v>1938</v>
+        <v>1661</v>
       </c>
       <c r="S78" t="s">
         <v>940</v>
@@ -11493,7 +11024,7 @@
         <v>791</v>
       </c>
       <c r="AD78" t="s">
-        <v>1939</v>
+        <v>1662</v>
       </c>
       <c r="AE78" t="s">
         <v>941</v>
@@ -11504,7 +11035,7 @@
         <v>205004</v>
       </c>
       <c r="B79" t="s">
-        <v>1712</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
         <v>83</v>
@@ -11540,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Q79" t="s">
         <v>791</v>
@@ -11566,7 +11097,7 @@
         <v>205005</v>
       </c>
       <c r="B80" t="s">
-        <v>1713</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
@@ -11602,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Q80" t="s">
         <v>791</v>
@@ -11628,7 +11159,7 @@
         <v>206001</v>
       </c>
       <c r="B81" t="s">
-        <v>1714</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
@@ -11670,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Q81" t="s">
         <v>791</v>
@@ -11696,7 +11227,7 @@
         <v>206002</v>
       </c>
       <c r="B82" t="s">
-        <v>1715</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
@@ -11738,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="Q82" t="s">
         <v>791</v>
@@ -11764,7 +11295,7 @@
         <v>206003</v>
       </c>
       <c r="B83" t="s">
-        <v>1716</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
@@ -11806,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q83" t="s">
         <v>791</v>
@@ -11832,7 +11363,7 @@
         <v>206004</v>
       </c>
       <c r="B84" t="s">
-        <v>1717</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
@@ -11871,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="Q84" t="s">
         <v>791</v>
@@ -11897,7 +11428,7 @@
         <v>206005</v>
       </c>
       <c r="B85" t="s">
-        <v>1718</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
@@ -11939,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Q85" t="s">
         <v>791</v>
@@ -11965,7 +11496,7 @@
         <v>207001</v>
       </c>
       <c r="B86" t="s">
-        <v>1719</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
         <v>90</v>
@@ -12007,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q86" t="s">
         <v>791</v>
@@ -12033,7 +11564,7 @@
         <v>207002</v>
       </c>
       <c r="B87" t="s">
-        <v>1720</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
@@ -12072,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Q87" t="s">
         <v>791</v>
@@ -12098,7 +11629,7 @@
         <v>207003</v>
       </c>
       <c r="B88" t="s">
-        <v>1721</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
@@ -12140,7 +11671,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Q88" t="s">
         <v>791</v>
@@ -12166,7 +11697,7 @@
         <v>207004</v>
       </c>
       <c r="B89" t="s">
-        <v>1722</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
         <v>93</v>
@@ -12208,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Q89" t="s">
         <v>791</v>
@@ -12234,7 +11765,7 @@
         <v>207005</v>
       </c>
       <c r="B90" t="s">
-        <v>1723</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
         <v>94</v>
@@ -12273,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Q90" t="s">
         <v>791</v>
@@ -12299,7 +11830,7 @@
         <v>208001</v>
       </c>
       <c r="B91" t="s">
-        <v>1724</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
@@ -12341,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Q91" t="s">
         <v>791</v>
@@ -12367,7 +11898,7 @@
         <v>208002</v>
       </c>
       <c r="B92" t="s">
-        <v>1725</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
         <v>96</v>
@@ -12409,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="Q92" t="s">
         <v>791</v>
@@ -12418,7 +11949,7 @@
         <v>791</v>
       </c>
       <c r="S92" t="s">
-        <v>1914</v>
+        <v>1640</v>
       </c>
       <c r="AC92" t="s">
         <v>791</v>
@@ -12427,7 +11958,7 @@
         <v>791</v>
       </c>
       <c r="AE92" t="s">
-        <v>1915</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -12435,7 +11966,7 @@
         <v>208003</v>
       </c>
       <c r="B93" t="s">
-        <v>1726</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
         <v>97</v>
@@ -12474,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="Q93" t="s">
         <v>791</v>
@@ -12500,7 +12031,7 @@
         <v>208004</v>
       </c>
       <c r="B94" t="s">
-        <v>1727</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>98</v>
@@ -12542,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="Q94" t="s">
         <v>791</v>
@@ -12568,7 +12099,7 @@
         <v>208005</v>
       </c>
       <c r="B95" t="s">
-        <v>1728</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
         <v>99</v>
@@ -12610,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q95" t="s">
         <v>791</v>
@@ -12636,7 +12167,7 @@
         <v>209001</v>
       </c>
       <c r="B96" t="s">
-        <v>1729</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>100</v>
@@ -12678,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Q96" t="s">
         <v>791</v>
@@ -12704,7 +12235,7 @@
         <v>209002</v>
       </c>
       <c r="B97" t="s">
-        <v>1730</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>101</v>
@@ -12743,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Q97" t="s">
         <v>791</v>
@@ -12769,7 +12300,7 @@
         <v>209003</v>
       </c>
       <c r="B98" t="s">
-        <v>1731</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>102</v>
@@ -12808,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q98" t="s">
         <v>791</v>
@@ -12834,7 +12365,7 @@
         <v>209004</v>
       </c>
       <c r="B99" t="s">
-        <v>1732</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
         <v>103</v>
@@ -12873,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q99" t="s">
         <v>791</v>
@@ -12899,7 +12430,7 @@
         <v>209005</v>
       </c>
       <c r="B100" t="s">
-        <v>1733</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>104</v>
@@ -12938,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1286</v>
+        <v>1780</v>
       </c>
       <c r="Q100" t="s">
         <v>791</v>
@@ -12964,7 +12495,7 @@
         <v>210001</v>
       </c>
       <c r="B101" t="s">
-        <v>1734</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>105</v>
@@ -13003,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1286</v>
+        <v>1781</v>
       </c>
       <c r="Q101" t="s">
         <v>791</v>
@@ -13029,7 +12560,7 @@
         <v>210002</v>
       </c>
       <c r="B102" t="s">
-        <v>1735</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
@@ -13071,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q102" t="s">
         <v>791</v>
@@ -13097,7 +12628,7 @@
         <v>210003</v>
       </c>
       <c r="B103" t="s">
-        <v>1736</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
         <v>107</v>
@@ -13136,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1286</v>
+        <v>1782</v>
       </c>
       <c r="Q103" t="s">
         <v>791</v>
@@ -13162,7 +12693,7 @@
         <v>210004</v>
       </c>
       <c r="B104" t="s">
-        <v>1737</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>108</v>
@@ -13201,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1286</v>
+        <v>1783</v>
       </c>
       <c r="Q104" t="s">
         <v>791</v>
@@ -13227,7 +12758,7 @@
         <v>210005</v>
       </c>
       <c r="B105" t="s">
-        <v>1738</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
         <v>109</v>
@@ -13266,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1286</v>
+        <v>1778</v>
       </c>
       <c r="Q105" t="s">
         <v>791</v>
@@ -13292,7 +12823,7 @@
         <v>301001</v>
       </c>
       <c r="B106" t="s">
-        <v>1739</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
         <v>110</v>
@@ -13331,10 +12862,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q106" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="R106" t="s">
         <v>791</v>
@@ -13357,7 +12888,7 @@
         <v>301002</v>
       </c>
       <c r="B107" t="s">
-        <v>1740</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>111</v>
@@ -13396,10 +12927,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="Q107" t="s">
-        <v>1932</v>
+        <v>1655</v>
       </c>
       <c r="R107" t="s">
         <v>791</v>
@@ -13408,7 +12939,7 @@
         <v>791</v>
       </c>
       <c r="AC107" t="s">
-        <v>1933</v>
+        <v>1656</v>
       </c>
       <c r="AD107" t="s">
         <v>791</v>
@@ -13422,7 +12953,7 @@
         <v>301003</v>
       </c>
       <c r="B108" t="s">
-        <v>1741</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>112</v>
@@ -13464,10 +12995,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="Q108" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="R108" t="s">
         <v>791</v>
@@ -13490,7 +13021,7 @@
         <v>301004</v>
       </c>
       <c r="B109" t="s">
-        <v>1742</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
         <v>113</v>
@@ -13532,10 +13063,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="Q109" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R109" t="s">
         <v>791</v>
@@ -13558,7 +13089,7 @@
         <v>301005</v>
       </c>
       <c r="B110" t="s">
-        <v>1743</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
         <v>114</v>
@@ -13600,10 +13131,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="Q110" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="R110" t="s">
         <v>791</v>
@@ -13626,7 +13157,7 @@
         <v>302001</v>
       </c>
       <c r="B111" t="s">
-        <v>1744</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
@@ -13668,10 +13199,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q111" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R111" t="s">
         <v>791</v>
@@ -13694,7 +13225,7 @@
         <v>302002</v>
       </c>
       <c r="B112" t="s">
-        <v>1745</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
@@ -13736,10 +13267,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q112" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="R112" t="s">
         <v>791</v>
@@ -13762,7 +13293,7 @@
         <v>302003</v>
       </c>
       <c r="B113" t="s">
-        <v>1746</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
         <v>117</v>
@@ -13804,10 +13335,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q113" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R113" t="s">
         <v>791</v>
@@ -13830,7 +13361,7 @@
         <v>302004</v>
       </c>
       <c r="B114" t="s">
-        <v>1747</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
         <v>118</v>
@@ -13872,10 +13403,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Q114" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="R114" t="s">
         <v>791</v>
@@ -13940,10 +13471,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="Q115" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R115" t="s">
         <v>791</v>
@@ -13966,7 +13497,7 @@
         <v>303001</v>
       </c>
       <c r="B116" t="s">
-        <v>1748</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
         <v>120</v>
@@ -14008,10 +13539,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q116" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="R116" t="s">
         <v>791</v>
@@ -14034,7 +13565,7 @@
         <v>303002</v>
       </c>
       <c r="B117" t="s">
-        <v>1749</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
@@ -14076,10 +13607,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q117" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R117" t="s">
         <v>791</v>
@@ -14102,7 +13633,7 @@
         <v>303003</v>
       </c>
       <c r="B118" t="s">
-        <v>1750</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
@@ -14144,10 +13675,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q118" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R118" t="s">
         <v>791</v>
@@ -14170,7 +13701,7 @@
         <v>303004</v>
       </c>
       <c r="B119" t="s">
-        <v>1751</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
         <v>123</v>
@@ -14212,10 +13743,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Q119" t="s">
-        <v>1314</v>
+        <v>1671</v>
       </c>
       <c r="R119" t="s">
         <v>791</v>
@@ -14224,7 +13755,7 @@
         <v>791</v>
       </c>
       <c r="AC119" t="s">
-        <v>1006</v>
+        <v>1672</v>
       </c>
       <c r="AD119" t="s">
         <v>791</v>
@@ -14238,7 +13769,7 @@
         <v>303005</v>
       </c>
       <c r="B120" t="s">
-        <v>1752</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
         <v>124</v>
@@ -14280,10 +13811,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="Q120" t="s">
-        <v>1316</v>
+        <v>1673</v>
       </c>
       <c r="R120" t="s">
         <v>791</v>
@@ -14292,7 +13823,7 @@
         <v>791</v>
       </c>
       <c r="AC120" t="s">
-        <v>1007</v>
+        <v>1674</v>
       </c>
       <c r="AD120" t="s">
         <v>791</v>
@@ -14306,7 +13837,7 @@
         <v>304001</v>
       </c>
       <c r="B121" t="s">
-        <v>1753</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
         <v>125</v>
@@ -14348,22 +13879,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="Q121" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="R121" t="s">
-        <v>791</v>
+        <v>1686</v>
       </c>
       <c r="S121" t="s">
         <v>791</v>
       </c>
       <c r="AC121" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AD121" t="s">
-        <v>791</v>
+        <v>1687</v>
       </c>
       <c r="AE121" t="s">
         <v>791</v>
@@ -14374,7 +13905,7 @@
         <v>304002</v>
       </c>
       <c r="B122" t="s">
-        <v>1754</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
@@ -14416,10 +13947,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="Q122" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="R122" t="s">
         <v>791</v>
@@ -14428,7 +13959,7 @@
         <v>791</v>
       </c>
       <c r="AC122" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AD122" t="s">
         <v>791</v>
@@ -14442,7 +13973,7 @@
         <v>304003</v>
       </c>
       <c r="B123" t="s">
-        <v>1755</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
@@ -14484,10 +14015,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="Q123" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="R123" t="s">
         <v>791</v>
@@ -14496,7 +14027,7 @@
         <v>791</v>
       </c>
       <c r="AC123" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AD123" t="s">
         <v>791</v>
@@ -14510,7 +14041,7 @@
         <v>304004</v>
       </c>
       <c r="B124" t="s">
-        <v>1756</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
@@ -14552,10 +14083,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="Q124" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="R124" t="s">
         <v>791</v>
@@ -14564,7 +14095,7 @@
         <v>791</v>
       </c>
       <c r="AC124" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AD124" t="s">
         <v>791</v>
@@ -14578,7 +14109,7 @@
         <v>304005</v>
       </c>
       <c r="B125" t="s">
-        <v>1757</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
@@ -14620,10 +14151,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="Q125" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="R125" t="s">
         <v>791</v>
@@ -14632,7 +14163,7 @@
         <v>791</v>
       </c>
       <c r="AC125" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AD125" t="s">
         <v>791</v>
@@ -14646,7 +14177,7 @@
         <v>304006</v>
       </c>
       <c r="B126" t="s">
-        <v>1758</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
@@ -14688,10 +14219,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="Q126" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="R126" t="s">
         <v>791</v>
@@ -14700,7 +14231,7 @@
         <v>791</v>
       </c>
       <c r="AC126" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AD126" t="s">
         <v>791</v>
@@ -14714,7 +14245,7 @@
         <v>304007</v>
       </c>
       <c r="B127" t="s">
-        <v>1759</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
@@ -14756,10 +14287,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="Q127" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="R127" t="s">
         <v>791</v>
@@ -14768,7 +14299,7 @@
         <v>791</v>
       </c>
       <c r="AC127" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AD127" t="s">
         <v>791</v>
@@ -14782,7 +14313,7 @@
         <v>305001</v>
       </c>
       <c r="B128" t="s">
-        <v>1760</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
@@ -14818,10 +14349,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="Q128" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="R128" t="s">
         <v>791</v>
@@ -14830,12 +14361,9 @@
         <v>791</v>
       </c>
       <c r="AC128" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AD128" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE128" t="s">
         <v>791</v>
       </c>
     </row>
@@ -14844,7 +14372,7 @@
         <v>305002</v>
       </c>
       <c r="B129" t="s">
-        <v>1761</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
@@ -14886,10 +14414,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="Q129" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="R129" t="s">
         <v>791</v>
@@ -14898,7 +14426,7 @@
         <v>791</v>
       </c>
       <c r="AC129" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AD129" t="s">
         <v>791</v>
@@ -14912,7 +14440,7 @@
         <v>305003</v>
       </c>
       <c r="B130" t="s">
-        <v>1762</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
         <v>134</v>
@@ -14954,10 +14482,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="Q130" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="R130" t="s">
         <v>791</v>
@@ -14966,7 +14494,7 @@
         <v>791</v>
       </c>
       <c r="AC130" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AD130" t="s">
         <v>791</v>
@@ -14980,7 +14508,7 @@
         <v>305004</v>
       </c>
       <c r="B131" t="s">
-        <v>1763</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
@@ -15022,10 +14550,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="Q131" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="R131" t="s">
         <v>791</v>
@@ -15034,7 +14562,7 @@
         <v>791</v>
       </c>
       <c r="AC131" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AD131" t="s">
         <v>791</v>
@@ -15048,7 +14576,7 @@
         <v>305005</v>
       </c>
       <c r="B132" t="s">
-        <v>1764</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
         <v>136</v>
@@ -15090,10 +14618,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="Q132" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="R132" t="s">
         <v>791</v>
@@ -15102,7 +14630,7 @@
         <v>791</v>
       </c>
       <c r="AC132" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AD132" t="s">
         <v>791</v>
@@ -15152,10 +14680,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="Q133" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="R133" t="s">
         <v>791</v>
@@ -15164,7 +14692,7 @@
         <v>791</v>
       </c>
       <c r="AC133" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AD133" t="s">
         <v>791</v>
@@ -15178,7 +14706,7 @@
         <v>306002</v>
       </c>
       <c r="B134" t="s">
-        <v>1765</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
         <v>138</v>
@@ -15217,10 +14745,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="Q134" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="R134" t="s">
         <v>791</v>
@@ -15229,7 +14757,7 @@
         <v>791</v>
       </c>
       <c r="AC134" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AD134" t="s">
         <v>791</v>
@@ -15243,7 +14771,7 @@
         <v>306003</v>
       </c>
       <c r="B135" t="s">
-        <v>1766</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
         <v>139</v>
@@ -15285,10 +14813,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="Q135" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="R135" t="s">
         <v>791</v>
@@ -15297,7 +14825,7 @@
         <v>791</v>
       </c>
       <c r="AC135" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AD135" t="s">
         <v>791</v>
@@ -15311,7 +14839,7 @@
         <v>306004</v>
       </c>
       <c r="B136" t="s">
-        <v>1767</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
         <v>140</v>
@@ -15350,10 +14878,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="Q136" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="R136" t="s">
         <v>791</v>
@@ -15362,7 +14890,7 @@
         <v>791</v>
       </c>
       <c r="AC136" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AD136" t="s">
         <v>791</v>
@@ -15376,7 +14904,7 @@
         <v>306005</v>
       </c>
       <c r="B137" t="s">
-        <v>1768</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
         <v>141</v>
@@ -15412,10 +14940,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="Q137" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="R137" t="s">
         <v>791</v>
@@ -15424,7 +14952,7 @@
         <v>791</v>
       </c>
       <c r="AC137" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AD137" t="s">
         <v>791</v>
@@ -15438,7 +14966,7 @@
         <v>306006</v>
       </c>
       <c r="B138" t="s">
-        <v>1769</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
         <v>142</v>
@@ -15477,10 +15005,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="Q138" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="R138" t="s">
         <v>791</v>
@@ -15489,7 +15017,7 @@
         <v>791</v>
       </c>
       <c r="AC138" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AD138" t="s">
         <v>791</v>
@@ -15503,7 +15031,7 @@
         <v>307001</v>
       </c>
       <c r="B139" t="s">
-        <v>1770</v>
+        <v>143</v>
       </c>
       <c r="C139" t="s">
         <v>143</v>
@@ -15545,10 +15073,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="Q139" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="R139" t="s">
         <v>791</v>
@@ -15557,7 +15085,7 @@
         <v>791</v>
       </c>
       <c r="AC139" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AD139" t="s">
         <v>791</v>
@@ -15571,7 +15099,7 @@
         <v>307002</v>
       </c>
       <c r="B140" t="s">
-        <v>1771</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
         <v>144</v>
@@ -15613,10 +15141,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="Q140" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="R140" t="s">
         <v>791</v>
@@ -15625,7 +15153,7 @@
         <v>791</v>
       </c>
       <c r="AC140" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AD140" t="s">
         <v>791</v>
@@ -15639,7 +15167,7 @@
         <v>307003</v>
       </c>
       <c r="B141" t="s">
-        <v>1772</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
         <v>145</v>
@@ -15678,10 +15206,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1286</v>
+        <v>1779</v>
       </c>
       <c r="Q141" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="R141" t="s">
         <v>791</v>
@@ -15690,7 +15218,7 @@
         <v>791</v>
       </c>
       <c r="AC141" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AD141" t="s">
         <v>791</v>
@@ -15704,7 +15232,7 @@
         <v>307004</v>
       </c>
       <c r="B142" t="s">
-        <v>1773</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
         <v>146</v>
@@ -15746,10 +15274,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="Q142" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="R142" t="s">
         <v>791</v>
@@ -15758,7 +15286,7 @@
         <v>791</v>
       </c>
       <c r="AC142" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AD142" t="s">
         <v>791</v>
@@ -15772,7 +15300,7 @@
         <v>307005</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
         <v>147</v>
@@ -15814,10 +15342,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="Q143" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="R143" t="s">
         <v>791</v>
@@ -15826,7 +15354,7 @@
         <v>791</v>
       </c>
       <c r="AC143" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AD143" t="s">
         <v>791</v>
@@ -15840,7 +15368,7 @@
         <v>307006</v>
       </c>
       <c r="B144" t="s">
-        <v>1774</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
         <v>148</v>
@@ -15882,10 +15410,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="Q144" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="R144" t="s">
         <v>791</v>
@@ -15894,7 +15422,7 @@
         <v>791</v>
       </c>
       <c r="AC144" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AD144" t="s">
         <v>791</v>
@@ -15908,7 +15436,7 @@
         <v>308001</v>
       </c>
       <c r="B145" t="s">
-        <v>1775</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
         <v>149</v>
@@ -15950,10 +15478,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="Q145" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="R145" t="s">
         <v>791</v>
@@ -15962,7 +15490,7 @@
         <v>791</v>
       </c>
       <c r="AC145" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AD145" t="s">
         <v>791</v>
@@ -15976,7 +15504,7 @@
         <v>308002</v>
       </c>
       <c r="B146" t="s">
-        <v>1776</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
         <v>150</v>
@@ -16018,10 +15546,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="Q146" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="R146" t="s">
         <v>791</v>
@@ -16030,7 +15558,7 @@
         <v>791</v>
       </c>
       <c r="AC146" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AD146" t="s">
         <v>791</v>
@@ -16044,7 +15572,7 @@
         <v>308003</v>
       </c>
       <c r="B147" t="s">
-        <v>1777</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
         <v>151</v>
@@ -16086,10 +15614,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="Q147" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="R147" t="s">
         <v>791</v>
@@ -16098,7 +15626,7 @@
         <v>791</v>
       </c>
       <c r="AC147" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AD147" t="s">
         <v>791</v>
@@ -16112,7 +15640,7 @@
         <v>308004</v>
       </c>
       <c r="B148" t="s">
-        <v>1778</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
         <v>152</v>
@@ -16154,10 +15682,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="Q148" t="s">
-        <v>1936</v>
+        <v>1659</v>
       </c>
       <c r="R148" t="s">
         <v>791</v>
@@ -16166,7 +15694,7 @@
         <v>791</v>
       </c>
       <c r="AC148" t="s">
-        <v>1937</v>
+        <v>1660</v>
       </c>
       <c r="AD148" t="s">
         <v>791</v>
@@ -16180,7 +15708,7 @@
         <v>308005</v>
       </c>
       <c r="B149" t="s">
-        <v>1779</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
         <v>153</v>
@@ -16222,10 +15750,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="Q149" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="R149" t="s">
         <v>791</v>
@@ -16234,7 +15762,7 @@
         <v>791</v>
       </c>
       <c r="AC149" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AD149" t="s">
         <v>791</v>
@@ -16248,7 +15776,7 @@
         <v>401001</v>
       </c>
       <c r="B150" t="s">
-        <v>1780</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
         <v>154</v>
@@ -16287,10 +15815,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="Q150" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="R150" t="s">
         <v>791</v>
@@ -16299,7 +15827,7 @@
         <v>791</v>
       </c>
       <c r="AC150" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AD150" t="s">
         <v>791</v>
@@ -16313,7 +15841,7 @@
         <v>401002</v>
       </c>
       <c r="B151" t="s">
-        <v>1781</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s">
         <v>156</v>
@@ -16349,10 +15877,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="Q151" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="R151" t="s">
         <v>791</v>
@@ -16361,7 +15889,7 @@
         <v>791</v>
       </c>
       <c r="AC151" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AD151" t="s">
         <v>791</v>
@@ -16375,7 +15903,7 @@
         <v>401003</v>
       </c>
       <c r="B152" t="s">
-        <v>1782</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
         <v>157</v>
@@ -16414,10 +15942,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="Q152" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="R152" t="s">
         <v>791</v>
@@ -16426,7 +15954,7 @@
         <v>791</v>
       </c>
       <c r="AC152" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AD152" t="s">
         <v>791</v>
@@ -16440,7 +15968,7 @@
         <v>401004</v>
       </c>
       <c r="B153" t="s">
-        <v>1783</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
         <v>158</v>
@@ -16476,10 +16004,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="Q153" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="R153" t="s">
         <v>791</v>
@@ -16488,7 +16016,7 @@
         <v>791</v>
       </c>
       <c r="AC153" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AD153" t="s">
         <v>791</v>
@@ -16502,7 +16030,7 @@
         <v>401005</v>
       </c>
       <c r="B154" t="s">
-        <v>1784</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
         <v>159</v>
@@ -16541,10 +16069,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="Q154" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="R154" t="s">
         <v>791</v>
@@ -16553,7 +16081,7 @@
         <v>791</v>
       </c>
       <c r="AC154" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AD154" t="s">
         <v>791</v>
@@ -16567,7 +16095,7 @@
         <v>401006</v>
       </c>
       <c r="B155" t="s">
-        <v>1785</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
         <v>160</v>
@@ -16606,10 +16134,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="Q155" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="R155" t="s">
         <v>791</v>
@@ -16618,7 +16146,7 @@
         <v>791</v>
       </c>
       <c r="AC155" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AD155" t="s">
         <v>791</v>
@@ -16671,10 +16199,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="Q156" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="R156" t="s">
         <v>791</v>
@@ -16683,7 +16211,7 @@
         <v>791</v>
       </c>
       <c r="AC156" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AD156" t="s">
         <v>791</v>
@@ -16736,10 +16264,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="Q157" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="R157" t="s">
         <v>791</v>
@@ -16748,7 +16276,7 @@
         <v>791</v>
       </c>
       <c r="AC157" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AD157" t="s">
         <v>791</v>
@@ -16762,7 +16290,7 @@
         <v>402003</v>
       </c>
       <c r="B158" t="s">
-        <v>1786</v>
+        <v>163</v>
       </c>
       <c r="C158" t="s">
         <v>163</v>
@@ -16801,10 +16329,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="Q158" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="R158" t="s">
         <v>791</v>
@@ -16813,7 +16341,7 @@
         <v>791</v>
       </c>
       <c r="AC158" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AD158" t="s">
         <v>791</v>
@@ -16827,7 +16355,7 @@
         <v>402004</v>
       </c>
       <c r="B159" t="s">
-        <v>1787</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
         <v>164</v>
@@ -16866,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="Q159" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="R159" t="s">
         <v>791</v>
@@ -16878,7 +16406,7 @@
         <v>791</v>
       </c>
       <c r="AC159" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AD159" t="s">
         <v>791</v>
@@ -16892,7 +16420,7 @@
         <v>402005</v>
       </c>
       <c r="B160" t="s">
-        <v>1788</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
         <v>165</v>
@@ -16931,10 +16459,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="Q160" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="R160" t="s">
         <v>791</v>
@@ -16943,7 +16471,7 @@
         <v>791</v>
       </c>
       <c r="AC160" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AD160" t="s">
         <v>791</v>
@@ -16957,7 +16485,7 @@
         <v>402006</v>
       </c>
       <c r="B161" t="s">
-        <v>1789</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
         <v>166</v>
@@ -16996,10 +16524,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="Q161" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="R161" t="s">
         <v>791</v>
@@ -17008,7 +16536,7 @@
         <v>791</v>
       </c>
       <c r="AC161" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AD161" t="s">
         <v>791</v>
@@ -17022,7 +16550,7 @@
         <v>403001</v>
       </c>
       <c r="B162" t="s">
-        <v>1790</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
         <v>167</v>
@@ -17064,10 +16592,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="Q162" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="R162" t="s">
         <v>791</v>
@@ -17076,7 +16604,7 @@
         <v>791</v>
       </c>
       <c r="AC162" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AD162" t="s">
         <v>791</v>
@@ -17090,7 +16618,7 @@
         <v>403002</v>
       </c>
       <c r="B163" t="s">
-        <v>1791</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
         <v>168</v>
@@ -17129,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="Q163" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="R163" t="s">
         <v>791</v>
@@ -17141,7 +16669,7 @@
         <v>791</v>
       </c>
       <c r="AC163" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AD163" t="s">
         <v>791</v>
@@ -17155,7 +16683,7 @@
         <v>403003</v>
       </c>
       <c r="B164" t="s">
-        <v>1792</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
         <v>169</v>
@@ -17194,10 +16722,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="Q164" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="R164" t="s">
         <v>791</v>
@@ -17206,7 +16734,7 @@
         <v>791</v>
       </c>
       <c r="AC164" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AD164" t="s">
         <v>791</v>
@@ -17220,7 +16748,7 @@
         <v>403004</v>
       </c>
       <c r="B165" t="s">
-        <v>1793</v>
+        <v>170</v>
       </c>
       <c r="C165" t="s">
         <v>170</v>
@@ -17262,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="Q165" t="s">
         <v>791</v>
@@ -17288,7 +16816,7 @@
         <v>403005</v>
       </c>
       <c r="B166" t="s">
-        <v>1794</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
         <v>171</v>
@@ -17321,10 +16849,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="Q166" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="R166" t="s">
         <v>791</v>
@@ -17333,7 +16861,7 @@
         <v>791</v>
       </c>
       <c r="AC166" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AD166" t="s">
         <v>791</v>
@@ -17347,7 +16875,7 @@
         <v>403006</v>
       </c>
       <c r="B167" t="s">
-        <v>1795</v>
+        <v>172</v>
       </c>
       <c r="C167" t="s">
         <v>172</v>
@@ -17380,10 +16908,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="Q167" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="R167" t="s">
         <v>791</v>
@@ -17392,7 +16920,7 @@
         <v>791</v>
       </c>
       <c r="AC167" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AD167" t="s">
         <v>791</v>
@@ -17406,7 +16934,7 @@
         <v>404001</v>
       </c>
       <c r="B168" t="s">
-        <v>1796</v>
+        <v>173</v>
       </c>
       <c r="C168" t="s">
         <v>173</v>
@@ -17445,10 +16973,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="Q168" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="R168" t="s">
         <v>791</v>
@@ -17457,7 +16985,7 @@
         <v>791</v>
       </c>
       <c r="AC168" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AD168" t="s">
         <v>791</v>
@@ -17471,7 +16999,7 @@
         <v>404002</v>
       </c>
       <c r="B169" t="s">
-        <v>1797</v>
+        <v>174</v>
       </c>
       <c r="C169" t="s">
         <v>174</v>
@@ -17513,10 +17041,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="Q169" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="R169" t="s">
         <v>791</v>
@@ -17525,7 +17053,7 @@
         <v>791</v>
       </c>
       <c r="AC169" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AD169" t="s">
         <v>791</v>
@@ -17578,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="Q170" t="s">
         <v>791</v>
@@ -17604,7 +17132,7 @@
         <v>404004</v>
       </c>
       <c r="B171" t="s">
-        <v>1798</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
         <v>176</v>
@@ -17643,10 +17171,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="Q171" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="R171" t="s">
         <v>791</v>
@@ -17655,7 +17183,7 @@
         <v>791</v>
       </c>
       <c r="AC171" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AD171" t="s">
         <v>791</v>
@@ -17669,7 +17197,7 @@
         <v>404005</v>
       </c>
       <c r="B172" t="s">
-        <v>1799</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
         <v>177</v>
@@ -17702,7 +17230,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="Q172" t="s">
         <v>791</v>
@@ -17728,7 +17256,7 @@
         <v>404006</v>
       </c>
       <c r="B173" t="s">
-        <v>1800</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
         <v>178</v>
@@ -17767,10 +17295,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="Q173" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="R173" t="s">
         <v>791</v>
@@ -17779,7 +17307,7 @@
         <v>791</v>
       </c>
       <c r="AC173" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AD173" t="s">
         <v>791</v>
@@ -17793,7 +17321,7 @@
         <v>404007</v>
       </c>
       <c r="B174" t="s">
-        <v>1801</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
         <v>179</v>
@@ -17832,10 +17360,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="Q174" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="R174" t="s">
         <v>791</v>
@@ -17844,7 +17372,7 @@
         <v>791</v>
       </c>
       <c r="AC174" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AD174" t="s">
         <v>791</v>
@@ -17858,7 +17386,7 @@
         <v>405001</v>
       </c>
       <c r="B175" t="s">
-        <v>1802</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
         <v>180</v>
@@ -17897,10 +17425,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="Q175" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="R175" t="s">
         <v>791</v>
@@ -17909,7 +17437,7 @@
         <v>791</v>
       </c>
       <c r="AC175" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AD175" t="s">
         <v>791</v>
@@ -17923,7 +17451,7 @@
         <v>405002</v>
       </c>
       <c r="B176" t="s">
-        <v>1803</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
         <v>181</v>
@@ -17962,10 +17490,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="Q176" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="R176" t="s">
         <v>791</v>
@@ -17974,7 +17502,7 @@
         <v>791</v>
       </c>
       <c r="AC176" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AD176" t="s">
         <v>791</v>
@@ -17988,7 +17516,7 @@
         <v>405003</v>
       </c>
       <c r="B177" t="s">
-        <v>1804</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
         <v>182</v>
@@ -18027,10 +17555,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="Q177" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="R177" t="s">
         <v>791</v>
@@ -18039,7 +17567,7 @@
         <v>791</v>
       </c>
       <c r="AC177" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AD177" t="s">
         <v>791</v>
@@ -18092,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="Q178" t="s">
         <v>791</v>
@@ -18157,10 +17685,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="Q179" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="R179" t="s">
         <v>791</v>
@@ -18169,7 +17697,7 @@
         <v>791</v>
       </c>
       <c r="AC179" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AD179" t="s">
         <v>791</v>
@@ -18183,7 +17711,7 @@
         <v>405006</v>
       </c>
       <c r="B180" t="s">
-        <v>1805</v>
+        <v>185</v>
       </c>
       <c r="C180" t="s">
         <v>185</v>
@@ -18222,10 +17750,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="Q180" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="R180" t="s">
         <v>791</v>
@@ -18234,7 +17762,7 @@
         <v>791</v>
       </c>
       <c r="AC180" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AD180" t="s">
         <v>791</v>
@@ -18248,7 +17776,7 @@
         <v>405007</v>
       </c>
       <c r="B181" t="s">
-        <v>1806</v>
+        <v>186</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -18290,10 +17818,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="Q181" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="R181" t="s">
         <v>791</v>
@@ -18302,7 +17830,7 @@
         <v>791</v>
       </c>
       <c r="AC181" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AD181" t="s">
         <v>791</v>
@@ -18316,7 +17844,7 @@
         <v>405008</v>
       </c>
       <c r="B182" t="s">
-        <v>1807</v>
+        <v>187</v>
       </c>
       <c r="C182" t="s">
         <v>187</v>
@@ -18349,10 +17877,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="Q182" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="R182" t="s">
         <v>791</v>
@@ -18361,7 +17889,7 @@
         <v>791</v>
       </c>
       <c r="AC182" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AD182" t="s">
         <v>791</v>
@@ -18375,7 +17903,7 @@
         <v>405009</v>
       </c>
       <c r="B183" t="s">
-        <v>1808</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
         <v>188</v>
@@ -18408,10 +17936,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="Q183" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="R183" t="s">
         <v>791</v>
@@ -18420,7 +17948,7 @@
         <v>791</v>
       </c>
       <c r="AC183" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AD183" t="s">
         <v>791</v>
@@ -18434,7 +17962,7 @@
         <v>406001</v>
       </c>
       <c r="B184" t="s">
-        <v>1809</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
         <v>189</v>
@@ -18473,10 +18001,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="Q184" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="R184" t="s">
         <v>791</v>
@@ -18485,7 +18013,7 @@
         <v>791</v>
       </c>
       <c r="AC184" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD184" t="s">
         <v>791</v>
@@ -18499,7 +18027,7 @@
         <v>406002</v>
       </c>
       <c r="B185" t="s">
-        <v>1810</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>190</v>
@@ -18538,10 +18066,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="Q185" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="R185" t="s">
         <v>791</v>
@@ -18550,7 +18078,7 @@
         <v>791</v>
       </c>
       <c r="AC185" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AD185" t="s">
         <v>791</v>
@@ -18564,7 +18092,7 @@
         <v>406003</v>
       </c>
       <c r="B186" t="s">
-        <v>1811</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
         <v>191</v>
@@ -18603,10 +18131,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="Q186" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="R186" t="s">
         <v>791</v>
@@ -18615,7 +18143,7 @@
         <v>791</v>
       </c>
       <c r="AC186" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AD186" t="s">
         <v>791</v>
@@ -18629,7 +18157,7 @@
         <v>406004</v>
       </c>
       <c r="B187" t="s">
-        <v>1812</v>
+        <v>192</v>
       </c>
       <c r="C187" t="s">
         <v>192</v>
@@ -18671,10 +18199,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="Q187" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="R187" t="s">
         <v>791</v>
@@ -18683,7 +18211,7 @@
         <v>791</v>
       </c>
       <c r="AC187" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AD187" t="s">
         <v>791</v>
@@ -18697,7 +18225,7 @@
         <v>406005</v>
       </c>
       <c r="B188" t="s">
-        <v>1813</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
         <v>193</v>
@@ -18736,10 +18264,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="Q188" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="R188" t="s">
         <v>791</v>
@@ -18748,7 +18276,7 @@
         <v>791</v>
       </c>
       <c r="AC188" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AD188" t="s">
         <v>791</v>
@@ -18801,10 +18329,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="Q189" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="R189" t="s">
         <v>791</v>
@@ -18813,7 +18341,7 @@
         <v>791</v>
       </c>
       <c r="AC189" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AD189" t="s">
         <v>791</v>
@@ -18827,7 +18355,7 @@
         <v>407001</v>
       </c>
       <c r="B190" t="s">
-        <v>1814</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
         <v>195</v>
@@ -18860,10 +18388,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="Q190" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="R190" t="s">
         <v>791</v>
@@ -18872,7 +18400,7 @@
         <v>791</v>
       </c>
       <c r="AC190" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD190" t="s">
         <v>791</v>
@@ -18886,7 +18414,7 @@
         <v>407002</v>
       </c>
       <c r="B191" t="s">
-        <v>1815</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
         <v>196</v>
@@ -18919,10 +18447,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="Q191" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="R191" t="s">
         <v>791</v>
@@ -18931,7 +18459,7 @@
         <v>791</v>
       </c>
       <c r="AC191" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AD191" t="s">
         <v>791</v>
@@ -18945,7 +18473,7 @@
         <v>407003</v>
       </c>
       <c r="B192" t="s">
-        <v>1816</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
         <v>197</v>
@@ -18978,10 +18506,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="Q192" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="R192" t="s">
         <v>791</v>
@@ -18990,7 +18518,7 @@
         <v>791</v>
       </c>
       <c r="AC192" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AD192" t="s">
         <v>791</v>
@@ -19004,7 +18532,7 @@
         <v>407004</v>
       </c>
       <c r="B193" t="s">
-        <v>1817</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
         <v>198</v>
@@ -19043,10 +18571,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="Q193" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="R193" t="s">
         <v>791</v>
@@ -19055,7 +18583,7 @@
         <v>791</v>
       </c>
       <c r="AC193" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AD193" t="s">
         <v>791</v>
@@ -19069,7 +18597,7 @@
         <v>407005</v>
       </c>
       <c r="B194" t="s">
-        <v>1818</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
         <v>199</v>
@@ -19102,10 +18630,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q194" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="R194" t="s">
         <v>791</v>
@@ -19114,7 +18642,7 @@
         <v>791</v>
       </c>
       <c r="AC194" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AD194" t="s">
         <v>791</v>
@@ -19128,7 +18656,7 @@
         <v>407006</v>
       </c>
       <c r="B195" t="s">
-        <v>1819</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
         <v>200</v>
@@ -19164,10 +18692,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="Q195" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="R195" t="s">
         <v>791</v>
@@ -19176,7 +18704,7 @@
         <v>791</v>
       </c>
       <c r="AC195" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AD195" t="s">
         <v>791</v>
@@ -19190,7 +18718,7 @@
         <v>407007</v>
       </c>
       <c r="B196" t="s">
-        <v>1820</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
         <v>201</v>
@@ -19226,10 +18754,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="Q196" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="R196" t="s">
         <v>791</v>
@@ -19238,7 +18766,7 @@
         <v>791</v>
       </c>
       <c r="AC196" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AD196" t="s">
         <v>791</v>
@@ -19252,7 +18780,7 @@
         <v>407008</v>
       </c>
       <c r="B197" t="s">
-        <v>1821</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
         <v>202</v>
@@ -19291,10 +18819,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="Q197" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="R197" t="s">
         <v>791</v>
@@ -19303,7 +18831,7 @@
         <v>791</v>
       </c>
       <c r="AC197" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AD197" t="s">
         <v>791</v>
@@ -19317,7 +18845,7 @@
         <v>407009</v>
       </c>
       <c r="B198" t="s">
-        <v>1822</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
         <v>203</v>
@@ -19356,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="Q198" t="s">
         <v>791</v>
@@ -19382,7 +18910,7 @@
         <v>408001</v>
       </c>
       <c r="B199" t="s">
-        <v>1823</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s">
         <v>204</v>
@@ -19421,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="Q199" t="s">
         <v>791</v>
@@ -19447,7 +18975,7 @@
         <v>408002</v>
       </c>
       <c r="B200" t="s">
-        <v>1824</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
         <v>205</v>
@@ -19486,7 +19014,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="Q200" t="s">
         <v>791</v>
@@ -19551,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="Q201" t="s">
         <v>791</v>
@@ -19577,7 +19105,7 @@
         <v>408004</v>
       </c>
       <c r="B202" t="s">
-        <v>1825</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
         <v>207</v>
@@ -19616,10 +19144,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="Q202" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="R202" t="s">
         <v>791</v>
@@ -19628,7 +19156,7 @@
         <v>791</v>
       </c>
       <c r="AC202" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AD202" t="s">
         <v>791</v>
@@ -19642,7 +19170,7 @@
         <v>408005</v>
       </c>
       <c r="B203" t="s">
-        <v>1826</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
         <v>208</v>
@@ -19681,7 +19209,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="Q203" t="s">
         <v>791</v>
@@ -19707,7 +19235,7 @@
         <v>408006</v>
       </c>
       <c r="B204" t="s">
-        <v>1827</v>
+        <v>209</v>
       </c>
       <c r="C204" t="s">
         <v>209</v>
@@ -19740,10 +19268,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="Q204" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="R204" t="s">
         <v>791</v>
@@ -19752,7 +19280,7 @@
         <v>791</v>
       </c>
       <c r="AC204" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AD204" t="s">
         <v>791</v>
@@ -19766,7 +19294,7 @@
         <v>408007</v>
       </c>
       <c r="B205" t="s">
-        <v>1828</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s">
         <v>210</v>
@@ -19799,10 +19327,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="Q205" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="R205" t="s">
         <v>791</v>
@@ -19811,7 +19339,7 @@
         <v>791</v>
       </c>
       <c r="AC205" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AD205" t="s">
         <v>791</v>
@@ -19825,7 +19353,7 @@
         <v>501001</v>
       </c>
       <c r="B206" t="s">
-        <v>1829</v>
+        <v>211</v>
       </c>
       <c r="C206" t="s">
         <v>211</v>
@@ -19867,10 +19395,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="Q206" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="R206" t="s">
         <v>791</v>
@@ -19879,7 +19407,7 @@
         <v>791</v>
       </c>
       <c r="AC206" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AD206" t="s">
         <v>791</v>
@@ -19893,7 +19421,7 @@
         <v>501002</v>
       </c>
       <c r="B207" t="s">
-        <v>1830</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s">
         <v>213</v>
@@ -19935,10 +19463,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="Q207" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="R207" t="s">
         <v>791</v>
@@ -19947,7 +19475,7 @@
         <v>791</v>
       </c>
       <c r="AC207" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AD207" t="s">
         <v>791</v>
@@ -19961,7 +19489,7 @@
         <v>501003</v>
       </c>
       <c r="B208" t="s">
-        <v>1831</v>
+        <v>214</v>
       </c>
       <c r="C208" t="s">
         <v>214</v>
@@ -20003,10 +19531,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="Q208" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="R208" t="s">
         <v>791</v>
@@ -20015,7 +19543,7 @@
         <v>791</v>
       </c>
       <c r="AC208" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AD208" t="s">
         <v>791</v>
@@ -20029,7 +19557,7 @@
         <v>501004</v>
       </c>
       <c r="B209" t="s">
-        <v>1832</v>
+        <v>215</v>
       </c>
       <c r="C209" t="s">
         <v>215</v>
@@ -20071,10 +19599,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="Q209" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="R209" t="s">
         <v>791</v>
@@ -20083,7 +19611,7 @@
         <v>791</v>
       </c>
       <c r="AC209" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AD209" t="s">
         <v>791</v>
@@ -20097,7 +19625,7 @@
         <v>501005</v>
       </c>
       <c r="B210" t="s">
-        <v>1833</v>
+        <v>216</v>
       </c>
       <c r="C210" t="s">
         <v>216</v>
@@ -20133,10 +19661,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="Q210" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="R210" t="s">
         <v>791</v>
@@ -20145,7 +19673,7 @@
         <v>791</v>
       </c>
       <c r="AC210" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AD210" t="s">
         <v>791</v>
@@ -20159,7 +19687,7 @@
         <v>501006</v>
       </c>
       <c r="B211" t="s">
-        <v>1834</v>
+        <v>217</v>
       </c>
       <c r="C211" t="s">
         <v>217</v>
@@ -20201,10 +19729,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="Q211" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="R211" t="s">
         <v>791</v>
@@ -20213,7 +19741,7 @@
         <v>791</v>
       </c>
       <c r="AC211" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AD211" t="s">
         <v>791</v>
@@ -20227,7 +19755,7 @@
         <v>502001</v>
       </c>
       <c r="B212" t="s">
-        <v>1835</v>
+        <v>218</v>
       </c>
       <c r="C212" t="s">
         <v>218</v>
@@ -20266,10 +19794,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="Q212" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="R212" t="s">
         <v>791</v>
@@ -20278,7 +19806,7 @@
         <v>791</v>
       </c>
       <c r="AC212" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AD212" t="s">
         <v>791</v>
@@ -20292,7 +19820,7 @@
         <v>502002</v>
       </c>
       <c r="B213" t="s">
-        <v>1836</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
         <v>219</v>
@@ -20325,10 +19853,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="Q213" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="R213" t="s">
         <v>791</v>
@@ -20337,7 +19865,7 @@
         <v>791</v>
       </c>
       <c r="AC213" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AD213" t="s">
         <v>791</v>
@@ -20351,7 +19879,7 @@
         <v>502003</v>
       </c>
       <c r="B214" t="s">
-        <v>1837</v>
+        <v>220</v>
       </c>
       <c r="C214" t="s">
         <v>220</v>
@@ -20390,10 +19918,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="Q214" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="R214" t="s">
         <v>791</v>
@@ -20402,7 +19930,7 @@
         <v>791</v>
       </c>
       <c r="AC214" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AD214" t="s">
         <v>791</v>
@@ -20416,7 +19944,7 @@
         <v>502004</v>
       </c>
       <c r="B215" t="s">
-        <v>1838</v>
+        <v>221</v>
       </c>
       <c r="C215" t="s">
         <v>221</v>
@@ -20449,10 +19977,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q215" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="R215" t="s">
         <v>791</v>
@@ -20461,7 +19989,7 @@
         <v>791</v>
       </c>
       <c r="AC215" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AD215" t="s">
         <v>791</v>
@@ -20475,7 +20003,7 @@
         <v>502005</v>
       </c>
       <c r="B216" t="s">
-        <v>1839</v>
+        <v>222</v>
       </c>
       <c r="C216" t="s">
         <v>222</v>
@@ -20511,10 +20039,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="Q216" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="R216" t="s">
         <v>791</v>
@@ -20523,7 +20051,7 @@
         <v>791</v>
       </c>
       <c r="AC216" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AD216" t="s">
         <v>791</v>
@@ -20537,7 +20065,7 @@
         <v>503001</v>
       </c>
       <c r="B217" t="s">
-        <v>1840</v>
+        <v>223</v>
       </c>
       <c r="C217" t="s">
         <v>223</v>
@@ -20579,10 +20107,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="Q217" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="R217" t="s">
         <v>791</v>
@@ -20591,7 +20119,7 @@
         <v>791</v>
       </c>
       <c r="AC217" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AD217" t="s">
         <v>791</v>
@@ -20605,7 +20133,7 @@
         <v>503002</v>
       </c>
       <c r="B218" t="s">
-        <v>1841</v>
+        <v>224</v>
       </c>
       <c r="C218" t="s">
         <v>224</v>
@@ -20647,10 +20175,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="Q218" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="R218" t="s">
         <v>791</v>
@@ -20659,7 +20187,7 @@
         <v>791</v>
       </c>
       <c r="AC218" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AD218" t="s">
         <v>791</v>
@@ -20715,10 +20243,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="Q219" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="R219" t="s">
         <v>791</v>
@@ -20727,7 +20255,7 @@
         <v>791</v>
       </c>
       <c r="AC219" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AD219" t="s">
         <v>791</v>
@@ -20741,7 +20269,7 @@
         <v>503004</v>
       </c>
       <c r="B220" t="s">
-        <v>1842</v>
+        <v>226</v>
       </c>
       <c r="C220" t="s">
         <v>226</v>
@@ -20783,10 +20311,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="Q220" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="R220" t="s">
         <v>791</v>
@@ -20795,7 +20323,7 @@
         <v>791</v>
       </c>
       <c r="AC220" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AD220" t="s">
         <v>791</v>
@@ -20809,7 +20337,7 @@
         <v>503005</v>
       </c>
       <c r="B221" t="s">
-        <v>1843</v>
+        <v>227</v>
       </c>
       <c r="C221" t="s">
         <v>227</v>
@@ -20851,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="Q221" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="R221" t="s">
         <v>791</v>
@@ -20863,7 +20391,7 @@
         <v>791</v>
       </c>
       <c r="AC221" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AD221" t="s">
         <v>791</v>
@@ -20877,7 +20405,7 @@
         <v>504001</v>
       </c>
       <c r="B222" t="s">
-        <v>1844</v>
+        <v>228</v>
       </c>
       <c r="C222" t="s">
         <v>228</v>
@@ -20919,10 +20447,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="Q222" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="R222" t="s">
         <v>791</v>
@@ -20931,7 +20459,7 @@
         <v>791</v>
       </c>
       <c r="AC222" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AD222" t="s">
         <v>791</v>
@@ -20945,7 +20473,7 @@
         <v>504002</v>
       </c>
       <c r="B223" t="s">
-        <v>1845</v>
+        <v>229</v>
       </c>
       <c r="C223" t="s">
         <v>229</v>
@@ -20987,10 +20515,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="Q223" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="R223" t="s">
         <v>791</v>
@@ -20999,7 +20527,7 @@
         <v>791</v>
       </c>
       <c r="AC223" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AD223" t="s">
         <v>791</v>
@@ -21013,7 +20541,7 @@
         <v>504003</v>
       </c>
       <c r="B224" t="s">
-        <v>1846</v>
+        <v>230</v>
       </c>
       <c r="C224" t="s">
         <v>230</v>
@@ -21055,10 +20583,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="Q224" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="R224" t="s">
         <v>791</v>
@@ -21067,7 +20595,7 @@
         <v>791</v>
       </c>
       <c r="AC224" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AD224" t="s">
         <v>791</v>
@@ -21081,7 +20609,7 @@
         <v>504004</v>
       </c>
       <c r="B225" t="s">
-        <v>1847</v>
+        <v>231</v>
       </c>
       <c r="C225" t="s">
         <v>231</v>
@@ -21120,10 +20648,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="Q225" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="R225" t="s">
         <v>791</v>
@@ -21132,7 +20660,7 @@
         <v>791</v>
       </c>
       <c r="AC225" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AD225" t="s">
         <v>791</v>
@@ -21146,7 +20674,7 @@
         <v>504005</v>
       </c>
       <c r="B226" t="s">
-        <v>1848</v>
+        <v>232</v>
       </c>
       <c r="C226" t="s">
         <v>232</v>
@@ -21188,10 +20716,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="Q226" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="R226" t="s">
         <v>791</v>
@@ -21200,7 +20728,7 @@
         <v>791</v>
       </c>
       <c r="AC226" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AD226" t="s">
         <v>791</v>
@@ -21253,10 +20781,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="Q227" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="R227" t="s">
         <v>791</v>
@@ -21265,7 +20793,7 @@
         <v>791</v>
       </c>
       <c r="AC227" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AD227" t="s">
         <v>791</v>
@@ -21279,7 +20807,7 @@
         <v>505002</v>
       </c>
       <c r="B228" t="s">
-        <v>1849</v>
+        <v>234</v>
       </c>
       <c r="C228" t="s">
         <v>234</v>
@@ -21318,10 +20846,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="Q228" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="R228" t="s">
         <v>791</v>
@@ -21330,7 +20858,7 @@
         <v>791</v>
       </c>
       <c r="AC228" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AD228" t="s">
         <v>791</v>
@@ -21344,7 +20872,7 @@
         <v>505003</v>
       </c>
       <c r="B229" t="s">
-        <v>1850</v>
+        <v>235</v>
       </c>
       <c r="C229" t="s">
         <v>235</v>
@@ -21383,10 +20911,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="Q229" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="R229" t="s">
         <v>791</v>
@@ -21395,7 +20923,7 @@
         <v>791</v>
       </c>
       <c r="AC229" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AD229" t="s">
         <v>791</v>
@@ -21409,7 +20937,7 @@
         <v>505004</v>
       </c>
       <c r="B230" t="s">
-        <v>1851</v>
+        <v>236</v>
       </c>
       <c r="C230" t="s">
         <v>236</v>
@@ -21442,10 +20970,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="Q230" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="R230" t="s">
         <v>791</v>
@@ -21454,7 +20982,7 @@
         <v>791</v>
       </c>
       <c r="AC230" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AD230" t="s">
         <v>791</v>
@@ -21468,7 +20996,7 @@
         <v>505005</v>
       </c>
       <c r="B231" t="s">
-        <v>1852</v>
+        <v>237</v>
       </c>
       <c r="C231" t="s">
         <v>237</v>
@@ -21507,10 +21035,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="Q231" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="R231" t="s">
         <v>791</v>
@@ -21519,7 +21047,7 @@
         <v>791</v>
       </c>
       <c r="AC231" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AD231" t="s">
         <v>791</v>
@@ -21533,7 +21061,7 @@
         <v>506001</v>
       </c>
       <c r="B232" t="s">
-        <v>1853</v>
+        <v>238</v>
       </c>
       <c r="C232" t="s">
         <v>238</v>
@@ -21572,10 +21100,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="Q232" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="R232" t="s">
         <v>791</v>
@@ -21584,7 +21112,7 @@
         <v>791</v>
       </c>
       <c r="AC232" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AD232" t="s">
         <v>791</v>
@@ -21598,7 +21126,7 @@
         <v>506002</v>
       </c>
       <c r="B233" t="s">
-        <v>1854</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
         <v>239</v>
@@ -21634,10 +21162,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="Q233" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="R233" t="s">
         <v>791</v>
@@ -21646,7 +21174,7 @@
         <v>791</v>
       </c>
       <c r="AC233" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AD233" t="s">
         <v>791</v>
@@ -21660,7 +21188,7 @@
         <v>506003</v>
       </c>
       <c r="B234" t="s">
-        <v>1855</v>
+        <v>240</v>
       </c>
       <c r="C234" t="s">
         <v>240</v>
@@ -21702,10 +21230,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="Q234" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="R234" t="s">
         <v>791</v>
@@ -21714,7 +21242,7 @@
         <v>791</v>
       </c>
       <c r="AC234" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AD234" t="s">
         <v>791</v>
@@ -21728,7 +21256,7 @@
         <v>506004</v>
       </c>
       <c r="B235" t="s">
-        <v>1856</v>
+        <v>241</v>
       </c>
       <c r="C235" t="s">
         <v>241</v>
@@ -21767,10 +21295,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="Q235" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="R235" t="s">
         <v>791</v>
@@ -21779,7 +21307,7 @@
         <v>791</v>
       </c>
       <c r="AC235" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AD235" t="s">
         <v>791</v>
@@ -21793,7 +21321,7 @@
         <v>506005</v>
       </c>
       <c r="B236" t="s">
-        <v>1857</v>
+        <v>242</v>
       </c>
       <c r="C236" t="s">
         <v>242</v>
@@ -21832,10 +21360,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="Q236" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="R236" t="s">
         <v>791</v>
@@ -21844,7 +21372,7 @@
         <v>791</v>
       </c>
       <c r="AC236" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AD236" t="s">
         <v>791</v>
@@ -21858,7 +21386,7 @@
         <v>990001</v>
       </c>
       <c r="B237" t="s">
-        <v>1858</v>
+        <v>243</v>
       </c>
       <c r="C237" t="s">
         <v>243</v>
@@ -21894,13 +21422,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="Q237" t="s">
         <v>791</v>
       </c>
       <c r="R237" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="S237" t="s">
         <v>791</v>
@@ -21909,7 +21437,7 @@
         <v>791</v>
       </c>
       <c r="AD237" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AE237" t="s">
         <v>791</v>
@@ -21920,7 +21448,7 @@
         <v>990002</v>
       </c>
       <c r="B238" t="s">
-        <v>1859</v>
+        <v>244</v>
       </c>
       <c r="C238" t="s">
         <v>244</v>
@@ -21956,13 +21484,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="Q238" t="s">
         <v>791</v>
       </c>
       <c r="R238" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="S238" t="s">
         <v>791</v>
@@ -21971,7 +21499,7 @@
         <v>791</v>
       </c>
       <c r="AD238" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AE238" t="s">
         <v>791</v>
@@ -21982,7 +21510,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1860</v>
+        <v>1635</v>
       </c>
       <c r="C239" t="s">
         <v>245</v>
@@ -22009,13 +21537,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q239" t="s">
         <v>791</v>
       </c>
       <c r="R239" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="S239" t="s">
         <v>791</v>
@@ -22024,7 +21552,7 @@
         <v>791</v>
       </c>
       <c r="AD239" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AE239" t="s">
         <v>791</v>
@@ -22035,7 +21563,7 @@
         <v>990004</v>
       </c>
       <c r="B240" t="s">
-        <v>1861</v>
+        <v>246</v>
       </c>
       <c r="C240" t="s">
         <v>246</v>
@@ -22071,13 +21599,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="Q240" t="s">
         <v>791</v>
       </c>
       <c r="R240" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="S240" t="s">
         <v>791</v>
@@ -22086,7 +21614,7 @@
         <v>791</v>
       </c>
       <c r="AD240" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AE240" t="s">
         <v>791</v>
@@ -22097,7 +21625,7 @@
         <v>990005</v>
       </c>
       <c r="B241" t="s">
-        <v>1862</v>
+        <v>247</v>
       </c>
       <c r="C241" t="s">
         <v>247</v>
@@ -22133,13 +21661,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="Q241" t="s">
         <v>791</v>
       </c>
       <c r="R241" t="s">
-        <v>1910</v>
+        <v>1636</v>
       </c>
       <c r="S241" t="s">
         <v>791</v>
@@ -22148,7 +21676,7 @@
         <v>791</v>
       </c>
       <c r="AD241" t="s">
-        <v>1911</v>
+        <v>1637</v>
       </c>
       <c r="AE241" t="s">
         <v>791</v>
@@ -22159,7 +21687,7 @@
         <v>990006</v>
       </c>
       <c r="B242" t="s">
-        <v>1863</v>
+        <v>248</v>
       </c>
       <c r="C242" t="s">
         <v>248</v>
@@ -22195,13 +21723,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="Q242" t="s">
         <v>791</v>
       </c>
       <c r="R242" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="S242" t="s">
         <v>791</v>
@@ -22210,7 +21738,7 @@
         <v>791</v>
       </c>
       <c r="AD242" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AE242" t="s">
         <v>791</v>
@@ -22221,7 +21749,7 @@
         <v>990007</v>
       </c>
       <c r="B243" t="s">
-        <v>1864</v>
+        <v>249</v>
       </c>
       <c r="C243" t="s">
         <v>249</v>
@@ -22257,7 +21785,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="Q243" t="s">
         <v>791</v>
@@ -22266,7 +21794,7 @@
         <v>791</v>
       </c>
       <c r="S243" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AC243" t="s">
         <v>791</v>
@@ -22275,7 +21803,7 @@
         <v>791</v>
       </c>
       <c r="AE243" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
@@ -22283,7 +21811,7 @@
         <v>990008</v>
       </c>
       <c r="B244" t="s">
-        <v>1865</v>
+        <v>250</v>
       </c>
       <c r="C244" t="s">
         <v>250</v>
@@ -22319,10 +21847,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="Q244" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="R244" t="s">
         <v>791</v>
@@ -22331,7 +21859,7 @@
         <v>791</v>
       </c>
       <c r="AC244" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AD244" t="s">
         <v>791</v>
@@ -22345,7 +21873,7 @@
         <v>990009</v>
       </c>
       <c r="B245" t="s">
-        <v>1866</v>
+        <v>251</v>
       </c>
       <c r="C245" t="s">
         <v>251</v>
@@ -22378,10 +21906,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="Q245" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="R245" t="s">
         <v>791</v>
@@ -22390,7 +21918,7 @@
         <v>791</v>
       </c>
       <c r="AC245" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AD245" t="s">
         <v>791</v>
@@ -22404,7 +21932,7 @@
         <v>990010</v>
       </c>
       <c r="B246" t="s">
-        <v>1867</v>
+        <v>252</v>
       </c>
       <c r="C246" t="s">
         <v>252</v>
@@ -22440,10 +21968,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="Q246" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="R246" t="s">
         <v>791</v>
@@ -22452,7 +21980,7 @@
         <v>791</v>
       </c>
       <c r="AC246" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AD246" t="s">
         <v>791</v>
@@ -22466,7 +21994,7 @@
         <v>990011</v>
       </c>
       <c r="B247" t="s">
-        <v>1868</v>
+        <v>253</v>
       </c>
       <c r="C247" t="s">
         <v>253</v>
@@ -22502,10 +22030,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="Q247" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="R247" t="s">
         <v>791</v>
@@ -22514,7 +22042,7 @@
         <v>791</v>
       </c>
       <c r="AC247" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AD247" t="s">
         <v>791</v>
@@ -22528,7 +22056,7 @@
         <v>990012</v>
       </c>
       <c r="B248" t="s">
-        <v>1869</v>
+        <v>254</v>
       </c>
       <c r="C248" t="s">
         <v>254</v>
@@ -22564,10 +22092,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="Q248" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="R248" t="s">
         <v>791</v>
@@ -22576,7 +22104,7 @@
         <v>791</v>
       </c>
       <c r="AC248" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AD248" t="s">
         <v>791</v>
@@ -22590,7 +22118,7 @@
         <v>990013</v>
       </c>
       <c r="B249" t="s">
-        <v>1870</v>
+        <v>255</v>
       </c>
       <c r="C249" t="s">
         <v>255</v>
@@ -22610,6 +22138,9 @@
       <c r="I249" t="s">
         <v>765</v>
       </c>
+      <c r="K249" t="s">
+        <v>4</v>
+      </c>
       <c r="L249">
         <v>107</v>
       </c>
@@ -22623,22 +22154,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="Q249" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="R249" t="s">
-        <v>791</v>
+        <v>1685</v>
       </c>
       <c r="S249" t="s">
         <v>791</v>
       </c>
       <c r="AC249" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AD249" t="s">
-        <v>791</v>
+        <v>1685</v>
       </c>
       <c r="AE249" t="s">
         <v>791</v>
@@ -22649,7 +22180,7 @@
         <v>990014</v>
       </c>
       <c r="B250" t="s">
-        <v>1871</v>
+        <v>256</v>
       </c>
       <c r="C250" t="s">
         <v>256</v>
@@ -22688,10 +22219,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="Q250" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="R250" t="s">
         <v>791</v>
@@ -22700,7 +22231,7 @@
         <v>791</v>
       </c>
       <c r="AC250" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AD250" t="s">
         <v>791</v>
@@ -22750,10 +22281,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="Q251" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="R251" t="s">
         <v>791</v>
@@ -22762,7 +22293,7 @@
         <v>791</v>
       </c>
       <c r="AC251" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AD251" t="s">
         <v>791</v>
@@ -22776,7 +22307,7 @@
         <v>990016</v>
       </c>
       <c r="B252" t="s">
-        <v>1872</v>
+        <v>258</v>
       </c>
       <c r="C252" t="s">
         <v>258</v>
@@ -22812,10 +22343,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="Q252" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="R252" t="s">
         <v>791</v>
@@ -22824,7 +22355,7 @@
         <v>791</v>
       </c>
       <c r="AC252" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AD252" t="s">
         <v>791</v>
@@ -22838,7 +22369,7 @@
         <v>990017</v>
       </c>
       <c r="B253" t="s">
-        <v>1873</v>
+        <v>259</v>
       </c>
       <c r="C253" t="s">
         <v>259</v>
@@ -22874,10 +22405,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="Q253" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="R253" t="s">
         <v>791</v>
@@ -22886,7 +22417,7 @@
         <v>791</v>
       </c>
       <c r="AC253" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AD253" t="s">
         <v>791</v>
@@ -22900,7 +22431,7 @@
         <v>990018</v>
       </c>
       <c r="B254" t="s">
-        <v>1874</v>
+        <v>260</v>
       </c>
       <c r="C254" t="s">
         <v>260</v>
@@ -22936,10 +22467,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="Q254" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="R254" t="s">
         <v>791</v>
@@ -22948,7 +22479,7 @@
         <v>791</v>
       </c>
       <c r="AC254" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AD254" t="s">
         <v>791</v>
@@ -22962,7 +22493,7 @@
         <v>990019</v>
       </c>
       <c r="B255" t="s">
-        <v>1875</v>
+        <v>261</v>
       </c>
       <c r="C255" t="s">
         <v>261</v>
@@ -22995,10 +22526,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="Q255" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="R255" t="s">
         <v>791</v>
@@ -23007,7 +22538,7 @@
         <v>791</v>
       </c>
       <c r="AC255" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AD255" t="s">
         <v>791</v>
@@ -23021,7 +22552,7 @@
         <v>990020</v>
       </c>
       <c r="B256" t="s">
-        <v>1876</v>
+        <v>262</v>
       </c>
       <c r="C256" t="s">
         <v>262</v>
@@ -23057,10 +22588,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="Q256" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="R256" t="s">
         <v>791</v>
@@ -23069,7 +22600,7 @@
         <v>791</v>
       </c>
       <c r="AC256" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AD256" t="s">
         <v>791</v>
@@ -23083,7 +22614,7 @@
         <v>990021</v>
       </c>
       <c r="B257" t="s">
-        <v>1877</v>
+        <v>263</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -23116,10 +22647,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="Q257" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="R257" t="s">
         <v>791</v>
@@ -23128,7 +22659,7 @@
         <v>791</v>
       </c>
       <c r="AC257" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AD257" t="s">
         <v>791</v>
@@ -23142,7 +22673,7 @@
         <v>990022</v>
       </c>
       <c r="B258" t="s">
-        <v>1878</v>
+        <v>264</v>
       </c>
       <c r="C258" t="s">
         <v>264</v>
@@ -23181,10 +22712,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="Q258" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="R258" t="s">
         <v>791</v>
@@ -23193,7 +22724,7 @@
         <v>791</v>
       </c>
       <c r="AC258" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AD258" t="s">
         <v>791</v>
@@ -23207,7 +22738,7 @@
         <v>990023</v>
       </c>
       <c r="B259" t="s">
-        <v>1879</v>
+        <v>265</v>
       </c>
       <c r="C259" t="s">
         <v>265</v>
@@ -23243,7 +22774,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="Q259" t="s">
         <v>791</v>
@@ -23252,7 +22783,7 @@
         <v>791</v>
       </c>
       <c r="S259" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AC259" t="s">
         <v>791</v>
@@ -23261,7 +22792,7 @@
         <v>791</v>
       </c>
       <c r="AE259" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
@@ -23269,7 +22800,7 @@
         <v>990024</v>
       </c>
       <c r="B260" t="s">
-        <v>1880</v>
+        <v>266</v>
       </c>
       <c r="C260" t="s">
         <v>266</v>
@@ -23302,10 +22833,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="Q260" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="R260" t="s">
         <v>791</v>
@@ -23314,7 +22845,7 @@
         <v>791</v>
       </c>
       <c r="AC260" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AD260" t="s">
         <v>791</v>
@@ -23328,7 +22859,7 @@
         <v>990025</v>
       </c>
       <c r="B261" t="s">
-        <v>1881</v>
+        <v>267</v>
       </c>
       <c r="C261" t="s">
         <v>267</v>
@@ -23361,10 +22892,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="Q261" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="R261" t="s">
         <v>791</v>
@@ -23373,7 +22904,7 @@
         <v>791</v>
       </c>
       <c r="AC261" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AD261" t="s">
         <v>791</v>
@@ -23387,7 +22918,7 @@
         <v>990026</v>
       </c>
       <c r="B262" t="s">
-        <v>1882</v>
+        <v>268</v>
       </c>
       <c r="C262" t="s">
         <v>268</v>
@@ -23423,10 +22954,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="Q262" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="R262" t="s">
         <v>791</v>
@@ -23435,7 +22966,7 @@
         <v>791</v>
       </c>
       <c r="AC262" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AD262" t="s">
         <v>791</v>
@@ -23449,7 +22980,7 @@
         <v>990027</v>
       </c>
       <c r="B263" t="s">
-        <v>1883</v>
+        <v>269</v>
       </c>
       <c r="C263" t="s">
         <v>269</v>
@@ -23485,10 +23016,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="Q263" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="R263" t="s">
         <v>791</v>
@@ -23497,7 +23028,7 @@
         <v>791</v>
       </c>
       <c r="AC263" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AD263" t="s">
         <v>791</v>
@@ -23511,7 +23042,7 @@
         <v>990028</v>
       </c>
       <c r="B264" t="s">
-        <v>1884</v>
+        <v>270</v>
       </c>
       <c r="C264" t="s">
         <v>270</v>
@@ -23547,10 +23078,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="Q264" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="R264" t="s">
         <v>791</v>
@@ -23559,7 +23090,7 @@
         <v>791</v>
       </c>
       <c r="AC264" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AD264" t="s">
         <v>791</v>
@@ -23573,7 +23104,7 @@
         <v>990029</v>
       </c>
       <c r="B265" t="s">
-        <v>1885</v>
+        <v>271</v>
       </c>
       <c r="C265" t="s">
         <v>271</v>
@@ -23606,10 +23137,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="Q265" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="R265" t="s">
         <v>791</v>
@@ -23618,7 +23149,7 @@
         <v>791</v>
       </c>
       <c r="AC265" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AD265" t="s">
         <v>791</v>
@@ -23632,7 +23163,7 @@
         <v>990030</v>
       </c>
       <c r="B266" t="s">
-        <v>1886</v>
+        <v>272</v>
       </c>
       <c r="C266" t="s">
         <v>272</v>
@@ -23668,10 +23199,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="Q266" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="R266" t="s">
         <v>791</v>
@@ -23680,7 +23211,7 @@
         <v>791</v>
       </c>
       <c r="AC266" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AD266" t="s">
         <v>791</v>
@@ -23694,7 +23225,7 @@
         <v>990031</v>
       </c>
       <c r="B267" t="s">
-        <v>1887</v>
+        <v>273</v>
       </c>
       <c r="C267" t="s">
         <v>273</v>
@@ -23730,7 +23261,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="Q267" t="s">
         <v>791</v>
@@ -23739,7 +23270,7 @@
         <v>791</v>
       </c>
       <c r="S267" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AC267" t="s">
         <v>791</v>
@@ -23748,7 +23279,7 @@
         <v>791</v>
       </c>
       <c r="AE267" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
@@ -23756,7 +23287,7 @@
         <v>990032</v>
       </c>
       <c r="B268" t="s">
-        <v>1888</v>
+        <v>274</v>
       </c>
       <c r="C268" t="s">
         <v>274</v>
@@ -23792,25 +23323,25 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="Q268" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="R268" t="s">
         <v>791</v>
       </c>
       <c r="S268" t="s">
-        <v>791</v>
+        <v>1775</v>
       </c>
       <c r="AC268" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AD268" t="s">
         <v>791</v>
       </c>
       <c r="AE268" t="s">
-        <v>791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.25">
@@ -23818,7 +23349,7 @@
         <v>990033</v>
       </c>
       <c r="B269" t="s">
-        <v>1889</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
         <v>275</v>
@@ -23851,10 +23382,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="Q269" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R269" t="s">
         <v>791</v>
@@ -23863,7 +23394,7 @@
         <v>791</v>
       </c>
       <c r="AC269" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AD269" t="s">
         <v>791</v>
@@ -23877,7 +23408,7 @@
         <v>990034</v>
       </c>
       <c r="B270" t="s">
-        <v>1890</v>
+        <v>276</v>
       </c>
       <c r="C270" t="s">
         <v>276</v>
@@ -23913,10 +23444,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="Q270" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="R270" t="s">
         <v>791</v>
@@ -23925,7 +23456,7 @@
         <v>791</v>
       </c>
       <c r="AC270" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AD270" t="s">
         <v>791</v>
@@ -23939,7 +23470,7 @@
         <v>990035</v>
       </c>
       <c r="B271" t="s">
-        <v>1891</v>
+        <v>277</v>
       </c>
       <c r="C271" t="s">
         <v>277</v>
@@ -23981,10 +23512,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="Q271" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="R271" t="s">
         <v>791</v>
@@ -23993,7 +23524,7 @@
         <v>791</v>
       </c>
       <c r="AC271" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AD271" t="s">
         <v>791</v>
@@ -24007,7 +23538,7 @@
         <v>990036</v>
       </c>
       <c r="B272" t="s">
-        <v>1892</v>
+        <v>278</v>
       </c>
       <c r="C272" t="s">
         <v>278</v>
@@ -24040,10 +23571,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="Q272" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="R272" t="s">
         <v>791</v>
@@ -24052,7 +23583,7 @@
         <v>791</v>
       </c>
       <c r="AC272" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AD272" t="s">
         <v>791</v>
@@ -24066,7 +23597,7 @@
         <v>990037</v>
       </c>
       <c r="B273" t="s">
-        <v>1893</v>
+        <v>279</v>
       </c>
       <c r="C273" t="s">
         <v>279</v>
@@ -24105,10 +23636,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="Q273" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="R273" t="s">
         <v>791</v>
@@ -24117,7 +23648,7 @@
         <v>791</v>
       </c>
       <c r="AC273" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AD273" t="s">
         <v>791</v>
@@ -24131,7 +23662,7 @@
         <v>990038</v>
       </c>
       <c r="B274" t="s">
-        <v>1894</v>
+        <v>280</v>
       </c>
       <c r="C274" t="s">
         <v>280</v>
@@ -24170,10 +23701,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="Q274" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="R274" t="s">
         <v>791</v>
@@ -24182,7 +23713,7 @@
         <v>791</v>
       </c>
       <c r="AC274" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AD274" t="s">
         <v>791</v>
@@ -24229,10 +23760,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="Q275" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="R275" t="s">
         <v>791</v>
@@ -24241,7 +23772,7 @@
         <v>791</v>
       </c>
       <c r="AC275" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AD275" t="s">
         <v>791</v>
@@ -24255,7 +23786,7 @@
         <v>990040</v>
       </c>
       <c r="B276" t="s">
-        <v>1895</v>
+        <v>282</v>
       </c>
       <c r="C276" t="s">
         <v>282</v>
@@ -24288,10 +23819,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="Q276" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="R276" t="s">
         <v>791</v>
@@ -24300,7 +23831,7 @@
         <v>791</v>
       </c>
       <c r="AC276" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AD276" t="s">
         <v>791</v>
@@ -24314,7 +23845,7 @@
         <v>990041</v>
       </c>
       <c r="B277" t="s">
-        <v>1896</v>
+        <v>283</v>
       </c>
       <c r="C277" t="s">
         <v>283</v>
@@ -24347,10 +23878,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="Q277" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="R277" t="s">
         <v>791</v>
@@ -24359,7 +23890,7 @@
         <v>791</v>
       </c>
       <c r="AC277" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AD277" t="s">
         <v>791</v>
@@ -24373,7 +23904,7 @@
         <v>990042</v>
       </c>
       <c r="B278" t="s">
-        <v>1897</v>
+        <v>284</v>
       </c>
       <c r="C278" t="s">
         <v>284</v>
@@ -24406,10 +23937,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="Q278" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="R278" t="s">
         <v>791</v>
@@ -24418,7 +23949,7 @@
         <v>791</v>
       </c>
       <c r="AC278" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AD278" t="s">
         <v>791</v>
@@ -24432,7 +23963,7 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1898</v>
+        <v>285</v>
       </c>
       <c r="C279" t="s">
         <v>285</v>
@@ -24465,10 +23996,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="Q279" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="R279" t="s">
         <v>791</v>
@@ -24477,7 +24008,7 @@
         <v>791</v>
       </c>
       <c r="AC279" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AD279" t="s">
         <v>791</v>
@@ -24491,7 +24022,7 @@
         <v>990044</v>
       </c>
       <c r="B280" t="s">
-        <v>1899</v>
+        <v>286</v>
       </c>
       <c r="C280" t="s">
         <v>286</v>
@@ -24524,10 +24055,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="Q280" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="R280" t="s">
         <v>791</v>
@@ -24536,7 +24067,7 @@
         <v>791</v>
       </c>
       <c r="AC280" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AD280" t="s">
         <v>791</v>
@@ -24550,7 +24081,7 @@
         <v>990045</v>
       </c>
       <c r="B281" t="s">
-        <v>1900</v>
+        <v>287</v>
       </c>
       <c r="C281" t="s">
         <v>287</v>
@@ -24583,10 +24114,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="Q281" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="R281" t="s">
         <v>791</v>
@@ -24595,7 +24126,7 @@
         <v>791</v>
       </c>
       <c r="AC281" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AD281" t="s">
         <v>791</v>
@@ -24642,10 +24173,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="Q282" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="R282" t="s">
         <v>791</v>
@@ -24654,7 +24185,7 @@
         <v>791</v>
       </c>
       <c r="AC282" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AD282" t="s">
         <v>791</v>
@@ -24668,7 +24199,7 @@
         <v>990047</v>
       </c>
       <c r="B283" t="s">
-        <v>1901</v>
+        <v>289</v>
       </c>
       <c r="C283" t="s">
         <v>289</v>
@@ -24701,10 +24232,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="Q283" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="R283" t="s">
         <v>791</v>
@@ -24713,7 +24244,7 @@
         <v>791</v>
       </c>
       <c r="AC283" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AD283" t="s">
         <v>791</v>
@@ -24727,7 +24258,7 @@
         <v>990048</v>
       </c>
       <c r="B284" t="s">
-        <v>1902</v>
+        <v>290</v>
       </c>
       <c r="C284" t="s">
         <v>290</v>
@@ -24760,10 +24291,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="Q284" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="R284" t="s">
         <v>791</v>
@@ -24772,7 +24303,7 @@
         <v>791</v>
       </c>
       <c r="AC284" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AD284" t="s">
         <v>791</v>
@@ -24786,7 +24317,7 @@
         <v>990049</v>
       </c>
       <c r="B285" t="s">
-        <v>1903</v>
+        <v>291</v>
       </c>
       <c r="C285" t="s">
         <v>291</v>
@@ -24819,10 +24350,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="Q285" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="R285" t="s">
         <v>791</v>
@@ -24831,7 +24362,7 @@
         <v>791</v>
       </c>
       <c r="AC285" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AD285" t="s">
         <v>791</v>
@@ -24845,7 +24376,7 @@
         <v>990050</v>
       </c>
       <c r="B286" t="s">
-        <v>1904</v>
+        <v>292</v>
       </c>
       <c r="C286" t="s">
         <v>292</v>
@@ -24878,10 +24409,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="Q286" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="R286" t="s">
         <v>791</v>
@@ -24890,7 +24421,7 @@
         <v>791</v>
       </c>
       <c r="AC286" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AD286" t="s">
         <v>791</v>
@@ -24904,7 +24435,7 @@
         <v>990051</v>
       </c>
       <c r="B287" t="s">
-        <v>1905</v>
+        <v>293</v>
       </c>
       <c r="C287" t="s">
         <v>293</v>
@@ -24937,10 +24468,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="Q287" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="R287" t="s">
         <v>791</v>
@@ -24949,7 +24480,7 @@
         <v>791</v>
       </c>
       <c r="AC287" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AD287" t="s">
         <v>791</v>
@@ -24963,7 +24494,7 @@
         <v>990052</v>
       </c>
       <c r="B288" t="s">
-        <v>1906</v>
+        <v>294</v>
       </c>
       <c r="C288" t="s">
         <v>294</v>
@@ -24996,10 +24527,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="Q288" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="R288" t="s">
         <v>791</v>
@@ -25008,7 +24539,7 @@
         <v>791</v>
       </c>
       <c r="AC288" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AD288" t="s">
         <v>791</v>
@@ -25022,7 +24553,7 @@
         <v>990053</v>
       </c>
       <c r="B289" t="s">
-        <v>1907</v>
+        <v>295</v>
       </c>
       <c r="C289" t="s">
         <v>295</v>
@@ -25058,10 +24589,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="Q289" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="R289" t="s">
         <v>791</v>
@@ -25070,7 +24601,7 @@
         <v>791</v>
       </c>
       <c r="AC289" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AD289" t="s">
         <v>791</v>
@@ -25084,7 +24615,7 @@
         <v>990054</v>
       </c>
       <c r="B290" t="s">
-        <v>1908</v>
+        <v>296</v>
       </c>
       <c r="C290" t="s">
         <v>296</v>
@@ -25120,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="Q290" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="R290" t="s">
         <v>791</v>
@@ -25132,7 +24663,7 @@
         <v>791</v>
       </c>
       <c r="AC290" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AD290" t="s">
         <v>791</v>
@@ -25146,7 +24677,7 @@
         <v>990055</v>
       </c>
       <c r="B291" t="s">
-        <v>1909</v>
+        <v>297</v>
       </c>
       <c r="C291" t="s">
         <v>297</v>
@@ -25182,10 +24713,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="Q291" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="R291" t="s">
         <v>791</v>
@@ -25194,7 +24725,7 @@
         <v>791</v>
       </c>
       <c r="AC291" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AD291" t="s">
         <v>791</v>
@@ -25202,10 +24733,951 @@
       <c r="AE291" t="s">
         <v>791</v>
       </c>
+    </row>
+    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>990056</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E292" t="s">
+        <v>40</v>
+      </c>
+      <c r="G292" t="s">
+        <v>760</v>
+      </c>
+      <c r="H292" t="s">
+        <v>766</v>
+      </c>
+      <c r="I292" t="s">
+        <v>767</v>
+      </c>
+      <c r="J292" t="s">
+        <v>762</v>
+      </c>
+      <c r="K292" t="s">
+        <v>4</v>
+      </c>
+      <c r="L292">
+        <v>111</v>
+      </c>
+      <c r="M292">
+        <v>4</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="b">
+        <v>1</v>
+      </c>
+      <c r="P292" t="s">
+        <v>1692</v>
+      </c>
+      <c r="R292" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>990057</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D293" t="s">
+        <v>353</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F293" s="5">
+        <v>34914</v>
+      </c>
+      <c r="G293" t="s">
+        <v>768</v>
+      </c>
+      <c r="H293" t="s">
+        <v>764</v>
+      </c>
+      <c r="I293" t="s">
+        <v>764</v>
+      </c>
+      <c r="J293" t="s">
+        <v>762</v>
+      </c>
+      <c r="K293" t="s">
+        <v>4</v>
+      </c>
+      <c r="L293">
+        <v>107</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="b">
+        <v>1</v>
+      </c>
+      <c r="P293" t="s">
+        <v>1693</v>
+      </c>
+      <c r="R293" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>990058</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E294" t="s">
+        <v>40</v>
+      </c>
+      <c r="F294" s="5">
+        <v>35016</v>
+      </c>
+      <c r="G294" t="s">
+        <v>760</v>
+      </c>
+      <c r="H294" t="s">
+        <v>766</v>
+      </c>
+      <c r="I294" t="s">
+        <v>769</v>
+      </c>
+      <c r="J294" t="s">
+        <v>762</v>
+      </c>
+      <c r="K294" t="s">
+        <v>4</v>
+      </c>
+      <c r="L294">
+        <v>107</v>
+      </c>
+      <c r="M294">
+        <v>5</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294" t="b">
+        <v>1</v>
+      </c>
+      <c r="P294" t="s">
+        <v>1694</v>
+      </c>
+      <c r="R294" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>990059</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D295" t="s">
+        <v>344</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F295" s="5">
+        <v>34884</v>
+      </c>
+      <c r="G295" t="s">
+        <v>770</v>
+      </c>
+      <c r="H295" t="s">
+        <v>764</v>
+      </c>
+      <c r="I295" t="s">
+        <v>764</v>
+      </c>
+      <c r="J295" t="s">
+        <v>762</v>
+      </c>
+      <c r="K295" t="s">
+        <v>4</v>
+      </c>
+      <c r="L295">
+        <v>103</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295" t="b">
+        <v>1</v>
+      </c>
+      <c r="P295" t="s">
+        <v>1695</v>
+      </c>
+      <c r="R295" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>990060</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F296" s="5">
+        <v>34133</v>
+      </c>
+      <c r="G296" t="s">
+        <v>760</v>
+      </c>
+      <c r="H296" t="s">
+        <v>764</v>
+      </c>
+      <c r="I296" t="s">
+        <v>764</v>
+      </c>
+      <c r="J296" t="s">
+        <v>762</v>
+      </c>
+      <c r="K296" t="s">
+        <v>4</v>
+      </c>
+      <c r="L296">
+        <v>114</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="b">
+        <v>1</v>
+      </c>
+      <c r="P296" t="s">
+        <v>1696</v>
+      </c>
+      <c r="R296" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>990061</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F297" s="5">
+        <v>34115</v>
+      </c>
+      <c r="G297" t="s">
+        <v>760</v>
+      </c>
+      <c r="H297" t="s">
+        <v>761</v>
+      </c>
+      <c r="I297" t="s">
+        <v>761</v>
+      </c>
+      <c r="J297" t="s">
+        <v>762</v>
+      </c>
+      <c r="K297" t="s">
+        <v>4</v>
+      </c>
+      <c r="L297">
+        <v>113</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="b">
+        <v>1</v>
+      </c>
+      <c r="P297" t="s">
+        <v>1697</v>
+      </c>
+      <c r="R297" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>990062</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G298" t="s">
+        <v>768</v>
+      </c>
+      <c r="H298" t="s">
+        <v>761</v>
+      </c>
+      <c r="I298" t="s">
+        <v>761</v>
+      </c>
+      <c r="J298" t="s">
+        <v>762</v>
+      </c>
+      <c r="K298" t="s">
+        <v>4</v>
+      </c>
+      <c r="L298">
+        <v>104</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>4</v>
+      </c>
+      <c r="O298" t="b">
+        <v>1</v>
+      </c>
+      <c r="P298" t="s">
+        <v>1698</v>
+      </c>
+      <c r="R298" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>990063</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D299" t="s">
+        <v>344</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F299" s="5">
+        <v>35040</v>
+      </c>
+      <c r="G299" t="s">
+        <v>770</v>
+      </c>
+      <c r="H299" t="s">
+        <v>765</v>
+      </c>
+      <c r="I299" t="s">
+        <v>765</v>
+      </c>
+      <c r="J299" t="s">
+        <v>762</v>
+      </c>
+      <c r="K299" t="s">
+        <v>4</v>
+      </c>
+      <c r="L299">
+        <v>108</v>
+      </c>
+      <c r="M299">
+        <v>3</v>
+      </c>
+      <c r="N299">
+        <v>4</v>
+      </c>
+      <c r="O299" t="b">
+        <v>1</v>
+      </c>
+      <c r="P299" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>990064</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F300" s="5">
+        <v>34311</v>
+      </c>
+      <c r="G300" t="s">
+        <v>778</v>
+      </c>
+      <c r="H300" t="s">
+        <v>766</v>
+      </c>
+      <c r="I300" t="s">
+        <v>769</v>
+      </c>
+      <c r="J300" t="s">
+        <v>762</v>
+      </c>
+      <c r="K300" t="s">
+        <v>32</v>
+      </c>
+      <c r="L300">
+        <v>207</v>
+      </c>
+      <c r="M300">
+        <v>5</v>
+      </c>
+      <c r="N300">
+        <v>4</v>
+      </c>
+      <c r="O300" t="b">
+        <v>1</v>
+      </c>
+      <c r="P300" t="s">
+        <v>1750</v>
+      </c>
+      <c r="S300" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>990065</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F301" s="5">
+        <v>36707</v>
+      </c>
+      <c r="G301" t="s">
+        <v>774</v>
+      </c>
+      <c r="H301" t="s">
+        <v>766</v>
+      </c>
+      <c r="I301" t="s">
+        <v>769</v>
+      </c>
+      <c r="J301" t="s">
+        <v>762</v>
+      </c>
+      <c r="K301" t="s">
+        <v>32</v>
+      </c>
+      <c r="L301">
+        <v>210</v>
+      </c>
+      <c r="M301">
+        <v>5</v>
+      </c>
+      <c r="N301">
+        <v>3</v>
+      </c>
+      <c r="O301" t="b">
+        <v>1</v>
+      </c>
+      <c r="P301" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S301" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>990066</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D302" t="s">
+        <v>381</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H302" t="s">
+        <v>766</v>
+      </c>
+      <c r="I302" t="s">
+        <v>767</v>
+      </c>
+      <c r="J302" t="s">
+        <v>762</v>
+      </c>
+      <c r="K302" t="s">
+        <v>32</v>
+      </c>
+      <c r="L302">
+        <v>204</v>
+      </c>
+      <c r="M302">
+        <v>4</v>
+      </c>
+      <c r="N302">
+        <v>2</v>
+      </c>
+      <c r="O302" t="b">
+        <v>1</v>
+      </c>
+      <c r="P302" t="s">
+        <v>1752</v>
+      </c>
+      <c r="S302" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>990067</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F303" s="5">
+        <v>35111</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H303" t="s">
+        <v>761</v>
+      </c>
+      <c r="I303" t="s">
+        <v>761</v>
+      </c>
+      <c r="J303" t="s">
+        <v>762</v>
+      </c>
+      <c r="K303" t="s">
+        <v>32</v>
+      </c>
+      <c r="L303">
+        <v>206</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="b">
+        <v>1</v>
+      </c>
+      <c r="P303" t="s">
+        <v>1753</v>
+      </c>
+      <c r="S303" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>990068</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F304" s="5">
+        <v>35556</v>
+      </c>
+      <c r="G304" t="s">
+        <v>763</v>
+      </c>
+      <c r="H304" t="s">
+        <v>764</v>
+      </c>
+      <c r="I304" t="s">
+        <v>764</v>
+      </c>
+      <c r="J304" t="s">
+        <v>762</v>
+      </c>
+      <c r="K304" t="s">
+        <v>32</v>
+      </c>
+      <c r="N304">
+        <v>3</v>
+      </c>
+      <c r="O304" t="b">
+        <v>1</v>
+      </c>
+      <c r="P304" t="s">
+        <v>1754</v>
+      </c>
+      <c r="S304" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>990069</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D305" t="s">
+        <v>396</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F305" s="5">
+        <v>35468</v>
+      </c>
+      <c r="G305" t="s">
+        <v>784</v>
+      </c>
+      <c r="H305" t="s">
+        <v>765</v>
+      </c>
+      <c r="I305" t="s">
+        <v>765</v>
+      </c>
+      <c r="J305" t="s">
+        <v>762</v>
+      </c>
+      <c r="K305" t="s">
+        <v>32</v>
+      </c>
+      <c r="L305">
+        <v>205</v>
+      </c>
+      <c r="M305">
+        <v>3</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305" t="b">
+        <v>1</v>
+      </c>
+      <c r="P305" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S305" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AE305" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>990070</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F306" s="5">
+        <v>36623</v>
+      </c>
+      <c r="G306" t="s">
+        <v>795</v>
+      </c>
+      <c r="H306" t="s">
+        <v>766</v>
+      </c>
+      <c r="I306" t="s">
+        <v>767</v>
+      </c>
+      <c r="J306" t="s">
+        <v>762</v>
+      </c>
+      <c r="K306" t="s">
+        <v>32</v>
+      </c>
+      <c r="L306">
+        <v>205</v>
+      </c>
+      <c r="M306">
+        <v>4</v>
+      </c>
+      <c r="N306">
+        <v>2</v>
+      </c>
+      <c r="O306" t="b">
+        <v>1</v>
+      </c>
+      <c r="P306" t="s">
+        <v>1756</v>
+      </c>
+      <c r="S306" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>990071</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F307" s="5">
+        <v>34397</v>
+      </c>
+      <c r="G307" t="s">
+        <v>775</v>
+      </c>
+      <c r="H307" t="s">
+        <v>766</v>
+      </c>
+      <c r="I307" t="s">
+        <v>769</v>
+      </c>
+      <c r="J307" t="s">
+        <v>762</v>
+      </c>
+      <c r="K307" t="s">
+        <v>32</v>
+      </c>
+      <c r="L307">
+        <v>205</v>
+      </c>
+      <c r="M307">
+        <v>5</v>
+      </c>
+      <c r="N307">
+        <v>3</v>
+      </c>
+      <c r="O307" t="b">
+        <v>1</v>
+      </c>
+      <c r="P307" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S307" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>990072</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F308" s="5">
+        <v>34582</v>
+      </c>
+      <c r="G308" t="s">
+        <v>781</v>
+      </c>
+      <c r="H308" t="s">
+        <v>764</v>
+      </c>
+      <c r="I308" t="s">
+        <v>764</v>
+      </c>
+      <c r="J308" t="s">
+        <v>762</v>
+      </c>
+      <c r="K308" t="s">
+        <v>32</v>
+      </c>
+      <c r="L308">
+        <v>205</v>
+      </c>
+      <c r="M308">
+        <v>2</v>
+      </c>
+      <c r="N308">
+        <v>3</v>
+      </c>
+      <c r="O308" t="b">
+        <v>1</v>
+      </c>
+      <c r="P308" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN291" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDC77D-8EC0-4F8A-8159-009E9C65FABC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="1786">
   <si>
     <t>nickName</t>
   </si>
@@ -5380,6 +5381,12 @@
   </si>
   <si>
     <t>minitroupax_2018.png</t>
+  </si>
+  <si>
+    <t>[231125973]</t>
+  </si>
+  <si>
+    <t>[94987702]</t>
   </si>
 </sst>
 </file>
@@ -5764,10 +5771,10 @@
   <dimension ref="A1:AN313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P194" sqref="P194"/>
+      <selection pane="bottomRight" activeCell="AE308" sqref="AE308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25658,6 +25665,12 @@
       <c r="P308" t="s">
         <v>1758</v>
       </c>
+      <c r="S308" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AE308" t="s">
+        <v>1785</v>
+      </c>
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDC77D-8EC0-4F8A-8159-009E9C65FABC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA59246-4FD1-46A0-AED0-E615BF2AF3DE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2470,12 +2470,6 @@
     <t>[2648]</t>
   </si>
   <si>
-    <t>[33543361]</t>
-  </si>
-  <si>
-    <t>[20533841]</t>
-  </si>
-  <si>
     <t>[236744709]</t>
   </si>
   <si>
@@ -2566,12 +2560,6 @@
     <t>[57019107, 65389101]</t>
   </si>
   <si>
-    <t>[205220802, 35800745, 237747507]</t>
-  </si>
-  <si>
-    <t>[42762376, 22140119, 85269314]</t>
-  </si>
-  <si>
     <t>[218348027, 227437375, 219382358]</t>
   </si>
   <si>
@@ -3052,9 +3040,6 @@
     <t>[13574172, 39010126]</t>
   </si>
   <si>
-    <t>[27971322, 54870579]</t>
-  </si>
-  <si>
     <t>[4460427, 1135567]</t>
   </si>
   <si>
@@ -3979,9 +3964,6 @@
     <t>skt_peanut_2017.png</t>
   </si>
   <si>
-    <t>[204333883, 208719067]</t>
-  </si>
-  <si>
     <t>skt_faker_2017.png</t>
   </si>
   <si>
@@ -5387,6 +5369,24 @@
   </si>
   <si>
     <t>[94987702]</t>
+  </si>
+  <si>
+    <t>[205220802, 35800745, 237747507,243539072]</t>
+  </si>
+  <si>
+    <t>[42762376, 22140119, 85269314,91429124]</t>
+  </si>
+  <si>
+    <t>[33543361,197179]</t>
+  </si>
+  <si>
+    <t>[20533841,170340]</t>
+  </si>
+  <si>
+    <t>[204333883, 208719067,210307159]</t>
+  </si>
+  <si>
+    <t>[27971322, 54870579,67700396]</t>
   </si>
 </sst>
 </file>
@@ -5771,10 +5771,10 @@
   <dimension ref="A1:AN313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R292" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE308" sqref="AE308"/>
+      <selection pane="bottomRight" activeCell="AC122" sqref="AC122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="Q2" t="s">
         <v>791</v>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="Q3" t="s">
         <v>791</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="Q4" t="s">
         <v>791</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="Q5" t="s">
         <v>791</v>
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="Q6" t="s">
         <v>791</v>
@@ -6317,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="Q7" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="R7" t="s">
         <v>806</v>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="Q8" t="s">
         <v>791</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="Q9" t="s">
         <v>791</v>
@@ -6479,7 +6479,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6518,13 +6518,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="Q10" t="s">
         <v>791</v>
       </c>
       <c r="R10" t="s">
-        <v>813</v>
+        <v>1782</v>
       </c>
       <c r="S10" t="s">
         <v>791</v>
@@ -6533,7 +6533,7 @@
         <v>791</v>
       </c>
       <c r="AD10" t="s">
-        <v>814</v>
+        <v>1783</v>
       </c>
       <c r="AE10" t="s">
         <v>791</v>
@@ -6586,22 +6586,22 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="Q11" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="R11" t="s">
+        <v>813</v>
+      </c>
+      <c r="S11" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>814</v>
+      </c>
+      <c r="AD11" t="s">
         <v>815</v>
-      </c>
-      <c r="S11" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>816</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>817</v>
       </c>
       <c r="AE11" t="s">
         <v>791</v>
@@ -6654,13 +6654,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="Q12" t="s">
         <v>791</v>
       </c>
       <c r="R12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="S12" t="s">
         <v>791</v>
@@ -6669,7 +6669,7 @@
         <v>791</v>
       </c>
       <c r="AD12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AE12" t="s">
         <v>791</v>
@@ -6719,13 +6719,13 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="Q13" t="s">
         <v>791</v>
       </c>
       <c r="R13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="S13" t="s">
         <v>791</v>
@@ -6734,7 +6734,7 @@
         <v>791</v>
       </c>
       <c r="AD13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AE13" t="s">
         <v>791</v>
@@ -6784,13 +6784,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="Q14" t="s">
         <v>791</v>
       </c>
       <c r="R14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="S14" t="s">
         <v>791</v>
@@ -6799,7 +6799,7 @@
         <v>791</v>
       </c>
       <c r="AD14" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AE14" t="s">
         <v>791</v>
@@ -6852,13 +6852,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="Q15" t="s">
         <v>791</v>
       </c>
       <c r="R15" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S15" t="s">
         <v>791</v>
@@ -6867,7 +6867,7 @@
         <v>791</v>
       </c>
       <c r="AD15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AE15" t="s">
         <v>791</v>
@@ -6920,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="Q16" t="s">
         <v>791</v>
       </c>
       <c r="R16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="S16" t="s">
         <v>791</v>
@@ -6935,7 +6935,7 @@
         <v>791</v>
       </c>
       <c r="AD16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AE16" t="s">
         <v>791</v>
@@ -6988,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="Q17" t="s">
         <v>791</v>
       </c>
       <c r="R17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="S17" t="s">
         <v>791</v>
@@ -7003,7 +7003,7 @@
         <v>791</v>
       </c>
       <c r="AD17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AE17" t="s">
         <v>791</v>
@@ -7053,13 +7053,13 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="Q18" t="s">
         <v>791</v>
       </c>
       <c r="R18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="S18" t="s">
         <v>791</v>
@@ -7068,7 +7068,7 @@
         <v>791</v>
       </c>
       <c r="AD18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AE18" t="s">
         <v>791</v>
@@ -7121,25 +7121,25 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="Q19" t="s">
         <v>791</v>
       </c>
       <c r="R19" t="s">
+        <v>830</v>
+      </c>
+      <c r="S19" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>791</v>
+      </c>
+      <c r="AD19" t="s">
         <v>832</v>
       </c>
-      <c r="S19" t="s">
+      <c r="AE19" t="s">
         <v>833</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>834</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -7189,13 +7189,13 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="Q20" t="s">
         <v>791</v>
       </c>
       <c r="R20" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="S20" t="s">
         <v>791</v>
@@ -7204,7 +7204,7 @@
         <v>791</v>
       </c>
       <c r="AD20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AE20" t="s">
         <v>791</v>
@@ -7257,13 +7257,13 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="Q21" t="s">
         <v>791</v>
       </c>
       <c r="R21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="S21" t="s">
         <v>791</v>
@@ -7272,7 +7272,7 @@
         <v>791</v>
       </c>
       <c r="AD21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AE21" t="s">
         <v>791</v>
@@ -7325,22 +7325,22 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="Q22" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="R22" t="s">
+        <v>838</v>
+      </c>
+      <c r="S22" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>839</v>
+      </c>
+      <c r="AD22" t="s">
         <v>840</v>
-      </c>
-      <c r="S22" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>841</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>842</v>
       </c>
       <c r="AE22" t="s">
         <v>791</v>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="Q23" t="s">
         <v>791</v>
@@ -7455,13 +7455,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="Q24" t="s">
         <v>791</v>
       </c>
       <c r="R24" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S24" t="s">
         <v>791</v>
@@ -7470,7 +7470,7 @@
         <v>791</v>
       </c>
       <c r="AD24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AE24" t="s">
         <v>791</v>
@@ -7523,13 +7523,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="Q25" t="s">
         <v>791</v>
       </c>
       <c r="R25" t="s">
-        <v>845</v>
+        <v>1780</v>
       </c>
       <c r="S25" t="s">
         <v>791</v>
@@ -7538,7 +7538,7 @@
         <v>791</v>
       </c>
       <c r="AD25" t="s">
-        <v>846</v>
+        <v>1781</v>
       </c>
       <c r="AE25" t="s">
         <v>791</v>
@@ -7588,13 +7588,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="Q26" t="s">
         <v>791</v>
       </c>
       <c r="R26" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="S26" t="s">
         <v>791</v>
@@ -7603,7 +7603,7 @@
         <v>791</v>
       </c>
       <c r="AD26" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="AE26" t="s">
         <v>791</v>
@@ -7647,22 +7647,22 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="Q27" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="R27" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="S27" t="s">
         <v>791</v>
       </c>
       <c r="AC27" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="AD27" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="AE27" t="s">
         <v>791</v>
@@ -7715,13 +7715,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="Q28" t="s">
         <v>791</v>
       </c>
       <c r="R28" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="S28" t="s">
         <v>791</v>
@@ -7730,7 +7730,7 @@
         <v>791</v>
       </c>
       <c r="AD28" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="AE28" t="s">
         <v>791</v>
@@ -7780,25 +7780,25 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="Q29" t="s">
         <v>791</v>
       </c>
       <c r="R29" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S29" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="AC29" t="s">
         <v>791</v>
       </c>
       <c r="AD29" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AE29" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -7845,13 +7845,13 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="Q30" t="s">
         <v>791</v>
       </c>
       <c r="R30" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="S30" t="s">
         <v>791</v>
@@ -7860,7 +7860,7 @@
         <v>791</v>
       </c>
       <c r="AD30" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AE30" t="s">
         <v>791</v>
@@ -7910,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="Q31" t="s">
         <v>791</v>
       </c>
       <c r="R31" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="S31" t="s">
         <v>791</v>
@@ -7925,7 +7925,7 @@
         <v>791</v>
       </c>
       <c r="AD31" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="AE31" t="s">
         <v>791</v>
@@ -7972,19 +7972,19 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="Q32" t="s">
         <v>791</v>
       </c>
       <c r="R32" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="S32" t="s">
         <v>791</v>
       </c>
       <c r="AD32" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="AE32" t="s">
         <v>791</v>
@@ -8034,13 +8034,13 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="Q33" t="s">
         <v>791</v>
       </c>
       <c r="R33" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="S33" t="s">
         <v>791</v>
@@ -8049,7 +8049,7 @@
         <v>791</v>
       </c>
       <c r="AD33" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="AE33" t="s">
         <v>791</v>
@@ -8102,13 +8102,13 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="Q34" t="s">
         <v>791</v>
       </c>
       <c r="R34" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="S34" t="s">
         <v>791</v>
@@ -8117,7 +8117,7 @@
         <v>791</v>
       </c>
       <c r="AD34" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AE34" t="s">
         <v>791</v>
@@ -8170,13 +8170,13 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="Q35" t="s">
         <v>791</v>
       </c>
       <c r="R35" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="S35" t="s">
         <v>791</v>
@@ -8185,7 +8185,7 @@
         <v>791</v>
       </c>
       <c r="AD35" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="AE35" t="s">
         <v>791</v>
@@ -8238,13 +8238,13 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="Q36" t="s">
         <v>791</v>
       </c>
       <c r="R36" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="S36" t="s">
         <v>791</v>
@@ -8253,7 +8253,7 @@
         <v>791</v>
       </c>
       <c r="AD36" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AE36" t="s">
         <v>791</v>
@@ -8303,13 +8303,13 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="Q37" t="s">
         <v>791</v>
       </c>
       <c r="R37" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="S37" t="s">
         <v>791</v>
@@ -8318,7 +8318,7 @@
         <v>791</v>
       </c>
       <c r="AD37" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="AE37" t="s">
         <v>791</v>
@@ -8368,13 +8368,13 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="Q38" t="s">
         <v>791</v>
       </c>
       <c r="R38" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="S38" t="s">
         <v>791</v>
@@ -8383,7 +8383,7 @@
         <v>791</v>
       </c>
       <c r="AD38" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="AE38" t="s">
         <v>791</v>
@@ -8430,25 +8430,25 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="Q39" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="R39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="S39" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="AC39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="AD39" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="AE39" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8495,13 +8495,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="Q40" t="s">
         <v>791</v>
       </c>
       <c r="R40" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="S40" t="s">
         <v>791</v>
@@ -8510,7 +8510,7 @@
         <v>791</v>
       </c>
       <c r="AD40" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="AE40" t="s">
         <v>791</v>
@@ -8554,13 +8554,13 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="Q41" t="s">
         <v>791</v>
       </c>
       <c r="R41" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="S41" t="s">
         <v>791</v>
@@ -8569,7 +8569,7 @@
         <v>791</v>
       </c>
       <c r="AD41" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="AE41" t="s">
         <v>791</v>
@@ -8616,13 +8616,13 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="Q42" t="s">
         <v>791</v>
       </c>
       <c r="R42" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="S42" t="s">
         <v>791</v>
@@ -8631,7 +8631,7 @@
         <v>791</v>
       </c>
       <c r="AD42" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="AE42" t="s">
         <v>791</v>
@@ -8681,13 +8681,13 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="Q43" t="s">
         <v>791</v>
       </c>
       <c r="R43" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="S43" t="s">
         <v>791</v>
@@ -8696,7 +8696,7 @@
         <v>791</v>
       </c>
       <c r="AD43" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="AE43" t="s">
         <v>791</v>
@@ -8746,13 +8746,13 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="Q44" t="s">
         <v>791</v>
       </c>
       <c r="R44" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="S44" t="s">
         <v>791</v>
@@ -8761,7 +8761,7 @@
         <v>791</v>
       </c>
       <c r="AD44" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AE44" t="s">
         <v>791</v>
@@ -8808,13 +8808,13 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="Q45" t="s">
         <v>791</v>
       </c>
       <c r="R45" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="S45" t="s">
         <v>791</v>
@@ -8823,7 +8823,7 @@
         <v>791</v>
       </c>
       <c r="AD45" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="AE45" t="s">
         <v>791</v>
@@ -8876,13 +8876,13 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="Q46" t="s">
         <v>791</v>
       </c>
       <c r="R46" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="S46" t="s">
         <v>791</v>
@@ -8891,7 +8891,7 @@
         <v>791</v>
       </c>
       <c r="AD46" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="AE46" t="s">
         <v>791</v>
@@ -8941,13 +8941,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="Q47" t="s">
         <v>791</v>
       </c>
       <c r="R47" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="S47" t="s">
         <v>791</v>
@@ -8956,7 +8956,7 @@
         <v>791</v>
       </c>
       <c r="AD47" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="AE47" t="s">
         <v>791</v>
@@ -9009,22 +9009,22 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="Q48" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="R48" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="S48" t="s">
         <v>791</v>
       </c>
       <c r="AC48" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AD48" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="AE48" t="s">
         <v>791</v>
@@ -9077,22 +9077,22 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="Q49" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="R49" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="S49" t="s">
         <v>791</v>
       </c>
       <c r="AC49" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="AD49" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="AE49" t="s">
         <v>791</v>
@@ -9142,13 +9142,13 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="Q50" t="s">
         <v>791</v>
       </c>
       <c r="R50" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S50" t="s">
         <v>791</v>
@@ -9157,7 +9157,7 @@
         <v>791</v>
       </c>
       <c r="AD50" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="AE50" t="s">
         <v>791</v>
@@ -9207,13 +9207,13 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="Q51" t="s">
         <v>791</v>
       </c>
       <c r="R51" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="S51" t="s">
         <v>791</v>
@@ -9222,7 +9222,7 @@
         <v>791</v>
       </c>
       <c r="AD51" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="AE51" t="s">
         <v>791</v>
@@ -9272,13 +9272,13 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="Q52" t="s">
         <v>791</v>
       </c>
       <c r="R52" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="S52" t="s">
         <v>791</v>
@@ -9287,7 +9287,7 @@
         <v>791</v>
       </c>
       <c r="AD52" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="AE52" t="s">
         <v>791</v>
@@ -9340,13 +9340,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="Q53" t="s">
         <v>791</v>
       </c>
       <c r="R53" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="S53" t="s">
         <v>791</v>
@@ -9355,7 +9355,7 @@
         <v>791</v>
       </c>
       <c r="AD53" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="AE53" t="s">
         <v>791</v>
@@ -9408,22 +9408,22 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="Q54" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="R54" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="S54" t="s">
         <v>791</v>
       </c>
       <c r="AC54" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="AD54" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="AE54" t="s">
         <v>791</v>
@@ -9476,13 +9476,13 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="Q55" t="s">
         <v>791</v>
       </c>
       <c r="R55" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="S55" t="s">
         <v>791</v>
@@ -9491,7 +9491,7 @@
         <v>791</v>
       </c>
       <c r="AD55" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="AE55" t="s">
         <v>791</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="Q56" t="s">
         <v>791</v>
@@ -9553,7 +9553,7 @@
         <v>791</v>
       </c>
       <c r="S56" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="AC56" t="s">
         <v>791</v>
@@ -9562,7 +9562,7 @@
         <v>791</v>
       </c>
       <c r="AE56" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="Q57" t="s">
         <v>791</v>
@@ -9621,7 +9621,7 @@
         <v>791</v>
       </c>
       <c r="S57" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="AC57" t="s">
         <v>791</v>
@@ -9630,7 +9630,7 @@
         <v>791</v>
       </c>
       <c r="AE57" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -9680,7 +9680,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="Q58" t="s">
         <v>791</v>
@@ -9689,7 +9689,7 @@
         <v>791</v>
       </c>
       <c r="S58" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="AC58" t="s">
         <v>791</v>
@@ -9698,7 +9698,7 @@
         <v>791</v>
       </c>
       <c r="AE58" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -9748,25 +9748,25 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="Q59" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="R59" t="s">
         <v>791</v>
       </c>
       <c r="S59" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="AC59" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="AD59" t="s">
         <v>791</v>
       </c>
       <c r="AE59" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -9816,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="Q60" t="s">
         <v>791</v>
@@ -9825,7 +9825,7 @@
         <v>791</v>
       </c>
       <c r="S60" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="AC60" t="s">
         <v>791</v>
@@ -9834,7 +9834,7 @@
         <v>791</v>
       </c>
       <c r="AE60" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="Q61" t="s">
         <v>791</v>
@@ -9884,7 +9884,7 @@
         <v>791</v>
       </c>
       <c r="S61" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="AC61" t="s">
         <v>791</v>
@@ -9893,7 +9893,7 @@
         <v>791</v>
       </c>
       <c r="AE61" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
@@ -9943,25 +9943,25 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="Q62" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="R62" t="s">
         <v>791</v>
       </c>
       <c r="S62" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="AC62" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="AD62" t="s">
         <v>791</v>
       </c>
       <c r="AE62" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="Q63" t="s">
         <v>791</v>
@@ -10020,7 +10020,7 @@
         <v>791</v>
       </c>
       <c r="S63" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="AC63" t="s">
         <v>791</v>
@@ -10029,7 +10029,7 @@
         <v>791</v>
       </c>
       <c r="AE63" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -10079,25 +10079,25 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="Q64" t="s">
         <v>791</v>
       </c>
       <c r="R64" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="S64" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="AC64" t="s">
         <v>791</v>
       </c>
       <c r="AD64" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="AE64" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
@@ -10147,25 +10147,25 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="Q65" t="s">
         <v>791</v>
       </c>
       <c r="R65" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="S65" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="AC65" t="s">
         <v>791</v>
       </c>
       <c r="AD65" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="AE65" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="Q66" t="s">
         <v>791</v>
@@ -10221,7 +10221,7 @@
         <v>791</v>
       </c>
       <c r="S66" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="AC66" t="s">
         <v>791</v>
@@ -10230,7 +10230,7 @@
         <v>791</v>
       </c>
       <c r="AE66" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
@@ -10280,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="Q67" t="s">
         <v>791</v>
@@ -10289,7 +10289,7 @@
         <v>791</v>
       </c>
       <c r="S67" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="AC67" t="s">
         <v>791</v>
@@ -10298,7 +10298,7 @@
         <v>791</v>
       </c>
       <c r="AE67" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -10348,25 +10348,25 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="Q68" t="s">
         <v>791</v>
       </c>
       <c r="R68" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="S68" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AC68" t="s">
         <v>791</v>
       </c>
       <c r="AD68" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="AE68" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
@@ -10374,7 +10374,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10416,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="Q69" t="s">
         <v>791</v>
@@ -10425,7 +10425,7 @@
         <v>791</v>
       </c>
       <c r="S69" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="AC69" t="s">
         <v>791</v>
@@ -10434,7 +10434,7 @@
         <v>791</v>
       </c>
       <c r="AE69" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
@@ -10484,25 +10484,25 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="Q70" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="R70" t="s">
         <v>791</v>
       </c>
       <c r="S70" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="AC70" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AD70" t="s">
         <v>791</v>
       </c>
       <c r="AE70" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="Q71" t="s">
         <v>791</v>
@@ -10552,7 +10552,7 @@
         <v>791</v>
       </c>
       <c r="S71" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="AC71" t="s">
         <v>791</v>
@@ -10561,7 +10561,7 @@
         <v>791</v>
       </c>
       <c r="AE71" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="Q72" t="s">
         <v>791</v>
@@ -10617,7 +10617,7 @@
         <v>791</v>
       </c>
       <c r="S72" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="AC72" t="s">
         <v>791</v>
@@ -10626,7 +10626,7 @@
         <v>791</v>
       </c>
       <c r="AE72" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="Q73" t="s">
         <v>791</v>
@@ -10685,7 +10685,7 @@
         <v>791</v>
       </c>
       <c r="S73" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AC73" t="s">
         <v>791</v>
@@ -10694,7 +10694,7 @@
         <v>791</v>
       </c>
       <c r="AE73" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -10741,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="Q74" t="s">
         <v>791</v>
@@ -10750,7 +10750,7 @@
         <v>791</v>
       </c>
       <c r="S74" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="AC74" t="s">
         <v>791</v>
@@ -10759,7 +10759,7 @@
         <v>791</v>
       </c>
       <c r="AE74" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -10809,25 +10809,25 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="Q75" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="R75" t="s">
         <v>791</v>
       </c>
       <c r="S75" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="AC75" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AD75" t="s">
         <v>791</v>
       </c>
       <c r="AE75" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="Q76" t="s">
         <v>791</v>
@@ -10883,7 +10883,7 @@
         <v>791</v>
       </c>
       <c r="S76" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="AC76" t="s">
         <v>791</v>
@@ -10892,7 +10892,7 @@
         <v>791</v>
       </c>
       <c r="AE76" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -10942,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="Q77" t="s">
         <v>791</v>
@@ -10951,10 +10951,10 @@
         <v>791</v>
       </c>
       <c r="S77" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="T77" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="AC77" t="s">
         <v>791</v>
@@ -10963,10 +10963,10 @@
         <v>791</v>
       </c>
       <c r="AE77" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="AF77" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -11016,25 +11016,25 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="Q78" t="s">
         <v>791</v>
       </c>
       <c r="R78" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="S78" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AC78" t="s">
         <v>791</v>
       </c>
       <c r="AD78" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="AE78" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -11078,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="Q79" t="s">
         <v>791</v>
@@ -11087,7 +11087,7 @@
         <v>791</v>
       </c>
       <c r="S79" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AC79" t="s">
         <v>791</v>
@@ -11096,7 +11096,7 @@
         <v>791</v>
       </c>
       <c r="AE79" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="Q80" t="s">
         <v>791</v>
@@ -11149,7 +11149,7 @@
         <v>791</v>
       </c>
       <c r="S80" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AC80" t="s">
         <v>791</v>
@@ -11158,7 +11158,7 @@
         <v>791</v>
       </c>
       <c r="AE80" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="Q81" t="s">
         <v>791</v>
@@ -11217,7 +11217,7 @@
         <v>791</v>
       </c>
       <c r="S81" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AC81" t="s">
         <v>791</v>
@@ -11226,7 +11226,7 @@
         <v>791</v>
       </c>
       <c r="AE81" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="Q82" t="s">
         <v>791</v>
@@ -11285,7 +11285,7 @@
         <v>791</v>
       </c>
       <c r="S82" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AC82" t="s">
         <v>791</v>
@@ -11294,7 +11294,7 @@
         <v>791</v>
       </c>
       <c r="AE82" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="Q83" t="s">
         <v>791</v>
@@ -11353,7 +11353,7 @@
         <v>791</v>
       </c>
       <c r="S83" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AC83" t="s">
         <v>791</v>
@@ -11362,7 +11362,7 @@
         <v>791</v>
       </c>
       <c r="AE83" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="Q84" t="s">
         <v>791</v>
@@ -11418,7 +11418,7 @@
         <v>791</v>
       </c>
       <c r="S84" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AC84" t="s">
         <v>791</v>
@@ -11427,7 +11427,7 @@
         <v>791</v>
       </c>
       <c r="AE84" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="Q85" t="s">
         <v>791</v>
@@ -11486,7 +11486,7 @@
         <v>791</v>
       </c>
       <c r="S85" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AC85" t="s">
         <v>791</v>
@@ -11495,7 +11495,7 @@
         <v>791</v>
       </c>
       <c r="AE85" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -11545,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="Q86" t="s">
         <v>791</v>
@@ -11554,7 +11554,7 @@
         <v>791</v>
       </c>
       <c r="S86" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AC86" t="s">
         <v>791</v>
@@ -11563,7 +11563,7 @@
         <v>791</v>
       </c>
       <c r="AE86" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -11610,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="Q87" t="s">
         <v>791</v>
@@ -11619,7 +11619,7 @@
         <v>791</v>
       </c>
       <c r="S87" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AC87" t="s">
         <v>791</v>
@@ -11628,7 +11628,7 @@
         <v>791</v>
       </c>
       <c r="AE87" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -11678,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="Q88" t="s">
         <v>791</v>
@@ -11687,7 +11687,7 @@
         <v>791</v>
       </c>
       <c r="S88" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AC88" t="s">
         <v>791</v>
@@ -11696,7 +11696,7 @@
         <v>791</v>
       </c>
       <c r="AE88" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -11746,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="Q89" t="s">
         <v>791</v>
@@ -11755,7 +11755,7 @@
         <v>791</v>
       </c>
       <c r="S89" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AC89" t="s">
         <v>791</v>
@@ -11764,7 +11764,7 @@
         <v>791</v>
       </c>
       <c r="AE89" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="Q90" t="s">
         <v>791</v>
@@ -11820,7 +11820,7 @@
         <v>791</v>
       </c>
       <c r="S90" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AC90" t="s">
         <v>791</v>
@@ -11829,7 +11829,7 @@
         <v>791</v>
       </c>
       <c r="AE90" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="Q91" t="s">
         <v>791</v>
@@ -11888,7 +11888,7 @@
         <v>791</v>
       </c>
       <c r="S91" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AC91" t="s">
         <v>791</v>
@@ -11897,7 +11897,7 @@
         <v>791</v>
       </c>
       <c r="AE91" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -11947,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="Q92" t="s">
         <v>791</v>
@@ -11956,7 +11956,7 @@
         <v>791</v>
       </c>
       <c r="S92" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="AC92" t="s">
         <v>791</v>
@@ -11965,7 +11965,7 @@
         <v>791</v>
       </c>
       <c r="AE92" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="Q93" t="s">
         <v>791</v>
@@ -12021,7 +12021,7 @@
         <v>791</v>
       </c>
       <c r="S93" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="AC93" t="s">
         <v>791</v>
@@ -12030,7 +12030,7 @@
         <v>791</v>
       </c>
       <c r="AE93" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -12080,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="Q94" t="s">
         <v>791</v>
@@ -12089,7 +12089,7 @@
         <v>791</v>
       </c>
       <c r="S94" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AC94" t="s">
         <v>791</v>
@@ -12098,7 +12098,7 @@
         <v>791</v>
       </c>
       <c r="AE94" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="Q95" t="s">
         <v>791</v>
@@ -12157,7 +12157,7 @@
         <v>791</v>
       </c>
       <c r="S95" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="AC95" t="s">
         <v>791</v>
@@ -12166,7 +12166,7 @@
         <v>791</v>
       </c>
       <c r="AE95" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="Q96" t="s">
         <v>791</v>
@@ -12225,7 +12225,7 @@
         <v>791</v>
       </c>
       <c r="S96" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="AC96" t="s">
         <v>791</v>
@@ -12234,7 +12234,7 @@
         <v>791</v>
       </c>
       <c r="AE96" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -12281,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="Q97" t="s">
         <v>791</v>
@@ -12290,7 +12290,7 @@
         <v>791</v>
       </c>
       <c r="S97" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="AC97" t="s">
         <v>791</v>
@@ -12299,7 +12299,7 @@
         <v>791</v>
       </c>
       <c r="AE97" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="Q98" t="s">
         <v>791</v>
@@ -12355,7 +12355,7 @@
         <v>791</v>
       </c>
       <c r="S98" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="AC98" t="s">
         <v>791</v>
@@ -12364,7 +12364,7 @@
         <v>791</v>
       </c>
       <c r="AE98" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -12411,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="Q99" t="s">
         <v>791</v>
@@ -12420,7 +12420,7 @@
         <v>791</v>
       </c>
       <c r="S99" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="AC99" t="s">
         <v>791</v>
@@ -12429,7 +12429,7 @@
         <v>791</v>
       </c>
       <c r="AE99" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="Q100" t="s">
         <v>791</v>
@@ -12485,7 +12485,7 @@
         <v>791</v>
       </c>
       <c r="S100" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="AC100" t="s">
         <v>791</v>
@@ -12494,7 +12494,7 @@
         <v>791</v>
       </c>
       <c r="AE100" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="Q101" t="s">
         <v>791</v>
@@ -12550,7 +12550,7 @@
         <v>791</v>
       </c>
       <c r="S101" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="AC101" t="s">
         <v>791</v>
@@ -12559,7 +12559,7 @@
         <v>791</v>
       </c>
       <c r="AE101" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -12609,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="Q102" t="s">
         <v>791</v>
@@ -12618,7 +12618,7 @@
         <v>791</v>
       </c>
       <c r="S102" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="AC102" t="s">
         <v>791</v>
@@ -12627,7 +12627,7 @@
         <v>791</v>
       </c>
       <c r="AE102" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="Q103" t="s">
         <v>791</v>
@@ -12683,7 +12683,7 @@
         <v>791</v>
       </c>
       <c r="S103" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AC103" t="s">
         <v>791</v>
@@ -12692,7 +12692,7 @@
         <v>791</v>
       </c>
       <c r="AE103" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="Q104" t="s">
         <v>791</v>
@@ -12748,7 +12748,7 @@
         <v>791</v>
       </c>
       <c r="S104" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="AC104" t="s">
         <v>791</v>
@@ -12757,7 +12757,7 @@
         <v>791</v>
       </c>
       <c r="AE104" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -12804,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="Q105" t="s">
         <v>791</v>
@@ -12813,7 +12813,7 @@
         <v>791</v>
       </c>
       <c r="S105" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AC105" t="s">
         <v>791</v>
@@ -12822,7 +12822,7 @@
         <v>791</v>
       </c>
       <c r="AE105" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -12869,10 +12869,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="Q106" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="R106" t="s">
         <v>791</v>
@@ -12881,7 +12881,7 @@
         <v>791</v>
       </c>
       <c r="AC106" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="AD106" t="s">
         <v>791</v>
@@ -12934,10 +12934,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="Q107" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="R107" t="s">
         <v>791</v>
@@ -12946,7 +12946,7 @@
         <v>791</v>
       </c>
       <c r="AC107" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="AD107" t="s">
         <v>791</v>
@@ -13002,10 +13002,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="Q108" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="R108" t="s">
         <v>791</v>
@@ -13014,7 +13014,7 @@
         <v>791</v>
       </c>
       <c r="AC108" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AD108" t="s">
         <v>791</v>
@@ -13070,10 +13070,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="Q109" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="R109" t="s">
         <v>791</v>
@@ -13082,7 +13082,7 @@
         <v>791</v>
       </c>
       <c r="AC109" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="AD109" t="s">
         <v>791</v>
@@ -13138,10 +13138,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="Q110" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="R110" t="s">
         <v>791</v>
@@ -13150,7 +13150,7 @@
         <v>791</v>
       </c>
       <c r="AC110" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="AD110" t="s">
         <v>791</v>
@@ -13206,10 +13206,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="Q111" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="R111" t="s">
         <v>791</v>
@@ -13218,7 +13218,7 @@
         <v>791</v>
       </c>
       <c r="AC111" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="AD111" t="s">
         <v>791</v>
@@ -13274,10 +13274,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="Q112" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="R112" t="s">
         <v>791</v>
@@ -13286,7 +13286,7 @@
         <v>791</v>
       </c>
       <c r="AC112" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="AD112" t="s">
         <v>791</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="Q113" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="R113" t="s">
         <v>791</v>
@@ -13354,7 +13354,7 @@
         <v>791</v>
       </c>
       <c r="AC113" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="AD113" t="s">
         <v>791</v>
@@ -13410,10 +13410,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="Q114" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="R114" t="s">
         <v>791</v>
@@ -13422,7 +13422,7 @@
         <v>791</v>
       </c>
       <c r="AC114" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="AD114" t="s">
         <v>791</v>
@@ -13478,10 +13478,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="Q115" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="R115" t="s">
         <v>791</v>
@@ -13490,7 +13490,7 @@
         <v>791</v>
       </c>
       <c r="AC115" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="AD115" t="s">
         <v>791</v>
@@ -13546,10 +13546,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="Q116" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="R116" t="s">
         <v>791</v>
@@ -13558,7 +13558,7 @@
         <v>791</v>
       </c>
       <c r="AC116" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AD116" t="s">
         <v>791</v>
@@ -13614,10 +13614,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="Q117" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="R117" t="s">
         <v>791</v>
@@ -13626,7 +13626,7 @@
         <v>791</v>
       </c>
       <c r="AC117" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AD117" t="s">
         <v>791</v>
@@ -13682,10 +13682,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="Q118" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="R118" t="s">
         <v>791</v>
@@ -13694,7 +13694,7 @@
         <v>791</v>
       </c>
       <c r="AC118" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AD118" t="s">
         <v>791</v>
@@ -13750,10 +13750,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="Q119" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="R119" t="s">
         <v>791</v>
@@ -13762,7 +13762,7 @@
         <v>791</v>
       </c>
       <c r="AC119" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="AD119" t="s">
         <v>791</v>
@@ -13818,10 +13818,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="Q120" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="R120" t="s">
         <v>791</v>
@@ -13830,7 +13830,7 @@
         <v>791</v>
       </c>
       <c r="AC120" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="AD120" t="s">
         <v>791</v>
@@ -13886,22 +13886,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="Q121" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="R121" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="S121" t="s">
         <v>791</v>
       </c>
       <c r="AC121" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AD121" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="AE121" t="s">
         <v>791</v>
@@ -13954,10 +13954,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="Q122" t="s">
-        <v>1316</v>
+        <v>1784</v>
       </c>
       <c r="R122" t="s">
         <v>791</v>
@@ -13966,7 +13966,7 @@
         <v>791</v>
       </c>
       <c r="AC122" t="s">
-        <v>1007</v>
+        <v>1785</v>
       </c>
       <c r="AD122" t="s">
         <v>791</v>
@@ -14022,10 +14022,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="Q123" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="R123" t="s">
         <v>791</v>
@@ -14034,7 +14034,7 @@
         <v>791</v>
       </c>
       <c r="AC123" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="AD123" t="s">
         <v>791</v>
@@ -14090,10 +14090,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="Q124" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="R124" t="s">
         <v>791</v>
@@ -14102,7 +14102,7 @@
         <v>791</v>
       </c>
       <c r="AC124" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="AD124" t="s">
         <v>791</v>
@@ -14158,10 +14158,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="Q125" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="R125" t="s">
         <v>791</v>
@@ -14170,7 +14170,7 @@
         <v>791</v>
       </c>
       <c r="AC125" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="AD125" t="s">
         <v>791</v>
@@ -14226,10 +14226,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="Q126" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="R126" t="s">
         <v>791</v>
@@ -14238,7 +14238,7 @@
         <v>791</v>
       </c>
       <c r="AC126" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AD126" t="s">
         <v>791</v>
@@ -14294,10 +14294,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="Q127" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="R127" t="s">
         <v>791</v>
@@ -14306,7 +14306,7 @@
         <v>791</v>
       </c>
       <c r="AC127" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="AD127" t="s">
         <v>791</v>
@@ -14356,10 +14356,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="Q128" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="R128" t="s">
         <v>791</v>
@@ -14368,7 +14368,7 @@
         <v>791</v>
       </c>
       <c r="AC128" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="AD128" t="s">
         <v>791</v>
@@ -14421,10 +14421,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="Q129" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="R129" t="s">
         <v>791</v>
@@ -14433,7 +14433,7 @@
         <v>791</v>
       </c>
       <c r="AC129" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="AD129" t="s">
         <v>791</v>
@@ -14489,10 +14489,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="Q130" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="R130" t="s">
         <v>791</v>
@@ -14501,7 +14501,7 @@
         <v>791</v>
       </c>
       <c r="AC130" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AD130" t="s">
         <v>791</v>
@@ -14557,10 +14557,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="Q131" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="R131" t="s">
         <v>791</v>
@@ -14569,7 +14569,7 @@
         <v>791</v>
       </c>
       <c r="AC131" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AD131" t="s">
         <v>791</v>
@@ -14625,10 +14625,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="Q132" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="R132" t="s">
         <v>791</v>
@@ -14637,7 +14637,7 @@
         <v>791</v>
       </c>
       <c r="AC132" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="AD132" t="s">
         <v>791</v>
@@ -14687,10 +14687,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="Q133" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="R133" t="s">
         <v>791</v>
@@ -14699,7 +14699,7 @@
         <v>791</v>
       </c>
       <c r="AC133" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="AD133" t="s">
         <v>791</v>
@@ -14752,10 +14752,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="Q134" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="R134" t="s">
         <v>791</v>
@@ -14764,7 +14764,7 @@
         <v>791</v>
       </c>
       <c r="AC134" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AD134" t="s">
         <v>791</v>
@@ -14820,10 +14820,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="Q135" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="R135" t="s">
         <v>791</v>
@@ -14832,7 +14832,7 @@
         <v>791</v>
       </c>
       <c r="AC135" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="AD135" t="s">
         <v>791</v>
@@ -14885,10 +14885,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="Q136" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="R136" t="s">
         <v>791</v>
@@ -14897,7 +14897,7 @@
         <v>791</v>
       </c>
       <c r="AC136" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="AD136" t="s">
         <v>791</v>
@@ -14947,10 +14947,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="Q137" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="R137" t="s">
         <v>791</v>
@@ -14959,7 +14959,7 @@
         <v>791</v>
       </c>
       <c r="AC137" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="AD137" t="s">
         <v>791</v>
@@ -15012,10 +15012,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="Q138" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="R138" t="s">
         <v>791</v>
@@ -15024,7 +15024,7 @@
         <v>791</v>
       </c>
       <c r="AC138" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="AD138" t="s">
         <v>791</v>
@@ -15080,10 +15080,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="Q139" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="R139" t="s">
         <v>791</v>
@@ -15092,7 +15092,7 @@
         <v>791</v>
       </c>
       <c r="AC139" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="AD139" t="s">
         <v>791</v>
@@ -15148,10 +15148,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="Q140" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="R140" t="s">
         <v>791</v>
@@ -15160,7 +15160,7 @@
         <v>791</v>
       </c>
       <c r="AC140" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="AD140" t="s">
         <v>791</v>
@@ -15213,10 +15213,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="Q141" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="R141" t="s">
         <v>791</v>
@@ -15225,7 +15225,7 @@
         <v>791</v>
       </c>
       <c r="AC141" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="AD141" t="s">
         <v>791</v>
@@ -15281,10 +15281,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="Q142" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="R142" t="s">
         <v>791</v>
@@ -15293,7 +15293,7 @@
         <v>791</v>
       </c>
       <c r="AC142" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="AD142" t="s">
         <v>791</v>
@@ -15349,10 +15349,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="Q143" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="R143" t="s">
         <v>791</v>
@@ -15361,7 +15361,7 @@
         <v>791</v>
       </c>
       <c r="AC143" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AD143" t="s">
         <v>791</v>
@@ -15417,10 +15417,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="Q144" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="R144" t="s">
         <v>791</v>
@@ -15429,7 +15429,7 @@
         <v>791</v>
       </c>
       <c r="AC144" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="AD144" t="s">
         <v>791</v>
@@ -15485,10 +15485,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="Q145" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="R145" t="s">
         <v>791</v>
@@ -15497,7 +15497,7 @@
         <v>791</v>
       </c>
       <c r="AC145" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="AD145" t="s">
         <v>791</v>
@@ -15553,10 +15553,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="Q146" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="R146" t="s">
         <v>791</v>
@@ -15565,7 +15565,7 @@
         <v>791</v>
       </c>
       <c r="AC146" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AD146" t="s">
         <v>791</v>
@@ -15621,10 +15621,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="Q147" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="R147" t="s">
         <v>791</v>
@@ -15633,7 +15633,7 @@
         <v>791</v>
       </c>
       <c r="AC147" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="AD147" t="s">
         <v>791</v>
@@ -15689,10 +15689,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="Q148" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="R148" t="s">
         <v>791</v>
@@ -15701,7 +15701,7 @@
         <v>791</v>
       </c>
       <c r="AC148" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="AD148" t="s">
         <v>791</v>
@@ -15757,10 +15757,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="Q149" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="R149" t="s">
         <v>791</v>
@@ -15769,7 +15769,7 @@
         <v>791</v>
       </c>
       <c r="AC149" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="AD149" t="s">
         <v>791</v>
@@ -15822,10 +15822,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="Q150" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="R150" t="s">
         <v>791</v>
@@ -15834,7 +15834,7 @@
         <v>791</v>
       </c>
       <c r="AC150" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="AD150" t="s">
         <v>791</v>
@@ -15884,10 +15884,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="Q151" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="R151" t="s">
         <v>791</v>
@@ -15896,7 +15896,7 @@
         <v>791</v>
       </c>
       <c r="AC151" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="AD151" t="s">
         <v>791</v>
@@ -15949,10 +15949,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="Q152" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="R152" t="s">
         <v>791</v>
@@ -15961,7 +15961,7 @@
         <v>791</v>
       </c>
       <c r="AC152" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AD152" t="s">
         <v>791</v>
@@ -16011,10 +16011,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="Q153" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="R153" t="s">
         <v>791</v>
@@ -16023,7 +16023,7 @@
         <v>791</v>
       </c>
       <c r="AC153" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="AD153" t="s">
         <v>791</v>
@@ -16076,10 +16076,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="Q154" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="R154" t="s">
         <v>791</v>
@@ -16088,7 +16088,7 @@
         <v>791</v>
       </c>
       <c r="AC154" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="AD154" t="s">
         <v>791</v>
@@ -16141,10 +16141,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="Q155" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="R155" t="s">
         <v>791</v>
@@ -16153,7 +16153,7 @@
         <v>791</v>
       </c>
       <c r="AC155" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="AD155" t="s">
         <v>791</v>
@@ -16206,10 +16206,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="Q156" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="R156" t="s">
         <v>791</v>
@@ -16218,7 +16218,7 @@
         <v>791</v>
       </c>
       <c r="AC156" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AD156" t="s">
         <v>791</v>
@@ -16271,10 +16271,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="Q157" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="R157" t="s">
         <v>791</v>
@@ -16283,7 +16283,7 @@
         <v>791</v>
       </c>
       <c r="AC157" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="AD157" t="s">
         <v>791</v>
@@ -16336,10 +16336,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="Q158" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="R158" t="s">
         <v>791</v>
@@ -16348,7 +16348,7 @@
         <v>791</v>
       </c>
       <c r="AC158" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="AD158" t="s">
         <v>791</v>
@@ -16401,10 +16401,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="Q159" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="R159" t="s">
         <v>791</v>
@@ -16413,7 +16413,7 @@
         <v>791</v>
       </c>
       <c r="AC159" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AD159" t="s">
         <v>791</v>
@@ -16466,10 +16466,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="Q160" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="R160" t="s">
         <v>791</v>
@@ -16478,7 +16478,7 @@
         <v>791</v>
       </c>
       <c r="AC160" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="AD160" t="s">
         <v>791</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="Q161" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R161" t="s">
         <v>791</v>
@@ -16543,7 +16543,7 @@
         <v>791</v>
       </c>
       <c r="AC161" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="AD161" t="s">
         <v>791</v>
@@ -16599,10 +16599,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="Q162" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="R162" t="s">
         <v>791</v>
@@ -16611,7 +16611,7 @@
         <v>791</v>
       </c>
       <c r="AC162" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="AD162" t="s">
         <v>791</v>
@@ -16664,10 +16664,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="Q163" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="R163" t="s">
         <v>791</v>
@@ -16676,7 +16676,7 @@
         <v>791</v>
       </c>
       <c r="AC163" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="AD163" t="s">
         <v>791</v>
@@ -16729,10 +16729,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="Q164" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="R164" t="s">
         <v>791</v>
@@ -16741,7 +16741,7 @@
         <v>791</v>
       </c>
       <c r="AC164" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="AD164" t="s">
         <v>791</v>
@@ -16797,7 +16797,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="Q165" t="s">
         <v>791</v>
@@ -16856,10 +16856,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="Q166" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="R166" t="s">
         <v>791</v>
@@ -16868,7 +16868,7 @@
         <v>791</v>
       </c>
       <c r="AC166" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="AD166" t="s">
         <v>791</v>
@@ -16915,10 +16915,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="Q167" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="R167" t="s">
         <v>791</v>
@@ -16927,7 +16927,7 @@
         <v>791</v>
       </c>
       <c r="AC167" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="AD167" t="s">
         <v>791</v>
@@ -16980,10 +16980,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="Q168" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="R168" t="s">
         <v>791</v>
@@ -16992,7 +16992,7 @@
         <v>791</v>
       </c>
       <c r="AC168" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="AD168" t="s">
         <v>791</v>
@@ -17048,10 +17048,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="Q169" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="R169" t="s">
         <v>791</v>
@@ -17060,7 +17060,7 @@
         <v>791</v>
       </c>
       <c r="AC169" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="AD169" t="s">
         <v>791</v>
@@ -17113,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="Q170" t="s">
         <v>791</v>
@@ -17178,10 +17178,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="Q171" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="R171" t="s">
         <v>791</v>
@@ -17190,7 +17190,7 @@
         <v>791</v>
       </c>
       <c r="AC171" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="AD171" t="s">
         <v>791</v>
@@ -17237,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="Q172" t="s">
         <v>791</v>
@@ -17302,10 +17302,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="Q173" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="R173" t="s">
         <v>791</v>
@@ -17314,7 +17314,7 @@
         <v>791</v>
       </c>
       <c r="AC173" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AD173" t="s">
         <v>791</v>
@@ -17367,10 +17367,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="Q174" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="R174" t="s">
         <v>791</v>
@@ -17379,7 +17379,7 @@
         <v>791</v>
       </c>
       <c r="AC174" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AD174" t="s">
         <v>791</v>
@@ -17432,10 +17432,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="Q175" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="R175" t="s">
         <v>791</v>
@@ -17444,7 +17444,7 @@
         <v>791</v>
       </c>
       <c r="AC175" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="AD175" t="s">
         <v>791</v>
@@ -17497,10 +17497,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="Q176" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="R176" t="s">
         <v>791</v>
@@ -17509,7 +17509,7 @@
         <v>791</v>
       </c>
       <c r="AC176" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AD176" t="s">
         <v>791</v>
@@ -17562,10 +17562,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="Q177" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="R177" t="s">
         <v>791</v>
@@ -17574,7 +17574,7 @@
         <v>791</v>
       </c>
       <c r="AC177" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AD177" t="s">
         <v>791</v>
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="Q178" t="s">
         <v>791</v>
@@ -17692,10 +17692,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="Q179" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="R179" t="s">
         <v>791</v>
@@ -17704,7 +17704,7 @@
         <v>791</v>
       </c>
       <c r="AC179" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AD179" t="s">
         <v>791</v>
@@ -17757,10 +17757,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="Q180" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="R180" t="s">
         <v>791</v>
@@ -17769,7 +17769,7 @@
         <v>791</v>
       </c>
       <c r="AC180" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="AD180" t="s">
         <v>791</v>
@@ -17825,10 +17825,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="Q181" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="R181" t="s">
         <v>791</v>
@@ -17837,7 +17837,7 @@
         <v>791</v>
       </c>
       <c r="AC181" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="AD181" t="s">
         <v>791</v>
@@ -17884,10 +17884,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="Q182" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="R182" t="s">
         <v>791</v>
@@ -17896,7 +17896,7 @@
         <v>791</v>
       </c>
       <c r="AC182" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD182" t="s">
         <v>791</v>
@@ -17943,10 +17943,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="Q183" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="R183" t="s">
         <v>791</v>
@@ -17955,7 +17955,7 @@
         <v>791</v>
       </c>
       <c r="AC183" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="AD183" t="s">
         <v>791</v>
@@ -18008,10 +18008,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="Q184" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="R184" t="s">
         <v>791</v>
@@ -18020,7 +18020,7 @@
         <v>791</v>
       </c>
       <c r="AC184" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="AD184" t="s">
         <v>791</v>
@@ -18073,10 +18073,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="Q185" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="R185" t="s">
         <v>791</v>
@@ -18085,7 +18085,7 @@
         <v>791</v>
       </c>
       <c r="AC185" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="AD185" t="s">
         <v>791</v>
@@ -18138,10 +18138,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="Q186" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="R186" t="s">
         <v>791</v>
@@ -18150,7 +18150,7 @@
         <v>791</v>
       </c>
       <c r="AC186" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="AD186" t="s">
         <v>791</v>
@@ -18206,10 +18206,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="Q187" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="R187" t="s">
         <v>791</v>
@@ -18218,7 +18218,7 @@
         <v>791</v>
       </c>
       <c r="AC187" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="AD187" t="s">
         <v>791</v>
@@ -18271,10 +18271,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="Q188" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="R188" t="s">
         <v>791</v>
@@ -18283,7 +18283,7 @@
         <v>791</v>
       </c>
       <c r="AC188" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="AD188" t="s">
         <v>791</v>
@@ -18336,10 +18336,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="Q189" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="R189" t="s">
         <v>791</v>
@@ -18348,7 +18348,7 @@
         <v>791</v>
       </c>
       <c r="AC189" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="AD189" t="s">
         <v>791</v>
@@ -18395,10 +18395,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="Q190" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="R190" t="s">
         <v>791</v>
@@ -18407,7 +18407,7 @@
         <v>791</v>
       </c>
       <c r="AC190" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="AD190" t="s">
         <v>791</v>
@@ -18454,10 +18454,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="Q191" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="R191" t="s">
         <v>791</v>
@@ -18466,7 +18466,7 @@
         <v>791</v>
       </c>
       <c r="AC191" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="AD191" t="s">
         <v>791</v>
@@ -18513,10 +18513,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="Q192" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="R192" t="s">
         <v>791</v>
@@ -18525,7 +18525,7 @@
         <v>791</v>
       </c>
       <c r="AC192" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="AD192" t="s">
         <v>791</v>
@@ -18578,10 +18578,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="Q193" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="R193" t="s">
         <v>791</v>
@@ -18590,7 +18590,7 @@
         <v>791</v>
       </c>
       <c r="AC193" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="AD193" t="s">
         <v>791</v>
@@ -18637,10 +18637,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="Q194" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="R194" t="s">
         <v>791</v>
@@ -18649,7 +18649,7 @@
         <v>791</v>
       </c>
       <c r="AC194" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AD194" t="s">
         <v>791</v>
@@ -18699,10 +18699,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="Q195" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="R195" t="s">
         <v>791</v>
@@ -18711,7 +18711,7 @@
         <v>791</v>
       </c>
       <c r="AC195" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AD195" t="s">
         <v>791</v>
@@ -18761,10 +18761,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="Q196" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="R196" t="s">
         <v>791</v>
@@ -18773,7 +18773,7 @@
         <v>791</v>
       </c>
       <c r="AC196" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="AD196" t="s">
         <v>791</v>
@@ -18826,10 +18826,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="Q197" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="R197" t="s">
         <v>791</v>
@@ -18838,7 +18838,7 @@
         <v>791</v>
       </c>
       <c r="AC197" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="AD197" t="s">
         <v>791</v>
@@ -18891,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="Q198" t="s">
         <v>791</v>
@@ -18956,7 +18956,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="Q199" t="s">
         <v>791</v>
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="Q200" t="s">
         <v>791</v>
@@ -19086,7 +19086,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="Q201" t="s">
         <v>791</v>
@@ -19151,10 +19151,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="Q202" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="R202" t="s">
         <v>791</v>
@@ -19163,7 +19163,7 @@
         <v>791</v>
       </c>
       <c r="AC202" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AD202" t="s">
         <v>791</v>
@@ -19216,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="Q203" t="s">
         <v>791</v>
@@ -19275,10 +19275,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="Q204" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="R204" t="s">
         <v>791</v>
@@ -19287,7 +19287,7 @@
         <v>791</v>
       </c>
       <c r="AC204" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="AD204" t="s">
         <v>791</v>
@@ -19334,10 +19334,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="Q205" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="R205" t="s">
         <v>791</v>
@@ -19346,7 +19346,7 @@
         <v>791</v>
       </c>
       <c r="AC205" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="AD205" t="s">
         <v>791</v>
@@ -19402,10 +19402,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="Q206" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="R206" t="s">
         <v>791</v>
@@ -19414,7 +19414,7 @@
         <v>791</v>
       </c>
       <c r="AC206" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AD206" t="s">
         <v>791</v>
@@ -19470,10 +19470,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="Q207" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="R207" t="s">
         <v>791</v>
@@ -19482,7 +19482,7 @@
         <v>791</v>
       </c>
       <c r="AC207" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AD207" t="s">
         <v>791</v>
@@ -19538,10 +19538,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="Q208" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="R208" t="s">
         <v>791</v>
@@ -19550,7 +19550,7 @@
         <v>791</v>
       </c>
       <c r="AC208" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="AD208" t="s">
         <v>791</v>
@@ -19606,10 +19606,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="Q209" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="R209" t="s">
         <v>791</v>
@@ -19618,7 +19618,7 @@
         <v>791</v>
       </c>
       <c r="AC209" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="AD209" t="s">
         <v>791</v>
@@ -19668,10 +19668,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="Q210" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="R210" t="s">
         <v>791</v>
@@ -19680,7 +19680,7 @@
         <v>791</v>
       </c>
       <c r="AC210" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="AD210" t="s">
         <v>791</v>
@@ -19736,10 +19736,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="Q211" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="R211" t="s">
         <v>791</v>
@@ -19748,7 +19748,7 @@
         <v>791</v>
       </c>
       <c r="AC211" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="AD211" t="s">
         <v>791</v>
@@ -19801,10 +19801,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="Q212" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="R212" t="s">
         <v>791</v>
@@ -19813,7 +19813,7 @@
         <v>791</v>
       </c>
       <c r="AC212" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="AD212" t="s">
         <v>791</v>
@@ -19860,10 +19860,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="Q213" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="R213" t="s">
         <v>791</v>
@@ -19872,7 +19872,7 @@
         <v>791</v>
       </c>
       <c r="AC213" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="AD213" t="s">
         <v>791</v>
@@ -19925,10 +19925,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="Q214" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="R214" t="s">
         <v>791</v>
@@ -19937,7 +19937,7 @@
         <v>791</v>
       </c>
       <c r="AC214" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="AD214" t="s">
         <v>791</v>
@@ -19984,10 +19984,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="Q215" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R215" t="s">
         <v>791</v>
@@ -19996,7 +19996,7 @@
         <v>791</v>
       </c>
       <c r="AC215" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="AD215" t="s">
         <v>791</v>
@@ -20046,10 +20046,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="Q216" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="R216" t="s">
         <v>791</v>
@@ -20058,7 +20058,7 @@
         <v>791</v>
       </c>
       <c r="AC216" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="AD216" t="s">
         <v>791</v>
@@ -20114,10 +20114,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="Q217" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="R217" t="s">
         <v>791</v>
@@ -20126,7 +20126,7 @@
         <v>791</v>
       </c>
       <c r="AC217" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="AD217" t="s">
         <v>791</v>
@@ -20182,10 +20182,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="Q218" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="R218" t="s">
         <v>791</v>
@@ -20194,7 +20194,7 @@
         <v>791</v>
       </c>
       <c r="AC218" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="AD218" t="s">
         <v>791</v>
@@ -20250,10 +20250,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="Q219" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="R219" t="s">
         <v>791</v>
@@ -20262,7 +20262,7 @@
         <v>791</v>
       </c>
       <c r="AC219" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AD219" t="s">
         <v>791</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="Q220" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="R220" t="s">
         <v>791</v>
@@ -20330,7 +20330,7 @@
         <v>791</v>
       </c>
       <c r="AC220" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="AD220" t="s">
         <v>791</v>
@@ -20386,10 +20386,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="Q221" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="R221" t="s">
         <v>791</v>
@@ -20398,7 +20398,7 @@
         <v>791</v>
       </c>
       <c r="AC221" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AD221" t="s">
         <v>791</v>
@@ -20454,10 +20454,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="Q222" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="R222" t="s">
         <v>791</v>
@@ -20466,7 +20466,7 @@
         <v>791</v>
       </c>
       <c r="AC222" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="AD222" t="s">
         <v>791</v>
@@ -20522,10 +20522,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="Q223" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="R223" t="s">
         <v>791</v>
@@ -20534,7 +20534,7 @@
         <v>791</v>
       </c>
       <c r="AC223" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="AD223" t="s">
         <v>791</v>
@@ -20590,10 +20590,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="Q224" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="R224" t="s">
         <v>791</v>
@@ -20602,7 +20602,7 @@
         <v>791</v>
       </c>
       <c r="AC224" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="AD224" t="s">
         <v>791</v>
@@ -20655,10 +20655,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="Q225" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="R225" t="s">
         <v>791</v>
@@ -20667,7 +20667,7 @@
         <v>791</v>
       </c>
       <c r="AC225" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="AD225" t="s">
         <v>791</v>
@@ -20723,10 +20723,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="Q226" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="R226" t="s">
         <v>791</v>
@@ -20735,7 +20735,7 @@
         <v>791</v>
       </c>
       <c r="AC226" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="AD226" t="s">
         <v>791</v>
@@ -20788,10 +20788,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="Q227" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="R227" t="s">
         <v>791</v>
@@ -20800,7 +20800,7 @@
         <v>791</v>
       </c>
       <c r="AC227" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="AD227" t="s">
         <v>791</v>
@@ -20853,10 +20853,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="Q228" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="R228" t="s">
         <v>791</v>
@@ -20865,7 +20865,7 @@
         <v>791</v>
       </c>
       <c r="AC228" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="AD228" t="s">
         <v>791</v>
@@ -20918,10 +20918,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="Q229" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="R229" t="s">
         <v>791</v>
@@ -20930,7 +20930,7 @@
         <v>791</v>
       </c>
       <c r="AC229" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="AD229" t="s">
         <v>791</v>
@@ -20977,10 +20977,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="Q230" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="R230" t="s">
         <v>791</v>
@@ -20989,7 +20989,7 @@
         <v>791</v>
       </c>
       <c r="AC230" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="AD230" t="s">
         <v>791</v>
@@ -21042,10 +21042,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="Q231" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="R231" t="s">
         <v>791</v>
@@ -21054,7 +21054,7 @@
         <v>791</v>
       </c>
       <c r="AC231" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="AD231" t="s">
         <v>791</v>
@@ -21107,10 +21107,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="Q232" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="R232" t="s">
         <v>791</v>
@@ -21119,7 +21119,7 @@
         <v>791</v>
       </c>
       <c r="AC232" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="AD232" t="s">
         <v>791</v>
@@ -21169,10 +21169,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="Q233" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="R233" t="s">
         <v>791</v>
@@ -21181,7 +21181,7 @@
         <v>791</v>
       </c>
       <c r="AC233" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="AD233" t="s">
         <v>791</v>
@@ -21237,10 +21237,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="Q234" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="R234" t="s">
         <v>791</v>
@@ -21249,7 +21249,7 @@
         <v>791</v>
       </c>
       <c r="AC234" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="AD234" t="s">
         <v>791</v>
@@ -21302,10 +21302,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="Q235" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="R235" t="s">
         <v>791</v>
@@ -21314,7 +21314,7 @@
         <v>791</v>
       </c>
       <c r="AC235" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="AD235" t="s">
         <v>791</v>
@@ -21367,10 +21367,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="Q236" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="R236" t="s">
         <v>791</v>
@@ -21379,7 +21379,7 @@
         <v>791</v>
       </c>
       <c r="AC236" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="AD236" t="s">
         <v>791</v>
@@ -21429,13 +21429,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="Q237" t="s">
         <v>791</v>
       </c>
       <c r="R237" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="S237" t="s">
         <v>791</v>
@@ -21444,7 +21444,7 @@
         <v>791</v>
       </c>
       <c r="AD237" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="AE237" t="s">
         <v>791</v>
@@ -21491,13 +21491,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="Q238" t="s">
         <v>791</v>
       </c>
       <c r="R238" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="S238" t="s">
         <v>791</v>
@@ -21506,7 +21506,7 @@
         <v>791</v>
       </c>
       <c r="AD238" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="AE238" t="s">
         <v>791</v>
@@ -21517,7 +21517,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="C239" t="s">
         <v>245</v>
@@ -21544,13 +21544,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="Q239" t="s">
         <v>791</v>
       </c>
       <c r="R239" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="S239" t="s">
         <v>791</v>
@@ -21559,7 +21559,7 @@
         <v>791</v>
       </c>
       <c r="AD239" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="AE239" t="s">
         <v>791</v>
@@ -21606,13 +21606,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="Q240" t="s">
         <v>791</v>
       </c>
       <c r="R240" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="S240" t="s">
         <v>791</v>
@@ -21621,7 +21621,7 @@
         <v>791</v>
       </c>
       <c r="AD240" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AE240" t="s">
         <v>791</v>
@@ -21668,13 +21668,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="Q241" t="s">
         <v>791</v>
       </c>
       <c r="R241" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="S241" t="s">
         <v>791</v>
@@ -21683,7 +21683,7 @@
         <v>791</v>
       </c>
       <c r="AD241" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="AE241" t="s">
         <v>791</v>
@@ -21730,13 +21730,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="Q242" t="s">
         <v>791</v>
       </c>
       <c r="R242" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="S242" t="s">
         <v>791</v>
@@ -21745,7 +21745,7 @@
         <v>791</v>
       </c>
       <c r="AD242" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="AE242" t="s">
         <v>791</v>
@@ -21792,7 +21792,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="Q243" t="s">
         <v>791</v>
@@ -21801,7 +21801,7 @@
         <v>791</v>
       </c>
       <c r="S243" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="AC243" t="s">
         <v>791</v>
@@ -21810,7 +21810,7 @@
         <v>791</v>
       </c>
       <c r="AE243" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
@@ -21854,10 +21854,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="Q244" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="R244" t="s">
         <v>791</v>
@@ -21866,7 +21866,7 @@
         <v>791</v>
       </c>
       <c r="AC244" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="AD244" t="s">
         <v>791</v>
@@ -21913,10 +21913,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="Q245" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R245" t="s">
         <v>791</v>
@@ -21925,7 +21925,7 @@
         <v>791</v>
       </c>
       <c r="AC245" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="AD245" t="s">
         <v>791</v>
@@ -21975,10 +21975,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="Q246" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="R246" t="s">
         <v>791</v>
@@ -21987,7 +21987,7 @@
         <v>791</v>
       </c>
       <c r="AC246" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="AD246" t="s">
         <v>791</v>
@@ -22037,10 +22037,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="Q247" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="R247" t="s">
         <v>791</v>
@@ -22049,7 +22049,7 @@
         <v>791</v>
       </c>
       <c r="AC247" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="AD247" t="s">
         <v>791</v>
@@ -22099,10 +22099,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="Q248" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="R248" t="s">
         <v>791</v>
@@ -22111,7 +22111,7 @@
         <v>791</v>
       </c>
       <c r="AC248" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AD248" t="s">
         <v>791</v>
@@ -22161,22 +22161,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="Q249" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="R249" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="S249" t="s">
         <v>791</v>
       </c>
       <c r="AC249" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="AD249" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="AE249" t="s">
         <v>791</v>
@@ -22226,10 +22226,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="Q250" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="R250" t="s">
         <v>791</v>
@@ -22238,7 +22238,7 @@
         <v>791</v>
       </c>
       <c r="AC250" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="AD250" t="s">
         <v>791</v>
@@ -22288,10 +22288,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="Q251" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="R251" t="s">
         <v>791</v>
@@ -22300,7 +22300,7 @@
         <v>791</v>
       </c>
       <c r="AC251" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="AD251" t="s">
         <v>791</v>
@@ -22350,10 +22350,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="Q252" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="R252" t="s">
         <v>791</v>
@@ -22362,7 +22362,7 @@
         <v>791</v>
       </c>
       <c r="AC252" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="AD252" t="s">
         <v>791</v>
@@ -22412,10 +22412,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="Q253" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="R253" t="s">
         <v>791</v>
@@ -22424,7 +22424,7 @@
         <v>791</v>
       </c>
       <c r="AC253" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="AD253" t="s">
         <v>791</v>
@@ -22474,10 +22474,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="Q254" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="R254" t="s">
         <v>791</v>
@@ -22486,7 +22486,7 @@
         <v>791</v>
       </c>
       <c r="AC254" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="AD254" t="s">
         <v>791</v>
@@ -22533,10 +22533,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="Q255" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="R255" t="s">
         <v>791</v>
@@ -22545,7 +22545,7 @@
         <v>791</v>
       </c>
       <c r="AC255" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="AD255" t="s">
         <v>791</v>
@@ -22595,10 +22595,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="Q256" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="R256" t="s">
         <v>791</v>
@@ -22607,7 +22607,7 @@
         <v>791</v>
       </c>
       <c r="AC256" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AD256" t="s">
         <v>791</v>
@@ -22654,10 +22654,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="Q257" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="R257" t="s">
         <v>791</v>
@@ -22666,7 +22666,7 @@
         <v>791</v>
       </c>
       <c r="AC257" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="AD257" t="s">
         <v>791</v>
@@ -22719,10 +22719,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="Q258" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="R258" t="s">
         <v>791</v>
@@ -22731,7 +22731,7 @@
         <v>791</v>
       </c>
       <c r="AC258" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="AD258" t="s">
         <v>791</v>
@@ -22781,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="Q259" t="s">
         <v>791</v>
@@ -22790,7 +22790,7 @@
         <v>791</v>
       </c>
       <c r="S259" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="AC259" t="s">
         <v>791</v>
@@ -22799,7 +22799,7 @@
         <v>791</v>
       </c>
       <c r="AE259" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
@@ -22840,10 +22840,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="Q260" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="R260" t="s">
         <v>791</v>
@@ -22852,7 +22852,7 @@
         <v>791</v>
       </c>
       <c r="AC260" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="AD260" t="s">
         <v>791</v>
@@ -22899,10 +22899,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="Q261" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="R261" t="s">
         <v>791</v>
@@ -22911,7 +22911,7 @@
         <v>791</v>
       </c>
       <c r="AC261" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="AD261" t="s">
         <v>791</v>
@@ -22961,10 +22961,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="Q262" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="R262" t="s">
         <v>791</v>
@@ -22973,7 +22973,7 @@
         <v>791</v>
       </c>
       <c r="AC262" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="AD262" t="s">
         <v>791</v>
@@ -23023,10 +23023,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="Q263" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="R263" t="s">
         <v>791</v>
@@ -23035,7 +23035,7 @@
         <v>791</v>
       </c>
       <c r="AC263" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="AD263" t="s">
         <v>791</v>
@@ -23085,10 +23085,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="Q264" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="R264" t="s">
         <v>791</v>
@@ -23097,7 +23097,7 @@
         <v>791</v>
       </c>
       <c r="AC264" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="AD264" t="s">
         <v>791</v>
@@ -23144,10 +23144,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="Q265" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="R265" t="s">
         <v>791</v>
@@ -23156,7 +23156,7 @@
         <v>791</v>
       </c>
       <c r="AC265" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="AD265" t="s">
         <v>791</v>
@@ -23206,10 +23206,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="Q266" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="R266" t="s">
         <v>791</v>
@@ -23218,7 +23218,7 @@
         <v>791</v>
       </c>
       <c r="AC266" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="AD266" t="s">
         <v>791</v>
@@ -23268,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="Q267" t="s">
         <v>791</v>
@@ -23277,7 +23277,7 @@
         <v>791</v>
       </c>
       <c r="S267" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="AC267" t="s">
         <v>791</v>
@@ -23286,7 +23286,7 @@
         <v>791</v>
       </c>
       <c r="AE267" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
@@ -23330,25 +23330,25 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="Q268" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="R268" t="s">
         <v>791</v>
       </c>
       <c r="S268" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="AC268" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="AD268" t="s">
         <v>791</v>
       </c>
       <c r="AE268" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.25">
@@ -23389,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="Q269" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="R269" t="s">
         <v>791</v>
@@ -23401,7 +23401,7 @@
         <v>791</v>
       </c>
       <c r="AC269" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="AD269" t="s">
         <v>791</v>
@@ -23451,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="Q270" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="R270" t="s">
         <v>791</v>
@@ -23463,7 +23463,7 @@
         <v>791</v>
       </c>
       <c r="AC270" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="AD270" t="s">
         <v>791</v>
@@ -23519,10 +23519,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="Q271" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="R271" t="s">
         <v>791</v>
@@ -23531,7 +23531,7 @@
         <v>791</v>
       </c>
       <c r="AC271" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="AD271" t="s">
         <v>791</v>
@@ -23578,10 +23578,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="Q272" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="R272" t="s">
         <v>791</v>
@@ -23590,7 +23590,7 @@
         <v>791</v>
       </c>
       <c r="AC272" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="AD272" t="s">
         <v>791</v>
@@ -23643,10 +23643,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q273" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="R273" t="s">
         <v>791</v>
@@ -23655,7 +23655,7 @@
         <v>791</v>
       </c>
       <c r="AC273" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="AD273" t="s">
         <v>791</v>
@@ -23708,10 +23708,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="Q274" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="R274" t="s">
         <v>791</v>
@@ -23720,7 +23720,7 @@
         <v>791</v>
       </c>
       <c r="AC274" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="AD274" t="s">
         <v>791</v>
@@ -23767,10 +23767,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="Q275" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="R275" t="s">
         <v>791</v>
@@ -23779,7 +23779,7 @@
         <v>791</v>
       </c>
       <c r="AC275" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="AD275" t="s">
         <v>791</v>
@@ -23826,10 +23826,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="Q276" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="R276" t="s">
         <v>791</v>
@@ -23838,7 +23838,7 @@
         <v>791</v>
       </c>
       <c r="AC276" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="AD276" t="s">
         <v>791</v>
@@ -23885,10 +23885,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="Q277" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="R277" t="s">
         <v>791</v>
@@ -23897,7 +23897,7 @@
         <v>791</v>
       </c>
       <c r="AC277" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="AD277" t="s">
         <v>791</v>
@@ -23944,10 +23944,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="Q278" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="R278" t="s">
         <v>791</v>
@@ -23956,7 +23956,7 @@
         <v>791</v>
       </c>
       <c r="AC278" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="AD278" t="s">
         <v>791</v>
@@ -24003,10 +24003,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="Q279" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="R279" t="s">
         <v>791</v>
@@ -24015,7 +24015,7 @@
         <v>791</v>
       </c>
       <c r="AC279" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="AD279" t="s">
         <v>791</v>
@@ -24062,10 +24062,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="Q280" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="R280" t="s">
         <v>791</v>
@@ -24074,7 +24074,7 @@
         <v>791</v>
       </c>
       <c r="AC280" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="AD280" t="s">
         <v>791</v>
@@ -24121,10 +24121,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="Q281" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="R281" t="s">
         <v>791</v>
@@ -24133,7 +24133,7 @@
         <v>791</v>
       </c>
       <c r="AC281" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="AD281" t="s">
         <v>791</v>
@@ -24180,10 +24180,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="Q282" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="R282" t="s">
         <v>791</v>
@@ -24192,7 +24192,7 @@
         <v>791</v>
       </c>
       <c r="AC282" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="AD282" t="s">
         <v>791</v>
@@ -24239,10 +24239,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="Q283" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="R283" t="s">
         <v>791</v>
@@ -24251,7 +24251,7 @@
         <v>791</v>
       </c>
       <c r="AC283" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="AD283" t="s">
         <v>791</v>
@@ -24298,10 +24298,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="Q284" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="R284" t="s">
         <v>791</v>
@@ -24310,7 +24310,7 @@
         <v>791</v>
       </c>
       <c r="AC284" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="AD284" t="s">
         <v>791</v>
@@ -24357,10 +24357,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="Q285" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="R285" t="s">
         <v>791</v>
@@ -24369,7 +24369,7 @@
         <v>791</v>
       </c>
       <c r="AC285" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="AD285" t="s">
         <v>791</v>
@@ -24416,10 +24416,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q286" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="R286" t="s">
         <v>791</v>
@@ -24428,7 +24428,7 @@
         <v>791</v>
       </c>
       <c r="AC286" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AD286" t="s">
         <v>791</v>
@@ -24475,10 +24475,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="Q287" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="R287" t="s">
         <v>791</v>
@@ -24487,7 +24487,7 @@
         <v>791</v>
       </c>
       <c r="AC287" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="AD287" t="s">
         <v>791</v>
@@ -24534,10 +24534,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="Q288" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="R288" t="s">
         <v>791</v>
@@ -24546,7 +24546,7 @@
         <v>791</v>
       </c>
       <c r="AC288" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="AD288" t="s">
         <v>791</v>
@@ -24596,10 +24596,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="Q289" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="R289" t="s">
         <v>791</v>
@@ -24608,7 +24608,7 @@
         <v>791</v>
       </c>
       <c r="AC289" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="AD289" t="s">
         <v>791</v>
@@ -24658,10 +24658,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="Q290" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="R290" t="s">
         <v>791</v>
@@ -24670,7 +24670,7 @@
         <v>791</v>
       </c>
       <c r="AC290" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="AD290" t="s">
         <v>791</v>
@@ -24720,10 +24720,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="Q291" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="R291" t="s">
         <v>791</v>
@@ -24732,7 +24732,7 @@
         <v>791</v>
       </c>
       <c r="AC291" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="AD291" t="s">
         <v>791</v>
@@ -24746,10 +24746,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="C292" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>364</v>
@@ -24785,13 +24785,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="R292" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="AD292" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.25">
@@ -24799,16 +24799,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="C293" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="D293" t="s">
         <v>353</v>
       </c>
       <c r="E293" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -24841,13 +24841,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="R293" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="AD293" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.25">
@@ -24855,13 +24855,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="C294" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="D294" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -24897,13 +24897,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="R294" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="AD294" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.25">
@@ -24911,16 +24911,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="C295" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D295" t="s">
         <v>344</v>
       </c>
       <c r="E295" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -24953,13 +24953,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="R295" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="AD295" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.25">
@@ -24967,16 +24967,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="C296" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="D296" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="E296" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25009,13 +25009,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="R296" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="AD296" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.25">
@@ -25023,16 +25023,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="C297" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="D297" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="E297" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25065,13 +25065,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="R297" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="AD297" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.25">
@@ -25079,16 +25079,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="C298" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D298" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="E298" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="G298" t="s">
         <v>768</v>
@@ -25118,13 +25118,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="R298" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="AD298" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.25">
@@ -25132,16 +25132,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="C299" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="D299" t="s">
         <v>344</v>
       </c>
       <c r="E299" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25174,7 +25174,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.25">
@@ -25182,16 +25182,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="C300" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="D300" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="E300" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25224,13 +25224,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="S300" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="AE300" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.25">
@@ -25238,16 +25238,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="C301" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25280,13 +25280,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="S301" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="AE301" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.25">
@@ -25294,19 +25294,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="C302" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="D302" t="s">
         <v>381</v>
       </c>
       <c r="E302" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="G302" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="H302" t="s">
         <v>766</v>
@@ -25333,13 +25333,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="S302" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="AE302" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.25">
@@ -25347,22 +25347,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="C303" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="D303" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="E303" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="H303" t="s">
         <v>761</v>
@@ -25389,13 +25389,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="S303" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="AE303" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.25">
@@ -25403,16 +25403,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="C304" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="D304" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="E304" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25439,13 +25439,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="S304" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="AE304" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="305" spans="1:31" x14ac:dyDescent="0.25">
@@ -25453,16 +25453,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="C305" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="D305" t="s">
         <v>396</v>
       </c>
       <c r="E305" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -25495,13 +25495,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="S305" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="AE305" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="306" spans="1:31" x14ac:dyDescent="0.25">
@@ -25509,16 +25509,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="C306" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="D306" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -25551,13 +25551,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="S306" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="AE306" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="307" spans="1:31" x14ac:dyDescent="0.25">
@@ -25565,16 +25565,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="C307" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="D307" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="E307" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -25607,13 +25607,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="S307" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="AE307" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="308" spans="1:31" x14ac:dyDescent="0.25">
@@ -25621,16 +25621,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="C308" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="D308" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="E308" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -25663,13 +25663,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="S308" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="AE308" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.25">

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA59246-4FD1-46A0-AED0-E615BF2AF3DE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +16,7 @@
     <sheet name="TEAMS" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROS!$A$1:$AN$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROS!$A$1:$AQ$308</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="1791">
   <si>
     <t>nickName</t>
   </si>
@@ -5387,6 +5386,21 @@
   </si>
   <si>
     <t>[27971322, 54870579,67700396]</t>
+  </si>
+  <si>
+    <t>social.twitter</t>
+  </si>
+  <si>
+    <t>social.twitch</t>
+  </si>
+  <si>
+    <t>@FroggenLoL</t>
+  </si>
+  <si>
+    <t>social.facebook</t>
+  </si>
+  <si>
+    <t>@Froggen.LoL</t>
   </si>
 </sst>
 </file>
@@ -5444,7 +5458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5454,6 +5468,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5768,13 +5783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN313"/>
+  <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC122" sqref="AC122"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,9 +5821,12 @@
     <col min="36" max="38" width="17.42578125" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5929,8 +5947,17 @@
       <c r="AN1" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101001</v>
       </c>
@@ -5998,7 +6025,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>101002</v>
       </c>
@@ -6066,7 +6093,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>101003</v>
       </c>
@@ -6134,7 +6161,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101004</v>
       </c>
@@ -6202,7 +6229,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>101005</v>
       </c>
@@ -6270,7 +6297,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>102001</v>
       </c>
@@ -6338,7 +6365,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>102002</v>
       </c>
@@ -6406,7 +6433,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>102003</v>
       </c>
@@ -6474,7 +6501,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>102004</v>
       </c>
@@ -6539,7 +6566,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>102005</v>
       </c>
@@ -6607,7 +6634,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>103001</v>
       </c>
@@ -6675,7 +6702,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>103002</v>
       </c>
@@ -6740,7 +6767,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>103003</v>
       </c>
@@ -6805,7 +6832,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>103004</v>
       </c>
@@ -6873,7 +6900,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>103005</v>
       </c>
@@ -7990,7 +8017,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>107002</v>
       </c>
@@ -8055,7 +8082,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>107003</v>
       </c>
@@ -8123,7 +8150,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>107004</v>
       </c>
@@ -8191,7 +8218,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>107005</v>
       </c>
@@ -8259,7 +8286,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>108001</v>
       </c>
@@ -8324,7 +8351,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>108002</v>
       </c>
@@ -8389,7 +8416,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>108003</v>
       </c>
@@ -8450,8 +8477,17 @@
       <c r="AE39" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO39" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ39" s="7" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>108004</v>
       </c>
@@ -8516,7 +8552,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>108005</v>
       </c>
@@ -8575,7 +8611,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>108006</v>
       </c>
@@ -8637,7 +8673,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>108007</v>
       </c>
@@ -8702,7 +8738,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>108008</v>
       </c>
@@ -8767,7 +8803,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>108009</v>
       </c>
@@ -8829,7 +8865,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>109001</v>
       </c>
@@ -8897,7 +8933,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>109002</v>
       </c>
@@ -8962,7 +8998,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>109003</v>
       </c>
@@ -25688,7 +25724,7 @@
       <c r="A313" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN291" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ308" xr:uid="{E35BDB71-4614-43CB-874F-BBE88721387F}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F9D23C-8237-41AC-BA2F-59ADD06D5053}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="1790">
   <si>
     <t>nickName</t>
   </si>
@@ -5392,9 +5393,6 @@
   </si>
   <si>
     <t>social.twitch</t>
-  </si>
-  <si>
-    <t>@FroggenLoL</t>
   </si>
   <si>
     <t>social.facebook</t>
@@ -5458,7 +5456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5469,6 +5467,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5786,10 +5790,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AO52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AQ79" sqref="AQ79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5821,7 +5825,7 @@
     <col min="36" max="38" width="17.42578125" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -5947,14 +5951,14 @@
       <c r="AN1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="8" t="s">
         <v>1786</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>1787</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6024,6 +6028,9 @@
       <c r="AE2" t="s">
         <v>791</v>
       </c>
+      <c r="AO2" s="9">
+        <v>797258274</v>
+      </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -6092,6 +6099,9 @@
       <c r="AE3" t="s">
         <v>791</v>
       </c>
+      <c r="AO3" s="9">
+        <v>1571431178</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -6160,6 +6170,9 @@
       <c r="AE4" t="s">
         <v>791</v>
       </c>
+      <c r="AO4" s="9">
+        <v>1029142980</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -6228,6 +6241,9 @@
       <c r="AE5" t="s">
         <v>791</v>
       </c>
+      <c r="AO5" s="9">
+        <v>344538810</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -6296,6 +6312,9 @@
       <c r="AE6" t="s">
         <v>791</v>
       </c>
+      <c r="AO6" s="9">
+        <v>2967174322</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -6364,6 +6383,9 @@
       <c r="AE7" t="s">
         <v>791</v>
       </c>
+      <c r="AO7" s="9">
+        <v>8.0708557438532403E+17</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -6432,6 +6454,9 @@
       <c r="AE8" t="s">
         <v>791</v>
       </c>
+      <c r="AO8" s="9">
+        <v>627395451</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -6500,6 +6525,9 @@
       <c r="AE9" t="s">
         <v>791</v>
       </c>
+      <c r="AO9" s="9">
+        <v>409736208</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -6565,6 +6593,9 @@
       <c r="AE10" t="s">
         <v>791</v>
       </c>
+      <c r="AO10" s="9">
+        <v>1891679210</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -6633,6 +6664,9 @@
       <c r="AE11" t="s">
         <v>791</v>
       </c>
+      <c r="AO11" s="10">
+        <v>2358219158</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -6701,6 +6735,9 @@
       <c r="AE12" t="s">
         <v>791</v>
       </c>
+      <c r="AO12" s="9">
+        <v>606721954</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -6766,6 +6803,9 @@
       <c r="AE13" t="s">
         <v>791</v>
       </c>
+      <c r="AO13" s="9">
+        <v>7.9656035538429901E+17</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -6831,6 +6871,9 @@
       <c r="AE14" t="s">
         <v>791</v>
       </c>
+      <c r="AO14" s="9">
+        <v>2842441900</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -6899,6 +6942,9 @@
       <c r="AE15" t="s">
         <v>791</v>
       </c>
+      <c r="AO15" s="9">
+        <v>1549711460</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -6967,8 +7013,11 @@
       <c r="AE16" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO16" s="9">
+        <v>453175900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>104001</v>
       </c>
@@ -7035,8 +7084,11 @@
       <c r="AE17" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO17" s="9">
+        <v>2963716081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>104002</v>
       </c>
@@ -7100,8 +7152,11 @@
       <c r="AE18" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO18" s="9">
+        <v>911330070</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>104003</v>
       </c>
@@ -7168,8 +7223,11 @@
       <c r="AE19" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO19" s="9">
+        <v>2431173637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>104004</v>
       </c>
@@ -7236,8 +7294,11 @@
       <c r="AE20" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO20" s="9">
+        <v>70681150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>104005</v>
       </c>
@@ -7304,8 +7365,11 @@
       <c r="AE21" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO21" s="9">
+        <v>2562577436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>105001</v>
       </c>
@@ -7372,8 +7436,11 @@
       <c r="AE22" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO22" s="9">
+        <v>3033743029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>105002</v>
       </c>
@@ -7437,8 +7504,11 @@
       <c r="AE23" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO23" s="9">
+        <v>3240335132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>105003</v>
       </c>
@@ -7502,8 +7572,11 @@
       <c r="AE24" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO24" s="9">
+        <v>2355746030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>105004</v>
       </c>
@@ -7570,8 +7643,11 @@
       <c r="AE25" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO25" s="9">
+        <v>555641003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>105005</v>
       </c>
@@ -7635,8 +7711,11 @@
       <c r="AE26" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO26" s="9">
+        <v>1312663430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>106001</v>
       </c>
@@ -7694,8 +7773,11 @@
       <c r="AE27" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO27" s="9">
+        <v>3219379807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>106002</v>
       </c>
@@ -7762,8 +7844,11 @@
       <c r="AE28" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO28" s="9">
+        <v>7.3076120301053504E+17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>106003</v>
       </c>
@@ -7827,8 +7912,11 @@
       <c r="AE29" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO29" s="9">
+        <v>366839886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>106004</v>
       </c>
@@ -7892,8 +7980,11 @@
       <c r="AE30" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO30" s="9">
+        <v>1695450060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>106005</v>
       </c>
@@ -7957,8 +8048,11 @@
       <c r="AE31" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO31" s="9">
+        <v>2402529038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>107001</v>
       </c>
@@ -8015,6 +8109,9 @@
       </c>
       <c r="AE32" t="s">
         <v>791</v>
+      </c>
+      <c r="AO32" s="9">
+        <v>550041386</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
@@ -8081,6 +8178,9 @@
       <c r="AE33" t="s">
         <v>791</v>
       </c>
+      <c r="AO33" s="9">
+        <v>3098400658</v>
+      </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -8149,6 +8249,9 @@
       <c r="AE34" t="s">
         <v>791</v>
       </c>
+      <c r="AO34" s="9">
+        <v>710300755</v>
+      </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -8217,6 +8320,9 @@
       <c r="AE35" t="s">
         <v>791</v>
       </c>
+      <c r="AO35" s="9">
+        <v>1158468355</v>
+      </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -8285,6 +8391,9 @@
       <c r="AE36" t="s">
         <v>791</v>
       </c>
+      <c r="AO36" s="9">
+        <v>1158473077</v>
+      </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -8415,6 +8524,9 @@
       <c r="AE38" t="s">
         <v>791</v>
       </c>
+      <c r="AO38" s="9">
+        <v>2500157576</v>
+      </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -8477,14 +8589,14 @@
       <c r="AE39" t="s">
         <v>1662</v>
       </c>
-      <c r="AO39" s="7" t="s">
-        <v>1788</v>
+      <c r="AO39" s="11">
+        <v>803776063</v>
       </c>
       <c r="AP39" t="s">
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8551,6 +8663,9 @@
       <c r="AE40" t="s">
         <v>791</v>
       </c>
+      <c r="AO40" s="9">
+        <v>1323579721</v>
+      </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -8610,6 +8725,9 @@
       <c r="AE41" t="s">
         <v>791</v>
       </c>
+      <c r="AO41" s="9">
+        <v>1518796441</v>
+      </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -8672,6 +8790,9 @@
       <c r="AE42" t="s">
         <v>791</v>
       </c>
+      <c r="AO42" s="9">
+        <v>8.0453309903590605E+17</v>
+      </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -8737,6 +8858,9 @@
       <c r="AE43" t="s">
         <v>791</v>
       </c>
+      <c r="AO43" s="9">
+        <v>3318645734</v>
+      </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -8802,6 +8926,9 @@
       <c r="AE44" t="s">
         <v>791</v>
       </c>
+      <c r="AO44" s="9">
+        <v>2881291357</v>
+      </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -8864,6 +8991,9 @@
       <c r="AE45" t="s">
         <v>791</v>
       </c>
+      <c r="AO45" s="9">
+        <v>361075874</v>
+      </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -8932,6 +9062,9 @@
       <c r="AE46" t="s">
         <v>791</v>
       </c>
+      <c r="AO46" s="9">
+        <v>521104742</v>
+      </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -8997,6 +9130,9 @@
       <c r="AE47" t="s">
         <v>791</v>
       </c>
+      <c r="AO47" s="9">
+        <v>3333845799</v>
+      </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -9065,8 +9201,11 @@
       <c r="AE48" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO48" s="9">
+        <v>8.8955887377375206E+17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>109004</v>
       </c>
@@ -9133,8 +9272,11 @@
       <c r="AE49" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO49" s="9">
+        <v>2884184449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>109005</v>
       </c>
@@ -9198,8 +9340,11 @@
       <c r="AE50" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO50" s="9">
+        <v>2802746749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>110001</v>
       </c>
@@ -9263,8 +9408,11 @@
       <c r="AE51" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO51" s="9">
+        <v>115542264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>110002</v>
       </c>
@@ -9328,8 +9476,11 @@
       <c r="AE52" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO52" s="9">
+        <v>8.3788326869967206E+17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>110003</v>
       </c>
@@ -9396,8 +9547,11 @@
       <c r="AE53" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO53" s="9">
+        <v>2870393113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>110004</v>
       </c>
@@ -9464,8 +9618,11 @@
       <c r="AE54" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO54" s="9">
+        <v>3180805950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>110005</v>
       </c>
@@ -9532,8 +9689,11 @@
       <c r="AE55" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO55" s="9">
+        <v>438136706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>201001</v>
       </c>
@@ -9600,8 +9760,11 @@
       <c r="AE56" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO56" s="9">
+        <v>498051521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>201002</v>
       </c>
@@ -9668,8 +9831,11 @@
       <c r="AE57" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO57" s="9">
+        <v>4910628093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>201003</v>
       </c>
@@ -9736,8 +9902,11 @@
       <c r="AE58" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO58" s="9">
+        <v>2996912843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>201004</v>
       </c>
@@ -9804,8 +9973,11 @@
       <c r="AE59" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO59" s="9">
+        <v>881827464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>201005</v>
       </c>
@@ -9872,8 +10044,11 @@
       <c r="AE60" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO60" s="9">
+        <v>2180891672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>202001</v>
       </c>
@@ -9931,8 +10106,11 @@
       <c r="AE61" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO61" s="9">
+        <v>7.3226846807500301E+17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>202002</v>
       </c>
@@ -9999,8 +10177,11 @@
       <c r="AE62" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO62" s="9">
+        <v>189438124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>202003</v>
       </c>
@@ -10067,8 +10248,11 @@
       <c r="AE63" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO63" s="9">
+        <v>1648029396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>202004</v>
       </c>
@@ -10135,8 +10319,11 @@
       <c r="AE64" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO64" s="9">
+        <v>1887874465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>202005</v>
       </c>
@@ -10203,8 +10390,11 @@
       <c r="AE65" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO65" s="9">
+        <v>1244508066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>203001</v>
       </c>
@@ -10268,8 +10458,11 @@
       <c r="AE66" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO66" s="9">
+        <v>2790180781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>203002</v>
       </c>
@@ -10336,8 +10529,11 @@
       <c r="AE67" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO67" s="9">
+        <v>2893607283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>203003</v>
       </c>
@@ -10404,8 +10600,11 @@
       <c r="AE68" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO68" s="9">
+        <v>2550298718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>203004</v>
       </c>
@@ -10472,8 +10671,11 @@
       <c r="AE69" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO69" s="9">
+        <v>2460445795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>203005</v>
       </c>
@@ -10540,8 +10742,11 @@
       <c r="AE70" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO70" s="9">
+        <v>3220569488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>204001</v>
       </c>
@@ -10599,8 +10804,11 @@
       <c r="AE71" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO71" s="9">
+        <v>2262186933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>204002</v>
       </c>
@@ -10664,8 +10872,11 @@
       <c r="AE72" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO72" s="9">
+        <v>3376068993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>204003</v>
       </c>
@@ -10732,8 +10943,11 @@
       <c r="AE73" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO73" s="9">
+        <v>2943089668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>204004</v>
       </c>
@@ -10797,8 +11011,11 @@
       <c r="AE74" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO74" s="9">
+        <v>2275242200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>204005</v>
       </c>
@@ -10865,8 +11082,11 @@
       <c r="AE75" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO75" s="9">
+        <v>8.0530607732347597E+17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>205001</v>
       </c>
@@ -10930,8 +11150,11 @@
       <c r="AE76" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO76" s="9">
+        <v>2274984734</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>205002</v>
       </c>
@@ -11004,8 +11227,11 @@
       <c r="AF77" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO77" s="9">
+        <v>2216500400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>205003</v>
       </c>
@@ -11072,8 +11298,11 @@
       <c r="AE78" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO78" s="9">
+        <v>1974332792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>205004</v>
       </c>
@@ -11134,8 +11363,11 @@
       <c r="AE79" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AO79" s="9">
+        <v>8.0884771753120499E+17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>205005</v>
       </c>
@@ -11196,8 +11428,11 @@
       <c r="AE80" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO80" s="9">
+        <v>3290808800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>206001</v>
       </c>
@@ -11264,8 +11499,11 @@
       <c r="AE81" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO81" s="9">
+        <v>2776080715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>206002</v>
       </c>
@@ -11332,8 +11570,11 @@
       <c r="AE82" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO82" s="9">
+        <v>2767545127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>206003</v>
       </c>
@@ -11400,8 +11641,11 @@
       <c r="AE83" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO83" s="9">
+        <v>2303751344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>206004</v>
       </c>
@@ -11465,8 +11709,11 @@
       <c r="AE84" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO84" s="9">
+        <v>710556630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>206005</v>
       </c>
@@ -11533,8 +11780,11 @@
       <c r="AE85" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO85" s="9">
+        <v>2984116738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>207001</v>
       </c>
@@ -11601,8 +11851,11 @@
       <c r="AE86" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO86" s="9">
+        <v>2590218632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>207002</v>
       </c>
@@ -11666,8 +11919,11 @@
       <c r="AE87" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO87" s="9">
+        <v>1076882574</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>207003</v>
       </c>
@@ -11734,8 +11990,11 @@
       <c r="AE88" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO88" s="9">
+        <v>1048780687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>207004</v>
       </c>
@@ -11802,8 +12061,11 @@
       <c r="AE89" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO89" s="9">
+        <v>1250062656</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>207005</v>
       </c>
@@ -11867,8 +12129,11 @@
       <c r="AE90" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO90" s="9">
+        <v>497329859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>208001</v>
       </c>
@@ -11935,8 +12200,11 @@
       <c r="AE91" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO91" s="9">
+        <v>2685541393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>208002</v>
       </c>
@@ -12003,8 +12271,11 @@
       <c r="AE92" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO92" s="9">
+        <v>3044903147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>208003</v>
       </c>
@@ -12068,8 +12339,11 @@
       <c r="AE93" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO93" s="9">
+        <v>1648682035</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>208004</v>
       </c>
@@ -12136,8 +12410,11 @@
       <c r="AE94" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO94" s="9">
+        <v>336118770</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>208005</v>
       </c>
@@ -12204,8 +12481,11 @@
       <c r="AE95" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO95" s="9">
+        <v>2216379312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>209001</v>
       </c>
@@ -12272,8 +12552,11 @@
       <c r="AE96" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO96" s="9">
+        <v>2493571052</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>209002</v>
       </c>
@@ -12337,8 +12620,11 @@
       <c r="AE97" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO97" s="9">
+        <v>3199462954</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>209003</v>
       </c>
@@ -12402,8 +12688,11 @@
       <c r="AE98" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO98" s="9">
+        <v>3300282393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>209004</v>
       </c>
@@ -12467,8 +12756,11 @@
       <c r="AE99" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO99" s="9">
+        <v>2902700080</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>209005</v>
       </c>
@@ -12532,8 +12824,11 @@
       <c r="AE100" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO100" s="9">
+        <v>2387061402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>210001</v>
       </c>
@@ -12597,8 +12892,11 @@
       <c r="AE101" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO101" s="9">
+        <v>2199018126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>210002</v>
       </c>
@@ -12665,8 +12963,11 @@
       <c r="AE102" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO102" s="9">
+        <v>2494302799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>210003</v>
       </c>
@@ -12730,8 +13031,11 @@
       <c r="AE103" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO103" s="9">
+        <v>7.0327568849371098E+17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>210004</v>
       </c>
@@ -12795,8 +13099,11 @@
       <c r="AE104" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO104" s="9">
+        <v>2387536795</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>210005</v>
       </c>
@@ -12860,8 +13167,11 @@
       <c r="AE105" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AO105" s="9">
+        <v>7.6598950418438502E+17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>301001</v>
       </c>
@@ -12926,7 +13236,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>301002</v>
       </c>
@@ -12991,7 +13301,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>301003</v>
       </c>
@@ -13059,7 +13369,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>301004</v>
       </c>
@@ -13127,7 +13437,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>301005</v>
       </c>
@@ -13195,7 +13505,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>302001</v>
       </c>
@@ -13263,7 +13573,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>302002</v>
       </c>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698DB3F8-1E46-4A54-8DFB-2ACE65E5CE89}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59896F4-6B17-432B-929B-50D0E851FA2B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3028,9 +3028,6 @@
     <t>[2068171, 1099756]</t>
   </si>
   <si>
-    <t>[3707717, 39120199]</t>
-  </si>
-  <si>
     <t>[13574172, 39010126]</t>
   </si>
   <si>
@@ -3940,9 +3937,6 @@
     <t>ssg_crown_2017.png</t>
   </si>
   <si>
-    <t>[3022592, 206534893]</t>
-  </si>
-  <si>
     <t>ssg_ruler_2017.png</t>
   </si>
   <si>
@@ -5396,6 +5390,12 @@
   </si>
   <si>
     <t>Gankster</t>
+  </si>
+  <si>
+    <t>[3022592, 206534893,210168141]</t>
+  </si>
+  <si>
+    <t>[3707717, 39120199,66800153]</t>
   </si>
 </sst>
 </file>
@@ -5787,10 +5787,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AO271" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO295" sqref="AO295"/>
+      <selection pane="bottomRight" activeCell="AC118" sqref="AC118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5949,13 +5949,13 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>1784</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1785</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q2" t="s">
         <v>789</v>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q3" t="s">
         <v>789</v>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q4" t="s">
         <v>789</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q5" t="s">
         <v>789</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q6" t="s">
         <v>789</v>
@@ -6360,10 +6360,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q7" t="s">
         <v>1172</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1173</v>
       </c>
       <c r="R7" t="s">
         <v>804</v>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q8" t="s">
         <v>789</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Q9" t="s">
         <v>789</v>
@@ -6531,7 +6531,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6570,13 +6570,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q10" t="s">
         <v>789</v>
       </c>
       <c r="R10" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="S10" t="s">
         <v>789</v>
@@ -6585,7 +6585,7 @@
         <v>789</v>
       </c>
       <c r="AD10" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -6641,10 +6641,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q11" t="s">
         <v>1177</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1178</v>
       </c>
       <c r="R11" t="s">
         <v>811</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q12" t="s">
         <v>789</v>
@@ -6780,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q13" t="s">
         <v>789</v>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q14" t="s">
         <v>789</v>
@@ -6919,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q15" t="s">
         <v>789</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q16" t="s">
         <v>789</v>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q17" t="s">
         <v>789</v>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q18" t="s">
         <v>789</v>
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q19" t="s">
         <v>789</v>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q20" t="s">
         <v>789</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Q21" t="s">
         <v>789</v>
@@ -7413,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q22" t="s">
         <v>1189</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1190</v>
       </c>
       <c r="R22" t="s">
         <v>836</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q23" t="s">
         <v>789</v>
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q24" t="s">
         <v>789</v>
@@ -7620,13 +7620,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q25" t="s">
         <v>789</v>
       </c>
       <c r="R25" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="S25" t="s">
         <v>789</v>
@@ -7635,7 +7635,7 @@
         <v>789</v>
       </c>
       <c r="AD25" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -7688,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q26" t="s">
         <v>789</v>
@@ -7750,10 +7750,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q27" t="s">
         <v>1195</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>1196</v>
       </c>
       <c r="R27" t="s">
         <v>843</v>
@@ -7821,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q28" t="s">
         <v>789</v>
       </c>
       <c r="R28" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="S28" t="s">
         <v>789</v>
@@ -7836,7 +7836,7 @@
         <v>789</v>
       </c>
       <c r="AD28" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AE28" t="s">
         <v>789</v>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q29" t="s">
         <v>789</v>
@@ -7898,7 +7898,7 @@
         <v>846</v>
       </c>
       <c r="S29" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
@@ -7907,7 +7907,7 @@
         <v>847</v>
       </c>
       <c r="AE29" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -7957,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q30" t="s">
         <v>789</v>
@@ -8025,13 +8025,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q31" t="s">
         <v>789</v>
       </c>
       <c r="R31" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="S31" t="s">
         <v>789</v>
@@ -8040,7 +8040,7 @@
         <v>789</v>
       </c>
       <c r="AD31" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q32" t="s">
         <v>789</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q33" t="s">
         <v>789</v>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q34" t="s">
         <v>789</v>
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q35" t="s">
         <v>789</v>
@@ -8368,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q36" t="s">
         <v>789</v>
@@ -8436,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q37" t="s">
         <v>789</v>
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q38" t="s">
         <v>789</v>
@@ -8566,16 +8566,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q39" t="s">
         <v>1208</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1209</v>
       </c>
       <c r="R39" t="s">
         <v>864</v>
       </c>
       <c r="S39" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="AC39" t="s">
         <v>865</v>
@@ -8584,7 +8584,7 @@
         <v>866</v>
       </c>
       <c r="AE39" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="AO39" s="11">
         <v>803776063</v>
@@ -8593,7 +8593,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8640,13 +8640,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q40" t="s">
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -8655,7 +8655,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q41" t="s">
         <v>789</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q42" t="s">
         <v>789</v>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Q43" t="s">
         <v>789</v>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Q44" t="s">
         <v>789</v>
@@ -8968,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q45" t="s">
         <v>789</v>
@@ -9039,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Q46" t="s">
         <v>789</v>
@@ -9107,13 +9107,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q47" t="s">
         <v>789</v>
       </c>
       <c r="R47" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="S47" t="s">
         <v>789</v>
@@ -9122,7 +9122,7 @@
         <v>789</v>
       </c>
       <c r="AD47" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -9178,13 +9178,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Q48" t="s">
         <v>1218</v>
       </c>
-      <c r="Q48" t="s">
-        <v>1219</v>
-      </c>
       <c r="R48" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
@@ -9193,7 +9193,7 @@
         <v>879</v>
       </c>
       <c r="AD48" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
@@ -9249,10 +9249,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q49" t="s">
         <v>1220</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>1221</v>
       </c>
       <c r="R49" t="s">
         <v>880</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q50" t="s">
         <v>789</v>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Q51" t="s">
         <v>789</v>
@@ -9453,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Q52" t="s">
         <v>789</v>
@@ -9524,13 +9524,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Q53" t="s">
         <v>789</v>
       </c>
       <c r="R53" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="S53" t="s">
         <v>789</v>
@@ -9539,7 +9539,7 @@
         <v>789</v>
       </c>
       <c r="AD53" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -9595,10 +9595,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q54" t="s">
         <v>1226</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>1227</v>
       </c>
       <c r="R54" t="s">
         <v>889</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Q55" t="s">
         <v>789</v>
@@ -9737,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q56" t="s">
         <v>789</v>
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q57" t="s">
         <v>789</v>
@@ -9879,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Q58" t="s">
         <v>789</v>
@@ -9888,7 +9888,7 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="AC58" t="s">
         <v>789</v>
@@ -9897,7 +9897,7 @@
         <v>789</v>
       </c>
       <c r="AE58" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
@@ -9950,10 +9950,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="Q59" t="s">
         <v>1232</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>1233</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
@@ -10021,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Q60" t="s">
         <v>789</v>
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q61" t="s">
         <v>789</v>
@@ -10154,10 +10154,10 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Q62" t="s">
         <v>1236</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1237</v>
       </c>
       <c r="R62" t="s">
         <v>789</v>
@@ -10225,7 +10225,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="Q63" t="s">
         <v>789</v>
@@ -10296,13 +10296,13 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Q64" t="s">
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="S64" t="s">
         <v>910</v>
@@ -10367,13 +10367,13 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Q65" t="s">
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="S65" t="s">
         <v>913</v>
@@ -10435,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Q66" t="s">
         <v>789</v>
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q67" t="s">
         <v>789</v>
@@ -10577,13 +10577,13 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Q68" t="s">
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="S68" t="s">
         <v>920</v>
@@ -10592,7 +10592,7 @@
         <v>789</v>
       </c>
       <c r="AD68" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AE68" t="s">
         <v>921</v>
@@ -10606,7 +10606,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10648,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q69" t="s">
         <v>789</v>
@@ -10719,10 +10719,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q70" t="s">
         <v>1245</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>1246</v>
       </c>
       <c r="R70" t="s">
         <v>789</v>
@@ -10781,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q71" t="s">
         <v>789</v>
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q72" t="s">
         <v>789</v>
@@ -10920,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="Q73" t="s">
         <v>789</v>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q74" t="s">
         <v>789</v>
@@ -10997,7 +10997,7 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="AC74" t="s">
         <v>789</v>
@@ -11006,7 +11006,7 @@
         <v>789</v>
       </c>
       <c r="AE74" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -11059,16 +11059,16 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Q75" t="s">
         <v>1251</v>
       </c>
-      <c r="Q75" t="s">
-        <v>1252</v>
-      </c>
       <c r="R75" t="s">
         <v>789</v>
       </c>
       <c r="S75" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="AC75" t="s">
         <v>933</v>
@@ -11077,7 +11077,7 @@
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AO75" s="9">
         <v>8.0530607732347597E+17</v>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q76" t="s">
         <v>789</v>
@@ -11136,7 +11136,7 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="AC76" t="s">
         <v>789</v>
@@ -11145,7 +11145,7 @@
         <v>789</v>
       </c>
       <c r="AE76" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -11198,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q77" t="s">
         <v>789</v>
@@ -11207,10 +11207,10 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="T77" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AC77" t="s">
         <v>789</v>
@@ -11219,10 +11219,10 @@
         <v>789</v>
       </c>
       <c r="AE77" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="AF77" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -11275,13 +11275,13 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q78" t="s">
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="S78" t="s">
         <v>934</v>
@@ -11290,7 +11290,7 @@
         <v>789</v>
       </c>
       <c r="AD78" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AE78" t="s">
         <v>935</v>
@@ -11340,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q79" t="s">
         <v>789</v>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q80" t="s">
         <v>789</v>
@@ -11476,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Q81" t="s">
         <v>789</v>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q82" t="s">
         <v>789</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q83" t="s">
         <v>789</v>
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q84" t="s">
         <v>789</v>
@@ -11757,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q85" t="s">
         <v>789</v>
@@ -11828,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q86" t="s">
         <v>789</v>
@@ -11896,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Q87" t="s">
         <v>789</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q88" t="s">
         <v>789</v>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q89" t="s">
         <v>789</v>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q90" t="s">
         <v>789</v>
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q91" t="s">
         <v>789</v>
@@ -12248,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q92" t="s">
         <v>789</v>
@@ -12257,7 +12257,7 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="AC92" t="s">
         <v>789</v>
@@ -12266,7 +12266,7 @@
         <v>789</v>
       </c>
       <c r="AE92" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q93" t="s">
         <v>789</v>
@@ -12387,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q94" t="s">
         <v>789</v>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q95" t="s">
         <v>789</v>
@@ -12529,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q96" t="s">
         <v>789</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q97" t="s">
         <v>789</v>
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q98" t="s">
         <v>789</v>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q99" t="s">
         <v>789</v>
@@ -12801,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -12869,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q102" t="s">
         <v>789</v>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -13076,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -13144,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -13212,10 +13212,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Q106" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>1280</v>
       </c>
       <c r="R106" t="s">
         <v>789</v>
@@ -13277,10 +13277,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q107" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="R107" t="s">
         <v>789</v>
@@ -13289,7 +13289,7 @@
         <v>789</v>
       </c>
       <c r="AC107" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -13345,10 +13345,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q108" t="s">
         <v>1282</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>1283</v>
       </c>
       <c r="R108" t="s">
         <v>789</v>
@@ -13416,10 +13416,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q109" t="s">
         <v>1284</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>1285</v>
       </c>
       <c r="R109" t="s">
         <v>789</v>
@@ -13487,10 +13487,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Q110" t="s">
         <v>1286</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>1287</v>
       </c>
       <c r="R110" t="s">
         <v>789</v>
@@ -13558,10 +13558,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Q111" t="s">
         <v>1288</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>1289</v>
       </c>
       <c r="R111" t="s">
         <v>789</v>
@@ -13629,10 +13629,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q112" t="s">
         <v>1290</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>1291</v>
       </c>
       <c r="R112" t="s">
         <v>789</v>
@@ -13697,10 +13697,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q113" t="s">
         <v>1292</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>1293</v>
       </c>
       <c r="R113" t="s">
         <v>789</v>
@@ -13765,10 +13765,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q114" t="s">
         <v>1294</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>1295</v>
       </c>
       <c r="R114" t="s">
         <v>789</v>
@@ -13836,10 +13836,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q115" t="s">
         <v>1296</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>1297</v>
       </c>
       <c r="R115" t="s">
         <v>789</v>
@@ -13904,10 +13904,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q116" t="s">
         <v>1298</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>1299</v>
       </c>
       <c r="R116" t="s">
         <v>789</v>
@@ -13972,10 +13972,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Q117" t="s">
         <v>1300</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>1301</v>
       </c>
       <c r="R117" t="s">
         <v>789</v>
@@ -14040,10 +14040,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q118" t="s">
-        <v>1303</v>
+        <v>1787</v>
       </c>
       <c r="R118" t="s">
         <v>789</v>
@@ -14052,7 +14052,7 @@
         <v>789</v>
       </c>
       <c r="AC118" t="s">
-        <v>999</v>
+        <v>1788</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -14108,10 +14108,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q119" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="R119" t="s">
         <v>789</v>
@@ -14120,7 +14120,7 @@
         <v>789</v>
       </c>
       <c r="AC119" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="AD119" t="s">
         <v>789</v>
@@ -14179,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="Q120" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="R120" t="s">
         <v>789</v>
@@ -14191,7 +14191,7 @@
         <v>789</v>
       </c>
       <c r="AC120" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -14250,22 +14250,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Q121" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="R121" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
       </c>
       <c r="AC121" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AD121" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -14321,10 +14321,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="Q122" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="R122" t="s">
         <v>789</v>
@@ -14333,7 +14333,7 @@
         <v>789</v>
       </c>
       <c r="AC122" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -14392,10 +14392,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q123" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R123" t="s">
         <v>789</v>
@@ -14404,7 +14404,7 @@
         <v>789</v>
       </c>
       <c r="AC123" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD123" t="s">
         <v>789</v>
@@ -14460,10 +14460,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q124" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R124" t="s">
         <v>789</v>
@@ -14472,7 +14472,7 @@
         <v>789</v>
       </c>
       <c r="AC124" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AD124" t="s">
         <v>789</v>
@@ -14531,10 +14531,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Q125" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="R125" t="s">
         <v>789</v>
@@ -14543,7 +14543,7 @@
         <v>789</v>
       </c>
       <c r="AC125" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD125" t="s">
         <v>789</v>
@@ -14602,10 +14602,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="Q126" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="R126" t="s">
         <v>789</v>
@@ -14614,7 +14614,7 @@
         <v>789</v>
       </c>
       <c r="AC126" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AD126" t="s">
         <v>789</v>
@@ -14670,10 +14670,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q127" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="R127" t="s">
         <v>789</v>
@@ -14682,7 +14682,7 @@
         <v>789</v>
       </c>
       <c r="AC127" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AD127" t="s">
         <v>789</v>
@@ -14732,10 +14732,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q128" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="R128" t="s">
         <v>789</v>
@@ -14744,7 +14744,7 @@
         <v>789</v>
       </c>
       <c r="AC128" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AD128" t="s">
         <v>789</v>
@@ -14797,10 +14797,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Q129" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="R129" t="s">
         <v>789</v>
@@ -14809,7 +14809,7 @@
         <v>789</v>
       </c>
       <c r="AC129" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AD129" t="s">
         <v>789</v>
@@ -14865,10 +14865,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q130" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R130" t="s">
         <v>789</v>
@@ -14877,7 +14877,7 @@
         <v>789</v>
       </c>
       <c r="AC130" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AD130" t="s">
         <v>789</v>
@@ -14936,10 +14936,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="Q131" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="R131" t="s">
         <v>789</v>
@@ -14948,7 +14948,7 @@
         <v>789</v>
       </c>
       <c r="AC131" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AD131" t="s">
         <v>789</v>
@@ -15004,10 +15004,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Q132" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="R132" t="s">
         <v>789</v>
@@ -15016,7 +15016,7 @@
         <v>789</v>
       </c>
       <c r="AC132" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AD132" t="s">
         <v>789</v>
@@ -15069,10 +15069,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q133" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="R133" t="s">
         <v>789</v>
@@ -15081,7 +15081,7 @@
         <v>789</v>
       </c>
       <c r="AC133" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AD133" t="s">
         <v>789</v>
@@ -15134,10 +15134,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Q134" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="R134" t="s">
         <v>789</v>
@@ -15146,7 +15146,7 @@
         <v>789</v>
       </c>
       <c r="AC134" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AD134" t="s">
         <v>789</v>
@@ -15202,10 +15202,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Q135" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="R135" t="s">
         <v>789</v>
@@ -15214,7 +15214,7 @@
         <v>789</v>
       </c>
       <c r="AC135" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AD135" t="s">
         <v>789</v>
@@ -15267,10 +15267,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q136" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="R136" t="s">
         <v>789</v>
@@ -15279,7 +15279,7 @@
         <v>789</v>
       </c>
       <c r="AC136" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AD136" t="s">
         <v>789</v>
@@ -15329,10 +15329,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q137" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="R137" t="s">
         <v>789</v>
@@ -15341,7 +15341,7 @@
         <v>789</v>
       </c>
       <c r="AC137" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AD137" t="s">
         <v>789</v>
@@ -15394,10 +15394,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q138" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -15406,7 +15406,7 @@
         <v>789</v>
       </c>
       <c r="AC138" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AD138" t="s">
         <v>789</v>
@@ -15462,10 +15462,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Q139" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -15474,7 +15474,7 @@
         <v>789</v>
       </c>
       <c r="AC139" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AD139" t="s">
         <v>789</v>
@@ -15530,10 +15530,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Q140" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="R140" t="s">
         <v>789</v>
@@ -15542,7 +15542,7 @@
         <v>789</v>
       </c>
       <c r="AC140" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AD140" t="s">
         <v>789</v>
@@ -15598,10 +15598,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="Q141" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -15610,7 +15610,7 @@
         <v>789</v>
       </c>
       <c r="AC141" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AD141" t="s">
         <v>789</v>
@@ -15666,10 +15666,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="Q142" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -15678,7 +15678,7 @@
         <v>789</v>
       </c>
       <c r="AC142" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AD142" t="s">
         <v>789</v>
@@ -15734,10 +15734,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="Q143" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -15746,7 +15746,7 @@
         <v>789</v>
       </c>
       <c r="AC143" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AD143" t="s">
         <v>789</v>
@@ -15802,10 +15802,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="Q144" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -15814,7 +15814,7 @@
         <v>789</v>
       </c>
       <c r="AC144" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AD144" t="s">
         <v>789</v>
@@ -15870,10 +15870,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="Q145" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -15882,7 +15882,7 @@
         <v>789</v>
       </c>
       <c r="AC145" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AD145" t="s">
         <v>789</v>
@@ -15938,10 +15938,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="Q146" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -15950,7 +15950,7 @@
         <v>789</v>
       </c>
       <c r="AC146" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AD146" t="s">
         <v>789</v>
@@ -16006,10 +16006,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="Q147" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -16018,7 +16018,7 @@
         <v>789</v>
       </c>
       <c r="AC147" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AD147" t="s">
         <v>789</v>
@@ -16074,10 +16074,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="Q148" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="R148" t="s">
         <v>789</v>
@@ -16086,7 +16086,7 @@
         <v>789</v>
       </c>
       <c r="AC148" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -16142,10 +16142,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="Q149" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -16154,7 +16154,7 @@
         <v>789</v>
       </c>
       <c r="AC149" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AD149" t="s">
         <v>789</v>
@@ -16207,10 +16207,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="Q150" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -16219,7 +16219,7 @@
         <v>789</v>
       </c>
       <c r="AC150" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AD150" t="s">
         <v>789</v>
@@ -16269,10 +16269,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="Q151" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -16281,7 +16281,7 @@
         <v>789</v>
       </c>
       <c r="AC151" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AD151" t="s">
         <v>789</v>
@@ -16334,10 +16334,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="Q152" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -16346,7 +16346,7 @@
         <v>789</v>
       </c>
       <c r="AC152" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AD152" t="s">
         <v>789</v>
@@ -16396,10 +16396,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="Q153" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -16408,7 +16408,7 @@
         <v>789</v>
       </c>
       <c r="AC153" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AD153" t="s">
         <v>789</v>
@@ -16461,10 +16461,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="Q154" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -16473,7 +16473,7 @@
         <v>789</v>
       </c>
       <c r="AC154" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AD154" t="s">
         <v>789</v>
@@ -16526,10 +16526,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="Q155" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -16538,7 +16538,7 @@
         <v>789</v>
       </c>
       <c r="AC155" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AD155" t="s">
         <v>789</v>
@@ -16591,10 +16591,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="Q156" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -16603,7 +16603,7 @@
         <v>789</v>
       </c>
       <c r="AC156" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AD156" t="s">
         <v>789</v>
@@ -16656,10 +16656,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="Q157" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -16668,7 +16668,7 @@
         <v>789</v>
       </c>
       <c r="AC157" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AD157" t="s">
         <v>789</v>
@@ -16721,10 +16721,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="Q158" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -16733,7 +16733,7 @@
         <v>789</v>
       </c>
       <c r="AC158" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AD158" t="s">
         <v>789</v>
@@ -16786,10 +16786,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="Q159" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -16798,7 +16798,7 @@
         <v>789</v>
       </c>
       <c r="AC159" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AD159" t="s">
         <v>789</v>
@@ -16851,10 +16851,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="Q160" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -16863,7 +16863,7 @@
         <v>789</v>
       </c>
       <c r="AC160" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AD160" t="s">
         <v>789</v>
@@ -16916,10 +16916,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="Q161" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -16928,7 +16928,7 @@
         <v>789</v>
       </c>
       <c r="AC161" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AD161" t="s">
         <v>789</v>
@@ -16984,10 +16984,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="Q162" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -16996,7 +16996,7 @@
         <v>789</v>
       </c>
       <c r="AC162" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AD162" t="s">
         <v>789</v>
@@ -17049,10 +17049,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="Q163" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -17061,7 +17061,7 @@
         <v>789</v>
       </c>
       <c r="AC163" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AD163" t="s">
         <v>789</v>
@@ -17114,10 +17114,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="Q164" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -17126,7 +17126,7 @@
         <v>789</v>
       </c>
       <c r="AC164" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AD164" t="s">
         <v>789</v>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -17244,10 +17244,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="Q166" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -17256,7 +17256,7 @@
         <v>789</v>
       </c>
       <c r="AC166" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AD166" t="s">
         <v>789</v>
@@ -17303,10 +17303,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="Q167" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -17315,7 +17315,7 @@
         <v>789</v>
       </c>
       <c r="AC167" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AD167" t="s">
         <v>789</v>
@@ -17368,10 +17368,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Q168" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -17380,7 +17380,7 @@
         <v>789</v>
       </c>
       <c r="AC168" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AD168" t="s">
         <v>789</v>
@@ -17436,10 +17436,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q169" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -17448,7 +17448,7 @@
         <v>789</v>
       </c>
       <c r="AC169" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AD169" t="s">
         <v>789</v>
@@ -17501,7 +17501,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -17566,10 +17566,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q171" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -17578,7 +17578,7 @@
         <v>789</v>
       </c>
       <c r="AC171" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AD171" t="s">
         <v>789</v>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -17690,10 +17690,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="Q173" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -17702,7 +17702,7 @@
         <v>789</v>
       </c>
       <c r="AC173" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AD173" t="s">
         <v>789</v>
@@ -17755,10 +17755,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="Q174" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -17767,7 +17767,7 @@
         <v>789</v>
       </c>
       <c r="AC174" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AD174" t="s">
         <v>789</v>
@@ -17820,10 +17820,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="Q175" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -17832,7 +17832,7 @@
         <v>789</v>
       </c>
       <c r="AC175" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AD175" t="s">
         <v>789</v>
@@ -17885,10 +17885,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="Q176" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -17897,7 +17897,7 @@
         <v>789</v>
       </c>
       <c r="AC176" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AD176" t="s">
         <v>789</v>
@@ -17950,10 +17950,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="Q177" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -17962,7 +17962,7 @@
         <v>789</v>
       </c>
       <c r="AC177" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AD177" t="s">
         <v>789</v>
@@ -18015,7 +18015,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -18080,10 +18080,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Q179" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -18092,7 +18092,7 @@
         <v>789</v>
       </c>
       <c r="AC179" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AD179" t="s">
         <v>789</v>
@@ -18145,10 +18145,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="Q180" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -18157,7 +18157,7 @@
         <v>789</v>
       </c>
       <c r="AC180" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD180" t="s">
         <v>789</v>
@@ -18213,10 +18213,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q181" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="R181" t="s">
         <v>789</v>
@@ -18225,7 +18225,7 @@
         <v>789</v>
       </c>
       <c r="AC181" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -18272,10 +18272,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Q182" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -18284,7 +18284,7 @@
         <v>789</v>
       </c>
       <c r="AC182" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AD182" t="s">
         <v>789</v>
@@ -18331,10 +18331,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="Q183" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -18343,7 +18343,7 @@
         <v>789</v>
       </c>
       <c r="AC183" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AD183" t="s">
         <v>789</v>
@@ -18396,10 +18396,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="Q184" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -18408,7 +18408,7 @@
         <v>789</v>
       </c>
       <c r="AC184" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AD184" t="s">
         <v>789</v>
@@ -18461,10 +18461,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Q185" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -18473,7 +18473,7 @@
         <v>789</v>
       </c>
       <c r="AC185" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AD185" t="s">
         <v>789</v>
@@ -18526,10 +18526,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q186" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -18538,7 +18538,7 @@
         <v>789</v>
       </c>
       <c r="AC186" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AD186" t="s">
         <v>789</v>
@@ -18594,10 +18594,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Q187" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -18606,7 +18606,7 @@
         <v>789</v>
       </c>
       <c r="AC187" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AD187" t="s">
         <v>789</v>
@@ -18659,10 +18659,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q188" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -18671,7 +18671,7 @@
         <v>789</v>
       </c>
       <c r="AC188" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AD188" t="s">
         <v>789</v>
@@ -18724,10 +18724,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q189" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -18736,7 +18736,7 @@
         <v>789</v>
       </c>
       <c r="AC189" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AD189" t="s">
         <v>789</v>
@@ -18783,10 +18783,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Q190" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -18795,7 +18795,7 @@
         <v>789</v>
       </c>
       <c r="AC190" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AD190" t="s">
         <v>789</v>
@@ -18842,10 +18842,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Q191" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -18854,7 +18854,7 @@
         <v>789</v>
       </c>
       <c r="AC191" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AD191" t="s">
         <v>789</v>
@@ -18901,10 +18901,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Q192" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -18913,7 +18913,7 @@
         <v>789</v>
       </c>
       <c r="AC192" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AD192" t="s">
         <v>789</v>
@@ -18966,10 +18966,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="Q193" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -18978,7 +18978,7 @@
         <v>789</v>
       </c>
       <c r="AC193" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD193" t="s">
         <v>789</v>
@@ -19025,10 +19025,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q194" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -19037,7 +19037,7 @@
         <v>789</v>
       </c>
       <c r="AC194" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AD194" t="s">
         <v>789</v>
@@ -19087,10 +19087,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="Q195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -19099,7 +19099,7 @@
         <v>789</v>
       </c>
       <c r="AC195" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AD195" t="s">
         <v>789</v>
@@ -19149,10 +19149,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="Q196" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -19161,7 +19161,7 @@
         <v>789</v>
       </c>
       <c r="AC196" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AD196" t="s">
         <v>789</v>
@@ -19214,10 +19214,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="Q197" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -19226,7 +19226,7 @@
         <v>789</v>
       </c>
       <c r="AC197" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AD197" t="s">
         <v>789</v>
@@ -19279,7 +19279,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -19344,7 +19344,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -19409,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -19539,10 +19539,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q202" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -19551,7 +19551,7 @@
         <v>789</v>
       </c>
       <c r="AC202" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AD202" t="s">
         <v>789</v>
@@ -19604,7 +19604,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -19663,10 +19663,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="Q204" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -19675,7 +19675,7 @@
         <v>789</v>
       </c>
       <c r="AC204" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AD204" t="s">
         <v>789</v>
@@ -19722,10 +19722,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="Q205" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -19734,7 +19734,7 @@
         <v>789</v>
       </c>
       <c r="AC205" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AD205" t="s">
         <v>789</v>
@@ -19790,10 +19790,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="Q206" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -19802,7 +19802,7 @@
         <v>789</v>
       </c>
       <c r="AC206" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AD206" t="s">
         <v>789</v>
@@ -19858,10 +19858,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="Q207" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -19870,7 +19870,7 @@
         <v>789</v>
       </c>
       <c r="AC207" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD207" t="s">
         <v>789</v>
@@ -19926,10 +19926,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Q208" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -19938,7 +19938,7 @@
         <v>789</v>
       </c>
       <c r="AC208" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AD208" t="s">
         <v>789</v>
@@ -19994,10 +19994,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="Q209" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -20006,7 +20006,7 @@
         <v>789</v>
       </c>
       <c r="AC209" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AD209" t="s">
         <v>789</v>
@@ -20056,10 +20056,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="Q210" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -20068,7 +20068,7 @@
         <v>789</v>
       </c>
       <c r="AC210" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AD210" t="s">
         <v>789</v>
@@ -20124,10 +20124,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q211" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -20136,7 +20136,7 @@
         <v>789</v>
       </c>
       <c r="AC211" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AD211" t="s">
         <v>789</v>
@@ -20189,10 +20189,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q212" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -20201,7 +20201,7 @@
         <v>789</v>
       </c>
       <c r="AC212" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AD212" t="s">
         <v>789</v>
@@ -20248,10 +20248,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Q213" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -20260,7 +20260,7 @@
         <v>789</v>
       </c>
       <c r="AC213" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AD213" t="s">
         <v>789</v>
@@ -20313,10 +20313,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Q214" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -20325,7 +20325,7 @@
         <v>789</v>
       </c>
       <c r="AC214" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AD214" t="s">
         <v>789</v>
@@ -20372,10 +20372,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q215" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -20384,7 +20384,7 @@
         <v>789</v>
       </c>
       <c r="AC215" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AD215" t="s">
         <v>789</v>
@@ -20434,10 +20434,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q216" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -20446,7 +20446,7 @@
         <v>789</v>
       </c>
       <c r="AC216" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AD216" t="s">
         <v>789</v>
@@ -20502,10 +20502,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Q217" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -20514,7 +20514,7 @@
         <v>789</v>
       </c>
       <c r="AC217" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AD217" t="s">
         <v>789</v>
@@ -20570,10 +20570,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="Q218" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -20582,7 +20582,7 @@
         <v>789</v>
       </c>
       <c r="AC218" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AD218" t="s">
         <v>789</v>
@@ -20638,10 +20638,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q219" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -20650,7 +20650,7 @@
         <v>789</v>
       </c>
       <c r="AC219" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AD219" t="s">
         <v>789</v>
@@ -20706,10 +20706,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q220" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -20718,7 +20718,7 @@
         <v>789</v>
       </c>
       <c r="AC220" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AD220" t="s">
         <v>789</v>
@@ -20774,10 +20774,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q221" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -20786,7 +20786,7 @@
         <v>789</v>
       </c>
       <c r="AC221" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AD221" t="s">
         <v>789</v>
@@ -20842,10 +20842,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q222" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -20854,7 +20854,7 @@
         <v>789</v>
       </c>
       <c r="AC222" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AD222" t="s">
         <v>789</v>
@@ -20910,10 +20910,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="Q223" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -20922,7 +20922,7 @@
         <v>789</v>
       </c>
       <c r="AC223" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD223" t="s">
         <v>789</v>
@@ -20978,10 +20978,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Q224" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -20990,7 +20990,7 @@
         <v>789</v>
       </c>
       <c r="AC224" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AD224" t="s">
         <v>789</v>
@@ -21043,10 +21043,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q225" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -21055,7 +21055,7 @@
         <v>789</v>
       </c>
       <c r="AC225" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AD225" t="s">
         <v>789</v>
@@ -21111,10 +21111,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="Q226" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -21123,7 +21123,7 @@
         <v>789</v>
       </c>
       <c r="AC226" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AD226" t="s">
         <v>789</v>
@@ -21176,10 +21176,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="Q227" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -21188,7 +21188,7 @@
         <v>789</v>
       </c>
       <c r="AC227" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AD227" t="s">
         <v>789</v>
@@ -21241,10 +21241,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="Q228" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -21253,7 +21253,7 @@
         <v>789</v>
       </c>
       <c r="AC228" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AD228" t="s">
         <v>789</v>
@@ -21306,10 +21306,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="Q229" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -21318,7 +21318,7 @@
         <v>789</v>
       </c>
       <c r="AC229" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AD229" t="s">
         <v>789</v>
@@ -21365,10 +21365,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="Q230" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -21377,7 +21377,7 @@
         <v>789</v>
       </c>
       <c r="AC230" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AD230" t="s">
         <v>789</v>
@@ -21430,10 +21430,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Q231" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -21442,7 +21442,7 @@
         <v>789</v>
       </c>
       <c r="AC231" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AD231" t="s">
         <v>789</v>
@@ -21495,10 +21495,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="Q232" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -21507,7 +21507,7 @@
         <v>789</v>
       </c>
       <c r="AC232" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AD232" t="s">
         <v>789</v>
@@ -21557,10 +21557,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="Q233" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -21569,7 +21569,7 @@
         <v>789</v>
       </c>
       <c r="AC233" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AD233" t="s">
         <v>789</v>
@@ -21625,10 +21625,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Q234" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -21637,7 +21637,7 @@
         <v>789</v>
       </c>
       <c r="AC234" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AD234" t="s">
         <v>789</v>
@@ -21690,10 +21690,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="Q235" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -21702,7 +21702,7 @@
         <v>789</v>
       </c>
       <c r="AC235" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AD235" t="s">
         <v>789</v>
@@ -21755,10 +21755,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q236" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -21767,7 +21767,7 @@
         <v>789</v>
       </c>
       <c r="AC236" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AD236" t="s">
         <v>789</v>
@@ -21817,22 +21817,22 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
       </c>
       <c r="R237" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD237" t="s">
         <v>1105</v>
-      </c>
-      <c r="S237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>1106</v>
       </c>
       <c r="AE237" t="s">
         <v>789</v>
@@ -21882,22 +21882,22 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
       </c>
       <c r="R238" t="s">
+        <v>1106</v>
+      </c>
+      <c r="S238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD238" t="s">
         <v>1107</v>
-      </c>
-      <c r="S238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>1108</v>
       </c>
       <c r="AE238" t="s">
         <v>789</v>
@@ -21911,7 +21911,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -21938,22 +21938,22 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q239" t="s">
         <v>789</v>
       </c>
       <c r="R239" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD239" t="s">
         <v>1109</v>
-      </c>
-      <c r="S239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD239" t="s">
-        <v>1110</v>
       </c>
       <c r="AE239" t="s">
         <v>789</v>
@@ -22003,22 +22003,22 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
       </c>
       <c r="R240" t="s">
+        <v>1110</v>
+      </c>
+      <c r="S240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD240" t="s">
         <v>1111</v>
-      </c>
-      <c r="S240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD240" t="s">
-        <v>1112</v>
       </c>
       <c r="AE240" t="s">
         <v>789</v>
@@ -22068,13 +22068,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="S241" t="s">
         <v>789</v>
@@ -22083,7 +22083,7 @@
         <v>789</v>
       </c>
       <c r="AD241" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -22133,22 +22133,22 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
       </c>
       <c r="R242" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD242" t="s">
         <v>1113</v>
-      </c>
-      <c r="S242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD242" t="s">
-        <v>1114</v>
       </c>
       <c r="AE242" t="s">
         <v>789</v>
@@ -22198,7 +22198,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -22207,16 +22207,16 @@
         <v>789</v>
       </c>
       <c r="S243" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE243" t="s">
         <v>1115</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE243" t="s">
-        <v>1116</v>
       </c>
       <c r="AO243" s="9">
         <v>2358384846</v>
@@ -22263,10 +22263,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="Q244" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -22275,7 +22275,7 @@
         <v>789</v>
       </c>
       <c r="AC244" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD244" t="s">
         <v>789</v>
@@ -22325,10 +22325,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q245" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -22337,7 +22337,7 @@
         <v>789</v>
       </c>
       <c r="AC245" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AD245" t="s">
         <v>789</v>
@@ -22387,10 +22387,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q246" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -22399,7 +22399,7 @@
         <v>789</v>
       </c>
       <c r="AC246" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AD246" t="s">
         <v>789</v>
@@ -22449,10 +22449,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="Q247" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -22461,7 +22461,7 @@
         <v>789</v>
       </c>
       <c r="AC247" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AD247" t="s">
         <v>789</v>
@@ -22511,10 +22511,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="Q248" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -22523,7 +22523,7 @@
         <v>789</v>
       </c>
       <c r="AC248" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AD248" t="s">
         <v>789</v>
@@ -22573,22 +22573,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="Q249" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="R249" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
       </c>
       <c r="AC249" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AD249" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -22641,10 +22641,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Q250" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -22653,7 +22653,7 @@
         <v>789</v>
       </c>
       <c r="AC250" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AD250" t="s">
         <v>789</v>
@@ -22703,10 +22703,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="Q251" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -22715,7 +22715,7 @@
         <v>789</v>
       </c>
       <c r="AC251" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AD251" t="s">
         <v>789</v>
@@ -22765,10 +22765,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="Q252" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -22777,7 +22777,7 @@
         <v>789</v>
       </c>
       <c r="AC252" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AD252" t="s">
         <v>789</v>
@@ -22830,10 +22830,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="Q253" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -22842,7 +22842,7 @@
         <v>789</v>
       </c>
       <c r="AC253" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AD253" t="s">
         <v>789</v>
@@ -22892,10 +22892,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q254" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -22904,7 +22904,7 @@
         <v>789</v>
       </c>
       <c r="AC254" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AD254" t="s">
         <v>789</v>
@@ -22951,10 +22951,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="Q255" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="R255" t="s">
         <v>789</v>
@@ -22963,7 +22963,7 @@
         <v>789</v>
       </c>
       <c r="AC255" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AD255" t="s">
         <v>789</v>
@@ -23016,10 +23016,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="Q256" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="R256" t="s">
         <v>789</v>
@@ -23028,7 +23028,7 @@
         <v>789</v>
       </c>
       <c r="AC256" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AD256" t="s">
         <v>789</v>
@@ -23075,10 +23075,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="Q257" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -23087,7 +23087,7 @@
         <v>789</v>
       </c>
       <c r="AC257" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AD257" t="s">
         <v>789</v>
@@ -23140,10 +23140,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="Q258" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -23152,7 +23152,7 @@
         <v>789</v>
       </c>
       <c r="AC258" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AD258" t="s">
         <v>789</v>
@@ -23202,7 +23202,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -23211,16 +23211,16 @@
         <v>789</v>
       </c>
       <c r="S259" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE259" t="s">
         <v>1132</v>
-      </c>
-      <c r="AC259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE259" t="s">
-        <v>1133</v>
       </c>
       <c r="AO259" s="9">
         <v>613592902</v>
@@ -23264,10 +23264,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="Q260" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -23276,7 +23276,7 @@
         <v>789</v>
       </c>
       <c r="AC260" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AD260" t="s">
         <v>789</v>
@@ -23323,10 +23323,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="Q261" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -23335,7 +23335,7 @@
         <v>789</v>
       </c>
       <c r="AC261" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AD261" t="s">
         <v>789</v>
@@ -23385,10 +23385,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="Q262" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -23397,7 +23397,7 @@
         <v>789</v>
       </c>
       <c r="AC262" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AD262" t="s">
         <v>789</v>
@@ -23447,10 +23447,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="Q263" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -23459,7 +23459,7 @@
         <v>789</v>
       </c>
       <c r="AC263" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AD263" t="s">
         <v>789</v>
@@ -23512,10 +23512,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="Q264" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -23524,7 +23524,7 @@
         <v>789</v>
       </c>
       <c r="AC264" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AD264" t="s">
         <v>789</v>
@@ -23571,10 +23571,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="Q265" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -23583,7 +23583,7 @@
         <v>789</v>
       </c>
       <c r="AC265" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AD265" t="s">
         <v>789</v>
@@ -23633,10 +23633,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="Q266" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -23645,7 +23645,7 @@
         <v>789</v>
       </c>
       <c r="AC266" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AD266" t="s">
         <v>789</v>
@@ -23695,7 +23695,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -23704,16 +23704,16 @@
         <v>789</v>
       </c>
       <c r="S267" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE267" t="s">
         <v>1141</v>
-      </c>
-      <c r="AC267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE267" t="s">
-        <v>1142</v>
       </c>
       <c r="AO267" s="9">
         <v>1288516250</v>
@@ -23760,25 +23760,25 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="Q268" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="AC268" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AD268" t="s">
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="AO268" s="9">
         <v>8.6919286484408704E+17</v>
@@ -23822,10 +23822,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="Q269" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -23834,7 +23834,7 @@
         <v>789</v>
       </c>
       <c r="AC269" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AD269" t="s">
         <v>789</v>
@@ -23887,10 +23887,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="Q270" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -23899,7 +23899,7 @@
         <v>789</v>
       </c>
       <c r="AC270" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AD270" t="s">
         <v>789</v>
@@ -23955,10 +23955,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="Q271" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -23967,7 +23967,7 @@
         <v>789</v>
       </c>
       <c r="AC271" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD271" t="s">
         <v>789</v>
@@ -24014,10 +24014,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="Q272" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -24026,7 +24026,7 @@
         <v>789</v>
       </c>
       <c r="AC272" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD272" t="s">
         <v>789</v>
@@ -24079,10 +24079,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="Q273" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -24091,7 +24091,7 @@
         <v>789</v>
       </c>
       <c r="AC273" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AD273" t="s">
         <v>789</v>
@@ -24144,10 +24144,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="Q274" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -24156,7 +24156,7 @@
         <v>789</v>
       </c>
       <c r="AC274" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AD274" t="s">
         <v>789</v>
@@ -24206,10 +24206,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Q275" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -24218,7 +24218,7 @@
         <v>789</v>
       </c>
       <c r="AC275" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AD275" t="s">
         <v>789</v>
@@ -24265,10 +24265,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q276" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -24277,7 +24277,7 @@
         <v>789</v>
       </c>
       <c r="AC276" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AD276" t="s">
         <v>789</v>
@@ -24324,10 +24324,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q277" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -24336,7 +24336,7 @@
         <v>789</v>
       </c>
       <c r="AC277" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AD277" t="s">
         <v>789</v>
@@ -24383,10 +24383,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="Q278" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -24395,7 +24395,7 @@
         <v>789</v>
       </c>
       <c r="AC278" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AD278" t="s">
         <v>789</v>
@@ -24409,10 +24409,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C279" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -24442,10 +24442,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q279" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -24454,7 +24454,7 @@
         <v>789</v>
       </c>
       <c r="AC279" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AD279" t="s">
         <v>789</v>
@@ -24501,10 +24501,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q280" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -24513,7 +24513,7 @@
         <v>789</v>
       </c>
       <c r="AC280" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AD280" t="s">
         <v>789</v>
@@ -24560,10 +24560,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q281" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -24572,7 +24572,7 @@
         <v>789</v>
       </c>
       <c r="AC281" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AD281" t="s">
         <v>789</v>
@@ -24619,10 +24619,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Q282" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -24631,7 +24631,7 @@
         <v>789</v>
       </c>
       <c r="AC282" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AD282" t="s">
         <v>789</v>
@@ -24678,10 +24678,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Q283" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -24690,7 +24690,7 @@
         <v>789</v>
       </c>
       <c r="AC283" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AD283" t="s">
         <v>789</v>
@@ -24737,10 +24737,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Q284" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -24749,7 +24749,7 @@
         <v>789</v>
       </c>
       <c r="AC284" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AD284" t="s">
         <v>789</v>
@@ -24796,10 +24796,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="Q285" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -24808,7 +24808,7 @@
         <v>789</v>
       </c>
       <c r="AC285" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AD285" t="s">
         <v>789</v>
@@ -24855,10 +24855,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q286" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -24867,7 +24867,7 @@
         <v>789</v>
       </c>
       <c r="AC286" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AD286" t="s">
         <v>789</v>
@@ -24914,10 +24914,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q287" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -24926,7 +24926,7 @@
         <v>789</v>
       </c>
       <c r="AC287" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AD287" t="s">
         <v>789</v>
@@ -24973,10 +24973,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="Q288" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -24985,7 +24985,7 @@
         <v>789</v>
       </c>
       <c r="AC288" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AD288" t="s">
         <v>789</v>
@@ -25035,10 +25035,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="Q289" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -25047,7 +25047,7 @@
         <v>789</v>
       </c>
       <c r="AC289" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD289" t="s">
         <v>789</v>
@@ -25097,10 +25097,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="Q290" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -25109,7 +25109,7 @@
         <v>789</v>
       </c>
       <c r="AC290" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AD290" t="s">
         <v>789</v>
@@ -25159,10 +25159,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="Q291" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -25171,7 +25171,7 @@
         <v>789</v>
       </c>
       <c r="AC291" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AD291" t="s">
         <v>789</v>
@@ -25188,10 +25188,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C292" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -25227,13 +25227,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="R292" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AD292" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -25244,16 +25244,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C293" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -25286,13 +25286,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="R293" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AD293" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -25303,13 +25303,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C294" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D294" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -25345,13 +25345,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="R294" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AD294" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -25362,16 +25362,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C295" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -25404,13 +25404,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="R295" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AD295" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -25421,16 +25421,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C296" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D296" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E296" t="s">
         <v>1693</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1695</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25463,13 +25463,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="R296" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AD296" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -25480,16 +25480,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C297" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D297" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E297" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25522,13 +25522,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R297" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AD297" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -25539,16 +25539,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C298" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D298" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E298" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -25578,13 +25578,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="R298" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AD298" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -25595,16 +25595,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C299" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25637,7 +25637,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -25648,16 +25648,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C300" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D300" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E300" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25690,13 +25690,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="S300" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="AE300" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -25707,16 +25707,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C301" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25749,13 +25749,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="S301" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="AE301" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -25766,19 +25766,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C302" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G302" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -25805,13 +25805,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="S302" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="AE302" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -25822,22 +25822,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C303" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D303" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="E303" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -25864,13 +25864,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="S303" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="AE303" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -25881,16 +25881,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C304" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D304" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E304" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25917,13 +25917,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="S304" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="AE304" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -25934,16 +25934,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C305" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -25976,13 +25976,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="S305" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="AE305" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -25993,16 +25993,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C306" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D306" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -26035,13 +26035,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="S306" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="AE306" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -26052,16 +26052,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C307" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D307" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E307" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -26094,13 +26094,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="S307" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="AE307" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -26111,16 +26111,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E308" t="s">
         <v>1735</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1737</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -26153,13 +26153,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="S308" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AE308" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59896F4-6B17-432B-929B-50D0E851FA2B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7BA172-4A83-4EA7-9D1D-9599D7A7EBFB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="1791">
   <si>
     <t>nickName</t>
   </si>
@@ -5396,6 +5396,12 @@
   </si>
   <si>
     <t>[3707717, 39120199,66800153]</t>
+  </si>
+  <si>
+    <t>[238222749]</t>
+  </si>
+  <si>
+    <t>[105996817]</t>
   </si>
 </sst>
 </file>
@@ -5787,10 +5793,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC118" sqref="AC118"/>
+      <selection pane="bottomRight" activeCell="AE256" sqref="AE256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23025,7 +23031,7 @@
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>789</v>
+        <v>1789</v>
       </c>
       <c r="AC256" t="s">
         <v>1128</v>
@@ -23034,7 +23040,7 @@
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7BA172-4A83-4EA7-9D1D-9599D7A7EBFB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233C0C3-B08B-45DE-BC1E-C4D916DFD7F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1810">
   <si>
     <t>nickName</t>
   </si>
@@ -5402,6 +5402,63 @@
   </si>
   <si>
     <t>[105996817]</t>
+  </si>
+  <si>
+    <t>807085574385324032</t>
+  </si>
+  <si>
+    <t>796560355384299520</t>
+  </si>
+  <si>
+    <t>730761203010535425</t>
+  </si>
+  <si>
+    <t>889558873773752325</t>
+  </si>
+  <si>
+    <t>837883268699672576</t>
+  </si>
+  <si>
+    <t>732268468075003904</t>
+  </si>
+  <si>
+    <t>805306077323476993</t>
+  </si>
+  <si>
+    <t>808847717531205632</t>
+  </si>
+  <si>
+    <t>703275688493711360</t>
+  </si>
+  <si>
+    <t>765989504184385536</t>
+  </si>
+  <si>
+    <t>787678716465852417</t>
+  </si>
+  <si>
+    <t>777133567000195072</t>
+  </si>
+  <si>
+    <t>731813713636773893</t>
+  </si>
+  <si>
+    <t>730395740883828736</t>
+  </si>
+  <si>
+    <t>808679582601576448</t>
+  </si>
+  <si>
+    <t>868346277104189440</t>
+  </si>
+  <si>
+    <t>869192864844087296</t>
+  </si>
+  <si>
+    <t>734020015985463297</t>
+  </si>
+  <si>
+    <t>943829605282062337</t>
   </si>
 </sst>
 </file>
@@ -5793,10 +5850,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE256" sqref="AE256"/>
+      <selection pane="bottomRight" activeCell="AF286" sqref="AF286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,8 +6443,8 @@
       <c r="AE7" t="s">
         <v>789</v>
       </c>
-      <c r="AO7" s="9">
-        <v>8.0708557438532403E+17</v>
+      <c r="AO7" s="11" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -6806,8 +6863,8 @@
       <c r="AE13" t="s">
         <v>789</v>
       </c>
-      <c r="AO13" s="9">
-        <v>7.9656035538429901E+17</v>
+      <c r="AO13" s="11" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -7847,8 +7904,8 @@
       <c r="AE28" t="s">
         <v>789</v>
       </c>
-      <c r="AO28" s="9">
-        <v>7.3076120301053504E+17</v>
+      <c r="AO28" s="11" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -8793,9 +8850,6 @@
       <c r="AE42" t="s">
         <v>789</v>
       </c>
-      <c r="AO42" s="9">
-        <v>8.0453309903590605E+17</v>
-      </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -9204,8 +9258,8 @@
       <c r="AE48" t="s">
         <v>789</v>
       </c>
-      <c r="AO48" s="9">
-        <v>8.8955887377375206E+17</v>
+      <c r="AO48" s="11" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -9479,8 +9533,8 @@
       <c r="AE52" t="s">
         <v>789</v>
       </c>
-      <c r="AO52" s="9">
-        <v>8.3788326869967206E+17</v>
+      <c r="AO52" s="11" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -10109,8 +10163,8 @@
       <c r="AE61" t="s">
         <v>904</v>
       </c>
-      <c r="AO61" s="9">
-        <v>7.3226846807500301E+17</v>
+      <c r="AO61" s="11" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -11085,8 +11139,8 @@
       <c r="AE75" t="s">
         <v>1632</v>
       </c>
-      <c r="AO75" s="9">
-        <v>8.0530607732347597E+17</v>
+      <c r="AO75" s="11" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -11366,8 +11420,8 @@
       <c r="AE79" t="s">
         <v>937</v>
       </c>
-      <c r="AO79" s="9">
-        <v>8.0884771753120499E+17</v>
+      <c r="AO79" s="11" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -13034,8 +13088,8 @@
       <c r="AE103" t="s">
         <v>983</v>
       </c>
-      <c r="AO103" s="9">
-        <v>7.0327568849371098E+17</v>
+      <c r="AO103" s="11" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -13170,8 +13224,8 @@
       <c r="AE105" t="s">
         <v>987</v>
       </c>
-      <c r="AO105" s="9">
-        <v>7.6598950418438502E+17</v>
+      <c r="AO105" s="11" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -13371,8 +13425,8 @@
       <c r="AE108" t="s">
         <v>789</v>
       </c>
-      <c r="AO108" s="9">
-        <v>7.8767871646585203E+17</v>
+      <c r="AO108" s="11" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -14134,8 +14188,8 @@
       <c r="AE119" t="s">
         <v>789</v>
       </c>
-      <c r="AO119" s="9">
-        <v>7.7713356700019494E+17</v>
+      <c r="AO119" s="11" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -14557,8 +14611,8 @@
       <c r="AE125" t="s">
         <v>789</v>
       </c>
-      <c r="AO125" s="9">
-        <v>7.3181371363677299E+17</v>
+      <c r="AO125" s="11" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -15556,8 +15610,8 @@
       <c r="AE140" t="s">
         <v>789</v>
       </c>
-      <c r="AO140" s="9">
-        <v>7.3039574088382797E+17</v>
+      <c r="AO140" s="11" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -22289,8 +22343,8 @@
       <c r="AE244" t="s">
         <v>789</v>
       </c>
-      <c r="AO244" s="9">
-        <v>8.0867958260157594E+17</v>
+      <c r="AO244" s="11" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -22977,8 +23031,8 @@
       <c r="AE255" t="s">
         <v>789</v>
       </c>
-      <c r="AO255" s="9">
-        <v>8.6834627710418906E+17</v>
+      <c r="AO255" s="11" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -23786,8 +23840,8 @@
       <c r="AE268" t="s">
         <v>1766</v>
       </c>
-      <c r="AO268" s="9">
-        <v>8.6919286484408704E+17</v>
+      <c r="AO268" s="11" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -23848,8 +23902,8 @@
       <c r="AE269" t="s">
         <v>789</v>
       </c>
-      <c r="AO269" s="9">
-        <v>7.3402001598546304E+17</v>
+      <c r="AO269" s="11" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -24170,8 +24224,8 @@
       <c r="AE274" t="s">
         <v>789</v>
       </c>
-      <c r="AO274" s="9">
-        <v>9.4382960528206195E+17</v>
+      <c r="AO274" s="11" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233C0C3-B08B-45DE-BC1E-C4D916DFD7F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA2F39-498F-42F2-9A30-B8000476C9D6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5527,12 +5527,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5850,10 +5850,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF286" sqref="AF286"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,7 +6443,7 @@
       <c r="AE7" t="s">
         <v>789</v>
       </c>
-      <c r="AO7" s="11" t="s">
+      <c r="AO7" s="10" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       <c r="AE11" t="s">
         <v>789</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AO11" s="11">
         <v>2358219158</v>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="AE13" t="s">
         <v>789</v>
       </c>
-      <c r="AO13" s="11" t="s">
+      <c r="AO13" s="10" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
       <c r="AE28" t="s">
         <v>789</v>
       </c>
-      <c r="AO28" s="11" t="s">
+      <c r="AO28" s="10" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       <c r="AE39" t="s">
         <v>1658</v>
       </c>
-      <c r="AO39" s="11">
+      <c r="AO39" s="10">
         <v>803776063</v>
       </c>
       <c r="AP39" t="s">
@@ -9258,7 +9258,7 @@
       <c r="AE48" t="s">
         <v>789</v>
       </c>
-      <c r="AO48" s="11" t="s">
+      <c r="AO48" s="10" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
       <c r="AE52" t="s">
         <v>789</v>
       </c>
-      <c r="AO52" s="11" t="s">
+      <c r="AO52" s="10" t="s">
         <v>1795</v>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
       <c r="AE61" t="s">
         <v>904</v>
       </c>
-      <c r="AO61" s="11" t="s">
+      <c r="AO61" s="10" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="AE75" t="s">
         <v>1632</v>
       </c>
-      <c r="AO75" s="11" t="s">
+      <c r="AO75" s="10" t="s">
         <v>1797</v>
       </c>
     </row>
@@ -11420,7 +11420,7 @@
       <c r="AE79" t="s">
         <v>937</v>
       </c>
-      <c r="AO79" s="11" t="s">
+      <c r="AO79" s="10" t="s">
         <v>1798</v>
       </c>
     </row>
@@ -13088,7 +13088,7 @@
       <c r="AE103" t="s">
         <v>983</v>
       </c>
-      <c r="AO103" s="11" t="s">
+      <c r="AO103" s="10" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -13224,7 +13224,7 @@
       <c r="AE105" t="s">
         <v>987</v>
       </c>
-      <c r="AO105" s="11" t="s">
+      <c r="AO105" s="10" t="s">
         <v>1800</v>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       <c r="AE108" t="s">
         <v>789</v>
       </c>
-      <c r="AO108" s="11" t="s">
+      <c r="AO108" s="10" t="s">
         <v>1801</v>
       </c>
     </row>
@@ -14188,7 +14188,7 @@
       <c r="AE119" t="s">
         <v>789</v>
       </c>
-      <c r="AO119" s="11" t="s">
+      <c r="AO119" s="10" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -14611,7 +14611,7 @@
       <c r="AE125" t="s">
         <v>789</v>
       </c>
-      <c r="AO125" s="11" t="s">
+      <c r="AO125" s="10" t="s">
         <v>1803</v>
       </c>
     </row>
@@ -15610,7 +15610,7 @@
       <c r="AE140" t="s">
         <v>789</v>
       </c>
-      <c r="AO140" s="11" t="s">
+      <c r="AO140" s="10" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -22343,7 +22343,7 @@
       <c r="AE244" t="s">
         <v>789</v>
       </c>
-      <c r="AO244" s="11" t="s">
+      <c r="AO244" s="10" t="s">
         <v>1805</v>
       </c>
     </row>
@@ -23031,7 +23031,7 @@
       <c r="AE255" t="s">
         <v>789</v>
       </c>
-      <c r="AO255" s="11" t="s">
+      <c r="AO255" s="10" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -23840,7 +23840,7 @@
       <c r="AE268" t="s">
         <v>1766</v>
       </c>
-      <c r="AO268" s="11" t="s">
+      <c r="AO268" s="10" t="s">
         <v>1807</v>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="AE269" t="s">
         <v>789</v>
       </c>
-      <c r="AO269" s="11" t="s">
+      <c r="AO269" s="10" t="s">
         <v>1808</v>
       </c>
     </row>
@@ -24224,7 +24224,7 @@
       <c r="AE274" t="s">
         <v>789</v>
       </c>
-      <c r="AO274" s="11" t="s">
+      <c r="AO274" s="10" t="s">
         <v>1809</v>
       </c>
     </row>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA2F39-498F-42F2-9A30-B8000476C9D6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E145B3-6BF1-4966-9961-62CC34CE8EB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1812">
   <si>
     <t>nickName</t>
   </si>
@@ -2728,9 +2728,6 @@
     <t>[23989840]</t>
   </si>
   <si>
-    <t>[66100160]</t>
-  </si>
-  <si>
     <t>[20717177]</t>
   </si>
   <si>
@@ -3727,9 +3724,6 @@
     <t>fnc_rekkles_2017.png</t>
   </si>
   <si>
-    <t>[210000067]</t>
-  </si>
-  <si>
     <t>fnc_jesiz_2017.png</t>
   </si>
   <si>
@@ -5002,12 +4996,6 @@
     <t>Hanssama</t>
   </si>
   <si>
-    <t>[202849736,22302408]</t>
-  </si>
-  <si>
-    <t>[44256793,19531813]</t>
-  </si>
-  <si>
     <t>[27455454]</t>
   </si>
   <si>
@@ -5459,6 +5447,24 @@
   </si>
   <si>
     <t>943829605282062337</t>
+  </si>
+  <si>
+    <t>[210000067, 210480283]</t>
+  </si>
+  <si>
+    <t>[66100160, 69250151]</t>
+  </si>
+  <si>
+    <t>[202849736,22302408,22302408]</t>
+  </si>
+  <si>
+    <t>[44256793,19531813,19531813]</t>
+  </si>
+  <si>
+    <t>[238222058]</t>
+  </si>
+  <si>
+    <t>[106006816]</t>
   </si>
 </sst>
 </file>
@@ -5850,10 +5856,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1"/>
+      <selection pane="bottomRight" activeCell="AE255" sqref="AE255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6012,13 +6018,13 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6068,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Q2" t="s">
         <v>789</v>
@@ -6139,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q3" t="s">
         <v>789</v>
@@ -6210,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q4" t="s">
         <v>789</v>
@@ -6281,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q5" t="s">
         <v>789</v>
@@ -6352,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q6" t="s">
         <v>789</v>
@@ -6423,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q7" t="s">
         <v>1171</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1172</v>
       </c>
       <c r="R7" t="s">
         <v>804</v>
@@ -6444,7 +6450,7 @@
         <v>789</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -6494,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q8" t="s">
         <v>789</v>
@@ -6565,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q9" t="s">
         <v>789</v>
@@ -6594,7 +6600,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6633,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Q10" t="s">
         <v>789</v>
       </c>
       <c r="R10" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="S10" t="s">
         <v>789</v>
@@ -6648,7 +6654,7 @@
         <v>789</v>
       </c>
       <c r="AD10" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -6704,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q11" t="s">
         <v>1176</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1177</v>
       </c>
       <c r="R11" t="s">
         <v>811</v>
@@ -6775,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Q12" t="s">
         <v>789</v>
@@ -6843,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q13" t="s">
         <v>789</v>
@@ -6864,7 +6870,7 @@
         <v>789</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -6911,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q14" t="s">
         <v>789</v>
@@ -6982,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q15" t="s">
         <v>789</v>
@@ -7053,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q16" t="s">
         <v>789</v>
@@ -7124,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q17" t="s">
         <v>789</v>
@@ -7192,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q18" t="s">
         <v>789</v>
@@ -7263,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q19" t="s">
         <v>789</v>
@@ -7334,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q20" t="s">
         <v>789</v>
@@ -7405,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q21" t="s">
         <v>789</v>
@@ -7476,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q22" t="s">
         <v>1188</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1189</v>
       </c>
       <c r="R22" t="s">
         <v>836</v>
@@ -7544,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q23" t="s">
         <v>789</v>
@@ -7612,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q24" t="s">
         <v>789</v>
@@ -7683,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q25" t="s">
         <v>789</v>
       </c>
       <c r="R25" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="S25" t="s">
         <v>789</v>
@@ -7698,7 +7704,7 @@
         <v>789</v>
       </c>
       <c r="AD25" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -7751,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q26" t="s">
         <v>789</v>
@@ -7813,10 +7819,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q27" t="s">
         <v>1194</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>1195</v>
       </c>
       <c r="R27" t="s">
         <v>843</v>
@@ -7884,13 +7890,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q28" t="s">
         <v>789</v>
       </c>
       <c r="R28" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="S28" t="s">
         <v>789</v>
@@ -7899,13 +7905,13 @@
         <v>789</v>
       </c>
       <c r="AD28" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="AE28" t="s">
         <v>789</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -7952,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q29" t="s">
         <v>789</v>
@@ -7961,7 +7967,7 @@
         <v>846</v>
       </c>
       <c r="S29" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
@@ -7970,7 +7976,7 @@
         <v>847</v>
       </c>
       <c r="AE29" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -8020,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q30" t="s">
         <v>789</v>
@@ -8088,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q31" t="s">
         <v>789</v>
       </c>
       <c r="R31" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="S31" t="s">
         <v>789</v>
@@ -8103,7 +8109,7 @@
         <v>789</v>
       </c>
       <c r="AD31" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -8153,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q32" t="s">
         <v>789</v>
@@ -8218,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q33" t="s">
         <v>789</v>
@@ -8289,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q34" t="s">
         <v>789</v>
@@ -8360,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q35" t="s">
         <v>789</v>
@@ -8431,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q36" t="s">
         <v>789</v>
@@ -8499,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q37" t="s">
         <v>789</v>
@@ -8564,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q38" t="s">
         <v>789</v>
@@ -8629,16 +8635,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q39" t="s">
         <v>1207</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1208</v>
       </c>
       <c r="R39" t="s">
         <v>864</v>
       </c>
       <c r="S39" t="s">
-        <v>1657</v>
+        <v>1808</v>
       </c>
       <c r="AC39" t="s">
         <v>865</v>
@@ -8647,7 +8653,7 @@
         <v>866</v>
       </c>
       <c r="AE39" t="s">
-        <v>1658</v>
+        <v>1809</v>
       </c>
       <c r="AO39" s="10">
         <v>803776063</v>
@@ -8656,7 +8662,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8703,13 +8709,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q40" t="s">
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -8718,7 +8724,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -8765,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q41" t="s">
         <v>789</v>
@@ -8830,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q42" t="s">
         <v>789</v>
@@ -8895,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q43" t="s">
         <v>789</v>
@@ -8963,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Q44" t="s">
         <v>789</v>
@@ -9028,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Q45" t="s">
         <v>789</v>
@@ -9099,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q46" t="s">
         <v>789</v>
@@ -9167,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Q47" t="s">
         <v>789</v>
       </c>
       <c r="R47" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="S47" t="s">
         <v>789</v>
@@ -9182,7 +9188,7 @@
         <v>789</v>
       </c>
       <c r="AD47" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -9238,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q48" t="s">
         <v>1217</v>
       </c>
-      <c r="Q48" t="s">
-        <v>1218</v>
-      </c>
       <c r="R48" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
@@ -9253,13 +9259,13 @@
         <v>879</v>
       </c>
       <c r="AD48" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -9309,10 +9315,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q49" t="s">
         <v>1219</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>1220</v>
       </c>
       <c r="R49" t="s">
         <v>880</v>
@@ -9377,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Q50" t="s">
         <v>789</v>
@@ -9445,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q51" t="s">
         <v>789</v>
@@ -9513,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Q52" t="s">
         <v>789</v>
@@ -9534,7 +9540,7 @@
         <v>789</v>
       </c>
       <c r="AO52" s="10" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -9584,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Q53" t="s">
         <v>789</v>
       </c>
       <c r="R53" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="S53" t="s">
         <v>789</v>
@@ -9599,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="AD53" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -9655,10 +9661,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Q54" t="s">
         <v>1225</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>1226</v>
       </c>
       <c r="R54" t="s">
         <v>889</v>
@@ -9726,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Q55" t="s">
         <v>789</v>
@@ -9797,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Q56" t="s">
         <v>789</v>
@@ -9868,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q57" t="s">
         <v>789</v>
@@ -9939,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q58" t="s">
         <v>789</v>
@@ -9948,7 +9954,7 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="AC58" t="s">
         <v>789</v>
@@ -9957,13 +9963,13 @@
         <v>789</v>
       </c>
       <c r="AE58" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>201004</v>
       </c>
@@ -10010,10 +10016,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Q59" t="s">
-        <v>1232</v>
+        <v>1806</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
@@ -10022,13 +10028,13 @@
         <v>898</v>
       </c>
       <c r="AC59" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE59" t="s">
         <v>899</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>900</v>
       </c>
       <c r="AO59" s="9">
         <v>881827464</v>
@@ -10081,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="Q60" t="s">
         <v>789</v>
@@ -10090,16 +10096,16 @@
         <v>789</v>
       </c>
       <c r="S60" t="s">
+        <v>900</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE60" t="s">
         <v>901</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>902</v>
       </c>
       <c r="AO60" s="9">
         <v>2180891672</v>
@@ -10143,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q61" t="s">
         <v>789</v>
@@ -10152,19 +10158,19 @@
         <v>789</v>
       </c>
       <c r="S61" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE61" t="s">
         <v>903</v>
       </c>
-      <c r="AC61" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>904</v>
-      </c>
       <c r="AO61" s="10" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -10214,25 +10220,25 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q62" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="R62" t="s">
         <v>789</v>
       </c>
       <c r="S62" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC62" t="s">
         <v>905</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AD62" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE62" t="s">
         <v>906</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>907</v>
       </c>
       <c r="AO62" s="9">
         <v>189438124</v>
@@ -10285,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="Q63" t="s">
         <v>789</v>
@@ -10294,16 +10300,16 @@
         <v>789</v>
       </c>
       <c r="S63" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE63" t="s">
         <v>908</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>909</v>
       </c>
       <c r="AO63" s="9">
         <v>1648029396</v>
@@ -10356,25 +10362,25 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Q64" t="s">
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="S64" t="s">
+        <v>909</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD64" t="s">
         <v>910</v>
       </c>
-      <c r="AC64" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD64" t="s">
+      <c r="AE64" t="s">
         <v>911</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>912</v>
       </c>
       <c r="AO64" s="9">
         <v>1887874465</v>
@@ -10427,25 +10433,25 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q65" t="s">
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="S65" t="s">
+        <v>912</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD65" t="s">
         <v>913</v>
       </c>
-      <c r="AC65" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD65" t="s">
+      <c r="AE65" t="s">
         <v>914</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>915</v>
       </c>
       <c r="AO65" s="9">
         <v>1244508066</v>
@@ -10495,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Q66" t="s">
         <v>789</v>
@@ -10504,16 +10510,16 @@
         <v>789</v>
       </c>
       <c r="S66" t="s">
+        <v>915</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE66" t="s">
         <v>916</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>917</v>
       </c>
       <c r="AO66" s="9">
         <v>2790180781</v>
@@ -10566,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Q67" t="s">
         <v>789</v>
@@ -10575,16 +10581,16 @@
         <v>789</v>
       </c>
       <c r="S67" t="s">
+        <v>917</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE67" t="s">
         <v>918</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>919</v>
       </c>
       <c r="AO67" s="9">
         <v>2893607283</v>
@@ -10637,25 +10643,25 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="Q68" t="s">
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="S68" t="s">
+        <v>919</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AE68" t="s">
         <v>920</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>1681</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>921</v>
       </c>
       <c r="AO68" s="9">
         <v>2550298718</v>
@@ -10666,7 +10672,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10708,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Q69" t="s">
         <v>789</v>
@@ -10717,16 +10723,16 @@
         <v>789</v>
       </c>
       <c r="S69" t="s">
+        <v>921</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE69" t="s">
         <v>922</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>923</v>
       </c>
       <c r="AO69" s="9">
         <v>2460445795</v>
@@ -10779,25 +10785,25 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q70" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="R70" t="s">
         <v>789</v>
       </c>
       <c r="S70" t="s">
+        <v>923</v>
+      </c>
+      <c r="AC70" t="s">
         <v>924</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AD70" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE70" t="s">
         <v>925</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>926</v>
       </c>
       <c r="AO70" s="9">
         <v>3220569488</v>
@@ -10841,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Q71" t="s">
         <v>789</v>
@@ -10850,16 +10856,16 @@
         <v>789</v>
       </c>
       <c r="S71" t="s">
+        <v>926</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE71" t="s">
         <v>927</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>928</v>
       </c>
       <c r="AO71" s="9">
         <v>2262186933</v>
@@ -10909,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="Q72" t="s">
         <v>789</v>
@@ -10918,16 +10924,16 @@
         <v>789</v>
       </c>
       <c r="S72" t="s">
+        <v>928</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE72" t="s">
         <v>929</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>930</v>
       </c>
       <c r="AO72" s="9">
         <v>3376068993</v>
@@ -10980,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="Q73" t="s">
         <v>789</v>
@@ -10989,16 +10995,16 @@
         <v>789</v>
       </c>
       <c r="S73" t="s">
+        <v>930</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE73" t="s">
         <v>931</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>932</v>
       </c>
       <c r="AO73" s="9">
         <v>2943089668</v>
@@ -11048,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q74" t="s">
         <v>789</v>
@@ -11057,7 +11063,7 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="AC74" t="s">
         <v>789</v>
@@ -11066,7 +11072,7 @@
         <v>789</v>
       </c>
       <c r="AE74" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -11119,28 +11125,28 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Q75" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="R75" t="s">
         <v>789</v>
       </c>
       <c r="S75" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="AC75" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AD75" t="s">
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="AO75" s="10" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -11187,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q76" t="s">
         <v>789</v>
@@ -11196,7 +11202,7 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="AC76" t="s">
         <v>789</v>
@@ -11205,7 +11211,7 @@
         <v>789</v>
       </c>
       <c r="AE76" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -11258,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="Q77" t="s">
         <v>789</v>
@@ -11267,10 +11273,10 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="T77" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="AC77" t="s">
         <v>789</v>
@@ -11279,10 +11285,10 @@
         <v>789</v>
       </c>
       <c r="AE77" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="AF77" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -11335,25 +11341,25 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Q78" t="s">
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="S78" t="s">
+        <v>933</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AE78" t="s">
         <v>934</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>1652</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>935</v>
       </c>
       <c r="AO78" s="9">
         <v>1974332792</v>
@@ -11400,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q79" t="s">
         <v>789</v>
@@ -11409,19 +11415,19 @@
         <v>789</v>
       </c>
       <c r="S79" t="s">
+        <v>935</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE79" t="s">
         <v>936</v>
       </c>
-      <c r="AC79" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>937</v>
-      </c>
       <c r="AO79" s="10" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -11465,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Q80" t="s">
         <v>789</v>
@@ -11474,16 +11480,16 @@
         <v>789</v>
       </c>
       <c r="S80" t="s">
+        <v>937</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE80" t="s">
         <v>938</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>939</v>
       </c>
       <c r="AO80" s="9">
         <v>3290808800</v>
@@ -11536,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q81" t="s">
         <v>789</v>
@@ -11545,16 +11551,16 @@
         <v>789</v>
       </c>
       <c r="S81" t="s">
+        <v>939</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE81" t="s">
         <v>940</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>941</v>
       </c>
       <c r="AO81" s="9">
         <v>2776080715</v>
@@ -11607,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q82" t="s">
         <v>789</v>
@@ -11616,16 +11622,16 @@
         <v>789</v>
       </c>
       <c r="S82" t="s">
+        <v>941</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE82" t="s">
         <v>942</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>943</v>
       </c>
       <c r="AO82" s="9">
         <v>2767545127</v>
@@ -11678,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q83" t="s">
         <v>789</v>
@@ -11687,16 +11693,16 @@
         <v>789</v>
       </c>
       <c r="S83" t="s">
+        <v>943</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE83" t="s">
         <v>944</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>945</v>
       </c>
       <c r="AO83" s="9">
         <v>2303751344</v>
@@ -11746,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q84" t="s">
         <v>789</v>
@@ -11755,16 +11761,16 @@
         <v>789</v>
       </c>
       <c r="S84" t="s">
+        <v>945</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE84" t="s">
         <v>946</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>947</v>
       </c>
       <c r="AO84" s="9">
         <v>710556630</v>
@@ -11817,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Q85" t="s">
         <v>789</v>
@@ -11826,16 +11832,16 @@
         <v>789</v>
       </c>
       <c r="S85" t="s">
+        <v>947</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE85" t="s">
         <v>948</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>949</v>
       </c>
       <c r="AO85" s="9">
         <v>2984116738</v>
@@ -11888,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q86" t="s">
         <v>789</v>
@@ -11897,16 +11903,16 @@
         <v>789</v>
       </c>
       <c r="S86" t="s">
+        <v>949</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE86" t="s">
         <v>950</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>951</v>
       </c>
       <c r="AO86" s="9">
         <v>2590218632</v>
@@ -11956,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="Q87" t="s">
         <v>789</v>
@@ -11965,16 +11971,16 @@
         <v>789</v>
       </c>
       <c r="S87" t="s">
+        <v>951</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE87" t="s">
         <v>952</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>953</v>
       </c>
       <c r="AO87" s="9">
         <v>1076882574</v>
@@ -12027,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q88" t="s">
         <v>789</v>
@@ -12036,16 +12042,16 @@
         <v>789</v>
       </c>
       <c r="S88" t="s">
+        <v>953</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE88" t="s">
         <v>954</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>955</v>
       </c>
       <c r="AO88" s="9">
         <v>1048780687</v>
@@ -12098,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Q89" t="s">
         <v>789</v>
@@ -12107,16 +12113,16 @@
         <v>789</v>
       </c>
       <c r="S89" t="s">
+        <v>955</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE89" t="s">
         <v>956</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>957</v>
       </c>
       <c r="AO89" s="9">
         <v>1250062656</v>
@@ -12166,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Q90" t="s">
         <v>789</v>
@@ -12175,16 +12181,16 @@
         <v>789</v>
       </c>
       <c r="S90" t="s">
+        <v>957</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE90" t="s">
         <v>958</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>959</v>
       </c>
       <c r="AO90" s="9">
         <v>497329859</v>
@@ -12237,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Q91" t="s">
         <v>789</v>
@@ -12246,16 +12252,16 @@
         <v>789</v>
       </c>
       <c r="S91" t="s">
+        <v>959</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE91" t="s">
         <v>960</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>961</v>
       </c>
       <c r="AO91" s="9">
         <v>2685541393</v>
@@ -12308,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="Q92" t="s">
         <v>789</v>
@@ -12317,7 +12323,7 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="AC92" t="s">
         <v>789</v>
@@ -12326,7 +12332,7 @@
         <v>789</v>
       </c>
       <c r="AE92" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -12376,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q93" t="s">
         <v>789</v>
@@ -12385,16 +12391,16 @@
         <v>789</v>
       </c>
       <c r="S93" t="s">
+        <v>961</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE93" t="s">
         <v>962</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>963</v>
       </c>
       <c r="AO93" s="9">
         <v>1648682035</v>
@@ -12447,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="Q94" t="s">
         <v>789</v>
@@ -12456,16 +12462,16 @@
         <v>789</v>
       </c>
       <c r="S94" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE94" t="s">
         <v>964</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>965</v>
       </c>
       <c r="AO94" s="9">
         <v>336118770</v>
@@ -12518,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Q95" t="s">
         <v>789</v>
@@ -12527,16 +12533,16 @@
         <v>789</v>
       </c>
       <c r="S95" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE95" t="s">
         <v>966</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>967</v>
       </c>
       <c r="AO95" s="9">
         <v>2216379312</v>
@@ -12589,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q96" t="s">
         <v>789</v>
@@ -12598,16 +12604,16 @@
         <v>789</v>
       </c>
       <c r="S96" t="s">
+        <v>967</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE96" t="s">
         <v>968</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>969</v>
       </c>
       <c r="AO96" s="9">
         <v>2493571052</v>
@@ -12657,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Q97" t="s">
         <v>789</v>
@@ -12666,16 +12672,16 @@
         <v>789</v>
       </c>
       <c r="S97" t="s">
+        <v>969</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE97" t="s">
         <v>970</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD97" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>971</v>
       </c>
       <c r="AO97" s="9">
         <v>3199462954</v>
@@ -12725,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Q98" t="s">
         <v>789</v>
@@ -12734,16 +12740,16 @@
         <v>789</v>
       </c>
       <c r="S98" t="s">
+        <v>971</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE98" t="s">
         <v>972</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>973</v>
       </c>
       <c r="AO98" s="9">
         <v>3300282393</v>
@@ -12793,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Q99" t="s">
         <v>789</v>
@@ -12802,16 +12808,16 @@
         <v>789</v>
       </c>
       <c r="S99" t="s">
+        <v>973</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE99" t="s">
         <v>974</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>975</v>
       </c>
       <c r="AO99" s="9">
         <v>2902700080</v>
@@ -12861,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -12870,16 +12876,16 @@
         <v>789</v>
       </c>
       <c r="S100" t="s">
+        <v>975</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE100" t="s">
         <v>976</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>977</v>
       </c>
       <c r="AO100" s="9">
         <v>2387061402</v>
@@ -12929,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -12938,16 +12944,16 @@
         <v>789</v>
       </c>
       <c r="S101" t="s">
+        <v>977</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE101" t="s">
         <v>978</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>979</v>
       </c>
       <c r="AO101" s="9">
         <v>2199018126</v>
@@ -13000,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Q102" t="s">
         <v>789</v>
@@ -13009,16 +13015,16 @@
         <v>789</v>
       </c>
       <c r="S102" t="s">
+        <v>979</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE102" t="s">
         <v>980</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>981</v>
       </c>
       <c r="AO102" s="9">
         <v>2494302799</v>
@@ -13068,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -13077,19 +13083,19 @@
         <v>789</v>
       </c>
       <c r="S103" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE103" t="s">
         <v>982</v>
       </c>
-      <c r="AC103" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>983</v>
-      </c>
       <c r="AO103" s="10" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -13136,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -13145,16 +13151,16 @@
         <v>789</v>
       </c>
       <c r="S104" t="s">
+        <v>983</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE104" t="s">
         <v>984</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>985</v>
       </c>
       <c r="AO104" s="9">
         <v>2387536795</v>
@@ -13204,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -13213,19 +13219,19 @@
         <v>789</v>
       </c>
       <c r="S105" t="s">
+        <v>985</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE105" t="s">
         <v>986</v>
       </c>
-      <c r="AC105" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>987</v>
-      </c>
       <c r="AO105" s="10" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -13272,10 +13278,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="Q106" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="R106" t="s">
         <v>789</v>
@@ -13284,7 +13290,7 @@
         <v>789</v>
       </c>
       <c r="AC106" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AD106" t="s">
         <v>789</v>
@@ -13337,10 +13343,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="Q107" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="R107" t="s">
         <v>789</v>
@@ -13349,7 +13355,7 @@
         <v>789</v>
       </c>
       <c r="AC107" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -13405,10 +13411,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q108" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="R108" t="s">
         <v>789</v>
@@ -13417,7 +13423,7 @@
         <v>789</v>
       </c>
       <c r="AC108" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AD108" t="s">
         <v>789</v>
@@ -13426,7 +13432,7 @@
         <v>789</v>
       </c>
       <c r="AO108" s="10" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -13476,10 +13482,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Q109" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="R109" t="s">
         <v>789</v>
@@ -13488,7 +13494,7 @@
         <v>789</v>
       </c>
       <c r="AC109" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD109" t="s">
         <v>789</v>
@@ -13547,10 +13553,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q110" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="R110" t="s">
         <v>789</v>
@@ -13559,7 +13565,7 @@
         <v>789</v>
       </c>
       <c r="AC110" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AD110" t="s">
         <v>789</v>
@@ -13618,10 +13624,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q111" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="R111" t="s">
         <v>789</v>
@@ -13630,7 +13636,7 @@
         <v>789</v>
       </c>
       <c r="AC111" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AD111" t="s">
         <v>789</v>
@@ -13689,10 +13695,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="Q112" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="R112" t="s">
         <v>789</v>
@@ -13701,7 +13707,7 @@
         <v>789</v>
       </c>
       <c r="AC112" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AD112" t="s">
         <v>789</v>
@@ -13757,10 +13763,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="Q113" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="R113" t="s">
         <v>789</v>
@@ -13769,7 +13775,7 @@
         <v>789</v>
       </c>
       <c r="AC113" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AD113" t="s">
         <v>789</v>
@@ -13825,10 +13831,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="Q114" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R114" t="s">
         <v>789</v>
@@ -13837,7 +13843,7 @@
         <v>789</v>
       </c>
       <c r="AC114" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AD114" t="s">
         <v>789</v>
@@ -13896,10 +13902,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="Q115" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="R115" t="s">
         <v>789</v>
@@ -13908,7 +13914,7 @@
         <v>789</v>
       </c>
       <c r="AC115" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AD115" t="s">
         <v>789</v>
@@ -13964,10 +13970,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q116" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R116" t="s">
         <v>789</v>
@@ -13976,7 +13982,7 @@
         <v>789</v>
       </c>
       <c r="AC116" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AD116" t="s">
         <v>789</v>
@@ -14032,10 +14038,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q117" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="R117" t="s">
         <v>789</v>
@@ -14044,7 +14050,7 @@
         <v>789</v>
       </c>
       <c r="AC117" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AD117" t="s">
         <v>789</v>
@@ -14100,10 +14106,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q118" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="R118" t="s">
         <v>789</v>
@@ -14112,7 +14118,7 @@
         <v>789</v>
       </c>
       <c r="AC118" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -14168,10 +14174,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="Q119" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="R119" t="s">
         <v>789</v>
@@ -14180,7 +14186,7 @@
         <v>789</v>
       </c>
       <c r="AC119" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="AD119" t="s">
         <v>789</v>
@@ -14189,7 +14195,7 @@
         <v>789</v>
       </c>
       <c r="AO119" s="10" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -14239,10 +14245,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Q120" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="R120" t="s">
         <v>789</v>
@@ -14251,7 +14257,7 @@
         <v>789</v>
       </c>
       <c r="AC120" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -14310,22 +14316,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q121" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="R121" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
       </c>
       <c r="AC121" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AD121" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -14381,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Q122" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="R122" t="s">
         <v>789</v>
@@ -14393,7 +14399,7 @@
         <v>789</v>
       </c>
       <c r="AC122" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -14452,10 +14458,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q123" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="R123" t="s">
         <v>789</v>
@@ -14464,7 +14470,7 @@
         <v>789</v>
       </c>
       <c r="AC123" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AD123" t="s">
         <v>789</v>
@@ -14520,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q124" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R124" t="s">
         <v>789</v>
@@ -14532,7 +14538,7 @@
         <v>789</v>
       </c>
       <c r="AC124" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD124" t="s">
         <v>789</v>
@@ -14591,10 +14597,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q125" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R125" t="s">
         <v>789</v>
@@ -14603,7 +14609,7 @@
         <v>789</v>
       </c>
       <c r="AC125" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AD125" t="s">
         <v>789</v>
@@ -14612,7 +14618,7 @@
         <v>789</v>
       </c>
       <c r="AO125" s="10" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -14662,10 +14668,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Q126" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="R126" t="s">
         <v>789</v>
@@ -14674,7 +14680,7 @@
         <v>789</v>
       </c>
       <c r="AC126" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD126" t="s">
         <v>789</v>
@@ -14730,10 +14736,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="Q127" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="R127" t="s">
         <v>789</v>
@@ -14742,7 +14748,7 @@
         <v>789</v>
       </c>
       <c r="AC127" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AD127" t="s">
         <v>789</v>
@@ -14792,10 +14798,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q128" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="R128" t="s">
         <v>789</v>
@@ -14804,7 +14810,7 @@
         <v>789</v>
       </c>
       <c r="AC128" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AD128" t="s">
         <v>789</v>
@@ -14857,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q129" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="R129" t="s">
         <v>789</v>
@@ -14869,7 +14875,7 @@
         <v>789</v>
       </c>
       <c r="AC129" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AD129" t="s">
         <v>789</v>
@@ -14925,10 +14931,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Q130" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="R130" t="s">
         <v>789</v>
@@ -14937,7 +14943,7 @@
         <v>789</v>
       </c>
       <c r="AC130" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AD130" t="s">
         <v>789</v>
@@ -14996,10 +15002,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q131" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R131" t="s">
         <v>789</v>
@@ -15008,7 +15014,7 @@
         <v>789</v>
       </c>
       <c r="AC131" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AD131" t="s">
         <v>789</v>
@@ -15064,10 +15070,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="Q132" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="R132" t="s">
         <v>789</v>
@@ -15076,7 +15082,7 @@
         <v>789</v>
       </c>
       <c r="AC132" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AD132" t="s">
         <v>789</v>
@@ -15129,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Q133" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="R133" t="s">
         <v>789</v>
@@ -15141,7 +15147,7 @@
         <v>789</v>
       </c>
       <c r="AC133" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AD133" t="s">
         <v>789</v>
@@ -15194,10 +15200,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q134" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="R134" t="s">
         <v>789</v>
@@ -15206,7 +15212,7 @@
         <v>789</v>
       </c>
       <c r="AC134" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AD134" t="s">
         <v>789</v>
@@ -15262,10 +15268,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Q135" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="R135" t="s">
         <v>789</v>
@@ -15274,7 +15280,7 @@
         <v>789</v>
       </c>
       <c r="AC135" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AD135" t="s">
         <v>789</v>
@@ -15327,10 +15333,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Q136" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="R136" t="s">
         <v>789</v>
@@ -15339,7 +15345,7 @@
         <v>789</v>
       </c>
       <c r="AC136" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AD136" t="s">
         <v>789</v>
@@ -15389,10 +15395,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q137" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="R137" t="s">
         <v>789</v>
@@ -15401,7 +15407,7 @@
         <v>789</v>
       </c>
       <c r="AC137" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AD137" t="s">
         <v>789</v>
@@ -15454,10 +15460,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q138" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -15466,7 +15472,7 @@
         <v>789</v>
       </c>
       <c r="AC138" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AD138" t="s">
         <v>789</v>
@@ -15522,10 +15528,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q139" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -15534,7 +15540,7 @@
         <v>789</v>
       </c>
       <c r="AC139" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AD139" t="s">
         <v>789</v>
@@ -15590,10 +15596,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Q140" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="R140" t="s">
         <v>789</v>
@@ -15602,7 +15608,7 @@
         <v>789</v>
       </c>
       <c r="AC140" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AD140" t="s">
         <v>789</v>
@@ -15611,7 +15617,7 @@
         <v>789</v>
       </c>
       <c r="AO140" s="10" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -15658,10 +15664,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="Q141" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -15670,7 +15676,7 @@
         <v>789</v>
       </c>
       <c r="AC141" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AD141" t="s">
         <v>789</v>
@@ -15726,10 +15732,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q142" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -15738,7 +15744,7 @@
         <v>789</v>
       </c>
       <c r="AC142" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AD142" t="s">
         <v>789</v>
@@ -15794,10 +15800,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="Q143" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -15806,7 +15812,7 @@
         <v>789</v>
       </c>
       <c r="AC143" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AD143" t="s">
         <v>789</v>
@@ -15862,10 +15868,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="Q144" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -15874,7 +15880,7 @@
         <v>789</v>
       </c>
       <c r="AC144" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AD144" t="s">
         <v>789</v>
@@ -15930,10 +15936,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="Q145" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -15942,7 +15948,7 @@
         <v>789</v>
       </c>
       <c r="AC145" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AD145" t="s">
         <v>789</v>
@@ -15998,10 +16004,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="Q146" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -16010,7 +16016,7 @@
         <v>789</v>
       </c>
       <c r="AC146" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AD146" t="s">
         <v>789</v>
@@ -16066,10 +16072,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="Q147" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -16078,7 +16084,7 @@
         <v>789</v>
       </c>
       <c r="AC147" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AD147" t="s">
         <v>789</v>
@@ -16134,10 +16140,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="Q148" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="R148" t="s">
         <v>789</v>
@@ -16146,7 +16152,7 @@
         <v>789</v>
       </c>
       <c r="AC148" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -16202,10 +16208,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="Q149" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -16214,7 +16220,7 @@
         <v>789</v>
       </c>
       <c r="AC149" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AD149" t="s">
         <v>789</v>
@@ -16267,10 +16273,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="Q150" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -16279,7 +16285,7 @@
         <v>789</v>
       </c>
       <c r="AC150" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AD150" t="s">
         <v>789</v>
@@ -16329,10 +16335,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="Q151" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -16341,7 +16347,7 @@
         <v>789</v>
       </c>
       <c r="AC151" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AD151" t="s">
         <v>789</v>
@@ -16394,10 +16400,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="Q152" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -16406,7 +16412,7 @@
         <v>789</v>
       </c>
       <c r="AC152" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AD152" t="s">
         <v>789</v>
@@ -16456,10 +16462,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="Q153" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -16468,7 +16474,7 @@
         <v>789</v>
       </c>
       <c r="AC153" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AD153" t="s">
         <v>789</v>
@@ -16521,10 +16527,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="Q154" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -16533,7 +16539,7 @@
         <v>789</v>
       </c>
       <c r="AC154" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AD154" t="s">
         <v>789</v>
@@ -16586,10 +16592,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="Q155" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -16598,7 +16604,7 @@
         <v>789</v>
       </c>
       <c r="AC155" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AD155" t="s">
         <v>789</v>
@@ -16651,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="Q156" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -16663,7 +16669,7 @@
         <v>789</v>
       </c>
       <c r="AC156" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AD156" t="s">
         <v>789</v>
@@ -16716,10 +16722,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="Q157" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -16728,7 +16734,7 @@
         <v>789</v>
       </c>
       <c r="AC157" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AD157" t="s">
         <v>789</v>
@@ -16781,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="Q158" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -16793,7 +16799,7 @@
         <v>789</v>
       </c>
       <c r="AC158" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AD158" t="s">
         <v>789</v>
@@ -16846,10 +16852,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="Q159" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -16858,7 +16864,7 @@
         <v>789</v>
       </c>
       <c r="AC159" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AD159" t="s">
         <v>789</v>
@@ -16911,10 +16917,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="Q160" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -16923,7 +16929,7 @@
         <v>789</v>
       </c>
       <c r="AC160" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AD160" t="s">
         <v>789</v>
@@ -16976,10 +16982,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="Q161" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -16988,7 +16994,7 @@
         <v>789</v>
       </c>
       <c r="AC161" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AD161" t="s">
         <v>789</v>
@@ -17044,10 +17050,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="Q162" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -17056,7 +17062,7 @@
         <v>789</v>
       </c>
       <c r="AC162" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AD162" t="s">
         <v>789</v>
@@ -17109,10 +17115,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="Q163" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -17121,7 +17127,7 @@
         <v>789</v>
       </c>
       <c r="AC163" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AD163" t="s">
         <v>789</v>
@@ -17174,10 +17180,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="Q164" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -17186,7 +17192,7 @@
         <v>789</v>
       </c>
       <c r="AC164" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AD164" t="s">
         <v>789</v>
@@ -17245,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -17304,10 +17310,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="Q166" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -17316,7 +17322,7 @@
         <v>789</v>
       </c>
       <c r="AC166" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AD166" t="s">
         <v>789</v>
@@ -17363,10 +17369,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="Q167" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -17375,7 +17381,7 @@
         <v>789</v>
       </c>
       <c r="AC167" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AD167" t="s">
         <v>789</v>
@@ -17428,10 +17434,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="Q168" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -17440,7 +17446,7 @@
         <v>789</v>
       </c>
       <c r="AC168" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AD168" t="s">
         <v>789</v>
@@ -17496,10 +17502,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Q169" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -17508,7 +17514,7 @@
         <v>789</v>
       </c>
       <c r="AC169" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AD169" t="s">
         <v>789</v>
@@ -17561,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -17626,10 +17632,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Q171" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -17638,7 +17644,7 @@
         <v>789</v>
       </c>
       <c r="AC171" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AD171" t="s">
         <v>789</v>
@@ -17685,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -17750,10 +17756,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="Q173" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -17762,7 +17768,7 @@
         <v>789</v>
       </c>
       <c r="AC173" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AD173" t="s">
         <v>789</v>
@@ -17815,10 +17821,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="Q174" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -17827,7 +17833,7 @@
         <v>789</v>
       </c>
       <c r="AC174" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AD174" t="s">
         <v>789</v>
@@ -17880,10 +17886,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="Q175" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -17892,7 +17898,7 @@
         <v>789</v>
       </c>
       <c r="AC175" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AD175" t="s">
         <v>789</v>
@@ -17945,10 +17951,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="Q176" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -17957,7 +17963,7 @@
         <v>789</v>
       </c>
       <c r="AC176" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AD176" t="s">
         <v>789</v>
@@ -18010,10 +18016,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="Q177" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -18022,7 +18028,7 @@
         <v>789</v>
       </c>
       <c r="AC177" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AD177" t="s">
         <v>789</v>
@@ -18075,7 +18081,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -18140,10 +18146,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="Q179" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -18152,7 +18158,7 @@
         <v>789</v>
       </c>
       <c r="AC179" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AD179" t="s">
         <v>789</v>
@@ -18205,10 +18211,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Q180" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -18217,7 +18223,7 @@
         <v>789</v>
       </c>
       <c r="AC180" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AD180" t="s">
         <v>789</v>
@@ -18273,10 +18279,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="Q181" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="R181" t="s">
         <v>789</v>
@@ -18285,7 +18291,7 @@
         <v>789</v>
       </c>
       <c r="AC181" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -18332,10 +18338,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q182" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -18344,7 +18350,7 @@
         <v>789</v>
       </c>
       <c r="AC182" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AD182" t="s">
         <v>789</v>
@@ -18391,10 +18397,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Q183" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -18403,7 +18409,7 @@
         <v>789</v>
       </c>
       <c r="AC183" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AD183" t="s">
         <v>789</v>
@@ -18456,10 +18462,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="Q184" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -18468,7 +18474,7 @@
         <v>789</v>
       </c>
       <c r="AC184" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AD184" t="s">
         <v>789</v>
@@ -18521,10 +18527,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="Q185" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -18533,7 +18539,7 @@
         <v>789</v>
       </c>
       <c r="AC185" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AD185" t="s">
         <v>789</v>
@@ -18586,10 +18592,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Q186" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -18598,7 +18604,7 @@
         <v>789</v>
       </c>
       <c r="AC186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AD186" t="s">
         <v>789</v>
@@ -18654,10 +18660,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q187" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -18666,7 +18672,7 @@
         <v>789</v>
       </c>
       <c r="AC187" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AD187" t="s">
         <v>789</v>
@@ -18719,10 +18725,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Q188" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -18731,7 +18737,7 @@
         <v>789</v>
       </c>
       <c r="AC188" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AD188" t="s">
         <v>789</v>
@@ -18784,10 +18790,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q189" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -18796,7 +18802,7 @@
         <v>789</v>
       </c>
       <c r="AC189" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AD189" t="s">
         <v>789</v>
@@ -18843,10 +18849,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q190" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -18855,7 +18861,7 @@
         <v>789</v>
       </c>
       <c r="AC190" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AD190" t="s">
         <v>789</v>
@@ -18902,10 +18908,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Q191" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -18914,7 +18920,7 @@
         <v>789</v>
       </c>
       <c r="AC191" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AD191" t="s">
         <v>789</v>
@@ -18961,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Q192" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -18973,7 +18979,7 @@
         <v>789</v>
       </c>
       <c r="AC192" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AD192" t="s">
         <v>789</v>
@@ -19026,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Q193" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -19038,7 +19044,7 @@
         <v>789</v>
       </c>
       <c r="AC193" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AD193" t="s">
         <v>789</v>
@@ -19085,10 +19091,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Q194" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -19097,7 +19103,7 @@
         <v>789</v>
       </c>
       <c r="AC194" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD194" t="s">
         <v>789</v>
@@ -19147,10 +19153,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="Q195" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -19159,7 +19165,7 @@
         <v>789</v>
       </c>
       <c r="AC195" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AD195" t="s">
         <v>789</v>
@@ -19209,10 +19215,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="Q196" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -19221,7 +19227,7 @@
         <v>789</v>
       </c>
       <c r="AC196" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AD196" t="s">
         <v>789</v>
@@ -19274,10 +19280,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="Q197" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -19286,7 +19292,7 @@
         <v>789</v>
       </c>
       <c r="AC197" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AD197" t="s">
         <v>789</v>
@@ -19339,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -19404,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -19469,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -19534,7 +19540,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -19599,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="Q202" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -19611,7 +19617,7 @@
         <v>789</v>
       </c>
       <c r="AC202" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AD202" t="s">
         <v>789</v>
@@ -19664,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -19723,10 +19729,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q204" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -19735,7 +19741,7 @@
         <v>789</v>
       </c>
       <c r="AC204" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AD204" t="s">
         <v>789</v>
@@ -19782,10 +19788,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="Q205" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -19794,7 +19800,7 @@
         <v>789</v>
       </c>
       <c r="AC205" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AD205" t="s">
         <v>789</v>
@@ -19850,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="Q206" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -19862,7 +19868,7 @@
         <v>789</v>
       </c>
       <c r="AC206" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AD206" t="s">
         <v>789</v>
@@ -19918,10 +19924,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="Q207" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -19930,7 +19936,7 @@
         <v>789</v>
       </c>
       <c r="AC207" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AD207" t="s">
         <v>789</v>
@@ -19986,10 +19992,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="Q208" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -19998,7 +20004,7 @@
         <v>789</v>
       </c>
       <c r="AC208" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD208" t="s">
         <v>789</v>
@@ -20054,10 +20060,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Q209" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -20066,7 +20072,7 @@
         <v>789</v>
       </c>
       <c r="AC209" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AD209" t="s">
         <v>789</v>
@@ -20116,10 +20122,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="Q210" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -20128,7 +20134,7 @@
         <v>789</v>
       </c>
       <c r="AC210" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AD210" t="s">
         <v>789</v>
@@ -20184,10 +20190,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="Q211" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -20196,7 +20202,7 @@
         <v>789</v>
       </c>
       <c r="AC211" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AD211" t="s">
         <v>789</v>
@@ -20249,10 +20255,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q212" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -20261,7 +20267,7 @@
         <v>789</v>
       </c>
       <c r="AC212" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AD212" t="s">
         <v>789</v>
@@ -20308,10 +20314,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q213" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -20320,7 +20326,7 @@
         <v>789</v>
       </c>
       <c r="AC213" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AD213" t="s">
         <v>789</v>
@@ -20373,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Q214" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -20385,7 +20391,7 @@
         <v>789</v>
       </c>
       <c r="AC214" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AD214" t="s">
         <v>789</v>
@@ -20432,10 +20438,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Q215" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -20444,7 +20450,7 @@
         <v>789</v>
       </c>
       <c r="AC215" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AD215" t="s">
         <v>789</v>
@@ -20494,10 +20500,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q216" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -20506,7 +20512,7 @@
         <v>789</v>
       </c>
       <c r="AC216" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AD216" t="s">
         <v>789</v>
@@ -20562,10 +20568,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q217" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -20574,7 +20580,7 @@
         <v>789</v>
       </c>
       <c r="AC217" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AD217" t="s">
         <v>789</v>
@@ -20630,10 +20636,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Q218" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -20642,7 +20648,7 @@
         <v>789</v>
       </c>
       <c r="AC218" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AD218" t="s">
         <v>789</v>
@@ -20698,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="Q219" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -20710,7 +20716,7 @@
         <v>789</v>
       </c>
       <c r="AC219" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AD219" t="s">
         <v>789</v>
@@ -20766,10 +20772,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q220" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -20778,7 +20784,7 @@
         <v>789</v>
       </c>
       <c r="AC220" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AD220" t="s">
         <v>789</v>
@@ -20834,10 +20840,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q221" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -20846,7 +20852,7 @@
         <v>789</v>
       </c>
       <c r="AC221" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AD221" t="s">
         <v>789</v>
@@ -20902,10 +20908,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q222" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -20914,7 +20920,7 @@
         <v>789</v>
       </c>
       <c r="AC222" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AD222" t="s">
         <v>789</v>
@@ -20970,10 +20976,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q223" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -20982,7 +20988,7 @@
         <v>789</v>
       </c>
       <c r="AC223" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AD223" t="s">
         <v>789</v>
@@ -21038,10 +21044,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="Q224" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -21050,7 +21056,7 @@
         <v>789</v>
       </c>
       <c r="AC224" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD224" t="s">
         <v>789</v>
@@ -21103,10 +21109,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Q225" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -21115,7 +21121,7 @@
         <v>789</v>
       </c>
       <c r="AC225" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AD225" t="s">
         <v>789</v>
@@ -21171,10 +21177,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q226" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -21183,7 +21189,7 @@
         <v>789</v>
       </c>
       <c r="AC226" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AD226" t="s">
         <v>789</v>
@@ -21236,10 +21242,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="Q227" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -21248,7 +21254,7 @@
         <v>789</v>
       </c>
       <c r="AC227" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AD227" t="s">
         <v>789</v>
@@ -21301,10 +21307,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="Q228" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -21313,7 +21319,7 @@
         <v>789</v>
       </c>
       <c r="AC228" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AD228" t="s">
         <v>789</v>
@@ -21366,10 +21372,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="Q229" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -21378,7 +21384,7 @@
         <v>789</v>
       </c>
       <c r="AC229" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AD229" t="s">
         <v>789</v>
@@ -21425,10 +21431,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="Q230" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -21437,7 +21443,7 @@
         <v>789</v>
       </c>
       <c r="AC230" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AD230" t="s">
         <v>789</v>
@@ -21490,10 +21496,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="Q231" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -21502,7 +21508,7 @@
         <v>789</v>
       </c>
       <c r="AC231" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AD231" t="s">
         <v>789</v>
@@ -21555,10 +21561,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Q232" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -21567,7 +21573,7 @@
         <v>789</v>
       </c>
       <c r="AC232" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AD232" t="s">
         <v>789</v>
@@ -21617,10 +21623,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="Q233" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -21629,7 +21635,7 @@
         <v>789</v>
       </c>
       <c r="AC233" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AD233" t="s">
         <v>789</v>
@@ -21685,10 +21691,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="Q234" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -21697,7 +21703,7 @@
         <v>789</v>
       </c>
       <c r="AC234" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AD234" t="s">
         <v>789</v>
@@ -21750,10 +21756,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Q235" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -21762,7 +21768,7 @@
         <v>789</v>
       </c>
       <c r="AC235" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AD235" t="s">
         <v>789</v>
@@ -21815,10 +21821,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="Q236" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -21827,7 +21833,7 @@
         <v>789</v>
       </c>
       <c r="AC236" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AD236" t="s">
         <v>789</v>
@@ -21877,22 +21883,22 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
       </c>
       <c r="R237" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD237" t="s">
         <v>1104</v>
-      </c>
-      <c r="S237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>1105</v>
       </c>
       <c r="AE237" t="s">
         <v>789</v>
@@ -21942,22 +21948,22 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
       </c>
       <c r="R238" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD238" t="s">
         <v>1106</v>
-      </c>
-      <c r="S238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>1107</v>
       </c>
       <c r="AE238" t="s">
         <v>789</v>
@@ -21971,7 +21977,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -21998,22 +22004,22 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Q239" t="s">
         <v>789</v>
       </c>
       <c r="R239" t="s">
+        <v>1107</v>
+      </c>
+      <c r="S239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD239" t="s">
         <v>1108</v>
-      </c>
-      <c r="S239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD239" t="s">
-        <v>1109</v>
       </c>
       <c r="AE239" t="s">
         <v>789</v>
@@ -22063,22 +22069,22 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
       </c>
       <c r="R240" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD240" t="s">
         <v>1110</v>
-      </c>
-      <c r="S240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD240" t="s">
-        <v>1111</v>
       </c>
       <c r="AE240" t="s">
         <v>789</v>
@@ -22128,13 +22134,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="S241" t="s">
         <v>789</v>
@@ -22143,7 +22149,7 @@
         <v>789</v>
       </c>
       <c r="AD241" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -22193,22 +22199,22 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
       </c>
       <c r="R242" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD242" t="s">
         <v>1112</v>
-      </c>
-      <c r="S242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD242" t="s">
-        <v>1113</v>
       </c>
       <c r="AE242" t="s">
         <v>789</v>
@@ -22258,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -22267,16 +22273,16 @@
         <v>789</v>
       </c>
       <c r="S243" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE243" t="s">
         <v>1114</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE243" t="s">
-        <v>1115</v>
       </c>
       <c r="AO243" s="9">
         <v>2358384846</v>
@@ -22323,10 +22329,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="Q244" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -22335,7 +22341,7 @@
         <v>789</v>
       </c>
       <c r="AC244" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AD244" t="s">
         <v>789</v>
@@ -22344,7 +22350,7 @@
         <v>789</v>
       </c>
       <c r="AO244" s="10" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -22385,10 +22391,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="Q245" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -22397,7 +22403,7 @@
         <v>789</v>
       </c>
       <c r="AC245" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD245" t="s">
         <v>789</v>
@@ -22447,10 +22453,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q246" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -22459,7 +22465,7 @@
         <v>789</v>
       </c>
       <c r="AC246" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AD246" t="s">
         <v>789</v>
@@ -22509,10 +22515,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q247" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -22521,7 +22527,7 @@
         <v>789</v>
       </c>
       <c r="AC247" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AD247" t="s">
         <v>789</v>
@@ -22571,10 +22577,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="Q248" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -22583,7 +22589,7 @@
         <v>789</v>
       </c>
       <c r="AC248" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AD248" t="s">
         <v>789</v>
@@ -22633,22 +22639,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="Q249" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="R249" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
       </c>
       <c r="AC249" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AD249" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -22701,10 +22707,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="Q250" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -22713,7 +22719,7 @@
         <v>789</v>
       </c>
       <c r="AC250" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AD250" t="s">
         <v>789</v>
@@ -22763,10 +22769,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Q251" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -22775,7 +22781,7 @@
         <v>789</v>
       </c>
       <c r="AC251" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AD251" t="s">
         <v>789</v>
@@ -22825,10 +22831,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="Q252" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -22837,7 +22843,7 @@
         <v>789</v>
       </c>
       <c r="AC252" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AD252" t="s">
         <v>789</v>
@@ -22890,10 +22896,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="Q253" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -22902,7 +22908,7 @@
         <v>789</v>
       </c>
       <c r="AC253" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AD253" t="s">
         <v>789</v>
@@ -22952,10 +22958,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="Q254" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -22964,7 +22970,7 @@
         <v>789</v>
       </c>
       <c r="AC254" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AD254" t="s">
         <v>789</v>
@@ -23011,28 +23017,28 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q255" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R255" t="s">
         <v>789</v>
       </c>
       <c r="S255" t="s">
-        <v>789</v>
+        <v>1810</v>
       </c>
       <c r="AC255" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AD255" t="s">
         <v>789</v>
       </c>
       <c r="AE255" t="s">
-        <v>789</v>
+        <v>1811</v>
       </c>
       <c r="AO255" s="10" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -23076,25 +23082,25 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="Q256" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="R256" t="s">
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="AC256" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AD256" t="s">
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
@@ -23135,10 +23141,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="Q257" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -23147,7 +23153,7 @@
         <v>789</v>
       </c>
       <c r="AC257" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AD257" t="s">
         <v>789</v>
@@ -23200,10 +23206,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="Q258" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -23212,7 +23218,7 @@
         <v>789</v>
       </c>
       <c r="AC258" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AD258" t="s">
         <v>789</v>
@@ -23262,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -23271,16 +23277,16 @@
         <v>789</v>
       </c>
       <c r="S259" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE259" t="s">
         <v>1131</v>
-      </c>
-      <c r="AC259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE259" t="s">
-        <v>1132</v>
       </c>
       <c r="AO259" s="9">
         <v>613592902</v>
@@ -23324,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="Q260" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -23336,7 +23342,7 @@
         <v>789</v>
       </c>
       <c r="AC260" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AD260" t="s">
         <v>789</v>
@@ -23383,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="Q261" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -23395,7 +23401,7 @@
         <v>789</v>
       </c>
       <c r="AC261" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AD261" t="s">
         <v>789</v>
@@ -23445,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="Q262" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -23457,7 +23463,7 @@
         <v>789</v>
       </c>
       <c r="AC262" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AD262" t="s">
         <v>789</v>
@@ -23507,10 +23513,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="Q263" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -23519,7 +23525,7 @@
         <v>789</v>
       </c>
       <c r="AC263" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AD263" t="s">
         <v>789</v>
@@ -23572,10 +23578,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="Q264" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -23584,7 +23590,7 @@
         <v>789</v>
       </c>
       <c r="AC264" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AD264" t="s">
         <v>789</v>
@@ -23631,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="Q265" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -23643,7 +23649,7 @@
         <v>789</v>
       </c>
       <c r="AC265" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AD265" t="s">
         <v>789</v>
@@ -23693,10 +23699,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="Q266" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -23705,7 +23711,7 @@
         <v>789</v>
       </c>
       <c r="AC266" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AD266" t="s">
         <v>789</v>
@@ -23755,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -23764,16 +23770,16 @@
         <v>789</v>
       </c>
       <c r="S267" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE267" t="s">
         <v>1140</v>
-      </c>
-      <c r="AC267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE267" t="s">
-        <v>1141</v>
       </c>
       <c r="AO267" s="9">
         <v>1288516250</v>
@@ -23820,28 +23826,28 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="Q268" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="AC268" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AD268" t="s">
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="AO268" s="10" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -23882,10 +23888,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="Q269" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -23894,7 +23900,7 @@
         <v>789</v>
       </c>
       <c r="AC269" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AD269" t="s">
         <v>789</v>
@@ -23903,7 +23909,7 @@
         <v>789</v>
       </c>
       <c r="AO269" s="10" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -23947,10 +23953,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="Q270" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -23959,7 +23965,7 @@
         <v>789</v>
       </c>
       <c r="AC270" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AD270" t="s">
         <v>789</v>
@@ -24015,10 +24021,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="Q271" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -24027,7 +24033,7 @@
         <v>789</v>
       </c>
       <c r="AC271" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AD271" t="s">
         <v>789</v>
@@ -24074,10 +24080,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="Q272" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -24086,7 +24092,7 @@
         <v>789</v>
       </c>
       <c r="AC272" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD272" t="s">
         <v>789</v>
@@ -24139,10 +24145,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="Q273" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -24151,7 +24157,7 @@
         <v>789</v>
       </c>
       <c r="AC273" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD273" t="s">
         <v>789</v>
@@ -24204,10 +24210,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="Q274" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -24216,7 +24222,7 @@
         <v>789</v>
       </c>
       <c r="AC274" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AD274" t="s">
         <v>789</v>
@@ -24225,7 +24231,7 @@
         <v>789</v>
       </c>
       <c r="AO274" s="10" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -24266,10 +24272,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="Q275" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -24278,7 +24284,7 @@
         <v>789</v>
       </c>
       <c r="AC275" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AD275" t="s">
         <v>789</v>
@@ -24325,10 +24331,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Q276" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -24337,7 +24343,7 @@
         <v>789</v>
       </c>
       <c r="AC276" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AD276" t="s">
         <v>789</v>
@@ -24384,10 +24390,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q277" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -24396,7 +24402,7 @@
         <v>789</v>
       </c>
       <c r="AC277" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AD277" t="s">
         <v>789</v>
@@ -24443,10 +24449,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q278" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -24455,7 +24461,7 @@
         <v>789</v>
       </c>
       <c r="AC278" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AD278" t="s">
         <v>789</v>
@@ -24469,10 +24475,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C279" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -24502,10 +24508,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="Q279" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -24514,7 +24520,7 @@
         <v>789</v>
       </c>
       <c r="AC279" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AD279" t="s">
         <v>789</v>
@@ -24561,10 +24567,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q280" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -24573,7 +24579,7 @@
         <v>789</v>
       </c>
       <c r="AC280" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AD280" t="s">
         <v>789</v>
@@ -24620,10 +24626,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q281" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -24632,7 +24638,7 @@
         <v>789</v>
       </c>
       <c r="AC281" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AD281" t="s">
         <v>789</v>
@@ -24679,10 +24685,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q282" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -24691,7 +24697,7 @@
         <v>789</v>
       </c>
       <c r="AC282" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AD282" t="s">
         <v>789</v>
@@ -24738,10 +24744,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Q283" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -24750,7 +24756,7 @@
         <v>789</v>
       </c>
       <c r="AC283" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AD283" t="s">
         <v>789</v>
@@ -24797,10 +24803,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Q284" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -24809,7 +24815,7 @@
         <v>789</v>
       </c>
       <c r="AC284" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AD284" t="s">
         <v>789</v>
@@ -24856,10 +24862,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Q285" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -24868,7 +24874,7 @@
         <v>789</v>
       </c>
       <c r="AC285" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AD285" t="s">
         <v>789</v>
@@ -24915,10 +24921,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="Q286" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -24927,7 +24933,7 @@
         <v>789</v>
       </c>
       <c r="AC286" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AD286" t="s">
         <v>789</v>
@@ -24974,10 +24980,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q287" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -24986,7 +24992,7 @@
         <v>789</v>
       </c>
       <c r="AC287" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AD287" t="s">
         <v>789</v>
@@ -25033,10 +25039,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q288" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -25045,7 +25051,7 @@
         <v>789</v>
       </c>
       <c r="AC288" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AD288" t="s">
         <v>789</v>
@@ -25095,10 +25101,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="Q289" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -25107,7 +25113,7 @@
         <v>789</v>
       </c>
       <c r="AC289" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AD289" t="s">
         <v>789</v>
@@ -25157,10 +25163,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="Q290" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -25169,7 +25175,7 @@
         <v>789</v>
       </c>
       <c r="AC290" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD290" t="s">
         <v>789</v>
@@ -25219,10 +25225,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="Q291" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -25231,7 +25237,7 @@
         <v>789</v>
       </c>
       <c r="AC291" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AD291" t="s">
         <v>789</v>
@@ -25248,10 +25254,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C292" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -25287,13 +25293,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="R292" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="AD292" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -25304,16 +25310,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C293" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -25346,13 +25352,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="R293" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="AD293" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -25363,13 +25369,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C294" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="D294" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -25405,13 +25411,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="R294" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="AD294" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -25422,16 +25428,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C295" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -25464,13 +25470,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="R295" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="AD295" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -25481,16 +25487,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C296" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D296" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E296" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25523,13 +25529,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="R296" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="AD296" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -25540,16 +25546,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C297" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D297" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E297" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25582,13 +25588,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="R297" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="AD297" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -25599,16 +25605,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C298" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="D298" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="E298" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -25638,13 +25644,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="R298" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="AD298" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -25655,16 +25661,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="C299" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25697,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -25708,16 +25714,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C300" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="D300" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="E300" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25750,13 +25756,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="S300" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="AE300" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -25767,16 +25773,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C301" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25809,13 +25815,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="S301" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="AE301" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -25826,19 +25832,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C302" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="G302" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -25865,13 +25871,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="S302" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="AE302" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -25882,22 +25888,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="C303" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D303" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E303" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -25924,13 +25930,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="S303" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="AE303" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -25941,16 +25947,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C304" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D304" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="E304" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25977,13 +25983,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="S304" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="AE304" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -25994,16 +26000,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C305" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -26036,13 +26042,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="S305" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="AE305" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -26053,16 +26059,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C306" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D306" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -26095,13 +26101,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="S306" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="AE306" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -26112,16 +26118,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C307" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="D307" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="E307" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -26154,13 +26160,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="S307" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="AE307" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -26171,16 +26177,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="C308" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D308" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="E308" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -26213,13 +26219,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="S308" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="AE308" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E145B3-6BF1-4966-9961-62CC34CE8EB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73F4F6-0196-4964-BFBD-AD8F8D4C0502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1812">
   <si>
     <t>nickName</t>
   </si>
@@ -3187,9 +3187,6 @@
     <t>[57430307, 54500923]</t>
   </si>
   <si>
-    <t>[50870124, 1107455]</t>
-  </si>
-  <si>
     <t>[1210538]</t>
   </si>
   <si>
@@ -4279,9 +4276,6 @@
     <t>rng_uzi_2017.png</t>
   </si>
   <si>
-    <t>[208183357, 797737]</t>
-  </si>
-  <si>
     <t>rng_wuxx_2017.png</t>
   </si>
   <si>
@@ -5465,6 +5459,12 @@
   </si>
   <si>
     <t>[106006816]</t>
+  </si>
+  <si>
+    <t>[208183357]</t>
+  </si>
+  <si>
+    <t>[50870124]</t>
   </si>
 </sst>
 </file>
@@ -5856,10 +5856,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE255" sqref="AE255"/>
+      <selection pane="bottomRight" activeCell="AC181" sqref="AC181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,13 +6018,13 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>1778</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q2" t="s">
         <v>789</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Q3" t="s">
         <v>789</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q4" t="s">
         <v>789</v>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q5" t="s">
         <v>789</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q6" t="s">
         <v>789</v>
@@ -6429,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Q7" t="s">
         <v>1170</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1171</v>
       </c>
       <c r="R7" t="s">
         <v>804</v>
@@ -6450,7 +6450,7 @@
         <v>789</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q8" t="s">
         <v>789</v>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q9" t="s">
         <v>789</v>
@@ -6600,7 +6600,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6639,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q10" t="s">
         <v>789</v>
       </c>
       <c r="R10" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="S10" t="s">
         <v>789</v>
@@ -6654,7 +6654,7 @@
         <v>789</v>
       </c>
       <c r="AD10" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -6710,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q11" t="s">
         <v>1175</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1176</v>
       </c>
       <c r="R11" t="s">
         <v>811</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q12" t="s">
         <v>789</v>
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Q13" t="s">
         <v>789</v>
@@ -6870,7 +6870,7 @@
         <v>789</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q14" t="s">
         <v>789</v>
@@ -6988,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q15" t="s">
         <v>789</v>
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q16" t="s">
         <v>789</v>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q17" t="s">
         <v>789</v>
@@ -7198,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q18" t="s">
         <v>789</v>
@@ -7269,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q19" t="s">
         <v>789</v>
@@ -7340,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q20" t="s">
         <v>789</v>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q21" t="s">
         <v>789</v>
@@ -7482,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q22" t="s">
         <v>1187</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1188</v>
       </c>
       <c r="R22" t="s">
         <v>836</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Q23" t="s">
         <v>789</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q24" t="s">
         <v>789</v>
@@ -7689,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q25" t="s">
         <v>789</v>
       </c>
       <c r="R25" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="S25" t="s">
         <v>789</v>
@@ -7704,7 +7704,7 @@
         <v>789</v>
       </c>
       <c r="AD25" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q26" t="s">
         <v>789</v>
@@ -7819,10 +7819,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q27" t="s">
         <v>1193</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>1194</v>
       </c>
       <c r="R27" t="s">
         <v>843</v>
@@ -7890,13 +7890,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Q28" t="s">
         <v>789</v>
       </c>
       <c r="R28" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="S28" t="s">
         <v>789</v>
@@ -7905,13 +7905,13 @@
         <v>789</v>
       </c>
       <c r="AD28" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="AE28" t="s">
         <v>789</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q29" t="s">
         <v>789</v>
@@ -7967,7 +7967,7 @@
         <v>846</v>
       </c>
       <c r="S29" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
@@ -7976,7 +7976,7 @@
         <v>847</v>
       </c>
       <c r="AE29" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q30" t="s">
         <v>789</v>
@@ -8094,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q31" t="s">
         <v>789</v>
       </c>
       <c r="R31" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="S31" t="s">
         <v>789</v>
@@ -8109,7 +8109,7 @@
         <v>789</v>
       </c>
       <c r="AD31" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -8159,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q32" t="s">
         <v>789</v>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q33" t="s">
         <v>789</v>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="s">
         <v>789</v>
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q35" t="s">
         <v>789</v>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q36" t="s">
         <v>789</v>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q37" t="s">
         <v>789</v>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q38" t="s">
         <v>789</v>
@@ -8635,16 +8635,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q39" t="s">
         <v>1206</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1207</v>
       </c>
       <c r="R39" t="s">
         <v>864</v>
       </c>
       <c r="S39" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AC39" t="s">
         <v>865</v>
@@ -8653,7 +8653,7 @@
         <v>866</v>
       </c>
       <c r="AE39" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AO39" s="10">
         <v>803776063</v>
@@ -8662,7 +8662,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8709,13 +8709,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q40" t="s">
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -8724,7 +8724,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q41" t="s">
         <v>789</v>
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q42" t="s">
         <v>789</v>
@@ -8901,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q43" t="s">
         <v>789</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q44" t="s">
         <v>789</v>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Q45" t="s">
         <v>789</v>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Q46" t="s">
         <v>789</v>
@@ -9173,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q47" t="s">
         <v>789</v>
       </c>
       <c r="R47" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="S47" t="s">
         <v>789</v>
@@ -9188,7 +9188,7 @@
         <v>789</v>
       </c>
       <c r="AD47" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -9244,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q48" t="s">
         <v>1216</v>
       </c>
-      <c r="Q48" t="s">
-        <v>1217</v>
-      </c>
       <c r="R48" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
@@ -9259,13 +9259,13 @@
         <v>879</v>
       </c>
       <c r="AD48" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -9315,10 +9315,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Q49" t="s">
         <v>1218</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>1219</v>
       </c>
       <c r="R49" t="s">
         <v>880</v>
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Q50" t="s">
         <v>789</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Q51" t="s">
         <v>789</v>
@@ -9519,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q52" t="s">
         <v>789</v>
@@ -9540,7 +9540,7 @@
         <v>789</v>
       </c>
       <c r="AO52" s="10" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -9590,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Q53" t="s">
         <v>789</v>
       </c>
       <c r="R53" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="S53" t="s">
         <v>789</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="AD53" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -9661,10 +9661,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q54" t="s">
         <v>1224</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>1225</v>
       </c>
       <c r="R54" t="s">
         <v>889</v>
@@ -9732,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="Q55" t="s">
         <v>789</v>
@@ -9803,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Q56" t="s">
         <v>789</v>
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Q57" t="s">
         <v>789</v>
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q58" t="s">
         <v>789</v>
@@ -9954,7 +9954,7 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="AC58" t="s">
         <v>789</v>
@@ -9963,7 +9963,7 @@
         <v>789</v>
       </c>
       <c r="AE58" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
@@ -10016,10 +10016,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q59" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
@@ -10028,7 +10028,7 @@
         <v>898</v>
       </c>
       <c r="AC59" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="AD59" t="s">
         <v>789</v>
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Q60" t="s">
         <v>789</v>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q61" t="s">
         <v>789</v>
@@ -10170,7 +10170,7 @@
         <v>903</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -10220,10 +10220,10 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q62" t="s">
         <v>1233</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1234</v>
       </c>
       <c r="R62" t="s">
         <v>789</v>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q63" t="s">
         <v>789</v>
@@ -10362,13 +10362,13 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q64" t="s">
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="S64" t="s">
         <v>909</v>
@@ -10433,13 +10433,13 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q65" t="s">
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="S65" t="s">
         <v>912</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="Q66" t="s">
         <v>789</v>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Q67" t="s">
         <v>789</v>
@@ -10643,13 +10643,13 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Q68" t="s">
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="S68" t="s">
         <v>919</v>
@@ -10658,7 +10658,7 @@
         <v>789</v>
       </c>
       <c r="AD68" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AE68" t="s">
         <v>920</v>
@@ -10672,7 +10672,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Q69" t="s">
         <v>789</v>
@@ -10785,10 +10785,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q70" t="s">
         <v>1242</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>1243</v>
       </c>
       <c r="R70" t="s">
         <v>789</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q71" t="s">
         <v>789</v>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q72" t="s">
         <v>789</v>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Q73" t="s">
         <v>789</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q74" t="s">
         <v>789</v>
@@ -11063,7 +11063,7 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AC74" t="s">
         <v>789</v>
@@ -11072,7 +11072,7 @@
         <v>789</v>
       </c>
       <c r="AE74" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -11125,16 +11125,16 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q75" t="s">
         <v>1248</v>
       </c>
-      <c r="Q75" t="s">
-        <v>1249</v>
-      </c>
       <c r="R75" t="s">
         <v>789</v>
       </c>
       <c r="S75" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="AC75" t="s">
         <v>932</v>
@@ -11143,10 +11143,10 @@
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="AO75" s="10" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q76" t="s">
         <v>789</v>
@@ -11202,7 +11202,7 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="AC76" t="s">
         <v>789</v>
@@ -11211,7 +11211,7 @@
         <v>789</v>
       </c>
       <c r="AE76" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -11264,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Q77" t="s">
         <v>789</v>
@@ -11273,10 +11273,10 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="T77" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="AC77" t="s">
         <v>789</v>
@@ -11285,10 +11285,10 @@
         <v>789</v>
       </c>
       <c r="AE77" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="AF77" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -11341,13 +11341,13 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q78" t="s">
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="S78" t="s">
         <v>933</v>
@@ -11356,7 +11356,7 @@
         <v>789</v>
       </c>
       <c r="AD78" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AE78" t="s">
         <v>934</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q79" t="s">
         <v>789</v>
@@ -11427,7 +11427,7 @@
         <v>936</v>
       </c>
       <c r="AO79" s="10" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q80" t="s">
         <v>789</v>
@@ -11542,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q81" t="s">
         <v>789</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q82" t="s">
         <v>789</v>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q83" t="s">
         <v>789</v>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Q84" t="s">
         <v>789</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q85" t="s">
         <v>789</v>
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q86" t="s">
         <v>789</v>
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q87" t="s">
         <v>789</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q88" t="s">
         <v>789</v>
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q89" t="s">
         <v>789</v>
@@ -12172,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Q90" t="s">
         <v>789</v>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q91" t="s">
         <v>789</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q92" t="s">
         <v>789</v>
@@ -12323,7 +12323,7 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="AC92" t="s">
         <v>789</v>
@@ -12332,7 +12332,7 @@
         <v>789</v>
       </c>
       <c r="AE92" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q93" t="s">
         <v>789</v>
@@ -12453,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q94" t="s">
         <v>789</v>
@@ -12524,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q95" t="s">
         <v>789</v>
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q96" t="s">
         <v>789</v>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q97" t="s">
         <v>789</v>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q98" t="s">
         <v>789</v>
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q99" t="s">
         <v>789</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q102" t="s">
         <v>789</v>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -13095,7 +13095,7 @@
         <v>982</v>
       </c>
       <c r="AO103" s="10" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -13142,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -13231,7 +13231,7 @@
         <v>986</v>
       </c>
       <c r="AO105" s="10" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -13278,10 +13278,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Q106" t="s">
         <v>1276</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>1277</v>
       </c>
       <c r="R106" t="s">
         <v>789</v>
@@ -13343,10 +13343,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q107" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="R107" t="s">
         <v>789</v>
@@ -13355,7 +13355,7 @@
         <v>789</v>
       </c>
       <c r="AC107" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -13411,10 +13411,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Q108" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>1280</v>
       </c>
       <c r="R108" t="s">
         <v>789</v>
@@ -13432,7 +13432,7 @@
         <v>789</v>
       </c>
       <c r="AO108" s="10" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -13482,10 +13482,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Q109" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>1282</v>
       </c>
       <c r="R109" t="s">
         <v>789</v>
@@ -13553,10 +13553,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
+        <v>1282</v>
+      </c>
+      <c r="Q110" t="s">
         <v>1283</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>1284</v>
       </c>
       <c r="R110" t="s">
         <v>789</v>
@@ -13624,10 +13624,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q111" t="s">
         <v>1285</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>1286</v>
       </c>
       <c r="R111" t="s">
         <v>789</v>
@@ -13695,10 +13695,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q112" t="s">
         <v>1287</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>1288</v>
       </c>
       <c r="R112" t="s">
         <v>789</v>
@@ -13763,10 +13763,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q113" t="s">
         <v>1289</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>1290</v>
       </c>
       <c r="R113" t="s">
         <v>789</v>
@@ -13831,10 +13831,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Q114" t="s">
         <v>1291</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>1292</v>
       </c>
       <c r="R114" t="s">
         <v>789</v>
@@ -13902,10 +13902,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Q115" t="s">
         <v>1293</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>1294</v>
       </c>
       <c r="R115" t="s">
         <v>789</v>
@@ -13970,10 +13970,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Q116" t="s">
         <v>1295</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>1296</v>
       </c>
       <c r="R116" t="s">
         <v>789</v>
@@ -14038,10 +14038,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q117" t="s">
         <v>1297</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>1298</v>
       </c>
       <c r="R117" t="s">
         <v>789</v>
@@ -14106,10 +14106,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Q118" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="R118" t="s">
         <v>789</v>
@@ -14118,7 +14118,7 @@
         <v>789</v>
       </c>
       <c r="AC118" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -14174,10 +14174,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q119" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="R119" t="s">
         <v>789</v>
@@ -14186,7 +14186,7 @@
         <v>789</v>
       </c>
       <c r="AC119" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="AD119" t="s">
         <v>789</v>
@@ -14195,7 +14195,7 @@
         <v>789</v>
       </c>
       <c r="AO119" s="10" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -14245,10 +14245,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q120" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="R120" t="s">
         <v>789</v>
@@ -14257,7 +14257,7 @@
         <v>789</v>
       </c>
       <c r="AC120" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -14316,13 +14316,13 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Q121" t="s">
         <v>1302</v>
       </c>
-      <c r="Q121" t="s">
-        <v>1303</v>
-      </c>
       <c r="R121" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
@@ -14331,7 +14331,7 @@
         <v>998</v>
       </c>
       <c r="AD121" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -14387,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Q122" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="R122" t="s">
         <v>789</v>
@@ -14399,7 +14399,7 @@
         <v>789</v>
       </c>
       <c r="AC122" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -14458,10 +14458,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q123" t="s">
         <v>1305</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>1306</v>
       </c>
       <c r="R123" t="s">
         <v>789</v>
@@ -14526,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q124" t="s">
         <v>1307</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>1308</v>
       </c>
       <c r="R124" t="s">
         <v>789</v>
@@ -14597,10 +14597,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Q125" t="s">
         <v>1309</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>1310</v>
       </c>
       <c r="R125" t="s">
         <v>789</v>
@@ -14618,7 +14618,7 @@
         <v>789</v>
       </c>
       <c r="AO125" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -14668,10 +14668,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Q126" t="s">
         <v>1311</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>1312</v>
       </c>
       <c r="R126" t="s">
         <v>789</v>
@@ -14736,10 +14736,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Q127" t="s">
         <v>1313</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>1314</v>
       </c>
       <c r="R127" t="s">
         <v>789</v>
@@ -14798,10 +14798,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
+        <v>1314</v>
+      </c>
+      <c r="Q128" t="s">
         <v>1315</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>1316</v>
       </c>
       <c r="R128" t="s">
         <v>789</v>
@@ -14863,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q129" t="s">
         <v>1317</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>1318</v>
       </c>
       <c r="R129" t="s">
         <v>789</v>
@@ -14931,10 +14931,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Q130" t="s">
         <v>1319</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>1320</v>
       </c>
       <c r="R130" t="s">
         <v>789</v>
@@ -15002,10 +15002,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Q131" t="s">
         <v>1321</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>1322</v>
       </c>
       <c r="R131" t="s">
         <v>789</v>
@@ -15070,10 +15070,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q132" t="s">
         <v>1323</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>1324</v>
       </c>
       <c r="R132" t="s">
         <v>789</v>
@@ -15135,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q133" t="s">
         <v>1325</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>1326</v>
       </c>
       <c r="R133" t="s">
         <v>789</v>
@@ -15200,10 +15200,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Q134" t="s">
         <v>1327</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>1328</v>
       </c>
       <c r="R134" t="s">
         <v>789</v>
@@ -15268,10 +15268,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q135" t="s">
         <v>1329</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>1330</v>
       </c>
       <c r="R135" t="s">
         <v>789</v>
@@ -15333,10 +15333,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Q136" t="s">
         <v>1331</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>1332</v>
       </c>
       <c r="R136" t="s">
         <v>789</v>
@@ -15395,10 +15395,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q137" t="s">
         <v>1333</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>1334</v>
       </c>
       <c r="R137" t="s">
         <v>789</v>
@@ -15460,10 +15460,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Q138" t="s">
         <v>1335</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>1336</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -15528,10 +15528,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Q139" t="s">
         <v>1337</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>1338</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -15596,10 +15596,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q140" t="s">
         <v>1339</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>1340</v>
       </c>
       <c r="R140" t="s">
         <v>789</v>
@@ -15617,7 +15617,7 @@
         <v>789</v>
       </c>
       <c r="AO140" s="10" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -15664,10 +15664,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q141" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -15732,10 +15732,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Q142" t="s">
         <v>1342</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>1343</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -15800,10 +15800,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q143" t="s">
         <v>1344</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>1345</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -15868,10 +15868,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q144" t="s">
         <v>1346</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>1347</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -15936,10 +15936,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Q145" t="s">
         <v>1348</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>1349</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -16004,10 +16004,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q146" t="s">
         <v>1350</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>1351</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -16072,10 +16072,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q147" t="s">
         <v>1352</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>1353</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -16140,10 +16140,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="Q148" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="R148" t="s">
         <v>789</v>
@@ -16152,7 +16152,7 @@
         <v>789</v>
       </c>
       <c r="AC148" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -16208,10 +16208,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
+        <v>1354</v>
+      </c>
+      <c r="Q149" t="s">
         <v>1355</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>1356</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -16273,10 +16273,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q150" t="s">
         <v>1357</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>1358</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -16335,10 +16335,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q151" t="s">
         <v>1359</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>1360</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -16400,10 +16400,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Q152" t="s">
         <v>1361</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>1362</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -16462,10 +16462,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Q153" t="s">
         <v>1363</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>1364</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -16527,10 +16527,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Q154" t="s">
         <v>1365</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>1366</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -16592,10 +16592,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q155" t="s">
         <v>1367</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>1368</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -16657,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q156" t="s">
         <v>1369</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>1370</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -16722,10 +16722,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q157" t="s">
         <v>1371</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>1372</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -16787,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q158" t="s">
         <v>1373</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>1374</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -16852,10 +16852,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q159" t="s">
         <v>1375</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>1376</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -16917,10 +16917,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q160" t="s">
         <v>1377</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>1378</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -16982,10 +16982,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q161" t="s">
         <v>1379</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>1380</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -17050,10 +17050,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q162" t="s">
         <v>1381</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>1382</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -17115,10 +17115,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q163" t="s">
         <v>1383</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>1384</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -17180,10 +17180,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q164" t="s">
         <v>1385</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>1386</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -17310,10 +17310,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q166" t="s">
         <v>1388</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>1389</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -17369,10 +17369,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Q167" t="s">
         <v>1390</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>1391</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -17434,10 +17434,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
+        <v>1391</v>
+      </c>
+      <c r="Q168" t="s">
         <v>1392</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>1393</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -17502,10 +17502,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q169" t="s">
         <v>1394</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>1395</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -17567,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -17632,10 +17632,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q171" t="s">
         <v>1397</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>1398</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -17691,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -17756,10 +17756,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Q173" t="s">
         <v>1400</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>1401</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -17821,10 +17821,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
+        <v>1401</v>
+      </c>
+      <c r="Q174" t="s">
         <v>1402</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>1403</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -17886,10 +17886,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q175" t="s">
         <v>1404</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>1405</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -17951,10 +17951,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q176" t="s">
         <v>1406</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>1407</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -18016,10 +18016,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q177" t="s">
         <v>1408</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>1409</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -18081,7 +18081,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -18146,10 +18146,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q179" t="s">
         <v>1411</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>1412</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -18211,10 +18211,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Q180" t="s">
         <v>1413</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>1414</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -18279,10 +18279,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="Q181" t="s">
-        <v>1416</v>
+        <v>1810</v>
       </c>
       <c r="R181" t="s">
         <v>789</v>
@@ -18291,7 +18291,7 @@
         <v>789</v>
       </c>
       <c r="AC181" t="s">
-        <v>1052</v>
+        <v>1811</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -18338,10 +18338,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="Q182" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -18350,7 +18350,7 @@
         <v>789</v>
       </c>
       <c r="AC182" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD182" t="s">
         <v>789</v>
@@ -18397,10 +18397,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q183" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -18409,7 +18409,7 @@
         <v>789</v>
       </c>
       <c r="AC183" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AD183" t="s">
         <v>789</v>
@@ -18462,10 +18462,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Q184" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -18474,7 +18474,7 @@
         <v>789</v>
       </c>
       <c r="AC184" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AD184" t="s">
         <v>789</v>
@@ -18527,10 +18527,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="Q185" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -18539,7 +18539,7 @@
         <v>789</v>
       </c>
       <c r="AC185" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AD185" t="s">
         <v>789</v>
@@ -18592,10 +18592,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="Q186" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -18604,7 +18604,7 @@
         <v>789</v>
       </c>
       <c r="AC186" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AD186" t="s">
         <v>789</v>
@@ -18660,10 +18660,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Q187" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -18672,7 +18672,7 @@
         <v>789</v>
       </c>
       <c r="AC187" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AD187" t="s">
         <v>789</v>
@@ -18725,10 +18725,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q188" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -18737,7 +18737,7 @@
         <v>789</v>
       </c>
       <c r="AC188" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AD188" t="s">
         <v>789</v>
@@ -18790,10 +18790,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Q189" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -18802,7 +18802,7 @@
         <v>789</v>
       </c>
       <c r="AC189" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AD189" t="s">
         <v>789</v>
@@ -18849,10 +18849,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q190" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -18861,7 +18861,7 @@
         <v>789</v>
       </c>
       <c r="AC190" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AD190" t="s">
         <v>789</v>
@@ -18908,10 +18908,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q191" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -18920,7 +18920,7 @@
         <v>789</v>
       </c>
       <c r="AC191" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AD191" t="s">
         <v>789</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Q192" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -18979,7 +18979,7 @@
         <v>789</v>
       </c>
       <c r="AC192" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AD192" t="s">
         <v>789</v>
@@ -19032,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Q193" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -19044,7 +19044,7 @@
         <v>789</v>
       </c>
       <c r="AC193" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AD193" t="s">
         <v>789</v>
@@ -19091,10 +19091,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q194" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -19103,7 +19103,7 @@
         <v>789</v>
       </c>
       <c r="AC194" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AD194" t="s">
         <v>789</v>
@@ -19153,10 +19153,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="Q195" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -19165,7 +19165,7 @@
         <v>789</v>
       </c>
       <c r="AC195" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD195" t="s">
         <v>789</v>
@@ -19215,10 +19215,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="Q196" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -19227,7 +19227,7 @@
         <v>789</v>
       </c>
       <c r="AC196" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AD196" t="s">
         <v>789</v>
@@ -19280,10 +19280,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="Q197" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -19292,7 +19292,7 @@
         <v>789</v>
       </c>
       <c r="AC197" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AD197" t="s">
         <v>789</v>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -19475,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -19540,7 +19540,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -19605,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="Q202" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -19617,7 +19617,7 @@
         <v>789</v>
       </c>
       <c r="AC202" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AD202" t="s">
         <v>789</v>
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -19729,10 +19729,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q204" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -19741,7 +19741,7 @@
         <v>789</v>
       </c>
       <c r="AC204" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AD204" t="s">
         <v>789</v>
@@ -19788,10 +19788,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q205" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -19800,7 +19800,7 @@
         <v>789</v>
       </c>
       <c r="AC205" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AD205" t="s">
         <v>789</v>
@@ -19856,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="Q206" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -19868,7 +19868,7 @@
         <v>789</v>
       </c>
       <c r="AC206" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AD206" t="s">
         <v>789</v>
@@ -19924,10 +19924,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="Q207" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -19936,7 +19936,7 @@
         <v>789</v>
       </c>
       <c r="AC207" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AD207" t="s">
         <v>789</v>
@@ -19992,10 +19992,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="Q208" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -20004,7 +20004,7 @@
         <v>789</v>
       </c>
       <c r="AC208" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AD208" t="s">
         <v>789</v>
@@ -20060,10 +20060,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="Q209" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -20072,7 +20072,7 @@
         <v>789</v>
       </c>
       <c r="AC209" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD209" t="s">
         <v>789</v>
@@ -20122,10 +20122,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Q210" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -20134,7 +20134,7 @@
         <v>789</v>
       </c>
       <c r="AC210" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AD210" t="s">
         <v>789</v>
@@ -20190,10 +20190,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="Q211" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -20202,7 +20202,7 @@
         <v>789</v>
       </c>
       <c r="AC211" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AD211" t="s">
         <v>789</v>
@@ -20255,10 +20255,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="Q212" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -20267,7 +20267,7 @@
         <v>789</v>
       </c>
       <c r="AC212" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AD212" t="s">
         <v>789</v>
@@ -20314,10 +20314,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q213" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -20326,7 +20326,7 @@
         <v>789</v>
       </c>
       <c r="AC213" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AD213" t="s">
         <v>789</v>
@@ -20379,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q214" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -20391,7 +20391,7 @@
         <v>789</v>
       </c>
       <c r="AC214" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AD214" t="s">
         <v>789</v>
@@ -20438,10 +20438,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Q215" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -20450,7 +20450,7 @@
         <v>789</v>
       </c>
       <c r="AC215" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AD215" t="s">
         <v>789</v>
@@ -20500,10 +20500,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Q216" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -20512,7 +20512,7 @@
         <v>789</v>
       </c>
       <c r="AC216" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AD216" t="s">
         <v>789</v>
@@ -20568,10 +20568,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q217" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -20580,7 +20580,7 @@
         <v>789</v>
       </c>
       <c r="AC217" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AD217" t="s">
         <v>789</v>
@@ -20636,10 +20636,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q218" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -20648,7 +20648,7 @@
         <v>789</v>
       </c>
       <c r="AC218" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AD218" t="s">
         <v>789</v>
@@ -20704,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Q219" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -20716,7 +20716,7 @@
         <v>789</v>
       </c>
       <c r="AC219" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AD219" t="s">
         <v>789</v>
@@ -20772,10 +20772,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="Q220" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -20784,7 +20784,7 @@
         <v>789</v>
       </c>
       <c r="AC220" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AD220" t="s">
         <v>789</v>
@@ -20840,10 +20840,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q221" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -20852,7 +20852,7 @@
         <v>789</v>
       </c>
       <c r="AC221" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AD221" t="s">
         <v>789</v>
@@ -20908,10 +20908,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q222" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -20920,7 +20920,7 @@
         <v>789</v>
       </c>
       <c r="AC222" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AD222" t="s">
         <v>789</v>
@@ -20976,10 +20976,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q223" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -20988,7 +20988,7 @@
         <v>789</v>
       </c>
       <c r="AC223" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AD223" t="s">
         <v>789</v>
@@ -21044,10 +21044,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q224" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -21056,7 +21056,7 @@
         <v>789</v>
       </c>
       <c r="AC224" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AD224" t="s">
         <v>789</v>
@@ -21109,10 +21109,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="Q225" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -21121,7 +21121,7 @@
         <v>789</v>
       </c>
       <c r="AC225" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD225" t="s">
         <v>789</v>
@@ -21177,10 +21177,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Q226" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -21189,7 +21189,7 @@
         <v>789</v>
       </c>
       <c r="AC226" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AD226" t="s">
         <v>789</v>
@@ -21242,10 +21242,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q227" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -21254,7 +21254,7 @@
         <v>789</v>
       </c>
       <c r="AC227" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AD227" t="s">
         <v>789</v>
@@ -21307,10 +21307,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="Q228" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -21319,7 +21319,7 @@
         <v>789</v>
       </c>
       <c r="AC228" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AD228" t="s">
         <v>789</v>
@@ -21372,10 +21372,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="Q229" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -21384,7 +21384,7 @@
         <v>789</v>
       </c>
       <c r="AC229" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AD229" t="s">
         <v>789</v>
@@ -21431,10 +21431,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="Q230" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -21443,7 +21443,7 @@
         <v>789</v>
       </c>
       <c r="AC230" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AD230" t="s">
         <v>789</v>
@@ -21496,10 +21496,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="Q231" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -21508,7 +21508,7 @@
         <v>789</v>
       </c>
       <c r="AC231" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AD231" t="s">
         <v>789</v>
@@ -21561,10 +21561,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="Q232" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -21573,7 +21573,7 @@
         <v>789</v>
       </c>
       <c r="AC232" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AD232" t="s">
         <v>789</v>
@@ -21623,10 +21623,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Q233" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -21635,7 +21635,7 @@
         <v>789</v>
       </c>
       <c r="AC233" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AD233" t="s">
         <v>789</v>
@@ -21691,10 +21691,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="Q234" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -21703,7 +21703,7 @@
         <v>789</v>
       </c>
       <c r="AC234" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AD234" t="s">
         <v>789</v>
@@ -21756,10 +21756,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="Q235" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -21768,7 +21768,7 @@
         <v>789</v>
       </c>
       <c r="AC235" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AD235" t="s">
         <v>789</v>
@@ -21821,10 +21821,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Q236" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -21833,7 +21833,7 @@
         <v>789</v>
       </c>
       <c r="AC236" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AD236" t="s">
         <v>789</v>
@@ -21883,22 +21883,22 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
       </c>
       <c r="R237" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD237" t="s">
         <v>1103</v>
-      </c>
-      <c r="S237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>1104</v>
       </c>
       <c r="AE237" t="s">
         <v>789</v>
@@ -21948,22 +21948,22 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
       </c>
       <c r="R238" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD238" t="s">
         <v>1105</v>
-      </c>
-      <c r="S238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>1106</v>
       </c>
       <c r="AE238" t="s">
         <v>789</v>
@@ -21977,7 +21977,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -22004,22 +22004,22 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q239" t="s">
         <v>789</v>
       </c>
       <c r="R239" t="s">
+        <v>1106</v>
+      </c>
+      <c r="S239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD239" t="s">
         <v>1107</v>
-      </c>
-      <c r="S239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD239" t="s">
-        <v>1108</v>
       </c>
       <c r="AE239" t="s">
         <v>789</v>
@@ -22069,22 +22069,22 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
       </c>
       <c r="R240" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD240" t="s">
         <v>1109</v>
-      </c>
-      <c r="S240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD240" t="s">
-        <v>1110</v>
       </c>
       <c r="AE240" t="s">
         <v>789</v>
@@ -22134,13 +22134,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="S241" t="s">
         <v>789</v>
@@ -22149,7 +22149,7 @@
         <v>789</v>
       </c>
       <c r="AD241" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -22199,22 +22199,22 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
       </c>
       <c r="R242" t="s">
+        <v>1110</v>
+      </c>
+      <c r="S242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD242" t="s">
         <v>1111</v>
-      </c>
-      <c r="S242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD242" t="s">
-        <v>1112</v>
       </c>
       <c r="AE242" t="s">
         <v>789</v>
@@ -22264,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -22273,16 +22273,16 @@
         <v>789</v>
       </c>
       <c r="S243" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE243" t="s">
         <v>1113</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE243" t="s">
-        <v>1114</v>
       </c>
       <c r="AO243" s="9">
         <v>2358384846</v>
@@ -22329,10 +22329,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q244" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -22341,7 +22341,7 @@
         <v>789</v>
       </c>
       <c r="AC244" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AD244" t="s">
         <v>789</v>
@@ -22350,7 +22350,7 @@
         <v>789</v>
       </c>
       <c r="AO244" s="10" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -22391,10 +22391,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="Q245" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -22403,7 +22403,7 @@
         <v>789</v>
       </c>
       <c r="AC245" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AD245" t="s">
         <v>789</v>
@@ -22453,10 +22453,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="Q246" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -22465,7 +22465,7 @@
         <v>789</v>
       </c>
       <c r="AC246" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD246" t="s">
         <v>789</v>
@@ -22515,10 +22515,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q247" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -22527,7 +22527,7 @@
         <v>789</v>
       </c>
       <c r="AC247" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AD247" t="s">
         <v>789</v>
@@ -22577,10 +22577,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q248" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -22589,7 +22589,7 @@
         <v>789</v>
       </c>
       <c r="AC248" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AD248" t="s">
         <v>789</v>
@@ -22639,22 +22639,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="Q249" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R249" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
       </c>
       <c r="AC249" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AD249" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -22707,10 +22707,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="Q250" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -22719,7 +22719,7 @@
         <v>789</v>
       </c>
       <c r="AC250" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AD250" t="s">
         <v>789</v>
@@ -22769,10 +22769,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="Q251" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -22781,7 +22781,7 @@
         <v>789</v>
       </c>
       <c r="AC251" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AD251" t="s">
         <v>789</v>
@@ -22831,10 +22831,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Q252" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -22843,7 +22843,7 @@
         <v>789</v>
       </c>
       <c r="AC252" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AD252" t="s">
         <v>789</v>
@@ -22896,10 +22896,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="Q253" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -22908,7 +22908,7 @@
         <v>789</v>
       </c>
       <c r="AC253" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AD253" t="s">
         <v>789</v>
@@ -22958,10 +22958,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="Q254" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -22970,7 +22970,7 @@
         <v>789</v>
       </c>
       <c r="AC254" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AD254" t="s">
         <v>789</v>
@@ -23017,28 +23017,28 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="Q255" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R255" t="s">
         <v>789</v>
       </c>
       <c r="S255" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="AC255" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AD255" t="s">
         <v>789</v>
       </c>
       <c r="AE255" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="AO255" s="10" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -23082,25 +23082,25 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q256" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R256" t="s">
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AC256" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AD256" t="s">
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
@@ -23141,10 +23141,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="Q257" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -23153,7 +23153,7 @@
         <v>789</v>
       </c>
       <c r="AC257" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AD257" t="s">
         <v>789</v>
@@ -23206,10 +23206,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="Q258" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -23218,7 +23218,7 @@
         <v>789</v>
       </c>
       <c r="AC258" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AD258" t="s">
         <v>789</v>
@@ -23268,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -23277,16 +23277,16 @@
         <v>789</v>
       </c>
       <c r="S259" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE259" t="s">
         <v>1130</v>
-      </c>
-      <c r="AC259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE259" t="s">
-        <v>1131</v>
       </c>
       <c r="AO259" s="9">
         <v>613592902</v>
@@ -23330,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="Q260" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -23342,7 +23342,7 @@
         <v>789</v>
       </c>
       <c r="AC260" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AD260" t="s">
         <v>789</v>
@@ -23389,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="Q261" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -23401,7 +23401,7 @@
         <v>789</v>
       </c>
       <c r="AC261" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AD261" t="s">
         <v>789</v>
@@ -23451,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="Q262" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -23463,7 +23463,7 @@
         <v>789</v>
       </c>
       <c r="AC262" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AD262" t="s">
         <v>789</v>
@@ -23513,10 +23513,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="Q263" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -23525,7 +23525,7 @@
         <v>789</v>
       </c>
       <c r="AC263" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AD263" t="s">
         <v>789</v>
@@ -23578,10 +23578,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="Q264" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -23590,7 +23590,7 @@
         <v>789</v>
       </c>
       <c r="AC264" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AD264" t="s">
         <v>789</v>
@@ -23637,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="Q265" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -23649,7 +23649,7 @@
         <v>789</v>
       </c>
       <c r="AC265" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AD265" t="s">
         <v>789</v>
@@ -23699,10 +23699,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="Q266" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -23711,7 +23711,7 @@
         <v>789</v>
       </c>
       <c r="AC266" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AD266" t="s">
         <v>789</v>
@@ -23761,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -23770,16 +23770,16 @@
         <v>789</v>
       </c>
       <c r="S267" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE267" t="s">
         <v>1139</v>
-      </c>
-      <c r="AC267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE267" t="s">
-        <v>1140</v>
       </c>
       <c r="AO267" s="9">
         <v>1288516250</v>
@@ -23826,28 +23826,28 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="Q268" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="AC268" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AD268" t="s">
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="AO268" s="10" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -23888,10 +23888,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="Q269" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -23900,7 +23900,7 @@
         <v>789</v>
       </c>
       <c r="AC269" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AD269" t="s">
         <v>789</v>
@@ -23909,7 +23909,7 @@
         <v>789</v>
       </c>
       <c r="AO269" s="10" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -23953,10 +23953,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="Q270" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -23965,7 +23965,7 @@
         <v>789</v>
       </c>
       <c r="AC270" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AD270" t="s">
         <v>789</v>
@@ -24021,10 +24021,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="Q271" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -24033,7 +24033,7 @@
         <v>789</v>
       </c>
       <c r="AC271" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AD271" t="s">
         <v>789</v>
@@ -24080,10 +24080,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="Q272" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -24092,7 +24092,7 @@
         <v>789</v>
       </c>
       <c r="AC272" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AD272" t="s">
         <v>789</v>
@@ -24145,10 +24145,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="Q273" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -24157,7 +24157,7 @@
         <v>789</v>
       </c>
       <c r="AC273" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD273" t="s">
         <v>789</v>
@@ -24210,10 +24210,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="Q274" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -24222,7 +24222,7 @@
         <v>789</v>
       </c>
       <c r="AC274" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD274" t="s">
         <v>789</v>
@@ -24231,7 +24231,7 @@
         <v>789</v>
       </c>
       <c r="AO274" s="10" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -24272,10 +24272,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="Q275" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -24284,7 +24284,7 @@
         <v>789</v>
       </c>
       <c r="AC275" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AD275" t="s">
         <v>789</v>
@@ -24331,10 +24331,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="Q276" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -24343,7 +24343,7 @@
         <v>789</v>
       </c>
       <c r="AC276" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AD276" t="s">
         <v>789</v>
@@ -24390,10 +24390,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Q277" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -24402,7 +24402,7 @@
         <v>789</v>
       </c>
       <c r="AC277" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AD277" t="s">
         <v>789</v>
@@ -24449,10 +24449,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q278" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -24461,7 +24461,7 @@
         <v>789</v>
       </c>
       <c r="AC278" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AD278" t="s">
         <v>789</v>
@@ -24475,10 +24475,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C279" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -24508,10 +24508,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q279" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -24520,7 +24520,7 @@
         <v>789</v>
       </c>
       <c r="AC279" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AD279" t="s">
         <v>789</v>
@@ -24567,10 +24567,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="Q280" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -24579,7 +24579,7 @@
         <v>789</v>
       </c>
       <c r="AC280" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AD280" t="s">
         <v>789</v>
@@ -24626,10 +24626,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q281" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -24638,7 +24638,7 @@
         <v>789</v>
       </c>
       <c r="AC281" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AD281" t="s">
         <v>789</v>
@@ -24685,10 +24685,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q282" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -24697,7 +24697,7 @@
         <v>789</v>
       </c>
       <c r="AC282" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AD282" t="s">
         <v>789</v>
@@ -24744,10 +24744,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q283" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -24756,7 +24756,7 @@
         <v>789</v>
       </c>
       <c r="AC283" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AD283" t="s">
         <v>789</v>
@@ -24803,10 +24803,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Q284" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -24815,7 +24815,7 @@
         <v>789</v>
       </c>
       <c r="AC284" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AD284" t="s">
         <v>789</v>
@@ -24862,10 +24862,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Q285" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -24874,7 +24874,7 @@
         <v>789</v>
       </c>
       <c r="AC285" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AD285" t="s">
         <v>789</v>
@@ -24921,10 +24921,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Q286" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -24933,7 +24933,7 @@
         <v>789</v>
       </c>
       <c r="AC286" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AD286" t="s">
         <v>789</v>
@@ -24980,10 +24980,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="Q287" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -24992,7 +24992,7 @@
         <v>789</v>
       </c>
       <c r="AC287" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AD287" t="s">
         <v>789</v>
@@ -25039,10 +25039,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q288" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -25051,7 +25051,7 @@
         <v>789</v>
       </c>
       <c r="AC288" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AD288" t="s">
         <v>789</v>
@@ -25101,10 +25101,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q289" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -25113,7 +25113,7 @@
         <v>789</v>
       </c>
       <c r="AC289" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AD289" t="s">
         <v>789</v>
@@ -25163,10 +25163,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="Q290" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -25175,7 +25175,7 @@
         <v>789</v>
       </c>
       <c r="AC290" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AD290" t="s">
         <v>789</v>
@@ -25225,10 +25225,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="Q291" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -25237,7 +25237,7 @@
         <v>789</v>
       </c>
       <c r="AC291" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD291" t="s">
         <v>789</v>
@@ -25254,10 +25254,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C292" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -25293,13 +25293,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="R292" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AD292" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -25310,16 +25310,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C293" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -25352,13 +25352,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="R293" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="AD293" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -25369,13 +25369,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C294" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D294" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -25411,13 +25411,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="R294" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AD294" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -25428,16 +25428,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C295" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -25470,13 +25470,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="R295" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AD295" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -25487,16 +25487,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C296" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D296" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E296" t="s">
         <v>1687</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1689</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25529,13 +25529,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="R296" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AD296" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -25546,16 +25546,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C297" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D297" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E297" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25588,13 +25588,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="R297" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AD297" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -25605,16 +25605,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C298" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D298" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E298" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -25644,13 +25644,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="R298" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AD298" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -25661,16 +25661,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C299" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -25714,16 +25714,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C300" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D300" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E300" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25756,13 +25756,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="S300" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="AE300" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -25773,16 +25773,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C301" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25815,13 +25815,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="S301" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="AE301" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -25832,19 +25832,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C302" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G302" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -25871,13 +25871,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="S302" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="AE302" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -25888,22 +25888,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C303" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D303" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E303" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -25930,13 +25930,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="S303" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="AE303" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -25947,16 +25947,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C304" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D304" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E304" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25983,13 +25983,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="S304" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="AE304" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -26000,16 +26000,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C305" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -26042,13 +26042,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="S305" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="AE305" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -26059,16 +26059,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C306" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D306" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -26101,13 +26101,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="S306" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="AE306" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -26118,16 +26118,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C307" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D307" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="E307" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -26160,13 +26160,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="S307" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="AE307" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -26177,16 +26177,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E308" t="s">
         <v>1729</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1731</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -26219,13 +26219,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="S308" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="AE308" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73F4F6-0196-4964-BFBD-AD8F8D4C0502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2912BC7F-515A-4DDB-8A06-D3CB1A682DD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2431,12 +2431,6 @@
     <t>[49159160, 50759139]</t>
   </si>
   <si>
-    <t>[32971449, 208283246]</t>
-  </si>
-  <si>
-    <t>[20132258, 44989342]</t>
-  </si>
-  <si>
     <t>[36278569, 236695554]</t>
   </si>
   <si>
@@ -5465,6 +5459,12 @@
   </si>
   <si>
     <t>[50870124]</t>
+  </si>
+  <si>
+    <t>[32971449, 208283246,208282842]</t>
+  </si>
+  <si>
+    <t>[20132258, 44989342,44979328]</t>
   </si>
 </sst>
 </file>
@@ -5856,10 +5856,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC181" sqref="AC181"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,13 +6018,13 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>1776</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q2" t="s">
         <v>789</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="Q3" t="s">
         <v>789</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="Q4" t="s">
         <v>789</v>
@@ -6287,13 +6287,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q5" t="s">
         <v>789</v>
       </c>
       <c r="R5" t="s">
-        <v>800</v>
+        <v>1810</v>
       </c>
       <c r="S5" t="s">
         <v>789</v>
@@ -6302,7 +6302,7 @@
         <v>789</v>
       </c>
       <c r="AD5" t="s">
-        <v>801</v>
+        <v>1811</v>
       </c>
       <c r="AE5" t="s">
         <v>789</v>
@@ -6358,13 +6358,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="Q6" t="s">
         <v>789</v>
       </c>
       <c r="R6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="S6" t="s">
         <v>789</v>
@@ -6373,7 +6373,7 @@
         <v>789</v>
       </c>
       <c r="AD6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AE6" t="s">
         <v>789</v>
@@ -6429,28 +6429,28 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="R7" t="s">
+        <v>802</v>
+      </c>
+      <c r="S7" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD7" t="s">
         <v>804</v>
       </c>
-      <c r="S7" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>805</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>806</v>
-      </c>
       <c r="AE7" t="s">
         <v>789</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -6500,13 +6500,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q8" t="s">
         <v>789</v>
       </c>
       <c r="R8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="S8" t="s">
         <v>789</v>
@@ -6515,7 +6515,7 @@
         <v>789</v>
       </c>
       <c r="AD8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AE8" t="s">
         <v>789</v>
@@ -6571,13 +6571,13 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="Q9" t="s">
         <v>789</v>
       </c>
       <c r="R9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="S9" t="s">
         <v>789</v>
@@ -6586,7 +6586,7 @@
         <v>789</v>
       </c>
       <c r="AD9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AE9" t="s">
         <v>789</v>
@@ -6600,7 +6600,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6639,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="Q10" t="s">
         <v>789</v>
       </c>
       <c r="R10" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="S10" t="s">
         <v>789</v>
@@ -6654,7 +6654,7 @@
         <v>789</v>
       </c>
       <c r="AD10" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -6710,22 +6710,22 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="Q11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="R11" t="s">
+        <v>809</v>
+      </c>
+      <c r="S11" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>810</v>
+      </c>
+      <c r="AD11" t="s">
         <v>811</v>
-      </c>
-      <c r="S11" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>813</v>
       </c>
       <c r="AE11" t="s">
         <v>789</v>
@@ -6781,13 +6781,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Q12" t="s">
         <v>789</v>
       </c>
       <c r="R12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="S12" t="s">
         <v>789</v>
@@ -6796,7 +6796,7 @@
         <v>789</v>
       </c>
       <c r="AD12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AE12" t="s">
         <v>789</v>
@@ -6849,13 +6849,13 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="Q13" t="s">
         <v>789</v>
       </c>
       <c r="R13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="S13" t="s">
         <v>789</v>
@@ -6864,13 +6864,13 @@
         <v>789</v>
       </c>
       <c r="AD13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AE13" t="s">
         <v>789</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -6917,13 +6917,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Q14" t="s">
         <v>789</v>
       </c>
       <c r="R14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="S14" t="s">
         <v>789</v>
@@ -6932,7 +6932,7 @@
         <v>789</v>
       </c>
       <c r="AD14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AE14" t="s">
         <v>789</v>
@@ -6988,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Q15" t="s">
         <v>789</v>
       </c>
       <c r="R15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="S15" t="s">
         <v>789</v>
@@ -7003,7 +7003,7 @@
         <v>789</v>
       </c>
       <c r="AD15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AE15" t="s">
         <v>789</v>
@@ -7059,13 +7059,13 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="Q16" t="s">
         <v>789</v>
       </c>
       <c r="R16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="S16" t="s">
         <v>789</v>
@@ -7074,7 +7074,7 @@
         <v>789</v>
       </c>
       <c r="AD16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AE16" t="s">
         <v>789</v>
@@ -7130,13 +7130,13 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q17" t="s">
         <v>789</v>
       </c>
       <c r="R17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S17" t="s">
         <v>789</v>
@@ -7145,7 +7145,7 @@
         <v>789</v>
       </c>
       <c r="AD17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AE17" t="s">
         <v>789</v>
@@ -7198,13 +7198,13 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="Q18" t="s">
         <v>789</v>
       </c>
       <c r="R18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="S18" t="s">
         <v>789</v>
@@ -7213,7 +7213,7 @@
         <v>789</v>
       </c>
       <c r="AD18" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AE18" t="s">
         <v>789</v>
@@ -7269,25 +7269,25 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Q19" t="s">
         <v>789</v>
       </c>
       <c r="R19" t="s">
+        <v>826</v>
+      </c>
+      <c r="S19" t="s">
+        <v>827</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD19" t="s">
         <v>828</v>
       </c>
-      <c r="S19" t="s">
+      <c r="AE19" t="s">
         <v>829</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>830</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>831</v>
       </c>
       <c r="AO19" s="9">
         <v>2431173637</v>
@@ -7340,13 +7340,13 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Q20" t="s">
         <v>789</v>
       </c>
       <c r="R20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="S20" t="s">
         <v>789</v>
@@ -7355,7 +7355,7 @@
         <v>789</v>
       </c>
       <c r="AD20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AE20" t="s">
         <v>789</v>
@@ -7411,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Q21" t="s">
         <v>789</v>
       </c>
       <c r="R21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="S21" t="s">
         <v>789</v>
@@ -7426,7 +7426,7 @@
         <v>789</v>
       </c>
       <c r="AD21" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AE21" t="s">
         <v>789</v>
@@ -7482,22 +7482,22 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Q22" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="R22" t="s">
+        <v>834</v>
+      </c>
+      <c r="S22" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>835</v>
+      </c>
+      <c r="AD22" t="s">
         <v>836</v>
-      </c>
-      <c r="S22" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>837</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>838</v>
       </c>
       <c r="AE22" t="s">
         <v>789</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="Q23" t="s">
         <v>789</v>
@@ -7618,13 +7618,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="Q24" t="s">
         <v>789</v>
       </c>
       <c r="R24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="S24" t="s">
         <v>789</v>
@@ -7633,7 +7633,7 @@
         <v>789</v>
       </c>
       <c r="AD24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AE24" t="s">
         <v>789</v>
@@ -7689,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="Q25" t="s">
         <v>789</v>
       </c>
       <c r="R25" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="S25" t="s">
         <v>789</v>
@@ -7704,7 +7704,7 @@
         <v>789</v>
       </c>
       <c r="AD25" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -7757,13 +7757,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Q26" t="s">
         <v>789</v>
       </c>
       <c r="R26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="S26" t="s">
         <v>789</v>
@@ -7772,7 +7772,7 @@
         <v>789</v>
       </c>
       <c r="AD26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AE26" t="s">
         <v>789</v>
@@ -7819,22 +7819,22 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="Q27" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="R27" t="s">
+        <v>841</v>
+      </c>
+      <c r="S27" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>842</v>
+      </c>
+      <c r="AD27" t="s">
         <v>843</v>
-      </c>
-      <c r="S27" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>844</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>845</v>
       </c>
       <c r="AE27" t="s">
         <v>789</v>
@@ -7890,13 +7890,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Q28" t="s">
         <v>789</v>
       </c>
       <c r="R28" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="S28" t="s">
         <v>789</v>
@@ -7905,13 +7905,13 @@
         <v>789</v>
       </c>
       <c r="AD28" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="AE28" t="s">
         <v>789</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -7958,25 +7958,25 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="Q29" t="s">
         <v>789</v>
       </c>
       <c r="R29" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="S29" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
       </c>
       <c r="AD29" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AE29" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -8026,13 +8026,13 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="Q30" t="s">
         <v>789</v>
       </c>
       <c r="R30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="S30" t="s">
         <v>789</v>
@@ -8041,7 +8041,7 @@
         <v>789</v>
       </c>
       <c r="AD30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AE30" t="s">
         <v>789</v>
@@ -8094,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Q31" t="s">
         <v>789</v>
       </c>
       <c r="R31" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="S31" t="s">
         <v>789</v>
@@ -8109,7 +8109,7 @@
         <v>789</v>
       </c>
       <c r="AD31" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -8159,19 +8159,19 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="Q32" t="s">
         <v>789</v>
       </c>
       <c r="R32" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="S32" t="s">
         <v>789</v>
       </c>
       <c r="AD32" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AE32" t="s">
         <v>789</v>
@@ -8224,13 +8224,13 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="Q33" t="s">
         <v>789</v>
       </c>
       <c r="R33" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="S33" t="s">
         <v>789</v>
@@ -8239,7 +8239,7 @@
         <v>789</v>
       </c>
       <c r="AD33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AE33" t="s">
         <v>789</v>
@@ -8295,13 +8295,13 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="Q34" t="s">
         <v>789</v>
       </c>
       <c r="R34" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="S34" t="s">
         <v>789</v>
@@ -8310,7 +8310,7 @@
         <v>789</v>
       </c>
       <c r="AD34" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AE34" t="s">
         <v>789</v>
@@ -8366,13 +8366,13 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="Q35" t="s">
         <v>789</v>
       </c>
       <c r="R35" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="S35" t="s">
         <v>789</v>
@@ -8381,7 +8381,7 @@
         <v>789</v>
       </c>
       <c r="AD35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AE35" t="s">
         <v>789</v>
@@ -8437,13 +8437,13 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="Q36" t="s">
         <v>789</v>
       </c>
       <c r="R36" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="S36" t="s">
         <v>789</v>
@@ -8452,7 +8452,7 @@
         <v>789</v>
       </c>
       <c r="AD36" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AE36" t="s">
         <v>789</v>
@@ -8505,13 +8505,13 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="Q37" t="s">
         <v>789</v>
       </c>
       <c r="R37" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="S37" t="s">
         <v>789</v>
@@ -8520,7 +8520,7 @@
         <v>789</v>
       </c>
       <c r="AD37" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AE37" t="s">
         <v>789</v>
@@ -8570,13 +8570,13 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="Q38" t="s">
         <v>789</v>
       </c>
       <c r="R38" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="S38" t="s">
         <v>789</v>
@@ -8585,7 +8585,7 @@
         <v>789</v>
       </c>
       <c r="AD38" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AE38" t="s">
         <v>789</v>
@@ -8635,25 +8635,25 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="Q39" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="R39" t="s">
+        <v>862</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>863</v>
+      </c>
+      <c r="AD39" t="s">
         <v>864</v>
       </c>
-      <c r="S39" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>865</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>866</v>
-      </c>
       <c r="AE39" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="AO39" s="10">
         <v>803776063</v>
@@ -8662,7 +8662,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8709,13 +8709,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="Q40" t="s">
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -8724,7 +8724,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -8771,13 +8771,13 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="Q41" t="s">
         <v>789</v>
       </c>
       <c r="R41" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="S41" t="s">
         <v>789</v>
@@ -8786,7 +8786,7 @@
         <v>789</v>
       </c>
       <c r="AD41" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AE41" t="s">
         <v>789</v>
@@ -8836,13 +8836,13 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Q42" t="s">
         <v>789</v>
       </c>
       <c r="R42" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="S42" t="s">
         <v>789</v>
@@ -8851,7 +8851,7 @@
         <v>789</v>
       </c>
       <c r="AD42" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AE42" t="s">
         <v>789</v>
@@ -8901,13 +8901,13 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="Q43" t="s">
         <v>789</v>
       </c>
       <c r="R43" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="S43" t="s">
         <v>789</v>
@@ -8916,7 +8916,7 @@
         <v>789</v>
       </c>
       <c r="AD43" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AE43" t="s">
         <v>789</v>
@@ -8969,13 +8969,13 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Q44" t="s">
         <v>789</v>
       </c>
       <c r="R44" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="S44" t="s">
         <v>789</v>
@@ -8984,7 +8984,7 @@
         <v>789</v>
       </c>
       <c r="AD44" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AE44" t="s">
         <v>789</v>
@@ -9034,13 +9034,13 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="Q45" t="s">
         <v>789</v>
       </c>
       <c r="R45" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S45" t="s">
         <v>789</v>
@@ -9049,7 +9049,7 @@
         <v>789</v>
       </c>
       <c r="AD45" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AE45" t="s">
         <v>789</v>
@@ -9105,13 +9105,13 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="Q46" t="s">
         <v>789</v>
       </c>
       <c r="R46" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="S46" t="s">
         <v>789</v>
@@ -9120,7 +9120,7 @@
         <v>789</v>
       </c>
       <c r="AD46" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AE46" t="s">
         <v>789</v>
@@ -9173,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Q47" t="s">
         <v>789</v>
       </c>
       <c r="R47" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="S47" t="s">
         <v>789</v>
@@ -9188,7 +9188,7 @@
         <v>789</v>
       </c>
       <c r="AD47" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -9244,28 +9244,28 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Q48" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="R48" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
       </c>
       <c r="AC48" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AD48" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -9315,22 +9315,22 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Q49" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="R49" t="s">
+        <v>878</v>
+      </c>
+      <c r="S49" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD49" t="s">
         <v>880</v>
-      </c>
-      <c r="S49" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>881</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>882</v>
       </c>
       <c r="AE49" t="s">
         <v>789</v>
@@ -9383,13 +9383,13 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q50" t="s">
         <v>789</v>
       </c>
       <c r="R50" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="S50" t="s">
         <v>789</v>
@@ -9398,7 +9398,7 @@
         <v>789</v>
       </c>
       <c r="AD50" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AE50" t="s">
         <v>789</v>
@@ -9451,13 +9451,13 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="Q51" t="s">
         <v>789</v>
       </c>
       <c r="R51" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="S51" t="s">
         <v>789</v>
@@ -9466,7 +9466,7 @@
         <v>789</v>
       </c>
       <c r="AD51" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AE51" t="s">
         <v>789</v>
@@ -9519,13 +9519,13 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Q52" t="s">
         <v>789</v>
       </c>
       <c r="R52" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="S52" t="s">
         <v>789</v>
@@ -9534,13 +9534,13 @@
         <v>789</v>
       </c>
       <c r="AD52" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AE52" t="s">
         <v>789</v>
       </c>
       <c r="AO52" s="10" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -9590,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="Q53" t="s">
         <v>789</v>
       </c>
       <c r="R53" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="S53" t="s">
         <v>789</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="AD53" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -9661,22 +9661,22 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Q54" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="R54" t="s">
+        <v>887</v>
+      </c>
+      <c r="S54" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>888</v>
+      </c>
+      <c r="AD54" t="s">
         <v>889</v>
-      </c>
-      <c r="S54" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>890</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>891</v>
       </c>
       <c r="AE54" t="s">
         <v>789</v>
@@ -9732,13 +9732,13 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q55" t="s">
         <v>789</v>
       </c>
       <c r="R55" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="S55" t="s">
         <v>789</v>
@@ -9747,7 +9747,7 @@
         <v>789</v>
       </c>
       <c r="AD55" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AE55" t="s">
         <v>789</v>
@@ -9803,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Q56" t="s">
         <v>789</v>
@@ -9812,7 +9812,7 @@
         <v>789</v>
       </c>
       <c r="S56" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AC56" t="s">
         <v>789</v>
@@ -9821,7 +9821,7 @@
         <v>789</v>
       </c>
       <c r="AE56" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AO56" s="9">
         <v>498051521</v>
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Q57" t="s">
         <v>789</v>
@@ -9883,7 +9883,7 @@
         <v>789</v>
       </c>
       <c r="S57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AC57" t="s">
         <v>789</v>
@@ -9892,7 +9892,7 @@
         <v>789</v>
       </c>
       <c r="AE57" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AO57" s="9">
         <v>4910628093</v>
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="Q58" t="s">
         <v>789</v>
@@ -9954,7 +9954,7 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AC58" t="s">
         <v>789</v>
@@ -9963,7 +9963,7 @@
         <v>789</v>
       </c>
       <c r="AE58" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
@@ -10016,25 +10016,25 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Q59" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
       </c>
       <c r="S59" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AC59" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD59" t="s">
         <v>789</v>
       </c>
       <c r="AE59" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AO59" s="9">
         <v>881827464</v>
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="Q60" t="s">
         <v>789</v>
@@ -10096,7 +10096,7 @@
         <v>789</v>
       </c>
       <c r="S60" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AC60" t="s">
         <v>789</v>
@@ -10105,7 +10105,7 @@
         <v>789</v>
       </c>
       <c r="AE60" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AO60" s="9">
         <v>2180891672</v>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Q61" t="s">
         <v>789</v>
@@ -10158,7 +10158,7 @@
         <v>789</v>
       </c>
       <c r="S61" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AC61" t="s">
         <v>789</v>
@@ -10167,10 +10167,10 @@
         <v>789</v>
       </c>
       <c r="AE61" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -10220,25 +10220,25 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="Q62" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="R62" t="s">
         <v>789</v>
       </c>
       <c r="S62" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>903</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE62" t="s">
         <v>904</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>906</v>
       </c>
       <c r="AO62" s="9">
         <v>189438124</v>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q63" t="s">
         <v>789</v>
@@ -10300,7 +10300,7 @@
         <v>789</v>
       </c>
       <c r="S63" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AC63" t="s">
         <v>789</v>
@@ -10309,7 +10309,7 @@
         <v>789</v>
       </c>
       <c r="AE63" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AO63" s="9">
         <v>1648029396</v>
@@ -10362,25 +10362,25 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q64" t="s">
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="S64" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE64" t="s">
         <v>909</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>910</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>911</v>
       </c>
       <c r="AO64" s="9">
         <v>1887874465</v>
@@ -10433,25 +10433,25 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Q65" t="s">
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="S65" t="s">
+        <v>910</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>911</v>
+      </c>
+      <c r="AE65" t="s">
         <v>912</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>914</v>
       </c>
       <c r="AO65" s="9">
         <v>1244508066</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="Q66" t="s">
         <v>789</v>
@@ -10510,7 +10510,7 @@
         <v>789</v>
       </c>
       <c r="S66" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AC66" t="s">
         <v>789</v>
@@ -10519,7 +10519,7 @@
         <v>789</v>
       </c>
       <c r="AE66" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AO66" s="9">
         <v>2790180781</v>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Q67" t="s">
         <v>789</v>
@@ -10581,7 +10581,7 @@
         <v>789</v>
       </c>
       <c r="S67" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AC67" t="s">
         <v>789</v>
@@ -10590,7 +10590,7 @@
         <v>789</v>
       </c>
       <c r="AE67" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AO67" s="9">
         <v>2893607283</v>
@@ -10643,25 +10643,25 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q68" t="s">
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="S68" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AC68" t="s">
         <v>789</v>
       </c>
       <c r="AD68" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AE68" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AO68" s="9">
         <v>2550298718</v>
@@ -10672,7 +10672,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Q69" t="s">
         <v>789</v>
@@ -10723,7 +10723,7 @@
         <v>789</v>
       </c>
       <c r="S69" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AC69" t="s">
         <v>789</v>
@@ -10732,7 +10732,7 @@
         <v>789</v>
       </c>
       <c r="AE69" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AO69" s="9">
         <v>2460445795</v>
@@ -10785,25 +10785,25 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Q70" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="R70" t="s">
         <v>789</v>
       </c>
       <c r="S70" t="s">
+        <v>921</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>922</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE70" t="s">
         <v>923</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>924</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>925</v>
       </c>
       <c r="AO70" s="9">
         <v>3220569488</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Q71" t="s">
         <v>789</v>
@@ -10856,7 +10856,7 @@
         <v>789</v>
       </c>
       <c r="S71" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AC71" t="s">
         <v>789</v>
@@ -10865,7 +10865,7 @@
         <v>789</v>
       </c>
       <c r="AE71" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AO71" s="9">
         <v>2262186933</v>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q72" t="s">
         <v>789</v>
@@ -10924,7 +10924,7 @@
         <v>789</v>
       </c>
       <c r="S72" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AC72" t="s">
         <v>789</v>
@@ -10933,7 +10933,7 @@
         <v>789</v>
       </c>
       <c r="AE72" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AO72" s="9">
         <v>3376068993</v>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="Q73" t="s">
         <v>789</v>
@@ -10995,7 +10995,7 @@
         <v>789</v>
       </c>
       <c r="S73" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AC73" t="s">
         <v>789</v>
@@ -11004,7 +11004,7 @@
         <v>789</v>
       </c>
       <c r="AE73" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AO73" s="9">
         <v>2943089668</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Q74" t="s">
         <v>789</v>
@@ -11063,7 +11063,7 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AC74" t="s">
         <v>789</v>
@@ -11072,7 +11072,7 @@
         <v>789</v>
       </c>
       <c r="AE74" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -11125,28 +11125,28 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="Q75" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="R75" t="s">
         <v>789</v>
       </c>
       <c r="S75" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="AC75" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AD75" t="s">
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="AO75" s="10" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q76" t="s">
         <v>789</v>
@@ -11202,7 +11202,7 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="AC76" t="s">
         <v>789</v>
@@ -11211,7 +11211,7 @@
         <v>789</v>
       </c>
       <c r="AE76" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -11264,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Q77" t="s">
         <v>789</v>
@@ -11273,10 +11273,10 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="T77" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="AC77" t="s">
         <v>789</v>
@@ -11285,10 +11285,10 @@
         <v>789</v>
       </c>
       <c r="AE77" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AF77" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -11341,25 +11341,25 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Q78" t="s">
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="S78" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AC78" t="s">
         <v>789</v>
       </c>
       <c r="AD78" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AE78" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AO78" s="9">
         <v>1974332792</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q79" t="s">
         <v>789</v>
@@ -11415,7 +11415,7 @@
         <v>789</v>
       </c>
       <c r="S79" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AC79" t="s">
         <v>789</v>
@@ -11424,10 +11424,10 @@
         <v>789</v>
       </c>
       <c r="AE79" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AO79" s="10" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="Q80" t="s">
         <v>789</v>
@@ -11480,7 +11480,7 @@
         <v>789</v>
       </c>
       <c r="S80" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AC80" t="s">
         <v>789</v>
@@ -11489,7 +11489,7 @@
         <v>789</v>
       </c>
       <c r="AE80" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AO80" s="9">
         <v>3290808800</v>
@@ -11542,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Q81" t="s">
         <v>789</v>
@@ -11551,7 +11551,7 @@
         <v>789</v>
       </c>
       <c r="S81" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AC81" t="s">
         <v>789</v>
@@ -11560,7 +11560,7 @@
         <v>789</v>
       </c>
       <c r="AE81" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AO81" s="9">
         <v>2776080715</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q82" t="s">
         <v>789</v>
@@ -11622,7 +11622,7 @@
         <v>789</v>
       </c>
       <c r="S82" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AC82" t="s">
         <v>789</v>
@@ -11631,7 +11631,7 @@
         <v>789</v>
       </c>
       <c r="AE82" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AO82" s="9">
         <v>2767545127</v>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Q83" t="s">
         <v>789</v>
@@ -11693,7 +11693,7 @@
         <v>789</v>
       </c>
       <c r="S83" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AC83" t="s">
         <v>789</v>
@@ -11702,7 +11702,7 @@
         <v>789</v>
       </c>
       <c r="AE83" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AO83" s="9">
         <v>2303751344</v>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q84" t="s">
         <v>789</v>
@@ -11761,7 +11761,7 @@
         <v>789</v>
       </c>
       <c r="S84" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AC84" t="s">
         <v>789</v>
@@ -11770,7 +11770,7 @@
         <v>789</v>
       </c>
       <c r="AE84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AO84" s="9">
         <v>710556630</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q85" t="s">
         <v>789</v>
@@ -11832,7 +11832,7 @@
         <v>789</v>
       </c>
       <c r="S85" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AC85" t="s">
         <v>789</v>
@@ -11841,7 +11841,7 @@
         <v>789</v>
       </c>
       <c r="AE85" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AO85" s="9">
         <v>2984116738</v>
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q86" t="s">
         <v>789</v>
@@ -11903,7 +11903,7 @@
         <v>789</v>
       </c>
       <c r="S86" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AC86" t="s">
         <v>789</v>
@@ -11912,7 +11912,7 @@
         <v>789</v>
       </c>
       <c r="AE86" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AO86" s="9">
         <v>2590218632</v>
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q87" t="s">
         <v>789</v>
@@ -11971,7 +11971,7 @@
         <v>789</v>
       </c>
       <c r="S87" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AC87" t="s">
         <v>789</v>
@@ -11980,7 +11980,7 @@
         <v>789</v>
       </c>
       <c r="AE87" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AO87" s="9">
         <v>1076882574</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Q88" t="s">
         <v>789</v>
@@ -12042,7 +12042,7 @@
         <v>789</v>
       </c>
       <c r="S88" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AC88" t="s">
         <v>789</v>
@@ -12051,7 +12051,7 @@
         <v>789</v>
       </c>
       <c r="AE88" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AO88" s="9">
         <v>1048780687</v>
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q89" t="s">
         <v>789</v>
@@ -12113,7 +12113,7 @@
         <v>789</v>
       </c>
       <c r="S89" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AC89" t="s">
         <v>789</v>
@@ -12122,7 +12122,7 @@
         <v>789</v>
       </c>
       <c r="AE89" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AO89" s="9">
         <v>1250062656</v>
@@ -12172,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="Q90" t="s">
         <v>789</v>
@@ -12181,7 +12181,7 @@
         <v>789</v>
       </c>
       <c r="S90" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AC90" t="s">
         <v>789</v>
@@ -12190,7 +12190,7 @@
         <v>789</v>
       </c>
       <c r="AE90" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AO90" s="9">
         <v>497329859</v>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q91" t="s">
         <v>789</v>
@@ -12252,7 +12252,7 @@
         <v>789</v>
       </c>
       <c r="S91" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AC91" t="s">
         <v>789</v>
@@ -12261,7 +12261,7 @@
         <v>789</v>
       </c>
       <c r="AE91" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AO91" s="9">
         <v>2685541393</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Q92" t="s">
         <v>789</v>
@@ -12323,7 +12323,7 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="AC92" t="s">
         <v>789</v>
@@ -12332,7 +12332,7 @@
         <v>789</v>
       </c>
       <c r="AE92" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Q93" t="s">
         <v>789</v>
@@ -12391,7 +12391,7 @@
         <v>789</v>
       </c>
       <c r="S93" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AC93" t="s">
         <v>789</v>
@@ -12400,7 +12400,7 @@
         <v>789</v>
       </c>
       <c r="AE93" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AO93" s="9">
         <v>1648682035</v>
@@ -12453,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Q94" t="s">
         <v>789</v>
@@ -12462,7 +12462,7 @@
         <v>789</v>
       </c>
       <c r="S94" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AC94" t="s">
         <v>789</v>
@@ -12471,7 +12471,7 @@
         <v>789</v>
       </c>
       <c r="AE94" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AO94" s="9">
         <v>336118770</v>
@@ -12524,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="Q95" t="s">
         <v>789</v>
@@ -12533,7 +12533,7 @@
         <v>789</v>
       </c>
       <c r="S95" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AC95" t="s">
         <v>789</v>
@@ -12542,7 +12542,7 @@
         <v>789</v>
       </c>
       <c r="AE95" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AO95" s="9">
         <v>2216379312</v>
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q96" t="s">
         <v>789</v>
@@ -12604,7 +12604,7 @@
         <v>789</v>
       </c>
       <c r="S96" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AC96" t="s">
         <v>789</v>
@@ -12613,7 +12613,7 @@
         <v>789</v>
       </c>
       <c r="AE96" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AO96" s="9">
         <v>2493571052</v>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="Q97" t="s">
         <v>789</v>
@@ -12672,7 +12672,7 @@
         <v>789</v>
       </c>
       <c r="S97" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AC97" t="s">
         <v>789</v>
@@ -12681,7 +12681,7 @@
         <v>789</v>
       </c>
       <c r="AE97" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AO97" s="9">
         <v>3199462954</v>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Q98" t="s">
         <v>789</v>
@@ -12740,7 +12740,7 @@
         <v>789</v>
       </c>
       <c r="S98" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AC98" t="s">
         <v>789</v>
@@ -12749,7 +12749,7 @@
         <v>789</v>
       </c>
       <c r="AE98" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AO98" s="9">
         <v>3300282393</v>
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q99" t="s">
         <v>789</v>
@@ -12808,7 +12808,7 @@
         <v>789</v>
       </c>
       <c r="S99" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AC99" t="s">
         <v>789</v>
@@ -12817,7 +12817,7 @@
         <v>789</v>
       </c>
       <c r="AE99" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AO99" s="9">
         <v>2902700080</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -12876,7 +12876,7 @@
         <v>789</v>
       </c>
       <c r="S100" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AC100" t="s">
         <v>789</v>
@@ -12885,7 +12885,7 @@
         <v>789</v>
       </c>
       <c r="AE100" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AO100" s="9">
         <v>2387061402</v>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -12944,7 +12944,7 @@
         <v>789</v>
       </c>
       <c r="S101" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AC101" t="s">
         <v>789</v>
@@ -12953,7 +12953,7 @@
         <v>789</v>
       </c>
       <c r="AE101" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AO101" s="9">
         <v>2199018126</v>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Q102" t="s">
         <v>789</v>
@@ -13015,7 +13015,7 @@
         <v>789</v>
       </c>
       <c r="S102" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AC102" t="s">
         <v>789</v>
@@ -13024,7 +13024,7 @@
         <v>789</v>
       </c>
       <c r="AE102" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AO102" s="9">
         <v>2494302799</v>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -13083,7 +13083,7 @@
         <v>789</v>
       </c>
       <c r="S103" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AC103" t="s">
         <v>789</v>
@@ -13092,10 +13092,10 @@
         <v>789</v>
       </c>
       <c r="AE103" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AO103" s="10" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -13142,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -13151,7 +13151,7 @@
         <v>789</v>
       </c>
       <c r="S104" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AC104" t="s">
         <v>789</v>
@@ -13160,7 +13160,7 @@
         <v>789</v>
       </c>
       <c r="AE104" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AO104" s="9">
         <v>2387536795</v>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -13219,7 +13219,7 @@
         <v>789</v>
       </c>
       <c r="S105" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AC105" t="s">
         <v>789</v>
@@ -13228,10 +13228,10 @@
         <v>789</v>
       </c>
       <c r="AE105" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AO105" s="10" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -13278,10 +13278,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Q106" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="R106" t="s">
         <v>789</v>
@@ -13290,7 +13290,7 @@
         <v>789</v>
       </c>
       <c r="AC106" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AD106" t="s">
         <v>789</v>
@@ -13343,10 +13343,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Q107" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="R107" t="s">
         <v>789</v>
@@ -13355,7 +13355,7 @@
         <v>789</v>
       </c>
       <c r="AC107" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -13411,10 +13411,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="Q108" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="R108" t="s">
         <v>789</v>
@@ -13423,7 +13423,7 @@
         <v>789</v>
       </c>
       <c r="AC108" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AD108" t="s">
         <v>789</v>
@@ -13432,7 +13432,7 @@
         <v>789</v>
       </c>
       <c r="AO108" s="10" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -13482,10 +13482,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="Q109" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="R109" t="s">
         <v>789</v>
@@ -13494,7 +13494,7 @@
         <v>789</v>
       </c>
       <c r="AC109" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AD109" t="s">
         <v>789</v>
@@ -13553,10 +13553,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Q110" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="R110" t="s">
         <v>789</v>
@@ -13565,7 +13565,7 @@
         <v>789</v>
       </c>
       <c r="AC110" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="AD110" t="s">
         <v>789</v>
@@ -13624,10 +13624,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q111" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="R111" t="s">
         <v>789</v>
@@ -13636,7 +13636,7 @@
         <v>789</v>
       </c>
       <c r="AC111" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AD111" t="s">
         <v>789</v>
@@ -13695,10 +13695,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q112" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="R112" t="s">
         <v>789</v>
@@ -13707,7 +13707,7 @@
         <v>789</v>
       </c>
       <c r="AC112" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AD112" t="s">
         <v>789</v>
@@ -13763,10 +13763,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q113" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="R113" t="s">
         <v>789</v>
@@ -13775,7 +13775,7 @@
         <v>789</v>
       </c>
       <c r="AC113" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AD113" t="s">
         <v>789</v>
@@ -13831,10 +13831,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="Q114" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="R114" t="s">
         <v>789</v>
@@ -13843,7 +13843,7 @@
         <v>789</v>
       </c>
       <c r="AC114" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AD114" t="s">
         <v>789</v>
@@ -13902,10 +13902,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="Q115" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="R115" t="s">
         <v>789</v>
@@ -13914,7 +13914,7 @@
         <v>789</v>
       </c>
       <c r="AC115" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AD115" t="s">
         <v>789</v>
@@ -13970,10 +13970,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Q116" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="R116" t="s">
         <v>789</v>
@@ -13982,7 +13982,7 @@
         <v>789</v>
       </c>
       <c r="AC116" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AD116" t="s">
         <v>789</v>
@@ -14038,10 +14038,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="Q117" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R117" t="s">
         <v>789</v>
@@ -14050,7 +14050,7 @@
         <v>789</v>
       </c>
       <c r="AC117" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AD117" t="s">
         <v>789</v>
@@ -14106,10 +14106,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="Q118" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="R118" t="s">
         <v>789</v>
@@ -14118,7 +14118,7 @@
         <v>789</v>
       </c>
       <c r="AC118" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -14174,10 +14174,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q119" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="R119" t="s">
         <v>789</v>
@@ -14186,7 +14186,7 @@
         <v>789</v>
       </c>
       <c r="AC119" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AD119" t="s">
         <v>789</v>
@@ -14195,7 +14195,7 @@
         <v>789</v>
       </c>
       <c r="AO119" s="10" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -14245,10 +14245,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Q120" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="R120" t="s">
         <v>789</v>
@@ -14257,7 +14257,7 @@
         <v>789</v>
       </c>
       <c r="AC120" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -14316,22 +14316,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q121" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R121" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
       </c>
       <c r="AC121" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AD121" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -14387,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Q122" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R122" t="s">
         <v>789</v>
@@ -14399,7 +14399,7 @@
         <v>789</v>
       </c>
       <c r="AC122" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -14458,10 +14458,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q123" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="R123" t="s">
         <v>789</v>
@@ -14470,7 +14470,7 @@
         <v>789</v>
       </c>
       <c r="AC123" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AD123" t="s">
         <v>789</v>
@@ -14526,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Q124" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="R124" t="s">
         <v>789</v>
@@ -14538,7 +14538,7 @@
         <v>789</v>
       </c>
       <c r="AC124" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AD124" t="s">
         <v>789</v>
@@ -14597,10 +14597,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="Q125" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="R125" t="s">
         <v>789</v>
@@ -14609,7 +14609,7 @@
         <v>789</v>
       </c>
       <c r="AC125" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AD125" t="s">
         <v>789</v>
@@ -14618,7 +14618,7 @@
         <v>789</v>
       </c>
       <c r="AO125" s="10" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -14668,10 +14668,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="Q126" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="R126" t="s">
         <v>789</v>
@@ -14680,7 +14680,7 @@
         <v>789</v>
       </c>
       <c r="AC126" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AD126" t="s">
         <v>789</v>
@@ -14736,10 +14736,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="Q127" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="R127" t="s">
         <v>789</v>
@@ -14748,7 +14748,7 @@
         <v>789</v>
       </c>
       <c r="AC127" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AD127" t="s">
         <v>789</v>
@@ -14798,10 +14798,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Q128" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R128" t="s">
         <v>789</v>
@@ -14810,7 +14810,7 @@
         <v>789</v>
       </c>
       <c r="AC128" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="AD128" t="s">
         <v>789</v>
@@ -14863,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Q129" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="R129" t="s">
         <v>789</v>
@@ -14875,7 +14875,7 @@
         <v>789</v>
       </c>
       <c r="AC129" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AD129" t="s">
         <v>789</v>
@@ -14931,10 +14931,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q130" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="R130" t="s">
         <v>789</v>
@@ -14943,7 +14943,7 @@
         <v>789</v>
       </c>
       <c r="AC130" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="AD130" t="s">
         <v>789</v>
@@ -15002,10 +15002,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="Q131" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="R131" t="s">
         <v>789</v>
@@ -15014,7 +15014,7 @@
         <v>789</v>
       </c>
       <c r="AC131" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AD131" t="s">
         <v>789</v>
@@ -15070,10 +15070,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="Q132" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R132" t="s">
         <v>789</v>
@@ -15082,7 +15082,7 @@
         <v>789</v>
       </c>
       <c r="AC132" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AD132" t="s">
         <v>789</v>
@@ -15135,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q133" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="R133" t="s">
         <v>789</v>
@@ -15147,7 +15147,7 @@
         <v>789</v>
       </c>
       <c r="AC133" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AD133" t="s">
         <v>789</v>
@@ -15200,10 +15200,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="Q134" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="R134" t="s">
         <v>789</v>
@@ -15212,7 +15212,7 @@
         <v>789</v>
       </c>
       <c r="AC134" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AD134" t="s">
         <v>789</v>
@@ -15268,10 +15268,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="Q135" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="R135" t="s">
         <v>789</v>
@@ -15280,7 +15280,7 @@
         <v>789</v>
       </c>
       <c r="AC135" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AD135" t="s">
         <v>789</v>
@@ -15333,10 +15333,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="Q136" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="R136" t="s">
         <v>789</v>
@@ -15345,7 +15345,7 @@
         <v>789</v>
       </c>
       <c r="AC136" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AD136" t="s">
         <v>789</v>
@@ -15395,10 +15395,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="Q137" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="R137" t="s">
         <v>789</v>
@@ -15407,7 +15407,7 @@
         <v>789</v>
       </c>
       <c r="AC137" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AD137" t="s">
         <v>789</v>
@@ -15460,10 +15460,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="Q138" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -15472,7 +15472,7 @@
         <v>789</v>
       </c>
       <c r="AC138" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AD138" t="s">
         <v>789</v>
@@ -15528,10 +15528,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="Q139" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -15540,7 +15540,7 @@
         <v>789</v>
       </c>
       <c r="AC139" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AD139" t="s">
         <v>789</v>
@@ -15596,10 +15596,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="Q140" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="R140" t="s">
         <v>789</v>
@@ -15608,7 +15608,7 @@
         <v>789</v>
       </c>
       <c r="AC140" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AD140" t="s">
         <v>789</v>
@@ -15617,7 +15617,7 @@
         <v>789</v>
       </c>
       <c r="AO140" s="10" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -15664,10 +15664,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="Q141" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -15676,7 +15676,7 @@
         <v>789</v>
       </c>
       <c r="AC141" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AD141" t="s">
         <v>789</v>
@@ -15732,10 +15732,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Q142" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -15744,7 +15744,7 @@
         <v>789</v>
       </c>
       <c r="AC142" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AD142" t="s">
         <v>789</v>
@@ -15800,10 +15800,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Q143" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -15812,7 +15812,7 @@
         <v>789</v>
       </c>
       <c r="AC143" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AD143" t="s">
         <v>789</v>
@@ -15868,10 +15868,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="Q144" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -15880,7 +15880,7 @@
         <v>789</v>
       </c>
       <c r="AC144" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AD144" t="s">
         <v>789</v>
@@ -15936,10 +15936,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="Q145" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -15948,7 +15948,7 @@
         <v>789</v>
       </c>
       <c r="AC145" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AD145" t="s">
         <v>789</v>
@@ -16004,10 +16004,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="Q146" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -16016,7 +16016,7 @@
         <v>789</v>
       </c>
       <c r="AC146" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AD146" t="s">
         <v>789</v>
@@ -16072,10 +16072,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="Q147" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -16084,7 +16084,7 @@
         <v>789</v>
       </c>
       <c r="AC147" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AD147" t="s">
         <v>789</v>
@@ -16140,10 +16140,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="Q148" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="R148" t="s">
         <v>789</v>
@@ -16152,7 +16152,7 @@
         <v>789</v>
       </c>
       <c r="AC148" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -16208,10 +16208,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="Q149" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -16220,7 +16220,7 @@
         <v>789</v>
       </c>
       <c r="AC149" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AD149" t="s">
         <v>789</v>
@@ -16273,10 +16273,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="Q150" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -16285,7 +16285,7 @@
         <v>789</v>
       </c>
       <c r="AC150" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AD150" t="s">
         <v>789</v>
@@ -16335,10 +16335,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="Q151" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -16347,7 +16347,7 @@
         <v>789</v>
       </c>
       <c r="AC151" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AD151" t="s">
         <v>789</v>
@@ -16400,10 +16400,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="Q152" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -16412,7 +16412,7 @@
         <v>789</v>
       </c>
       <c r="AC152" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AD152" t="s">
         <v>789</v>
@@ -16462,10 +16462,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Q153" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -16474,7 +16474,7 @@
         <v>789</v>
       </c>
       <c r="AC153" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AD153" t="s">
         <v>789</v>
@@ -16527,10 +16527,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q154" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -16539,7 +16539,7 @@
         <v>789</v>
       </c>
       <c r="AC154" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AD154" t="s">
         <v>789</v>
@@ -16592,10 +16592,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="Q155" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -16604,7 +16604,7 @@
         <v>789</v>
       </c>
       <c r="AC155" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AD155" t="s">
         <v>789</v>
@@ -16657,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="Q156" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -16669,7 +16669,7 @@
         <v>789</v>
       </c>
       <c r="AC156" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AD156" t="s">
         <v>789</v>
@@ -16722,10 +16722,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q157" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -16734,7 +16734,7 @@
         <v>789</v>
       </c>
       <c r="AC157" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AD157" t="s">
         <v>789</v>
@@ -16787,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q158" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -16799,7 +16799,7 @@
         <v>789</v>
       </c>
       <c r="AC158" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AD158" t="s">
         <v>789</v>
@@ -16852,10 +16852,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="Q159" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -16864,7 +16864,7 @@
         <v>789</v>
       </c>
       <c r="AC159" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AD159" t="s">
         <v>789</v>
@@ -16917,10 +16917,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="Q160" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -16929,7 +16929,7 @@
         <v>789</v>
       </c>
       <c r="AC160" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AD160" t="s">
         <v>789</v>
@@ -16982,10 +16982,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="Q161" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -16994,7 +16994,7 @@
         <v>789</v>
       </c>
       <c r="AC161" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AD161" t="s">
         <v>789</v>
@@ -17050,10 +17050,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="Q162" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -17062,7 +17062,7 @@
         <v>789</v>
       </c>
       <c r="AC162" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AD162" t="s">
         <v>789</v>
@@ -17115,10 +17115,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="Q163" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -17127,7 +17127,7 @@
         <v>789</v>
       </c>
       <c r="AC163" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AD163" t="s">
         <v>789</v>
@@ -17180,10 +17180,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="Q164" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -17192,7 +17192,7 @@
         <v>789</v>
       </c>
       <c r="AC164" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AD164" t="s">
         <v>789</v>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -17310,10 +17310,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="Q166" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -17322,7 +17322,7 @@
         <v>789</v>
       </c>
       <c r="AC166" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AD166" t="s">
         <v>789</v>
@@ -17369,10 +17369,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="Q167" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -17381,7 +17381,7 @@
         <v>789</v>
       </c>
       <c r="AC167" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AD167" t="s">
         <v>789</v>
@@ -17434,10 +17434,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q168" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -17446,7 +17446,7 @@
         <v>789</v>
       </c>
       <c r="AC168" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AD168" t="s">
         <v>789</v>
@@ -17502,10 +17502,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Q169" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -17514,7 +17514,7 @@
         <v>789</v>
       </c>
       <c r="AC169" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AD169" t="s">
         <v>789</v>
@@ -17567,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -17632,10 +17632,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Q171" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -17644,7 +17644,7 @@
         <v>789</v>
       </c>
       <c r="AC171" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AD171" t="s">
         <v>789</v>
@@ -17691,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -17756,10 +17756,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Q173" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -17768,7 +17768,7 @@
         <v>789</v>
       </c>
       <c r="AC173" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AD173" t="s">
         <v>789</v>
@@ -17821,10 +17821,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q174" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -17833,7 +17833,7 @@
         <v>789</v>
       </c>
       <c r="AC174" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AD174" t="s">
         <v>789</v>
@@ -17886,10 +17886,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="Q175" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -17898,7 +17898,7 @@
         <v>789</v>
       </c>
       <c r="AC175" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AD175" t="s">
         <v>789</v>
@@ -17951,10 +17951,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="Q176" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -17963,7 +17963,7 @@
         <v>789</v>
       </c>
       <c r="AC176" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AD176" t="s">
         <v>789</v>
@@ -18016,10 +18016,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="Q177" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -18028,7 +18028,7 @@
         <v>789</v>
       </c>
       <c r="AC177" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AD177" t="s">
         <v>789</v>
@@ -18081,7 +18081,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -18146,10 +18146,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="Q179" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -18158,7 +18158,7 @@
         <v>789</v>
       </c>
       <c r="AC179" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AD179" t="s">
         <v>789</v>
@@ -18211,10 +18211,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="Q180" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -18223,7 +18223,7 @@
         <v>789</v>
       </c>
       <c r="AC180" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AD180" t="s">
         <v>789</v>
@@ -18279,10 +18279,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="Q181" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="R181" t="s">
         <v>789</v>
@@ -18291,7 +18291,7 @@
         <v>789</v>
       </c>
       <c r="AC181" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -18338,10 +18338,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Q182" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -18350,7 +18350,7 @@
         <v>789</v>
       </c>
       <c r="AC182" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AD182" t="s">
         <v>789</v>
@@ -18397,10 +18397,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="Q183" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -18409,7 +18409,7 @@
         <v>789</v>
       </c>
       <c r="AC183" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AD183" t="s">
         <v>789</v>
@@ -18462,10 +18462,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q184" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -18474,7 +18474,7 @@
         <v>789</v>
       </c>
       <c r="AC184" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AD184" t="s">
         <v>789</v>
@@ -18527,10 +18527,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Q185" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -18539,7 +18539,7 @@
         <v>789</v>
       </c>
       <c r="AC185" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AD185" t="s">
         <v>789</v>
@@ -18592,10 +18592,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="Q186" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -18604,7 +18604,7 @@
         <v>789</v>
       </c>
       <c r="AC186" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AD186" t="s">
         <v>789</v>
@@ -18660,10 +18660,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="Q187" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -18672,7 +18672,7 @@
         <v>789</v>
       </c>
       <c r="AC187" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AD187" t="s">
         <v>789</v>
@@ -18725,10 +18725,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Q188" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -18737,7 +18737,7 @@
         <v>789</v>
       </c>
       <c r="AC188" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AD188" t="s">
         <v>789</v>
@@ -18790,10 +18790,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q189" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -18802,7 +18802,7 @@
         <v>789</v>
       </c>
       <c r="AC189" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AD189" t="s">
         <v>789</v>
@@ -18849,10 +18849,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Q190" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -18861,7 +18861,7 @@
         <v>789</v>
       </c>
       <c r="AC190" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AD190" t="s">
         <v>789</v>
@@ -18908,10 +18908,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q191" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -18920,7 +18920,7 @@
         <v>789</v>
       </c>
       <c r="AC191" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AD191" t="s">
         <v>789</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q192" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -18979,7 +18979,7 @@
         <v>789</v>
       </c>
       <c r="AC192" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AD192" t="s">
         <v>789</v>
@@ -19032,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Q193" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -19044,7 +19044,7 @@
         <v>789</v>
       </c>
       <c r="AC193" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AD193" t="s">
         <v>789</v>
@@ -19091,10 +19091,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Q194" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -19103,7 +19103,7 @@
         <v>789</v>
       </c>
       <c r="AC194" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AD194" t="s">
         <v>789</v>
@@ -19153,10 +19153,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="Q195" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -19165,7 +19165,7 @@
         <v>789</v>
       </c>
       <c r="AC195" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AD195" t="s">
         <v>789</v>
@@ -19215,10 +19215,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="Q196" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -19227,7 +19227,7 @@
         <v>789</v>
       </c>
       <c r="AC196" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD196" t="s">
         <v>789</v>
@@ -19280,10 +19280,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="Q197" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -19292,7 +19292,7 @@
         <v>789</v>
       </c>
       <c r="AC197" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AD197" t="s">
         <v>789</v>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -19475,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -19540,7 +19540,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -19605,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="Q202" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -19617,7 +19617,7 @@
         <v>789</v>
       </c>
       <c r="AC202" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AD202" t="s">
         <v>789</v>
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -19729,10 +19729,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="Q204" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -19741,7 +19741,7 @@
         <v>789</v>
       </c>
       <c r="AC204" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AD204" t="s">
         <v>789</v>
@@ -19788,10 +19788,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q205" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -19800,7 +19800,7 @@
         <v>789</v>
       </c>
       <c r="AC205" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AD205" t="s">
         <v>789</v>
@@ -19856,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q206" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -19868,7 +19868,7 @@
         <v>789</v>
       </c>
       <c r="AC206" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AD206" t="s">
         <v>789</v>
@@ -19924,10 +19924,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="Q207" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -19936,7 +19936,7 @@
         <v>789</v>
       </c>
       <c r="AC207" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD207" t="s">
         <v>789</v>
@@ -19992,10 +19992,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="Q208" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -20004,7 +20004,7 @@
         <v>789</v>
       </c>
       <c r="AC208" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AD208" t="s">
         <v>789</v>
@@ -20060,10 +20060,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="Q209" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -20072,7 +20072,7 @@
         <v>789</v>
       </c>
       <c r="AC209" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AD209" t="s">
         <v>789</v>
@@ -20122,10 +20122,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="Q210" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -20134,7 +20134,7 @@
         <v>789</v>
       </c>
       <c r="AC210" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AD210" t="s">
         <v>789</v>
@@ -20190,10 +20190,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Q211" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -20202,7 +20202,7 @@
         <v>789</v>
       </c>
       <c r="AC211" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AD211" t="s">
         <v>789</v>
@@ -20255,10 +20255,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="Q212" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -20267,7 +20267,7 @@
         <v>789</v>
       </c>
       <c r="AC212" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AD212" t="s">
         <v>789</v>
@@ -20314,10 +20314,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="Q213" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -20326,7 +20326,7 @@
         <v>789</v>
       </c>
       <c r="AC213" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AD213" t="s">
         <v>789</v>
@@ -20379,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q214" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -20391,7 +20391,7 @@
         <v>789</v>
       </c>
       <c r="AC214" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AD214" t="s">
         <v>789</v>
@@ -20438,10 +20438,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q215" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -20450,7 +20450,7 @@
         <v>789</v>
       </c>
       <c r="AC215" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AD215" t="s">
         <v>789</v>
@@ -20500,10 +20500,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Q216" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -20512,7 +20512,7 @@
         <v>789</v>
       </c>
       <c r="AC216" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AD216" t="s">
         <v>789</v>
@@ -20568,10 +20568,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Q217" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -20580,7 +20580,7 @@
         <v>789</v>
       </c>
       <c r="AC217" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AD217" t="s">
         <v>789</v>
@@ -20636,10 +20636,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q218" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -20648,7 +20648,7 @@
         <v>789</v>
       </c>
       <c r="AC218" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AD218" t="s">
         <v>789</v>
@@ -20704,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q219" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -20716,7 +20716,7 @@
         <v>789</v>
       </c>
       <c r="AC219" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AD219" t="s">
         <v>789</v>
@@ -20772,10 +20772,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Q220" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -20784,7 +20784,7 @@
         <v>789</v>
       </c>
       <c r="AC220" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AD220" t="s">
         <v>789</v>
@@ -20840,10 +20840,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="Q221" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -20852,7 +20852,7 @@
         <v>789</v>
       </c>
       <c r="AC221" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AD221" t="s">
         <v>789</v>
@@ -20908,10 +20908,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q222" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -20920,7 +20920,7 @@
         <v>789</v>
       </c>
       <c r="AC222" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AD222" t="s">
         <v>789</v>
@@ -20976,10 +20976,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q223" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -20988,7 +20988,7 @@
         <v>789</v>
       </c>
       <c r="AC223" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AD223" t="s">
         <v>789</v>
@@ -21044,10 +21044,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q224" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -21056,7 +21056,7 @@
         <v>789</v>
       </c>
       <c r="AC224" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AD224" t="s">
         <v>789</v>
@@ -21109,10 +21109,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q225" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -21121,7 +21121,7 @@
         <v>789</v>
       </c>
       <c r="AC225" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AD225" t="s">
         <v>789</v>
@@ -21177,10 +21177,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="Q226" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -21189,7 +21189,7 @@
         <v>789</v>
       </c>
       <c r="AC226" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AD226" t="s">
         <v>789</v>
@@ -21242,10 +21242,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Q227" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -21254,7 +21254,7 @@
         <v>789</v>
       </c>
       <c r="AC227" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AD227" t="s">
         <v>789</v>
@@ -21307,10 +21307,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q228" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -21319,7 +21319,7 @@
         <v>789</v>
       </c>
       <c r="AC228" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AD228" t="s">
         <v>789</v>
@@ -21372,10 +21372,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="Q229" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -21384,7 +21384,7 @@
         <v>789</v>
       </c>
       <c r="AC229" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AD229" t="s">
         <v>789</v>
@@ -21431,10 +21431,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="Q230" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -21443,7 +21443,7 @@
         <v>789</v>
       </c>
       <c r="AC230" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AD230" t="s">
         <v>789</v>
@@ -21496,10 +21496,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="Q231" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -21508,7 +21508,7 @@
         <v>789</v>
       </c>
       <c r="AC231" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AD231" t="s">
         <v>789</v>
@@ -21561,10 +21561,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="Q232" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -21573,7 +21573,7 @@
         <v>789</v>
       </c>
       <c r="AC232" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AD232" t="s">
         <v>789</v>
@@ -21623,10 +21623,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="Q233" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -21635,7 +21635,7 @@
         <v>789</v>
       </c>
       <c r="AC233" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AD233" t="s">
         <v>789</v>
@@ -21691,10 +21691,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Q234" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -21703,7 +21703,7 @@
         <v>789</v>
       </c>
       <c r="AC234" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AD234" t="s">
         <v>789</v>
@@ -21756,10 +21756,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="Q235" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -21768,7 +21768,7 @@
         <v>789</v>
       </c>
       <c r="AC235" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AD235" t="s">
         <v>789</v>
@@ -21821,10 +21821,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="Q236" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -21833,7 +21833,7 @@
         <v>789</v>
       </c>
       <c r="AC236" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AD236" t="s">
         <v>789</v>
@@ -21877,19 +21877,19 @@
         <v>0</v>
       </c>
       <c r="N237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O237" t="b">
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
       </c>
       <c r="R237" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="S237" t="s">
         <v>789</v>
@@ -21898,7 +21898,7 @@
         <v>789</v>
       </c>
       <c r="AD237" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AE237" t="s">
         <v>789</v>
@@ -21948,13 +21948,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
       </c>
       <c r="R238" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="S238" t="s">
         <v>789</v>
@@ -21963,7 +21963,7 @@
         <v>789</v>
       </c>
       <c r="AD238" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AE238" t="s">
         <v>789</v>
@@ -21977,7 +21977,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -22004,13 +22004,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Q239" t="s">
         <v>789</v>
       </c>
       <c r="R239" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="S239" t="s">
         <v>789</v>
@@ -22019,7 +22019,7 @@
         <v>789</v>
       </c>
       <c r="AD239" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AE239" t="s">
         <v>789</v>
@@ -22069,13 +22069,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
       </c>
       <c r="R240" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="S240" t="s">
         <v>789</v>
@@ -22084,7 +22084,7 @@
         <v>789</v>
       </c>
       <c r="AD240" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AE240" t="s">
         <v>789</v>
@@ -22128,19 +22128,19 @@
         <v>0</v>
       </c>
       <c r="N241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O241" t="b">
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="S241" t="s">
         <v>789</v>
@@ -22149,7 +22149,7 @@
         <v>789</v>
       </c>
       <c r="AD241" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -22199,13 +22199,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
       </c>
       <c r="R242" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="S242" t="s">
         <v>789</v>
@@ -22214,7 +22214,7 @@
         <v>789</v>
       </c>
       <c r="AD242" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AE242" t="s">
         <v>789</v>
@@ -22264,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -22273,7 +22273,7 @@
         <v>789</v>
       </c>
       <c r="S243" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AC243" t="s">
         <v>789</v>
@@ -22282,7 +22282,7 @@
         <v>789</v>
       </c>
       <c r="AE243" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AO243" s="9">
         <v>2358384846</v>
@@ -22329,10 +22329,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q244" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -22341,7 +22341,7 @@
         <v>789</v>
       </c>
       <c r="AC244" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AD244" t="s">
         <v>789</v>
@@ -22350,7 +22350,7 @@
         <v>789</v>
       </c>
       <c r="AO244" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -22391,10 +22391,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q245" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -22403,7 +22403,7 @@
         <v>789</v>
       </c>
       <c r="AC245" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AD245" t="s">
         <v>789</v>
@@ -22453,10 +22453,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="Q246" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -22465,7 +22465,7 @@
         <v>789</v>
       </c>
       <c r="AC246" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AD246" t="s">
         <v>789</v>
@@ -22515,10 +22515,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="Q247" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -22527,7 +22527,7 @@
         <v>789</v>
       </c>
       <c r="AC247" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AD247" t="s">
         <v>789</v>
@@ -22577,10 +22577,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q248" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -22589,7 +22589,7 @@
         <v>789</v>
       </c>
       <c r="AC248" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AD248" t="s">
         <v>789</v>
@@ -22639,22 +22639,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q249" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R249" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
       </c>
       <c r="AC249" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AD249" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -22707,10 +22707,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="Q250" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -22719,7 +22719,7 @@
         <v>789</v>
       </c>
       <c r="AC250" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AD250" t="s">
         <v>789</v>
@@ -22769,10 +22769,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="Q251" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -22781,7 +22781,7 @@
         <v>789</v>
       </c>
       <c r="AC251" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AD251" t="s">
         <v>789</v>
@@ -22831,10 +22831,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="Q252" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -22843,7 +22843,7 @@
         <v>789</v>
       </c>
       <c r="AC252" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AD252" t="s">
         <v>789</v>
@@ -22896,10 +22896,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Q253" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -22908,7 +22908,7 @@
         <v>789</v>
       </c>
       <c r="AC253" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AD253" t="s">
         <v>789</v>
@@ -22958,10 +22958,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="Q254" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -22970,7 +22970,7 @@
         <v>789</v>
       </c>
       <c r="AC254" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AD254" t="s">
         <v>789</v>
@@ -23017,28 +23017,28 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="Q255" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R255" t="s">
         <v>789</v>
       </c>
       <c r="S255" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AC255" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AD255" t="s">
         <v>789</v>
       </c>
       <c r="AE255" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AO255" s="10" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -23082,25 +23082,25 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="Q256" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R256" t="s">
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AC256" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AD256" t="s">
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
@@ -23141,10 +23141,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q257" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -23153,7 +23153,7 @@
         <v>789</v>
       </c>
       <c r="AC257" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AD257" t="s">
         <v>789</v>
@@ -23206,10 +23206,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="Q258" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -23218,7 +23218,7 @@
         <v>789</v>
       </c>
       <c r="AC258" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AD258" t="s">
         <v>789</v>
@@ -23268,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -23277,7 +23277,7 @@
         <v>789</v>
       </c>
       <c r="S259" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AC259" t="s">
         <v>789</v>
@@ -23286,7 +23286,7 @@
         <v>789</v>
       </c>
       <c r="AE259" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AO259" s="9">
         <v>613592902</v>
@@ -23330,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="Q260" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -23342,7 +23342,7 @@
         <v>789</v>
       </c>
       <c r="AC260" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AD260" t="s">
         <v>789</v>
@@ -23389,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="Q261" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -23401,7 +23401,7 @@
         <v>789</v>
       </c>
       <c r="AC261" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AD261" t="s">
         <v>789</v>
@@ -23451,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="Q262" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -23463,7 +23463,7 @@
         <v>789</v>
       </c>
       <c r="AC262" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AD262" t="s">
         <v>789</v>
@@ -23513,10 +23513,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="Q263" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -23525,7 +23525,7 @@
         <v>789</v>
       </c>
       <c r="AC263" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AD263" t="s">
         <v>789</v>
@@ -23578,10 +23578,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="Q264" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -23590,7 +23590,7 @@
         <v>789</v>
       </c>
       <c r="AC264" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AD264" t="s">
         <v>789</v>
@@ -23637,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="Q265" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -23649,7 +23649,7 @@
         <v>789</v>
       </c>
       <c r="AC265" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AD265" t="s">
         <v>789</v>
@@ -23699,10 +23699,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="Q266" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -23711,7 +23711,7 @@
         <v>789</v>
       </c>
       <c r="AC266" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AD266" t="s">
         <v>789</v>
@@ -23761,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -23770,7 +23770,7 @@
         <v>789</v>
       </c>
       <c r="S267" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AC267" t="s">
         <v>789</v>
@@ -23779,7 +23779,7 @@
         <v>789</v>
       </c>
       <c r="AE267" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AO267" s="9">
         <v>1288516250</v>
@@ -23826,28 +23826,28 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="Q268" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="AC268" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AD268" t="s">
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="AO268" s="10" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -23888,10 +23888,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="Q269" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -23900,7 +23900,7 @@
         <v>789</v>
       </c>
       <c r="AC269" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AD269" t="s">
         <v>789</v>
@@ -23909,7 +23909,7 @@
         <v>789</v>
       </c>
       <c r="AO269" s="10" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -23953,10 +23953,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="Q270" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -23965,7 +23965,7 @@
         <v>789</v>
       </c>
       <c r="AC270" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AD270" t="s">
         <v>789</v>
@@ -24021,10 +24021,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="Q271" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -24033,7 +24033,7 @@
         <v>789</v>
       </c>
       <c r="AC271" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AD271" t="s">
         <v>789</v>
@@ -24080,10 +24080,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="Q272" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -24092,7 +24092,7 @@
         <v>789</v>
       </c>
       <c r="AC272" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AD272" t="s">
         <v>789</v>
@@ -24145,10 +24145,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="Q273" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -24157,7 +24157,7 @@
         <v>789</v>
       </c>
       <c r="AC273" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AD273" t="s">
         <v>789</v>
@@ -24210,10 +24210,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="Q274" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -24222,7 +24222,7 @@
         <v>789</v>
       </c>
       <c r="AC274" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AD274" t="s">
         <v>789</v>
@@ -24231,7 +24231,7 @@
         <v>789</v>
       </c>
       <c r="AO274" s="10" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -24272,10 +24272,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="Q275" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -24284,7 +24284,7 @@
         <v>789</v>
       </c>
       <c r="AC275" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AD275" t="s">
         <v>789</v>
@@ -24331,10 +24331,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="Q276" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -24343,7 +24343,7 @@
         <v>789</v>
       </c>
       <c r="AC276" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AD276" t="s">
         <v>789</v>
@@ -24390,10 +24390,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="Q277" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -24402,7 +24402,7 @@
         <v>789</v>
       </c>
       <c r="AC277" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AD277" t="s">
         <v>789</v>
@@ -24449,10 +24449,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Q278" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -24461,7 +24461,7 @@
         <v>789</v>
       </c>
       <c r="AC278" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AD278" t="s">
         <v>789</v>
@@ -24475,10 +24475,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C279" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -24508,10 +24508,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q279" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -24520,7 +24520,7 @@
         <v>789</v>
       </c>
       <c r="AC279" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AD279" t="s">
         <v>789</v>
@@ -24567,10 +24567,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q280" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -24579,7 +24579,7 @@
         <v>789</v>
       </c>
       <c r="AC280" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AD280" t="s">
         <v>789</v>
@@ -24626,10 +24626,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="Q281" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -24638,7 +24638,7 @@
         <v>789</v>
       </c>
       <c r="AC281" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AD281" t="s">
         <v>789</v>
@@ -24685,10 +24685,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q282" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -24697,7 +24697,7 @@
         <v>789</v>
       </c>
       <c r="AC282" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AD282" t="s">
         <v>789</v>
@@ -24744,10 +24744,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q283" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -24756,7 +24756,7 @@
         <v>789</v>
       </c>
       <c r="AC283" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AD283" t="s">
         <v>789</v>
@@ -24803,10 +24803,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q284" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -24815,7 +24815,7 @@
         <v>789</v>
       </c>
       <c r="AC284" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AD284" t="s">
         <v>789</v>
@@ -24862,10 +24862,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Q285" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -24874,7 +24874,7 @@
         <v>789</v>
       </c>
       <c r="AC285" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AD285" t="s">
         <v>789</v>
@@ -24921,10 +24921,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Q286" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -24933,7 +24933,7 @@
         <v>789</v>
       </c>
       <c r="AC286" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AD286" t="s">
         <v>789</v>
@@ -24980,10 +24980,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Q287" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -24992,7 +24992,7 @@
         <v>789</v>
       </c>
       <c r="AC287" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AD287" t="s">
         <v>789</v>
@@ -25039,10 +25039,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="Q288" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -25051,7 +25051,7 @@
         <v>789</v>
       </c>
       <c r="AC288" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AD288" t="s">
         <v>789</v>
@@ -25101,10 +25101,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q289" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -25113,7 +25113,7 @@
         <v>789</v>
       </c>
       <c r="AC289" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AD289" t="s">
         <v>789</v>
@@ -25163,10 +25163,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q290" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -25175,7 +25175,7 @@
         <v>789</v>
       </c>
       <c r="AC290" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AD290" t="s">
         <v>789</v>
@@ -25225,10 +25225,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="Q291" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -25237,7 +25237,7 @@
         <v>789</v>
       </c>
       <c r="AC291" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AD291" t="s">
         <v>789</v>
@@ -25254,10 +25254,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C292" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -25293,13 +25293,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="R292" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="AD292" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -25310,16 +25310,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C293" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -25352,13 +25352,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="R293" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AD293" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -25369,13 +25369,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C294" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D294" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -25411,13 +25411,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="R294" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="AD294" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -25428,16 +25428,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C295" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -25470,13 +25470,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="R295" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AD295" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -25487,16 +25487,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C296" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D296" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E296" t="s">
         <v>1685</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1687</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25529,13 +25529,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="R296" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AD296" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -25546,16 +25546,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C297" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D297" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="E297" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25588,13 +25588,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="R297" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AD297" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -25605,16 +25605,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C298" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D298" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E298" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -25644,13 +25644,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="R298" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AD298" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -25661,16 +25661,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C299" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -25714,16 +25714,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C300" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D300" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E300" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25756,13 +25756,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="S300" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="AE300" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -25773,16 +25773,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C301" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25815,13 +25815,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="S301" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="AE301" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -25832,19 +25832,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C302" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="G302" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -25871,13 +25871,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="S302" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="AE302" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -25888,22 +25888,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C303" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D303" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="E303" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -25930,13 +25930,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="S303" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="AE303" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -25947,16 +25947,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C304" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D304" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="E304" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25983,13 +25983,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="S304" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="AE304" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -26000,16 +26000,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C305" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -26042,13 +26042,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="S305" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="AE305" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -26059,16 +26059,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C306" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D306" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -26101,13 +26101,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="S306" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="AE306" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -26118,16 +26118,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C307" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D307" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E307" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -26160,13 +26160,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="S307" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="AE307" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -26177,16 +26177,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E308" t="s">
         <v>1727</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1729</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -26219,13 +26219,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="S308" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="AE308" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2912BC7F-515A-4DDB-8A06-D3CB1A682DD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD30491-64E5-4B39-B1CB-14D6FB175263}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2746,12 +2746,6 @@
     <t>[95597874]</t>
   </si>
   <si>
-    <t>[225440387, 207681320]</t>
-  </si>
-  <si>
-    <t>[81578128, 52312462]</t>
-  </si>
-  <si>
     <t>[23099233, 23402463]</t>
   </si>
   <si>
@@ -2761,15 +2755,9 @@
     <t>[20110160, 20313290]</t>
   </si>
   <si>
-    <t>[29964812, 28074698, 221657540]</t>
-  </si>
-  <si>
     <t>[91429132]</t>
   </si>
   <si>
-    <t>[25602666, 23796520, 73297023]</t>
-  </si>
-  <si>
     <t>[40308716, 231084921]</t>
   </si>
   <si>
@@ -2821,9 +2809,6 @@
     <t>[20398981]</t>
   </si>
   <si>
-    <t>[4531393]</t>
-  </si>
-  <si>
     <t>[219694119]</t>
   </si>
   <si>
@@ -3007,12 +2992,6 @@
     <t>[21851695, 55670257]</t>
   </si>
   <si>
-    <t>[54990749, 13931178, 22071749]</t>
-  </si>
-  <si>
-    <t>[1091187, 54990750, 1555704]</t>
-  </si>
-  <si>
     <t>[1796100]</t>
   </si>
   <si>
@@ -3073,9 +3052,6 @@
     <t>[30550903]</t>
   </si>
   <si>
-    <t>[3153049]</t>
-  </si>
-  <si>
     <t>[57451336, 54804802]</t>
   </si>
   <si>
@@ -3769,9 +3745,6 @@
     <t>roc_wadid_2017.png</t>
   </si>
   <si>
-    <t>[3457012]</t>
-  </si>
-  <si>
     <t>h2k_odoamne_2017.png</t>
   </si>
   <si>
@@ -3898,15 +3871,9 @@
     <t>kt_deft_2017.png</t>
   </si>
   <si>
-    <t>[208743908, 200933520, 202937359]</t>
-  </si>
-  <si>
     <t>kt_mata_2017.png</t>
   </si>
   <si>
-    <t>[665129, 208743911, 1045754]</t>
-  </si>
-  <si>
     <t>ssg_cuvee_2017.png</t>
   </si>
   <si>
@@ -4042,9 +4009,6 @@
     <t>rox_mightybear_2017.png</t>
   </si>
   <si>
-    <t>[2391217]</t>
-  </si>
-  <si>
     <t>[209176499, 208770200]</t>
   </si>
   <si>
@@ -5465,6 +5429,42 @@
   </si>
   <si>
     <t>[20132258, 44989342,44979328]</t>
+  </si>
+  <si>
+    <t>[2391217,204590426]</t>
+  </si>
+  <si>
+    <t>[3153049,28922117]</t>
+  </si>
+  <si>
+    <t>[208743908, 200933520, 202937359,210168031]</t>
+  </si>
+  <si>
+    <t>[54990749, 13931178, 22071749,66820147]</t>
+  </si>
+  <si>
+    <t>[225440387, 207681320,233593780]</t>
+  </si>
+  <si>
+    <t>[81578128, 52312462,101206964]</t>
+  </si>
+  <si>
+    <t>[665129, 208743911, 1045754,210168129]</t>
+  </si>
+  <si>
+    <t>[1091187, 54990750, 1555704,66820148]</t>
+  </si>
+  <si>
+    <t>[3457012,3457012]</t>
+  </si>
+  <si>
+    <t>[4531393,4531393]</t>
+  </si>
+  <si>
+    <t>[28074698, 221657540]</t>
+  </si>
+  <si>
+    <t>[23796520, 73297023]</t>
   </si>
 </sst>
 </file>
@@ -5856,10 +5856,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,13 +6018,13 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="Q2" t="s">
         <v>789</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="Q3" t="s">
         <v>789</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="Q4" t="s">
         <v>789</v>
@@ -6287,13 +6287,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="Q5" t="s">
         <v>789</v>
       </c>
       <c r="R5" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
       <c r="S5" t="s">
         <v>789</v>
@@ -6302,7 +6302,7 @@
         <v>789</v>
       </c>
       <c r="AD5" t="s">
-        <v>1811</v>
+        <v>1799</v>
       </c>
       <c r="AE5" t="s">
         <v>789</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="Q6" t="s">
         <v>789</v>
@@ -6429,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="Q7" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="R7" t="s">
         <v>802</v>
@@ -6450,7 +6450,7 @@
         <v>789</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="Q8" t="s">
         <v>789</v>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="Q9" t="s">
         <v>789</v>
@@ -6600,7 +6600,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6639,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="Q10" t="s">
         <v>789</v>
       </c>
       <c r="R10" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="S10" t="s">
         <v>789</v>
@@ -6654,7 +6654,7 @@
         <v>789</v>
       </c>
       <c r="AD10" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -6710,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="Q11" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="R11" t="s">
         <v>809</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="Q12" t="s">
         <v>789</v>
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="Q13" t="s">
         <v>789</v>
@@ -6870,7 +6870,7 @@
         <v>789</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="Q14" t="s">
         <v>789</v>
@@ -6988,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="Q15" t="s">
         <v>789</v>
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="Q16" t="s">
         <v>789</v>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="Q17" t="s">
         <v>789</v>
@@ -7198,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="Q18" t="s">
         <v>789</v>
@@ -7269,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="Q19" t="s">
         <v>789</v>
@@ -7340,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="Q20" t="s">
         <v>789</v>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="Q21" t="s">
         <v>789</v>
@@ -7482,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="Q22" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="R22" t="s">
         <v>834</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="Q23" t="s">
         <v>789</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="Q24" t="s">
         <v>789</v>
@@ -7689,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="Q25" t="s">
         <v>789</v>
       </c>
       <c r="R25" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="S25" t="s">
         <v>789</v>
@@ -7704,7 +7704,7 @@
         <v>789</v>
       </c>
       <c r="AD25" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="Q26" t="s">
         <v>789</v>
@@ -7819,10 +7819,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="Q27" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="R27" t="s">
         <v>841</v>
@@ -7890,13 +7890,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="Q28" t="s">
         <v>789</v>
       </c>
       <c r="R28" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="S28" t="s">
         <v>789</v>
@@ -7905,13 +7905,13 @@
         <v>789</v>
       </c>
       <c r="AD28" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="AE28" t="s">
         <v>789</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="Q29" t="s">
         <v>789</v>
@@ -7967,7 +7967,7 @@
         <v>844</v>
       </c>
       <c r="S29" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
@@ -7976,7 +7976,7 @@
         <v>845</v>
       </c>
       <c r="AE29" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="Q30" t="s">
         <v>789</v>
@@ -8094,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="Q31" t="s">
         <v>789</v>
       </c>
       <c r="R31" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
       <c r="S31" t="s">
         <v>789</v>
@@ -8109,7 +8109,7 @@
         <v>789</v>
       </c>
       <c r="AD31" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -8159,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="Q32" t="s">
         <v>789</v>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="Q33" t="s">
         <v>789</v>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="Q34" t="s">
         <v>789</v>
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="Q35" t="s">
         <v>789</v>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="Q36" t="s">
         <v>789</v>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="Q37" t="s">
         <v>789</v>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="Q38" t="s">
         <v>789</v>
@@ -8635,16 +8635,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="Q39" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="R39" t="s">
         <v>862</v>
       </c>
       <c r="S39" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
       <c r="AC39" t="s">
         <v>863</v>
@@ -8653,7 +8653,7 @@
         <v>864</v>
       </c>
       <c r="AE39" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
       <c r="AO39" s="10">
         <v>803776063</v>
@@ -8662,7 +8662,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8709,13 +8709,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="Q40" t="s">
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -8724,7 +8724,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="Q41" t="s">
         <v>789</v>
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="Q42" t="s">
         <v>789</v>
@@ -8901,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="Q43" t="s">
         <v>789</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="Q44" t="s">
         <v>789</v>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="Q45" t="s">
         <v>789</v>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="Q46" t="s">
         <v>789</v>
@@ -9173,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="Q47" t="s">
         <v>789</v>
       </c>
       <c r="R47" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
       <c r="S47" t="s">
         <v>789</v>
@@ -9188,7 +9188,7 @@
         <v>789</v>
       </c>
       <c r="AD47" t="s">
-        <v>1648</v>
+        <v>1636</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -9244,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="Q48" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="R48" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
@@ -9259,13 +9259,13 @@
         <v>877</v>
       </c>
       <c r="AD48" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -9315,10 +9315,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="Q49" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="R49" t="s">
         <v>878</v>
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="Q50" t="s">
         <v>789</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="Q51" t="s">
         <v>789</v>
@@ -9519,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="Q52" t="s">
         <v>789</v>
@@ -9540,7 +9540,7 @@
         <v>789</v>
       </c>
       <c r="AO52" s="10" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -9590,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="Q53" t="s">
         <v>789</v>
       </c>
       <c r="R53" t="s">
-        <v>1636</v>
+        <v>1624</v>
       </c>
       <c r="S53" t="s">
         <v>789</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="AD53" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -9661,10 +9661,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="Q54" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="R54" t="s">
         <v>887</v>
@@ -9732,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="Q55" t="s">
         <v>789</v>
@@ -9803,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="Q56" t="s">
         <v>789</v>
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="Q57" t="s">
         <v>789</v>
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="Q58" t="s">
         <v>789</v>
@@ -9954,7 +9954,7 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="AC58" t="s">
         <v>789</v>
@@ -9963,7 +9963,7 @@
         <v>789</v>
       </c>
       <c r="AE58" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
@@ -10016,10 +10016,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="Q59" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
@@ -10028,7 +10028,7 @@
         <v>896</v>
       </c>
       <c r="AC59" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="AD59" t="s">
         <v>789</v>
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="Q60" t="s">
         <v>789</v>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="Q61" t="s">
         <v>789</v>
@@ -10170,7 +10170,7 @@
         <v>901</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -10220,10 +10220,10 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="Q62" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="R62" t="s">
         <v>789</v>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="Q63" t="s">
         <v>789</v>
@@ -10300,7 +10300,7 @@
         <v>789</v>
       </c>
       <c r="S63" t="s">
-        <v>905</v>
+        <v>1804</v>
       </c>
       <c r="AC63" t="s">
         <v>789</v>
@@ -10309,7 +10309,7 @@
         <v>789</v>
       </c>
       <c r="AE63" t="s">
-        <v>906</v>
+        <v>1805</v>
       </c>
       <c r="AO63" s="9">
         <v>1648029396</v>
@@ -10362,25 +10362,25 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="Q64" t="s">
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="S64" t="s">
+        <v>905</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE64" t="s">
         <v>907</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>908</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>909</v>
       </c>
       <c r="AO64" s="9">
         <v>1887874465</v>
@@ -10433,25 +10433,25 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="Q65" t="s">
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="S65" t="s">
-        <v>910</v>
+        <v>1810</v>
       </c>
       <c r="AC65" t="s">
         <v>789</v>
       </c>
       <c r="AD65" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AE65" t="s">
-        <v>912</v>
+        <v>1811</v>
       </c>
       <c r="AO65" s="9">
         <v>1244508066</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="Q66" t="s">
         <v>789</v>
@@ -10510,7 +10510,7 @@
         <v>789</v>
       </c>
       <c r="S66" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AC66" t="s">
         <v>789</v>
@@ -10519,7 +10519,7 @@
         <v>789</v>
       </c>
       <c r="AE66" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="AO66" s="9">
         <v>2790180781</v>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="Q67" t="s">
         <v>789</v>
@@ -10581,7 +10581,7 @@
         <v>789</v>
       </c>
       <c r="S67" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="AC67" t="s">
         <v>789</v>
@@ -10590,7 +10590,7 @@
         <v>789</v>
       </c>
       <c r="AE67" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="AO67" s="9">
         <v>2893607283</v>
@@ -10643,25 +10643,25 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="Q68" t="s">
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="S68" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="AC68" t="s">
         <v>789</v>
       </c>
       <c r="AD68" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
       <c r="AE68" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="AO68" s="9">
         <v>2550298718</v>
@@ -10672,7 +10672,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="Q69" t="s">
         <v>789</v>
@@ -10723,7 +10723,7 @@
         <v>789</v>
       </c>
       <c r="S69" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="AC69" t="s">
         <v>789</v>
@@ -10732,7 +10732,7 @@
         <v>789</v>
       </c>
       <c r="AE69" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="AO69" s="9">
         <v>2460445795</v>
@@ -10785,25 +10785,25 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="Q70" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="R70" t="s">
         <v>789</v>
       </c>
       <c r="S70" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="AC70" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="AD70" t="s">
         <v>789</v>
       </c>
       <c r="AE70" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="AO70" s="9">
         <v>3220569488</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="Q71" t="s">
         <v>789</v>
@@ -10856,7 +10856,7 @@
         <v>789</v>
       </c>
       <c r="S71" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="AC71" t="s">
         <v>789</v>
@@ -10865,7 +10865,7 @@
         <v>789</v>
       </c>
       <c r="AE71" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AO71" s="9">
         <v>2262186933</v>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="Q72" t="s">
         <v>789</v>
@@ -10924,7 +10924,7 @@
         <v>789</v>
       </c>
       <c r="S72" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AC72" t="s">
         <v>789</v>
@@ -10933,7 +10933,7 @@
         <v>789</v>
       </c>
       <c r="AE72" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="AO72" s="9">
         <v>3376068993</v>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="Q73" t="s">
         <v>789</v>
@@ -10995,7 +10995,7 @@
         <v>789</v>
       </c>
       <c r="S73" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="AC73" t="s">
         <v>789</v>
@@ -11004,7 +11004,7 @@
         <v>789</v>
       </c>
       <c r="AE73" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="AO73" s="9">
         <v>2943089668</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="Q74" t="s">
         <v>789</v>
@@ -11063,7 +11063,7 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="AC74" t="s">
         <v>789</v>
@@ -11072,7 +11072,7 @@
         <v>789</v>
       </c>
       <c r="AE74" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -11125,28 +11125,28 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="Q75" t="s">
-        <v>1246</v>
+        <v>1808</v>
       </c>
       <c r="R75" t="s">
         <v>789</v>
       </c>
       <c r="S75" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="AC75" t="s">
-        <v>930</v>
+        <v>1809</v>
       </c>
       <c r="AD75" t="s">
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="AO75" s="10" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="Q76" t="s">
         <v>789</v>
@@ -11202,7 +11202,7 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="AC76" t="s">
         <v>789</v>
@@ -11211,7 +11211,7 @@
         <v>789</v>
       </c>
       <c r="AE76" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -11264,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="Q77" t="s">
         <v>789</v>
@@ -11273,22 +11273,22 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="T77" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE77" t="s">
         <v>1617</v>
       </c>
-      <c r="AC77" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>1629</v>
-      </c>
       <c r="AF77" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -11341,25 +11341,25 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="Q78" t="s">
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="S78" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="AC78" t="s">
         <v>789</v>
       </c>
       <c r="AD78" t="s">
-        <v>1646</v>
+        <v>1634</v>
       </c>
       <c r="AE78" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="AO78" s="9">
         <v>1974332792</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="Q79" t="s">
         <v>789</v>
@@ -11415,7 +11415,7 @@
         <v>789</v>
       </c>
       <c r="S79" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="AC79" t="s">
         <v>789</v>
@@ -11424,10 +11424,10 @@
         <v>789</v>
       </c>
       <c r="AE79" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="AO79" s="10" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="Q80" t="s">
         <v>789</v>
@@ -11480,7 +11480,7 @@
         <v>789</v>
       </c>
       <c r="S80" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="AC80" t="s">
         <v>789</v>
@@ -11489,7 +11489,7 @@
         <v>789</v>
       </c>
       <c r="AE80" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="AO80" s="9">
         <v>3290808800</v>
@@ -11542,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="Q81" t="s">
         <v>789</v>
@@ -11551,7 +11551,7 @@
         <v>789</v>
       </c>
       <c r="S81" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="AC81" t="s">
         <v>789</v>
@@ -11560,7 +11560,7 @@
         <v>789</v>
       </c>
       <c r="AE81" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="AO81" s="9">
         <v>2776080715</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="Q82" t="s">
         <v>789</v>
@@ -11622,7 +11622,7 @@
         <v>789</v>
       </c>
       <c r="S82" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="AC82" t="s">
         <v>789</v>
@@ -11631,7 +11631,7 @@
         <v>789</v>
       </c>
       <c r="AE82" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="AO82" s="9">
         <v>2767545127</v>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="Q83" t="s">
         <v>789</v>
@@ -11693,7 +11693,7 @@
         <v>789</v>
       </c>
       <c r="S83" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="AC83" t="s">
         <v>789</v>
@@ -11702,7 +11702,7 @@
         <v>789</v>
       </c>
       <c r="AE83" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AO83" s="9">
         <v>2303751344</v>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="Q84" t="s">
         <v>789</v>
@@ -11761,7 +11761,7 @@
         <v>789</v>
       </c>
       <c r="S84" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="AC84" t="s">
         <v>789</v>
@@ -11770,7 +11770,7 @@
         <v>789</v>
       </c>
       <c r="AE84" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="AO84" s="9">
         <v>710556630</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="Q85" t="s">
         <v>789</v>
@@ -11832,7 +11832,7 @@
         <v>789</v>
       </c>
       <c r="S85" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="AC85" t="s">
         <v>789</v>
@@ -11841,7 +11841,7 @@
         <v>789</v>
       </c>
       <c r="AE85" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="AO85" s="9">
         <v>2984116738</v>
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="Q86" t="s">
         <v>789</v>
@@ -11903,7 +11903,7 @@
         <v>789</v>
       </c>
       <c r="S86" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="AC86" t="s">
         <v>789</v>
@@ -11912,7 +11912,7 @@
         <v>789</v>
       </c>
       <c r="AE86" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="AO86" s="9">
         <v>2590218632</v>
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="Q87" t="s">
         <v>789</v>
@@ -11971,7 +11971,7 @@
         <v>789</v>
       </c>
       <c r="S87" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="AC87" t="s">
         <v>789</v>
@@ -11980,7 +11980,7 @@
         <v>789</v>
       </c>
       <c r="AE87" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AO87" s="9">
         <v>1076882574</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="Q88" t="s">
         <v>789</v>
@@ -12042,7 +12042,7 @@
         <v>789</v>
       </c>
       <c r="S88" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AC88" t="s">
         <v>789</v>
@@ -12051,7 +12051,7 @@
         <v>789</v>
       </c>
       <c r="AE88" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="AO88" s="9">
         <v>1048780687</v>
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="Q89" t="s">
         <v>789</v>
@@ -12113,7 +12113,7 @@
         <v>789</v>
       </c>
       <c r="S89" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="AC89" t="s">
         <v>789</v>
@@ -12122,7 +12122,7 @@
         <v>789</v>
       </c>
       <c r="AE89" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="AO89" s="9">
         <v>1250062656</v>
@@ -12172,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="Q90" t="s">
         <v>789</v>
@@ -12181,7 +12181,7 @@
         <v>789</v>
       </c>
       <c r="S90" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="AC90" t="s">
         <v>789</v>
@@ -12190,7 +12190,7 @@
         <v>789</v>
       </c>
       <c r="AE90" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="AO90" s="9">
         <v>497329859</v>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="Q91" t="s">
         <v>789</v>
@@ -12252,7 +12252,7 @@
         <v>789</v>
       </c>
       <c r="S91" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="AC91" t="s">
         <v>789</v>
@@ -12261,7 +12261,7 @@
         <v>789</v>
       </c>
       <c r="AE91" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="AO91" s="9">
         <v>2685541393</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="Q92" t="s">
         <v>789</v>
@@ -12323,7 +12323,7 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="AC92" t="s">
         <v>789</v>
@@ -12332,7 +12332,7 @@
         <v>789</v>
       </c>
       <c r="AE92" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="Q93" t="s">
         <v>789</v>
@@ -12391,7 +12391,7 @@
         <v>789</v>
       </c>
       <c r="S93" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="AC93" t="s">
         <v>789</v>
@@ -12400,7 +12400,7 @@
         <v>789</v>
       </c>
       <c r="AE93" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="AO93" s="9">
         <v>1648682035</v>
@@ -12453,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="Q94" t="s">
         <v>789</v>
@@ -12462,7 +12462,7 @@
         <v>789</v>
       </c>
       <c r="S94" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="AC94" t="s">
         <v>789</v>
@@ -12471,7 +12471,7 @@
         <v>789</v>
       </c>
       <c r="AE94" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="AO94" s="9">
         <v>336118770</v>
@@ -12524,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="Q95" t="s">
         <v>789</v>
@@ -12533,7 +12533,7 @@
         <v>789</v>
       </c>
       <c r="S95" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="AC95" t="s">
         <v>789</v>
@@ -12542,7 +12542,7 @@
         <v>789</v>
       </c>
       <c r="AE95" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="AO95" s="9">
         <v>2216379312</v>
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="Q96" t="s">
         <v>789</v>
@@ -12604,7 +12604,7 @@
         <v>789</v>
       </c>
       <c r="S96" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AC96" t="s">
         <v>789</v>
@@ -12613,7 +12613,7 @@
         <v>789</v>
       </c>
       <c r="AE96" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AO96" s="9">
         <v>2493571052</v>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="Q97" t="s">
         <v>789</v>
@@ -12672,7 +12672,7 @@
         <v>789</v>
       </c>
       <c r="S97" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="AC97" t="s">
         <v>789</v>
@@ -12681,7 +12681,7 @@
         <v>789</v>
       </c>
       <c r="AE97" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="AO97" s="9">
         <v>3199462954</v>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="Q98" t="s">
         <v>789</v>
@@ -12740,7 +12740,7 @@
         <v>789</v>
       </c>
       <c r="S98" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="AC98" t="s">
         <v>789</v>
@@ -12749,7 +12749,7 @@
         <v>789</v>
       </c>
       <c r="AE98" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="AO98" s="9">
         <v>3300282393</v>
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="Q99" t="s">
         <v>789</v>
@@ -12808,7 +12808,7 @@
         <v>789</v>
       </c>
       <c r="S99" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="AC99" t="s">
         <v>789</v>
@@ -12817,7 +12817,7 @@
         <v>789</v>
       </c>
       <c r="AE99" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="AO99" s="9">
         <v>2902700080</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -12876,7 +12876,7 @@
         <v>789</v>
       </c>
       <c r="S100" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="AC100" t="s">
         <v>789</v>
@@ -12885,7 +12885,7 @@
         <v>789</v>
       </c>
       <c r="AE100" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="AO100" s="9">
         <v>2387061402</v>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -12944,7 +12944,7 @@
         <v>789</v>
       </c>
       <c r="S101" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="AC101" t="s">
         <v>789</v>
@@ -12953,7 +12953,7 @@
         <v>789</v>
       </c>
       <c r="AE101" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="AO101" s="9">
         <v>2199018126</v>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="Q102" t="s">
         <v>789</v>
@@ -13015,7 +13015,7 @@
         <v>789</v>
       </c>
       <c r="S102" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="AC102" t="s">
         <v>789</v>
@@ -13024,7 +13024,7 @@
         <v>789</v>
       </c>
       <c r="AE102" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AO102" s="9">
         <v>2494302799</v>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -13083,7 +13083,7 @@
         <v>789</v>
       </c>
       <c r="S103" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="AC103" t="s">
         <v>789</v>
@@ -13092,10 +13092,10 @@
         <v>789</v>
       </c>
       <c r="AE103" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="AO103" s="10" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -13142,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -13151,7 +13151,7 @@
         <v>789</v>
       </c>
       <c r="S104" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AC104" t="s">
         <v>789</v>
@@ -13160,7 +13160,7 @@
         <v>789</v>
       </c>
       <c r="AE104" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="AO104" s="9">
         <v>2387536795</v>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -13219,7 +13219,7 @@
         <v>789</v>
       </c>
       <c r="S105" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="AC105" t="s">
         <v>789</v>
@@ -13228,10 +13228,10 @@
         <v>789</v>
       </c>
       <c r="AE105" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="AO105" s="10" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -13278,10 +13278,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="Q106" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="R106" t="s">
         <v>789</v>
@@ -13290,7 +13290,7 @@
         <v>789</v>
       </c>
       <c r="AC106" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="AD106" t="s">
         <v>789</v>
@@ -13343,10 +13343,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="Q107" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
       <c r="R107" t="s">
         <v>789</v>
@@ -13355,7 +13355,7 @@
         <v>789</v>
       </c>
       <c r="AC107" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -13411,10 +13411,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="Q108" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="R108" t="s">
         <v>789</v>
@@ -13423,7 +13423,7 @@
         <v>789</v>
       </c>
       <c r="AC108" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="AD108" t="s">
         <v>789</v>
@@ -13432,7 +13432,7 @@
         <v>789</v>
       </c>
       <c r="AO108" s="10" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -13482,10 +13482,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="Q109" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="R109" t="s">
         <v>789</v>
@@ -13494,7 +13494,7 @@
         <v>789</v>
       </c>
       <c r="AC109" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="AD109" t="s">
         <v>789</v>
@@ -13553,10 +13553,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="Q110" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="R110" t="s">
         <v>789</v>
@@ -13565,7 +13565,7 @@
         <v>789</v>
       </c>
       <c r="AC110" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="AD110" t="s">
         <v>789</v>
@@ -13624,10 +13624,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="Q111" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="R111" t="s">
         <v>789</v>
@@ -13636,7 +13636,7 @@
         <v>789</v>
       </c>
       <c r="AC111" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="AD111" t="s">
         <v>789</v>
@@ -13695,10 +13695,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="Q112" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="R112" t="s">
         <v>789</v>
@@ -13707,7 +13707,7 @@
         <v>789</v>
       </c>
       <c r="AC112" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="AD112" t="s">
         <v>789</v>
@@ -13763,10 +13763,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="Q113" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="R113" t="s">
         <v>789</v>
@@ -13775,7 +13775,7 @@
         <v>789</v>
       </c>
       <c r="AC113" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="AD113" t="s">
         <v>789</v>
@@ -13831,10 +13831,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="Q114" t="s">
-        <v>1289</v>
+        <v>1802</v>
       </c>
       <c r="R114" t="s">
         <v>789</v>
@@ -13843,7 +13843,7 @@
         <v>789</v>
       </c>
       <c r="AC114" t="s">
-        <v>992</v>
+        <v>1803</v>
       </c>
       <c r="AD114" t="s">
         <v>789</v>
@@ -13902,10 +13902,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="Q115" t="s">
-        <v>1291</v>
+        <v>1806</v>
       </c>
       <c r="R115" t="s">
         <v>789</v>
@@ -13914,7 +13914,7 @@
         <v>789</v>
       </c>
       <c r="AC115" t="s">
-        <v>993</v>
+        <v>1807</v>
       </c>
       <c r="AD115" t="s">
         <v>789</v>
@@ -13970,10 +13970,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="Q116" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="R116" t="s">
         <v>789</v>
@@ -13982,7 +13982,7 @@
         <v>789</v>
       </c>
       <c r="AC116" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="AD116" t="s">
         <v>789</v>
@@ -14038,10 +14038,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="Q117" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="R117" t="s">
         <v>789</v>
@@ -14050,7 +14050,7 @@
         <v>789</v>
       </c>
       <c r="AC117" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="AD117" t="s">
         <v>789</v>
@@ -14106,10 +14106,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="Q118" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="R118" t="s">
         <v>789</v>
@@ -14118,7 +14118,7 @@
         <v>789</v>
       </c>
       <c r="AC118" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -14174,10 +14174,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="Q119" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
       <c r="R119" t="s">
         <v>789</v>
@@ -14186,7 +14186,7 @@
         <v>789</v>
       </c>
       <c r="AC119" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="AD119" t="s">
         <v>789</v>
@@ -14195,7 +14195,7 @@
         <v>789</v>
       </c>
       <c r="AO119" s="10" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -14245,10 +14245,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="Q120" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="R120" t="s">
         <v>789</v>
@@ -14257,7 +14257,7 @@
         <v>789</v>
       </c>
       <c r="AC120" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -14316,22 +14316,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="Q121" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="R121" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
       </c>
       <c r="AC121" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="AD121" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -14387,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="Q122" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="R122" t="s">
         <v>789</v>
@@ -14399,7 +14399,7 @@
         <v>789</v>
       </c>
       <c r="AC122" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -14458,10 +14458,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="Q123" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="R123" t="s">
         <v>789</v>
@@ -14470,7 +14470,7 @@
         <v>789</v>
       </c>
       <c r="AC123" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="AD123" t="s">
         <v>789</v>
@@ -14526,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="Q124" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="R124" t="s">
         <v>789</v>
@@ -14538,7 +14538,7 @@
         <v>789</v>
       </c>
       <c r="AC124" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="AD124" t="s">
         <v>789</v>
@@ -14597,10 +14597,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="Q125" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="R125" t="s">
         <v>789</v>
@@ -14609,7 +14609,7 @@
         <v>789</v>
       </c>
       <c r="AC125" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="AD125" t="s">
         <v>789</v>
@@ -14618,7 +14618,7 @@
         <v>789</v>
       </c>
       <c r="AO125" s="10" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -14668,10 +14668,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="Q126" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="R126" t="s">
         <v>789</v>
@@ -14680,7 +14680,7 @@
         <v>789</v>
       </c>
       <c r="AC126" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="AD126" t="s">
         <v>789</v>
@@ -14736,10 +14736,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="Q127" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="R127" t="s">
         <v>789</v>
@@ -14748,7 +14748,7 @@
         <v>789</v>
       </c>
       <c r="AC127" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="AD127" t="s">
         <v>789</v>
@@ -14798,10 +14798,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="Q128" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="R128" t="s">
         <v>789</v>
@@ -14810,7 +14810,7 @@
         <v>789</v>
       </c>
       <c r="AC128" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="AD128" t="s">
         <v>789</v>
@@ -14863,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="Q129" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="R129" t="s">
         <v>789</v>
@@ -14875,7 +14875,7 @@
         <v>789</v>
       </c>
       <c r="AC129" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="AD129" t="s">
         <v>789</v>
@@ -14931,10 +14931,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="Q130" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="R130" t="s">
         <v>789</v>
@@ -14943,7 +14943,7 @@
         <v>789</v>
       </c>
       <c r="AC130" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="AD130" t="s">
         <v>789</v>
@@ -15002,10 +15002,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="Q131" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="R131" t="s">
         <v>789</v>
@@ -15014,7 +15014,7 @@
         <v>789</v>
       </c>
       <c r="AC131" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="AD131" t="s">
         <v>789</v>
@@ -15070,10 +15070,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="Q132" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="R132" t="s">
         <v>789</v>
@@ -15082,7 +15082,7 @@
         <v>789</v>
       </c>
       <c r="AC132" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="AD132" t="s">
         <v>789</v>
@@ -15135,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="Q133" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="R133" t="s">
         <v>789</v>
@@ -15147,7 +15147,7 @@
         <v>789</v>
       </c>
       <c r="AC133" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="AD133" t="s">
         <v>789</v>
@@ -15200,10 +15200,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="Q134" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="R134" t="s">
         <v>789</v>
@@ -15212,7 +15212,7 @@
         <v>789</v>
       </c>
       <c r="AC134" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="AD134" t="s">
         <v>789</v>
@@ -15268,10 +15268,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="Q135" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="R135" t="s">
         <v>789</v>
@@ -15280,7 +15280,7 @@
         <v>789</v>
       </c>
       <c r="AC135" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="AD135" t="s">
         <v>789</v>
@@ -15333,10 +15333,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="Q136" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="R136" t="s">
         <v>789</v>
@@ -15345,7 +15345,7 @@
         <v>789</v>
       </c>
       <c r="AC136" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="AD136" t="s">
         <v>789</v>
@@ -15395,10 +15395,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="Q137" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="R137" t="s">
         <v>789</v>
@@ -15407,7 +15407,7 @@
         <v>789</v>
       </c>
       <c r="AC137" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="AD137" t="s">
         <v>789</v>
@@ -15460,10 +15460,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="Q138" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -15472,7 +15472,7 @@
         <v>789</v>
       </c>
       <c r="AC138" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="AD138" t="s">
         <v>789</v>
@@ -15528,10 +15528,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="Q139" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -15540,7 +15540,7 @@
         <v>789</v>
       </c>
       <c r="AC139" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="AD139" t="s">
         <v>789</v>
@@ -15596,10 +15596,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="Q140" t="s">
-        <v>1337</v>
+        <v>1800</v>
       </c>
       <c r="R140" t="s">
         <v>789</v>
@@ -15608,7 +15608,7 @@
         <v>789</v>
       </c>
       <c r="AC140" t="s">
-        <v>1014</v>
+        <v>1801</v>
       </c>
       <c r="AD140" t="s">
         <v>789</v>
@@ -15617,7 +15617,7 @@
         <v>789</v>
       </c>
       <c r="AO140" s="10" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -15664,10 +15664,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="Q141" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -15676,7 +15676,7 @@
         <v>789</v>
       </c>
       <c r="AC141" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="AD141" t="s">
         <v>789</v>
@@ -15732,10 +15732,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="Q142" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -15744,7 +15744,7 @@
         <v>789</v>
       </c>
       <c r="AC142" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="AD142" t="s">
         <v>789</v>
@@ -15800,10 +15800,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="Q143" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -15812,7 +15812,7 @@
         <v>789</v>
       </c>
       <c r="AC143" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AD143" t="s">
         <v>789</v>
@@ -15868,10 +15868,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="Q144" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -15880,7 +15880,7 @@
         <v>789</v>
       </c>
       <c r="AC144" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="AD144" t="s">
         <v>789</v>
@@ -15936,10 +15936,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="Q145" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -15948,7 +15948,7 @@
         <v>789</v>
       </c>
       <c r="AC145" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="AD145" t="s">
         <v>789</v>
@@ -16004,10 +16004,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="Q146" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -16016,7 +16016,7 @@
         <v>789</v>
       </c>
       <c r="AC146" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="AD146" t="s">
         <v>789</v>
@@ -16072,10 +16072,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="Q147" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -16084,7 +16084,7 @@
         <v>789</v>
       </c>
       <c r="AC147" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="AD147" t="s">
         <v>789</v>
@@ -16140,10 +16140,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="Q148" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="R148" t="s">
         <v>789</v>
@@ -16152,7 +16152,7 @@
         <v>789</v>
       </c>
       <c r="AC148" t="s">
-        <v>1644</v>
+        <v>1632</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -16208,10 +16208,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="Q149" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -16220,7 +16220,7 @@
         <v>789</v>
       </c>
       <c r="AC149" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="AD149" t="s">
         <v>789</v>
@@ -16273,10 +16273,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="Q150" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -16285,7 +16285,7 @@
         <v>789</v>
       </c>
       <c r="AC150" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="AD150" t="s">
         <v>789</v>
@@ -16335,10 +16335,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="Q151" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -16347,7 +16347,7 @@
         <v>789</v>
       </c>
       <c r="AC151" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="AD151" t="s">
         <v>789</v>
@@ -16400,10 +16400,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="Q152" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -16412,7 +16412,7 @@
         <v>789</v>
       </c>
       <c r="AC152" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="AD152" t="s">
         <v>789</v>
@@ -16462,10 +16462,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="Q153" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -16474,7 +16474,7 @@
         <v>789</v>
       </c>
       <c r="AC153" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="AD153" t="s">
         <v>789</v>
@@ -16527,10 +16527,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="Q154" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -16539,7 +16539,7 @@
         <v>789</v>
       </c>
       <c r="AC154" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="AD154" t="s">
         <v>789</v>
@@ -16592,10 +16592,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="Q155" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -16604,7 +16604,7 @@
         <v>789</v>
       </c>
       <c r="AC155" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="AD155" t="s">
         <v>789</v>
@@ -16657,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="Q156" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -16669,7 +16669,7 @@
         <v>789</v>
       </c>
       <c r="AC156" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="AD156" t="s">
         <v>789</v>
@@ -16722,10 +16722,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="Q157" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -16734,7 +16734,7 @@
         <v>789</v>
       </c>
       <c r="AC157" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="AD157" t="s">
         <v>789</v>
@@ -16787,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="Q158" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -16799,7 +16799,7 @@
         <v>789</v>
       </c>
       <c r="AC158" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="AD158" t="s">
         <v>789</v>
@@ -16852,10 +16852,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="Q159" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -16864,7 +16864,7 @@
         <v>789</v>
       </c>
       <c r="AC159" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="AD159" t="s">
         <v>789</v>
@@ -16917,10 +16917,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="Q160" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -16929,7 +16929,7 @@
         <v>789</v>
       </c>
       <c r="AC160" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="AD160" t="s">
         <v>789</v>
@@ -16982,10 +16982,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="Q161" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -16994,7 +16994,7 @@
         <v>789</v>
       </c>
       <c r="AC161" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="AD161" t="s">
         <v>789</v>
@@ -17050,10 +17050,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="Q162" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -17062,7 +17062,7 @@
         <v>789</v>
       </c>
       <c r="AC162" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="AD162" t="s">
         <v>789</v>
@@ -17115,10 +17115,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="Q163" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -17127,7 +17127,7 @@
         <v>789</v>
       </c>
       <c r="AC163" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="AD163" t="s">
         <v>789</v>
@@ -17180,10 +17180,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="Q164" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -17192,7 +17192,7 @@
         <v>789</v>
       </c>
       <c r="AC164" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="AD164" t="s">
         <v>789</v>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -17310,10 +17310,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="Q166" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -17322,7 +17322,7 @@
         <v>789</v>
       </c>
       <c r="AC166" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="AD166" t="s">
         <v>789</v>
@@ -17369,10 +17369,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="Q167" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -17381,7 +17381,7 @@
         <v>789</v>
       </c>
       <c r="AC167" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="AD167" t="s">
         <v>789</v>
@@ -17434,10 +17434,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="Q168" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -17446,7 +17446,7 @@
         <v>789</v>
       </c>
       <c r="AC168" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="AD168" t="s">
         <v>789</v>
@@ -17502,10 +17502,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="Q169" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -17514,7 +17514,7 @@
         <v>789</v>
       </c>
       <c r="AC169" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="AD169" t="s">
         <v>789</v>
@@ -17567,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -17632,10 +17632,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="Q171" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -17644,7 +17644,7 @@
         <v>789</v>
       </c>
       <c r="AC171" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="AD171" t="s">
         <v>789</v>
@@ -17691,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -17756,10 +17756,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="Q173" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -17768,7 +17768,7 @@
         <v>789</v>
       </c>
       <c r="AC173" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="AD173" t="s">
         <v>789</v>
@@ -17821,10 +17821,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="Q174" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -17833,7 +17833,7 @@
         <v>789</v>
       </c>
       <c r="AC174" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="AD174" t="s">
         <v>789</v>
@@ -17886,10 +17886,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="Q175" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -17898,7 +17898,7 @@
         <v>789</v>
       </c>
       <c r="AC175" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="AD175" t="s">
         <v>789</v>
@@ -17951,10 +17951,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="Q176" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -17963,7 +17963,7 @@
         <v>789</v>
       </c>
       <c r="AC176" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="AD176" t="s">
         <v>789</v>
@@ -18016,10 +18016,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="Q177" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -18028,7 +18028,7 @@
         <v>789</v>
       </c>
       <c r="AC177" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="AD177" t="s">
         <v>789</v>
@@ -18081,7 +18081,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -18146,10 +18146,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="Q179" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -18158,7 +18158,7 @@
         <v>789</v>
       </c>
       <c r="AC179" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="AD179" t="s">
         <v>789</v>
@@ -18211,10 +18211,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="Q180" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -18223,7 +18223,7 @@
         <v>789</v>
       </c>
       <c r="AC180" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="AD180" t="s">
         <v>789</v>
@@ -18279,10 +18279,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="Q181" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="R181" t="s">
         <v>789</v>
@@ -18291,7 +18291,7 @@
         <v>789</v>
       </c>
       <c r="AC181" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -18338,10 +18338,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="Q182" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -18350,7 +18350,7 @@
         <v>789</v>
       </c>
       <c r="AC182" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="AD182" t="s">
         <v>789</v>
@@ -18397,10 +18397,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="Q183" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -18409,7 +18409,7 @@
         <v>789</v>
       </c>
       <c r="AC183" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="AD183" t="s">
         <v>789</v>
@@ -18462,10 +18462,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="Q184" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -18474,7 +18474,7 @@
         <v>789</v>
       </c>
       <c r="AC184" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="AD184" t="s">
         <v>789</v>
@@ -18527,10 +18527,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="Q185" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -18539,7 +18539,7 @@
         <v>789</v>
       </c>
       <c r="AC185" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="AD185" t="s">
         <v>789</v>
@@ -18592,10 +18592,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="Q186" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -18604,7 +18604,7 @@
         <v>789</v>
       </c>
       <c r="AC186" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="AD186" t="s">
         <v>789</v>
@@ -18660,10 +18660,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="Q187" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -18672,7 +18672,7 @@
         <v>789</v>
       </c>
       <c r="AC187" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="AD187" t="s">
         <v>789</v>
@@ -18725,10 +18725,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="Q188" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -18737,7 +18737,7 @@
         <v>789</v>
       </c>
       <c r="AC188" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="AD188" t="s">
         <v>789</v>
@@ -18790,10 +18790,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="Q189" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -18802,7 +18802,7 @@
         <v>789</v>
       </c>
       <c r="AC189" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="AD189" t="s">
         <v>789</v>
@@ -18849,10 +18849,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="Q190" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -18861,7 +18861,7 @@
         <v>789</v>
       </c>
       <c r="AC190" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="AD190" t="s">
         <v>789</v>
@@ -18908,10 +18908,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="Q191" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -18920,7 +18920,7 @@
         <v>789</v>
       </c>
       <c r="AC191" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="AD191" t="s">
         <v>789</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="Q192" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -18979,7 +18979,7 @@
         <v>789</v>
       </c>
       <c r="AC192" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="AD192" t="s">
         <v>789</v>
@@ -19032,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="Q193" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -19044,7 +19044,7 @@
         <v>789</v>
       </c>
       <c r="AC193" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="AD193" t="s">
         <v>789</v>
@@ -19091,10 +19091,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="Q194" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -19103,7 +19103,7 @@
         <v>789</v>
       </c>
       <c r="AC194" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="AD194" t="s">
         <v>789</v>
@@ -19153,10 +19153,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="Q195" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -19165,7 +19165,7 @@
         <v>789</v>
       </c>
       <c r="AC195" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="AD195" t="s">
         <v>789</v>
@@ -19215,10 +19215,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="Q196" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -19227,7 +19227,7 @@
         <v>789</v>
       </c>
       <c r="AC196" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="AD196" t="s">
         <v>789</v>
@@ -19280,10 +19280,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="Q197" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -19292,7 +19292,7 @@
         <v>789</v>
       </c>
       <c r="AC197" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="AD197" t="s">
         <v>789</v>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -19475,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -19540,7 +19540,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -19605,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="Q202" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -19617,7 +19617,7 @@
         <v>789</v>
       </c>
       <c r="AC202" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="AD202" t="s">
         <v>789</v>
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -19729,10 +19729,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="Q204" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -19741,7 +19741,7 @@
         <v>789</v>
       </c>
       <c r="AC204" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="AD204" t="s">
         <v>789</v>
@@ -19788,10 +19788,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="Q205" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -19800,7 +19800,7 @@
         <v>789</v>
       </c>
       <c r="AC205" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="AD205" t="s">
         <v>789</v>
@@ -19856,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="Q206" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -19868,7 +19868,7 @@
         <v>789</v>
       </c>
       <c r="AC206" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="AD206" t="s">
         <v>789</v>
@@ -19924,10 +19924,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="Q207" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -19936,7 +19936,7 @@
         <v>789</v>
       </c>
       <c r="AC207" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="AD207" t="s">
         <v>789</v>
@@ -19992,10 +19992,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="Q208" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -20004,7 +20004,7 @@
         <v>789</v>
       </c>
       <c r="AC208" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="AD208" t="s">
         <v>789</v>
@@ -20060,10 +20060,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="Q209" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -20072,7 +20072,7 @@
         <v>789</v>
       </c>
       <c r="AC209" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="AD209" t="s">
         <v>789</v>
@@ -20122,10 +20122,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="Q210" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -20134,7 +20134,7 @@
         <v>789</v>
       </c>
       <c r="AC210" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="AD210" t="s">
         <v>789</v>
@@ -20190,10 +20190,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="Q211" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -20202,7 +20202,7 @@
         <v>789</v>
       </c>
       <c r="AC211" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="AD211" t="s">
         <v>789</v>
@@ -20255,10 +20255,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="Q212" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -20267,7 +20267,7 @@
         <v>789</v>
       </c>
       <c r="AC212" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="AD212" t="s">
         <v>789</v>
@@ -20314,10 +20314,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="Q213" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -20326,7 +20326,7 @@
         <v>789</v>
       </c>
       <c r="AC213" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="AD213" t="s">
         <v>789</v>
@@ -20379,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="Q214" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -20391,7 +20391,7 @@
         <v>789</v>
       </c>
       <c r="AC214" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="AD214" t="s">
         <v>789</v>
@@ -20438,10 +20438,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="Q215" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -20450,7 +20450,7 @@
         <v>789</v>
       </c>
       <c r="AC215" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="AD215" t="s">
         <v>789</v>
@@ -20500,10 +20500,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="Q216" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -20512,7 +20512,7 @@
         <v>789</v>
       </c>
       <c r="AC216" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="AD216" t="s">
         <v>789</v>
@@ -20568,10 +20568,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="Q217" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -20580,7 +20580,7 @@
         <v>789</v>
       </c>
       <c r="AC217" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="AD217" t="s">
         <v>789</v>
@@ -20636,10 +20636,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="Q218" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -20648,7 +20648,7 @@
         <v>789</v>
       </c>
       <c r="AC218" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="AD218" t="s">
         <v>789</v>
@@ -20704,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="Q219" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -20716,7 +20716,7 @@
         <v>789</v>
       </c>
       <c r="AC219" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="AD219" t="s">
         <v>789</v>
@@ -20772,10 +20772,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="Q220" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -20784,7 +20784,7 @@
         <v>789</v>
       </c>
       <c r="AC220" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="AD220" t="s">
         <v>789</v>
@@ -20840,10 +20840,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="Q221" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -20852,7 +20852,7 @@
         <v>789</v>
       </c>
       <c r="AC221" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="AD221" t="s">
         <v>789</v>
@@ -20908,10 +20908,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="Q222" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -20920,7 +20920,7 @@
         <v>789</v>
       </c>
       <c r="AC222" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="AD222" t="s">
         <v>789</v>
@@ -20976,10 +20976,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="Q223" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -20988,7 +20988,7 @@
         <v>789</v>
       </c>
       <c r="AC223" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="AD223" t="s">
         <v>789</v>
@@ -21044,10 +21044,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="Q224" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -21056,7 +21056,7 @@
         <v>789</v>
       </c>
       <c r="AC224" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="AD224" t="s">
         <v>789</v>
@@ -21109,10 +21109,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="Q225" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -21121,7 +21121,7 @@
         <v>789</v>
       </c>
       <c r="AC225" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="AD225" t="s">
         <v>789</v>
@@ -21177,10 +21177,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="Q226" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -21189,7 +21189,7 @@
         <v>789</v>
       </c>
       <c r="AC226" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="AD226" t="s">
         <v>789</v>
@@ -21242,10 +21242,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="Q227" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -21254,7 +21254,7 @@
         <v>789</v>
       </c>
       <c r="AC227" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="AD227" t="s">
         <v>789</v>
@@ -21307,10 +21307,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="Q228" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -21319,7 +21319,7 @@
         <v>789</v>
       </c>
       <c r="AC228" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="AD228" t="s">
         <v>789</v>
@@ -21372,10 +21372,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="Q229" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -21384,7 +21384,7 @@
         <v>789</v>
       </c>
       <c r="AC229" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="AD229" t="s">
         <v>789</v>
@@ -21431,10 +21431,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="Q230" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -21443,7 +21443,7 @@
         <v>789</v>
       </c>
       <c r="AC230" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="AD230" t="s">
         <v>789</v>
@@ -21496,10 +21496,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="Q231" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -21508,7 +21508,7 @@
         <v>789</v>
       </c>
       <c r="AC231" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="AD231" t="s">
         <v>789</v>
@@ -21561,10 +21561,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="Q232" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -21573,7 +21573,7 @@
         <v>789</v>
       </c>
       <c r="AC232" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="AD232" t="s">
         <v>789</v>
@@ -21623,10 +21623,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="Q233" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -21635,7 +21635,7 @@
         <v>789</v>
       </c>
       <c r="AC233" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="AD233" t="s">
         <v>789</v>
@@ -21691,10 +21691,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="Q234" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -21703,7 +21703,7 @@
         <v>789</v>
       </c>
       <c r="AC234" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="AD234" t="s">
         <v>789</v>
@@ -21756,10 +21756,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="Q235" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -21768,7 +21768,7 @@
         <v>789</v>
       </c>
       <c r="AC235" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="AD235" t="s">
         <v>789</v>
@@ -21821,10 +21821,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="Q236" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -21833,7 +21833,7 @@
         <v>789</v>
       </c>
       <c r="AC236" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="AD236" t="s">
         <v>789</v>
@@ -21883,13 +21883,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
       </c>
       <c r="R237" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="S237" t="s">
         <v>789</v>
@@ -21898,7 +21898,7 @@
         <v>789</v>
       </c>
       <c r="AD237" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="AE237" t="s">
         <v>789</v>
@@ -21948,13 +21948,13 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
       </c>
       <c r="R238" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="S238" t="s">
         <v>789</v>
@@ -21963,7 +21963,7 @@
         <v>789</v>
       </c>
       <c r="AD238" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="AE238" t="s">
         <v>789</v>
@@ -21977,7 +21977,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -22004,13 +22004,13 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="Q239" t="s">
         <v>789</v>
       </c>
       <c r="R239" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="S239" t="s">
         <v>789</v>
@@ -22019,7 +22019,7 @@
         <v>789</v>
       </c>
       <c r="AD239" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="AE239" t="s">
         <v>789</v>
@@ -22069,13 +22069,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
       </c>
       <c r="R240" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="S240" t="s">
         <v>789</v>
@@ -22084,7 +22084,7 @@
         <v>789</v>
       </c>
       <c r="AD240" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="AE240" t="s">
         <v>789</v>
@@ -22134,13 +22134,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="S241" t="s">
         <v>789</v>
@@ -22149,7 +22149,7 @@
         <v>789</v>
       </c>
       <c r="AD241" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -22199,13 +22199,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
       </c>
       <c r="R242" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="S242" t="s">
         <v>789</v>
@@ -22214,7 +22214,7 @@
         <v>789</v>
       </c>
       <c r="AD242" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="AE242" t="s">
         <v>789</v>
@@ -22264,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -22273,7 +22273,7 @@
         <v>789</v>
       </c>
       <c r="S243" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="AC243" t="s">
         <v>789</v>
@@ -22282,7 +22282,7 @@
         <v>789</v>
       </c>
       <c r="AE243" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="AO243" s="9">
         <v>2358384846</v>
@@ -22329,10 +22329,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="Q244" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -22341,7 +22341,7 @@
         <v>789</v>
       </c>
       <c r="AC244" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="AD244" t="s">
         <v>789</v>
@@ -22350,7 +22350,7 @@
         <v>789</v>
       </c>
       <c r="AO244" s="10" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -22391,10 +22391,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="Q245" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -22403,7 +22403,7 @@
         <v>789</v>
       </c>
       <c r="AC245" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="AD245" t="s">
         <v>789</v>
@@ -22453,10 +22453,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="Q246" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -22465,7 +22465,7 @@
         <v>789</v>
       </c>
       <c r="AC246" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="AD246" t="s">
         <v>789</v>
@@ -22515,10 +22515,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="Q247" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -22527,7 +22527,7 @@
         <v>789</v>
       </c>
       <c r="AC247" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="AD247" t="s">
         <v>789</v>
@@ -22577,10 +22577,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="Q248" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -22589,7 +22589,7 @@
         <v>789</v>
       </c>
       <c r="AC248" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="AD248" t="s">
         <v>789</v>
@@ -22639,22 +22639,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="Q249" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="R249" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
       </c>
       <c r="AC249" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="AD249" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -22707,10 +22707,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="Q250" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -22719,7 +22719,7 @@
         <v>789</v>
       </c>
       <c r="AC250" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="AD250" t="s">
         <v>789</v>
@@ -22769,10 +22769,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="Q251" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -22781,7 +22781,7 @@
         <v>789</v>
       </c>
       <c r="AC251" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="AD251" t="s">
         <v>789</v>
@@ -22831,10 +22831,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="Q252" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -22843,7 +22843,7 @@
         <v>789</v>
       </c>
       <c r="AC252" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="AD252" t="s">
         <v>789</v>
@@ -22896,10 +22896,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="Q253" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -22908,7 +22908,7 @@
         <v>789</v>
       </c>
       <c r="AC253" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="AD253" t="s">
         <v>789</v>
@@ -22958,10 +22958,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="Q254" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -22970,7 +22970,7 @@
         <v>789</v>
       </c>
       <c r="AC254" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="AD254" t="s">
         <v>789</v>
@@ -23017,28 +23017,28 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="Q255" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="R255" t="s">
         <v>789</v>
       </c>
       <c r="S255" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="AC255" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="AD255" t="s">
         <v>789</v>
       </c>
       <c r="AE255" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
       <c r="AO255" s="10" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -23082,25 +23082,25 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="Q256" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="R256" t="s">
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="AC256" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="AD256" t="s">
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
@@ -23141,10 +23141,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="Q257" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -23153,7 +23153,7 @@
         <v>789</v>
       </c>
       <c r="AC257" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="AD257" t="s">
         <v>789</v>
@@ -23206,10 +23206,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="Q258" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -23218,7 +23218,7 @@
         <v>789</v>
       </c>
       <c r="AC258" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="AD258" t="s">
         <v>789</v>
@@ -23268,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -23277,7 +23277,7 @@
         <v>789</v>
       </c>
       <c r="S259" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="AC259" t="s">
         <v>789</v>
@@ -23286,7 +23286,7 @@
         <v>789</v>
       </c>
       <c r="AE259" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="AO259" s="9">
         <v>613592902</v>
@@ -23330,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="Q260" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -23342,7 +23342,7 @@
         <v>789</v>
       </c>
       <c r="AC260" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="AD260" t="s">
         <v>789</v>
@@ -23389,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="Q261" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -23401,7 +23401,7 @@
         <v>789</v>
       </c>
       <c r="AC261" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="AD261" t="s">
         <v>789</v>
@@ -23451,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="Q262" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -23463,7 +23463,7 @@
         <v>789</v>
       </c>
       <c r="AC262" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="AD262" t="s">
         <v>789</v>
@@ -23513,10 +23513,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="Q263" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -23525,7 +23525,7 @@
         <v>789</v>
       </c>
       <c r="AC263" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="AD263" t="s">
         <v>789</v>
@@ -23578,10 +23578,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="Q264" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -23590,7 +23590,7 @@
         <v>789</v>
       </c>
       <c r="AC264" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="AD264" t="s">
         <v>789</v>
@@ -23637,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
       <c r="Q265" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -23649,7 +23649,7 @@
         <v>789</v>
       </c>
       <c r="AC265" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="AD265" t="s">
         <v>789</v>
@@ -23699,10 +23699,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="Q266" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -23711,7 +23711,7 @@
         <v>789</v>
       </c>
       <c r="AC266" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="AD266" t="s">
         <v>789</v>
@@ -23761,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -23770,7 +23770,7 @@
         <v>789</v>
       </c>
       <c r="S267" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="AC267" t="s">
         <v>789</v>
@@ -23779,7 +23779,7 @@
         <v>789</v>
       </c>
       <c r="AE267" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="AO267" s="9">
         <v>1288516250</v>
@@ -23826,28 +23826,28 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="Q268" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="AC268" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="AD268" t="s">
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="AO268" s="10" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -23888,10 +23888,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="Q269" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -23900,7 +23900,7 @@
         <v>789</v>
       </c>
       <c r="AC269" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="AD269" t="s">
         <v>789</v>
@@ -23909,7 +23909,7 @@
         <v>789</v>
       </c>
       <c r="AO269" s="10" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -23953,10 +23953,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
       <c r="Q270" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -23965,7 +23965,7 @@
         <v>789</v>
       </c>
       <c r="AC270" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="AD270" t="s">
         <v>789</v>
@@ -24021,10 +24021,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="Q271" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -24033,7 +24033,7 @@
         <v>789</v>
       </c>
       <c r="AC271" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="AD271" t="s">
         <v>789</v>
@@ -24080,10 +24080,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="Q272" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -24092,7 +24092,7 @@
         <v>789</v>
       </c>
       <c r="AC272" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="AD272" t="s">
         <v>789</v>
@@ -24145,10 +24145,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
       <c r="Q273" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -24157,7 +24157,7 @@
         <v>789</v>
       </c>
       <c r="AC273" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="AD273" t="s">
         <v>789</v>
@@ -24210,10 +24210,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="Q274" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -24222,7 +24222,7 @@
         <v>789</v>
       </c>
       <c r="AC274" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="AD274" t="s">
         <v>789</v>
@@ -24231,7 +24231,7 @@
         <v>789</v>
       </c>
       <c r="AO274" s="10" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -24272,10 +24272,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
       <c r="Q275" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -24284,7 +24284,7 @@
         <v>789</v>
       </c>
       <c r="AC275" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="AD275" t="s">
         <v>789</v>
@@ -24331,10 +24331,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
       <c r="Q276" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -24343,7 +24343,7 @@
         <v>789</v>
       </c>
       <c r="AC276" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="AD276" t="s">
         <v>789</v>
@@ -24390,10 +24390,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="Q277" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -24402,7 +24402,7 @@
         <v>789</v>
       </c>
       <c r="AC277" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="AD277" t="s">
         <v>789</v>
@@ -24449,10 +24449,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="Q278" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -24461,7 +24461,7 @@
         <v>789</v>
       </c>
       <c r="AC278" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="AD278" t="s">
         <v>789</v>
@@ -24475,10 +24475,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="C279" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -24508,10 +24508,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="Q279" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -24520,7 +24520,7 @@
         <v>789</v>
       </c>
       <c r="AC279" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="AD279" t="s">
         <v>789</v>
@@ -24567,10 +24567,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="Q280" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -24579,7 +24579,7 @@
         <v>789</v>
       </c>
       <c r="AC280" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="AD280" t="s">
         <v>789</v>
@@ -24626,10 +24626,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
       <c r="Q281" t="s">
-        <v>1596</v>
+        <v>1584</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -24638,7 +24638,7 @@
         <v>789</v>
       </c>
       <c r="AC281" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="AD281" t="s">
         <v>789</v>
@@ -24685,10 +24685,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
       <c r="Q282" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -24697,7 +24697,7 @@
         <v>789</v>
       </c>
       <c r="AC282" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="AD282" t="s">
         <v>789</v>
@@ -24744,10 +24744,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="Q283" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -24756,7 +24756,7 @@
         <v>789</v>
       </c>
       <c r="AC283" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="AD283" t="s">
         <v>789</v>
@@ -24803,10 +24803,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="Q284" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -24815,7 +24815,7 @@
         <v>789</v>
       </c>
       <c r="AC284" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="AD284" t="s">
         <v>789</v>
@@ -24862,10 +24862,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="Q285" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -24874,7 +24874,7 @@
         <v>789</v>
       </c>
       <c r="AC285" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="AD285" t="s">
         <v>789</v>
@@ -24921,10 +24921,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="Q286" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -24933,7 +24933,7 @@
         <v>789</v>
       </c>
       <c r="AC286" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="AD286" t="s">
         <v>789</v>
@@ -24980,10 +24980,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="Q287" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -24992,7 +24992,7 @@
         <v>789</v>
       </c>
       <c r="AC287" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="AD287" t="s">
         <v>789</v>
@@ -25039,10 +25039,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="Q288" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -25051,7 +25051,7 @@
         <v>789</v>
       </c>
       <c r="AC288" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="AD288" t="s">
         <v>789</v>
@@ -25101,10 +25101,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="Q289" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -25113,7 +25113,7 @@
         <v>789</v>
       </c>
       <c r="AC289" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="AD289" t="s">
         <v>789</v>
@@ -25163,10 +25163,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="Q290" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -25175,7 +25175,7 @@
         <v>789</v>
       </c>
       <c r="AC290" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="AD290" t="s">
         <v>789</v>
@@ -25225,10 +25225,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
       <c r="Q291" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -25237,7 +25237,7 @@
         <v>789</v>
       </c>
       <c r="AC291" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="AD291" t="s">
         <v>789</v>
@@ -25254,10 +25254,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="C292" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -25293,13 +25293,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="R292" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
       <c r="AD292" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -25310,16 +25310,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="C293" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -25352,13 +25352,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="R293" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="AD293" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -25369,13 +25369,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="C294" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="D294" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -25411,13 +25411,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="R294" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="AD294" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -25428,16 +25428,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="C295" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -25470,13 +25470,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="R295" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="AD295" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -25487,16 +25487,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="C296" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="D296" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="E296" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25529,13 +25529,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="R296" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="AD296" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -25546,16 +25546,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
       <c r="C297" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
       <c r="D297" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="E297" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25588,13 +25588,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
       <c r="R297" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
       <c r="AD297" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -25605,16 +25605,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="C298" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="D298" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
       <c r="E298" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -25644,13 +25644,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="R298" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="AD298" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -25661,16 +25661,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="C299" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -25714,16 +25714,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="C300" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="D300" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="E300" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25756,13 +25756,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="S300" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="AE300" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -25773,16 +25773,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="C301" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25815,13 +25815,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="S301" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="AE301" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -25832,19 +25832,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="C302" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="G302" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -25871,13 +25871,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
+        <v>1722</v>
+      </c>
+      <c r="S302" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AE302" t="s">
         <v>1734</v>
-      </c>
-      <c r="S302" t="s">
-        <v>1745</v>
-      </c>
-      <c r="AE302" t="s">
-        <v>1746</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -25888,22 +25888,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D303" t="s">
         <v>1707</v>
       </c>
-      <c r="C303" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1719</v>
-      </c>
       <c r="E303" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -25930,13 +25930,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
+        <v>1723</v>
+      </c>
+      <c r="S303" t="s">
         <v>1735</v>
       </c>
-      <c r="S303" t="s">
-        <v>1747</v>
-      </c>
       <c r="AE303" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -25947,16 +25947,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="C304" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="D304" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="E304" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25983,13 +25983,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="S304" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="AE304" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -26000,16 +26000,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="C305" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -26042,13 +26042,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="S305" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="AE305" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -26059,16 +26059,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="C306" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="D306" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -26101,13 +26101,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="S306" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="AE306" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -26118,16 +26118,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="C307" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="D307" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="E307" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -26160,13 +26160,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="S307" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="AE307" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -26177,16 +26177,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="C308" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="D308" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="E308" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -26219,13 +26219,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="S308" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="AE308" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD30491-64E5-4B39-B1CB-14D6FB175263}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A2228-320A-46C7-8136-B50429388747}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1818">
   <si>
     <t>nickName</t>
   </si>
@@ -2974,9 +2974,6 @@
     <t>[4425901, 60510186]</t>
   </si>
   <si>
-    <t>[30010179, 54970949]</t>
-  </si>
-  <si>
     <t>[52450166, 58630611, 54870926]</t>
   </si>
   <si>
@@ -3835,9 +3832,6 @@
     <t>lz_bdd_2017.png</t>
   </si>
   <si>
-    <t>[204802627, 208772344]</t>
-  </si>
-  <si>
     <t>lz_pray_2017.png</t>
   </si>
   <si>
@@ -5465,6 +5459,30 @@
   </si>
   <si>
     <t>[23796520, 73297023]</t>
+  </si>
+  <si>
+    <t>[204802627, 208772344,210167972]</t>
+  </si>
+  <si>
+    <t>[30010179, 54970949,66810156]</t>
+  </si>
+  <si>
+    <t>[240064089]</t>
+  </si>
+  <si>
+    <t>[107987184]</t>
+  </si>
+  <si>
+    <t>[107987183]</t>
+  </si>
+  <si>
+    <t>[240064088]</t>
+  </si>
+  <si>
+    <t>[210504308]</t>
+  </si>
+  <si>
+    <t>[69930167]</t>
   </si>
 </sst>
 </file>
@@ -5856,10 +5874,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
+      <selection pane="bottomRight" activeCell="AC63" sqref="AC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,13 +6036,13 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>1762</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6074,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q2" t="s">
         <v>789</v>
@@ -6145,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q3" t="s">
         <v>789</v>
@@ -6216,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q4" t="s">
         <v>789</v>
@@ -6287,13 +6305,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q5" t="s">
         <v>789</v>
       </c>
       <c r="R5" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="S5" t="s">
         <v>789</v>
@@ -6302,7 +6320,7 @@
         <v>789</v>
       </c>
       <c r="AD5" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="AE5" t="s">
         <v>789</v>
@@ -6358,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q6" t="s">
         <v>789</v>
@@ -6429,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q7" t="s">
         <v>1159</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1160</v>
       </c>
       <c r="R7" t="s">
         <v>802</v>
@@ -6450,7 +6468,7 @@
         <v>789</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -6500,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q8" t="s">
         <v>789</v>
@@ -6571,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Q9" t="s">
         <v>789</v>
@@ -6580,7 +6598,7 @@
         <v>807</v>
       </c>
       <c r="S9" t="s">
-        <v>789</v>
+        <v>1812</v>
       </c>
       <c r="AC9" t="s">
         <v>789</v>
@@ -6589,7 +6607,7 @@
         <v>808</v>
       </c>
       <c r="AE9" t="s">
-        <v>789</v>
+        <v>1813</v>
       </c>
       <c r="AO9" s="9">
         <v>409736208</v>
@@ -6600,7 +6618,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -6639,13 +6657,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Q10" t="s">
         <v>789</v>
       </c>
       <c r="R10" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="S10" t="s">
         <v>789</v>
@@ -6654,7 +6672,7 @@
         <v>789</v>
       </c>
       <c r="AD10" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -6710,10 +6728,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q11" t="s">
         <v>1164</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1165</v>
       </c>
       <c r="R11" t="s">
         <v>809</v>
@@ -6781,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Q12" t="s">
         <v>789</v>
@@ -6849,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q13" t="s">
         <v>789</v>
@@ -6870,7 +6888,7 @@
         <v>789</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -6917,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q14" t="s">
         <v>789</v>
@@ -6988,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q15" t="s">
         <v>789</v>
@@ -7059,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q16" t="s">
         <v>789</v>
@@ -7130,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q17" t="s">
         <v>789</v>
@@ -7139,7 +7157,7 @@
         <v>822</v>
       </c>
       <c r="S17" t="s">
-        <v>789</v>
+        <v>1815</v>
       </c>
       <c r="AC17" t="s">
         <v>789</v>
@@ -7148,7 +7166,7 @@
         <v>823</v>
       </c>
       <c r="AE17" t="s">
-        <v>789</v>
+        <v>1814</v>
       </c>
       <c r="AO17" s="9">
         <v>2963716081</v>
@@ -7198,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q18" t="s">
         <v>789</v>
@@ -7269,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q19" t="s">
         <v>789</v>
@@ -7340,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q20" t="s">
         <v>789</v>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Q21" t="s">
         <v>789</v>
@@ -7482,10 +7500,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q22" t="s">
         <v>1176</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1177</v>
       </c>
       <c r="R22" t="s">
         <v>834</v>
@@ -7550,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Q23" t="s">
         <v>789</v>
@@ -7618,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q24" t="s">
         <v>789</v>
@@ -7689,13 +7707,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q25" t="s">
         <v>789</v>
       </c>
       <c r="R25" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="S25" t="s">
         <v>789</v>
@@ -7704,7 +7722,7 @@
         <v>789</v>
       </c>
       <c r="AD25" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -7757,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q26" t="s">
         <v>789</v>
@@ -7819,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q27" t="s">
         <v>1182</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>1183</v>
       </c>
       <c r="R27" t="s">
         <v>841</v>
@@ -7890,13 +7908,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q28" t="s">
         <v>789</v>
       </c>
       <c r="R28" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="S28" t="s">
         <v>789</v>
@@ -7905,13 +7923,13 @@
         <v>789</v>
       </c>
       <c r="AD28" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AE28" t="s">
         <v>789</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -7958,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q29" t="s">
         <v>789</v>
@@ -7967,7 +7985,7 @@
         <v>844</v>
       </c>
       <c r="S29" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
@@ -7976,7 +7994,7 @@
         <v>845</v>
       </c>
       <c r="AE29" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -8026,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q30" t="s">
         <v>789</v>
@@ -8094,13 +8112,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q31" t="s">
         <v>789</v>
       </c>
       <c r="R31" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="S31" t="s">
         <v>789</v>
@@ -8109,7 +8127,7 @@
         <v>789</v>
       </c>
       <c r="AD31" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -8159,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Q32" t="s">
         <v>789</v>
@@ -8224,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Q33" t="s">
         <v>789</v>
@@ -8295,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q34" t="s">
         <v>789</v>
@@ -8366,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q35" t="s">
         <v>789</v>
@@ -8437,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q36" t="s">
         <v>789</v>
@@ -8505,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q37" t="s">
         <v>789</v>
@@ -8570,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q38" t="s">
         <v>789</v>
@@ -8635,16 +8653,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q39" t="s">
         <v>1195</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1196</v>
       </c>
       <c r="R39" t="s">
         <v>862</v>
       </c>
       <c r="S39" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AC39" t="s">
         <v>863</v>
@@ -8653,7 +8671,7 @@
         <v>864</v>
       </c>
       <c r="AE39" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AO39" s="10">
         <v>803776063</v>
@@ -8662,7 +8680,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -8709,13 +8727,13 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q40" t="s">
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -8724,7 +8742,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -8771,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q41" t="s">
         <v>789</v>
@@ -8836,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q42" t="s">
         <v>789</v>
@@ -8901,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q43" t="s">
         <v>789</v>
@@ -8969,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q44" t="s">
         <v>789</v>
@@ -9034,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q45" t="s">
         <v>789</v>
@@ -9105,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q46" t="s">
         <v>789</v>
@@ -9173,13 +9191,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q47" t="s">
         <v>789</v>
       </c>
       <c r="R47" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="S47" t="s">
         <v>789</v>
@@ -9188,7 +9206,7 @@
         <v>789</v>
       </c>
       <c r="AD47" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -9244,13 +9262,13 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q48" t="s">
         <v>1205</v>
       </c>
-      <c r="Q48" t="s">
-        <v>1206</v>
-      </c>
       <c r="R48" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
@@ -9259,13 +9277,13 @@
         <v>877</v>
       </c>
       <c r="AD48" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -9315,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q49" t="s">
         <v>1207</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>1208</v>
       </c>
       <c r="R49" t="s">
         <v>878</v>
@@ -9383,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q50" t="s">
         <v>789</v>
@@ -9451,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q51" t="s">
         <v>789</v>
@@ -9519,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q52" t="s">
         <v>789</v>
@@ -9540,7 +9558,7 @@
         <v>789</v>
       </c>
       <c r="AO52" s="10" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -9590,13 +9608,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q53" t="s">
         <v>789</v>
       </c>
       <c r="R53" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="S53" t="s">
         <v>789</v>
@@ -9605,7 +9623,7 @@
         <v>789</v>
       </c>
       <c r="AD53" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -9661,10 +9679,10 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Q54" t="s">
         <v>1213</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>1214</v>
       </c>
       <c r="R54" t="s">
         <v>887</v>
@@ -9732,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q55" t="s">
         <v>789</v>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Q56" t="s">
         <v>789</v>
@@ -9874,7 +9892,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q57" t="s">
         <v>789</v>
@@ -9945,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q58" t="s">
         <v>789</v>
@@ -9954,7 +9972,7 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="AC58" t="s">
         <v>789</v>
@@ -9963,7 +9981,7 @@
         <v>789</v>
       </c>
       <c r="AE58" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
@@ -10016,10 +10034,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Q59" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
@@ -10028,7 +10046,7 @@
         <v>896</v>
       </c>
       <c r="AC59" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="AD59" t="s">
         <v>789</v>
@@ -10087,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Q60" t="s">
         <v>789</v>
@@ -10149,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Q61" t="s">
         <v>789</v>
@@ -10170,7 +10188,7 @@
         <v>901</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -10220,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q62" t="s">
         <v>1222</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1223</v>
       </c>
       <c r="R62" t="s">
         <v>789</v>
@@ -10291,25 +10309,25 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Q63" t="s">
-        <v>789</v>
+        <v>1816</v>
       </c>
       <c r="R63" t="s">
         <v>789</v>
       </c>
       <c r="S63" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AC63" t="s">
-        <v>789</v>
+        <v>1817</v>
       </c>
       <c r="AD63" t="s">
         <v>789</v>
       </c>
       <c r="AE63" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AO63" s="9">
         <v>1648029396</v>
@@ -10362,13 +10380,13 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Q64" t="s">
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="S64" t="s">
         <v>905</v>
@@ -10433,16 +10451,16 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="Q65" t="s">
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="S65" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="AC65" t="s">
         <v>789</v>
@@ -10451,7 +10469,7 @@
         <v>908</v>
       </c>
       <c r="AE65" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="AO65" s="9">
         <v>1244508066</v>
@@ -10501,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Q66" t="s">
         <v>789</v>
@@ -10572,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Q67" t="s">
         <v>789</v>
@@ -10643,13 +10661,13 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q68" t="s">
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="S68" t="s">
         <v>913</v>
@@ -10658,7 +10676,7 @@
         <v>789</v>
       </c>
       <c r="AD68" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AE68" t="s">
         <v>914</v>
@@ -10672,7 +10690,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -10714,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q69" t="s">
         <v>789</v>
@@ -10785,10 +10803,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q70" t="s">
         <v>1231</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>1232</v>
       </c>
       <c r="R70" t="s">
         <v>789</v>
@@ -10847,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Q71" t="s">
         <v>789</v>
@@ -10915,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Q72" t="s">
         <v>789</v>
@@ -10986,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q73" t="s">
         <v>789</v>
@@ -11054,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q74" t="s">
         <v>789</v>
@@ -11063,7 +11081,7 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="AC74" t="s">
         <v>789</v>
@@ -11072,7 +11090,7 @@
         <v>789</v>
       </c>
       <c r="AE74" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -11125,28 +11143,28 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q75" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="R75" t="s">
         <v>789</v>
       </c>
       <c r="S75" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="AC75" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD75" t="s">
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="AO75" s="10" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -11193,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="Q76" t="s">
         <v>789</v>
@@ -11202,7 +11220,7 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AC76" t="s">
         <v>789</v>
@@ -11211,7 +11229,7 @@
         <v>789</v>
       </c>
       <c r="AE76" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -11264,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Q77" t="s">
         <v>789</v>
@@ -11273,10 +11291,10 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="T77" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="AC77" t="s">
         <v>789</v>
@@ -11285,10 +11303,10 @@
         <v>789</v>
       </c>
       <c r="AE77" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AF77" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -11341,13 +11359,13 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Q78" t="s">
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="S78" t="s">
         <v>926</v>
@@ -11356,7 +11374,7 @@
         <v>789</v>
       </c>
       <c r="AD78" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AE78" t="s">
         <v>927</v>
@@ -11406,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Q79" t="s">
         <v>789</v>
@@ -11427,7 +11445,7 @@
         <v>929</v>
       </c>
       <c r="AO79" s="10" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -11471,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q80" t="s">
         <v>789</v>
@@ -11542,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Q81" t="s">
         <v>789</v>
@@ -11613,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q82" t="s">
         <v>789</v>
@@ -11684,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q83" t="s">
         <v>789</v>
@@ -11752,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Q84" t="s">
         <v>789</v>
@@ -11823,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q85" t="s">
         <v>789</v>
@@ -11894,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q86" t="s">
         <v>789</v>
@@ -11962,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="Q87" t="s">
         <v>789</v>
@@ -12033,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q88" t="s">
         <v>789</v>
@@ -12104,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Q89" t="s">
         <v>789</v>
@@ -12172,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q90" t="s">
         <v>789</v>
@@ -12243,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q91" t="s">
         <v>789</v>
@@ -12314,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q92" t="s">
         <v>789</v>
@@ -12323,7 +12341,7 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="AC92" t="s">
         <v>789</v>
@@ -12332,7 +12350,7 @@
         <v>789</v>
       </c>
       <c r="AE92" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -12382,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q93" t="s">
         <v>789</v>
@@ -12453,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q94" t="s">
         <v>789</v>
@@ -12524,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q95" t="s">
         <v>789</v>
@@ -12595,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Q96" t="s">
         <v>789</v>
@@ -12663,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q97" t="s">
         <v>789</v>
@@ -12731,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q98" t="s">
         <v>789</v>
@@ -12799,7 +12817,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q99" t="s">
         <v>789</v>
@@ -12867,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -12935,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -13006,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q102" t="s">
         <v>789</v>
@@ -13074,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -13095,7 +13113,7 @@
         <v>975</v>
       </c>
       <c r="AO103" s="10" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -13142,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -13210,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -13231,7 +13249,7 @@
         <v>979</v>
       </c>
       <c r="AO105" s="10" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -13278,10 +13296,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q106" t="s">
         <v>1264</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>1265</v>
       </c>
       <c r="R106" t="s">
         <v>789</v>
@@ -13343,10 +13361,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q107" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="R107" t="s">
         <v>789</v>
@@ -13355,7 +13373,7 @@
         <v>789</v>
       </c>
       <c r="AC107" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -13411,10 +13429,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q108" t="s">
-        <v>1268</v>
+        <v>1810</v>
       </c>
       <c r="R108" t="s">
         <v>789</v>
@@ -13423,7 +13441,7 @@
         <v>789</v>
       </c>
       <c r="AC108" t="s">
-        <v>981</v>
+        <v>1811</v>
       </c>
       <c r="AD108" t="s">
         <v>789</v>
@@ -13432,7 +13450,7 @@
         <v>789</v>
       </c>
       <c r="AO108" s="10" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -13482,10 +13500,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q109" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="R109" t="s">
         <v>789</v>
@@ -13494,7 +13512,7 @@
         <v>789</v>
       </c>
       <c r="AC109" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AD109" t="s">
         <v>789</v>
@@ -13553,10 +13571,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Q110" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="R110" t="s">
         <v>789</v>
@@ -13565,7 +13583,7 @@
         <v>789</v>
       </c>
       <c r="AC110" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AD110" t="s">
         <v>789</v>
@@ -13624,10 +13642,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Q111" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="R111" t="s">
         <v>789</v>
@@ -13636,7 +13654,7 @@
         <v>789</v>
       </c>
       <c r="AC111" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AD111" t="s">
         <v>789</v>
@@ -13695,10 +13713,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Q112" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="R112" t="s">
         <v>789</v>
@@ -13707,7 +13725,7 @@
         <v>789</v>
       </c>
       <c r="AC112" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AD112" t="s">
         <v>789</v>
@@ -13763,10 +13781,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Q113" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="R113" t="s">
         <v>789</v>
@@ -13775,7 +13793,7 @@
         <v>789</v>
       </c>
       <c r="AC113" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AD113" t="s">
         <v>789</v>
@@ -13831,10 +13849,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="Q114" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="R114" t="s">
         <v>789</v>
@@ -13843,7 +13861,7 @@
         <v>789</v>
       </c>
       <c r="AC114" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="AD114" t="s">
         <v>789</v>
@@ -13902,10 +13920,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="Q115" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="R115" t="s">
         <v>789</v>
@@ -13914,7 +13932,7 @@
         <v>789</v>
       </c>
       <c r="AC115" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="AD115" t="s">
         <v>789</v>
@@ -13970,10 +13988,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q116" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="R116" t="s">
         <v>789</v>
@@ -13982,7 +14000,7 @@
         <v>789</v>
       </c>
       <c r="AC116" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AD116" t="s">
         <v>789</v>
@@ -14038,10 +14056,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Q117" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="R117" t="s">
         <v>789</v>
@@ -14050,7 +14068,7 @@
         <v>789</v>
       </c>
       <c r="AC117" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AD117" t="s">
         <v>789</v>
@@ -14106,10 +14124,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q118" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="R118" t="s">
         <v>789</v>
@@ -14118,7 +14136,7 @@
         <v>789</v>
       </c>
       <c r="AC118" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -14174,10 +14192,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q119" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="R119" t="s">
         <v>789</v>
@@ -14186,7 +14204,7 @@
         <v>789</v>
       </c>
       <c r="AC119" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="AD119" t="s">
         <v>789</v>
@@ -14195,7 +14213,7 @@
         <v>789</v>
       </c>
       <c r="AO119" s="10" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -14245,10 +14263,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q120" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="R120" t="s">
         <v>789</v>
@@ -14257,7 +14275,7 @@
         <v>789</v>
       </c>
       <c r="AC120" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -14316,22 +14334,22 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q121" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="R121" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
       </c>
       <c r="AC121" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AD121" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -14387,10 +14405,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="Q122" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="R122" t="s">
         <v>789</v>
@@ -14399,7 +14417,7 @@
         <v>789</v>
       </c>
       <c r="AC122" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -14458,10 +14476,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="Q123" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="R123" t="s">
         <v>789</v>
@@ -14470,7 +14488,7 @@
         <v>789</v>
       </c>
       <c r="AC123" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD123" t="s">
         <v>789</v>
@@ -14526,10 +14544,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="Q124" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R124" t="s">
         <v>789</v>
@@ -14538,7 +14556,7 @@
         <v>789</v>
       </c>
       <c r="AC124" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AD124" t="s">
         <v>789</v>
@@ -14597,10 +14615,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="Q125" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="R125" t="s">
         <v>789</v>
@@ -14609,7 +14627,7 @@
         <v>789</v>
       </c>
       <c r="AC125" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AD125" t="s">
         <v>789</v>
@@ -14618,7 +14636,7 @@
         <v>789</v>
       </c>
       <c r="AO125" s="10" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -14668,10 +14686,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q126" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R126" t="s">
         <v>789</v>
@@ -14680,7 +14698,7 @@
         <v>789</v>
       </c>
       <c r="AC126" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AD126" t="s">
         <v>789</v>
@@ -14736,10 +14754,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q127" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="R127" t="s">
         <v>789</v>
@@ -14748,7 +14766,7 @@
         <v>789</v>
       </c>
       <c r="AC127" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AD127" t="s">
         <v>789</v>
@@ -14798,10 +14816,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q128" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R128" t="s">
         <v>789</v>
@@ -14810,7 +14828,7 @@
         <v>789</v>
       </c>
       <c r="AC128" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AD128" t="s">
         <v>789</v>
@@ -14863,10 +14881,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Q129" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="R129" t="s">
         <v>789</v>
@@ -14875,7 +14893,7 @@
         <v>789</v>
       </c>
       <c r="AC129" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AD129" t="s">
         <v>789</v>
@@ -14931,10 +14949,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="Q130" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R130" t="s">
         <v>789</v>
@@ -14943,7 +14961,7 @@
         <v>789</v>
       </c>
       <c r="AC130" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AD130" t="s">
         <v>789</v>
@@ -15002,10 +15020,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q131" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="R131" t="s">
         <v>789</v>
@@ -15014,7 +15032,7 @@
         <v>789</v>
       </c>
       <c r="AC131" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AD131" t="s">
         <v>789</v>
@@ -15070,10 +15088,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q132" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R132" t="s">
         <v>789</v>
@@ -15082,7 +15100,7 @@
         <v>789</v>
       </c>
       <c r="AC132" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AD132" t="s">
         <v>789</v>
@@ -15135,10 +15153,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q133" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R133" t="s">
         <v>789</v>
@@ -15147,7 +15165,7 @@
         <v>789</v>
       </c>
       <c r="AC133" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AD133" t="s">
         <v>789</v>
@@ -15200,10 +15218,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Q134" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="R134" t="s">
         <v>789</v>
@@ -15212,7 +15230,7 @@
         <v>789</v>
       </c>
       <c r="AC134" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD134" t="s">
         <v>789</v>
@@ -15268,10 +15286,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="Q135" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="R135" t="s">
         <v>789</v>
@@ -15280,7 +15298,7 @@
         <v>789</v>
       </c>
       <c r="AC135" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AD135" t="s">
         <v>789</v>
@@ -15333,10 +15351,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q136" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="R136" t="s">
         <v>789</v>
@@ -15345,7 +15363,7 @@
         <v>789</v>
       </c>
       <c r="AC136" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD136" t="s">
         <v>789</v>
@@ -15395,10 +15413,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q137" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="R137" t="s">
         <v>789</v>
@@ -15407,7 +15425,7 @@
         <v>789</v>
       </c>
       <c r="AC137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AD137" t="s">
         <v>789</v>
@@ -15460,10 +15478,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Q138" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -15472,7 +15490,7 @@
         <v>789</v>
       </c>
       <c r="AC138" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AD138" t="s">
         <v>789</v>
@@ -15528,10 +15546,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q139" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -15540,7 +15558,7 @@
         <v>789</v>
       </c>
       <c r="AC139" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AD139" t="s">
         <v>789</v>
@@ -15596,10 +15614,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="Q140" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="R140" t="s">
         <v>789</v>
@@ -15608,7 +15626,7 @@
         <v>789</v>
       </c>
       <c r="AC140" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="AD140" t="s">
         <v>789</v>
@@ -15617,7 +15635,7 @@
         <v>789</v>
       </c>
       <c r="AO140" s="10" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -15664,10 +15682,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q141" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -15676,7 +15694,7 @@
         <v>789</v>
       </c>
       <c r="AC141" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AD141" t="s">
         <v>789</v>
@@ -15732,10 +15750,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Q142" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -15744,7 +15762,7 @@
         <v>789</v>
       </c>
       <c r="AC142" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AD142" t="s">
         <v>789</v>
@@ -15800,10 +15818,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q143" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -15812,7 +15830,7 @@
         <v>789</v>
       </c>
       <c r="AC143" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AD143" t="s">
         <v>789</v>
@@ -15868,10 +15886,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Q144" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -15880,7 +15898,7 @@
         <v>789</v>
       </c>
       <c r="AC144" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AD144" t="s">
         <v>789</v>
@@ -15936,10 +15954,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Q145" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -15948,7 +15966,7 @@
         <v>789</v>
       </c>
       <c r="AC145" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AD145" t="s">
         <v>789</v>
@@ -16004,10 +16022,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q146" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -16016,7 +16034,7 @@
         <v>789</v>
       </c>
       <c r="AC146" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AD146" t="s">
         <v>789</v>
@@ -16072,10 +16090,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q147" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -16084,7 +16102,7 @@
         <v>789</v>
       </c>
       <c r="AC147" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AD147" t="s">
         <v>789</v>
@@ -16140,10 +16158,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q148" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="R148" t="s">
         <v>789</v>
@@ -16152,7 +16170,7 @@
         <v>789</v>
       </c>
       <c r="AC148" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -16208,10 +16226,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="Q149" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -16220,7 +16238,7 @@
         <v>789</v>
       </c>
       <c r="AC149" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AD149" t="s">
         <v>789</v>
@@ -16273,10 +16291,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Q150" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -16285,7 +16303,7 @@
         <v>789</v>
       </c>
       <c r="AC150" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AD150" t="s">
         <v>789</v>
@@ -16335,10 +16353,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q151" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -16347,7 +16365,7 @@
         <v>789</v>
       </c>
       <c r="AC151" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AD151" t="s">
         <v>789</v>
@@ -16400,10 +16418,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="Q152" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -16412,7 +16430,7 @@
         <v>789</v>
       </c>
       <c r="AC152" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AD152" t="s">
         <v>789</v>
@@ -16462,10 +16480,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="Q153" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -16474,7 +16492,7 @@
         <v>789</v>
       </c>
       <c r="AC153" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AD153" t="s">
         <v>789</v>
@@ -16527,10 +16545,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="Q154" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -16539,7 +16557,7 @@
         <v>789</v>
       </c>
       <c r="AC154" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AD154" t="s">
         <v>789</v>
@@ -16592,10 +16610,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="Q155" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -16604,7 +16622,7 @@
         <v>789</v>
       </c>
       <c r="AC155" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AD155" t="s">
         <v>789</v>
@@ -16657,10 +16675,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="Q156" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -16669,7 +16687,7 @@
         <v>789</v>
       </c>
       <c r="AC156" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AD156" t="s">
         <v>789</v>
@@ -16722,10 +16740,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="Q157" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -16734,7 +16752,7 @@
         <v>789</v>
       </c>
       <c r="AC157" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AD157" t="s">
         <v>789</v>
@@ -16787,10 +16805,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="Q158" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -16799,7 +16817,7 @@
         <v>789</v>
       </c>
       <c r="AC158" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AD158" t="s">
         <v>789</v>
@@ -16852,10 +16870,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="Q159" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -16864,7 +16882,7 @@
         <v>789</v>
       </c>
       <c r="AC159" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AD159" t="s">
         <v>789</v>
@@ -16917,10 +16935,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Q160" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -16929,7 +16947,7 @@
         <v>789</v>
       </c>
       <c r="AC160" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AD160" t="s">
         <v>789</v>
@@ -16982,10 +17000,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q161" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -16994,7 +17012,7 @@
         <v>789</v>
       </c>
       <c r="AC161" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AD161" t="s">
         <v>789</v>
@@ -17050,10 +17068,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="Q162" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -17062,7 +17080,7 @@
         <v>789</v>
       </c>
       <c r="AC162" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AD162" t="s">
         <v>789</v>
@@ -17115,10 +17133,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="Q163" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -17127,7 +17145,7 @@
         <v>789</v>
       </c>
       <c r="AC163" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AD163" t="s">
         <v>789</v>
@@ -17180,10 +17198,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q164" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -17192,7 +17210,7 @@
         <v>789</v>
       </c>
       <c r="AC164" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AD164" t="s">
         <v>789</v>
@@ -17251,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -17310,10 +17328,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="Q166" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -17322,7 +17340,7 @@
         <v>789</v>
       </c>
       <c r="AC166" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AD166" t="s">
         <v>789</v>
@@ -17369,10 +17387,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="Q167" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -17381,7 +17399,7 @@
         <v>789</v>
       </c>
       <c r="AC167" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AD167" t="s">
         <v>789</v>
@@ -17434,10 +17452,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="Q168" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -17446,7 +17464,7 @@
         <v>789</v>
       </c>
       <c r="AC168" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AD168" t="s">
         <v>789</v>
@@ -17502,10 +17520,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="Q169" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -17514,7 +17532,7 @@
         <v>789</v>
       </c>
       <c r="AC169" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AD169" t="s">
         <v>789</v>
@@ -17567,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -17632,10 +17650,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="Q171" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -17644,7 +17662,7 @@
         <v>789</v>
       </c>
       <c r="AC171" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AD171" t="s">
         <v>789</v>
@@ -17691,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -17756,10 +17774,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="Q173" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -17768,7 +17786,7 @@
         <v>789</v>
       </c>
       <c r="AC173" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AD173" t="s">
         <v>789</v>
@@ -17821,10 +17839,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="Q174" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -17833,7 +17851,7 @@
         <v>789</v>
       </c>
       <c r="AC174" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AD174" t="s">
         <v>789</v>
@@ -17886,10 +17904,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="Q175" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -17898,7 +17916,7 @@
         <v>789</v>
       </c>
       <c r="AC175" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AD175" t="s">
         <v>789</v>
@@ -17951,10 +17969,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q176" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -17963,7 +17981,7 @@
         <v>789</v>
       </c>
       <c r="AC176" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AD176" t="s">
         <v>789</v>
@@ -18016,10 +18034,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Q177" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -18028,7 +18046,7 @@
         <v>789</v>
       </c>
       <c r="AC177" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AD177" t="s">
         <v>789</v>
@@ -18081,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -18146,10 +18164,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Q179" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -18158,7 +18176,7 @@
         <v>789</v>
       </c>
       <c r="AC179" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AD179" t="s">
         <v>789</v>
@@ -18211,10 +18229,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q180" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -18223,7 +18241,7 @@
         <v>789</v>
       </c>
       <c r="AC180" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AD180" t="s">
         <v>789</v>
@@ -18279,10 +18297,10 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="Q181" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="R181" t="s">
         <v>789</v>
@@ -18291,7 +18309,7 @@
         <v>789</v>
       </c>
       <c r="AC181" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -18338,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q182" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -18350,7 +18368,7 @@
         <v>789</v>
       </c>
       <c r="AC182" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AD182" t="s">
         <v>789</v>
@@ -18397,10 +18415,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="Q183" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -18409,7 +18427,7 @@
         <v>789</v>
       </c>
       <c r="AC183" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AD183" t="s">
         <v>789</v>
@@ -18462,10 +18480,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="Q184" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -18474,7 +18492,7 @@
         <v>789</v>
       </c>
       <c r="AC184" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AD184" t="s">
         <v>789</v>
@@ -18527,10 +18545,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="Q185" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -18539,7 +18557,7 @@
         <v>789</v>
       </c>
       <c r="AC185" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AD185" t="s">
         <v>789</v>
@@ -18592,10 +18610,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="Q186" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -18604,7 +18622,7 @@
         <v>789</v>
       </c>
       <c r="AC186" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AD186" t="s">
         <v>789</v>
@@ -18660,10 +18678,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="Q187" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -18672,7 +18690,7 @@
         <v>789</v>
       </c>
       <c r="AC187" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AD187" t="s">
         <v>789</v>
@@ -18725,10 +18743,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="Q188" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -18737,7 +18755,7 @@
         <v>789</v>
       </c>
       <c r="AC188" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AD188" t="s">
         <v>789</v>
@@ -18790,10 +18808,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Q189" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -18802,7 +18820,7 @@
         <v>789</v>
       </c>
       <c r="AC189" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AD189" t="s">
         <v>789</v>
@@ -18849,10 +18867,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="Q190" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -18861,7 +18879,7 @@
         <v>789</v>
       </c>
       <c r="AC190" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AD190" t="s">
         <v>789</v>
@@ -18908,10 +18926,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q191" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -18920,7 +18938,7 @@
         <v>789</v>
       </c>
       <c r="AC191" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AD191" t="s">
         <v>789</v>
@@ -18967,10 +18985,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Q192" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -18979,7 +18997,7 @@
         <v>789</v>
       </c>
       <c r="AC192" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AD192" t="s">
         <v>789</v>
@@ -19032,10 +19050,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="Q193" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -19044,7 +19062,7 @@
         <v>789</v>
       </c>
       <c r="AC193" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD193" t="s">
         <v>789</v>
@@ -19091,10 +19109,10 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q194" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -19103,7 +19121,7 @@
         <v>789</v>
       </c>
       <c r="AC194" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AD194" t="s">
         <v>789</v>
@@ -19153,10 +19171,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="Q195" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -19165,7 +19183,7 @@
         <v>789</v>
       </c>
       <c r="AC195" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AD195" t="s">
         <v>789</v>
@@ -19215,10 +19233,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="Q196" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -19227,7 +19245,7 @@
         <v>789</v>
       </c>
       <c r="AC196" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AD196" t="s">
         <v>789</v>
@@ -19280,10 +19298,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="Q197" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -19292,7 +19310,7 @@
         <v>789</v>
       </c>
       <c r="AC197" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AD197" t="s">
         <v>789</v>
@@ -19345,7 +19363,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -19410,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -19475,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -19540,7 +19558,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -19605,10 +19623,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="Q202" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -19617,7 +19635,7 @@
         <v>789</v>
       </c>
       <c r="AC202" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AD202" t="s">
         <v>789</v>
@@ -19670,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -19729,10 +19747,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Q204" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -19741,7 +19759,7 @@
         <v>789</v>
       </c>
       <c r="AC204" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AD204" t="s">
         <v>789</v>
@@ -19788,10 +19806,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Q205" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -19800,7 +19818,7 @@
         <v>789</v>
       </c>
       <c r="AC205" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AD205" t="s">
         <v>789</v>
@@ -19856,10 +19874,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="Q206" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -19868,7 +19886,7 @@
         <v>789</v>
       </c>
       <c r="AC206" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AD206" t="s">
         <v>789</v>
@@ -19924,10 +19942,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="Q207" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -19936,7 +19954,7 @@
         <v>789</v>
       </c>
       <c r="AC207" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AD207" t="s">
         <v>789</v>
@@ -19992,10 +20010,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Q208" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -20004,7 +20022,7 @@
         <v>789</v>
       </c>
       <c r="AC208" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AD208" t="s">
         <v>789</v>
@@ -20060,10 +20078,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="Q209" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -20072,7 +20090,7 @@
         <v>789</v>
       </c>
       <c r="AC209" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AD209" t="s">
         <v>789</v>
@@ -20122,10 +20140,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="Q210" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -20134,7 +20152,7 @@
         <v>789</v>
       </c>
       <c r="AC210" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AD210" t="s">
         <v>789</v>
@@ -20190,10 +20208,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="Q211" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -20202,7 +20220,7 @@
         <v>789</v>
       </c>
       <c r="AC211" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD211" t="s">
         <v>789</v>
@@ -20255,10 +20273,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q212" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -20267,7 +20285,7 @@
         <v>789</v>
       </c>
       <c r="AC212" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AD212" t="s">
         <v>789</v>
@@ -20314,10 +20332,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q213" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -20326,7 +20344,7 @@
         <v>789</v>
       </c>
       <c r="AC213" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AD213" t="s">
         <v>789</v>
@@ -20379,10 +20397,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="Q214" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -20391,7 +20409,7 @@
         <v>789</v>
       </c>
       <c r="AC214" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AD214" t="s">
         <v>789</v>
@@ -20438,10 +20456,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="Q215" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -20450,7 +20468,7 @@
         <v>789</v>
       </c>
       <c r="AC215" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AD215" t="s">
         <v>789</v>
@@ -20500,10 +20518,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="Q216" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -20512,7 +20530,7 @@
         <v>789</v>
       </c>
       <c r="AC216" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AD216" t="s">
         <v>789</v>
@@ -20568,10 +20586,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="Q217" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -20580,7 +20598,7 @@
         <v>789</v>
       </c>
       <c r="AC217" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AD217" t="s">
         <v>789</v>
@@ -20636,10 +20654,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Q218" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -20648,7 +20666,7 @@
         <v>789</v>
       </c>
       <c r="AC218" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AD218" t="s">
         <v>789</v>
@@ -20704,10 +20722,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="Q219" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -20716,7 +20734,7 @@
         <v>789</v>
       </c>
       <c r="AC219" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AD219" t="s">
         <v>789</v>
@@ -20772,10 +20790,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="Q220" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -20784,7 +20802,7 @@
         <v>789</v>
       </c>
       <c r="AC220" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD220" t="s">
         <v>789</v>
@@ -20840,10 +20858,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q221" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -20852,7 +20870,7 @@
         <v>789</v>
       </c>
       <c r="AC221" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AD221" t="s">
         <v>789</v>
@@ -20908,10 +20926,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q222" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -20920,7 +20938,7 @@
         <v>789</v>
       </c>
       <c r="AC222" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AD222" t="s">
         <v>789</v>
@@ -20976,10 +20994,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Q223" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -20988,7 +21006,7 @@
         <v>789</v>
       </c>
       <c r="AC223" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AD223" t="s">
         <v>789</v>
@@ -21044,10 +21062,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Q224" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -21056,7 +21074,7 @@
         <v>789</v>
       </c>
       <c r="AC224" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AD224" t="s">
         <v>789</v>
@@ -21109,10 +21127,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q225" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -21121,7 +21139,7 @@
         <v>789</v>
       </c>
       <c r="AC225" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AD225" t="s">
         <v>789</v>
@@ -21177,10 +21195,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q226" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -21189,7 +21207,7 @@
         <v>789</v>
       </c>
       <c r="AC226" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AD226" t="s">
         <v>789</v>
@@ -21242,10 +21260,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Q227" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -21254,7 +21272,7 @@
         <v>789</v>
       </c>
       <c r="AC227" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AD227" t="s">
         <v>789</v>
@@ -21307,10 +21325,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="Q228" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -21319,7 +21337,7 @@
         <v>789</v>
       </c>
       <c r="AC228" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AD228" t="s">
         <v>789</v>
@@ -21372,10 +21390,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q229" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -21384,7 +21402,7 @@
         <v>789</v>
       </c>
       <c r="AC229" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AD229" t="s">
         <v>789</v>
@@ -21431,10 +21449,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q230" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -21443,7 +21461,7 @@
         <v>789</v>
       </c>
       <c r="AC230" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AD230" t="s">
         <v>789</v>
@@ -21496,10 +21514,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q231" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -21508,7 +21526,7 @@
         <v>789</v>
       </c>
       <c r="AC231" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AD231" t="s">
         <v>789</v>
@@ -21561,10 +21579,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q232" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -21573,7 +21591,7 @@
         <v>789</v>
       </c>
       <c r="AC232" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AD232" t="s">
         <v>789</v>
@@ -21623,10 +21641,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="Q233" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -21635,7 +21653,7 @@
         <v>789</v>
       </c>
       <c r="AC233" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AD233" t="s">
         <v>789</v>
@@ -21691,10 +21709,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Q234" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -21703,7 +21721,7 @@
         <v>789</v>
       </c>
       <c r="AC234" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AD234" t="s">
         <v>789</v>
@@ -21756,10 +21774,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q235" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -21768,7 +21786,7 @@
         <v>789</v>
       </c>
       <c r="AC235" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AD235" t="s">
         <v>789</v>
@@ -21821,10 +21839,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="Q236" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -21833,7 +21851,7 @@
         <v>789</v>
       </c>
       <c r="AC236" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AD236" t="s">
         <v>789</v>
@@ -21883,22 +21901,22 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
       </c>
       <c r="R237" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD237" t="s">
         <v>1092</v>
-      </c>
-      <c r="S237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC237" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>1093</v>
       </c>
       <c r="AE237" t="s">
         <v>789</v>
@@ -21948,22 +21966,22 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
       </c>
       <c r="R238" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD238" t="s">
         <v>1094</v>
-      </c>
-      <c r="S238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC238" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>1095</v>
       </c>
       <c r="AE238" t="s">
         <v>789</v>
@@ -21977,7 +21995,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -22004,22 +22022,22 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q239" t="s">
         <v>789</v>
       </c>
       <c r="R239" t="s">
+        <v>1095</v>
+      </c>
+      <c r="S239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD239" t="s">
         <v>1096</v>
-      </c>
-      <c r="S239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC239" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD239" t="s">
-        <v>1097</v>
       </c>
       <c r="AE239" t="s">
         <v>789</v>
@@ -22069,22 +22087,22 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
       </c>
       <c r="R240" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD240" t="s">
         <v>1098</v>
-      </c>
-      <c r="S240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD240" t="s">
-        <v>1099</v>
       </c>
       <c r="AE240" t="s">
         <v>789</v>
@@ -22134,13 +22152,13 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="S241" t="s">
         <v>789</v>
@@ -22149,7 +22167,7 @@
         <v>789</v>
       </c>
       <c r="AD241" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -22199,22 +22217,22 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
       </c>
       <c r="R242" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD242" t="s">
         <v>1100</v>
-      </c>
-      <c r="S242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC242" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD242" t="s">
-        <v>1101</v>
       </c>
       <c r="AE242" t="s">
         <v>789</v>
@@ -22264,7 +22282,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -22273,16 +22291,16 @@
         <v>789</v>
       </c>
       <c r="S243" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE243" t="s">
         <v>1102</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE243" t="s">
-        <v>1103</v>
       </c>
       <c r="AO243" s="9">
         <v>2358384846</v>
@@ -22329,10 +22347,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="Q244" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -22341,7 +22359,7 @@
         <v>789</v>
       </c>
       <c r="AC244" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AD244" t="s">
         <v>789</v>
@@ -22350,7 +22368,7 @@
         <v>789</v>
       </c>
       <c r="AO244" s="10" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -22391,10 +22409,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Q245" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -22403,7 +22421,7 @@
         <v>789</v>
       </c>
       <c r="AC245" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AD245" t="s">
         <v>789</v>
@@ -22453,10 +22471,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="Q246" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -22465,7 +22483,7 @@
         <v>789</v>
       </c>
       <c r="AC246" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AD246" t="s">
         <v>789</v>
@@ -22515,10 +22533,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="Q247" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -22527,7 +22545,7 @@
         <v>789</v>
       </c>
       <c r="AC247" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AD247" t="s">
         <v>789</v>
@@ -22577,10 +22595,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Q248" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -22589,7 +22607,7 @@
         <v>789</v>
       </c>
       <c r="AC248" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD248" t="s">
         <v>789</v>
@@ -22639,22 +22657,22 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="Q249" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="R249" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
       </c>
       <c r="AC249" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AD249" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -22707,10 +22725,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q250" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -22719,7 +22737,7 @@
         <v>789</v>
       </c>
       <c r="AC250" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AD250" t="s">
         <v>789</v>
@@ -22769,10 +22787,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q251" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -22781,7 +22799,7 @@
         <v>789</v>
       </c>
       <c r="AC251" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AD251" t="s">
         <v>789</v>
@@ -22831,10 +22849,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q252" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -22843,7 +22861,7 @@
         <v>789</v>
       </c>
       <c r="AC252" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AD252" t="s">
         <v>789</v>
@@ -22896,10 +22914,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="Q253" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -22908,7 +22926,7 @@
         <v>789</v>
       </c>
       <c r="AC253" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AD253" t="s">
         <v>789</v>
@@ -22958,10 +22976,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="Q254" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -22970,7 +22988,7 @@
         <v>789</v>
       </c>
       <c r="AC254" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AD254" t="s">
         <v>789</v>
@@ -23017,28 +23035,28 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q255" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R255" t="s">
         <v>789</v>
       </c>
       <c r="S255" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AC255" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AD255" t="s">
         <v>789</v>
       </c>
       <c r="AE255" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AO255" s="10" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -23082,25 +23100,25 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q256" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R256" t="s">
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="AC256" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AD256" t="s">
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
@@ -23141,10 +23159,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="Q257" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -23153,7 +23171,7 @@
         <v>789</v>
       </c>
       <c r="AC257" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD257" t="s">
         <v>789</v>
@@ -23206,10 +23224,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="Q258" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -23218,7 +23236,7 @@
         <v>789</v>
       </c>
       <c r="AC258" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AD258" t="s">
         <v>789</v>
@@ -23268,7 +23286,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -23277,16 +23295,16 @@
         <v>789</v>
       </c>
       <c r="S259" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE259" t="s">
         <v>1119</v>
-      </c>
-      <c r="AC259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE259" t="s">
-        <v>1120</v>
       </c>
       <c r="AO259" s="9">
         <v>613592902</v>
@@ -23330,10 +23348,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="Q260" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -23342,7 +23360,7 @@
         <v>789</v>
       </c>
       <c r="AC260" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AD260" t="s">
         <v>789</v>
@@ -23389,10 +23407,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="Q261" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -23401,7 +23419,7 @@
         <v>789</v>
       </c>
       <c r="AC261" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AD261" t="s">
         <v>789</v>
@@ -23451,10 +23469,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="Q262" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -23463,7 +23481,7 @@
         <v>789</v>
       </c>
       <c r="AC262" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AD262" t="s">
         <v>789</v>
@@ -23513,10 +23531,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="Q263" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -23525,7 +23543,7 @@
         <v>789</v>
       </c>
       <c r="AC263" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AD263" t="s">
         <v>789</v>
@@ -23578,10 +23596,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="Q264" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -23590,7 +23608,7 @@
         <v>789</v>
       </c>
       <c r="AC264" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AD264" t="s">
         <v>789</v>
@@ -23637,10 +23655,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q265" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -23649,7 +23667,7 @@
         <v>789</v>
       </c>
       <c r="AC265" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AD265" t="s">
         <v>789</v>
@@ -23699,10 +23717,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="Q266" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -23711,7 +23729,7 @@
         <v>789</v>
       </c>
       <c r="AC266" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AD266" t="s">
         <v>789</v>
@@ -23761,7 +23779,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -23770,16 +23788,16 @@
         <v>789</v>
       </c>
       <c r="S267" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE267" t="s">
         <v>1128</v>
-      </c>
-      <c r="AC267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD267" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE267" t="s">
-        <v>1129</v>
       </c>
       <c r="AO267" s="9">
         <v>1288516250</v>
@@ -23826,28 +23844,28 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="Q268" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="AC268" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AD268" t="s">
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="AO268" s="10" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -23888,10 +23906,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="Q269" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -23900,7 +23918,7 @@
         <v>789</v>
       </c>
       <c r="AC269" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AD269" t="s">
         <v>789</v>
@@ -23909,7 +23927,7 @@
         <v>789</v>
       </c>
       <c r="AO269" s="10" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -23953,10 +23971,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Q270" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -23965,7 +23983,7 @@
         <v>789</v>
       </c>
       <c r="AC270" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AD270" t="s">
         <v>789</v>
@@ -24021,10 +24039,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="Q271" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -24033,7 +24051,7 @@
         <v>789</v>
       </c>
       <c r="AC271" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AD271" t="s">
         <v>789</v>
@@ -24080,10 +24098,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="Q272" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -24092,7 +24110,7 @@
         <v>789</v>
       </c>
       <c r="AC272" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AD272" t="s">
         <v>789</v>
@@ -24145,10 +24163,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="Q273" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -24157,7 +24175,7 @@
         <v>789</v>
       </c>
       <c r="AC273" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AD273" t="s">
         <v>789</v>
@@ -24210,10 +24228,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="Q274" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -24222,7 +24240,7 @@
         <v>789</v>
       </c>
       <c r="AC274" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AD274" t="s">
         <v>789</v>
@@ -24231,7 +24249,7 @@
         <v>789</v>
       </c>
       <c r="AO274" s="10" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -24272,10 +24290,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="Q275" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -24284,7 +24302,7 @@
         <v>789</v>
       </c>
       <c r="AC275" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AD275" t="s">
         <v>789</v>
@@ -24331,10 +24349,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="Q276" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -24343,7 +24361,7 @@
         <v>789</v>
       </c>
       <c r="AC276" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AD276" t="s">
         <v>789</v>
@@ -24390,10 +24408,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="Q277" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -24402,7 +24420,7 @@
         <v>789</v>
       </c>
       <c r="AC277" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AD277" t="s">
         <v>789</v>
@@ -24449,10 +24467,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="Q278" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -24461,7 +24479,7 @@
         <v>789</v>
       </c>
       <c r="AC278" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AD278" t="s">
         <v>789</v>
@@ -24475,10 +24493,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C279" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -24508,10 +24526,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="Q279" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -24520,7 +24538,7 @@
         <v>789</v>
       </c>
       <c r="AC279" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AD279" t="s">
         <v>789</v>
@@ -24567,10 +24585,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="Q280" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -24579,7 +24597,7 @@
         <v>789</v>
       </c>
       <c r="AC280" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AD280" t="s">
         <v>789</v>
@@ -24626,10 +24644,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="Q281" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -24638,7 +24656,7 @@
         <v>789</v>
       </c>
       <c r="AC281" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AD281" t="s">
         <v>789</v>
@@ -24685,10 +24703,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="Q282" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -24697,7 +24715,7 @@
         <v>789</v>
       </c>
       <c r="AC282" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AD282" t="s">
         <v>789</v>
@@ -24744,10 +24762,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="Q283" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -24756,7 +24774,7 @@
         <v>789</v>
       </c>
       <c r="AC283" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AD283" t="s">
         <v>789</v>
@@ -24803,10 +24821,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="Q284" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -24815,7 +24833,7 @@
         <v>789</v>
       </c>
       <c r="AC284" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD284" t="s">
         <v>789</v>
@@ -24862,10 +24880,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Q285" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -24874,7 +24892,7 @@
         <v>789</v>
       </c>
       <c r="AC285" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD285" t="s">
         <v>789</v>
@@ -24921,10 +24939,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q286" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -24933,7 +24951,7 @@
         <v>789</v>
       </c>
       <c r="AC286" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AD286" t="s">
         <v>789</v>
@@ -24980,10 +24998,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q287" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -24992,7 +25010,7 @@
         <v>789</v>
       </c>
       <c r="AC287" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AD287" t="s">
         <v>789</v>
@@ -25039,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="Q288" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -25051,7 +25069,7 @@
         <v>789</v>
       </c>
       <c r="AC288" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AD288" t="s">
         <v>789</v>
@@ -25101,10 +25119,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q289" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -25113,7 +25131,7 @@
         <v>789</v>
       </c>
       <c r="AC289" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AD289" t="s">
         <v>789</v>
@@ -25163,10 +25181,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q290" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -25175,7 +25193,7 @@
         <v>789</v>
       </c>
       <c r="AC290" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AD290" t="s">
         <v>789</v>
@@ -25225,10 +25243,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q291" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -25237,7 +25255,7 @@
         <v>789</v>
       </c>
       <c r="AC291" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AD291" t="s">
         <v>789</v>
@@ -25254,10 +25272,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C292" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -25293,13 +25311,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="R292" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AD292" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -25310,16 +25328,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C293" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -25352,13 +25370,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="R293" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AD293" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -25369,13 +25387,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C294" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D294" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -25411,13 +25429,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="R294" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AD294" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -25428,16 +25446,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C295" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -25470,13 +25488,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="R295" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AD295" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -25487,16 +25505,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C296" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D296" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E296" t="s">
         <v>1671</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1673</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -25529,13 +25547,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="R296" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="AD296" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -25546,16 +25564,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C297" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D297" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E297" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -25588,13 +25606,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="R297" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AD297" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -25605,16 +25623,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C298" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D298" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E298" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -25644,13 +25662,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="R298" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="AD298" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -25661,16 +25679,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C299" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -25703,7 +25721,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -25714,16 +25732,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C300" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D300" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E300" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -25756,13 +25774,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="S300" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="AE300" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -25773,16 +25791,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C301" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -25815,13 +25833,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="S301" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AE301" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -25832,19 +25850,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="C302" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G302" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -25871,13 +25889,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="S302" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="AE302" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -25888,22 +25906,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C303" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D303" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E303" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -25930,13 +25948,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="S303" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AE303" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -25947,16 +25965,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C304" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D304" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="E304" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -25983,13 +26001,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="S304" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="AE304" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -26000,16 +26018,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C305" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -26042,13 +26060,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="S305" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="AE305" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -26059,16 +26077,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="C306" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D306" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -26101,13 +26119,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="S306" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="AE306" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -26118,16 +26136,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C307" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D307" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E307" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -26160,13 +26178,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="S307" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="AE307" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -26177,16 +26195,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E308" t="s">
         <v>1713</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1715</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -26219,13 +26237,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="S308" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="AE308" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A2228-320A-46C7-8136-B50429388747}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D092DD-8A05-4FD7-8FCA-6314F275E3E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1833">
   <si>
     <t>nickName</t>
   </si>
@@ -5483,6 +5483,51 @@
   </si>
   <si>
     <t>[69930167]</t>
+  </si>
+  <si>
+    <t>[240064189]</t>
+  </si>
+  <si>
+    <t>[107957152]</t>
+  </si>
+  <si>
+    <t>[240064544]</t>
+  </si>
+  <si>
+    <t>[107987185]</t>
+  </si>
+  <si>
+    <t>[107977099]</t>
+  </si>
+  <si>
+    <t>[240063985]</t>
+  </si>
+  <si>
+    <t>[238221594]</t>
+  </si>
+  <si>
+    <t>[106006814]</t>
+  </si>
+  <si>
+    <t>Bwipo</t>
+  </si>
+  <si>
+    <t>Gabriël </t>
+  </si>
+  <si>
+    <t>Rau</t>
+  </si>
+  <si>
+    <t>bwipo_2018.png</t>
+  </si>
+  <si>
+    <t>[38937944,37841420]</t>
+  </si>
+  <si>
+    <t>[35769412,34428877]</t>
+  </si>
+  <si>
+    <t>3092505395</t>
   </si>
 </sst>
 </file>
@@ -5874,10 +5919,10 @@
   <dimension ref="A1:AQ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC63" sqref="AC63"/>
+      <selection pane="bottomRight" activeCell="AF318" sqref="AF318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6314,7 +6359,7 @@
         <v>1796</v>
       </c>
       <c r="S5" t="s">
-        <v>789</v>
+        <v>1818</v>
       </c>
       <c r="AC5" t="s">
         <v>789</v>
@@ -6323,7 +6368,7 @@
         <v>1797</v>
       </c>
       <c r="AE5" t="s">
-        <v>789</v>
+        <v>1819</v>
       </c>
       <c r="AO5" s="9">
         <v>344538810</v>
@@ -6527,7 +6572,7 @@
         <v>805</v>
       </c>
       <c r="S8" t="s">
-        <v>789</v>
+        <v>1823</v>
       </c>
       <c r="AC8" t="s">
         <v>789</v>
@@ -6536,7 +6581,7 @@
         <v>806</v>
       </c>
       <c r="AE8" t="s">
-        <v>789</v>
+        <v>1822</v>
       </c>
       <c r="AO8" s="9">
         <v>627395451</v>
@@ -6737,7 +6782,7 @@
         <v>809</v>
       </c>
       <c r="S11" t="s">
-        <v>789</v>
+        <v>1820</v>
       </c>
       <c r="AC11" t="s">
         <v>810</v>
@@ -6746,7 +6791,7 @@
         <v>811</v>
       </c>
       <c r="AE11" t="s">
-        <v>789</v>
+        <v>1821</v>
       </c>
       <c r="AO11" s="11">
         <v>2358219158</v>
@@ -15422,7 +15467,7 @@
         <v>789</v>
       </c>
       <c r="S137" t="s">
-        <v>789</v>
+        <v>1824</v>
       </c>
       <c r="AC137" t="s">
         <v>1003</v>
@@ -15431,7 +15476,7 @@
         <v>789</v>
       </c>
       <c r="AE137" t="s">
-        <v>789</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.25">
@@ -26250,7 +26295,60 @@
       </c>
     </row>
     <row r="309" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
+      <c r="A309" s="2">
+        <v>990073</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G309" t="s">
+        <v>772</v>
+      </c>
+      <c r="H309" t="s">
+        <v>759</v>
+      </c>
+      <c r="I309" t="s">
+        <v>759</v>
+      </c>
+      <c r="J309" t="s">
+        <v>760</v>
+      </c>
+      <c r="K309" t="s">
+        <v>32</v>
+      </c>
+      <c r="L309">
+        <v>201</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309">
+        <v>4</v>
+      </c>
+      <c r="O309" t="b">
+        <v>1</v>
+      </c>
+      <c r="P309" t="s">
+        <v>1829</v>
+      </c>
+      <c r="S309" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AE309" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AO309" s="9" t="s">
+        <v>1832</v>
+      </c>
     </row>
     <row r="310" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
@@ -26268,6 +26366,9 @@
   <autoFilter ref="A1:AQ308" xr:uid="{E35BDB71-4614-43CB-874F-BBE88721387F}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AO309" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D092DD-8A05-4FD7-8FCA-6314F275E3E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D55072-F348-4B79-8717-D5394203296E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEAMS" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROS!$A$1:$AQ$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROS!$A$1:$AR$309</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="1835">
   <si>
     <t>nickName</t>
   </si>
@@ -5528,6 +5528,12 @@
   </si>
   <si>
     <t>3092505395</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>['msi2018']</t>
   </si>
 </sst>
 </file>
@@ -5916,13 +5922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ313"/>
+  <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF318" sqref="AF318"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5959,7 +5965,7 @@
     <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6089,8 +6095,11 @@
       <c r="AQ1" s="3" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" s="3" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101001</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>797258274</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>101002</v>
       </c>
@@ -6232,7 +6241,7 @@
         <v>1571431178</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>101003</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>1029142980</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101004</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>344538810</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>101005</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>2967174322</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>102001</v>
       </c>
@@ -6516,7 +6525,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>102002</v>
       </c>
@@ -6587,7 +6596,7 @@
         <v>627395451</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>102003</v>
       </c>
@@ -6658,7 +6667,7 @@
         <v>409736208</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>102004</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>1891679210</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>102005</v>
       </c>
@@ -6797,7 +6806,7 @@
         <v>2358219158</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>103001</v>
       </c>
@@ -6868,7 +6877,7 @@
         <v>606721954</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>103002</v>
       </c>
@@ -6936,7 +6945,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>103003</v>
       </c>
@@ -7004,7 +7013,7 @@
         <v>2842441900</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>103004</v>
       </c>
@@ -7075,7 +7084,7 @@
         <v>1549711460</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>103005</v>
       </c>
@@ -9331,7 +9340,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>109004</v>
       </c>
@@ -9402,7 +9411,7 @@
         <v>2884184449</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>109005</v>
       </c>
@@ -9470,7 +9479,7 @@
         <v>2802746749</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>110001</v>
       </c>
@@ -9538,7 +9547,7 @@
         <v>115542264</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>110002</v>
       </c>
@@ -9606,7 +9615,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>110003</v>
       </c>
@@ -9677,7 +9686,7 @@
         <v>2870393113</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>110004</v>
       </c>
@@ -9748,7 +9757,7 @@
         <v>3180805950</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>110005</v>
       </c>
@@ -9819,7 +9828,7 @@
         <v>438136706</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>201001</v>
       </c>
@@ -9890,7 +9899,7 @@
         <v>498051521</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>201002</v>
       </c>
@@ -9961,7 +9970,7 @@
         <v>4910628093</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>201003</v>
       </c>
@@ -10032,7 +10041,7 @@
         <v>2996912843</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>201004</v>
       </c>
@@ -10102,8 +10111,11 @@
       <c r="AO59" s="9">
         <v>881827464</v>
       </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AR59" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>201005</v>
       </c>
@@ -10174,7 +10186,7 @@
         <v>2180891672</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>202001</v>
       </c>
@@ -10236,7 +10248,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>202002</v>
       </c>
@@ -10307,7 +10319,7 @@
         <v>189438124</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>202003</v>
       </c>
@@ -10378,7 +10390,7 @@
         <v>1648029396</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>202004</v>
       </c>
@@ -26363,7 +26375,7 @@
       <c r="A313" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ308" xr:uid="{E35BDB71-4614-43CB-874F-BBE88721387F}"/>
+  <autoFilter ref="A1:AR309" xr:uid="{BA6111F9-BD81-4878-B56C-AE66D059C8C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D55072-F348-4B79-8717-D5394203296E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADC61F7-155B-4896-B623-E9DBD7D02F4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROS" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROS!$A$1:$AR$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEAMS!$A$1:$K$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5255" uniqueCount="2175">
   <si>
     <t>nickName</t>
   </si>
@@ -5534,6 +5535,1026 @@
   </si>
   <si>
     <t>['msi2018']</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>teamTag</t>
+  </si>
+  <si>
+    <t>coach.firstName</t>
+  </si>
+  <si>
+    <t>coach.lastName</t>
+  </si>
+  <si>
+    <t>coach.nickName</t>
+  </si>
+  <si>
+    <t>solomid</t>
+  </si>
+  <si>
+    <t>Team SoloMid</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>logo_tsm_2017.png</t>
+  </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Naidu</t>
+  </si>
+  <si>
+    <t>immortals</t>
+  </si>
+  <si>
+    <t>Immortals</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>logo_imt_2017.png</t>
+  </si>
+  <si>
+    <t>Sang-su</t>
+  </si>
+  <si>
+    <t>SSONG</t>
+  </si>
+  <si>
+    <t>counterlogicgaming</t>
+  </si>
+  <si>
+    <t>Counter Logic Gaming</t>
+  </si>
+  <si>
+    <t>CLG</t>
+  </si>
+  <si>
+    <t>logo_clg_2017.png</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Zikzlol</t>
+  </si>
+  <si>
+    <t>cloud9</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>logo_c9_2017.png</t>
+  </si>
+  <si>
+    <t>Bok</t>
+  </si>
+  <si>
+    <t>Han-gyu</t>
+  </si>
+  <si>
+    <t>Reapered</t>
+  </si>
+  <si>
+    <t>dignitas</t>
+  </si>
+  <si>
+    <t>Team Dignitas</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>logo_dig_2017.png</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Roberson</t>
+  </si>
+  <si>
+    <t>Cop</t>
+  </si>
+  <si>
+    <t>teamenvy</t>
+  </si>
+  <si>
+    <t>Team EnVyUs</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>logo_nv_2017.png</t>
+  </si>
+  <si>
+    <t>Dong Hwan</t>
+  </si>
+  <si>
+    <t>viOLet</t>
+  </si>
+  <si>
+    <t>flyquest</t>
+  </si>
+  <si>
+    <t>FlyQuest</t>
+  </si>
+  <si>
+    <t>FLY</t>
+  </si>
+  <si>
+    <t>logo_fly_2017.png</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Slotkin</t>
+  </si>
+  <si>
+    <t>ThinkCard</t>
+  </si>
+  <si>
+    <t>echofox</t>
+  </si>
+  <si>
+    <t>Echo Fox</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>logo_fox_2017.png</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Inero</t>
+  </si>
+  <si>
+    <t>teamliquid</t>
+  </si>
+  <si>
+    <t>Team Liquid</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>logo_tl_2017.png</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Nu-ri</t>
+  </si>
+  <si>
+    <t>phoenix1</t>
+  </si>
+  <si>
+    <t>Phoenix1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>logo_p1_2017.png</t>
+  </si>
+  <si>
+    <t>Sang-chul</t>
+  </si>
+  <si>
+    <t>goldenguardians</t>
+  </si>
+  <si>
+    <t>Golden Guardians</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>logo_gg_2017.png</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>opticgaming</t>
+  </si>
+  <si>
+    <t>OpTic Gaming</t>
+  </si>
+  <si>
+    <t>OTG</t>
+  </si>
+  <si>
+    <t>logo_otg_2017.png</t>
+  </si>
+  <si>
+    <t>clutchgaming</t>
+  </si>
+  <si>
+    <t>Clutch Gaming</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>logo_cg_2017.png</t>
+  </si>
+  <si>
+    <t>100thieves</t>
+  </si>
+  <si>
+    <t>100 Thieves</t>
+  </si>
+  <si>
+    <t>logo_100_2017.png</t>
+  </si>
+  <si>
+    <t>fnatic</t>
+  </si>
+  <si>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>FNC</t>
+  </si>
+  <si>
+    <t>logo_fnc_2017.png</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Falco</t>
+  </si>
+  <si>
+    <t>g2esports</t>
+  </si>
+  <si>
+    <t>G2 Esports</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>logo_g2_2017.png</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Steltenpool</t>
+  </si>
+  <si>
+    <t>YoungBuck</t>
+  </si>
+  <si>
+    <t>misfits</t>
+  </si>
+  <si>
+    <t>Misfits</t>
+  </si>
+  <si>
+    <t>MSF</t>
+  </si>
+  <si>
+    <t>logo_msf_2017.png</t>
+  </si>
+  <si>
+    <t>Hussain</t>
+  </si>
+  <si>
+    <t>Moosvi</t>
+  </si>
+  <si>
+    <t>Daku</t>
+  </si>
+  <si>
+    <t>roccat</t>
+  </si>
+  <si>
+    <t>ROCCAT</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>logo_roc_2017.png</t>
+  </si>
+  <si>
+    <t>Lohmann</t>
+  </si>
+  <si>
+    <t>GrabbZ</t>
+  </si>
+  <si>
+    <t>h2k</t>
+  </si>
+  <si>
+    <t>H2K</t>
+  </si>
+  <si>
+    <t>logo_h2k_2017.png</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Hammad</t>
+  </si>
+  <si>
+    <t>pr0lly</t>
+  </si>
+  <si>
+    <t>unicornsoflove</t>
+  </si>
+  <si>
+    <t>Unicorns of Love</t>
+  </si>
+  <si>
+    <t>UOL</t>
+  </si>
+  <si>
+    <t>logo_uol_2017.png</t>
+  </si>
+  <si>
+    <t>Mallant</t>
+  </si>
+  <si>
+    <t>Sheepy</t>
+  </si>
+  <si>
+    <t>splyce</t>
+  </si>
+  <si>
+    <t>Splyce</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>logo_spy_2017.png</t>
+  </si>
+  <si>
+    <t>Fayan</t>
+  </si>
+  <si>
+    <t>Pertijs</t>
+  </si>
+  <si>
+    <t>Gevous</t>
+  </si>
+  <si>
+    <t>vitality</t>
+  </si>
+  <si>
+    <t>Team Vitality</t>
+  </si>
+  <si>
+    <t>VIT</t>
+  </si>
+  <si>
+    <t>logo_vit_2017.png</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Mebdi</t>
+  </si>
+  <si>
+    <t>YamatoCannon</t>
+  </si>
+  <si>
+    <t>schalke04</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>logo_s04_2017.png</t>
+  </si>
+  <si>
+    <t>Micheal</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>giantsgaming</t>
+  </si>
+  <si>
+    <t>Giants Gaming</t>
+  </si>
+  <si>
+    <t>GIA</t>
+  </si>
+  <si>
+    <t>logo_gia_2017.png</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>Guilhoto</t>
+  </si>
+  <si>
+    <t>longzhu</t>
+  </si>
+  <si>
+    <t>Longzhu Gaming</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>logo_lz_2017.png</t>
+  </si>
+  <si>
+    <t>Jung-su</t>
+  </si>
+  <si>
+    <t>ktrolster</t>
+  </si>
+  <si>
+    <t>kt Rolster</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>logo_kt_2017.png</t>
+  </si>
+  <si>
+    <t>Ji-hun</t>
+  </si>
+  <si>
+    <t>samsunggalaxy</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy</t>
+  </si>
+  <si>
+    <t>SSG</t>
+  </si>
+  <si>
+    <t>logo_ssg_2017.png</t>
+  </si>
+  <si>
+    <t>Yeo</t>
+  </si>
+  <si>
+    <t>Chang-dong</t>
+  </si>
+  <si>
+    <t>TrAce</t>
+  </si>
+  <si>
+    <t>sktelecomt1</t>
+  </si>
+  <si>
+    <t>SK Telecom T1</t>
+  </si>
+  <si>
+    <t>SKT</t>
+  </si>
+  <si>
+    <t>logo_skt_2017.png</t>
+  </si>
+  <si>
+    <t>Jeong-gyun</t>
+  </si>
+  <si>
+    <t>kkOma</t>
+  </si>
+  <si>
+    <t>afreecafreecs</t>
+  </si>
+  <si>
+    <t>Afreeca Freecs</t>
+  </si>
+  <si>
+    <t>AFS</t>
+  </si>
+  <si>
+    <t>logo_afs_2017.png</t>
+  </si>
+  <si>
+    <t>Yeon-sung</t>
+  </si>
+  <si>
+    <t>iloveoov</t>
+  </si>
+  <si>
+    <t>jinairgreenwings</t>
+  </si>
+  <si>
+    <t>Jin Air GreenWings</t>
+  </si>
+  <si>
+    <t>JAG</t>
+  </si>
+  <si>
+    <t>logo_jag_2017.png</t>
+  </si>
+  <si>
+    <t>Sang-yong</t>
+  </si>
+  <si>
+    <t>roxtigers</t>
+  </si>
+  <si>
+    <t>ROX Tigers</t>
+  </si>
+  <si>
+    <t>ROX</t>
+  </si>
+  <si>
+    <t>logo_rox_2017.png</t>
+  </si>
+  <si>
+    <t>Hyun-jong</t>
+  </si>
+  <si>
+    <t>mvp</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>logo_mvp_2017.png</t>
+  </si>
+  <si>
+    <t>Jae-hwan</t>
+  </si>
+  <si>
+    <t>kongdoomonsters</t>
+  </si>
+  <si>
+    <t>Kongdoo Monsters</t>
+  </si>
+  <si>
+    <t>KDM</t>
+  </si>
+  <si>
+    <t>logo_kdm_2017.png</t>
+  </si>
+  <si>
+    <t>bbqolivers</t>
+  </si>
+  <si>
+    <t>BBQ Olivers</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>logo_bbq_2017.png</t>
+  </si>
+  <si>
+    <t>ever8winners</t>
+  </si>
+  <si>
+    <t>Ever8 Winners</t>
+  </si>
+  <si>
+    <t>E8W</t>
+  </si>
+  <si>
+    <t>logo_e8w_2017.png</t>
+  </si>
+  <si>
+    <t>ksvesports</t>
+  </si>
+  <si>
+    <t>KSV eSports</t>
+  </si>
+  <si>
+    <t>KSV</t>
+  </si>
+  <si>
+    <t>logo_ksv_2017.png</t>
+  </si>
+  <si>
+    <t>Woo-beom</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>kingzonedragonx</t>
+  </si>
+  <si>
+    <t>Kingzone DragonX</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>logo_kz_2017.png</t>
+  </si>
+  <si>
+    <t>Dong-hoon</t>
+  </si>
+  <si>
+    <t>Hirai</t>
+  </si>
+  <si>
+    <t>edward</t>
+  </si>
+  <si>
+    <t>Edward Gaming</t>
+  </si>
+  <si>
+    <t>EDG</t>
+  </si>
+  <si>
+    <t>logo_edg_2017.png</t>
+  </si>
+  <si>
+    <t>No-chul</t>
+  </si>
+  <si>
+    <t>NoFe</t>
+  </si>
+  <si>
+    <t>teamwe</t>
+  </si>
+  <si>
+    <t>Team WE</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>logo_we_2017.png</t>
+  </si>
+  <si>
+    <t>Sung-young</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>invictus</t>
+  </si>
+  <si>
+    <t>Invictus Gaming</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>logo_ig_2017.png</t>
+  </si>
+  <si>
+    <t>Yao</t>
+  </si>
+  <si>
+    <t>Yue</t>
+  </si>
+  <si>
+    <t>HoT</t>
+  </si>
+  <si>
+    <t>imay</t>
+  </si>
+  <si>
+    <t>IMay</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>logo_im_2017.png</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Dae-young</t>
+  </si>
+  <si>
+    <t>Kezman</t>
+  </si>
+  <si>
+    <t>royalnevergiveup</t>
+  </si>
+  <si>
+    <t>Royal Never Give Up</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>logo_rng_2017.png</t>
+  </si>
+  <si>
+    <t>omg</t>
+  </si>
+  <si>
+    <t>Oh my god</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>logo_omg_2017.png</t>
+  </si>
+  <si>
+    <t>Ying-Xiang</t>
+  </si>
+  <si>
+    <t>Tsukasa</t>
+  </si>
+  <si>
+    <t>newbee</t>
+  </si>
+  <si>
+    <t>Newbee</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>logo_nb_2017.png</t>
+  </si>
+  <si>
+    <t>suninggaming</t>
+  </si>
+  <si>
+    <t>Suning Gaming</t>
+  </si>
+  <si>
+    <t>SNG</t>
+  </si>
+  <si>
+    <t>logo_sng_2017.png</t>
+  </si>
+  <si>
+    <t>bilibiligaming</t>
+  </si>
+  <si>
+    <t>Bilibili Gaming</t>
+  </si>
+  <si>
+    <t>BLG</t>
+  </si>
+  <si>
+    <t>logo_bilibili_2017.png</t>
+  </si>
+  <si>
+    <t>funpluspheonix</t>
+  </si>
+  <si>
+    <t>FunPlus Pheonix</t>
+  </si>
+  <si>
+    <t>FPX</t>
+  </si>
+  <si>
+    <t>logo_funplusphoenix_2017.png</t>
+  </si>
+  <si>
+    <t>snakeesports</t>
+  </si>
+  <si>
+    <t>Snake Esports</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>logo_snakeesports_2017.png</t>
+  </si>
+  <si>
+    <t>vicigaming</t>
+  </si>
+  <si>
+    <t>Vici Gaming</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>logo_vicigaming_2017.png</t>
+  </si>
+  <si>
+    <t>jdgaming</t>
+  </si>
+  <si>
+    <t>JD Gaming</t>
+  </si>
+  <si>
+    <t>JDG</t>
+  </si>
+  <si>
+    <t>logo_jdgaming_2017.png</t>
+  </si>
+  <si>
+    <t>roguewarriors</t>
+  </si>
+  <si>
+    <t>Rogue Warriors</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>logo_roguewarriors_2017.png</t>
+  </si>
+  <si>
+    <t>topsportsgaming</t>
+  </si>
+  <si>
+    <t>Topsports Gaming</t>
+  </si>
+  <si>
+    <t>logo_topsportsgaming_2017.png</t>
+  </si>
+  <si>
+    <t>lgdgaming</t>
+  </si>
+  <si>
+    <t>LGD Gaming</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>logo_lgdgaming_2017.png</t>
+  </si>
+  <si>
+    <t>ahq</t>
+  </si>
+  <si>
+    <t>ahq e-Sports Club</t>
+  </si>
+  <si>
+    <t>AHQ</t>
+  </si>
+  <si>
+    <t>logo_ahq_2017.png</t>
+  </si>
+  <si>
+    <t>Ian-Fu</t>
+  </si>
+  <si>
+    <t>Backstairs</t>
+  </si>
+  <si>
+    <t>jteam</t>
+  </si>
+  <si>
+    <t>J Team</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t>logo_jt_2017.png</t>
+  </si>
+  <si>
+    <t>raisegaming</t>
+  </si>
+  <si>
+    <t>Raise Gaming</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>logo_rg_2017.png</t>
+  </si>
+  <si>
+    <t>Kung</t>
+  </si>
+  <si>
+    <t>Yu-Te</t>
+  </si>
+  <si>
+    <t>Domo</t>
+  </si>
+  <si>
+    <t>flashwolves</t>
+  </si>
+  <si>
+    <t>Flash Wolves</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>logo_fw_2017.png</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>Lu-Hsi</t>
+  </si>
+  <si>
+    <t>machi17</t>
+  </si>
+  <si>
+    <t>Machi17</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>logo_m17_2017.png</t>
+  </si>
+  <si>
+    <t>Shu</t>
+  </si>
+  <si>
+    <t>Guan-Zhi</t>
+  </si>
+  <si>
+    <t>Sucar</t>
+  </si>
+  <si>
+    <t>hkattitude</t>
+  </si>
+  <si>
+    <t>Hong Kong Attitude</t>
+  </si>
+  <si>
+    <t>HKA</t>
+  </si>
+  <si>
+    <t>logo_hka_2017.png</t>
+  </si>
+  <si>
+    <t>Pak Kan</t>
+  </si>
+  <si>
+    <t>grex</t>
+  </si>
+  <si>
+    <t>G-Rex</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>logo_grex_2017.png</t>
+  </si>
+  <si>
+    <t>teamafro</t>
+  </si>
+  <si>
+    <t>Team Afro</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>logo_afrogaming_2017.png</t>
+  </si>
+  <si>
+    <t>madteam</t>
+  </si>
+  <si>
+    <t>Mad Team</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>logo_madteam_2017.png</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -5924,11 +6945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26386,12 +27407,2040 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>760</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>760</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>760</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>760</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>760</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>760</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>760</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1892</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>760</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>760</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>760</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1907</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>760</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>760</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>760</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>760</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>760</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>760</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>760</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F19" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>760</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>760</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F21" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>760</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>760</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1971</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>760</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>760</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>760</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1989</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>760</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>302</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F27" t="s">
+        <v>338</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>303</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>760</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>304</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>760</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F30" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>760</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>306</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F31" t="s">
+        <v>426</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>760</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>307</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>760</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>308</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F33" t="s">
+        <v>433</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>760</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>309</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>760</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>310</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>760</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>760</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>312</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2045</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>760</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>313</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F38" t="s">
+        <v>418</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>760</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>401</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F39" t="s">
+        <v>437</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2057</v>
+      </c>
+      <c r="I39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" t="s">
+        <v>760</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I40" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40" t="s">
+        <v>760</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>403</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I41" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" t="s">
+        <v>760</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>404</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2077</v>
+      </c>
+      <c r="I42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J42" t="s">
+        <v>760</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>405</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2081</v>
+      </c>
+      <c r="I43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" t="s">
+        <v>760</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>406</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F44" t="s">
+        <v>459</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" t="s">
+        <v>760</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>407</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I45" t="s">
+        <v>155</v>
+      </c>
+      <c r="J45" t="s">
+        <v>760</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>408</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2095</v>
+      </c>
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" t="s">
+        <v>760</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>409</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I47" t="s">
+        <v>155</v>
+      </c>
+      <c r="J47" t="s">
+        <v>760</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>410</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48" t="s">
+        <v>760</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>411</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2107</v>
+      </c>
+      <c r="I49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" t="s">
+        <v>760</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>412</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" t="s">
+        <v>760</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>413</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I51" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" t="s">
+        <v>760</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J52" t="s">
+        <v>760</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>415</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D53" t="s">
+        <v>759</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2122</v>
+      </c>
+      <c r="I53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J53" t="s">
+        <v>760</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>416</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" t="s">
+        <v>760</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>501</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2131</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I55" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" t="s">
+        <v>760</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>502</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I56" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" t="s">
+        <v>760</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>503</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I57" t="s">
+        <v>211</v>
+      </c>
+      <c r="J57" t="s">
+        <v>760</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>504</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F58" t="s">
+        <v>470</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2149</v>
+      </c>
+      <c r="I58" t="s">
+        <v>211</v>
+      </c>
+      <c r="J58" t="s">
+        <v>760</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I59" t="s">
+        <v>211</v>
+      </c>
+      <c r="J59" t="s">
+        <v>760</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>506</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G60" t="s">
+        <v>469</v>
+      </c>
+      <c r="H60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" t="s">
+        <v>760</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>507</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I61" t="s">
+        <v>211</v>
+      </c>
+      <c r="J61" t="s">
+        <v>760</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>508</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2169</v>
+      </c>
+      <c r="I62" t="s">
+        <v>211</v>
+      </c>
+      <c r="J62" t="s">
+        <v>760</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>509</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I63" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" t="s">
+        <v>760</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K63" xr:uid="{EDBF67B8-77AA-43A4-8A86-C9B5D51E87C5}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADC61F7-155B-4896-B623-E9DBD7D02F4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9FB4B-CE29-40D3-A231-54E91A0303BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROS!$A$1:$AR$309</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEAMS!$A$1:$K$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEAMS!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5255" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="2175">
   <si>
     <t>nickName</t>
   </si>
@@ -6946,10 +6946,10 @@
   <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AR59" sqref="AR59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27407,7 +27407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -27431,7 +27431,7 @@
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>305</v>
       </c>
@@ -27465,8 +27465,11 @@
       <c r="K1" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -27501,7 +27504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -27536,7 +27539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -27571,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -27606,7 +27609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -27641,7 +27644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>106</v>
       </c>
@@ -27676,7 +27679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>107</v>
       </c>
@@ -27711,7 +27714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -27746,7 +27749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -27781,7 +27784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -27816,7 +27819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -27842,7 +27845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -27868,7 +27871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -27894,7 +27897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -27920,7 +27923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>201</v>
       </c>
@@ -27953,6 +27956,9 @@
       </c>
       <c r="K16" t="b">
         <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -29439,7 +29445,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K63" xr:uid="{EDBF67B8-77AA-43A4-8A86-C9B5D51E87C5}"/>
+  <autoFilter ref="A1:L1" xr:uid="{D4271EDE-385E-4EB2-8A87-9C434923D3B1}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9FB4B-CE29-40D3-A231-54E91A0303BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4869F69-08DD-4D50-BB19-AB1FD7D8A449}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6946,10 +6946,10 @@
   <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR59" sqref="AR59"/>
+      <selection pane="bottomRight" activeCell="S39" sqref="B39:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27426,8 +27426,8 @@
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27457,10 +27457,10 @@
         <v>1839</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>307</v>
@@ -27495,10 +27495,10 @@
         <v>1844</v>
       </c>
       <c r="I2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>760</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -27530,10 +27530,10 @@
         <v>1851</v>
       </c>
       <c r="I3" t="s">
+        <v>760</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>760</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -27565,10 +27565,10 @@
         <v>1858</v>
       </c>
       <c r="I4" t="s">
+        <v>760</v>
+      </c>
+      <c r="J4" t="s">
         <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>760</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -27600,10 +27600,10 @@
         <v>1865</v>
       </c>
       <c r="I5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>760</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -27635,10 +27635,10 @@
         <v>1872</v>
       </c>
       <c r="I6" t="s">
+        <v>760</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>760</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -27670,10 +27670,10 @@
         <v>1878</v>
       </c>
       <c r="I7" t="s">
+        <v>760</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>760</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -27705,10 +27705,10 @@
         <v>1885</v>
       </c>
       <c r="I8" t="s">
+        <v>760</v>
+      </c>
+      <c r="J8" t="s">
         <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>760</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -27740,10 +27740,10 @@
         <v>1892</v>
       </c>
       <c r="I9" t="s">
+        <v>760</v>
+      </c>
+      <c r="J9" t="s">
         <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>760</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -27775,10 +27775,10 @@
         <v>1898</v>
       </c>
       <c r="I10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J10" t="s">
         <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>760</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -27810,10 +27810,10 @@
         <v>254</v>
       </c>
       <c r="I11" t="s">
+        <v>760</v>
+      </c>
+      <c r="J11" t="s">
         <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>760</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -27836,10 +27836,10 @@
         <v>1907</v>
       </c>
       <c r="I12" t="s">
+        <v>760</v>
+      </c>
+      <c r="J12" t="s">
         <v>4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>760</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -27862,10 +27862,10 @@
         <v>1912</v>
       </c>
       <c r="I13" t="s">
+        <v>760</v>
+      </c>
+      <c r="J13" t="s">
         <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>760</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -27888,10 +27888,10 @@
         <v>1916</v>
       </c>
       <c r="I14" t="s">
+        <v>760</v>
+      </c>
+      <c r="J14" t="s">
         <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>760</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -27914,10 +27914,10 @@
         <v>1919</v>
       </c>
       <c r="I15" t="s">
+        <v>760</v>
+      </c>
+      <c r="J15" t="s">
         <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>760</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -27949,10 +27949,10 @@
         <v>1924</v>
       </c>
       <c r="I16" t="s">
+        <v>760</v>
+      </c>
+      <c r="J16" t="s">
         <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>760</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -27987,10 +27987,10 @@
         <v>1932</v>
       </c>
       <c r="I17" t="s">
+        <v>760</v>
+      </c>
+      <c r="J17" t="s">
         <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>760</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -28022,10 +28022,10 @@
         <v>1939</v>
       </c>
       <c r="I18" t="s">
+        <v>760</v>
+      </c>
+      <c r="J18" t="s">
         <v>32</v>
-      </c>
-      <c r="J18" t="s">
-        <v>760</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -28057,10 +28057,10 @@
         <v>1945</v>
       </c>
       <c r="I19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J19" t="s">
         <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>760</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -28092,10 +28092,10 @@
         <v>1951</v>
       </c>
       <c r="I20" t="s">
+        <v>760</v>
+      </c>
+      <c r="J20" t="s">
         <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>760</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -28127,10 +28127,10 @@
         <v>1957</v>
       </c>
       <c r="I21" t="s">
+        <v>760</v>
+      </c>
+      <c r="J21" t="s">
         <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>760</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -28162,10 +28162,10 @@
         <v>1964</v>
       </c>
       <c r="I22" t="s">
+        <v>760</v>
+      </c>
+      <c r="J22" t="s">
         <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>760</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -28197,10 +28197,10 @@
         <v>1971</v>
       </c>
       <c r="I23" t="s">
+        <v>760</v>
+      </c>
+      <c r="J23" t="s">
         <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>760</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -28232,10 +28232,10 @@
         <v>1978</v>
       </c>
       <c r="I24" t="s">
+        <v>760</v>
+      </c>
+      <c r="J24" t="s">
         <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>760</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -28267,10 +28267,10 @@
         <v>1984</v>
       </c>
       <c r="I25" t="s">
+        <v>760</v>
+      </c>
+      <c r="J25" t="s">
         <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>760</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -28302,10 +28302,10 @@
         <v>1908</v>
       </c>
       <c r="I26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J26" t="s">
         <v>66</v>
-      </c>
-      <c r="J26" t="s">
-        <v>760</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -28337,10 +28337,10 @@
         <v>1908</v>
       </c>
       <c r="I27" t="s">
+        <v>760</v>
+      </c>
+      <c r="J27" t="s">
         <v>66</v>
-      </c>
-      <c r="J27" t="s">
-        <v>760</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -28372,10 +28372,10 @@
         <v>2001</v>
       </c>
       <c r="I28" t="s">
+        <v>760</v>
+      </c>
+      <c r="J28" t="s">
         <v>66</v>
-      </c>
-      <c r="J28" t="s">
-        <v>760</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -28407,10 +28407,10 @@
         <v>2007</v>
       </c>
       <c r="I29" t="s">
+        <v>760</v>
+      </c>
+      <c r="J29" t="s">
         <v>66</v>
-      </c>
-      <c r="J29" t="s">
-        <v>760</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -28442,10 +28442,10 @@
         <v>2013</v>
       </c>
       <c r="I30" t="s">
+        <v>760</v>
+      </c>
+      <c r="J30" t="s">
         <v>66</v>
-      </c>
-      <c r="J30" t="s">
-        <v>760</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -28477,10 +28477,10 @@
         <v>1908</v>
       </c>
       <c r="I31" t="s">
+        <v>760</v>
+      </c>
+      <c r="J31" t="s">
         <v>66</v>
-      </c>
-      <c r="J31" t="s">
-        <v>760</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -28512,10 +28512,10 @@
         <v>1908</v>
       </c>
       <c r="I32" t="s">
+        <v>760</v>
+      </c>
+      <c r="J32" t="s">
         <v>66</v>
-      </c>
-      <c r="J32" t="s">
-        <v>760</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -28547,10 +28547,10 @@
         <v>1908</v>
       </c>
       <c r="I33" t="s">
+        <v>760</v>
+      </c>
+      <c r="J33" t="s">
         <v>66</v>
-      </c>
-      <c r="J33" t="s">
-        <v>760</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -28573,10 +28573,10 @@
         <v>2031</v>
       </c>
       <c r="I34" t="s">
+        <v>760</v>
+      </c>
+      <c r="J34" t="s">
         <v>66</v>
-      </c>
-      <c r="J34" t="s">
-        <v>760</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -28599,10 +28599,10 @@
         <v>2035</v>
       </c>
       <c r="I35" t="s">
+        <v>760</v>
+      </c>
+      <c r="J35" t="s">
         <v>66</v>
-      </c>
-      <c r="J35" t="s">
-        <v>760</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -28625,10 +28625,10 @@
         <v>2039</v>
       </c>
       <c r="I36" t="s">
+        <v>760</v>
+      </c>
+      <c r="J36" t="s">
         <v>66</v>
-      </c>
-      <c r="J36" t="s">
-        <v>760</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -28660,10 +28660,10 @@
         <v>2045</v>
       </c>
       <c r="I37" t="s">
+        <v>760</v>
+      </c>
+      <c r="J37" t="s">
         <v>66</v>
-      </c>
-      <c r="J37" t="s">
-        <v>760</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -28695,10 +28695,10 @@
         <v>2051</v>
       </c>
       <c r="I38" t="s">
+        <v>760</v>
+      </c>
+      <c r="J38" t="s">
         <v>66</v>
-      </c>
-      <c r="J38" t="s">
-        <v>760</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -28730,10 +28730,10 @@
         <v>2057</v>
       </c>
       <c r="I39" t="s">
+        <v>760</v>
+      </c>
+      <c r="J39" t="s">
         <v>155</v>
-      </c>
-      <c r="J39" t="s">
-        <v>760</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -28765,10 +28765,10 @@
         <v>2063</v>
       </c>
       <c r="I40" t="s">
+        <v>760</v>
+      </c>
+      <c r="J40" t="s">
         <v>155</v>
-      </c>
-      <c r="J40" t="s">
-        <v>760</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -28800,10 +28800,10 @@
         <v>2070</v>
       </c>
       <c r="I41" t="s">
+        <v>760</v>
+      </c>
+      <c r="J41" t="s">
         <v>155</v>
-      </c>
-      <c r="J41" t="s">
-        <v>760</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -28835,10 +28835,10 @@
         <v>2077</v>
       </c>
       <c r="I42" t="s">
+        <v>760</v>
+      </c>
+      <c r="J42" t="s">
         <v>155</v>
-      </c>
-      <c r="J42" t="s">
-        <v>760</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -28861,10 +28861,10 @@
         <v>2081</v>
       </c>
       <c r="I43" t="s">
+        <v>760</v>
+      </c>
+      <c r="J43" t="s">
         <v>155</v>
-      </c>
-      <c r="J43" t="s">
-        <v>760</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -28896,10 +28896,10 @@
         <v>2087</v>
       </c>
       <c r="I44" t="s">
+        <v>760</v>
+      </c>
+      <c r="J44" t="s">
         <v>155</v>
-      </c>
-      <c r="J44" t="s">
-        <v>760</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -28922,10 +28922,10 @@
         <v>2091</v>
       </c>
       <c r="I45" t="s">
+        <v>760</v>
+      </c>
+      <c r="J45" t="s">
         <v>155</v>
-      </c>
-      <c r="J45" t="s">
-        <v>760</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -28948,10 +28948,10 @@
         <v>2095</v>
       </c>
       <c r="I46" t="s">
+        <v>760</v>
+      </c>
+      <c r="J46" t="s">
         <v>155</v>
-      </c>
-      <c r="J46" t="s">
-        <v>760</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -28974,10 +28974,10 @@
         <v>2099</v>
       </c>
       <c r="I47" t="s">
+        <v>760</v>
+      </c>
+      <c r="J47" t="s">
         <v>155</v>
-      </c>
-      <c r="J47" t="s">
-        <v>760</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -29000,10 +29000,10 @@
         <v>2103</v>
       </c>
       <c r="I48" t="s">
+        <v>760</v>
+      </c>
+      <c r="J48" t="s">
         <v>155</v>
-      </c>
-      <c r="J48" t="s">
-        <v>760</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -29026,10 +29026,10 @@
         <v>2107</v>
       </c>
       <c r="I49" t="s">
+        <v>760</v>
+      </c>
+      <c r="J49" t="s">
         <v>155</v>
-      </c>
-      <c r="J49" t="s">
-        <v>760</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
@@ -29052,10 +29052,10 @@
         <v>2111</v>
       </c>
       <c r="I50" t="s">
+        <v>760</v>
+      </c>
+      <c r="J50" t="s">
         <v>155</v>
-      </c>
-      <c r="J50" t="s">
-        <v>760</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -29078,10 +29078,10 @@
         <v>2115</v>
       </c>
       <c r="I51" t="s">
+        <v>760</v>
+      </c>
+      <c r="J51" t="s">
         <v>155</v>
-      </c>
-      <c r="J51" t="s">
-        <v>760</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -29104,10 +29104,10 @@
         <v>2119</v>
       </c>
       <c r="I52" t="s">
+        <v>760</v>
+      </c>
+      <c r="J52" t="s">
         <v>155</v>
-      </c>
-      <c r="J52" t="s">
-        <v>760</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -29130,10 +29130,10 @@
         <v>2122</v>
       </c>
       <c r="I53" t="s">
+        <v>760</v>
+      </c>
+      <c r="J53" t="s">
         <v>155</v>
-      </c>
-      <c r="J53" t="s">
-        <v>760</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -29156,10 +29156,10 @@
         <v>2126</v>
       </c>
       <c r="I54" t="s">
+        <v>760</v>
+      </c>
+      <c r="J54" t="s">
         <v>155</v>
-      </c>
-      <c r="J54" t="s">
-        <v>760</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -29191,10 +29191,10 @@
         <v>2132</v>
       </c>
       <c r="I55" t="s">
+        <v>760</v>
+      </c>
+      <c r="J55" t="s">
         <v>211</v>
-      </c>
-      <c r="J55" t="s">
-        <v>760</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -29217,10 +29217,10 @@
         <v>2136</v>
       </c>
       <c r="I56" t="s">
+        <v>760</v>
+      </c>
+      <c r="J56" t="s">
         <v>211</v>
-      </c>
-      <c r="J56" t="s">
-        <v>760</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -29252,10 +29252,10 @@
         <v>2143</v>
       </c>
       <c r="I57" t="s">
+        <v>760</v>
+      </c>
+      <c r="J57" t="s">
         <v>211</v>
-      </c>
-      <c r="J57" t="s">
-        <v>760</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -29287,10 +29287,10 @@
         <v>2149</v>
       </c>
       <c r="I58" t="s">
+        <v>760</v>
+      </c>
+      <c r="J58" t="s">
         <v>211</v>
-      </c>
-      <c r="J58" t="s">
-        <v>760</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -29322,10 +29322,10 @@
         <v>2156</v>
       </c>
       <c r="I59" t="s">
+        <v>760</v>
+      </c>
+      <c r="J59" t="s">
         <v>211</v>
-      </c>
-      <c r="J59" t="s">
-        <v>760</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -29357,10 +29357,10 @@
         <v>379</v>
       </c>
       <c r="I60" t="s">
+        <v>760</v>
+      </c>
+      <c r="J60" t="s">
         <v>211</v>
-      </c>
-      <c r="J60" t="s">
-        <v>760</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -29383,10 +29383,10 @@
         <v>2165</v>
       </c>
       <c r="I61" t="s">
+        <v>760</v>
+      </c>
+      <c r="J61" t="s">
         <v>211</v>
-      </c>
-      <c r="J61" t="s">
-        <v>760</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
@@ -29409,10 +29409,10 @@
         <v>2169</v>
       </c>
       <c r="I62" t="s">
+        <v>760</v>
+      </c>
+      <c r="J62" t="s">
         <v>211</v>
-      </c>
-      <c r="J62" t="s">
-        <v>760</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -29435,10 +29435,10 @@
         <v>2173</v>
       </c>
       <c r="I63" t="s">
+        <v>760</v>
+      </c>
+      <c r="J63" t="s">
         <v>211</v>
-      </c>
-      <c r="J63" t="s">
-        <v>760</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>

--- a/private/STATIC_DATA_1.xlsx
+++ b/private/STATIC_DATA_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4869F69-08DD-4D50-BB19-AB1FD7D8A449}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44EC133-F0C1-40D4-9788-7AD8C262174F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROS" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="2435">
   <si>
     <t>nickName</t>
   </si>
@@ -3983,9 +3983,6 @@
     <t>[204500813, 207570975, 208756914]</t>
   </si>
   <si>
-    <t>jag_snowflower_2017.png</t>
-  </si>
-  <si>
     <t>[207151221, 6127074]</t>
   </si>
   <si>
@@ -6555,13 +6552,796 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>rainbow7</t>
+  </si>
+  <si>
+    <t>Rainbow 7</t>
+  </si>
+  <si>
+    <t>logo_rainbow7_2018.png</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>del Castillo</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>gambitesports</t>
+  </si>
+  <si>
+    <t>Gambit Esports</t>
+  </si>
+  <si>
+    <t>logo_gambitesports_2018.png</t>
+  </si>
+  <si>
+    <t>Igors</t>
+  </si>
+  <si>
+    <t>Radkevič</t>
+  </si>
+  <si>
+    <t>ATRemains</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>kaoslatingamers</t>
+  </si>
+  <si>
+    <t>Kaos Latin Gamers</t>
+  </si>
+  <si>
+    <t>logo_kaoslatingamers_2018.png</t>
+  </si>
+  <si>
+    <t>Misael</t>
+  </si>
+  <si>
+    <t>di Ciancia</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>ascensiongaming</t>
+  </si>
+  <si>
+    <t>Ascension Gaming</t>
+  </si>
+  <si>
+    <t>logo_ascensiongaming_2018.png</t>
+  </si>
+  <si>
+    <t>supermassive</t>
+  </si>
+  <si>
+    <t>BAUSuperMassive eSports</t>
+  </si>
+  <si>
+    <t>logo_supermassive_2018.png</t>
+  </si>
+  <si>
+    <t>direwolves</t>
+  </si>
+  <si>
+    <t>Dire Wolves</t>
+  </si>
+  <si>
+    <t>logo_direwolves_2018.png</t>
+  </si>
+  <si>
+    <t>logo_pentagram_2018.png</t>
+  </si>
+  <si>
+    <t>logo_kabumesports_2018.png</t>
+  </si>
+  <si>
+    <t>OCE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Kodama</t>
+  </si>
+  <si>
+    <t>hAFu</t>
+  </si>
+  <si>
+    <t>Nobushiro</t>
+  </si>
+  <si>
+    <t>pentagram</t>
+  </si>
+  <si>
+    <t>PENTAGRAM</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>kabumesports</t>
+  </si>
+  <si>
+    <t>KaBuM! e-Sports</t>
+  </si>
+  <si>
+    <t>Jean-François</t>
+  </si>
+  <si>
+    <t>Caron</t>
+  </si>
+  <si>
+    <t>Nuddle</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>KLG</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>PGM</t>
+  </si>
+  <si>
+    <t>KBM</t>
+  </si>
+  <si>
+    <t>Jirall</t>
+  </si>
+  <si>
+    <t>Oddie</t>
+  </si>
+  <si>
+    <t>Seiya</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Genthix</t>
+  </si>
+  <si>
+    <t>WhiteLotus</t>
+  </si>
+  <si>
+    <t>jirall_2018.png</t>
+  </si>
+  <si>
+    <t>oddie_2018.png</t>
+  </si>
+  <si>
+    <t>seiya_2018.png</t>
+  </si>
+  <si>
+    <t>manu_2018.png</t>
+  </si>
+  <si>
+    <t>genthix_2018.png</t>
+  </si>
+  <si>
+    <t>whitelotus_2018.png</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Sebastián Alonso Niño</t>
+  </si>
+  <si>
+    <t>Zavaleta</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>Édgar Ali Bracamontes</t>
+  </si>
+  <si>
+    <t>Munguía</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Polonsky</t>
+  </si>
+  <si>
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>PvPStejos</t>
+  </si>
+  <si>
+    <t>Diamondprox</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>Lodik</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Glazkov</t>
+  </si>
+  <si>
+    <t>pvpstejos_2018.png</t>
+  </si>
+  <si>
+    <t>diamondprox_2018.png</t>
+  </si>
+  <si>
+    <t>kira_2018.png</t>
+  </si>
+  <si>
+    <t>lodik_2018.png</t>
+  </si>
+  <si>
+    <t>edward_2018.png</t>
+  </si>
+  <si>
+    <t>Danil</t>
+  </si>
+  <si>
+    <t>Reshetnikov</t>
+  </si>
+  <si>
+    <t>Mykhailo</t>
+  </si>
+  <si>
+    <t>Harmash</t>
+  </si>
+  <si>
+    <t>Stanislav</t>
+  </si>
+  <si>
+    <t>Kornelyuk</t>
+  </si>
+  <si>
+    <t>Abgaryan</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Plugo</t>
+  </si>
+  <si>
+    <t>Tierwulf</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t>Zealot</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>nate_2018.png</t>
+  </si>
+  <si>
+    <t>tierwulf_2018.png</t>
+  </si>
+  <si>
+    <t>plugo_2018.png</t>
+  </si>
+  <si>
+    <t>fix_2018.png</t>
+  </si>
+  <si>
+    <t>slow_2018.png</t>
+  </si>
+  <si>
+    <t>zealot_2018.png</t>
+  </si>
+  <si>
+    <t>Damián</t>
+  </si>
+  <si>
+    <t>Rea</t>
+  </si>
+  <si>
+    <t>Sebastián Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateluna </t>
+  </si>
+  <si>
+    <t>Joaquín José</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Sayago</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Eduardo Franco Garcés</t>
+  </si>
+  <si>
+    <t>Cerda</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>fabFabulous</t>
+  </si>
+  <si>
+    <t>Stomaged</t>
+  </si>
+  <si>
+    <t>GBM</t>
+  </si>
+  <si>
+    <t>Zeitnot</t>
+  </si>
+  <si>
+    <t>snowflower_2018.png</t>
+  </si>
+  <si>
+    <t>Secaf Reis</t>
+  </si>
+  <si>
+    <t>Hasan Sercan</t>
+  </si>
+  <si>
+    <t>Çevikoglu</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>fabfabulous_2018.png</t>
+  </si>
+  <si>
+    <t>secafreis_2018.png</t>
+  </si>
+  <si>
+    <t>zeitnot_2018.png</t>
+  </si>
+  <si>
+    <t>gbm_2018.png</t>
+  </si>
+  <si>
+    <t>stomaged_2018.png</t>
+  </si>
+  <si>
+    <t>Asım Cihat</t>
+  </si>
+  <si>
+    <t>Karakaya</t>
+  </si>
+  <si>
+    <t>Furkan</t>
+  </si>
+  <si>
+    <t>Güngör</t>
+  </si>
+  <si>
+    <t>Chang-seok</t>
+  </si>
+  <si>
+    <t>Berkay</t>
+  </si>
+  <si>
+    <t>Aşıkuzun</t>
+  </si>
+  <si>
+    <t>Chippys</t>
+  </si>
+  <si>
+    <t>Shernfire</t>
+  </si>
+  <si>
+    <t>Triple</t>
+  </si>
+  <si>
+    <t>k1ng</t>
+  </si>
+  <si>
+    <t>Cupcake</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Shern Cherng</t>
+  </si>
+  <si>
+    <t>Tai</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Andy</t>
+  </si>
+  <si>
+    <t>van der Vyver</t>
+  </si>
+  <si>
+    <t>chippys_2018.png</t>
+  </si>
+  <si>
+    <t>cupcake_2018.png</t>
+  </si>
+  <si>
+    <t>shernfire_2018.png</t>
+  </si>
+  <si>
+    <t>triple_2018.png</t>
+  </si>
+  <si>
+    <t>k1ng_2018.png</t>
+  </si>
+  <si>
+    <t>nz</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Ramune</t>
+  </si>
+  <si>
+    <t>YutoriMoyasi</t>
+  </si>
+  <si>
+    <t>Gaeng</t>
+  </si>
+  <si>
+    <t>Shirou</t>
+  </si>
+  <si>
+    <t>Sasaki</t>
+  </si>
+  <si>
+    <t>Se-yeong</t>
+  </si>
+  <si>
+    <t>Osamu</t>
+  </si>
+  <si>
+    <t>Ozawa</t>
+  </si>
+  <si>
+    <t>Yuta</t>
+  </si>
+  <si>
+    <t>Noguchi</t>
+  </si>
+  <si>
+    <t>Gwang-yu</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>paz_2018.png</t>
+  </si>
+  <si>
+    <t>ramune_2018.png</t>
+  </si>
+  <si>
+    <t>yutorimoyasi_2018.png</t>
+  </si>
+  <si>
+    <t>once_2018.png</t>
+  </si>
+  <si>
+    <t>gaeng_2018.png</t>
+  </si>
+  <si>
+    <t>Zantins</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>TitaN</t>
+  </si>
+  <si>
+    <t>Riyev</t>
+  </si>
+  <si>
+    <t>Dynquedo</t>
+  </si>
+  <si>
+    <t>zantins_2018.png</t>
+  </si>
+  <si>
+    <t>ranger_2018.png</t>
+  </si>
+  <si>
+    <t>atlanta_2018.png</t>
+  </si>
+  <si>
+    <t>titan_2018.png</t>
+  </si>
+  <si>
+    <t>riyev_2018.png</t>
+  </si>
+  <si>
+    <t>dynquedo_2018.png</t>
+  </si>
+  <si>
+    <t>Luccas Martins Zanqueta</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Filipe Brombilla</t>
+  </si>
+  <si>
+    <t>de Barrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Guilherme Matos</t>
+  </si>
+  <si>
+    <t>de Lima Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Alexandre Lima</t>
+  </si>
+  <si>
+    <t>dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Marcelo</t>
+  </si>
+  <si>
+    <t>Carrara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matheus </t>
+  </si>
+  <si>
+    <t>Rossini Miranda</t>
+  </si>
+  <si>
+    <t>[240064451]</t>
+  </si>
+  <si>
+    <t>[107957167]</t>
+  </si>
+  <si>
+    <t>[240064267]</t>
+  </si>
+  <si>
+    <t>[107977115]</t>
+  </si>
+  <si>
+    <t>[240064808]</t>
+  </si>
+  <si>
+    <t>[107987199]</t>
+  </si>
+  <si>
+    <t>[240064268]</t>
+  </si>
+  <si>
+    <t>[107987198]</t>
+  </si>
+  <si>
+    <t>[202849743]</t>
+  </si>
+  <si>
+    <t>[44246835]</t>
+  </si>
+  <si>
+    <t>[230468404]</t>
+  </si>
+  <si>
+    <t>[93977004]</t>
+  </si>
+  <si>
+    <t>[34580744]</t>
+  </si>
+  <si>
+    <t>[30856935]</t>
+  </si>
+  <si>
+    <t>[232208747]</t>
+  </si>
+  <si>
+    <t>[98397502]</t>
+  </si>
+  <si>
+    <t>[240064718]</t>
+  </si>
+  <si>
+    <t>[107957170]</t>
+  </si>
+  <si>
+    <t>[240064612]</t>
+  </si>
+  <si>
+    <t>[107977118]</t>
+  </si>
+  <si>
+    <t>[240064454]</t>
+  </si>
+  <si>
+    <t>[107987201]</t>
+  </si>
+  <si>
+    <t>[240064000]</t>
+  </si>
+  <si>
+    <t>[107987202]</t>
+  </si>
+  <si>
+    <t>[240064613]</t>
+  </si>
+  <si>
+    <t>[107987203]</t>
+  </si>
+  <si>
+    <t>[238643338]</t>
+  </si>
+  <si>
+    <t>[105986837]</t>
+  </si>
+  <si>
+    <t>[238643177]</t>
+  </si>
+  <si>
+    <t>[106006866]</t>
+  </si>
+  <si>
+    <t>[238222403]</t>
+  </si>
+  <si>
+    <t>[105986813]</t>
+  </si>
+  <si>
+    <t>[238643439]</t>
+  </si>
+  <si>
+    <t>[105986838]</t>
+  </si>
+  <si>
+    <t>[240065113]</t>
+  </si>
+  <si>
+    <t>[107987212]</t>
+  </si>
+  <si>
+    <t>[240064910]</t>
+  </si>
+  <si>
+    <t>[107977125]</t>
+  </si>
+  <si>
+    <t>[240064465]</t>
+  </si>
+  <si>
+    <t>[107957179]</t>
+  </si>
+  <si>
+    <t>[240065114]</t>
+  </si>
+  <si>
+    <t>[107957180]</t>
+  </si>
+  <si>
+    <t>[240064581]</t>
+  </si>
+  <si>
+    <t>[107977126]</t>
+  </si>
+  <si>
+    <t>[240064561]</t>
+  </si>
+  <si>
+    <t>[107977109]</t>
+  </si>
+  <si>
+    <t>[240064562]</t>
+  </si>
+  <si>
+    <t>[107977110]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6591,16 +7371,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6608,11 +7400,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6628,6 +7435,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6943,29 +7758,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR313"/>
+  <dimension ref="A1:AR347"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S39" sqref="B39:S49"/>
+      <selection pane="bottomRight" activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="26.140625" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" hidden="1" customWidth="1"/>
@@ -7108,16 +7923,16 @@
         <v>332</v>
       </c>
       <c r="AO1" s="8" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>1760</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1761</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1762</v>
-      </c>
       <c r="AR1" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -7386,19 +8201,19 @@
         <v>789</v>
       </c>
       <c r="R5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD5" t="s">
         <v>1796</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AE5" t="s">
         <v>1818</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>1797</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>1819</v>
       </c>
       <c r="AO5" s="9">
         <v>344538810</v>
@@ -7543,7 +8358,7 @@
         <v>789</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -7602,7 +8417,7 @@
         <v>805</v>
       </c>
       <c r="S8" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AC8" t="s">
         <v>789</v>
@@ -7611,7 +8426,7 @@
         <v>806</v>
       </c>
       <c r="AE8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AO8" s="9">
         <v>627395451</v>
@@ -7673,7 +8488,7 @@
         <v>807</v>
       </c>
       <c r="S9" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AC9" t="s">
         <v>789</v>
@@ -7682,7 +8497,7 @@
         <v>808</v>
       </c>
       <c r="AE9" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AO9" s="9">
         <v>409736208</v>
@@ -7693,7 +8508,7 @@
         <v>102004</v>
       </c>
       <c r="B10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -7738,16 +8553,16 @@
         <v>789</v>
       </c>
       <c r="R10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S10" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD10" t="s">
         <v>1756</v>
-      </c>
-      <c r="S10" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>1757</v>
       </c>
       <c r="AE10" t="s">
         <v>789</v>
@@ -7812,7 +8627,7 @@
         <v>809</v>
       </c>
       <c r="S11" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AC11" t="s">
         <v>810</v>
@@ -7821,7 +8636,7 @@
         <v>811</v>
       </c>
       <c r="AE11" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AO11" s="11">
         <v>2358219158</v>
@@ -7963,7 +8778,7 @@
         <v>789</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -8232,7 +9047,7 @@
         <v>822</v>
       </c>
       <c r="S17" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AC17" t="s">
         <v>789</v>
@@ -8241,7 +9056,7 @@
         <v>823</v>
       </c>
       <c r="AE17" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AO17" s="9">
         <v>2963716081</v>
@@ -8788,16 +9603,16 @@
         <v>789</v>
       </c>
       <c r="R25" t="s">
+        <v>1753</v>
+      </c>
+      <c r="S25" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD25" t="s">
         <v>1754</v>
-      </c>
-      <c r="S25" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1755</v>
       </c>
       <c r="AE25" t="s">
         <v>789</v>
@@ -8989,22 +9804,22 @@
         <v>789</v>
       </c>
       <c r="R28" t="s">
+        <v>1650</v>
+      </c>
+      <c r="S28" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD28" t="s">
         <v>1651</v>
       </c>
-      <c r="S28" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>1652</v>
-      </c>
       <c r="AE28" t="s">
         <v>789</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -9060,7 +9875,7 @@
         <v>844</v>
       </c>
       <c r="S29" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="AC29" t="s">
         <v>789</v>
@@ -9069,7 +9884,7 @@
         <v>845</v>
       </c>
       <c r="AE29" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AO29" s="9">
         <v>366839886</v>
@@ -9193,16 +10008,16 @@
         <v>789</v>
       </c>
       <c r="R31" t="s">
+        <v>1655</v>
+      </c>
+      <c r="S31" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD31" t="s">
         <v>1656</v>
-      </c>
-      <c r="S31" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>1657</v>
       </c>
       <c r="AE31" t="s">
         <v>789</v>
@@ -9737,7 +10552,7 @@
         <v>862</v>
       </c>
       <c r="S39" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AC39" t="s">
         <v>863</v>
@@ -9746,7 +10561,7 @@
         <v>864</v>
       </c>
       <c r="AE39" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AO39" s="10">
         <v>803776063</v>
@@ -9755,7 +10570,7 @@
         <v>42</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -9808,7 +10623,7 @@
         <v>789</v>
       </c>
       <c r="R40" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="S40" t="s">
         <v>789</v>
@@ -9817,7 +10632,7 @@
         <v>789</v>
       </c>
       <c r="AD40" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AE40" t="s">
         <v>789</v>
@@ -10272,16 +11087,16 @@
         <v>789</v>
       </c>
       <c r="R47" t="s">
+        <v>1632</v>
+      </c>
+      <c r="S47" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD47" t="s">
         <v>1633</v>
-      </c>
-      <c r="S47" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>1634</v>
       </c>
       <c r="AE47" t="s">
         <v>789</v>
@@ -10343,7 +11158,7 @@
         <v>1205</v>
       </c>
       <c r="R48" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="S48" t="s">
         <v>789</v>
@@ -10352,13 +11167,13 @@
         <v>877</v>
       </c>
       <c r="AD48" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="AE48" t="s">
         <v>789</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -10633,7 +11448,7 @@
         <v>789</v>
       </c>
       <c r="AO52" s="10" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -10689,16 +11504,16 @@
         <v>789</v>
       </c>
       <c r="R53" t="s">
+        <v>1621</v>
+      </c>
+      <c r="S53" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD53" t="s">
         <v>1622</v>
-      </c>
-      <c r="S53" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>1623</v>
       </c>
       <c r="AE53" t="s">
         <v>789</v>
@@ -11047,16 +11862,16 @@
         <v>789</v>
       </c>
       <c r="S58" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE58" t="s">
         <v>1608</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>1609</v>
       </c>
       <c r="AO58" s="9">
         <v>2996912843</v>
@@ -11112,7 +11927,7 @@
         <v>1218</v>
       </c>
       <c r="Q59" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="R59" t="s">
         <v>789</v>
@@ -11121,7 +11936,7 @@
         <v>896</v>
       </c>
       <c r="AC59" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD59" t="s">
         <v>789</v>
@@ -11133,7 +11948,7 @@
         <v>881827464</v>
       </c>
       <c r="AR59" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -11266,7 +12081,7 @@
         <v>901</v>
       </c>
       <c r="AO61" s="10" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -11390,22 +12205,22 @@
         <v>1223</v>
       </c>
       <c r="Q63" t="s">
+        <v>1815</v>
+      </c>
+      <c r="R63" t="s">
+        <v>789</v>
+      </c>
+      <c r="S63" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AC63" t="s">
         <v>1816</v>
       </c>
-      <c r="R63" t="s">
-        <v>789</v>
-      </c>
-      <c r="S63" t="s">
+      <c r="AD63" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE63" t="s">
         <v>1802</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>1817</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>1803</v>
       </c>
       <c r="AO63" s="9">
         <v>1648029396</v>
@@ -11464,7 +12279,7 @@
         <v>789</v>
       </c>
       <c r="R64" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="S64" t="s">
         <v>905</v>
@@ -11535,10 +12350,10 @@
         <v>789</v>
       </c>
       <c r="R65" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="S65" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AC65" t="s">
         <v>789</v>
@@ -11547,7 +12362,7 @@
         <v>908</v>
       </c>
       <c r="AE65" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AO65" s="9">
         <v>1244508066</v>
@@ -11745,7 +12560,7 @@
         <v>789</v>
       </c>
       <c r="R68" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="S68" t="s">
         <v>913</v>
@@ -11754,7 +12569,7 @@
         <v>789</v>
       </c>
       <c r="AD68" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="AE68" t="s">
         <v>914</v>
@@ -11768,7 +12583,7 @@
         <v>203004</v>
       </c>
       <c r="B69" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -12159,16 +12974,16 @@
         <v>789</v>
       </c>
       <c r="S74" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE74" t="s">
         <v>1613</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>1614</v>
       </c>
       <c r="AO74" s="9">
         <v>2275242200</v>
@@ -12224,25 +13039,25 @@
         <v>1236</v>
       </c>
       <c r="Q75" t="s">
+        <v>1805</v>
+      </c>
+      <c r="R75" t="s">
+        <v>789</v>
+      </c>
+      <c r="S75" t="s">
+        <v>1744</v>
+      </c>
+      <c r="AC75" t="s">
         <v>1806</v>
       </c>
-      <c r="R75" t="s">
-        <v>789</v>
-      </c>
-      <c r="S75" t="s">
-        <v>1745</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>1807</v>
-      </c>
       <c r="AD75" t="s">
         <v>789</v>
       </c>
       <c r="AE75" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="AO75" s="10" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
@@ -12298,16 +13113,16 @@
         <v>789</v>
       </c>
       <c r="S76" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE76" t="s">
         <v>1627</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>1628</v>
       </c>
       <c r="AO76" s="9">
         <v>2274984734</v>
@@ -12369,22 +13184,22 @@
         <v>789</v>
       </c>
       <c r="S77" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="T77" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AF77" t="s">
         <v>1603</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>1615</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>1604</v>
       </c>
       <c r="AO77" s="9">
         <v>2216500400</v>
@@ -12443,7 +13258,7 @@
         <v>789</v>
       </c>
       <c r="R78" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="S78" t="s">
         <v>926</v>
@@ -12452,7 +13267,7 @@
         <v>789</v>
       </c>
       <c r="AD78" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AE78" t="s">
         <v>927</v>
@@ -12523,7 +13338,7 @@
         <v>929</v>
       </c>
       <c r="AO79" s="10" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
@@ -13419,16 +14234,16 @@
         <v>789</v>
       </c>
       <c r="S92" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE92" t="s">
         <v>1610</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>1611</v>
       </c>
       <c r="AO92" s="9">
         <v>3044903147</v>
@@ -13963,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="Q100" t="s">
         <v>789</v>
@@ -14031,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Q101" t="s">
         <v>789</v>
@@ -14170,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q103" t="s">
         <v>789</v>
@@ -14191,7 +15006,7 @@
         <v>975</v>
       </c>
       <c r="AO103" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -14238,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="Q104" t="s">
         <v>789</v>
@@ -14306,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="Q105" t="s">
         <v>789</v>
@@ -14327,7 +15142,7 @@
         <v>979</v>
       </c>
       <c r="AO105" s="10" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
@@ -14442,16 +15257,16 @@
         <v>1265</v>
       </c>
       <c r="Q107" t="s">
+        <v>1624</v>
+      </c>
+      <c r="R107" t="s">
+        <v>789</v>
+      </c>
+      <c r="S107" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC107" t="s">
         <v>1625</v>
-      </c>
-      <c r="R107" t="s">
-        <v>789</v>
-      </c>
-      <c r="S107" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>1626</v>
       </c>
       <c r="AD107" t="s">
         <v>789</v>
@@ -14510,17 +15325,17 @@
         <v>1266</v>
       </c>
       <c r="Q108" t="s">
+        <v>1809</v>
+      </c>
+      <c r="R108" t="s">
+        <v>789</v>
+      </c>
+      <c r="S108" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC108" t="s">
         <v>1810</v>
       </c>
-      <c r="R108" t="s">
-        <v>789</v>
-      </c>
-      <c r="S108" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>1811</v>
-      </c>
       <c r="AD108" t="s">
         <v>789</v>
       </c>
@@ -14528,7 +15343,7 @@
         <v>789</v>
       </c>
       <c r="AO108" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
@@ -14930,16 +15745,16 @@
         <v>1277</v>
       </c>
       <c r="Q114" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R114" t="s">
+        <v>789</v>
+      </c>
+      <c r="S114" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC114" t="s">
         <v>1800</v>
-      </c>
-      <c r="R114" t="s">
-        <v>789</v>
-      </c>
-      <c r="S114" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC114" t="s">
-        <v>1801</v>
       </c>
       <c r="AD114" t="s">
         <v>789</v>
@@ -15001,16 +15816,16 @@
         <v>1278</v>
       </c>
       <c r="Q115" t="s">
+        <v>1803</v>
+      </c>
+      <c r="R115" t="s">
+        <v>789</v>
+      </c>
+      <c r="S115" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC115" t="s">
         <v>1804</v>
-      </c>
-      <c r="R115" t="s">
-        <v>789</v>
-      </c>
-      <c r="S115" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>1805</v>
       </c>
       <c r="AD115" t="s">
         <v>789</v>
@@ -15205,16 +16020,16 @@
         <v>1283</v>
       </c>
       <c r="Q118" t="s">
+        <v>1764</v>
+      </c>
+      <c r="R118" t="s">
+        <v>789</v>
+      </c>
+      <c r="S118" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC118" t="s">
         <v>1765</v>
-      </c>
-      <c r="R118" t="s">
-        <v>789</v>
-      </c>
-      <c r="S118" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>1766</v>
       </c>
       <c r="AD118" t="s">
         <v>789</v>
@@ -15273,17 +16088,17 @@
         <v>1284</v>
       </c>
       <c r="Q119" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R119" t="s">
+        <v>789</v>
+      </c>
+      <c r="S119" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC119" t="s">
         <v>1639</v>
       </c>
-      <c r="R119" t="s">
-        <v>789</v>
-      </c>
-      <c r="S119" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>1640</v>
-      </c>
       <c r="AD119" t="s">
         <v>789</v>
       </c>
@@ -15291,7 +16106,7 @@
         <v>789</v>
       </c>
       <c r="AO119" s="10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
@@ -15344,16 +16159,16 @@
         <v>1285</v>
       </c>
       <c r="Q120" t="s">
+        <v>1640</v>
+      </c>
+      <c r="R120" t="s">
+        <v>789</v>
+      </c>
+      <c r="S120" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC120" t="s">
         <v>1641</v>
-      </c>
-      <c r="R120" t="s">
-        <v>789</v>
-      </c>
-      <c r="S120" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>1642</v>
       </c>
       <c r="AD120" t="s">
         <v>789</v>
@@ -15418,7 +16233,7 @@
         <v>1287</v>
       </c>
       <c r="R121" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="S121" t="s">
         <v>789</v>
@@ -15427,7 +16242,7 @@
         <v>988</v>
       </c>
       <c r="AD121" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="AE121" t="s">
         <v>789</v>
@@ -15486,16 +16301,16 @@
         <v>1288</v>
       </c>
       <c r="Q122" t="s">
+        <v>1757</v>
+      </c>
+      <c r="R122" t="s">
+        <v>789</v>
+      </c>
+      <c r="S122" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC122" t="s">
         <v>1758</v>
-      </c>
-      <c r="R122" t="s">
-        <v>789</v>
-      </c>
-      <c r="S122" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>1759</v>
       </c>
       <c r="AD122" t="s">
         <v>789</v>
@@ -15714,7 +16529,7 @@
         <v>789</v>
       </c>
       <c r="AO125" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
@@ -16478,29 +17293,35 @@
       <c r="I137" t="s">
         <v>767</v>
       </c>
+      <c r="J137" t="s">
+        <v>760</v>
+      </c>
+      <c r="K137" t="s">
+        <v>2206</v>
+      </c>
       <c r="L137">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="M137">
         <v>5</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O137" t="b">
         <v>1</v>
       </c>
       <c r="P137" t="s">
+        <v>2305</v>
+      </c>
+      <c r="Q137" t="s">
         <v>1317</v>
       </c>
-      <c r="Q137" t="s">
-        <v>1318</v>
-      </c>
       <c r="R137" t="s">
         <v>789</v>
       </c>
       <c r="S137" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AC137" t="s">
         <v>1003</v>
@@ -16509,7 +17330,7 @@
         <v>789</v>
       </c>
       <c r="AE137" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.25">
@@ -16556,10 +17377,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Q138" t="s">
         <v>1319</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>1320</v>
       </c>
       <c r="R138" t="s">
         <v>789</v>
@@ -16624,10 +17445,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Q139" t="s">
         <v>1321</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>1322</v>
       </c>
       <c r="R139" t="s">
         <v>789</v>
@@ -16692,20 +17513,20 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Q140" t="s">
+        <v>1797</v>
+      </c>
+      <c r="R140" t="s">
+        <v>789</v>
+      </c>
+      <c r="S140" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC140" t="s">
         <v>1798</v>
       </c>
-      <c r="R140" t="s">
-        <v>789</v>
-      </c>
-      <c r="S140" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC140" t="s">
-        <v>1799</v>
-      </c>
       <c r="AD140" t="s">
         <v>789</v>
       </c>
@@ -16713,7 +17534,7 @@
         <v>789</v>
       </c>
       <c r="AO140" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -16760,10 +17581,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="Q141" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="R141" t="s">
         <v>789</v>
@@ -16828,10 +17649,10 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q142" t="s">
         <v>1325</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>1326</v>
       </c>
       <c r="R142" t="s">
         <v>789</v>
@@ -16896,10 +17717,10 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Q143" t="s">
         <v>1327</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>1328</v>
       </c>
       <c r="R143" t="s">
         <v>789</v>
@@ -16964,10 +17785,10 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q144" t="s">
         <v>1329</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>1330</v>
       </c>
       <c r="R144" t="s">
         <v>789</v>
@@ -17032,10 +17853,10 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Q145" t="s">
         <v>1331</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>1332</v>
       </c>
       <c r="R145" t="s">
         <v>789</v>
@@ -17100,10 +17921,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q146" t="s">
         <v>1333</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>1334</v>
       </c>
       <c r="R146" t="s">
         <v>789</v>
@@ -17168,10 +17989,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Q147" t="s">
         <v>1335</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>1336</v>
       </c>
       <c r="R147" t="s">
         <v>789</v>
@@ -17236,19 +18057,19 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Q148" t="s">
+        <v>1628</v>
+      </c>
+      <c r="R148" t="s">
+        <v>789</v>
+      </c>
+      <c r="S148" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC148" t="s">
         <v>1629</v>
-      </c>
-      <c r="R148" t="s">
-        <v>789</v>
-      </c>
-      <c r="S148" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>1630</v>
       </c>
       <c r="AD148" t="s">
         <v>789</v>
@@ -17304,10 +18125,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q149" t="s">
         <v>1338</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>1339</v>
       </c>
       <c r="R149" t="s">
         <v>789</v>
@@ -17369,10 +18190,10 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Q150" t="s">
         <v>1340</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>1341</v>
       </c>
       <c r="R150" t="s">
         <v>789</v>
@@ -17431,10 +18252,10 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Q151" t="s">
         <v>1342</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>1343</v>
       </c>
       <c r="R151" t="s">
         <v>789</v>
@@ -17496,10 +18317,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q152" t="s">
         <v>1344</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>1345</v>
       </c>
       <c r="R152" t="s">
         <v>789</v>
@@ -17558,10 +18379,10 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q153" t="s">
         <v>1346</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>1347</v>
       </c>
       <c r="R153" t="s">
         <v>789</v>
@@ -17623,10 +18444,10 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Q154" t="s">
         <v>1348</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>1349</v>
       </c>
       <c r="R154" t="s">
         <v>789</v>
@@ -17688,10 +18509,10 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q155" t="s">
         <v>1350</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>1351</v>
       </c>
       <c r="R155" t="s">
         <v>789</v>
@@ -17753,10 +18574,10 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q156" t="s">
         <v>1352</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>1353</v>
       </c>
       <c r="R156" t="s">
         <v>789</v>
@@ -17818,10 +18639,10 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Q157" t="s">
         <v>1354</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>1355</v>
       </c>
       <c r="R157" t="s">
         <v>789</v>
@@ -17883,10 +18704,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q158" t="s">
         <v>1356</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>1357</v>
       </c>
       <c r="R158" t="s">
         <v>789</v>
@@ -17948,10 +18769,10 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Q159" t="s">
         <v>1358</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>1359</v>
       </c>
       <c r="R159" t="s">
         <v>789</v>
@@ -18013,10 +18834,10 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Q160" t="s">
         <v>1360</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>1361</v>
       </c>
       <c r="R160" t="s">
         <v>789</v>
@@ -18078,10 +18899,10 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q161" t="s">
         <v>1362</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>1363</v>
       </c>
       <c r="R161" t="s">
         <v>789</v>
@@ -18146,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Q162" t="s">
         <v>1364</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>1365</v>
       </c>
       <c r="R162" t="s">
         <v>789</v>
@@ -18211,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
+        <v>1365</v>
+      </c>
+      <c r="Q163" t="s">
         <v>1366</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>1367</v>
       </c>
       <c r="R163" t="s">
         <v>789</v>
@@ -18276,10 +19097,10 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Q164" t="s">
         <v>1368</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>1369</v>
       </c>
       <c r="R164" t="s">
         <v>789</v>
@@ -18347,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Q165" t="s">
         <v>789</v>
@@ -18406,10 +19227,10 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q166" t="s">
         <v>1371</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>1372</v>
       </c>
       <c r="R166" t="s">
         <v>789</v>
@@ -18465,10 +19286,10 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q167" t="s">
         <v>1373</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>1374</v>
       </c>
       <c r="R167" t="s">
         <v>789</v>
@@ -18530,10 +19351,10 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q168" t="s">
         <v>1375</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>1376</v>
       </c>
       <c r="R168" t="s">
         <v>789</v>
@@ -18598,10 +19419,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q169" t="s">
         <v>1377</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>1378</v>
       </c>
       <c r="R169" t="s">
         <v>789</v>
@@ -18663,7 +19484,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q170" t="s">
         <v>789</v>
@@ -18728,10 +19549,10 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Q171" t="s">
         <v>1380</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>1381</v>
       </c>
       <c r="R171" t="s">
         <v>789</v>
@@ -18787,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q172" t="s">
         <v>789</v>
@@ -18852,10 +19673,10 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q173" t="s">
         <v>1383</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>1384</v>
       </c>
       <c r="R173" t="s">
         <v>789</v>
@@ -18917,10 +19738,10 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q174" t="s">
         <v>1385</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>1386</v>
       </c>
       <c r="R174" t="s">
         <v>789</v>
@@ -18982,10 +19803,10 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Q175" t="s">
         <v>1387</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>1388</v>
       </c>
       <c r="R175" t="s">
         <v>789</v>
@@ -19047,10 +19868,10 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q176" t="s">
         <v>1389</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>1390</v>
       </c>
       <c r="R176" t="s">
         <v>789</v>
@@ -19112,10 +19933,10 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
+        <v>1390</v>
+      </c>
+      <c r="Q177" t="s">
         <v>1391</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>1392</v>
       </c>
       <c r="R177" t="s">
         <v>789</v>
@@ -19177,7 +19998,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q178" t="s">
         <v>789</v>
@@ -19242,10 +20063,10 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q179" t="s">
         <v>1394</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>1395</v>
       </c>
       <c r="R179" t="s">
         <v>789</v>
@@ -19307,10 +20128,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q180" t="s">
         <v>1396</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>1397</v>
       </c>
       <c r="R180" t="s">
         <v>789</v>
@@ -19375,19 +20196,19 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Q181" t="s">
+        <v>1793</v>
+      </c>
+      <c r="R181" t="s">
+        <v>789</v>
+      </c>
+      <c r="S181" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC181" t="s">
         <v>1794</v>
-      </c>
-      <c r="R181" t="s">
-        <v>789</v>
-      </c>
-      <c r="S181" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC181" t="s">
-        <v>1795</v>
       </c>
       <c r="AD181" t="s">
         <v>789</v>
@@ -19434,10 +20255,10 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
+        <v>1398</v>
+      </c>
+      <c r="Q182" t="s">
         <v>1399</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>1400</v>
       </c>
       <c r="R182" t="s">
         <v>789</v>
@@ -19493,10 +20314,10 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Q183" t="s">
         <v>1401</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>1402</v>
       </c>
       <c r="R183" t="s">
         <v>789</v>
@@ -19558,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q184" t="s">
         <v>1403</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>1404</v>
       </c>
       <c r="R184" t="s">
         <v>789</v>
@@ -19623,10 +20444,10 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
+        <v>1404</v>
+      </c>
+      <c r="Q185" t="s">
         <v>1405</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>1406</v>
       </c>
       <c r="R185" t="s">
         <v>789</v>
@@ -19688,10 +20509,10 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q186" t="s">
         <v>1407</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>1408</v>
       </c>
       <c r="R186" t="s">
         <v>789</v>
@@ -19756,10 +20577,10 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
+        <v>1408</v>
+      </c>
+      <c r="Q187" t="s">
         <v>1409</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>1410</v>
       </c>
       <c r="R187" t="s">
         <v>789</v>
@@ -19821,10 +20642,10 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q188" t="s">
         <v>1411</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>1412</v>
       </c>
       <c r="R188" t="s">
         <v>789</v>
@@ -19886,10 +20707,10 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Q189" t="s">
         <v>1413</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>1414</v>
       </c>
       <c r="R189" t="s">
         <v>789</v>
@@ -19945,10 +20766,10 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Q190" t="s">
         <v>1415</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>1416</v>
       </c>
       <c r="R190" t="s">
         <v>789</v>
@@ -20004,10 +20825,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q191" t="s">
         <v>1417</v>
-      </c>
-      <c r="Q191" t="s">
-        <v>1418</v>
       </c>
       <c r="R191" t="s">
         <v>789</v>
@@ -20063,10 +20884,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q192" t="s">
         <v>1419</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>1420</v>
       </c>
       <c r="R192" t="s">
         <v>789</v>
@@ -20128,10 +20949,10 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Q193" t="s">
         <v>1421</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>1422</v>
       </c>
       <c r="R193" t="s">
         <v>789</v>
@@ -20190,7 +21011,7 @@
         <v>1261</v>
       </c>
       <c r="Q194" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="R194" t="s">
         <v>789</v>
@@ -20249,10 +21070,10 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q195" t="s">
         <v>1424</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>1425</v>
       </c>
       <c r="R195" t="s">
         <v>789</v>
@@ -20311,10 +21132,10 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Q196" t="s">
         <v>1426</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>1427</v>
       </c>
       <c r="R196" t="s">
         <v>789</v>
@@ -20376,10 +21197,10 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q197" t="s">
         <v>1428</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>1429</v>
       </c>
       <c r="R197" t="s">
         <v>789</v>
@@ -20441,7 +21262,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Q198" t="s">
         <v>789</v>
@@ -20506,7 +21327,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="Q199" t="s">
         <v>789</v>
@@ -20571,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="Q200" t="s">
         <v>789</v>
@@ -20636,7 +21457,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Q201" t="s">
         <v>789</v>
@@ -20701,10 +21522,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q202" t="s">
         <v>1434</v>
-      </c>
-      <c r="Q202" t="s">
-        <v>1435</v>
       </c>
       <c r="R202" t="s">
         <v>789</v>
@@ -20766,7 +21587,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="Q203" t="s">
         <v>789</v>
@@ -20825,10 +21646,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q204" t="s">
         <v>1437</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>1438</v>
       </c>
       <c r="R204" t="s">
         <v>789</v>
@@ -20884,10 +21705,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Q205" t="s">
         <v>1439</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>1440</v>
       </c>
       <c r="R205" t="s">
         <v>789</v>
@@ -20952,10 +21773,10 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
+        <v>1440</v>
+      </c>
+      <c r="Q206" t="s">
         <v>1441</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>1442</v>
       </c>
       <c r="R206" t="s">
         <v>789</v>
@@ -21020,10 +21841,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Q207" t="s">
         <v>1443</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>1444</v>
       </c>
       <c r="R207" t="s">
         <v>789</v>
@@ -21088,10 +21909,10 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q208" t="s">
         <v>1445</v>
-      </c>
-      <c r="Q208" t="s">
-        <v>1446</v>
       </c>
       <c r="R208" t="s">
         <v>789</v>
@@ -21156,10 +21977,10 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
+        <v>1446</v>
+      </c>
+      <c r="Q209" t="s">
         <v>1447</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>1448</v>
       </c>
       <c r="R209" t="s">
         <v>789</v>
@@ -21218,10 +22039,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Q210" t="s">
         <v>1449</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>1450</v>
       </c>
       <c r="R210" t="s">
         <v>789</v>
@@ -21286,10 +22107,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Q211" t="s">
         <v>1451</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>1452</v>
       </c>
       <c r="R211" t="s">
         <v>789</v>
@@ -21351,10 +22172,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Q212" t="s">
         <v>1453</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>1454</v>
       </c>
       <c r="R212" t="s">
         <v>789</v>
@@ -21410,10 +22231,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Q213" t="s">
         <v>1455</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>1456</v>
       </c>
       <c r="R213" t="s">
         <v>789</v>
@@ -21475,10 +22296,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Q214" t="s">
         <v>1457</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>1458</v>
       </c>
       <c r="R214" t="s">
         <v>789</v>
@@ -21534,10 +22355,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q215" t="s">
         <v>1459</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>1460</v>
       </c>
       <c r="R215" t="s">
         <v>789</v>
@@ -21596,10 +22417,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Q216" t="s">
         <v>1461</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>1462</v>
       </c>
       <c r="R216" t="s">
         <v>789</v>
@@ -21664,10 +22485,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q217" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>1464</v>
       </c>
       <c r="R217" t="s">
         <v>789</v>
@@ -21732,10 +22553,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Q218" t="s">
         <v>1465</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>1466</v>
       </c>
       <c r="R218" t="s">
         <v>789</v>
@@ -21800,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q219" t="s">
         <v>1467</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>1468</v>
       </c>
       <c r="R219" t="s">
         <v>789</v>
@@ -21868,10 +22689,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Q220" t="s">
         <v>1469</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>1470</v>
       </c>
       <c r="R220" t="s">
         <v>789</v>
@@ -21936,10 +22757,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
+        <v>1470</v>
+      </c>
+      <c r="Q221" t="s">
         <v>1471</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>1472</v>
       </c>
       <c r="R221" t="s">
         <v>789</v>
@@ -22004,10 +22825,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Q222" t="s">
         <v>1473</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>1474</v>
       </c>
       <c r="R222" t="s">
         <v>789</v>
@@ -22072,10 +22893,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Q223" t="s">
         <v>1475</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>1476</v>
       </c>
       <c r="R223" t="s">
         <v>789</v>
@@ -22140,10 +22961,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Q224" t="s">
         <v>1477</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>1478</v>
       </c>
       <c r="R224" t="s">
         <v>789</v>
@@ -22205,10 +23026,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q225" t="s">
         <v>1479</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>1480</v>
       </c>
       <c r="R225" t="s">
         <v>789</v>
@@ -22273,10 +23094,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Q226" t="s">
         <v>1481</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>1482</v>
       </c>
       <c r="R226" t="s">
         <v>789</v>
@@ -22338,10 +23159,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
+        <v>1482</v>
+      </c>
+      <c r="Q227" t="s">
         <v>1483</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>1484</v>
       </c>
       <c r="R227" t="s">
         <v>789</v>
@@ -22403,10 +23224,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Q228" t="s">
         <v>1485</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>1486</v>
       </c>
       <c r="R228" t="s">
         <v>789</v>
@@ -22468,10 +23289,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
+        <v>1486</v>
+      </c>
+      <c r="Q229" t="s">
         <v>1487</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>1488</v>
       </c>
       <c r="R229" t="s">
         <v>789</v>
@@ -22527,10 +23348,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Q230" t="s">
         <v>1489</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>1490</v>
       </c>
       <c r="R230" t="s">
         <v>789</v>
@@ -22592,10 +23413,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Q231" t="s">
         <v>1491</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>1492</v>
       </c>
       <c r="R231" t="s">
         <v>789</v>
@@ -22657,10 +23478,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q232" t="s">
         <v>1493</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>1494</v>
       </c>
       <c r="R232" t="s">
         <v>789</v>
@@ -22719,10 +23540,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Q233" t="s">
         <v>1495</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>1496</v>
       </c>
       <c r="R233" t="s">
         <v>789</v>
@@ -22787,10 +23608,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Q234" t="s">
         <v>1497</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>1498</v>
       </c>
       <c r="R234" t="s">
         <v>789</v>
@@ -22852,10 +23673,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
+        <v>1498</v>
+      </c>
+      <c r="Q235" t="s">
         <v>1499</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>1500</v>
       </c>
       <c r="R235" t="s">
         <v>789</v>
@@ -22917,10 +23738,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
+        <v>1500</v>
+      </c>
+      <c r="Q236" t="s">
         <v>1501</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>1502</v>
       </c>
       <c r="R236" t="s">
         <v>789</v>
@@ -22979,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="Q237" t="s">
         <v>789</v>
@@ -23044,7 +23865,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="Q238" t="s">
         <v>789</v>
@@ -23073,7 +23894,7 @@
         <v>990003</v>
       </c>
       <c r="B239" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -23165,7 +23986,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q240" t="s">
         <v>789</v>
@@ -23230,22 +24051,22 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="Q241" t="s">
         <v>789</v>
       </c>
       <c r="R241" t="s">
+        <v>1605</v>
+      </c>
+      <c r="S241" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD241" t="s">
         <v>1606</v>
-      </c>
-      <c r="S241" t="s">
-        <v>789</v>
-      </c>
-      <c r="AC241" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD241" t="s">
-        <v>1607</v>
       </c>
       <c r="AE241" t="s">
         <v>789</v>
@@ -23295,7 +24116,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="Q242" t="s">
         <v>789</v>
@@ -23360,7 +24181,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="Q243" t="s">
         <v>789</v>
@@ -23425,10 +24246,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Q244" t="s">
         <v>1509</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>1510</v>
       </c>
       <c r="R244" t="s">
         <v>789</v>
@@ -23446,7 +24267,7 @@
         <v>789</v>
       </c>
       <c r="AO244" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
@@ -23487,10 +24308,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
+        <v>1510</v>
+      </c>
+      <c r="Q245" t="s">
         <v>1511</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>1512</v>
       </c>
       <c r="R245" t="s">
         <v>789</v>
@@ -23549,10 +24370,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q246" t="s">
         <v>1513</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>1514</v>
       </c>
       <c r="R246" t="s">
         <v>789</v>
@@ -23611,10 +24432,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q247" t="s">
         <v>1515</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>1516</v>
       </c>
       <c r="R247" t="s">
         <v>789</v>
@@ -23673,10 +24494,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Q248" t="s">
         <v>1517</v>
-      </c>
-      <c r="Q248" t="s">
-        <v>1518</v>
       </c>
       <c r="R248" t="s">
         <v>789</v>
@@ -23735,13 +24556,13 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
+        <v>1518</v>
+      </c>
+      <c r="Q249" t="s">
         <v>1519</v>
       </c>
-      <c r="Q249" t="s">
-        <v>1520</v>
-      </c>
       <c r="R249" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="S249" t="s">
         <v>789</v>
@@ -23750,7 +24571,7 @@
         <v>1108</v>
       </c>
       <c r="AD249" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="AE249" t="s">
         <v>789</v>
@@ -23803,10 +24624,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q250" t="s">
         <v>1521</v>
-      </c>
-      <c r="Q250" t="s">
-        <v>1522</v>
       </c>
       <c r="R250" t="s">
         <v>789</v>
@@ -23865,10 +24686,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q251" t="s">
         <v>1523</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>1524</v>
       </c>
       <c r="R251" t="s">
         <v>789</v>
@@ -23927,10 +24748,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Q252" t="s">
         <v>1525</v>
-      </c>
-      <c r="Q252" t="s">
-        <v>1526</v>
       </c>
       <c r="R252" t="s">
         <v>789</v>
@@ -23992,10 +24813,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q253" t="s">
         <v>1527</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>1528</v>
       </c>
       <c r="R253" t="s">
         <v>789</v>
@@ -24054,10 +24875,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
+        <v>1528</v>
+      </c>
+      <c r="Q254" t="s">
         <v>1529</v>
-      </c>
-      <c r="Q254" t="s">
-        <v>1530</v>
       </c>
       <c r="R254" t="s">
         <v>789</v>
@@ -24113,16 +24934,16 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Q255" t="s">
         <v>1531</v>
       </c>
-      <c r="Q255" t="s">
-        <v>1532</v>
-      </c>
       <c r="R255" t="s">
         <v>789</v>
       </c>
       <c r="S255" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AC255" t="s">
         <v>1114</v>
@@ -24131,10 +24952,10 @@
         <v>789</v>
       </c>
       <c r="AE255" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="AO255" s="10" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
@@ -24178,16 +24999,16 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
+        <v>1532</v>
+      </c>
+      <c r="Q256" t="s">
         <v>1533</v>
       </c>
-      <c r="Q256" t="s">
-        <v>1534</v>
-      </c>
       <c r="R256" t="s">
         <v>789</v>
       </c>
       <c r="S256" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AC256" t="s">
         <v>1115</v>
@@ -24196,7 +25017,7 @@
         <v>789</v>
       </c>
       <c r="AE256" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
@@ -24237,10 +25058,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q257" t="s">
         <v>1535</v>
-      </c>
-      <c r="Q257" t="s">
-        <v>1536</v>
       </c>
       <c r="R257" t="s">
         <v>789</v>
@@ -24302,10 +25123,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q258" t="s">
         <v>1537</v>
-      </c>
-      <c r="Q258" t="s">
-        <v>1538</v>
       </c>
       <c r="R258" t="s">
         <v>789</v>
@@ -24364,7 +25185,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="Q259" t="s">
         <v>789</v>
@@ -24426,10 +25247,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q260" t="s">
         <v>1540</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>1541</v>
       </c>
       <c r="R260" t="s">
         <v>789</v>
@@ -24485,10 +25306,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
+        <v>1541</v>
+      </c>
+      <c r="Q261" t="s">
         <v>1542</v>
-      </c>
-      <c r="Q261" t="s">
-        <v>1543</v>
       </c>
       <c r="R261" t="s">
         <v>789</v>
@@ -24547,10 +25368,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Q262" t="s">
         <v>1544</v>
-      </c>
-      <c r="Q262" t="s">
-        <v>1545</v>
       </c>
       <c r="R262" t="s">
         <v>789</v>
@@ -24609,10 +25430,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q263" t="s">
         <v>1546</v>
-      </c>
-      <c r="Q263" t="s">
-        <v>1547</v>
       </c>
       <c r="R263" t="s">
         <v>789</v>
@@ -24674,10 +25495,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q264" t="s">
         <v>1548</v>
-      </c>
-      <c r="Q264" t="s">
-        <v>1549</v>
       </c>
       <c r="R264" t="s">
         <v>789</v>
@@ -24733,10 +25554,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q265" t="s">
         <v>1550</v>
-      </c>
-      <c r="Q265" t="s">
-        <v>1551</v>
       </c>
       <c r="R265" t="s">
         <v>789</v>
@@ -24795,10 +25616,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q266" t="s">
         <v>1552</v>
-      </c>
-      <c r="Q266" t="s">
-        <v>1553</v>
       </c>
       <c r="R266" t="s">
         <v>789</v>
@@ -24857,7 +25678,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="Q267" t="s">
         <v>789</v>
@@ -24922,16 +25743,16 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Q268" t="s">
         <v>1555</v>
       </c>
-      <c r="Q268" t="s">
-        <v>1556</v>
-      </c>
       <c r="R268" t="s">
         <v>789</v>
       </c>
       <c r="S268" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="AC268" t="s">
         <v>1129</v>
@@ -24940,10 +25761,10 @@
         <v>789</v>
       </c>
       <c r="AE268" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="AO268" s="10" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -24984,10 +25805,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q269" t="s">
         <v>1557</v>
-      </c>
-      <c r="Q269" t="s">
-        <v>1558</v>
       </c>
       <c r="R269" t="s">
         <v>789</v>
@@ -25005,7 +25826,7 @@
         <v>789</v>
       </c>
       <c r="AO269" s="10" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -25049,10 +25870,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q270" t="s">
         <v>1559</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>1560</v>
       </c>
       <c r="R270" t="s">
         <v>789</v>
@@ -25117,10 +25938,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q271" t="s">
         <v>1561</v>
-      </c>
-      <c r="Q271" t="s">
-        <v>1562</v>
       </c>
       <c r="R271" t="s">
         <v>789</v>
@@ -25176,10 +25997,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Q272" t="s">
         <v>1563</v>
-      </c>
-      <c r="Q272" t="s">
-        <v>1564</v>
       </c>
       <c r="R272" t="s">
         <v>789</v>
@@ -25241,10 +26062,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
+        <v>1564</v>
+      </c>
+      <c r="Q273" t="s">
         <v>1565</v>
-      </c>
-      <c r="Q273" t="s">
-        <v>1566</v>
       </c>
       <c r="R273" t="s">
         <v>789</v>
@@ -25306,10 +26127,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
+        <v>1566</v>
+      </c>
+      <c r="Q274" t="s">
         <v>1567</v>
-      </c>
-      <c r="Q274" t="s">
-        <v>1568</v>
       </c>
       <c r="R274" t="s">
         <v>789</v>
@@ -25327,7 +26148,7 @@
         <v>789</v>
       </c>
       <c r="AO274" s="10" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -25368,10 +26189,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
+        <v>1568</v>
+      </c>
+      <c r="Q275" t="s">
         <v>1569</v>
-      </c>
-      <c r="Q275" t="s">
-        <v>1570</v>
       </c>
       <c r="R275" t="s">
         <v>789</v>
@@ -25427,10 +26248,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q276" t="s">
         <v>1571</v>
-      </c>
-      <c r="Q276" t="s">
-        <v>1572</v>
       </c>
       <c r="R276" t="s">
         <v>789</v>
@@ -25486,10 +26307,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
+        <v>1572</v>
+      </c>
+      <c r="Q277" t="s">
         <v>1573</v>
-      </c>
-      <c r="Q277" t="s">
-        <v>1574</v>
       </c>
       <c r="R277" t="s">
         <v>789</v>
@@ -25545,10 +26366,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q278" t="s">
         <v>1575</v>
-      </c>
-      <c r="Q278" t="s">
-        <v>1576</v>
       </c>
       <c r="R278" t="s">
         <v>789</v>
@@ -25571,10 +26392,10 @@
         <v>990043</v>
       </c>
       <c r="B279" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C279" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D279" t="s">
         <v>419</v>
@@ -25604,10 +26425,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q279" t="s">
         <v>1577</v>
-      </c>
-      <c r="Q279" t="s">
-        <v>1578</v>
       </c>
       <c r="R279" t="s">
         <v>789</v>
@@ -25663,10 +26484,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q280" t="s">
         <v>1579</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>1580</v>
       </c>
       <c r="R280" t="s">
         <v>789</v>
@@ -25722,10 +26543,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Q281" t="s">
         <v>1581</v>
-      </c>
-      <c r="Q281" t="s">
-        <v>1582</v>
       </c>
       <c r="R281" t="s">
         <v>789</v>
@@ -25781,10 +26602,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Q282" t="s">
         <v>1583</v>
-      </c>
-      <c r="Q282" t="s">
-        <v>1584</v>
       </c>
       <c r="R282" t="s">
         <v>789</v>
@@ -25840,10 +26661,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Q283" t="s">
         <v>1585</v>
-      </c>
-      <c r="Q283" t="s">
-        <v>1586</v>
       </c>
       <c r="R283" t="s">
         <v>789</v>
@@ -25899,10 +26720,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
+        <v>1586</v>
+      </c>
+      <c r="Q284" t="s">
         <v>1587</v>
-      </c>
-      <c r="Q284" t="s">
-        <v>1588</v>
       </c>
       <c r="R284" t="s">
         <v>789</v>
@@ -25958,10 +26779,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
+        <v>1588</v>
+      </c>
+      <c r="Q285" t="s">
         <v>1589</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>1590</v>
       </c>
       <c r="R285" t="s">
         <v>789</v>
@@ -26017,10 +26838,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Q286" t="s">
         <v>1591</v>
-      </c>
-      <c r="Q286" t="s">
-        <v>1592</v>
       </c>
       <c r="R286" t="s">
         <v>789</v>
@@ -26076,10 +26897,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
+        <v>1592</v>
+      </c>
+      <c r="Q287" t="s">
         <v>1593</v>
-      </c>
-      <c r="Q287" t="s">
-        <v>1594</v>
       </c>
       <c r="R287" t="s">
         <v>789</v>
@@ -26135,10 +26956,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Q288" t="s">
         <v>1595</v>
-      </c>
-      <c r="Q288" t="s">
-        <v>1596</v>
       </c>
       <c r="R288" t="s">
         <v>789</v>
@@ -26197,10 +27018,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q289" t="s">
         <v>1597</v>
-      </c>
-      <c r="Q289" t="s">
-        <v>1598</v>
       </c>
       <c r="R289" t="s">
         <v>789</v>
@@ -26259,10 +27080,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
+        <v>1598</v>
+      </c>
+      <c r="Q290" t="s">
         <v>1599</v>
-      </c>
-      <c r="Q290" t="s">
-        <v>1600</v>
       </c>
       <c r="R290" t="s">
         <v>789</v>
@@ -26321,10 +27142,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q291" t="s">
         <v>1601</v>
-      </c>
-      <c r="Q291" t="s">
-        <v>1602</v>
       </c>
       <c r="R291" t="s">
         <v>789</v>
@@ -26350,10 +27171,10 @@
         <v>990056</v>
       </c>
       <c r="B292" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C292" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>362</v>
@@ -26389,13 +27210,13 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="R292" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AD292" t="s">
         <v>1677</v>
-      </c>
-      <c r="AD292" t="s">
-        <v>1678</v>
       </c>
       <c r="AO292" s="9">
         <v>2986464413</v>
@@ -26406,16 +27227,16 @@
         <v>990057</v>
       </c>
       <c r="B293" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C293" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D293" t="s">
         <v>351</v>
       </c>
       <c r="E293" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F293" s="5">
         <v>34914</v>
@@ -26448,13 +27269,13 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="R293" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AD293" t="s">
         <v>1679</v>
-      </c>
-      <c r="AD293" t="s">
-        <v>1680</v>
       </c>
       <c r="AO293" s="9">
         <v>91402282</v>
@@ -26465,13 +27286,13 @@
         <v>990058</v>
       </c>
       <c r="B294" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C294" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D294" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E294" t="s">
         <v>40</v>
@@ -26507,13 +27328,13 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="R294" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AD294" t="s">
         <v>1681</v>
-      </c>
-      <c r="AD294" t="s">
-        <v>1682</v>
       </c>
       <c r="AO294" s="9">
         <v>2957661224</v>
@@ -26524,16 +27345,16 @@
         <v>990059</v>
       </c>
       <c r="B295" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C295" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D295" t="s">
         <v>342</v>
       </c>
       <c r="E295" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F295" s="5">
         <v>34884</v>
@@ -26566,13 +27387,13 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="R295" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AD295" t="s">
         <v>1683</v>
-      </c>
-      <c r="AD295" t="s">
-        <v>1684</v>
       </c>
       <c r="AO295" s="9">
         <v>2968038010</v>
@@ -26583,16 +27404,16 @@
         <v>990060</v>
       </c>
       <c r="B296" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C296" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D296" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E296" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F296" s="5">
         <v>34133</v>
@@ -26625,13 +27446,13 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="R296" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AD296" t="s">
         <v>1685</v>
-      </c>
-      <c r="AD296" t="s">
-        <v>1686</v>
       </c>
       <c r="AO296" s="9">
         <v>836016698</v>
@@ -26642,16 +27463,16 @@
         <v>990061</v>
       </c>
       <c r="B297" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C297" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D297" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E297" t="s">
         <v>1672</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1673</v>
       </c>
       <c r="F297" s="5">
         <v>34115</v>
@@ -26684,13 +27505,13 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="R297" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AD297" t="s">
         <v>1687</v>
-      </c>
-      <c r="AD297" t="s">
-        <v>1688</v>
       </c>
       <c r="AO297" s="9">
         <v>2467247654</v>
@@ -26701,16 +27522,16 @@
         <v>990062</v>
       </c>
       <c r="B298" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C298" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D298" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E298" t="s">
         <v>1674</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1675</v>
       </c>
       <c r="G298" t="s">
         <v>766</v>
@@ -26740,13 +27561,13 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="R298" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AD298" t="s">
         <v>1689</v>
-      </c>
-      <c r="AD298" t="s">
-        <v>1690</v>
       </c>
       <c r="AO298" s="9">
         <v>4445212467</v>
@@ -26757,16 +27578,16 @@
         <v>990063</v>
       </c>
       <c r="B299" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C299" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D299" t="s">
         <v>342</v>
       </c>
       <c r="E299" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F299" s="5">
         <v>35040</v>
@@ -26799,7 +27620,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="AO299" s="9">
         <v>2921353153</v>
@@ -26810,16 +27631,16 @@
         <v>990064</v>
       </c>
       <c r="B300" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C300" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D300" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E300" t="s">
         <v>1699</v>
-      </c>
-      <c r="E300" t="s">
-        <v>1700</v>
       </c>
       <c r="F300" s="5">
         <v>34311</v>
@@ -26852,13 +27673,13 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="S300" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AE300" t="s">
         <v>1727</v>
-      </c>
-      <c r="AE300" t="s">
-        <v>1728</v>
       </c>
       <c r="AO300" s="9">
         <v>1439376715</v>
@@ -26869,16 +27690,16 @@
         <v>990065</v>
       </c>
       <c r="B301" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C301" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D301" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E301" s="6" t="s">
         <v>1701</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>1702</v>
       </c>
       <c r="F301" s="5">
         <v>36707</v>
@@ -26911,13 +27732,13 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="S301" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AE301" t="s">
         <v>1729</v>
-      </c>
-      <c r="AE301" t="s">
-        <v>1730</v>
       </c>
       <c r="AO301" s="9">
         <v>1042853304</v>
@@ -26928,19 +27749,19 @@
         <v>990066</v>
       </c>
       <c r="B302" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C302" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D302" t="s">
         <v>379</v>
       </c>
       <c r="E302" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G302" t="s">
         <v>1703</v>
-      </c>
-      <c r="G302" t="s">
-        <v>1704</v>
       </c>
       <c r="H302" t="s">
         <v>764</v>
@@ -26967,13 +27788,13 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="S302" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AE302" t="s">
         <v>1731</v>
-      </c>
-      <c r="AE302" t="s">
-        <v>1732</v>
       </c>
       <c r="AO302" s="9">
         <v>2901728412</v>
@@ -26984,22 +27805,22 @@
         <v>990067</v>
       </c>
       <c r="B303" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C303" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D303" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E303" t="s">
         <v>1705</v>
-      </c>
-      <c r="E303" t="s">
-        <v>1706</v>
       </c>
       <c r="F303" s="5">
         <v>35111</v>
       </c>
       <c r="G303" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H303" t="s">
         <v>759</v>
@@ -27026,13 +27847,13 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="S303" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AE303" t="s">
         <v>1733</v>
-      </c>
-      <c r="AE303" t="s">
-        <v>1734</v>
       </c>
       <c r="AO303" s="9">
         <v>1648975177</v>
@@ -27043,16 +27864,16 @@
         <v>990068</v>
       </c>
       <c r="B304" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C304" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D304" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E304" t="s">
         <v>1708</v>
-      </c>
-      <c r="E304" t="s">
-        <v>1709</v>
       </c>
       <c r="F304" s="5">
         <v>35556</v>
@@ -27079,13 +27900,13 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="S304" t="s">
+        <v>1734</v>
+      </c>
+      <c r="AE304" t="s">
         <v>1735</v>
-      </c>
-      <c r="AE304" t="s">
-        <v>1736</v>
       </c>
       <c r="AO304" s="9">
         <v>1299470724</v>
@@ -27096,16 +27917,16 @@
         <v>990069</v>
       </c>
       <c r="B305" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C305" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D305" t="s">
         <v>394</v>
       </c>
       <c r="E305" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F305" s="5">
         <v>35468</v>
@@ -27138,13 +27959,13 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="S305" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AE305" t="s">
         <v>1737</v>
-      </c>
-      <c r="AE305" t="s">
-        <v>1738</v>
       </c>
       <c r="AO305" s="9">
         <v>2400436910</v>
@@ -27155,16 +27976,16 @@
         <v>990070</v>
       </c>
       <c r="B306" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C306" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D306" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E306" s="6" t="s">
         <v>1714</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>1715</v>
       </c>
       <c r="F306" s="5">
         <v>36623</v>
@@ -27197,13 +28018,13 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="S306" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AE306" t="s">
         <v>1739</v>
-      </c>
-      <c r="AE306" t="s">
-        <v>1740</v>
       </c>
       <c r="AO306" s="9">
         <v>3326666122</v>
@@ -27214,16 +28035,16 @@
         <v>990071</v>
       </c>
       <c r="B307" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C307" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D307" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E307" t="s">
         <v>1716</v>
-      </c>
-      <c r="E307" t="s">
-        <v>1717</v>
       </c>
       <c r="F307" s="5">
         <v>34397</v>
@@ -27256,13 +28077,13 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="S307" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AE307" t="s">
         <v>1741</v>
-      </c>
-      <c r="AE307" t="s">
-        <v>1742</v>
       </c>
       <c r="AO307" s="9">
         <v>3246815231</v>
@@ -27273,16 +28094,16 @@
         <v>990072</v>
       </c>
       <c r="B308" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D308" t="s">
         <v>1711</v>
       </c>
-      <c r="C308" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="E308" t="s">
         <v>1712</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1713</v>
       </c>
       <c r="F308" s="5">
         <v>34582</v>
@@ -27315,13 +28136,13 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="S308" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AE308" t="s">
         <v>1752</v>
-      </c>
-      <c r="AE308" t="s">
-        <v>1753</v>
       </c>
       <c r="AO308" s="9">
         <v>2239926769</v>
@@ -27332,16 +28153,16 @@
         <v>990073</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D309" s="6" t="s">
         <v>1826</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D309" s="6" t="s">
+      <c r="E309" s="6" t="s">
         <v>1827</v>
-      </c>
-      <c r="E309" s="6" t="s">
-        <v>1828</v>
       </c>
       <c r="G309" t="s">
         <v>772</v>
@@ -27371,29 +28192,2037 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
+        <v>1828</v>
+      </c>
+      <c r="S309" t="s">
         <v>1829</v>
       </c>
-      <c r="S309" t="s">
+      <c r="AE309" t="s">
         <v>1830</v>
       </c>
-      <c r="AE309" t="s">
+      <c r="AO309" s="9" t="s">
         <v>1831</v>
       </c>
-      <c r="AO309" s="9" t="s">
-        <v>1832</v>
-      </c>
     </row>
     <row r="310" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
-    </row>
-    <row r="311" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
-    </row>
-    <row r="312" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
+      <c r="A310" s="2">
+        <v>990074</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F310" s="5">
+        <v>35258</v>
+      </c>
+      <c r="G310" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H310" t="s">
+        <v>759</v>
+      </c>
+      <c r="I310" t="s">
+        <v>759</v>
+      </c>
+      <c r="J310" t="s">
+        <v>760</v>
+      </c>
+      <c r="K310" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L310">
+        <v>901</v>
+      </c>
+      <c r="M310">
+        <v>1</v>
+      </c>
+      <c r="N310">
+        <v>3</v>
+      </c>
+      <c r="O310" t="b">
+        <v>1</v>
+      </c>
+      <c r="P310" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="311" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>990075</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E311" s="12" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F311" s="5">
+        <v>35670</v>
+      </c>
+      <c r="G311" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H311" t="s">
+        <v>762</v>
+      </c>
+      <c r="I311" t="s">
+        <v>762</v>
+      </c>
+      <c r="J311" t="s">
+        <v>760</v>
+      </c>
+      <c r="K311" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L311">
+        <v>901</v>
+      </c>
+      <c r="M311">
+        <v>2</v>
+      </c>
+      <c r="N311">
+        <v>3</v>
+      </c>
+      <c r="O311" t="b">
+        <v>1</v>
+      </c>
+      <c r="P311" t="s">
+        <v>2235</v>
+      </c>
+      <c r="S311" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AE311" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="312" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>990076</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D312" s="13" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E312" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F312" s="5">
+        <v>35224</v>
+      </c>
+      <c r="G312" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H312" t="s">
+        <v>763</v>
+      </c>
+      <c r="I312" t="s">
+        <v>763</v>
+      </c>
+      <c r="J312" t="s">
+        <v>760</v>
+      </c>
+      <c r="K312" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L312">
+        <v>901</v>
+      </c>
+      <c r="M312">
+        <v>3</v>
+      </c>
+      <c r="N312">
+        <v>3</v>
+      </c>
+      <c r="O312" t="b">
+        <v>1</v>
+      </c>
+      <c r="P312" t="s">
+        <v>2236</v>
+      </c>
+      <c r="S312" t="s">
+        <v>2389</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>2390</v>
+      </c>
     </row>
     <row r="313" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
+      <c r="A313" s="2">
+        <v>990077</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D313" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E313" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G313" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H313" t="s">
+        <v>764</v>
+      </c>
+      <c r="I313" t="s">
+        <v>765</v>
+      </c>
+      <c r="J313" t="s">
+        <v>760</v>
+      </c>
+      <c r="K313" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L313">
+        <v>901</v>
+      </c>
+      <c r="M313">
+        <v>4</v>
+      </c>
+      <c r="N313">
+        <v>3</v>
+      </c>
+      <c r="O313" t="b">
+        <v>1</v>
+      </c>
+      <c r="P313" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="314" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>990078</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D314" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F314" s="5">
+        <v>33218</v>
+      </c>
+      <c r="G314" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H314" t="s">
+        <v>764</v>
+      </c>
+      <c r="I314" t="s">
+        <v>767</v>
+      </c>
+      <c r="J314" t="s">
+        <v>760</v>
+      </c>
+      <c r="K314" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L314">
+        <v>901</v>
+      </c>
+      <c r="M314">
+        <v>5</v>
+      </c>
+      <c r="N314">
+        <v>3</v>
+      </c>
+      <c r="O314" t="b">
+        <v>1</v>
+      </c>
+      <c r="P314" t="s">
+        <v>2238</v>
+      </c>
+      <c r="S314" t="s">
+        <v>2391</v>
+      </c>
+      <c r="AE314" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="315" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>990079</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D315" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E315" s="14" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F315" s="5">
+        <v>35365</v>
+      </c>
+      <c r="G315" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H315" t="s">
+        <v>764</v>
+      </c>
+      <c r="I315" t="s">
+        <v>765</v>
+      </c>
+      <c r="J315" t="s">
+        <v>760</v>
+      </c>
+      <c r="K315" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L315">
+        <v>901</v>
+      </c>
+      <c r="M315">
+        <v>4</v>
+      </c>
+      <c r="N315">
+        <v>3</v>
+      </c>
+      <c r="O315" t="b">
+        <v>1</v>
+      </c>
+      <c r="P315" t="s">
+        <v>2239</v>
+      </c>
+      <c r="S315" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AE315" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="316" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>990080</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E316" s="14" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F316" s="5">
+        <v>35423</v>
+      </c>
+      <c r="G316" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H316" t="s">
+        <v>759</v>
+      </c>
+      <c r="I316" t="s">
+        <v>759</v>
+      </c>
+      <c r="J316" t="s">
+        <v>760</v>
+      </c>
+      <c r="K316" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L316">
+        <v>902</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316">
+        <v>3</v>
+      </c>
+      <c r="O316" t="b">
+        <v>1</v>
+      </c>
+      <c r="P316" t="s">
+        <v>2262</v>
+      </c>
+      <c r="S316" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AE316" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="317" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>990081</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D317" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F317" s="5">
+        <v>33962</v>
+      </c>
+      <c r="G317" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H317" t="s">
+        <v>762</v>
+      </c>
+      <c r="I317" t="s">
+        <v>762</v>
+      </c>
+      <c r="J317" t="s">
+        <v>760</v>
+      </c>
+      <c r="K317" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L317">
+        <v>902</v>
+      </c>
+      <c r="M317">
+        <v>2</v>
+      </c>
+      <c r="N317">
+        <v>3</v>
+      </c>
+      <c r="O317" t="b">
+        <v>1</v>
+      </c>
+      <c r="P317" t="s">
+        <v>2263</v>
+      </c>
+      <c r="S317" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AE317" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="318" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>990082</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D318" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F318" s="5">
+        <v>34035</v>
+      </c>
+      <c r="G318" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H318" t="s">
+        <v>763</v>
+      </c>
+      <c r="I318" t="s">
+        <v>763</v>
+      </c>
+      <c r="J318" t="s">
+        <v>760</v>
+      </c>
+      <c r="K318" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L318">
+        <v>902</v>
+      </c>
+      <c r="M318">
+        <v>3</v>
+      </c>
+      <c r="N318">
+        <v>3</v>
+      </c>
+      <c r="O318" t="b">
+        <v>1</v>
+      </c>
+      <c r="P318" t="s">
+        <v>2264</v>
+      </c>
+      <c r="S318" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AE318" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="319" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>990083</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D319" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E319" s="12" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G319" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H319" t="s">
+        <v>764</v>
+      </c>
+      <c r="I319" t="s">
+        <v>765</v>
+      </c>
+      <c r="J319" t="s">
+        <v>760</v>
+      </c>
+      <c r="K319" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L319">
+        <v>902</v>
+      </c>
+      <c r="M319">
+        <v>4</v>
+      </c>
+      <c r="N319">
+        <v>3</v>
+      </c>
+      <c r="O319" t="b">
+        <v>1</v>
+      </c>
+      <c r="P319" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>990084</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D320" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F320" s="5">
+        <v>34455</v>
+      </c>
+      <c r="G320" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H320" t="s">
+        <v>764</v>
+      </c>
+      <c r="I320" t="s">
+        <v>767</v>
+      </c>
+      <c r="J320" t="s">
+        <v>760</v>
+      </c>
+      <c r="K320" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L320">
+        <v>902</v>
+      </c>
+      <c r="M320">
+        <v>5</v>
+      </c>
+      <c r="N320">
+        <v>3</v>
+      </c>
+      <c r="O320" t="b">
+        <v>1</v>
+      </c>
+      <c r="P320" t="s">
+        <v>2266</v>
+      </c>
+      <c r="S320" t="s">
+        <v>2401</v>
+      </c>
+      <c r="AE320" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>990085</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G321" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H321" t="s">
+        <v>759</v>
+      </c>
+      <c r="I321" t="s">
+        <v>759</v>
+      </c>
+      <c r="J321" t="s">
+        <v>760</v>
+      </c>
+      <c r="K321" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L321">
+        <v>903</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+      <c r="N321">
+        <v>3</v>
+      </c>
+      <c r="O321" t="b">
+        <v>1</v>
+      </c>
+      <c r="P321" t="s">
+        <v>2283</v>
+      </c>
+      <c r="S321" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AE321" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>990086</v>
+      </c>
+      <c r="B322" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G322" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H322" t="s">
+        <v>762</v>
+      </c>
+      <c r="I322" t="s">
+        <v>762</v>
+      </c>
+      <c r="J322" t="s">
+        <v>760</v>
+      </c>
+      <c r="K322" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L322">
+        <v>903</v>
+      </c>
+      <c r="M322">
+        <v>2</v>
+      </c>
+      <c r="N322">
+        <v>3</v>
+      </c>
+      <c r="O322" t="b">
+        <v>1</v>
+      </c>
+      <c r="P322" t="s">
+        <v>2284</v>
+      </c>
+      <c r="S322" t="s">
+        <v>2405</v>
+      </c>
+      <c r="AE322" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>990087</v>
+      </c>
+      <c r="B323" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F323" s="5">
+        <v>35496</v>
+      </c>
+      <c r="G323" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H323" t="s">
+        <v>763</v>
+      </c>
+      <c r="I323" t="s">
+        <v>763</v>
+      </c>
+      <c r="J323" t="s">
+        <v>760</v>
+      </c>
+      <c r="K323" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L323">
+        <v>903</v>
+      </c>
+      <c r="M323">
+        <v>3</v>
+      </c>
+      <c r="N323">
+        <v>3</v>
+      </c>
+      <c r="O323" t="b">
+        <v>1</v>
+      </c>
+      <c r="P323" t="s">
+        <v>2285</v>
+      </c>
+      <c r="S323" t="s">
+        <v>2407</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>990088</v>
+      </c>
+      <c r="B324" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D324" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F324" s="5">
+        <v>35152</v>
+      </c>
+      <c r="G324" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H324" t="s">
+        <v>764</v>
+      </c>
+      <c r="I324" t="s">
+        <v>765</v>
+      </c>
+      <c r="J324" t="s">
+        <v>760</v>
+      </c>
+      <c r="K324" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L324">
+        <v>903</v>
+      </c>
+      <c r="M324">
+        <v>4</v>
+      </c>
+      <c r="N324">
+        <v>3</v>
+      </c>
+      <c r="O324" t="b">
+        <v>1</v>
+      </c>
+      <c r="P324" t="s">
+        <v>2286</v>
+      </c>
+      <c r="S324" t="s">
+        <v>2409</v>
+      </c>
+      <c r="AE324" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>990089</v>
+      </c>
+      <c r="B325" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D325" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F325" s="5">
+        <v>35474</v>
+      </c>
+      <c r="G325" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H325" t="s">
+        <v>764</v>
+      </c>
+      <c r="I325" t="s">
+        <v>767</v>
+      </c>
+      <c r="J325" t="s">
+        <v>760</v>
+      </c>
+      <c r="K325" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L325">
+        <v>903</v>
+      </c>
+      <c r="M325">
+        <v>5</v>
+      </c>
+      <c r="N325">
+        <v>3</v>
+      </c>
+      <c r="O325" t="b">
+        <v>1</v>
+      </c>
+      <c r="P325" t="s">
+        <v>2287</v>
+      </c>
+      <c r="S325" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>990090</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D326" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F326" s="5">
+        <v>34711</v>
+      </c>
+      <c r="G326" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H326" t="s">
+        <v>764</v>
+      </c>
+      <c r="I326" t="s">
+        <v>765</v>
+      </c>
+      <c r="J326" t="s">
+        <v>760</v>
+      </c>
+      <c r="K326" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L326">
+        <v>903</v>
+      </c>
+      <c r="M326